--- a/base_hub_github.xlsx
+++ b/base_hub_github.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupoultracloud-my.sharepoint.com/personal/thiago_junior_ipiranga_ipiranga/Documents/Área de Trabalho/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{3320A2BE-8F4A-4065-A5C4-14A90881F5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52500066-4A11-45E3-8E8F-A3FCF67C188D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{48A76410-BA78-451E-9802-96102DB72A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DAD9EEB7-8B62-4596-8CD7-EFD36A71CC90}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DBCB726F-1808-40DF-8363-B7B0977613A8}"/>
   </bookViews>
   <sheets>
     <sheet name="query" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="query__1" localSheetId="0" hidden="1">query!$A$1:$S$91</definedName>
+    <definedName name="query__2" localSheetId="0" hidden="1">query!$A$1:$S$92</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -24,14 +24,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{15252B54-F5D6-479A-867E-1555C98B93F5}" odcFile="C:\Users\thiago.junior\Downloads\query (1).iqy" keepAlive="1" name="query (1)" type="5" refreshedVersion="8" minRefreshableVersion="3" saveData="1">
+  <connection id="1" xr16:uid="{07E685A8-FC03-4CED-99D1-0B7458F1B9A1}" odcFile="C:\Users\thiago.junior\Downloads\query (2).iqy" keepAlive="1" name="query (2)" type="5" refreshedVersion="8" minRefreshableVersion="3" saveData="1">
     <dbPr connection="Provider=Microsoft.Office.List.OLEDB.2.0;Data Source=&quot;&quot;;ApplicationName=Excel;Version=12.0.0.0" command="&lt;LIST&gt;&lt;VIEWGUID&gt;A45175CA-9778-441D-B066-D8555F7DBBE4&lt;/VIEWGUID&gt;&lt;LISTNAME&gt;06be0e4e-018b-4cef-a562-4db2a9a684e1&lt;/LISTNAME&gt;&lt;LISTWEB&gt;https://grupoultracloud-my.sharepoint.com/personal/roberta_rocha_ipiranga_ipiranga/_vti_bin&lt;/LISTWEB&gt;&lt;LISTSUBWEB&gt;&lt;/LISTSUBWEB&gt;&lt;ROOTFOLDER&gt;&lt;/ROOTFOLDER&gt;&lt;/LIST&gt;" commandType="5"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="268">
   <si>
     <t>Título</t>
   </si>
@@ -314,195 +314,201 @@
     <t xml:space="preserve">Posto relata erro na impressão do slip e pede para que chequemos se já a transação foi compensada. Orientei o processo no portal mas de toda forma sanei a duvida pontualmente. </t>
   </si>
   <si>
+    <t>Auto Posto Parque Novo Mundo I Ltda</t>
+  </si>
+  <si>
     <t>Revenda nos acionado por cliente possui bloqueio por suspeita de fraudes e questiona a documentação solicitada via e-mail. Orientado a enviar a documentação e acionar o suporte kmv b2c</t>
   </si>
   <si>
     <t>B2C - Casos</t>
   </si>
   <si>
+    <t>Md Auto Posto Ltda</t>
+  </si>
+  <si>
+    <t>CT Cassio solicita treinamento para o posto com objetivo de mostrar o valor e ferramentas do KMV pois o posto solicita o cancelamento do PPI</t>
+  </si>
+  <si>
+    <t>Treinamento Produtos Digitais</t>
+  </si>
+  <si>
+    <t>Leao Azul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Posto com duvidas sobre os descontos aplicados na Black Friday. Informado o caminho no portal para eles acompanharem.  </t>
+  </si>
+  <si>
+    <t>Revendedor solicita confirmação de transação.</t>
+  </si>
+  <si>
+    <t>Posto Piracema Ltda</t>
+  </si>
+  <si>
+    <t>Solicitado apoio ao Yago e Dioni (Quality/Web Posto) para verificar erro no PDV fixo do Posto Piracema Ltda. O Conecta já está instalado no PDV fixo, porém ao tentar realizar transações KMV, o sistema apresenta mensagem de erro. Revendedor informou que contatou o representante local, mas não obteve retorno.</t>
+  </si>
+  <si>
+    <t>rm saudade</t>
+  </si>
+  <si>
+    <t>inserção de lat long</t>
+  </si>
+  <si>
+    <t>Ajuste Lat Long</t>
+  </si>
+  <si>
+    <t>G.N. Urbano Sao Jose Rio Preto</t>
+  </si>
+  <si>
+    <t>D M E Comercio De Combustiveis Ltda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revendedor Antonio, relatou dificuldades para concluir a instalação do Conecta no PDV fixo com o representante local. Não possui número de chamado ou protocolo. Posto já possui adesão ao Conecta. Caso encaminhado por e-mail para o Luis e Gabriel da automação Meta. </t>
+  </si>
+  <si>
+    <t>G.N. Urbano Londrina</t>
+  </si>
+  <si>
+    <t>Abast Fagundes Ltda</t>
+  </si>
+  <si>
+    <t>Apresentei o projeto “Oferta é Sua Desconto” ao revendedor George, que informou não ter interesse. Justificativa: os preços dos combustíveis estão muito elevados, impossibilitando aplicação de desconto.</t>
+  </si>
+  <si>
+    <t>Negociação</t>
+  </si>
+  <si>
+    <t>Comercio De Combustiveis Macieira Ltda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrei em contato com o revendedor Felipe, para darmos inicio ao processo de ativação do posto no KMV. Passei todas as instruções iniciais para ele. </t>
+  </si>
+  <si>
+    <t>KMV</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>Auto Posto Batelao Porto Feliz Ltda.</t>
+  </si>
+  <si>
+    <t>A rede CURTI/BLUE  manifestou insatisfação porque as ofertas cadastradas não estão refletindo nos descontos para o consumidor final. Para contornar a situação, a Andrea optou por cadastrar individualmente as ofertas em cada posto, e estamos acompanhando o andamento</t>
+  </si>
+  <si>
+    <t>A pedido a Poliana, consultora de trade, tratamos o caso do Saulo Bento da Cunha - CPF 579.831.356-53 que não conseguia fazer as transações via KMV. Mandamos o caso para o time de Preensão a Fraude onde foi resolvido.</t>
+  </si>
+  <si>
+    <t>Prevenção Fraudes</t>
+  </si>
+  <si>
+    <t>B2C - Transação Negada</t>
+  </si>
+  <si>
+    <t>Petro Rio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eliane informa que o consunsumidor não consegue efetuar o pagamento a tela fica rodando e expira antes de concluir. </t>
+  </si>
+  <si>
+    <t>G A Com De Derivados De Petroleo Ltda</t>
+  </si>
+  <si>
+    <t>Transação cancelada</t>
+  </si>
+  <si>
+    <t>Comercial Recife - Comercio De Derivado</t>
+  </si>
+  <si>
+    <t>Confirmação do e-mail de login: americo.construtex@gmail.com</t>
+  </si>
+  <si>
+    <t>G.N. Urbano Recife</t>
+  </si>
+  <si>
+    <t>Auto Posto Ilha Negra Ltda</t>
+  </si>
+  <si>
+    <t>Solicitação de alteração de e-mail para login no Portal Parceiro KMV (postoilhaguaruja@gmail.com), concluída com sucesso via WhatsApp (+55 13 99203-2569) com Mauricio.</t>
+  </si>
+  <si>
+    <t>G.N. Urbano Sp Abc</t>
+  </si>
+  <si>
+    <t>POSTO DE PONTA LTDA</t>
+  </si>
+  <si>
+    <t>Solicitação de alteração de e-mail para login no Portal Parceiro KMV (postodeponta@gmail.com), realizada com sucesso via WhatsApp pelo consultor Thainã</t>
+  </si>
+  <si>
+    <t>Revendedora solic o cancelamento do KMV</t>
+  </si>
+  <si>
+    <t>Dúvida PPI</t>
+  </si>
+  <si>
+    <t>Revendedora solicitação de vendas estornadas</t>
+  </si>
+  <si>
+    <t>Karserv Combustiveis Lubs E Serv Lt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solicita conformação da taxa de transação em dinheiro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auto Posto Comercio De Combustiveis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revendedora solicita revisão das taxas de transação em dinheiro </t>
+  </si>
+  <si>
+    <t>Auto Posto Esquina Ltda</t>
+  </si>
+  <si>
+    <t>Revendedora solici revisão de MDR</t>
+  </si>
+  <si>
+    <t>Auto Posto De Combustivel Flaming</t>
+  </si>
+  <si>
+    <t>Apresentação da OFS Desconto</t>
+  </si>
+  <si>
+    <t>Torre</t>
+  </si>
+  <si>
+    <t>AP Transportadora SAVANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revendedor relata que etsá com problema na automação </t>
+  </si>
+  <si>
+    <t>Posto De Combustiveis Jardins Eireli</t>
+  </si>
+  <si>
+    <t>Revendedor reporta instabilidade no APP</t>
+  </si>
+  <si>
+    <t>Vw - Comercio De Combustiveis Ltda</t>
+  </si>
+  <si>
+    <t>Auto Posto Ipanema Ltda Epp</t>
+  </si>
+  <si>
+    <t>Posto Ideal Setor Leste Planaltina Ltda</t>
+  </si>
+  <si>
+    <t>Posto Antonelli E VItorino America Ltda</t>
+  </si>
+  <si>
+    <t>A P De Serv Kory Ltda</t>
+  </si>
+  <si>
+    <t>Posto informou falha na impressão do slip da transação (25/11/2025, R$223,04), mas confirmamos no portal que a transação foi efetivada e orientamos sobre o procedimento no Portal Parceiros.</t>
+  </si>
+  <si>
     <t>G.N. Urbano Sp Leste</t>
   </si>
   <si>
-    <t>Md Auto Posto Ltda</t>
-  </si>
-  <si>
-    <t>CT Cassio solicita treinamento para o posto com objetivo de mostrar o valor e ferramentas do KMV pois o posto solicita o cancelamento do PPI</t>
-  </si>
-  <si>
-    <t>Treinamento Produtos Digitais</t>
-  </si>
-  <si>
-    <t>Leao Azul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Posto com duvidas sobre os descontos aplicados na Black Friday. Informado o caminho no portal para eles acompanharem.  </t>
-  </si>
-  <si>
-    <t>Revendedor solicita confirmação de transação.</t>
-  </si>
-  <si>
-    <t>Posto Piracema Ltda</t>
-  </si>
-  <si>
-    <t>Solicitado apoio ao Yago e Dioni (Quality/Web Posto) para verificar erro no PDV fixo do Posto Piracema Ltda. O Conecta já está instalado no PDV fixo, porém ao tentar realizar transações KMV, o sistema apresenta mensagem de erro. Revendedor informou que contatou o representante local, mas não obteve retorno.</t>
-  </si>
-  <si>
-    <t>rm saudade</t>
-  </si>
-  <si>
-    <t>inserção de lat long</t>
-  </si>
-  <si>
-    <t>Ajuste Lat Long</t>
-  </si>
-  <si>
-    <t>G.N. Urbano Sao Jose Rio Preto</t>
-  </si>
-  <si>
-    <t>D M E Comercio De Combustiveis Ltda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revendedor Antonio, relatou dificuldades para concluir a instalação do Conecta no PDV fixo com o representante local. Não possui número de chamado ou protocolo. Posto já possui adesão ao Conecta. Caso encaminhado por e-mail para o Luis e Gabriel da automação Meta. </t>
-  </si>
-  <si>
-    <t>G.N. Urbano Londrina</t>
-  </si>
-  <si>
-    <t>Abast Fagundes Ltda</t>
-  </si>
-  <si>
-    <t>Apresentei o projeto “Oferta é Sua Desconto” ao revendedor George, que informou não ter interesse. Justificativa: os preços dos combustíveis estão muito elevados, impossibilitando aplicação de desconto.</t>
-  </si>
-  <si>
-    <t>Negociação</t>
-  </si>
-  <si>
-    <t>Comercio De Combustiveis Macieira Ltda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entrei em contato com o revendedor Felipe, para darmos inicio ao processo de ativação do posto no KMV. Passei todas as instruções iniciais para ele. </t>
-  </si>
-  <si>
-    <t>KMV</t>
-  </si>
-  <si>
-    <t>CN</t>
-  </si>
-  <si>
-    <t>Auto Posto Batelao Porto Feliz Ltda.</t>
-  </si>
-  <si>
-    <t>A rede CURTI/BLUE  manifestou insatisfação porque as ofertas cadastradas não estão refletindo nos descontos para o consumidor final. Para contornar a situação, a Andrea optou por cadastrar individualmente as ofertas em cada posto, e estamos acompanhando o andamento</t>
-  </si>
-  <si>
-    <t>A pedido a Poliana, consultora de trade, tratamos o caso do Saulo Bento da Cunha - CPF 579.831.356-53 que não conseguia fazer as transações via KMV. Mandamos o caso para o time de Preensão a Fraude onde foi resolvido.</t>
-  </si>
-  <si>
-    <t>Prevenção Fraudes</t>
-  </si>
-  <si>
-    <t>B2C - Transação Negada</t>
-  </si>
-  <si>
-    <t>Petro Rio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eliane informa que o consunsumidor não consegue efetuar o pagamento a tela fica rodando e expira antes de concluir. </t>
-  </si>
-  <si>
-    <t>G A Com De Derivados De Petroleo Ltda</t>
-  </si>
-  <si>
-    <t>Transação cancelada</t>
-  </si>
-  <si>
-    <t>Comercial Recife - Comercio De Derivado</t>
-  </si>
-  <si>
-    <t>Confirmação do e-mail de login: americo.construtex@gmail.com</t>
-  </si>
-  <si>
-    <t>G.N. Urbano Recife</t>
-  </si>
-  <si>
-    <t>Auto Posto Ilha Negra Ltda</t>
-  </si>
-  <si>
-    <t>Solicitação de alteração de e-mail para login no Portal Parceiro KMV (postoilhaguaruja@gmail.com), concluída com sucesso via WhatsApp (+55 13 99203-2569) com Mauricio.</t>
-  </si>
-  <si>
-    <t>POSTO DE PONTA LTDA</t>
-  </si>
-  <si>
-    <t>Solicitação de alteração de e-mail para login no Portal Parceiro KMV (postodeponta@gmail.com), realizada com sucesso via WhatsApp pelo consultor Thainã</t>
-  </si>
-  <si>
-    <t>Revendedora solic o cancelamento do KMV</t>
-  </si>
-  <si>
-    <t>Dúvida PPI</t>
-  </si>
-  <si>
-    <t>Revendedora solicitação de vendas estornadas</t>
-  </si>
-  <si>
-    <t>Karserv Combustiveis Lubs E Serv Lt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solicita conformação da taxa de transação em dinheiro </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auto Posto Comercio De Combustiveis </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revendedora solicita revisão das taxas de transação em dinheiro </t>
-  </si>
-  <si>
-    <t>Auto Posto Esquina Ltda</t>
-  </si>
-  <si>
-    <t>Revendedora solici revisão de MDR</t>
-  </si>
-  <si>
-    <t>Auto Posto De Combustivel Flaming</t>
-  </si>
-  <si>
-    <t>Apresentação da OFS Desconto</t>
-  </si>
-  <si>
-    <t>Torre</t>
-  </si>
-  <si>
-    <t>AP Transportadora SAVANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revendedor relata que etsá com problema na automação </t>
-  </si>
-  <si>
-    <t>Posto De Combustiveis Jardins Eireli</t>
-  </si>
-  <si>
-    <t>Revendedor reporta instabilidade no APP</t>
-  </si>
-  <si>
-    <t>Vw - Comercio De Combustiveis Ltda</t>
-  </si>
-  <si>
-    <t>Auto Posto Ipanema Ltda Epp</t>
-  </si>
-  <si>
-    <t>Posto Ideal Setor Leste Planaltina Ltda</t>
-  </si>
-  <si>
-    <t>Posto Antonelli E VItorino America Ltda</t>
-  </si>
-  <si>
-    <t>A P De Serv Kory Ltda</t>
-  </si>
-  <si>
-    <t>Posto informou falha na impressão do slip da transação (25/11/2025, R$223,04), mas confirmamos no portal que a transação foi efetivada e orientamos sobre o procedimento no Portal Parceiros.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Auto Posto Do Trabalho Maracana Ltda </t>
   </si>
   <si>
@@ -518,12 +524,12 @@
     <t>Revendedora recla de vendas estornadas devido instabilidade no APP</t>
   </si>
   <si>
+    <t>Posto Ilha Guaruja Ltda</t>
+  </si>
+  <si>
     <t>Fomos acionados via WhatsApp pelo consultor Wilson Neto. O posto Coesa Auto Posto Ltda (CNPJ: 62.236.617/0001-68) informou que a transação KMV (ABA-204859504, R$ 66,81, 25/11/2025 às 17:29) foi estornada sem impressão do slip. Cliente recusou nova tentativa e funcionário arcou com a diferença. Solicitado estorno pontual em confiança ao posto, e o time financeiro irá realizar o ressarcimento na próxima semana.</t>
   </si>
   <si>
-    <t>G.N. Urbano Ribeirao Preto</t>
-  </si>
-  <si>
     <t>Auto Shoping</t>
   </si>
   <si>
@@ -623,9 +629,6 @@
     <t xml:space="preserve">Solicitação via CT de ajuste Lat Long ( Karina Silva) </t>
   </si>
   <si>
-    <t>G.N. Urbano Sp Abc</t>
-  </si>
-  <si>
     <t>Posto Divino Ltda</t>
   </si>
   <si>
@@ -831,6 +834,12 @@
   </si>
   <si>
     <t>André</t>
+  </si>
+  <si>
+    <t>Posto De Combustiveis Mln Sabara Ltda</t>
+  </si>
+  <si>
+    <t>Após solicitação da gerente, identifiquei no BKO que o lat/long do posto não estava cadastrado, realizei a inclusão, testei e a opção de favoritar o posto já está disponíve</t>
   </si>
 </sst>
 </file>
@@ -1442,7 +1451,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="query (1)" backgroundRefresh="0" connectionId="1" xr16:uid="{E1090433-15B5-409F-9DE0-C99E8F738EBB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="query (2)" backgroundRefresh="0" connectionId="1" xr16:uid="{62E6E605-AEF4-4F51-B168-014D49965AF3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="20">
     <queryTableFields count="19">
       <queryTableField id="10" name="Analista" tableColumnId="1"/>
@@ -1470,28 +1479,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FD89F261-BF48-4261-B498-FE66AEC28CCB}" name="Tabela_query__1" displayName="Tabela_query__1" ref="A1:S91" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:S91" xr:uid="{FD89F261-BF48-4261-B498-FE66AEC28CCB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C4966348-93A9-45D4-8B3A-2EFFB7193508}" name="Tabela_query__2" displayName="Tabela_query__2" ref="A1:S92" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:S92" xr:uid="{C4966348-93A9-45D4-8B3A-2EFFB7193508}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{F96A4D2A-FECE-4578-ADBD-4BEF60978A0F}" uniqueName="Analista" name="Analista" queryTableFieldId="10" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{AC5C57BE-5F05-4E0F-BF87-C381CDDF59E5}" uniqueName="SubClassifica_x005f_x00e7__x005f_x00e3_o" name="Sub Classificação" queryTableFieldId="15" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{470A5283-5B09-4849-BD6B-286499ECD5DD}" uniqueName="Motivo" name="Motivo" queryTableFieldId="11" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{2251CC6B-07DF-4193-A4C1-2015DA8F507C}" uniqueName="Data" name="Data Inicio" queryTableFieldId="2" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{12AA5FEC-A369-4917-8DB4-AB9BBC8AD7EF}" uniqueName="CNPJ" name="CNPJ" queryTableFieldId="3" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{1200590B-9E41-4D4D-BDB6-016C7188D527}" uniqueName="Raz_x005f_x00e3_oSocial" name="Razão Social" queryTableFieldId="4" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{6E863C65-8A5B-4EBE-B51E-EB67E31BEAF4}" uniqueName="Descri_x005f_x00e7__x005f_x00e3_o" name="Descrição" queryTableFieldId="5" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{018A4368-CF5B-4D30-90A5-F241F59EA356}" uniqueName="FCR" name="FCR" queryTableFieldId="7" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{033C6CF6-A6C9-406F-A688-76FFB099AF2A}" uniqueName="Origemdocontato" name="Área responsável pela resolução" queryTableFieldId="8" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{893BDA0C-20D4-41BC-BFF6-7B09FA1A3784}" uniqueName="Origemdocontato0" name="Origem do contato" queryTableFieldId="9" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{7B8A43A6-4D1D-4D94-BACF-905F149BD441}" uniqueName="Tipodecontato" name="Tipo de contato" queryTableFieldId="14" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{DAE65BD3-8C59-4D20-8152-3895A91C6776}" uniqueName="DataFim" name="Data Fim" queryTableFieldId="6" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{1F8DCB7F-F6A1-4A67-BF41-919D4238E3F7}" uniqueName="GN" name="GN" queryTableFieldId="12" dataDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{EC2D7053-7BB7-4C44-9E64-9349A4E27BCD}" uniqueName="Solicitante" name="Solicitante" queryTableFieldId="13" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{7D375FE7-51C1-4730-AF16-BE15B387D190}" uniqueName="Title" name="Título" queryTableFieldId="1" dataDxfId="3"/>
-    <tableColumn id="16" xr3:uid="{841FF54B-2FC4-4A94-A4E2-F55EE500B29F}" uniqueName="_x005f_x0024_Resources_x005f_x003a_core_x002" name="Status de liberação" queryTableFieldId="16" dataDxfId="2"/>
-    <tableColumn id="17" xr3:uid="{E8C032C0-B391-4E1D-9613-E73960D73835}" uniqueName="_ApprovalStatus" name="Status de aprovação" queryTableFieldId="17"/>
-    <tableColumn id="18" xr3:uid="{D7F92CA8-10CD-411A-9A0C-9A3387B13CAA}" uniqueName="FSObjType" name="Tipo de Item" queryTableFieldId="19" dataDxfId="1"/>
-    <tableColumn id="19" xr3:uid="{8831D934-37BA-47E0-9EA3-45E64BA6F113}" uniqueName="FileDirRef" name="Caminho" queryTableFieldId="18" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{82AC83C3-077A-4671-9894-204E5B69990E}" uniqueName="Analista" name="Analista" queryTableFieldId="10" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{CD9E2BC0-25C1-4BBA-9C77-DE35A07E2B9E}" uniqueName="SubClassifica_x005f_x00e7__x005f_x00e3_o" name="Sub Classificação" queryTableFieldId="15" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{98F76925-8040-4C64-8A31-EC0CAD54A151}" uniqueName="Motivo" name="Motivo" queryTableFieldId="11" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{E295CCE0-CB23-44F4-8689-24FC509357B8}" uniqueName="Data" name="Data Inicio" queryTableFieldId="2" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{6E7522A2-1043-4B58-90F6-63D71D9F6109}" uniqueName="CNPJ" name="CNPJ" queryTableFieldId="3" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{66D5BC81-C25A-4BD2-809D-A47D623B39BB}" uniqueName="Raz_x005f_x00e3_oSocial" name="Razão Social" queryTableFieldId="4" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{EE9CCE34-005C-4D9D-B059-FC631DED4113}" uniqueName="Descri_x005f_x00e7__x005f_x00e3_o" name="Descrição" queryTableFieldId="5" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{B1E8DB63-B04D-40BA-8874-B33D672CE474}" uniqueName="FCR" name="FCR" queryTableFieldId="7" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{A8D4EF77-F71A-4D03-B983-9B625CF2D720}" uniqueName="Origemdocontato" name="Área responsável pela resolução" queryTableFieldId="8" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{4A250B6A-1F87-4C78-B4F7-7AA166243522}" uniqueName="Origemdocontato0" name="Origem do contato" queryTableFieldId="9" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{F3A10C12-7438-4827-BDE0-5F0420D7EC99}" uniqueName="Tipodecontato" name="Tipo de contato" queryTableFieldId="14" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{DD453EB6-0FBC-478A-BB5A-DEAAED68BB54}" uniqueName="DataFim" name="Data Fim" queryTableFieldId="6" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{B0066D87-D186-40F3-98F4-08C13A18463C}" uniqueName="GN" name="GN" queryTableFieldId="12" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{2B8B3E9A-EFE6-47EC-ABBA-708D0007A4FA}" uniqueName="Solicitante" name="Solicitante" queryTableFieldId="13" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{DA48761F-611E-440A-BB41-00A3D1437C4B}" uniqueName="Title" name="Título" queryTableFieldId="1" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{46FAB755-425E-4B6F-8AB4-154D45143386}" uniqueName="_x005f_x0024_Resources_x005f_x003a_core_x002" name="Status de liberação" queryTableFieldId="16" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{2EA6A760-37C3-4893-93F5-A0F97B0A7031}" uniqueName="_ApprovalStatus" name="Status de aprovação" queryTableFieldId="17"/>
+    <tableColumn id="18" xr3:uid="{AA421FE4-0440-4344-B490-DE4A881853EA}" uniqueName="FSObjType" name="Tipo de Item" queryTableFieldId="19" dataDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{CE688A86-6DAC-4B7A-AD10-DB6521DA9624}" uniqueName="FileDirRef" name="Caminho" queryTableFieldId="18" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1813,10 +1822,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED546D32-C132-457A-9DA7-370E86C9D406}">
-  <dimension ref="A1:S91"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C306BC93-0B71-4751-A406-DD03D86A2469}">
+  <dimension ref="A1:S92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:S92"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2664,7 +2675,7 @@
         <v>79</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D16" s="2">
         <v>45989</v>
@@ -2672,9 +2683,11 @@
       <c r="E16" s="3">
         <v>21021038000110</v>
       </c>
-      <c r="F16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="G16" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>21</v>
@@ -2688,10 +2701,10 @@
       <c r="K16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L16" s="2"/>
-      <c r="M16" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="L16" s="2">
+        <v>45992</v>
+      </c>
+      <c r="M16" s="1"/>
       <c r="N16" s="1" t="s">
         <v>27</v>
       </c>
@@ -3171,7 +3184,9 @@
       <c r="K25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L25" s="2"/>
+      <c r="L25" s="2">
+        <v>45996</v>
+      </c>
       <c r="M25" s="1" t="s">
         <v>78</v>
       </c>
@@ -3438,8 +3453,12 @@
       <c r="K30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L30" s="2"/>
-      <c r="M30" s="1"/>
+      <c r="L30" s="2">
+        <v>45992</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="N30" s="1" t="s">
         <v>27</v>
       </c>
@@ -3472,10 +3491,10 @@
         <v>2144883000139</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>21</v>
@@ -3518,7 +3537,7 @@
         <v>55</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D32" s="2">
         <v>45992</v>
@@ -3530,7 +3549,7 @@
         <v>95</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>21</v>
@@ -3585,7 +3604,7 @@
         <v>95</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>21</v>
@@ -3637,10 +3656,10 @@
         <v>689380000113</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>21</v>
@@ -3692,10 +3711,10 @@
         <v>32044415000153</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>21</v>
@@ -3747,10 +3766,10 @@
         <v>2551867000160</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>21</v>
@@ -3802,10 +3821,10 @@
         <v>36180754000118</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>21</v>
@@ -3826,7 +3845,7 @@
         <v>37</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
@@ -3857,10 +3876,10 @@
         <v>2754502000133</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>50</v>
@@ -3912,10 +3931,10 @@
         <v>10522077000770</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>21</v>
@@ -3967,10 +3986,10 @@
         <v>3156892000102</v>
       </c>
       <c r="F40" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G40" s="5" t="s">
         <v>149</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>148</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>21</v>
@@ -4022,10 +4041,10 @@
         <v>10592852000179</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>21</v>
@@ -4077,10 +4096,10 @@
         <v>57237149000106</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>21</v>
@@ -4132,10 +4151,10 @@
         <v>53875328000118</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>21</v>
@@ -4187,10 +4206,10 @@
         <v>10522077000428</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>21</v>
@@ -4242,10 +4261,10 @@
         <v>56738016000150</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>21</v>
@@ -4263,7 +4282,7 @@
         <v>45993</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="N45" s="1" t="s">
         <v>27</v>
@@ -4297,10 +4316,10 @@
         <v>24314878000160</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>21</v>
@@ -4318,10 +4337,10 @@
         <v>45993</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
@@ -4350,10 +4369,10 @@
         <v>2394473000146</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>21</v>
@@ -4405,10 +4424,10 @@
         <v>62236617000168</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>21</v>
@@ -4422,9 +4441,11 @@
       <c r="K48" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L48" s="2"/>
+      <c r="L48" s="2">
+        <v>46000</v>
+      </c>
       <c r="M48" s="1" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="N48" s="1" t="s">
         <v>116</v>
@@ -4458,10 +4479,10 @@
         <v>9241803394</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>21</v>
@@ -4513,10 +4534,10 @@
         <v>2394473000146</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>21</v>
@@ -4568,10 +4589,10 @@
         <v>2394473000146</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>21</v>
@@ -4592,7 +4613,7 @@
         <v>37</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
@@ -4623,10 +4644,10 @@
         <v>3331129000170</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>21</v>
@@ -4644,7 +4665,7 @@
         <v>45993</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="N52" s="1" t="s">
         <v>116</v>
@@ -4678,10 +4699,10 @@
         <v>77817583000172</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>50</v>
@@ -4733,10 +4754,10 @@
         <v>51829602000197</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>21</v>
@@ -4779,7 +4800,7 @@
         <v>29</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D55" s="2">
         <v>45993</v>
@@ -4788,16 +4809,16 @@
         <v>18359457000152</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>23</v>
@@ -4843,10 +4864,10 @@
         <v>29827042000182</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>21</v>
@@ -4898,10 +4919,10 @@
         <v>3331129000170</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>21</v>
@@ -4919,7 +4940,7 @@
         <v>45993</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="N57" s="1" t="s">
         <v>116</v>
@@ -4956,7 +4977,7 @@
         <v>126</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>50</v>
@@ -4999,7 +5020,7 @@
         <v>79</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D59" s="2">
         <v>45992</v>
@@ -5008,10 +5029,10 @@
         <v>19770536000114</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>50</v>
@@ -5029,7 +5050,7 @@
         <v>45992</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N59" s="1" t="s">
         <v>27</v>
@@ -5054,7 +5075,7 @@
         <v>79</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D60" s="2">
         <v>45993</v>
@@ -5063,10 +5084,10 @@
         <v>27394378000173</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>21</v>
@@ -5084,7 +5105,7 @@
         <v>45993</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N60" s="1" t="s">
         <v>27</v>
@@ -5118,10 +5139,10 @@
         <v>46892512000100</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>21</v>
@@ -5142,7 +5163,7 @@
         <v>60</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O61" s="4"/>
       <c r="P61" s="4"/>
@@ -5171,10 +5192,10 @@
         <v>4978803000176</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>21</v>
@@ -5192,7 +5213,7 @@
         <v>45994</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>195</v>
+        <v>131</v>
       </c>
       <c r="N62" s="1" t="s">
         <v>68</v>
@@ -5226,10 +5247,10 @@
         <v>11368640000175</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>21</v>
@@ -5247,10 +5268,10 @@
         <v>45988</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O63" s="4"/>
       <c r="P63" s="4"/>
@@ -5281,10 +5302,10 @@
         <v>23467987600012</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>21</v>
@@ -5336,10 +5357,10 @@
         <v>19497817000107</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>21</v>
@@ -5357,7 +5378,7 @@
         <v>45994</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N65" s="1" t="s">
         <v>116</v>
@@ -5391,10 +5412,10 @@
         <v>2279387000192</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>50</v>
@@ -5415,7 +5436,7 @@
         <v>37</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
@@ -5446,10 +5467,10 @@
         <v>27192758000206</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>21</v>
@@ -5501,10 +5522,10 @@
         <v>57717655000100</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>21</v>
@@ -5522,7 +5543,7 @@
         <v>45995</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N68" s="1" t="s">
         <v>27</v>
@@ -5547,7 +5568,7 @@
         <v>39</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D69" s="2">
         <v>45995</v>
@@ -5556,10 +5577,10 @@
         <v>7396700000196</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>50</v>
@@ -5577,7 +5598,7 @@
         <v>45995</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N69" s="1" t="s">
         <v>27</v>
@@ -5611,10 +5632,10 @@
         <v>45761173000160</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>21</v>
@@ -5666,10 +5687,10 @@
         <v>45761173000160</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>21</v>
@@ -5712,7 +5733,7 @@
         <v>55</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D72" s="2">
         <v>45995</v>
@@ -5722,7 +5743,7 @@
       </c>
       <c r="F72" s="4"/>
       <c r="G72" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>50</v>
@@ -5773,7 +5794,7 @@
         <v>70</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>21</v>
@@ -5816,7 +5837,7 @@
         <v>79</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D74" s="2">
         <v>45995</v>
@@ -5825,10 +5846,10 @@
         <v>80979107000162</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>50</v>
@@ -5846,7 +5867,7 @@
         <v>45995</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N74" s="1" t="s">
         <v>116</v>
@@ -5880,10 +5901,10 @@
         <v>2234943001429</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>50</v>
@@ -5899,7 +5920,7 @@
       </c>
       <c r="L75" s="2"/>
       <c r="M75" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N75" s="1" t="s">
         <v>68</v>
@@ -5931,10 +5952,10 @@
         <v>61620792000191</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>21</v>
@@ -5986,10 +6007,10 @@
         <v>12645422000101</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>50</v>
@@ -6007,7 +6028,7 @@
         <v>45995</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>195</v>
+        <v>131</v>
       </c>
       <c r="N77" s="1" t="s">
         <v>27</v>
@@ -6041,10 +6062,10 @@
         <v>9164791001646</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>21</v>
@@ -6096,16 +6117,16 @@
         <v>72374952000186</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>50</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>23</v>
@@ -6115,7 +6136,7 @@
       </c>
       <c r="L79" s="2"/>
       <c r="M79" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N79" s="1" t="s">
         <v>27</v>
@@ -6149,16 +6170,16 @@
         <v>12074139000169</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>23</v>
@@ -6204,10 +6225,10 @@
         <v>5815156000144</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>50</v>
@@ -6259,10 +6280,10 @@
         <v>55699369000126</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>21</v>
@@ -6280,7 +6301,7 @@
         <v>45996</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N82" s="1"/>
       <c r="O82" s="4"/>
@@ -6312,10 +6333,10 @@
         <v>4785105000154</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>50</v>
@@ -6365,10 +6386,10 @@
         <v>30455952000160</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>50</v>
@@ -6409,7 +6430,7 @@
         <v>55</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D85" s="2">
         <v>45996</v>
@@ -6418,16 +6439,16 @@
         <v>29404716000306</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>50</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>35</v>
@@ -6471,10 +6492,10 @@
         <v>48227957000100</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>21</v>
@@ -6526,10 +6547,10 @@
         <v>47545858000103</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>21</v>
@@ -6547,7 +6568,7 @@
         <v>45994</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N87" s="1" t="s">
         <v>27</v>
@@ -6581,10 +6602,10 @@
         <v>52275228000198</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>50</v>
@@ -6602,7 +6623,7 @@
         <v>45996</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N88" s="1" t="s">
         <v>27</v>
@@ -6632,10 +6653,10 @@
         <v>37654527000140</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>21</v>
@@ -6653,7 +6674,7 @@
         <v>45999</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="N89" s="1" t="s">
         <v>27</v>
@@ -6687,10 +6708,10 @@
         <v>45132315000120</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>21</v>
@@ -6708,10 +6729,10 @@
         <v>45996</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>195</v>
+        <v>131</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O90" s="4"/>
       <c r="P90" s="4"/>
@@ -6727,7 +6748,7 @@
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>55</v>
@@ -6742,10 +6763,10 @@
         <v>80979107000162</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>21</v>
@@ -6763,7 +6784,7 @@
         <v>45996</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N91" s="1" t="s">
         <v>116</v>
@@ -6777,6 +6798,61 @@
         <v>31</v>
       </c>
       <c r="S91" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D92" s="2">
+        <v>45999</v>
+      </c>
+      <c r="E92" s="3">
+        <v>57832654000107</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L92" s="2">
+        <v>45999</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="N92" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O92" s="4"/>
+      <c r="P92" s="4"/>
+      <c r="Q92">
+        <v>0</v>
+      </c>
+      <c r="R92" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S92" s="4" t="s">
         <v>30</v>
       </c>
     </row>

--- a/base_hub_github.xlsx
+++ b/base_hub_github.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupoultracloud-my.sharepoint.com/personal/thiago_junior_ipiranga_ipiranga/Documents/Área de Trabalho/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48A76410-BA78-451E-9802-96102DB72A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D05D66BE-E8AB-4C3C-8146-1146D659B0AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DBCB726F-1808-40DF-8363-B7B0977613A8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9D224163-41A6-4CCD-A590-FD52C6760815}"/>
   </bookViews>
   <sheets>
     <sheet name="query" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="query__2" localSheetId="0" hidden="1">query!$A$1:$S$92</definedName>
+    <definedName name="query__2" localSheetId="0" hidden="1">query!$A$1:$S$98</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -24,14 +24,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{07E685A8-FC03-4CED-99D1-0B7458F1B9A1}" odcFile="C:\Users\thiago.junior\Downloads\query (2).iqy" keepAlive="1" name="query (2)" type="5" refreshedVersion="8" minRefreshableVersion="3" saveData="1">
+  <connection id="1" xr16:uid="{7958C42C-1D3B-4A58-A33F-3DE76869DBAC}" odcFile="C:\Users\thiago.junior\Downloads\query (2).iqy" keepAlive="1" name="query (2)" type="5" refreshedVersion="8" minRefreshableVersion="3" saveData="1">
     <dbPr connection="Provider=Microsoft.Office.List.OLEDB.2.0;Data Source=&quot;&quot;;ApplicationName=Excel;Version=12.0.0.0" command="&lt;LIST&gt;&lt;VIEWGUID&gt;A45175CA-9778-441D-B066-D8555F7DBBE4&lt;/VIEWGUID&gt;&lt;LISTNAME&gt;06be0e4e-018b-4cef-a562-4db2a9a684e1&lt;/LISTNAME&gt;&lt;LISTWEB&gt;https://grupoultracloud-my.sharepoint.com/personal/roberta_rocha_ipiranga_ipiranga/_vti_bin&lt;/LISTWEB&gt;&lt;LISTSUBWEB&gt;&lt;/LISTSUBWEB&gt;&lt;ROOTFOLDER&gt;&lt;/ROOTFOLDER&gt;&lt;/LIST&gt;" commandType="5"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="283">
   <si>
     <t>Título</t>
   </si>
@@ -359,210 +359,207 @@
     <t>G.N. Urbano Sao Jose Rio Preto</t>
   </si>
   <si>
-    <t>D M E Comercio De Combustiveis Ltda</t>
-  </si>
-  <si>
     <t xml:space="preserve">Revendedor Antonio, relatou dificuldades para concluir a instalação do Conecta no PDV fixo com o representante local. Não possui número de chamado ou protocolo. Posto já possui adesão ao Conecta. Caso encaminhado por e-mail para o Luis e Gabriel da automação Meta. </t>
   </si>
   <si>
+    <t>Abast Fagundes Ltda</t>
+  </si>
+  <si>
+    <t>Apresentei o projeto “Oferta é Sua Desconto” ao revendedor George, que informou não ter interesse. Justificativa: os preços dos combustíveis estão muito elevados, impossibilitando aplicação de desconto.</t>
+  </si>
+  <si>
+    <t>Negociação</t>
+  </si>
+  <si>
+    <t>Comercio De Combustiveis Macieira Ltda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrei em contato com o revendedor Felipe, para darmos inicio ao processo de ativação do posto no KMV. Passei todas as instruções iniciais para ele. </t>
+  </si>
+  <si>
+    <t>KMV</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>Auto Posto Batelao Porto Feliz Ltda.</t>
+  </si>
+  <si>
+    <t>A rede CURTI/BLUE  manifestou insatisfação porque as ofertas cadastradas não estão refletindo nos descontos para o consumidor final. Para contornar a situação, a Andrea optou por cadastrar individualmente as ofertas em cada posto, e estamos acompanhando o andamento</t>
+  </si>
+  <si>
+    <t>A pedido a Poliana, consultora de trade, tratamos o caso do Saulo Bento da Cunha - CPF 579.831.356-53 que não conseguia fazer as transações via KMV. Mandamos o caso para o time de Preensão a Fraude onde foi resolvido.</t>
+  </si>
+  <si>
+    <t>Prevenção Fraudes</t>
+  </si>
+  <si>
+    <t>B2C - Transação Negada</t>
+  </si>
+  <si>
+    <t>Petro Rio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eliane informa que o consunsumidor não consegue efetuar o pagamento a tela fica rodando e expira antes de concluir. </t>
+  </si>
+  <si>
+    <t>G A Com De Derivados De Petroleo Ltda</t>
+  </si>
+  <si>
+    <t>Transação cancelada</t>
+  </si>
+  <si>
+    <t>Comercial Recife - Comercio De Derivado</t>
+  </si>
+  <si>
+    <t>Confirmação do e-mail de login: americo.construtex@gmail.com</t>
+  </si>
+  <si>
+    <t>G.N. Urbano Recife</t>
+  </si>
+  <si>
+    <t>Auto Posto Ilha Negra Ltda</t>
+  </si>
+  <si>
+    <t>Solicitação de alteração de e-mail para login no Portal Parceiro KMV (postoilhaguaruja@gmail.com), concluída com sucesso via WhatsApp (+55 13 99203-2569) com Mauricio.</t>
+  </si>
+  <si>
+    <t>G.N. Urbano Sp Abc</t>
+  </si>
+  <si>
+    <t>POSTO DE PONTA LTDA</t>
+  </si>
+  <si>
+    <t>Solicitação de alteração de e-mail para login no Portal Parceiro KMV (postodeponta@gmail.com), realizada com sucesso via WhatsApp pelo consultor Thainã</t>
+  </si>
+  <si>
+    <t>Revendedora solic o cancelamento do KMV</t>
+  </si>
+  <si>
+    <t>Dúvida PPI</t>
+  </si>
+  <si>
+    <t>Revendedora solicitação de vendas estornadas</t>
+  </si>
+  <si>
+    <t>Karserv Combustiveis Lubs E Serv Lt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solicita conformação da taxa de transação em dinheiro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auto Posto Comercio De Combustiveis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revendedora solicita revisão das taxas de transação em dinheiro </t>
+  </si>
+  <si>
+    <t>Auto Posto Esquina Ltda</t>
+  </si>
+  <si>
+    <t>Revendedora solici revisão de MDR</t>
+  </si>
+  <si>
+    <t>Auto Posto De Combustivel Flaming</t>
+  </si>
+  <si>
+    <t>Apresentação da OFS Desconto</t>
+  </si>
+  <si>
+    <t>Torre</t>
+  </si>
+  <si>
+    <t>AP Transportadora SAVANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revendedor relata que etsá com problema na automação </t>
+  </si>
+  <si>
+    <t>Posto De Combustiveis Jardins Eireli</t>
+  </si>
+  <si>
+    <t>Revendedor reporta instabilidade no APP</t>
+  </si>
+  <si>
+    <t>Vw - Comercio De Combustiveis Ltda</t>
+  </si>
+  <si>
+    <t>Auto Posto Ipanema Ltda Epp</t>
+  </si>
+  <si>
+    <t>Posto Ideal Setor Leste Planaltina Ltda</t>
+  </si>
+  <si>
+    <t>Posto Antonelli E VItorino America Ltda</t>
+  </si>
+  <si>
+    <t>A P De Serv Kory Ltda</t>
+  </si>
+  <si>
+    <t>Posto informou falha na impressão do slip da transação (25/11/2025, R$223,04), mas confirmamos no portal que a transação foi efetivada e orientamos sobre o procedimento no Portal Parceiros.</t>
+  </si>
+  <si>
+    <t>G.N. Urbano Sp Leste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auto Posto Do Trabalho Maracana Ltda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revendedor solicita confirmação de venda estornada, falo com a Ana que fará o repasse </t>
+  </si>
+  <si>
+    <t>G.N. Rodovia Rio De Janeiro</t>
+  </si>
+  <si>
+    <t>Posto Liberdade Locatelli</t>
+  </si>
+  <si>
+    <t>Revendedora recla de vendas estornadas devido instabilidade no APP</t>
+  </si>
+  <si>
+    <t>Posto Ilha Guaruja Ltda</t>
+  </si>
+  <si>
+    <t>Fomos acionados via WhatsApp pelo consultor Wilson Neto. O posto Coesa Auto Posto Ltda (CNPJ: 62.236.617/0001-68) informou que a transação KMV (ABA-204859504, R$ 66,81, 25/11/2025 às 17:29) foi estornada sem impressão do slip. Cliente recusou nova tentativa e funcionário arcou com a diferença. Solicitado estorno pontual em confiança ao posto, e o time financeiro irá realizar o ressarcimento na próxima semana.</t>
+  </si>
+  <si>
+    <t>Auto Shoping</t>
+  </si>
+  <si>
+    <t>Revendedor solicita orientação de como mexer no portal Rede Ipiranga</t>
+  </si>
+  <si>
+    <t>Posto Locatelli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN Roger solicita apoio para aplicar treinamento </t>
+  </si>
+  <si>
+    <t>Posto locatelli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrei em contato com Kezia para treinamento de KMV no posto </t>
+  </si>
+  <si>
+    <t>Posto Monte Alverne Ltda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solicitação de ajuste de Lat e Long. </t>
+  </si>
+  <si>
+    <t>G.N. Urbano Santa Maria</t>
+  </si>
+  <si>
+    <t>P Gas Beira Rio Ltda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revendedora Marcia, entrou em contato para relatar instabilidade no App KmV. </t>
+  </si>
+  <si>
     <t>G.N. Urbano Londrina</t>
   </si>
   <si>
-    <t>Abast Fagundes Ltda</t>
-  </si>
-  <si>
-    <t>Apresentei o projeto “Oferta é Sua Desconto” ao revendedor George, que informou não ter interesse. Justificativa: os preços dos combustíveis estão muito elevados, impossibilitando aplicação de desconto.</t>
-  </si>
-  <si>
-    <t>Negociação</t>
-  </si>
-  <si>
-    <t>Comercio De Combustiveis Macieira Ltda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entrei em contato com o revendedor Felipe, para darmos inicio ao processo de ativação do posto no KMV. Passei todas as instruções iniciais para ele. </t>
-  </si>
-  <si>
-    <t>KMV</t>
-  </si>
-  <si>
-    <t>CN</t>
-  </si>
-  <si>
-    <t>Auto Posto Batelao Porto Feliz Ltda.</t>
-  </si>
-  <si>
-    <t>A rede CURTI/BLUE  manifestou insatisfação porque as ofertas cadastradas não estão refletindo nos descontos para o consumidor final. Para contornar a situação, a Andrea optou por cadastrar individualmente as ofertas em cada posto, e estamos acompanhando o andamento</t>
-  </si>
-  <si>
-    <t>A pedido a Poliana, consultora de trade, tratamos o caso do Saulo Bento da Cunha - CPF 579.831.356-53 que não conseguia fazer as transações via KMV. Mandamos o caso para o time de Preensão a Fraude onde foi resolvido.</t>
-  </si>
-  <si>
-    <t>Prevenção Fraudes</t>
-  </si>
-  <si>
-    <t>B2C - Transação Negada</t>
-  </si>
-  <si>
-    <t>Petro Rio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eliane informa que o consunsumidor não consegue efetuar o pagamento a tela fica rodando e expira antes de concluir. </t>
-  </si>
-  <si>
-    <t>G A Com De Derivados De Petroleo Ltda</t>
-  </si>
-  <si>
-    <t>Transação cancelada</t>
-  </si>
-  <si>
-    <t>Comercial Recife - Comercio De Derivado</t>
-  </si>
-  <si>
-    <t>Confirmação do e-mail de login: americo.construtex@gmail.com</t>
-  </si>
-  <si>
-    <t>G.N. Urbano Recife</t>
-  </si>
-  <si>
-    <t>Auto Posto Ilha Negra Ltda</t>
-  </si>
-  <si>
-    <t>Solicitação de alteração de e-mail para login no Portal Parceiro KMV (postoilhaguaruja@gmail.com), concluída com sucesso via WhatsApp (+55 13 99203-2569) com Mauricio.</t>
-  </si>
-  <si>
-    <t>G.N. Urbano Sp Abc</t>
-  </si>
-  <si>
-    <t>POSTO DE PONTA LTDA</t>
-  </si>
-  <si>
-    <t>Solicitação de alteração de e-mail para login no Portal Parceiro KMV (postodeponta@gmail.com), realizada com sucesso via WhatsApp pelo consultor Thainã</t>
-  </si>
-  <si>
-    <t>Revendedora solic o cancelamento do KMV</t>
-  </si>
-  <si>
-    <t>Dúvida PPI</t>
-  </si>
-  <si>
-    <t>Revendedora solicitação de vendas estornadas</t>
-  </si>
-  <si>
-    <t>Karserv Combustiveis Lubs E Serv Lt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solicita conformação da taxa de transação em dinheiro </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auto Posto Comercio De Combustiveis </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revendedora solicita revisão das taxas de transação em dinheiro </t>
-  </si>
-  <si>
-    <t>Auto Posto Esquina Ltda</t>
-  </si>
-  <si>
-    <t>Revendedora solici revisão de MDR</t>
-  </si>
-  <si>
-    <t>Auto Posto De Combustivel Flaming</t>
-  </si>
-  <si>
-    <t>Apresentação da OFS Desconto</t>
-  </si>
-  <si>
-    <t>Torre</t>
-  </si>
-  <si>
-    <t>AP Transportadora SAVANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revendedor relata que etsá com problema na automação </t>
-  </si>
-  <si>
-    <t>Posto De Combustiveis Jardins Eireli</t>
-  </si>
-  <si>
-    <t>Revendedor reporta instabilidade no APP</t>
-  </si>
-  <si>
-    <t>Vw - Comercio De Combustiveis Ltda</t>
-  </si>
-  <si>
-    <t>Auto Posto Ipanema Ltda Epp</t>
-  </si>
-  <si>
-    <t>Posto Ideal Setor Leste Planaltina Ltda</t>
-  </si>
-  <si>
-    <t>Posto Antonelli E VItorino America Ltda</t>
-  </si>
-  <si>
-    <t>A P De Serv Kory Ltda</t>
-  </si>
-  <si>
-    <t>Posto informou falha na impressão do slip da transação (25/11/2025, R$223,04), mas confirmamos no portal que a transação foi efetivada e orientamos sobre o procedimento no Portal Parceiros.</t>
-  </si>
-  <si>
-    <t>G.N. Urbano Sp Leste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auto Posto Do Trabalho Maracana Ltda </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revendedor solicita confirmação de venda estornada, falo com a Ana que fará o repasse </t>
-  </si>
-  <si>
-    <t>G.N. Rodovia Rio De Janeiro</t>
-  </si>
-  <si>
-    <t>Posto Liberdade Locatelli</t>
-  </si>
-  <si>
-    <t>Revendedora recla de vendas estornadas devido instabilidade no APP</t>
-  </si>
-  <si>
-    <t>Posto Ilha Guaruja Ltda</t>
-  </si>
-  <si>
-    <t>Fomos acionados via WhatsApp pelo consultor Wilson Neto. O posto Coesa Auto Posto Ltda (CNPJ: 62.236.617/0001-68) informou que a transação KMV (ABA-204859504, R$ 66,81, 25/11/2025 às 17:29) foi estornada sem impressão do slip. Cliente recusou nova tentativa e funcionário arcou com a diferença. Solicitado estorno pontual em confiança ao posto, e o time financeiro irá realizar o ressarcimento na próxima semana.</t>
-  </si>
-  <si>
-    <t>Auto Shoping</t>
-  </si>
-  <si>
-    <t>Revendedor solicita orientação de como mexer no portal Rede Ipiranga</t>
-  </si>
-  <si>
-    <t>Posto Locatelli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN Roger solicita apoio para aplicar treinamento </t>
-  </si>
-  <si>
-    <t>Posto locatelli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entrei em contato com Kezia para treinamento de KMV no posto </t>
-  </si>
-  <si>
-    <t>Posto Monte Alverne Ltda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solicitação de ajuste de Lat e Long. </t>
-  </si>
-  <si>
-    <t>G.N. Urbano Santa Maria</t>
-  </si>
-  <si>
-    <t>P Gas Beira Rio Ltda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revendedora Marcia, entrou em contato para relatar instabilidade no App KmV. </t>
-  </si>
-  <si>
     <t>Rede Ipe Maracaju Posto De Servicos Ltd</t>
   </si>
   <si>
@@ -840,6 +837,54 @@
   </si>
   <si>
     <t>Após solicitação da gerente, identifiquei no BKO que o lat/long do posto não estava cadastrado, realizei a inclusão, testei e a opção de favoritar o posto já está disponíve</t>
+  </si>
+  <si>
+    <t>Auto Posto Wm Ltda</t>
+  </si>
+  <si>
+    <t>Ajuste de localização no app</t>
+  </si>
+  <si>
+    <t>Terra De Santa Cruz Posto Servicos Ltda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duvidas sobre valores que não foram pago, em validação com a ana achamos o valor de R$ 17.796,14 que será paga dia 09/12 </t>
+  </si>
+  <si>
+    <t>Auto POSTO badu 2</t>
+  </si>
+  <si>
+    <t>Joanatas revendedor solicita confirmação de cadastro de VIP no portal</t>
+  </si>
+  <si>
+    <t>Cadastro VIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Posto De Combustiveis Vaccari Ltda     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Envio do e-mail de performance da ação. </t>
+  </si>
+  <si>
+    <t>G.N. Urbano Passo Fundo</t>
+  </si>
+  <si>
+    <t>S S Comercio De Combustiveis Sa</t>
+  </si>
+  <si>
+    <t>O Status Vip solicitou à Nadine que encontrássemos alguém responsável da Rede Sander para acompanhar uma atualização referente à conciliação. Indiquei à Nadine o Luan, responsável pela área de TI do grupo.</t>
+  </si>
+  <si>
+    <t>Automação</t>
+  </si>
+  <si>
+    <t>Sc Comercio De Combustiveis Ltda - Me</t>
+  </si>
+  <si>
+    <t>Contatei Nelson  para conluir o aceite conecta</t>
+  </si>
+  <si>
+    <t>Conecta</t>
   </si>
 </sst>
 </file>
@@ -1451,7 +1496,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="query (2)" backgroundRefresh="0" connectionId="1" xr16:uid="{62E6E605-AEF4-4F51-B168-014D49965AF3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="query (2)" backgroundRefresh="0" connectionId="1" xr16:uid="{0BC3CDEA-57F9-4B3B-840B-919042C1B3D0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="20">
     <queryTableFields count="19">
       <queryTableField id="10" name="Analista" tableColumnId="1"/>
@@ -1479,28 +1524,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C4966348-93A9-45D4-8B3A-2EFFB7193508}" name="Tabela_query__2" displayName="Tabela_query__2" ref="A1:S92" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:S92" xr:uid="{C4966348-93A9-45D4-8B3A-2EFFB7193508}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E198D666-C415-4686-AD3F-5ED7240D134A}" name="Tabela_query__2" displayName="Tabela_query__2" ref="A1:S98" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:S98" xr:uid="{E198D666-C415-4686-AD3F-5ED7240D134A}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{82AC83C3-077A-4671-9894-204E5B69990E}" uniqueName="Analista" name="Analista" queryTableFieldId="10" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{CD9E2BC0-25C1-4BBA-9C77-DE35A07E2B9E}" uniqueName="SubClassifica_x005f_x00e7__x005f_x00e3_o" name="Sub Classificação" queryTableFieldId="15" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{98F76925-8040-4C64-8A31-EC0CAD54A151}" uniqueName="Motivo" name="Motivo" queryTableFieldId="11" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{E295CCE0-CB23-44F4-8689-24FC509357B8}" uniqueName="Data" name="Data Inicio" queryTableFieldId="2" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{6E7522A2-1043-4B58-90F6-63D71D9F6109}" uniqueName="CNPJ" name="CNPJ" queryTableFieldId="3" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{66D5BC81-C25A-4BD2-809D-A47D623B39BB}" uniqueName="Raz_x005f_x00e3_oSocial" name="Razão Social" queryTableFieldId="4" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{EE9CCE34-005C-4D9D-B059-FC631DED4113}" uniqueName="Descri_x005f_x00e7__x005f_x00e3_o" name="Descrição" queryTableFieldId="5" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{B1E8DB63-B04D-40BA-8874-B33D672CE474}" uniqueName="FCR" name="FCR" queryTableFieldId="7" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{A8D4EF77-F71A-4D03-B983-9B625CF2D720}" uniqueName="Origemdocontato" name="Área responsável pela resolução" queryTableFieldId="8" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{4A250B6A-1F87-4C78-B4F7-7AA166243522}" uniqueName="Origemdocontato0" name="Origem do contato" queryTableFieldId="9" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{F3A10C12-7438-4827-BDE0-5F0420D7EC99}" uniqueName="Tipodecontato" name="Tipo de contato" queryTableFieldId="14" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{DD453EB6-0FBC-478A-BB5A-DEAAED68BB54}" uniqueName="DataFim" name="Data Fim" queryTableFieldId="6" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{B0066D87-D186-40F3-98F4-08C13A18463C}" uniqueName="GN" name="GN" queryTableFieldId="12" dataDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{2B8B3E9A-EFE6-47EC-ABBA-708D0007A4FA}" uniqueName="Solicitante" name="Solicitante" queryTableFieldId="13" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{DA48761F-611E-440A-BB41-00A3D1437C4B}" uniqueName="Title" name="Título" queryTableFieldId="1" dataDxfId="3"/>
-    <tableColumn id="16" xr3:uid="{46FAB755-425E-4B6F-8AB4-154D45143386}" uniqueName="_x005f_x0024_Resources_x005f_x003a_core_x002" name="Status de liberação" queryTableFieldId="16" dataDxfId="2"/>
-    <tableColumn id="17" xr3:uid="{2EA6A760-37C3-4893-93F5-A0F97B0A7031}" uniqueName="_ApprovalStatus" name="Status de aprovação" queryTableFieldId="17"/>
-    <tableColumn id="18" xr3:uid="{AA421FE4-0440-4344-B490-DE4A881853EA}" uniqueName="FSObjType" name="Tipo de Item" queryTableFieldId="19" dataDxfId="1"/>
-    <tableColumn id="19" xr3:uid="{CE688A86-6DAC-4B7A-AD10-DB6521DA9624}" uniqueName="FileDirRef" name="Caminho" queryTableFieldId="18" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{D20B0EEE-AF3F-4F27-A4AE-D4E50EB1C51B}" uniqueName="Analista" name="Analista" queryTableFieldId="10" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{CEF00E02-81EB-47E3-8BF9-6F37C3ACF37C}" uniqueName="SubClassifica_x005f_x00e7__x005f_x00e3_o" name="Sub Classificação" queryTableFieldId="15" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{57919E95-69C7-4655-BBC0-649E0C5EAF73}" uniqueName="Motivo" name="Motivo" queryTableFieldId="11" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{E67C9F27-FDB1-4A36-A80D-7E985F72BF0C}" uniqueName="Data" name="Data Inicio" queryTableFieldId="2" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{FEE1AE74-4AC7-4D8D-82D7-C29A3BED23AD}" uniqueName="CNPJ" name="CNPJ" queryTableFieldId="3" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{A72B6345-308F-4E10-9084-1BEC197FEF4C}" uniqueName="Raz_x005f_x00e3_oSocial" name="Razão Social" queryTableFieldId="4" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{60A2A771-6D27-4B3F-99F0-171CFB95AAEA}" uniqueName="Descri_x005f_x00e7__x005f_x00e3_o" name="Descrição" queryTableFieldId="5" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{C85BEDBF-C1BB-4CD3-9537-4C1986EBB66C}" uniqueName="FCR" name="FCR" queryTableFieldId="7" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{7A4BA18A-B27C-4F06-A2EF-30E877A1048A}" uniqueName="Origemdocontato" name="Área responsável pela resolução" queryTableFieldId="8" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{2CB7F4D7-96E6-462A-A123-63F46D5B991E}" uniqueName="Origemdocontato0" name="Origem do contato" queryTableFieldId="9" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{E6F1954C-9112-4FDA-9242-ADD22FF823A7}" uniqueName="Tipodecontato" name="Tipo de contato" queryTableFieldId="14" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{1F2DECE4-ECCE-4071-920A-54ADD433A359}" uniqueName="DataFim" name="Data Fim" queryTableFieldId="6" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{024CDB14-20D3-4D32-B408-9D36AD0798B1}" uniqueName="GN" name="GN" queryTableFieldId="12" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{8EDAFDDD-1875-457B-B048-055A1B23F81B}" uniqueName="Solicitante" name="Solicitante" queryTableFieldId="13" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{71B66BF3-4787-41DB-90B2-DCCAAA186657}" uniqueName="Title" name="Título" queryTableFieldId="1" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{D0F1EA0B-AA24-47FA-870B-826A896434F0}" uniqueName="_x005f_x0024_Resources_x005f_x003a_core_x002" name="Status de liberação" queryTableFieldId="16" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{A44DF2B6-ED9A-4901-887B-8F7E79A47952}" uniqueName="_ApprovalStatus" name="Status de aprovação" queryTableFieldId="17"/>
+    <tableColumn id="18" xr3:uid="{58205389-BF7D-4D7C-9E2A-B437110FFBC9}" uniqueName="FSObjType" name="Tipo de Item" queryTableFieldId="19" dataDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{D556CCDD-557A-4ED4-AB36-81DD655F8D97}" uniqueName="FileDirRef" name="Caminho" queryTableFieldId="18" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1822,34 +1867,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C306BC93-0B71-4751-A406-DD03D86A2469}">
-  <dimension ref="A1:S92"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD87AD79-1D65-426C-87FD-CFEBDABBFD04}">
+  <dimension ref="A1:S98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:S92"/>
+      <selection sqref="A1:S98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="80.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="38.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.90625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="70.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="35.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="66.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
@@ -3003,11 +3048,9 @@
       <c r="E22" s="3">
         <v>47708647000136</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="4"/>
+      <c r="G22" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>108</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>50</v>
@@ -3016,7 +3059,7 @@
         <v>64</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>38</v>
@@ -3024,9 +3067,7 @@
       <c r="L22" s="2">
         <v>45994</v>
       </c>
-      <c r="M22" s="1" t="s">
-        <v>109</v>
-      </c>
+      <c r="M22" s="1"/>
       <c r="N22" s="1" t="s">
         <v>27</v>
       </c>
@@ -3047,7 +3088,7 @@
         <v>52</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>36</v>
@@ -3059,10 +3100,10 @@
         <v>577065000285</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>21</v>
@@ -3103,7 +3144,7 @@
         <v>39</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D24" s="2">
         <v>45989</v>
@@ -3112,10 +3153,10 @@
         <v>45993033000118</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>50</v>
@@ -3136,7 +3177,7 @@
         <v>54</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
@@ -3167,10 +3208,10 @@
         <v>46872263000191</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>21</v>
@@ -3213,7 +3254,7 @@
         <v>29</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D26" s="2">
         <v>45988</v>
@@ -3223,13 +3264,13 @@
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>50</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>23</v>
@@ -3273,10 +3314,10 @@
         <v>38074571000143</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>21</v>
@@ -3319,7 +3360,7 @@
         <v>29</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D28" s="2">
         <v>45980</v>
@@ -3328,10 +3369,10 @@
         <v>3477535000146</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>50</v>
@@ -3381,10 +3422,10 @@
         <v>11519114000169</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>50</v>
@@ -3402,10 +3443,10 @@
         <v>45992</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
@@ -3436,10 +3477,10 @@
         <v>10317892000102</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>21</v>
@@ -3457,7 +3498,7 @@
         <v>45992</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>27</v>
@@ -3491,10 +3532,10 @@
         <v>2144883000139</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>21</v>
@@ -3537,7 +3578,7 @@
         <v>55</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D32" s="2">
         <v>45992</v>
@@ -3549,7 +3590,7 @@
         <v>95</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>21</v>
@@ -3592,7 +3633,7 @@
         <v>55</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D33" s="2">
         <v>45992</v>
@@ -3604,7 +3645,7 @@
         <v>95</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>21</v>
@@ -3656,10 +3697,10 @@
         <v>689380000113</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>21</v>
@@ -3711,10 +3752,10 @@
         <v>32044415000153</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>21</v>
@@ -3766,10 +3807,10 @@
         <v>2551867000160</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>21</v>
@@ -3821,10 +3862,10 @@
         <v>36180754000118</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>21</v>
@@ -3845,7 +3886,7 @@
         <v>37</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
@@ -3876,10 +3917,10 @@
         <v>2754502000133</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>50</v>
@@ -3931,10 +3972,10 @@
         <v>10522077000770</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>21</v>
@@ -3986,10 +4027,10 @@
         <v>3156892000102</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>21</v>
@@ -4041,10 +4082,10 @@
         <v>10592852000179</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>21</v>
@@ -4096,10 +4137,10 @@
         <v>57237149000106</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>21</v>
@@ -4151,10 +4192,10 @@
         <v>53875328000118</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>21</v>
@@ -4206,10 +4247,10 @@
         <v>10522077000428</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>21</v>
@@ -4261,10 +4302,10 @@
         <v>56738016000150</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>21</v>
@@ -4282,7 +4323,7 @@
         <v>45993</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="N45" s="1" t="s">
         <v>27</v>
@@ -4307,7 +4348,7 @@
         <v>29</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D46" s="2">
         <v>45993</v>
@@ -4316,10 +4357,10 @@
         <v>24314878000160</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>21</v>
@@ -4337,10 +4378,10 @@
         <v>45993</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
@@ -4369,10 +4410,10 @@
         <v>2394473000146</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>21</v>
@@ -4424,10 +4465,10 @@
         <v>62236617000168</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>21</v>
@@ -4445,10 +4486,10 @@
         <v>46000</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O48" s="4"/>
       <c r="P48" s="4"/>
@@ -4479,10 +4520,10 @@
         <v>9241803394</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>21</v>
@@ -4534,10 +4575,10 @@
         <v>2394473000146</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>21</v>
@@ -4558,7 +4599,7 @@
         <v>37</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O50" s="4"/>
       <c r="P50" s="4"/>
@@ -4589,10 +4630,10 @@
         <v>2394473000146</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>21</v>
@@ -4613,7 +4654,7 @@
         <v>37</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
@@ -4644,10 +4685,10 @@
         <v>3331129000170</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>21</v>
@@ -4665,10 +4706,10 @@
         <v>45993</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O52" s="4"/>
       <c r="P52" s="4"/>
@@ -4699,10 +4740,10 @@
         <v>77817583000172</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>50</v>
@@ -4720,7 +4761,7 @@
         <v>45993</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>109</v>
+        <v>173</v>
       </c>
       <c r="N53" s="1" t="s">
         <v>27</v>
@@ -4745,7 +4786,7 @@
         <v>55</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D54" s="2">
         <v>45993</v>
@@ -4754,10 +4795,10 @@
         <v>51829602000197</v>
       </c>
       <c r="F54" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="G54" s="5" t="s">
         <v>175</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>176</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>21</v>
@@ -4800,7 +4841,7 @@
         <v>29</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D55" s="2">
         <v>45993</v>
@@ -4809,16 +4850,16 @@
         <v>18359457000152</v>
       </c>
       <c r="F55" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G55" s="5" t="s">
         <v>177</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>178</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>23</v>
@@ -4864,10 +4905,10 @@
         <v>29827042000182</v>
       </c>
       <c r="F56" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="G56" s="5" t="s">
         <v>181</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>182</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>21</v>
@@ -4919,10 +4960,10 @@
         <v>3331129000170</v>
       </c>
       <c r="F57" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="G57" s="5" t="s">
         <v>183</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>184</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>21</v>
@@ -4940,10 +4981,10 @@
         <v>45993</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O57" s="4"/>
       <c r="P57" s="4"/>
@@ -4974,10 +5015,10 @@
         <v>11519114000169</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>50</v>
@@ -4995,7 +5036,7 @@
         <v>45994</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N58" s="1" t="s">
         <v>27</v>
@@ -5020,7 +5061,7 @@
         <v>79</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D59" s="2">
         <v>45992</v>
@@ -5029,10 +5070,10 @@
         <v>19770536000114</v>
       </c>
       <c r="F59" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G59" s="5" t="s">
         <v>186</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>187</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>50</v>
@@ -5050,7 +5091,7 @@
         <v>45992</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N59" s="1" t="s">
         <v>27</v>
@@ -5075,7 +5116,7 @@
         <v>79</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D60" s="2">
         <v>45993</v>
@@ -5084,10 +5125,10 @@
         <v>27394378000173</v>
       </c>
       <c r="F60" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="G60" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>191</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>21</v>
@@ -5105,7 +5146,7 @@
         <v>45993</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N60" s="1" t="s">
         <v>27</v>
@@ -5127,7 +5168,7 @@
         <v>52</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>36</v>
@@ -5139,10 +5180,10 @@
         <v>46892512000100</v>
       </c>
       <c r="F61" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G61" s="5" t="s">
         <v>193</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>194</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>21</v>
@@ -5163,7 +5204,7 @@
         <v>60</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O61" s="4"/>
       <c r="P61" s="4"/>
@@ -5192,10 +5233,10 @@
         <v>4978803000176</v>
       </c>
       <c r="F62" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G62" s="5" t="s">
         <v>195</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>196</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>21</v>
@@ -5213,7 +5254,7 @@
         <v>45994</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N62" s="1" t="s">
         <v>68</v>
@@ -5247,10 +5288,10 @@
         <v>11368640000175</v>
       </c>
       <c r="F63" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G63" s="5" t="s">
         <v>197</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>198</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>21</v>
@@ -5268,10 +5309,10 @@
         <v>45988</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O63" s="4"/>
       <c r="P63" s="4"/>
@@ -5293,7 +5334,7 @@
         <v>55</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D64" s="2">
         <v>45994</v>
@@ -5302,10 +5343,10 @@
         <v>23467987600012</v>
       </c>
       <c r="F64" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="G64" s="5" t="s">
         <v>199</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>200</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>21</v>
@@ -5348,7 +5389,7 @@
         <v>55</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D65" s="2">
         <v>45994</v>
@@ -5357,10 +5398,10 @@
         <v>19497817000107</v>
       </c>
       <c r="F65" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G65" s="5" t="s">
         <v>201</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>202</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>21</v>
@@ -5378,10 +5419,10 @@
         <v>45994</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O65" s="4"/>
       <c r="P65" s="4"/>
@@ -5412,10 +5453,10 @@
         <v>2279387000192</v>
       </c>
       <c r="F66" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G66" s="5" t="s">
         <v>204</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>205</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>50</v>
@@ -5436,7 +5477,7 @@
         <v>37</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
@@ -5455,7 +5496,7 @@
         <v>24</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>36</v>
@@ -5467,10 +5508,10 @@
         <v>27192758000206</v>
       </c>
       <c r="F67" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="G67" s="5" t="s">
         <v>206</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>207</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>21</v>
@@ -5522,10 +5563,10 @@
         <v>57717655000100</v>
       </c>
       <c r="F68" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G68" s="5" t="s">
         <v>208</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>209</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>21</v>
@@ -5543,7 +5584,7 @@
         <v>45995</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N68" s="1" t="s">
         <v>27</v>
@@ -5568,7 +5609,7 @@
         <v>39</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D69" s="2">
         <v>45995</v>
@@ -5577,10 +5618,10 @@
         <v>7396700000196</v>
       </c>
       <c r="F69" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G69" s="5" t="s">
         <v>211</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>212</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>50</v>
@@ -5598,7 +5639,7 @@
         <v>45995</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N69" s="1" t="s">
         <v>27</v>
@@ -5632,10 +5673,10 @@
         <v>45761173000160</v>
       </c>
       <c r="F70" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="G70" s="5" t="s">
         <v>215</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>216</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>21</v>
@@ -5687,10 +5728,10 @@
         <v>45761173000160</v>
       </c>
       <c r="F71" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="G71" s="5" t="s">
         <v>217</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>218</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>21</v>
@@ -5733,7 +5774,7 @@
         <v>55</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D72" s="2">
         <v>45995</v>
@@ -5743,7 +5784,7 @@
       </c>
       <c r="F72" s="4"/>
       <c r="G72" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>50</v>
@@ -5794,7 +5835,7 @@
         <v>70</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>21</v>
@@ -5837,7 +5878,7 @@
         <v>79</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D74" s="2">
         <v>45995</v>
@@ -5846,10 +5887,10 @@
         <v>80979107000162</v>
       </c>
       <c r="F74" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="G74" s="5" t="s">
         <v>222</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>223</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>50</v>
@@ -5867,10 +5908,10 @@
         <v>45995</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O74" s="4"/>
       <c r="P74" s="4"/>
@@ -5901,10 +5942,10 @@
         <v>2234943001429</v>
       </c>
       <c r="F75" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="G75" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>227</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>50</v>
@@ -5920,7 +5961,7 @@
       </c>
       <c r="L75" s="2"/>
       <c r="M75" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N75" s="1" t="s">
         <v>68</v>
@@ -5952,10 +5993,10 @@
         <v>61620792000191</v>
       </c>
       <c r="F76" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="G76" s="5" t="s">
         <v>229</v>
-      </c>
-      <c r="G76" s="5" t="s">
-        <v>230</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>21</v>
@@ -5998,7 +6039,7 @@
         <v>29</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D77" s="2">
         <v>45995</v>
@@ -6007,10 +6048,10 @@
         <v>12645422000101</v>
       </c>
       <c r="F77" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="G77" s="5" t="s">
         <v>231</v>
-      </c>
-      <c r="G77" s="5" t="s">
-        <v>232</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>50</v>
@@ -6028,7 +6069,7 @@
         <v>45995</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N77" s="1" t="s">
         <v>27</v>
@@ -6053,7 +6094,7 @@
         <v>79</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D78" s="2">
         <v>45995</v>
@@ -6062,10 +6103,10 @@
         <v>9164791001646</v>
       </c>
       <c r="F78" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="G78" s="5" t="s">
         <v>233</v>
-      </c>
-      <c r="G78" s="5" t="s">
-        <v>234</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>21</v>
@@ -6117,16 +6158,16 @@
         <v>72374952000186</v>
       </c>
       <c r="F79" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="G79" s="5" t="s">
         <v>235</v>
-      </c>
-      <c r="G79" s="5" t="s">
-        <v>236</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>50</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>23</v>
@@ -6136,7 +6177,7 @@
       </c>
       <c r="L79" s="2"/>
       <c r="M79" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N79" s="1" t="s">
         <v>27</v>
@@ -6170,16 +6211,16 @@
         <v>12074139000169</v>
       </c>
       <c r="F80" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G80" s="5" t="s">
         <v>238</v>
-      </c>
-      <c r="G80" s="5" t="s">
-        <v>239</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>23</v>
@@ -6216,7 +6257,7 @@
         <v>29</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D81" s="2">
         <v>45996</v>
@@ -6225,10 +6266,10 @@
         <v>5815156000144</v>
       </c>
       <c r="F81" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="G81" s="5" t="s">
         <v>241</v>
-      </c>
-      <c r="G81" s="5" t="s">
-        <v>242</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>50</v>
@@ -6246,7 +6287,7 @@
         <v>45996</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>109</v>
+        <v>173</v>
       </c>
       <c r="N81" s="1" t="s">
         <v>27</v>
@@ -6280,10 +6321,10 @@
         <v>55699369000126</v>
       </c>
       <c r="F82" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="G82" s="5" t="s">
         <v>243</v>
-      </c>
-      <c r="G82" s="5" t="s">
-        <v>244</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>21</v>
@@ -6301,7 +6342,7 @@
         <v>45996</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N82" s="1"/>
       <c r="O82" s="4"/>
@@ -6333,10 +6374,10 @@
         <v>4785105000154</v>
       </c>
       <c r="F83" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="G83" s="5" t="s">
         <v>245</v>
-      </c>
-      <c r="G83" s="5" t="s">
-        <v>246</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>50</v>
@@ -6386,10 +6427,10 @@
         <v>30455952000160</v>
       </c>
       <c r="F84" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="G84" s="5" t="s">
         <v>247</v>
-      </c>
-      <c r="G84" s="5" t="s">
-        <v>248</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>50</v>
@@ -6430,7 +6471,7 @@
         <v>55</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D85" s="2">
         <v>45996</v>
@@ -6439,16 +6480,16 @@
         <v>29404716000306</v>
       </c>
       <c r="F85" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G85" s="5" t="s">
         <v>249</v>
-      </c>
-      <c r="G85" s="5" t="s">
-        <v>250</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>50</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>35</v>
@@ -6458,7 +6499,7 @@
       </c>
       <c r="L85" s="2"/>
       <c r="M85" s="1" t="s">
-        <v>109</v>
+        <v>173</v>
       </c>
       <c r="N85" s="1" t="s">
         <v>27</v>
@@ -6483,7 +6524,7 @@
         <v>39</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D86" s="2">
         <v>45996</v>
@@ -6492,10 +6533,10 @@
         <v>48227957000100</v>
       </c>
       <c r="F86" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G86" s="5" t="s">
         <v>253</v>
-      </c>
-      <c r="G86" s="5" t="s">
-        <v>254</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>21</v>
@@ -6516,7 +6557,7 @@
         <v>54</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O86" s="4"/>
       <c r="P86" s="4"/>
@@ -6547,10 +6588,10 @@
         <v>47545858000103</v>
       </c>
       <c r="F87" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="G87" s="5" t="s">
         <v>255</v>
-      </c>
-      <c r="G87" s="5" t="s">
-        <v>256</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>21</v>
@@ -6568,7 +6609,7 @@
         <v>45994</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N87" s="1" t="s">
         <v>27</v>
@@ -6590,7 +6631,7 @@
         <v>85</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>36</v>
@@ -6602,10 +6643,10 @@
         <v>52275228000198</v>
       </c>
       <c r="F88" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="G88" s="5" t="s">
         <v>257</v>
-      </c>
-      <c r="G88" s="5" t="s">
-        <v>258</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>50</v>
@@ -6623,7 +6664,7 @@
         <v>45996</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N88" s="1" t="s">
         <v>27</v>
@@ -6653,10 +6694,10 @@
         <v>37654527000140</v>
       </c>
       <c r="F89" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="G89" s="5" t="s">
         <v>259</v>
-      </c>
-      <c r="G89" s="5" t="s">
-        <v>260</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>21</v>
@@ -6674,7 +6715,7 @@
         <v>45999</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="N89" s="1" t="s">
         <v>27</v>
@@ -6708,10 +6749,10 @@
         <v>45132315000120</v>
       </c>
       <c r="F90" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="G90" s="5" t="s">
         <v>261</v>
-      </c>
-      <c r="G90" s="5" t="s">
-        <v>262</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>21</v>
@@ -6729,10 +6770,10 @@
         <v>45996</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O90" s="4"/>
       <c r="P90" s="4"/>
@@ -6748,7 +6789,7 @@
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>55</v>
@@ -6763,10 +6804,10 @@
         <v>80979107000162</v>
       </c>
       <c r="F91" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="G91" s="5" t="s">
         <v>263</v>
-      </c>
-      <c r="G91" s="5" t="s">
-        <v>264</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>21</v>
@@ -6784,10 +6825,10 @@
         <v>45996</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O91" s="4"/>
       <c r="P91" s="4"/>
@@ -6818,10 +6859,10 @@
         <v>57832654000107</v>
       </c>
       <c r="F92" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="G92" s="5" t="s">
         <v>266</v>
-      </c>
-      <c r="G92" s="5" t="s">
-        <v>267</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>21</v>
@@ -6839,7 +6880,7 @@
         <v>45999</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N92" s="1" t="s">
         <v>27</v>
@@ -6853,6 +6894,334 @@
         <v>31</v>
       </c>
       <c r="S92" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D93" s="2">
+        <v>45999</v>
+      </c>
+      <c r="E93" s="3">
+        <v>24894843000147</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L93" s="2">
+        <v>45999</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O93" s="4"/>
+      <c r="P93" s="4"/>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+      <c r="R93" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S93" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D94" s="2">
+        <v>45995</v>
+      </c>
+      <c r="E94" s="3">
+        <v>298631000139</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L94" s="2"/>
+      <c r="M94" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O94" s="4"/>
+      <c r="P94" s="4"/>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+      <c r="R94" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S94" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D95" s="2">
+        <v>45999</v>
+      </c>
+      <c r="E95" s="3">
+        <v>48055460000143</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L95" s="2">
+        <v>45999</v>
+      </c>
+      <c r="M95" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="N95" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O95" s="4"/>
+      <c r="P95" s="4"/>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="R95" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S95" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D96" s="2">
+        <v>45999</v>
+      </c>
+      <c r="E96" s="3">
+        <v>87687489000108</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L96" s="2">
+        <v>45999</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="N96" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O96" s="4"/>
+      <c r="P96" s="4"/>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+      <c r="R96" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S96" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D97" s="2">
+        <v>45999</v>
+      </c>
+      <c r="E97" s="3">
+        <v>1991461002180</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L97" s="2">
+        <v>45999</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="N97" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="O97" s="4"/>
+      <c r="P97" s="4"/>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S97" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D98" s="2">
+        <v>45999</v>
+      </c>
+      <c r="E98" s="3">
+        <v>15022398000134</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L98" s="2">
+        <v>45999</v>
+      </c>
+      <c r="M98" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O98" s="4"/>
+      <c r="P98" s="4"/>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+      <c r="R98" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S98" s="4" t="s">
         <v>30</v>
       </c>
     </row>

--- a/base_hub_github.xlsx
+++ b/base_hub_github.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupoultracloud-my.sharepoint.com/personal/thiago_junior_ipiranga_ipiranga/Documents/Área de Trabalho/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D05D66BE-E8AB-4C3C-8146-1146D659B0AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC898581-1641-4270-A9F1-7D7E570BEB44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9D224163-41A6-4CCD-A590-FD52C6760815}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1B07A5A8-B610-46E2-B035-0B334294E3EA}"/>
   </bookViews>
   <sheets>
     <sheet name="query" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="query__2" localSheetId="0" hidden="1">query!$A$1:$S$98</definedName>
+    <definedName name="query__4" localSheetId="0" hidden="1">query!$A$1:$S$99</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -24,14 +24,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{7958C42C-1D3B-4A58-A33F-3DE76869DBAC}" odcFile="C:\Users\thiago.junior\Downloads\query (2).iqy" keepAlive="1" name="query (2)" type="5" refreshedVersion="8" minRefreshableVersion="3" saveData="1">
+  <connection id="1" xr16:uid="{5EAD9C92-2EEA-433B-B79C-A3B406D1708B}" odcFile="C:\Users\thiago.junior\Downloads\query (4).iqy" keepAlive="1" name="query (4)" type="5" refreshedVersion="8" minRefreshableVersion="3" saveData="1">
     <dbPr connection="Provider=Microsoft.Office.List.OLEDB.2.0;Data Source=&quot;&quot;;ApplicationName=Excel;Version=12.0.0.0" command="&lt;LIST&gt;&lt;VIEWGUID&gt;A45175CA-9778-441D-B066-D8555F7DBBE4&lt;/VIEWGUID&gt;&lt;LISTNAME&gt;06be0e4e-018b-4cef-a562-4db2a9a684e1&lt;/LISTNAME&gt;&lt;LISTWEB&gt;https://grupoultracloud-my.sharepoint.com/personal/roberta_rocha_ipiranga_ipiranga/_vti_bin&lt;/LISTWEB&gt;&lt;LISTSUBWEB&gt;&lt;/LISTSUBWEB&gt;&lt;ROOTFOLDER&gt;&lt;/ROOTFOLDER&gt;&lt;/LIST&gt;" commandType="5"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="282">
   <si>
     <t>Título</t>
   </si>
@@ -812,9 +812,6 @@
     <t>Apresentação Oferta é sua desconto</t>
   </si>
   <si>
-    <t>Centro Automotivo Blue Miami Ltda</t>
-  </si>
-  <si>
     <t>Responsável: Ana Paula Posto: Centro Automotivo Blue Miami Ltda CNPJ: 37.654.527/0001-40 Identificador da Venda: ABA-204346073 Data da Autorização: 18/11 às 21:30 Data do Estorno: 18/11 às 21:35 Valor da Transação: R$ 334,47 Valor Líquido: R$ 325,47 Meio de Pagamento: Online Status: Pendente Avaliação Observações: Venda autorizada e posteriormente estornada. Solicitar reversão ou procedimento adicional.</t>
   </si>
   <si>
@@ -845,9 +842,6 @@
     <t>Ajuste de localização no app</t>
   </si>
   <si>
-    <t>Terra De Santa Cruz Posto Servicos Ltda</t>
-  </si>
-  <si>
     <t xml:space="preserve">Duvidas sobre valores que não foram pago, em validação com a ana achamos o valor de R$ 17.796,14 que será paga dia 09/12 </t>
   </si>
   <si>
@@ -885,6 +879,9 @@
   </si>
   <si>
     <t>Conecta</t>
+  </si>
+  <si>
+    <t>Cristiano entrou em contato para solicitar a antecipação de repasse manual. Encaminhei o caso para Ana Farandi, que negou a solicitação.</t>
   </si>
 </sst>
 </file>
@@ -1496,7 +1493,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="query (2)" backgroundRefresh="0" connectionId="1" xr16:uid="{0BC3CDEA-57F9-4B3B-840B-919042C1B3D0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="query (4)" backgroundRefresh="0" connectionId="1" xr16:uid="{8BA3E65F-52A4-4DC0-B2A0-9371A11AAD56}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="20">
     <queryTableFields count="19">
       <queryTableField id="10" name="Analista" tableColumnId="1"/>
@@ -1524,28 +1521,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E198D666-C415-4686-AD3F-5ED7240D134A}" name="Tabela_query__2" displayName="Tabela_query__2" ref="A1:S98" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:S98" xr:uid="{E198D666-C415-4686-AD3F-5ED7240D134A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{35564905-8013-431D-9E51-CEE1F80B6739}" name="Tabela_query__4" displayName="Tabela_query__4" ref="A1:S99" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:S99" xr:uid="{35564905-8013-431D-9E51-CEE1F80B6739}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{D20B0EEE-AF3F-4F27-A4AE-D4E50EB1C51B}" uniqueName="Analista" name="Analista" queryTableFieldId="10" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{CEF00E02-81EB-47E3-8BF9-6F37C3ACF37C}" uniqueName="SubClassifica_x005f_x00e7__x005f_x00e3_o" name="Sub Classificação" queryTableFieldId="15" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{57919E95-69C7-4655-BBC0-649E0C5EAF73}" uniqueName="Motivo" name="Motivo" queryTableFieldId="11" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{E67C9F27-FDB1-4A36-A80D-7E985F72BF0C}" uniqueName="Data" name="Data Inicio" queryTableFieldId="2" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{FEE1AE74-4AC7-4D8D-82D7-C29A3BED23AD}" uniqueName="CNPJ" name="CNPJ" queryTableFieldId="3" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{A72B6345-308F-4E10-9084-1BEC197FEF4C}" uniqueName="Raz_x005f_x00e3_oSocial" name="Razão Social" queryTableFieldId="4" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{60A2A771-6D27-4B3F-99F0-171CFB95AAEA}" uniqueName="Descri_x005f_x00e7__x005f_x00e3_o" name="Descrição" queryTableFieldId="5" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{C85BEDBF-C1BB-4CD3-9537-4C1986EBB66C}" uniqueName="FCR" name="FCR" queryTableFieldId="7" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{7A4BA18A-B27C-4F06-A2EF-30E877A1048A}" uniqueName="Origemdocontato" name="Área responsável pela resolução" queryTableFieldId="8" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{2CB7F4D7-96E6-462A-A123-63F46D5B991E}" uniqueName="Origemdocontato0" name="Origem do contato" queryTableFieldId="9" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{E6F1954C-9112-4FDA-9242-ADD22FF823A7}" uniqueName="Tipodecontato" name="Tipo de contato" queryTableFieldId="14" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{1F2DECE4-ECCE-4071-920A-54ADD433A359}" uniqueName="DataFim" name="Data Fim" queryTableFieldId="6" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{024CDB14-20D3-4D32-B408-9D36AD0798B1}" uniqueName="GN" name="GN" queryTableFieldId="12" dataDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{8EDAFDDD-1875-457B-B048-055A1B23F81B}" uniqueName="Solicitante" name="Solicitante" queryTableFieldId="13" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{71B66BF3-4787-41DB-90B2-DCCAAA186657}" uniqueName="Title" name="Título" queryTableFieldId="1" dataDxfId="3"/>
-    <tableColumn id="16" xr3:uid="{D0F1EA0B-AA24-47FA-870B-826A896434F0}" uniqueName="_x005f_x0024_Resources_x005f_x003a_core_x002" name="Status de liberação" queryTableFieldId="16" dataDxfId="2"/>
-    <tableColumn id="17" xr3:uid="{A44DF2B6-ED9A-4901-887B-8F7E79A47952}" uniqueName="_ApprovalStatus" name="Status de aprovação" queryTableFieldId="17"/>
-    <tableColumn id="18" xr3:uid="{58205389-BF7D-4D7C-9E2A-B437110FFBC9}" uniqueName="FSObjType" name="Tipo de Item" queryTableFieldId="19" dataDxfId="1"/>
-    <tableColumn id="19" xr3:uid="{D556CCDD-557A-4ED4-AB36-81DD655F8D97}" uniqueName="FileDirRef" name="Caminho" queryTableFieldId="18" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{4567E257-9DF3-4B1B-AF43-99AED6C245AD}" uniqueName="Analista" name="Analista" queryTableFieldId="10" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{67DD4236-2A50-4A02-BED0-3A50E6B4BBA9}" uniqueName="SubClassifica_x005f_x00e7__x005f_x00e3_o" name="Sub Classificação" queryTableFieldId="15" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{DA37F729-773F-4C4A-8D58-404DAB4AA1CE}" uniqueName="Motivo" name="Motivo" queryTableFieldId="11" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{582494E2-287A-46F0-8539-0A56A32940A0}" uniqueName="Data" name="Data Inicio" queryTableFieldId="2" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{C91AEE8C-2965-4FD9-B695-DD3B2476ADB9}" uniqueName="CNPJ" name="CNPJ" queryTableFieldId="3" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{FD2028AF-E44B-41D6-90EA-C6F1C0EF29D3}" uniqueName="Raz_x005f_x00e3_oSocial" name="Razão Social" queryTableFieldId="4" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{9A372185-BEDF-4685-AE92-8632C66C582C}" uniqueName="Descri_x005f_x00e7__x005f_x00e3_o" name="Descrição" queryTableFieldId="5" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{BC1407AF-5120-41AE-995E-DFF9F904B98A}" uniqueName="FCR" name="FCR" queryTableFieldId="7" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{727F5FA2-CC3D-4CA0-9121-7BEDF1E99FA3}" uniqueName="Origemdocontato" name="Área responsável pela resolução" queryTableFieldId="8" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{28D2CCE5-E46D-4D33-B874-880BA236B3B9}" uniqueName="Origemdocontato0" name="Origem do contato" queryTableFieldId="9" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{B7CF5A90-B8C6-4D17-BC59-CE1F113375EF}" uniqueName="Tipodecontato" name="Tipo de contato" queryTableFieldId="14" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{98344BE2-1F57-48FE-821E-EE7E8B19C014}" uniqueName="DataFim" name="Data Fim" queryTableFieldId="6" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{93616BC2-8A5C-4858-BAE2-3C1D544785AA}" uniqueName="GN" name="GN" queryTableFieldId="12" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{7AFC6C71-5F40-4D74-B881-F03C88F93BB6}" uniqueName="Solicitante" name="Solicitante" queryTableFieldId="13" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{0E49F601-81A5-450A-ACB2-57FF3CCF0D7C}" uniqueName="Title" name="Título" queryTableFieldId="1" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{346F4C31-5104-4825-A20C-400C4EC63B01}" uniqueName="_x005f_x0024_Resources_x005f_x003a_core_x002" name="Status de liberação" queryTableFieldId="16" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{7AED7ED5-8F8F-4DDD-BC50-76363B7C76C2}" uniqueName="_ApprovalStatus" name="Status de aprovação" queryTableFieldId="17"/>
+    <tableColumn id="18" xr3:uid="{7B4E9C4C-E1C6-4163-95FA-E0CFE4B0DAA5}" uniqueName="FSObjType" name="Tipo de Item" queryTableFieldId="19" dataDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{A1EDDEEE-7BEC-47A3-807A-A9BF8CCDA7A4}" uniqueName="FileDirRef" name="Caminho" queryTableFieldId="18" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1867,11 +1864,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD87AD79-1D65-426C-87FD-CFEBDABBFD04}">
-  <dimension ref="A1:S98"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3A80B64-D935-425D-93F4-0C52B22030B0}">
+  <dimension ref="A1:S99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:S98"/>
+      <selection sqref="A1:S99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6693,11 +6690,9 @@
       <c r="E89" s="3">
         <v>37654527000140</v>
       </c>
-      <c r="F89" s="4" t="s">
+      <c r="F89" s="4"/>
+      <c r="G89" s="5" t="s">
         <v>258</v>
-      </c>
-      <c r="G89" s="5" t="s">
-        <v>259</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>21</v>
@@ -6706,7 +6701,7 @@
         <v>51</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="K89" s="1" t="s">
         <v>28</v>
@@ -6714,9 +6709,7 @@
       <c r="L89" s="2">
         <v>45999</v>
       </c>
-      <c r="M89" s="1" t="s">
-        <v>154</v>
-      </c>
+      <c r="M89" s="1"/>
       <c r="N89" s="1" t="s">
         <v>27</v>
       </c>
@@ -6749,10 +6742,10 @@
         <v>45132315000120</v>
       </c>
       <c r="F90" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="G90" s="5" t="s">
         <v>260</v>
-      </c>
-      <c r="G90" s="5" t="s">
-        <v>261</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>21</v>
@@ -6789,7 +6782,7 @@
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>55</v>
@@ -6804,10 +6797,10 @@
         <v>80979107000162</v>
       </c>
       <c r="F91" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="G91" s="5" t="s">
         <v>262</v>
-      </c>
-      <c r="G91" s="5" t="s">
-        <v>263</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>21</v>
@@ -6859,10 +6852,10 @@
         <v>57832654000107</v>
       </c>
       <c r="F92" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="G92" s="5" t="s">
         <v>265</v>
-      </c>
-      <c r="G92" s="5" t="s">
-        <v>266</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>21</v>
@@ -6914,10 +6907,10 @@
         <v>24894843000147</v>
       </c>
       <c r="F93" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G93" s="5" t="s">
         <v>267</v>
-      </c>
-      <c r="G93" s="5" t="s">
-        <v>268</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>21</v>
@@ -6968,11 +6961,9 @@
       <c r="E94" s="3">
         <v>298631000139</v>
       </c>
-      <c r="F94" s="4" t="s">
-        <v>269</v>
-      </c>
+      <c r="F94" s="4"/>
       <c r="G94" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>50</v>
@@ -6981,15 +6972,13 @@
         <v>51</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="K94" s="1" t="s">
         <v>28</v>
       </c>
       <c r="L94" s="2"/>
-      <c r="M94" s="1" t="s">
-        <v>213</v>
-      </c>
+      <c r="M94" s="1"/>
       <c r="N94" s="1" t="s">
         <v>27</v>
       </c>
@@ -7013,7 +7002,7 @@
         <v>55</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D95" s="2">
         <v>45999</v>
@@ -7022,10 +7011,10 @@
         <v>48055460000143</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>21</v>
@@ -7077,10 +7066,10 @@
         <v>87687489000108</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>21</v>
@@ -7098,7 +7087,7 @@
         <v>45999</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="N96" s="1" t="s">
         <v>143</v>
@@ -7132,10 +7121,10 @@
         <v>1991461002180</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>21</v>
@@ -7153,10 +7142,10 @@
         <v>45999</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O97" s="4"/>
       <c r="P97" s="4"/>
@@ -7178,7 +7167,7 @@
         <v>110</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D98" s="2">
         <v>45999</v>
@@ -7187,10 +7176,10 @@
         <v>15022398000134</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>21</v>
@@ -7222,6 +7211,57 @@
         <v>31</v>
       </c>
       <c r="S98" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D99" s="2">
+        <v>45999</v>
+      </c>
+      <c r="E99" s="3">
+        <v>87091997000110</v>
+      </c>
+      <c r="F99" s="4"/>
+      <c r="G99" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L99" s="2">
+        <v>45999</v>
+      </c>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O99" s="4"/>
+      <c r="P99" s="4"/>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S99" s="4" t="s">
         <v>30</v>
       </c>
     </row>

--- a/base_hub_github.xlsx
+++ b/base_hub_github.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupoultracloud-my.sharepoint.com/personal/thiago_junior_ipiranga_ipiranga/Documents/Área de Trabalho/PBI HUB/Base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{45AB09AD-0E1B-49D2-A492-B9C9379BF430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F58BC3FC-FAB7-4436-818A-637B7DD4098B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B27EFFC-D412-49FD-93E6-D2CA95F18DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{07214F66-2E7D-4888-9AF8-ED5538076715}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4F9689E7-DBC7-4B6F-800A-CF0F7E5DEF77}"/>
   </bookViews>
   <sheets>
     <sheet name="query" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="query__9" localSheetId="0" hidden="1">query!$A$1:$S$110</definedName>
+    <definedName name="query__10" localSheetId="0" hidden="1">query!$A$1:$S$112</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -24,14 +24,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{3785407F-BFEC-4A1C-BEC4-CF48B2445CA1}" odcFile="C:\Users\thiago.junior\Downloads\query (9).iqy" keepAlive="1" name="query (9)" type="5" refreshedVersion="8" minRefreshableVersion="3" saveData="1">
+  <connection id="1" xr16:uid="{36C0A67B-5ED5-4FDB-87DC-C3A8C6E5E5D0}" odcFile="C:\Users\thiago.junior\Downloads\query (10).iqy" keepAlive="1" name="query (10)" type="5" refreshedVersion="8" minRefreshableVersion="3" saveData="1">
     <dbPr connection="Provider=Microsoft.Office.List.OLEDB.2.0;Data Source=&quot;&quot;;ApplicationName=Excel;Version=12.0.0.0" command="&lt;LIST&gt;&lt;VIEWGUID&gt;A45175CA-9778-441D-B066-D8555F7DBBE4&lt;/VIEWGUID&gt;&lt;LISTNAME&gt;06be0e4e-018b-4cef-a562-4db2a9a684e1&lt;/LISTNAME&gt;&lt;LISTWEB&gt;https://grupoultracloud-my.sharepoint.com/personal/roberta_rocha_ipiranga_ipiranga/_vti_bin&lt;/LISTWEB&gt;&lt;LISTSUBWEB&gt;&lt;/LISTSUBWEB&gt;&lt;ROOTFOLDER&gt;&lt;/ROOTFOLDER&gt;&lt;/LIST&gt;" commandType="5"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="304">
   <si>
     <t>Título</t>
   </si>
@@ -939,6 +939,15 @@
   </si>
   <si>
     <t xml:space="preserve">Cliente ~Irene Oliveira - 55 21 96675-4927 não está conseguindo fazer transações via KMV </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ainda não consegui contato com o revendedor, acionei o CN solicitando o contato atualizado. </t>
+  </si>
+  <si>
+    <t>Adecar Com E Serv Automotivos Ltda</t>
+  </si>
+  <si>
+    <t>Apresentação do OFS desconto revenda avaliando ficou de dar o retorno em 10/12</t>
   </si>
 </sst>
 </file>
@@ -1550,7 +1559,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="query (9)" backgroundRefresh="0" connectionId="1" xr16:uid="{F2A47FF1-387B-409B-AB23-E1FA27308998}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="query (10)" backgroundRefresh="0" connectionId="1" xr16:uid="{5F25B97B-323D-445D-8583-B668710D6706}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="20">
     <queryTableFields count="19">
       <queryTableField id="10" name="Analista" tableColumnId="1"/>
@@ -1578,28 +1587,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DE15D2C4-3BC8-4332-A34F-100DE17EEF4A}" name="Tabela_query__9" displayName="Tabela_query__9" ref="A1:S110" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:S110" xr:uid="{DE15D2C4-3BC8-4332-A34F-100DE17EEF4A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BFC0725B-AFC5-4235-932C-D0C0CB6E37D9}" name="Tabela_query__10" displayName="Tabela_query__10" ref="A1:S112" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:S112" xr:uid="{BFC0725B-AFC5-4235-932C-D0C0CB6E37D9}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{0C90FE8F-DBD9-4C82-B0EF-777B6AD10C90}" uniqueName="Analista" name="Analista" queryTableFieldId="10" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{A64DF998-246F-4C2A-B5CE-604528B6ECFA}" uniqueName="SubClassifica_x005f_x00e7__x005f_x00e3_o" name="Sub Classificação" queryTableFieldId="15" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{0F5C6757-38CB-4A63-8871-1D5E21A7CB8C}" uniqueName="Motivo" name="Motivo" queryTableFieldId="11" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{4913AB58-F28D-4F2D-986E-D2E8B9377B3C}" uniqueName="Data" name="Data Inicio" queryTableFieldId="2" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{CDB32BF9-ACDB-49FD-90E2-CC4DECD23CCB}" uniqueName="CNPJ" name="CNPJ" queryTableFieldId="3" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{F25D5BFC-6C8D-4FA8-A015-4C6D9C4CE2E1}" uniqueName="Raz_x005f_x00e3_oSocial" name="Razão Social" queryTableFieldId="4" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{A558D12B-0C02-4CA0-BF8C-B4F4E2E94688}" uniqueName="Descri_x005f_x00e7__x005f_x00e3_o" name="Descrição" queryTableFieldId="5" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{0C9717D2-42AE-469A-BDA5-07C72B5A3910}" uniqueName="FCR" name="FCR" queryTableFieldId="7" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{01B58A63-668F-4660-ACF3-686FA6006A64}" uniqueName="Origemdocontato" name="Área responsável pela resolução" queryTableFieldId="8" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{A5BE60CE-5356-42B1-8173-F17C34736EAA}" uniqueName="Origemdocontato0" name="Origem do contato" queryTableFieldId="9" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{22FA6EB0-7CC0-4235-B99F-6778D8F373E3}" uniqueName="Tipodecontato" name="Tipo de contato" queryTableFieldId="14" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{4EE0EE48-80CE-4A26-8CA4-00179F35BAFF}" uniqueName="DataFim" name="Data Fim" queryTableFieldId="6" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{2D3A5C30-507F-4CA8-9C08-FB2DED4E305B}" uniqueName="GN" name="GN" queryTableFieldId="12" dataDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{DC13710D-539E-4CA9-8161-703F37A03333}" uniqueName="Solicitante" name="Solicitante" queryTableFieldId="13" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{1BBC5421-266C-4D41-9BE7-9E48744D618A}" uniqueName="Title" name="Título" queryTableFieldId="1" dataDxfId="3"/>
-    <tableColumn id="16" xr3:uid="{48F1048B-7D65-4216-AD42-D63303560476}" uniqueName="_x005f_x0024_Resources_x005f_x003a_core_x002" name="Status de liberação" queryTableFieldId="16" dataDxfId="2"/>
-    <tableColumn id="17" xr3:uid="{82F54CD7-A25F-41D7-B4E2-88A928DAABF7}" uniqueName="_ApprovalStatus" name="Status de aprovação" queryTableFieldId="17"/>
-    <tableColumn id="18" xr3:uid="{0588578C-C10D-4BE1-8D3B-C2C8361D78C2}" uniqueName="FSObjType" name="Tipo de Item" queryTableFieldId="19" dataDxfId="1"/>
-    <tableColumn id="19" xr3:uid="{049261F6-4DE5-46F2-BF57-245E59160E08}" uniqueName="FileDirRef" name="Caminho" queryTableFieldId="18" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{BAC632D0-2636-4132-AC82-7196840CF5AD}" uniqueName="Analista" name="Analista" queryTableFieldId="10" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{0B8F25D4-5E86-407D-9ED1-B70E349DF689}" uniqueName="SubClassifica_x005f_x00e7__x005f_x00e3_o" name="Sub Classificação" queryTableFieldId="15" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{C12FB57F-8370-425C-955E-BB3F1A6179C1}" uniqueName="Motivo" name="Motivo" queryTableFieldId="11" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{764A5391-24B3-4A26-A3A4-2685B5310EAE}" uniqueName="Data" name="Data Inicio" queryTableFieldId="2" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{8F39C7BA-9C05-4338-AA1F-46538737A5C9}" uniqueName="CNPJ" name="CNPJ" queryTableFieldId="3" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{B2EADD53-0D3C-434F-BBFF-99FD95CECBF4}" uniqueName="Raz_x005f_x00e3_oSocial" name="Razão Social" queryTableFieldId="4" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{1657A65B-5CF2-42DC-A108-388DA1A8ACED}" uniqueName="Descri_x005f_x00e7__x005f_x00e3_o" name="Descrição" queryTableFieldId="5" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{59C3A3C5-28CA-4017-9135-5537C487C1E2}" uniqueName="FCR" name="FCR" queryTableFieldId="7" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{DDFBA040-07A0-4BDB-9024-9D262442D436}" uniqueName="Origemdocontato" name="Área responsável pela resolução" queryTableFieldId="8" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{DF8DE139-4F42-4012-8F3F-728F455D006B}" uniqueName="Origemdocontato0" name="Origem do contato" queryTableFieldId="9" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{B49AA169-82B2-4F3A-B818-C1804539BE7E}" uniqueName="Tipodecontato" name="Tipo de contato" queryTableFieldId="14" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{A16387E7-1FA6-4A69-BBCA-B82B9BBAA5DC}" uniqueName="DataFim" name="Data Fim" queryTableFieldId="6" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{A0A9548B-826F-4D98-9030-DB90D3134204}" uniqueName="GN" name="GN" queryTableFieldId="12" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{519EE6AE-4B18-4D91-8D55-9EDBAE7C4D33}" uniqueName="Solicitante" name="Solicitante" queryTableFieldId="13" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{A1C13982-7F54-4D66-8EC9-41DC8C064902}" uniqueName="Title" name="Título" queryTableFieldId="1" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{0011EFED-A1F4-48B1-AB3F-DBCC25A34707}" uniqueName="_x005f_x0024_Resources_x005f_x003a_core_x002" name="Status de liberação" queryTableFieldId="16" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{0E765BE1-5FFA-4D04-887D-F6AC37F9CFD7}" uniqueName="_ApprovalStatus" name="Status de aprovação" queryTableFieldId="17"/>
+    <tableColumn id="18" xr3:uid="{3721C4B4-C4C9-4835-9E61-A7F0CDF962E6}" uniqueName="FSObjType" name="Tipo de Item" queryTableFieldId="19" dataDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{EC20FB61-AA1E-482C-A0B1-C8137096D0EB}" uniqueName="FileDirRef" name="Caminho" queryTableFieldId="18" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1921,10 +1930,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7604F592-0666-4E2E-9E10-F0B30274FE5D}">
-  <dimension ref="A1:S110"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB8877AB-106C-45BD-B386-3C1F981DC3D2}">
+  <dimension ref="A1:S112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -7927,6 +7936,116 @@
         <v>30</v>
       </c>
     </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A111" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D111" s="2">
+        <v>45999</v>
+      </c>
+      <c r="E111" s="3">
+        <v>10592852000179</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L111" s="2">
+        <v>45999</v>
+      </c>
+      <c r="M111" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N111" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="O111" s="4"/>
+      <c r="P111" s="4"/>
+      <c r="Q111">
+        <v>0</v>
+      </c>
+      <c r="R111" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S111" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A112" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D112" s="2">
+        <v>46000</v>
+      </c>
+      <c r="E112" s="3">
+        <v>7433734000103</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L112" s="2">
+        <v>46001</v>
+      </c>
+      <c r="M112" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="N112" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O112" s="4"/>
+      <c r="P112" s="4"/>
+      <c r="Q112">
+        <v>0</v>
+      </c>
+      <c r="R112" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S112" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">

--- a/base_hub_github.xlsx
+++ b/base_hub_github.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupoultracloud-my.sharepoint.com/personal/thiago_junior_ipiranga_ipiranga/Documents/Área de Trabalho/PBI HUB/Base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B27EFFC-D412-49FD-93E6-D2CA95F18DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4DCCCB7-514B-4457-AB67-152E5D164F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4F9689E7-DBC7-4B6F-800A-CF0F7E5DEF77}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9E6F34FE-EBA0-4AB5-9951-B274DAB160E3}"/>
   </bookViews>
   <sheets>
     <sheet name="query" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="query__10" localSheetId="0" hidden="1">query!$A$1:$S$112</definedName>
+    <definedName name="query__11" localSheetId="0" hidden="1">query!$A$1:$S$115</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -24,14 +24,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{36C0A67B-5ED5-4FDB-87DC-C3A8C6E5E5D0}" odcFile="C:\Users\thiago.junior\Downloads\query (10).iqy" keepAlive="1" name="query (10)" type="5" refreshedVersion="8" minRefreshableVersion="3" saveData="1">
+  <connection id="1" xr16:uid="{33492E1E-72D1-4E41-ACAE-C135E69B4424}" odcFile="C:\Users\thiago.junior\Downloads\query (11).iqy" keepAlive="1" name="query (11)" type="5" refreshedVersion="8" minRefreshableVersion="3" saveData="1">
     <dbPr connection="Provider=Microsoft.Office.List.OLEDB.2.0;Data Source=&quot;&quot;;ApplicationName=Excel;Version=12.0.0.0" command="&lt;LIST&gt;&lt;VIEWGUID&gt;A45175CA-9778-441D-B066-D8555F7DBBE4&lt;/VIEWGUID&gt;&lt;LISTNAME&gt;06be0e4e-018b-4cef-a562-4db2a9a684e1&lt;/LISTNAME&gt;&lt;LISTWEB&gt;https://grupoultracloud-my.sharepoint.com/personal/roberta_rocha_ipiranga_ipiranga/_vti_bin&lt;/LISTWEB&gt;&lt;LISTSUBWEB&gt;&lt;/LISTSUBWEB&gt;&lt;ROOTFOLDER&gt;&lt;/ROOTFOLDER&gt;&lt;/LIST&gt;" commandType="5"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="307">
   <si>
     <t>Título</t>
   </si>
@@ -948,6 +948,15 @@
   </si>
   <si>
     <t>Apresentação do OFS desconto revenda avaliando ficou de dar o retorno em 10/12</t>
+  </si>
+  <si>
+    <t>Valenca A Service Ltda</t>
+  </si>
+  <si>
+    <t>apresentação do treinamento ( sistemicos + ofs desconto) campanha cadastrada mas o posto não estava entendendo operacionalmente o processo da concessão do desconto</t>
+  </si>
+  <si>
+    <t>Entrei em contato com o revendedor Júnior para dar continuidade à ativação do posto no KMV. Passei as instruções iniciais sobre como operacionalizar e como solicitar a POS da Rede.</t>
   </si>
 </sst>
 </file>
@@ -1559,7 +1568,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="query (10)" backgroundRefresh="0" connectionId="1" xr16:uid="{5F25B97B-323D-445D-8583-B668710D6706}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="query (11)" backgroundRefresh="0" connectionId="1" xr16:uid="{0C0A3A01-1271-4178-9A52-AD62C25DCD32}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="20">
     <queryTableFields count="19">
       <queryTableField id="10" name="Analista" tableColumnId="1"/>
@@ -1587,28 +1596,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BFC0725B-AFC5-4235-932C-D0C0CB6E37D9}" name="Tabela_query__10" displayName="Tabela_query__10" ref="A1:S112" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:S112" xr:uid="{BFC0725B-AFC5-4235-932C-D0C0CB6E37D9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A666DDC3-CBAA-4966-AC4B-A4DD45DEB453}" name="Tabela_query__11" displayName="Tabela_query__11" ref="A1:S115" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:S115" xr:uid="{A666DDC3-CBAA-4966-AC4B-A4DD45DEB453}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{BAC632D0-2636-4132-AC82-7196840CF5AD}" uniqueName="Analista" name="Analista" queryTableFieldId="10" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{0B8F25D4-5E86-407D-9ED1-B70E349DF689}" uniqueName="SubClassifica_x005f_x00e7__x005f_x00e3_o" name="Sub Classificação" queryTableFieldId="15" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{C12FB57F-8370-425C-955E-BB3F1A6179C1}" uniqueName="Motivo" name="Motivo" queryTableFieldId="11" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{764A5391-24B3-4A26-A3A4-2685B5310EAE}" uniqueName="Data" name="Data Inicio" queryTableFieldId="2" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{8F39C7BA-9C05-4338-AA1F-46538737A5C9}" uniqueName="CNPJ" name="CNPJ" queryTableFieldId="3" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{B2EADD53-0D3C-434F-BBFF-99FD95CECBF4}" uniqueName="Raz_x005f_x00e3_oSocial" name="Razão Social" queryTableFieldId="4" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{1657A65B-5CF2-42DC-A108-388DA1A8ACED}" uniqueName="Descri_x005f_x00e7__x005f_x00e3_o" name="Descrição" queryTableFieldId="5" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{59C3A3C5-28CA-4017-9135-5537C487C1E2}" uniqueName="FCR" name="FCR" queryTableFieldId="7" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{DDFBA040-07A0-4BDB-9024-9D262442D436}" uniqueName="Origemdocontato" name="Área responsável pela resolução" queryTableFieldId="8" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{DF8DE139-4F42-4012-8F3F-728F455D006B}" uniqueName="Origemdocontato0" name="Origem do contato" queryTableFieldId="9" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{B49AA169-82B2-4F3A-B818-C1804539BE7E}" uniqueName="Tipodecontato" name="Tipo de contato" queryTableFieldId="14" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{A16387E7-1FA6-4A69-BBCA-B82B9BBAA5DC}" uniqueName="DataFim" name="Data Fim" queryTableFieldId="6" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{A0A9548B-826F-4D98-9030-DB90D3134204}" uniqueName="GN" name="GN" queryTableFieldId="12" dataDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{519EE6AE-4B18-4D91-8D55-9EDBAE7C4D33}" uniqueName="Solicitante" name="Solicitante" queryTableFieldId="13" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{A1C13982-7F54-4D66-8EC9-41DC8C064902}" uniqueName="Title" name="Título" queryTableFieldId="1" dataDxfId="3"/>
-    <tableColumn id="16" xr3:uid="{0011EFED-A1F4-48B1-AB3F-DBCC25A34707}" uniqueName="_x005f_x0024_Resources_x005f_x003a_core_x002" name="Status de liberação" queryTableFieldId="16" dataDxfId="2"/>
-    <tableColumn id="17" xr3:uid="{0E765BE1-5FFA-4D04-887D-F6AC37F9CFD7}" uniqueName="_ApprovalStatus" name="Status de aprovação" queryTableFieldId="17"/>
-    <tableColumn id="18" xr3:uid="{3721C4B4-C4C9-4835-9E61-A7F0CDF962E6}" uniqueName="FSObjType" name="Tipo de Item" queryTableFieldId="19" dataDxfId="1"/>
-    <tableColumn id="19" xr3:uid="{EC20FB61-AA1E-482C-A0B1-C8137096D0EB}" uniqueName="FileDirRef" name="Caminho" queryTableFieldId="18" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{A741324E-D380-4E80-B138-8B3DF7A28CDA}" uniqueName="Analista" name="Analista" queryTableFieldId="10" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{12002AED-7F2C-49A1-9C1E-D03EF24A7A87}" uniqueName="SubClassifica_x005f_x00e7__x005f_x00e3_o" name="Sub Classificação" queryTableFieldId="15" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{37ADF214-A66C-491C-80B4-A7DAA622F164}" uniqueName="Motivo" name="Motivo" queryTableFieldId="11" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{4D27D8F6-83EF-49B5-A3E9-C93A95B15196}" uniqueName="Data" name="Data Inicio" queryTableFieldId="2" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{436D3F0B-F9E3-44EE-AA3E-73B435AC260E}" uniqueName="CNPJ" name="CNPJ" queryTableFieldId="3" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{039AB0FE-1E18-4D34-91AB-63B96D1957BD}" uniqueName="Raz_x005f_x00e3_oSocial" name="Razão Social" queryTableFieldId="4" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{05E81ADE-A01C-4BB3-B3D4-EAFD42516103}" uniqueName="Descri_x005f_x00e7__x005f_x00e3_o" name="Descrição" queryTableFieldId="5" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{D69751B5-8112-4955-AB4C-869EF381F707}" uniqueName="FCR" name="FCR" queryTableFieldId="7" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{EE63BB64-8D5C-40F7-A0FA-4887959D4237}" uniqueName="Origemdocontato" name="Área responsável pela resolução" queryTableFieldId="8" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{D65F84A2-8460-4839-A317-23362D07F24C}" uniqueName="Origemdocontato0" name="Origem do contato" queryTableFieldId="9" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{E75BC70A-82DC-484C-A61E-11A8B76A8169}" uniqueName="Tipodecontato" name="Tipo de contato" queryTableFieldId="14" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{56313A8B-C37D-4ECA-A36F-1162280E6DE0}" uniqueName="DataFim" name="Data Fim" queryTableFieldId="6" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{E1EDCFAC-23C5-4D7A-9CC4-DF2B1F55A8B3}" uniqueName="GN" name="GN" queryTableFieldId="12" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{D73F45BA-D4F7-488D-AD4F-74D4BB4DA583}" uniqueName="Solicitante" name="Solicitante" queryTableFieldId="13" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{94BE1548-B2FD-40E6-BB8B-8F2EEDEF217B}" uniqueName="Title" name="Título" queryTableFieldId="1" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{4B4BD5F4-A9A6-4D2E-8559-FC27FCC29D87}" uniqueName="_x005f_x0024_Resources_x005f_x003a_core_x002" name="Status de liberação" queryTableFieldId="16" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{CE76E820-A555-4D59-88F8-00FD400210CB}" uniqueName="_ApprovalStatus" name="Status de aprovação" queryTableFieldId="17"/>
+    <tableColumn id="18" xr3:uid="{75EF6D6D-0D76-44C0-8E5C-82A63C9D739E}" uniqueName="FSObjType" name="Tipo de Item" queryTableFieldId="19" dataDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{22C5750F-5E50-4B9B-AFA5-014220685E00}" uniqueName="FileDirRef" name="Caminho" queryTableFieldId="18" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1930,10 +1939,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB8877AB-106C-45BD-B386-3C1F981DC3D2}">
-  <dimension ref="A1:S112"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{759CE1B8-49F0-4D56-913E-35D282C03FE5}">
+  <dimension ref="A1:S115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:S115"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -8046,6 +8057,171 @@
         <v>30</v>
       </c>
     </row>
+    <row r="113" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D113" s="2">
+        <v>46000</v>
+      </c>
+      <c r="E113" s="3">
+        <v>4785105000154</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="G113" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L113" s="2">
+        <v>46000</v>
+      </c>
+      <c r="M113" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N113" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="O113" s="4"/>
+      <c r="P113" s="4"/>
+      <c r="Q113">
+        <v>0</v>
+      </c>
+      <c r="R113" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S113" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+      <c r="A114" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D114" s="2">
+        <v>46000</v>
+      </c>
+      <c r="E114" s="3">
+        <v>76816842000420</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L114" s="2">
+        <v>46000</v>
+      </c>
+      <c r="M114" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N114" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="O114" s="4"/>
+      <c r="P114" s="4"/>
+      <c r="Q114">
+        <v>0</v>
+      </c>
+      <c r="R114" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S114" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D115" s="2">
+        <v>46000</v>
+      </c>
+      <c r="E115" s="3">
+        <v>76816842000269</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L115" s="2">
+        <v>46000</v>
+      </c>
+      <c r="M115" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N115" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="O115" s="4"/>
+      <c r="P115" s="4"/>
+      <c r="Q115">
+        <v>0</v>
+      </c>
+      <c r="R115" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S115" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">

--- a/base_hub_github.xlsx
+++ b/base_hub_github.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupoultracloud-my.sharepoint.com/personal/thiago_junior_ipiranga_ipiranga/Documents/Área de Trabalho/PBI HUB/Base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{353FCC49-4ECE-400D-97B3-357BA9100EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{FE9CF3BB-763B-43D5-B5FA-CDA16976B641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B6CBA69-AFEC-483A-8D96-A003C99DDCF2}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1F4220C7-B7E8-492A-B955-199492B82BA7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6C809199-4A9B-4DE7-8196-ED6B0FD01B85}"/>
   </bookViews>
   <sheets>
     <sheet name="query" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="query__12" localSheetId="0" hidden="1">query!$A$1:$S$117</definedName>
+    <definedName name="query__14" localSheetId="0" hidden="1">query!$A$1:$S$122</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -24,14 +24,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{48A586BE-1141-4501-A85A-01E0A3F14214}" odcFile="C:\Users\thiago.junior\Downloads\query (12).iqy" keepAlive="1" name="query (12)" type="5" refreshedVersion="8" minRefreshableVersion="3" saveData="1">
+  <connection id="1" xr16:uid="{90A6E229-F152-4DBA-A824-0E6875837FF9}" odcFile="C:\Users\thiago.junior\Downloads\query (14).iqy" keepAlive="1" name="query (14)" type="5" refreshedVersion="8" minRefreshableVersion="3" saveData="1">
     <dbPr connection="Provider=Microsoft.Office.List.OLEDB.2.0;Data Source=&quot;&quot;;ApplicationName=Excel;Version=12.0.0.0" command="&lt;LIST&gt;&lt;VIEWGUID&gt;A45175CA-9778-441D-B066-D8555F7DBBE4&lt;/VIEWGUID&gt;&lt;LISTNAME&gt;06be0e4e-018b-4cef-a562-4db2a9a684e1&lt;/LISTNAME&gt;&lt;LISTWEB&gt;https://grupoultracloud-my.sharepoint.com/personal/roberta_rocha_ipiranga_ipiranga/_vti_bin&lt;/LISTWEB&gt;&lt;LISTSUBWEB&gt;&lt;/LISTSUBWEB&gt;&lt;ROOTFOLDER&gt;&lt;/ROOTFOLDER&gt;&lt;/LIST&gt;" commandType="5"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="318">
   <si>
     <t>Título</t>
   </si>
@@ -963,6 +963,33 @@
   </si>
   <si>
     <t>Entrei em contato com o revendedor Gustavo para orientá-lo sobre a adesão ao Conecta, visto que os demais postos do grupo já utilizam o serviço. Gustavo informou que o diretor do Grupo BCA não quis seguir com a adesão ao Conecta. Segundo ele, o posto irá deixar a bandeira Ipiranga.</t>
+  </si>
+  <si>
+    <t>Auto Posto Pra Frente Brasil Ltda</t>
+  </si>
+  <si>
+    <t>A revendedora Tânia entrou em contato para reclamar sobre um caso de desfazimento. Solicitei o reembolso à Ana Farandi.</t>
+  </si>
+  <si>
+    <t>Em contato com a Rede para apresentar a solução Conecta, o posto informou que está avaliando a possibilidade de adesão. No entanto, não há previsão para implementação, considerando que estamos no final do ano e não desejam comprometer o atendimento com demandas técnicas neste período.</t>
+  </si>
+  <si>
+    <t>Auto Posto Eco Gas Ltda - Me</t>
+  </si>
+  <si>
+    <t>Apresentação do Conecta Rede avaliando a implementação ( ação final de ano reversão dos postos  com sistema homolog porém sem conecta implementado)</t>
+  </si>
+  <si>
+    <t>Ajuste de lat-long de 30 postos.</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Grupo Majore Paula Auto Posto Ltda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Andrea do Grupo Curt solicitou apoio pois Dea dia 02/12 no Majore não recebemos este KMV no valor de 445,70 slip anexo tratase de um problema de desfazidimento cnversei com a Ana Paula e sera feito o reemboldo na proxima sexta 12/06 já informado para Andrea </t>
   </si>
 </sst>
 </file>
@@ -1574,7 +1601,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="query (12)" backgroundRefresh="0" connectionId="1" xr16:uid="{2A0CC5B6-D5CC-4F12-9AAE-4861ED250912}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="query (14)" backgroundRefresh="0" connectionId="1" xr16:uid="{0783D6E5-FDC5-489B-A813-DEC3A63EDEEA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="20">
     <queryTableFields count="19">
       <queryTableField id="10" name="Analista" tableColumnId="1"/>
@@ -1602,28 +1629,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E74938EB-E8DE-4950-BA25-2429ABA70CAD}" name="Tabela_query__12" displayName="Tabela_query__12" ref="A1:S117" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:S117" xr:uid="{E74938EB-E8DE-4950-BA25-2429ABA70CAD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{803E23AD-F2D1-4F0E-9AD9-463B6D4E8DEF}" name="Tabela_query__14" displayName="Tabela_query__14" ref="A1:S122" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:S122" xr:uid="{803E23AD-F2D1-4F0E-9AD9-463B6D4E8DEF}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{078FF9C4-1336-4172-81DD-4B9FEDD80100}" uniqueName="Analista" name="Analista" queryTableFieldId="10" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{D76BD225-EFB1-46AF-8CDF-4A62A509DAE7}" uniqueName="SubClassifica_x005f_x00e7__x005f_x00e3_o" name="Sub Classificação" queryTableFieldId="15" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{3DE091AC-5F95-4CF9-B5F7-5F8F69FC8B67}" uniqueName="Motivo" name="Motivo" queryTableFieldId="11" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{45DC8266-7D9E-4511-9BC2-E0BF5F1DAE35}" uniqueName="Data" name="Data Inicio" queryTableFieldId="2" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{E488BFCD-C5F1-4608-876C-AD5918A12E39}" uniqueName="CNPJ" name="CNPJ" queryTableFieldId="3" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{7FC94D77-AF41-456A-87EE-BBF084D0358D}" uniqueName="Raz_x005f_x00e3_oSocial" name="Razão Social" queryTableFieldId="4" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{A1F9368A-ECB9-491B-9523-14EF653810B2}" uniqueName="Descri_x005f_x00e7__x005f_x00e3_o" name="Descrição" queryTableFieldId="5" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{0D0DC5D3-986A-4F26-918C-34FECD4B73BA}" uniqueName="FCR" name="FCR" queryTableFieldId="7" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{06CD2ADB-08BD-461D-80B8-8250B3B80E36}" uniqueName="Origemdocontato" name="Área responsável pela resolução" queryTableFieldId="8" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{4C757C14-02C3-4C87-9491-38C7B3309782}" uniqueName="Origemdocontato0" name="Origem do contato" queryTableFieldId="9" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{DF901E75-B3B6-4AFE-BA1F-B53D4131D38E}" uniqueName="Tipodecontato" name="Tipo de contato" queryTableFieldId="14" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{F3121314-C64F-4830-AE50-7E00AF6B28BC}" uniqueName="DataFim" name="Data Fim" queryTableFieldId="6" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{89BD24A4-539C-43D1-B633-268C523E9C16}" uniqueName="GN" name="GN" queryTableFieldId="12" dataDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{661430A3-AF38-4371-811B-B768F99676A6}" uniqueName="Solicitante" name="Solicitante" queryTableFieldId="13" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{EB7E2C8E-BD1C-4EEA-89D2-0B156C85606F}" uniqueName="Title" name="Título" queryTableFieldId="1" dataDxfId="3"/>
-    <tableColumn id="16" xr3:uid="{3CA922CF-E9AB-4BAD-9993-1C4FF51CDE1F}" uniqueName="_x005f_x0024_Resources_x005f_x003a_core_x002" name="Status de liberação" queryTableFieldId="16" dataDxfId="2"/>
-    <tableColumn id="17" xr3:uid="{FBE80074-8CC4-4804-A89E-43D4C33D5D1E}" uniqueName="_ApprovalStatus" name="Status de aprovação" queryTableFieldId="17"/>
-    <tableColumn id="18" xr3:uid="{A6D50F0D-551F-40C1-B5D9-12F69C1834B8}" uniqueName="FSObjType" name="Tipo de Item" queryTableFieldId="19" dataDxfId="1"/>
-    <tableColumn id="19" xr3:uid="{5541FCEF-6F2F-4412-89DA-CD099B3FA082}" uniqueName="FileDirRef" name="Caminho" queryTableFieldId="18" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{0E1C4EC2-31E4-4A39-B727-F2A26D687355}" uniqueName="Analista" name="Analista" queryTableFieldId="10" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{F241D960-FF6D-43E6-9DEF-54FDB603141F}" uniqueName="SubClassifica_x005f_x00e7__x005f_x00e3_o" name="Sub Classificação" queryTableFieldId="15" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{8FDB224B-315E-4708-A3B6-87DCD80E2631}" uniqueName="Motivo" name="Motivo" queryTableFieldId="11" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{F6ADD207-67D3-42F2-BCCA-270F9B70A96B}" uniqueName="Data" name="Data Inicio" queryTableFieldId="2" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{DFCF4B6F-D7A6-4705-85CE-41620A807849}" uniqueName="CNPJ" name="CNPJ" queryTableFieldId="3" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{9B1DBAB7-F6AA-4E49-89E7-274602C2152C}" uniqueName="Raz_x005f_x00e3_oSocial" name="Razão Social" queryTableFieldId="4" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{AB977B59-D421-4996-876C-C8DEB1690562}" uniqueName="Descri_x005f_x00e7__x005f_x00e3_o" name="Descrição" queryTableFieldId="5" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{012AFA94-24AF-4F51-A867-2BBC5D765F0F}" uniqueName="FCR" name="FCR" queryTableFieldId="7" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{C630BAFD-B96E-4F08-B9C2-8656A3A4799D}" uniqueName="Origemdocontato" name="Área responsável pela resolução" queryTableFieldId="8" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{3A2DD30E-511A-404C-852B-3571EF76D957}" uniqueName="Origemdocontato0" name="Origem do contato" queryTableFieldId="9" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{AC3E935D-0C73-470E-8297-BB73EC431205}" uniqueName="Tipodecontato" name="Tipo de contato" queryTableFieldId="14" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{BE19DE57-B50D-4185-A579-6A2B29A77592}" uniqueName="DataFim" name="Data Fim" queryTableFieldId="6" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{0C37D9F0-4CCC-42D5-8276-985257A965EC}" uniqueName="GN" name="GN" queryTableFieldId="12" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{0C096B49-6EE2-485E-9046-2CFDCD4B4DB0}" uniqueName="Solicitante" name="Solicitante" queryTableFieldId="13" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{FB09E65C-7025-461B-9FE1-4722306B2033}" uniqueName="Title" name="Título" queryTableFieldId="1" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{FD5573BD-E7BF-47F4-AF61-70C10EBCB24A}" uniqueName="_x005f_x0024_Resources_x005f_x003a_core_x002" name="Status de liberação" queryTableFieldId="16" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{71433DDF-F067-4833-8CCB-65848DF1CD41}" uniqueName="_ApprovalStatus" name="Status de aprovação" queryTableFieldId="17"/>
+    <tableColumn id="18" xr3:uid="{92DBEB67-00AE-4E2F-AFDE-AFD114EACFD0}" uniqueName="FSObjType" name="Tipo de Item" queryTableFieldId="19" dataDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{C11A7738-469B-4EBE-839C-D6755C1F42C1}" uniqueName="FileDirRef" name="Caminho" queryTableFieldId="18" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1945,11 +1972,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52652EEA-6931-4541-8468-E11C52A09D19}">
-  <dimension ref="A1:S117"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A5D3C05-AC84-4E3E-BE78-7CD7147A79D0}">
+  <dimension ref="A1:S122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:S117"/>
+      <selection sqref="A1:S122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8338,6 +8365,275 @@
         <v>30</v>
       </c>
     </row>
+    <row r="118" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+      <c r="A118" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D118" s="2">
+        <v>46000</v>
+      </c>
+      <c r="E118" s="3">
+        <v>4868412000794</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L118" s="2">
+        <v>46000</v>
+      </c>
+      <c r="M118" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N118" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O118" s="4"/>
+      <c r="P118" s="4"/>
+      <c r="Q118">
+        <v>0</v>
+      </c>
+      <c r="R118" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S118" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" ht="58" x14ac:dyDescent="0.35">
+      <c r="A119" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D119" s="2">
+        <v>46000</v>
+      </c>
+      <c r="E119" s="3">
+        <v>61620792000191</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="G119" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L119" s="2">
+        <v>46000</v>
+      </c>
+      <c r="M119" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="N119" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="O119" s="4"/>
+      <c r="P119" s="4"/>
+      <c r="Q119">
+        <v>0</v>
+      </c>
+      <c r="R119" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S119" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+      <c r="A120" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C120" s="1"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="3">
+        <v>57900011000145</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L120" s="2">
+        <v>46000</v>
+      </c>
+      <c r="M120" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N120" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="O120" s="4"/>
+      <c r="P120" s="4"/>
+      <c r="Q120">
+        <v>0</v>
+      </c>
+      <c r="R120" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S120" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A121" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D121" s="2">
+        <v>46000</v>
+      </c>
+      <c r="E121" s="3">
+        <v>11111111111111</v>
+      </c>
+      <c r="F121" s="4"/>
+      <c r="G121" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K121" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L121" s="2">
+        <v>46000</v>
+      </c>
+      <c r="M121" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="N121" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="O121" s="4"/>
+      <c r="P121" s="4"/>
+      <c r="Q121">
+        <v>0</v>
+      </c>
+      <c r="R121" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S121" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A122" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D122" s="2">
+        <v>46001</v>
+      </c>
+      <c r="E122" s="3">
+        <v>51532099000103</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K122" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L122" s="2">
+        <v>46003</v>
+      </c>
+      <c r="M122" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N122" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O122" s="4"/>
+      <c r="P122" s="4"/>
+      <c r="Q122">
+        <v>0</v>
+      </c>
+      <c r="R122" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S122" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">

--- a/base_hub_github.xlsx
+++ b/base_hub_github.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupoultracloud-my.sharepoint.com/personal/thiago_junior_ipiranga_ipiranga/Documents/Área de Trabalho/PBI HUB/Base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{FE9CF3BB-763B-43D5-B5FA-CDA16976B641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B6CBA69-AFEC-483A-8D96-A003C99DDCF2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0CD70C8-737E-4BF5-859A-1228CEA5C99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6C809199-4A9B-4DE7-8196-ED6B0FD01B85}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2AF16816-F5A3-4636-B448-F48FE147706C}"/>
   </bookViews>
   <sheets>
     <sheet name="query" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="query__14" localSheetId="0" hidden="1">query!$A$1:$S$122</definedName>
+    <definedName name="query__15" localSheetId="0" hidden="1">query!$A$1:$S$122</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -24,14 +24,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{90A6E229-F152-4DBA-A824-0E6875837FF9}" odcFile="C:\Users\thiago.junior\Downloads\query (14).iqy" keepAlive="1" name="query (14)" type="5" refreshedVersion="8" minRefreshableVersion="3" saveData="1">
+  <connection id="1" xr16:uid="{197882FB-3FF3-4E5C-AAC5-F2742C555C35}" odcFile="C:\Users\thiago.junior\Downloads\query (15).iqy" keepAlive="1" name="query (15)" type="5" refreshedVersion="8" minRefreshableVersion="3" saveData="1">
     <dbPr connection="Provider=Microsoft.Office.List.OLEDB.2.0;Data Source=&quot;&quot;;ApplicationName=Excel;Version=12.0.0.0" command="&lt;LIST&gt;&lt;VIEWGUID&gt;A45175CA-9778-441D-B066-D8555F7DBBE4&lt;/VIEWGUID&gt;&lt;LISTNAME&gt;06be0e4e-018b-4cef-a562-4db2a9a684e1&lt;/LISTNAME&gt;&lt;LISTWEB&gt;https://grupoultracloud-my.sharepoint.com/personal/roberta_rocha_ipiranga_ipiranga/_vti_bin&lt;/LISTWEB&gt;&lt;LISTSUBWEB&gt;&lt;/LISTSUBWEB&gt;&lt;ROOTFOLDER&gt;&lt;/ROOTFOLDER&gt;&lt;/LIST&gt;" commandType="5"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="311">
   <si>
     <t>Título</t>
   </si>
@@ -154,9 +154,6 @@
   </si>
   <si>
     <t>G.N. Urbano Goiania</t>
-  </si>
-  <si>
-    <t>Valenca Service</t>
   </si>
   <si>
     <t>Posto com campanha ativa desde 20/10/2025, oferecendo R$9,00 de desconto no etanol original para clientes com ticket acima de R$100,00.
@@ -172,9 +169,6 @@
     <t>Thiago</t>
   </si>
   <si>
-    <t>G.N. Urbano Campinas</t>
-  </si>
-  <si>
     <t>Abastecedora De Combs.Rodovia Rs-118 Lt</t>
   </si>
   <si>
@@ -308,6 +302,9 @@
     <t xml:space="preserve">Posto relata erro na impressão do slip e pede para que chequemos se já a transação foi compensada. Orientei o processo no portal mas de toda forma sanei a duvida pontualmente. </t>
   </si>
   <si>
+    <t>G.N. Urbano Campinas</t>
+  </si>
+  <si>
     <t>Auto Posto Parque Novo Mundo I Ltda</t>
   </si>
   <si>
@@ -506,9 +503,6 @@
     <t>G.N. Rodovia Rio De Janeiro</t>
   </si>
   <si>
-    <t>Posto Liberdade Locatelli</t>
-  </si>
-  <si>
     <t>Revendedora recla de vendas estornadas devido instabilidade no APP</t>
   </si>
   <si>
@@ -614,9 +608,6 @@
     <t>Apresentei novamente a proposta do projeto Oferta é Sua Desconto ao revendedor Igor. Porém, infelizmente, ele tem se mostrado relutante, visto que já possui um aplicativo local para trabalhar com os próprios descontos.</t>
   </si>
   <si>
-    <t>Aruja Centro Automotivo Ltda</t>
-  </si>
-  <si>
     <t xml:space="preserve">Solicitação via CT de ajuste Lat Long ( Karina Silva) </t>
   </si>
   <si>
@@ -764,9 +755,6 @@
     <t xml:space="preserve">Ajuste de lat e long a pedido do Paulo, instrutor de treinamento da Ipiranga. </t>
   </si>
   <si>
-    <t xml:space="preserve">Valeça Service </t>
-  </si>
-  <si>
     <t>Problema com Automação – Oferta “É Sua” Posto com automação Webposto Quality relatou falha na aplicação do desconto da oferta “É Sua”. Após análise, identificamos que o problema era generalizado na automação, ocorrendo apenas no PDV móvel (no PDV fixo funcionava normalmente).</t>
   </si>
   <si>
@@ -806,9 +794,6 @@
     <t>Apresentação Oferta é sua desconto</t>
   </si>
   <si>
-    <t>Centro Automotivo Blue Miami Ltda</t>
-  </si>
-  <si>
     <t>Responsável: Ana Paula Posto: Centro Automotivo Blue Miami Ltda CNPJ: 37.654.527/0001-40 Identificador da Venda: ABA-204346073 Data da Autorização: 18/11 às 21:30 Data do Estorno: 18/11 às 21:35 Valor da Transação: R$ 334,47 Valor Líquido: R$ 325,47 Meio de Pagamento: Online Status: Pendente Avaliação Observações: Venda autorizada e posteriormente estornada. Solicitar reversão ou procedimento adicional.</t>
   </si>
   <si>
@@ -974,9 +959,6 @@
     <t>Em contato com a Rede para apresentar a solução Conecta, o posto informou que está avaliando a possibilidade de adesão. No entanto, não há previsão para implementação, considerando que estamos no final do ano e não desejam comprometer o atendimento com demandas técnicas neste período.</t>
   </si>
   <si>
-    <t>Auto Posto Eco Gas Ltda - Me</t>
-  </si>
-  <si>
     <t>Apresentação do Conecta Rede avaliando a implementação ( ação final de ano reversão dos postos  com sistema homolog porém sem conecta implementado)</t>
   </si>
   <si>
@@ -986,10 +968,7 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Grupo Majore Paula Auto Posto Ltda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Andrea do Grupo Curt solicitou apoio pois Dea dia 02/12 no Majore não recebemos este KMV no valor de 445,70 slip anexo tratase de um problema de desfazidimento cnversei com a Ana Paula e sera feito o reemboldo na proxima sexta 12/06 já informado para Andrea </t>
+    <t>Andrea, do Grupo Curt, solicitou apoio referente à devolução realizada no dia 02/12 no Majore. Não recebemos o KMV no valor de R$445,70 (slip anexo). Trata-se de um problema de desfazimento. Conversei com Ana Paula e o reembolso será efetuado na próxima sexta-feira, 12/12. Andrea já foi informada.</t>
   </si>
 </sst>
 </file>
@@ -1601,7 +1580,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="query (14)" backgroundRefresh="0" connectionId="1" xr16:uid="{0783D6E5-FDC5-489B-A813-DEC3A63EDEEA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="query (15)" backgroundRefresh="0" connectionId="1" xr16:uid="{C906F2FF-DEED-433E-A129-678217FDEFE9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="20">
     <queryTableFields count="19">
       <queryTableField id="10" name="Analista" tableColumnId="1"/>
@@ -1629,28 +1608,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{803E23AD-F2D1-4F0E-9AD9-463B6D4E8DEF}" name="Tabela_query__14" displayName="Tabela_query__14" ref="A1:S122" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:S122" xr:uid="{803E23AD-F2D1-4F0E-9AD9-463B6D4E8DEF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6147E25F-2E1D-47BE-8A94-3110C4CC0826}" name="Tabela_query__15" displayName="Tabela_query__15" ref="A1:S122" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:S122" xr:uid="{6147E25F-2E1D-47BE-8A94-3110C4CC0826}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{0E1C4EC2-31E4-4A39-B727-F2A26D687355}" uniqueName="Analista" name="Analista" queryTableFieldId="10" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{F241D960-FF6D-43E6-9DEF-54FDB603141F}" uniqueName="SubClassifica_x005f_x00e7__x005f_x00e3_o" name="Sub Classificação" queryTableFieldId="15" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{8FDB224B-315E-4708-A3B6-87DCD80E2631}" uniqueName="Motivo" name="Motivo" queryTableFieldId="11" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{F6ADD207-67D3-42F2-BCCA-270F9B70A96B}" uniqueName="Data" name="Data Inicio" queryTableFieldId="2" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{DFCF4B6F-D7A6-4705-85CE-41620A807849}" uniqueName="CNPJ" name="CNPJ" queryTableFieldId="3" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{9B1DBAB7-F6AA-4E49-89E7-274602C2152C}" uniqueName="Raz_x005f_x00e3_oSocial" name="Razão Social" queryTableFieldId="4" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{AB977B59-D421-4996-876C-C8DEB1690562}" uniqueName="Descri_x005f_x00e7__x005f_x00e3_o" name="Descrição" queryTableFieldId="5" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{012AFA94-24AF-4F51-A867-2BBC5D765F0F}" uniqueName="FCR" name="FCR" queryTableFieldId="7" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{C630BAFD-B96E-4F08-B9C2-8656A3A4799D}" uniqueName="Origemdocontato" name="Área responsável pela resolução" queryTableFieldId="8" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{3A2DD30E-511A-404C-852B-3571EF76D957}" uniqueName="Origemdocontato0" name="Origem do contato" queryTableFieldId="9" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{AC3E935D-0C73-470E-8297-BB73EC431205}" uniqueName="Tipodecontato" name="Tipo de contato" queryTableFieldId="14" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{BE19DE57-B50D-4185-A579-6A2B29A77592}" uniqueName="DataFim" name="Data Fim" queryTableFieldId="6" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{0C37D9F0-4CCC-42D5-8276-985257A965EC}" uniqueName="GN" name="GN" queryTableFieldId="12" dataDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{0C096B49-6EE2-485E-9046-2CFDCD4B4DB0}" uniqueName="Solicitante" name="Solicitante" queryTableFieldId="13" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{FB09E65C-7025-461B-9FE1-4722306B2033}" uniqueName="Title" name="Título" queryTableFieldId="1" dataDxfId="3"/>
-    <tableColumn id="16" xr3:uid="{FD5573BD-E7BF-47F4-AF61-70C10EBCB24A}" uniqueName="_x005f_x0024_Resources_x005f_x003a_core_x002" name="Status de liberação" queryTableFieldId="16" dataDxfId="2"/>
-    <tableColumn id="17" xr3:uid="{71433DDF-F067-4833-8CCB-65848DF1CD41}" uniqueName="_ApprovalStatus" name="Status de aprovação" queryTableFieldId="17"/>
-    <tableColumn id="18" xr3:uid="{92DBEB67-00AE-4E2F-AFDE-AFD114EACFD0}" uniqueName="FSObjType" name="Tipo de Item" queryTableFieldId="19" dataDxfId="1"/>
-    <tableColumn id="19" xr3:uid="{C11A7738-469B-4EBE-839C-D6755C1F42C1}" uniqueName="FileDirRef" name="Caminho" queryTableFieldId="18" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{56FE0B3D-008E-48C1-A930-B9E444E770FE}" uniqueName="Analista" name="Analista" queryTableFieldId="10" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{92E11345-B2B8-4373-A230-02AD5B26EBE0}" uniqueName="SubClassifica_x005f_x00e7__x005f_x00e3_o" name="Sub Classificação" queryTableFieldId="15" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{D38DFDC3-268E-4C0B-B1C6-7C906DDA41F0}" uniqueName="Motivo" name="Motivo" queryTableFieldId="11" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{FEC4B782-3ADD-467E-AEDD-77810F34333C}" uniqueName="Data" name="Data Inicio" queryTableFieldId="2" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{A4761FA6-CEE6-4332-8D73-AFE7F422BE36}" uniqueName="CNPJ" name="CNPJ" queryTableFieldId="3" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{C1C5EAE9-C725-4331-97AF-86D776973086}" uniqueName="Raz_x005f_x00e3_oSocial" name="Razão Social" queryTableFieldId="4" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{9D2A510E-3F5A-4AAB-B337-4A0F6326AA05}" uniqueName="Descri_x005f_x00e7__x005f_x00e3_o" name="Descrição" queryTableFieldId="5" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{9068A5D9-F5B7-42C0-9213-43BD91AD7682}" uniqueName="FCR" name="FCR" queryTableFieldId="7" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{969C1DAE-93EE-435A-9055-F21AACFD10A0}" uniqueName="Origemdocontato" name="Área responsável pela resolução" queryTableFieldId="8" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{8694E2F6-FD1A-4628-BF66-C6F99870179D}" uniqueName="Origemdocontato0" name="Origem do contato" queryTableFieldId="9" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{7E3CACB5-D433-4E25-87D4-BC68347BC8CB}" uniqueName="Tipodecontato" name="Tipo de contato" queryTableFieldId="14" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{10160CD2-C7E2-4A26-B1EA-7DE0AE2126C4}" uniqueName="DataFim" name="Data Fim" queryTableFieldId="6" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{29D960B3-F807-4337-AC3E-DD01D4072C23}" uniqueName="GN" name="GN" queryTableFieldId="12" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{03E4EC44-3F2C-434C-AA85-87B30886DD2A}" uniqueName="Solicitante" name="Solicitante" queryTableFieldId="13" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{72919651-D21A-4682-96C7-08D661F18C79}" uniqueName="Title" name="Título" queryTableFieldId="1" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{38192B54-B1F4-4601-BD8E-FFF8E4D9F368}" uniqueName="_x005f_x0024_Resources_x005f_x003a_core_x002" name="Status de liberação" queryTableFieldId="16" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{A8EAE3D4-C98D-4043-A86D-C1E0AB949E41}" uniqueName="_ApprovalStatus" name="Status de aprovação" queryTableFieldId="17"/>
+    <tableColumn id="18" xr3:uid="{FDA1F530-DBA5-40F8-87F8-4B1FCB5A2BC6}" uniqueName="FSObjType" name="Tipo de Item" queryTableFieldId="19" dataDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{87261E95-2C38-4882-9B86-EAD8CD2D812F}" uniqueName="FileDirRef" name="Caminho" queryTableFieldId="18" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1972,11 +1951,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A5D3C05-AC84-4E3E-BE78-7CD7147A79D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E3807E4-0530-4E62-9322-3F192F1B82DF}">
   <dimension ref="A1:S122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:S122"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2221,7 +2200,7 @@
     </row>
     <row r="5" spans="1:19" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>36</v>
@@ -2235,11 +2214,9 @@
       <c r="E5" s="3">
         <v>4785105000154</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>21</v>
@@ -2248,7 +2225,7 @@
         <v>33</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>35</v>
@@ -2256,9 +2233,7 @@
       <c r="L5" s="2">
         <v>45978</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="M5" s="1"/>
       <c r="N5" s="1" t="s">
         <v>27</v>
       </c>
@@ -2276,13 +2251,13 @@
     </row>
     <row r="6" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D6" s="2">
         <v>45985</v>
@@ -2291,16 +2266,16 @@
         <v>20887348000230</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="I6" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>23</v>
@@ -2310,7 +2285,7 @@
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>27</v>
@@ -2326,13 +2301,13 @@
     </row>
     <row r="7" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D7" s="2">
         <v>45988</v>
@@ -2341,16 +2316,16 @@
         <v>2297218000185</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>23</v>
@@ -2362,7 +2337,7 @@
         <v>45988</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>27</v>
@@ -2381,13 +2356,13 @@
     </row>
     <row r="8" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D8" s="2">
         <v>45988</v>
@@ -2396,19 +2371,19 @@
         <v>577709000154</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="J8" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>28</v>
@@ -2417,13 +2392,13 @@
         <v>45992</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P8" s="4"/>
       <c r="Q8">
@@ -2438,7 +2413,7 @@
     </row>
     <row r="9" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>29</v>
@@ -2453,16 +2428,16 @@
         <v>87091997000110</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>23</v>
@@ -2474,13 +2449,13 @@
         <v>45988</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P9" s="4"/>
       <c r="Q9">
@@ -2495,13 +2470,13 @@
     </row>
     <row r="10" spans="1:19" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D10" s="2">
         <v>45989</v>
@@ -2510,19 +2485,19 @@
         <v>87091997000110</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>28</v>
@@ -2531,13 +2506,13 @@
         <v>45989</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P10" s="4"/>
       <c r="R10" s="4" t="s">
@@ -2549,13 +2524,13 @@
     </row>
     <row r="11" spans="1:19" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D11" s="2">
         <v>45989</v>
@@ -2564,10 +2539,10 @@
         <v>24052827000107</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>21</v>
@@ -2585,7 +2560,7 @@
         <v>45989</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>27</v>
@@ -2604,7 +2579,7 @@
     </row>
     <row r="12" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>29</v>
@@ -2619,10 +2594,10 @@
         <v>14261931000101</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>21</v>
@@ -2640,7 +2615,7 @@
         <v>45989</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>27</v>
@@ -2656,13 +2631,13 @@
     </row>
     <row r="13" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D13" s="2">
         <v>45989</v>
@@ -2671,10 +2646,10 @@
         <v>10478691000510</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>21</v>
@@ -2683,7 +2658,7 @@
         <v>33</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>28</v>
@@ -2692,10 +2667,10 @@
         <v>45989</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
@@ -2726,10 +2701,10 @@
         <v>48468877000138</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>21</v>
@@ -2766,7 +2741,7 @@
     </row>
     <row r="15" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>29</v>
@@ -2781,10 +2756,10 @@
         <v>47481338000176</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>21</v>
@@ -2802,7 +2777,7 @@
         <v>45988</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>27</v>
@@ -2821,13 +2796,13 @@
     </row>
     <row r="16" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D16" s="2">
         <v>45989</v>
@@ -2836,10 +2811,10 @@
         <v>21021038000110</v>
       </c>
       <c r="F16" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>21</v>
@@ -2877,10 +2852,10 @@
         <v>24</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D17" s="2">
         <v>45989</v>
@@ -2889,10 +2864,10 @@
         <v>48346249000180</v>
       </c>
       <c r="F17" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>21</v>
@@ -2913,7 +2888,7 @@
         <v>40</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
@@ -2929,10 +2904,10 @@
     </row>
     <row r="18" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>34</v>
@@ -2944,10 +2919,10 @@
         <v>53964377000127</v>
       </c>
       <c r="F18" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>21</v>
@@ -2965,7 +2940,7 @@
         <v>45989</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>27</v>
@@ -3000,7 +2975,7 @@
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>21</v>
@@ -3034,13 +3009,13 @@
     </row>
     <row r="20" spans="1:19" ht="58" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D20" s="2">
         <v>45989</v>
@@ -3049,19 +3024,19 @@
         <v>49928345000107</v>
       </c>
       <c r="F20" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>100</v>
-      </c>
       <c r="H20" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>28</v>
@@ -3070,10 +3045,10 @@
         <v>45994</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
@@ -3089,13 +3064,13 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D21" s="2">
         <v>45989</v>
@@ -3104,10 +3079,10 @@
         <v>59641702000191</v>
       </c>
       <c r="F21" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>21</v>
@@ -3125,10 +3100,10 @@
         <v>45989</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
@@ -3141,13 +3116,13 @@
     </row>
     <row r="22" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D22" s="2">
         <v>45989</v>
@@ -3157,13 +3132,13 @@
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>23</v>
@@ -3192,10 +3167,10 @@
     </row>
     <row r="23" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>34</v>
@@ -3207,10 +3182,10 @@
         <v>577065000285</v>
       </c>
       <c r="F23" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>21</v>
@@ -3219,7 +3194,7 @@
         <v>33</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>35</v>
@@ -3228,7 +3203,7 @@
         <v>45989</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="4"/>
@@ -3245,13 +3220,13 @@
     </row>
     <row r="24" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D24" s="2">
         <v>45989</v>
@@ -3260,13 +3235,13 @@
         <v>45993033000118</v>
       </c>
       <c r="F24" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="G24" s="5" t="s">
-        <v>110</v>
-      </c>
       <c r="H24" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>33</v>
@@ -3281,10 +3256,10 @@
         <v>45993</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
@@ -3300,10 +3275,10 @@
     </row>
     <row r="25" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>34</v>
@@ -3315,10 +3290,10 @@
         <v>46872263000191</v>
       </c>
       <c r="F25" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>114</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>21</v>
@@ -3336,7 +3311,7 @@
         <v>45996</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>27</v>
@@ -3355,13 +3330,13 @@
     </row>
     <row r="26" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D26" s="2">
         <v>45988</v>
@@ -3371,13 +3346,13 @@
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>23</v>
@@ -3390,7 +3365,7 @@
       </c>
       <c r="M26" s="1"/>
       <c r="N26" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
@@ -3421,16 +3396,16 @@
         <v>38074571000143</v>
       </c>
       <c r="F27" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="G27" s="5" t="s">
-        <v>119</v>
-      </c>
       <c r="H27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>23</v>
@@ -3461,13 +3436,13 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D28" s="2">
         <v>45980</v>
@@ -3476,13 +3451,13 @@
         <v>3477535000146</v>
       </c>
       <c r="F28" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="G28" s="5" t="s">
-        <v>121</v>
-      </c>
       <c r="H28" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1" t="s">
@@ -3495,7 +3470,7 @@
         <v>45994</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>27</v>
@@ -3514,13 +3489,13 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D29" s="2">
         <v>45989</v>
@@ -3529,19 +3504,19 @@
         <v>11519114000169</v>
       </c>
       <c r="F29" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G29" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="G29" s="5" t="s">
-        <v>123</v>
-      </c>
       <c r="H29" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>28</v>
@@ -3550,10 +3525,10 @@
         <v>45992</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
@@ -3569,13 +3544,13 @@
     </row>
     <row r="30" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D30" s="2">
         <v>45992</v>
@@ -3584,10 +3559,10 @@
         <v>10317892000102</v>
       </c>
       <c r="F30" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G30" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>126</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>21</v>
@@ -3605,7 +3580,7 @@
         <v>45992</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>27</v>
@@ -3624,13 +3599,13 @@
     </row>
     <row r="31" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D31" s="2">
         <v>45992</v>
@@ -3639,10 +3614,10 @@
         <v>2144883000139</v>
       </c>
       <c r="F31" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G31" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>21</v>
@@ -3651,7 +3626,7 @@
         <v>33</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>28</v>
@@ -3660,10 +3635,10 @@
         <v>45992</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
@@ -3682,10 +3657,10 @@
         <v>24</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D32" s="2">
         <v>45992</v>
@@ -3694,16 +3669,16 @@
         <v>48346249000180</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>23</v>
@@ -3737,10 +3712,10 @@
         <v>24</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D33" s="2">
         <v>45992</v>
@@ -3749,10 +3724,10 @@
         <v>48346249000180</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>21</v>
@@ -3792,10 +3767,10 @@
         <v>24</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D34" s="2">
         <v>45992</v>
@@ -3804,10 +3779,10 @@
         <v>689380000113</v>
       </c>
       <c r="F34" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G34" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>134</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>21</v>
@@ -3847,10 +3822,10 @@
         <v>24</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D35" s="2">
         <v>45992</v>
@@ -3859,10 +3834,10 @@
         <v>32044415000153</v>
       </c>
       <c r="F35" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G35" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>136</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>21</v>
@@ -3902,10 +3877,10 @@
         <v>24</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D36" s="2">
         <v>45992</v>
@@ -3914,10 +3889,10 @@
         <v>2551867000160</v>
       </c>
       <c r="F36" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G36" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>138</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>21</v>
@@ -3969,10 +3944,10 @@
         <v>36180754000118</v>
       </c>
       <c r="F37" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G37" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>140</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>21</v>
@@ -3981,7 +3956,7 @@
         <v>33</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>35</v>
@@ -3993,7 +3968,7 @@
         <v>40</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
@@ -4015,7 +3990,7 @@
         <v>29</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D38" s="2">
         <v>45992</v>
@@ -4024,16 +3999,16 @@
         <v>2754502000133</v>
       </c>
       <c r="F38" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G38" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="G38" s="5" t="s">
-        <v>143</v>
-      </c>
       <c r="H38" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>23</v>
@@ -4079,10 +4054,10 @@
         <v>10522077000770</v>
       </c>
       <c r="F39" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G39" s="5" t="s">
         <v>144</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>21</v>
@@ -4134,10 +4109,10 @@
         <v>3156892000102</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>21</v>
@@ -4189,10 +4164,10 @@
         <v>10592852000179</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>21</v>
@@ -4244,10 +4219,10 @@
         <v>57237149000106</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>21</v>
@@ -4299,10 +4274,10 @@
         <v>53875328000118</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>21</v>
@@ -4354,10 +4329,10 @@
         <v>10522077000428</v>
       </c>
       <c r="F44" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G44" s="5" t="s">
         <v>144</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>21</v>
@@ -4394,10 +4369,10 @@
     </row>
     <row r="45" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>39</v>
@@ -4409,10 +4384,10 @@
         <v>56738016000150</v>
       </c>
       <c r="F45" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G45" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>151</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>21</v>
@@ -4430,7 +4405,7 @@
         <v>45993</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N45" s="1" t="s">
         <v>27</v>
@@ -4455,7 +4430,7 @@
         <v>29</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D46" s="2">
         <v>45993</v>
@@ -4464,16 +4439,16 @@
         <v>24314878000160</v>
       </c>
       <c r="F46" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G46" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="G46" s="5" t="s">
-        <v>154</v>
-      </c>
       <c r="H46" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>23</v>
@@ -4485,10 +4460,10 @@
         <v>45993</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
@@ -4512,15 +4487,15 @@
       <c r="C47" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D47" s="2"/>
+      <c r="D47" s="2">
+        <v>45993</v>
+      </c>
       <c r="E47" s="3">
         <v>2394473000146</v>
       </c>
-      <c r="F47" s="4" t="s">
-        <v>156</v>
-      </c>
+      <c r="F47" s="4"/>
       <c r="G47" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>21</v>
@@ -4537,9 +4512,7 @@
       <c r="L47" s="2">
         <v>45993</v>
       </c>
-      <c r="M47" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="M47" s="1"/>
       <c r="N47" s="1" t="s">
         <v>27</v>
       </c>
@@ -4557,10 +4530,10 @@
     </row>
     <row r="48" spans="1:19" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>39</v>
@@ -4572,16 +4545,16 @@
         <v>62236617000168</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>23</v>
@@ -4593,10 +4566,10 @@
         <v>46000</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O48" s="4"/>
       <c r="P48" s="4"/>
@@ -4615,10 +4588,10 @@
         <v>24</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D49" s="2">
         <v>45993</v>
@@ -4627,10 +4600,10 @@
         <v>9241803394</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>21</v>
@@ -4670,10 +4643,10 @@
         <v>24</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D50" s="2">
         <v>45993</v>
@@ -4682,10 +4655,10 @@
         <v>2394473000146</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>21</v>
@@ -4694,7 +4667,7 @@
         <v>33</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>28</v>
@@ -4706,7 +4679,7 @@
         <v>40</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O50" s="4"/>
       <c r="P50" s="4"/>
@@ -4728,7 +4701,7 @@
         <v>36</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D51" s="2">
         <v>45993</v>
@@ -4737,10 +4710,10 @@
         <v>2394473000146</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>21</v>
@@ -4761,7 +4734,7 @@
         <v>40</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
@@ -4777,13 +4750,13 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D52" s="2">
         <v>45993</v>
@@ -4792,10 +4765,10 @@
         <v>3331129000170</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>21</v>
@@ -4804,7 +4777,7 @@
         <v>33</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>28</v>
@@ -4813,10 +4786,10 @@
         <v>45993</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O52" s="4"/>
       <c r="P52" s="4"/>
@@ -4832,7 +4805,7 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>29</v>
@@ -4847,13 +4820,13 @@
         <v>77817583000172</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>22</v>
@@ -4868,7 +4841,7 @@
         <v>45993</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="N53" s="1" t="s">
         <v>27</v>
@@ -4890,10 +4863,10 @@
         <v>24</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D54" s="2">
         <v>45993</v>
@@ -4902,10 +4875,10 @@
         <v>51829602000197</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>21</v>
@@ -4948,7 +4921,7 @@
         <v>29</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D55" s="2">
         <v>45993</v>
@@ -4957,16 +4930,16 @@
         <v>18359457000152</v>
       </c>
       <c r="F55" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I55" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>23</v>
@@ -5012,10 +4985,10 @@
         <v>29827042000182</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>21</v>
@@ -5052,13 +5025,13 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D57" s="2">
         <v>45993</v>
@@ -5067,19 +5040,19 @@
         <v>3331129000170</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>28</v>
@@ -5088,10 +5061,10 @@
         <v>45993</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O57" s="4"/>
       <c r="P57" s="4"/>
@@ -5107,13 +5080,13 @@
     </row>
     <row r="58" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D58" s="2">
         <v>45994</v>
@@ -5122,13 +5095,13 @@
         <v>11519114000169</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>33</v>
@@ -5143,7 +5116,7 @@
         <v>45994</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N58" s="1" t="s">
         <v>27</v>
@@ -5162,13 +5135,13 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D59" s="2">
         <v>45992</v>
@@ -5177,13 +5150,13 @@
         <v>19770536000114</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>33</v>
@@ -5198,7 +5171,7 @@
         <v>45992</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="N59" s="1" t="s">
         <v>27</v>
@@ -5217,13 +5190,13 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D60" s="2">
         <v>45993</v>
@@ -5232,10 +5205,10 @@
         <v>27394378000173</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>21</v>
@@ -5253,7 +5226,7 @@
         <v>45993</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="N60" s="1" t="s">
         <v>27</v>
@@ -5272,10 +5245,10 @@
     </row>
     <row r="61" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>34</v>
@@ -5287,10 +5260,10 @@
         <v>46892512000100</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>21</v>
@@ -5299,7 +5272,7 @@
         <v>33</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>35</v>
@@ -5308,10 +5281,10 @@
         <v>45994</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O61" s="4"/>
       <c r="P61" s="4"/>
@@ -5327,23 +5300,23 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D62" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="D62" s="2">
+        <v>45994</v>
+      </c>
       <c r="E62" s="3">
         <v>4978803000176</v>
       </c>
-      <c r="F62" s="4" t="s">
-        <v>192</v>
-      </c>
+      <c r="F62" s="4"/>
       <c r="G62" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>21</v>
@@ -5352,7 +5325,7 @@
         <v>33</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>35</v>
@@ -5360,11 +5333,9 @@
       <c r="L62" s="2">
         <v>45994</v>
       </c>
-      <c r="M62" s="1" t="s">
-        <v>127</v>
-      </c>
+      <c r="M62" s="1"/>
       <c r="N62" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O62" s="4"/>
       <c r="P62" s="4"/>
@@ -5380,7 +5351,7 @@
     </row>
     <row r="63" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>36</v>
@@ -5395,10 +5366,10 @@
         <v>11368640000175</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>21</v>
@@ -5407,7 +5378,7 @@
         <v>33</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>35</v>
@@ -5416,10 +5387,10 @@
         <v>45988</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O63" s="4"/>
       <c r="P63" s="4"/>
@@ -5438,10 +5409,10 @@
         <v>24</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D64" s="2">
         <v>45994</v>
@@ -5450,10 +5421,10 @@
         <v>23467987600012</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>21</v>
@@ -5493,10 +5464,10 @@
         <v>24</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D65" s="2">
         <v>45994</v>
@@ -5505,10 +5476,10 @@
         <v>19497817000107</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>21</v>
@@ -5526,10 +5497,10 @@
         <v>45994</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O65" s="4"/>
       <c r="P65" s="4"/>
@@ -5548,10 +5519,10 @@
         <v>24</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D66" s="2">
         <v>45994</v>
@@ -5560,19 +5531,19 @@
         <v>2279387000192</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>28</v>
@@ -5584,7 +5555,7 @@
         <v>40</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
@@ -5603,7 +5574,7 @@
         <v>24</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>34</v>
@@ -5615,10 +5586,10 @@
         <v>27192758000206</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>21</v>
@@ -5627,7 +5598,7 @@
         <v>33</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>35</v>
@@ -5655,13 +5626,13 @@
     </row>
     <row r="68" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D68" s="2">
         <v>45995</v>
@@ -5670,19 +5641,19 @@
         <v>57717655000100</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K68" s="1" t="s">
         <v>28</v>
@@ -5691,7 +5662,7 @@
         <v>45995</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="N68" s="1" t="s">
         <v>27</v>
@@ -5710,13 +5681,13 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D69" s="2">
         <v>45995</v>
@@ -5725,13 +5696,13 @@
         <v>7396700000196</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>33</v>
@@ -5746,7 +5717,7 @@
         <v>45995</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N69" s="1" t="s">
         <v>27</v>
@@ -5765,13 +5736,13 @@
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D70" s="2">
         <v>45995</v>
@@ -5780,10 +5751,10 @@
         <v>45761173000160</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>21</v>
@@ -5801,10 +5772,10 @@
         <v>45995</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O70" s="4"/>
       <c r="P70" s="4"/>
@@ -5820,13 +5791,13 @@
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D71" s="2">
         <v>45995</v>
@@ -5835,10 +5806,10 @@
         <v>45761173000160</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>21</v>
@@ -5847,7 +5818,7 @@
         <v>33</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K71" s="1" t="s">
         <v>35</v>
@@ -5856,10 +5827,10 @@
         <v>45995</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O71" s="4"/>
       <c r="P71" s="4"/>
@@ -5875,13 +5846,13 @@
     </row>
     <row r="72" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D72" s="2">
         <v>45995</v>
@@ -5891,16 +5862,16 @@
       </c>
       <c r="F72" s="4"/>
       <c r="G72" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>28</v>
@@ -5924,13 +5895,13 @@
     </row>
     <row r="73" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D73" s="2">
         <v>45995</v>
@@ -5939,16 +5910,16 @@
         <v>87091997000110</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>23</v>
@@ -5960,7 +5931,7 @@
         <v>45995</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N73" s="1" t="s">
         <v>27</v>
@@ -5979,13 +5950,13 @@
     </row>
     <row r="74" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D74" s="2">
         <v>45995</v>
@@ -5994,19 +5965,19 @@
         <v>80979107000162</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>35</v>
@@ -6015,10 +5986,10 @@
         <v>45995</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O74" s="4"/>
       <c r="P74" s="4"/>
@@ -6034,13 +6005,13 @@
     </row>
     <row r="75" spans="1:19" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D75" s="2">
         <v>45995</v>
@@ -6049,29 +6020,29 @@
         <v>2234943001429</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K75" s="1" t="s">
         <v>28</v>
       </c>
       <c r="L75" s="2"/>
       <c r="M75" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O75" s="4"/>
       <c r="P75" s="4"/>
@@ -6087,10 +6058,10 @@
     </row>
     <row r="76" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="2">
@@ -6100,10 +6071,10 @@
         <v>61620792000191</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>21</v>
@@ -6121,7 +6092,7 @@
         <v>45995</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N76" s="1" t="s">
         <v>27</v>
@@ -6140,13 +6111,13 @@
     </row>
     <row r="77" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D77" s="2">
         <v>45995</v>
@@ -6155,16 +6126,16 @@
         <v>12645422000101</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>23</v>
@@ -6176,7 +6147,7 @@
         <v>45995</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N77" s="1" t="s">
         <v>27</v>
@@ -6195,13 +6166,13 @@
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D78" s="2">
         <v>45995</v>
@@ -6210,16 +6181,16 @@
         <v>9164791001646</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>23</v>
@@ -6231,7 +6202,7 @@
         <v>45995</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N78" s="1" t="s">
         <v>27</v>
@@ -6250,7 +6221,7 @@
     </row>
     <row r="79" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>29</v>
@@ -6265,16 +6236,16 @@
         <v>72374952000186</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>23</v>
@@ -6284,7 +6255,7 @@
       </c>
       <c r="L79" s="2"/>
       <c r="M79" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N79" s="1" t="s">
         <v>27</v>
@@ -6303,7 +6274,7 @@
     </row>
     <row r="80" spans="1:19" ht="58" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>29</v>
@@ -6318,16 +6289,16 @@
         <v>12074139000169</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>23</v>
@@ -6339,7 +6310,7 @@
         <v>45996</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N80" s="1" t="s">
         <v>27</v>
@@ -6358,13 +6329,13 @@
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D81" s="2">
         <v>45996</v>
@@ -6373,16 +6344,16 @@
         <v>5815156000144</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>23</v>
@@ -6394,7 +6365,7 @@
         <v>45996</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="N81" s="1" t="s">
         <v>27</v>
@@ -6413,13 +6384,13 @@
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D82" s="2">
         <v>45996</v>
@@ -6428,10 +6399,10 @@
         <v>55699369000126</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>21</v>
@@ -6449,7 +6420,7 @@
         <v>45996</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="N82" s="1"/>
       <c r="O82" s="4"/>
@@ -6466,10 +6437,10 @@
     </row>
     <row r="83" spans="1:19" ht="58" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>34</v>
@@ -6480,14 +6451,12 @@
       <c r="E83" s="3">
         <v>4785105000154</v>
       </c>
-      <c r="F83" s="4" t="s">
-        <v>242</v>
-      </c>
+      <c r="F83" s="4"/>
       <c r="G83" s="5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>22</v>
@@ -6499,7 +6468,7 @@
         <v>28</v>
       </c>
       <c r="L83" s="2">
-        <v>45995</v>
+        <v>45996</v>
       </c>
       <c r="M83" s="1"/>
       <c r="N83" s="1" t="s">
@@ -6519,13 +6488,13 @@
     </row>
     <row r="84" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D84" s="2">
         <v>45996</v>
@@ -6534,13 +6503,13 @@
         <v>30455952000160</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I84" s="1"/>
       <c r="J84" s="1" t="s">
@@ -6553,10 +6522,10 @@
         <v>45996</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O84" s="4"/>
       <c r="P84" s="4"/>
@@ -6572,13 +6541,13 @@
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D85" s="2">
         <v>45996</v>
@@ -6587,16 +6556,16 @@
         <v>29404716000306</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>23</v>
@@ -6625,13 +6594,13 @@
     </row>
     <row r="86" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D86" s="2">
         <v>45996</v>
@@ -6640,10 +6609,10 @@
         <v>48227957000100</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>21</v>
@@ -6661,10 +6630,10 @@
         <v>45996</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O86" s="4"/>
       <c r="P86" s="4"/>
@@ -6680,13 +6649,13 @@
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D87" s="2">
         <v>45994</v>
@@ -6695,10 +6664,10 @@
         <v>47545858000103</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>21</v>
@@ -6716,7 +6685,7 @@
         <v>45994</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="N87" s="1" t="s">
         <v>27</v>
@@ -6735,10 +6704,10 @@
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>34</v>
@@ -6750,13 +6719,13 @@
         <v>52275228000198</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I88" s="1" t="s">
         <v>33</v>
@@ -6771,7 +6740,7 @@
         <v>45996</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N88" s="1" t="s">
         <v>27</v>
@@ -6790,29 +6759,29 @@
     </row>
     <row r="89" spans="1:19" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D89" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="D89" s="2">
+        <v>45999</v>
+      </c>
       <c r="E89" s="3">
         <v>37654527000140</v>
       </c>
-      <c r="F89" s="4" t="s">
-        <v>256</v>
-      </c>
+      <c r="F89" s="4"/>
       <c r="G89" s="5" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>23</v>
@@ -6823,9 +6792,7 @@
       <c r="L89" s="2">
         <v>45999</v>
       </c>
-      <c r="M89" s="1" t="s">
-        <v>152</v>
-      </c>
+      <c r="M89" s="1"/>
       <c r="N89" s="1" t="s">
         <v>27</v>
       </c>
@@ -6843,13 +6810,13 @@
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D90" s="2">
         <v>45996</v>
@@ -6858,10 +6825,10 @@
         <v>45132315000120</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>21</v>
@@ -6879,10 +6846,10 @@
         <v>45996</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O90" s="4"/>
       <c r="P90" s="4"/>
@@ -6898,13 +6865,13 @@
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D91" s="2">
         <v>45995</v>
@@ -6913,10 +6880,10 @@
         <v>80979107000162</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>21</v>
@@ -6925,7 +6892,7 @@
         <v>33</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K91" s="1" t="s">
         <v>35</v>
@@ -6934,10 +6901,10 @@
         <v>45996</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O91" s="4"/>
       <c r="P91" s="4"/>
@@ -6953,13 +6920,13 @@
     </row>
     <row r="92" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D92" s="2">
         <v>45999</v>
@@ -6968,10 +6935,10 @@
         <v>57832654000107</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>21</v>
@@ -6989,7 +6956,7 @@
         <v>45999</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="N92" s="1" t="s">
         <v>27</v>
@@ -7008,13 +6975,13 @@
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D93" s="2">
         <v>45999</v>
@@ -7023,10 +6990,10 @@
         <v>24894843000147</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>21</v>
@@ -7035,7 +7002,7 @@
         <v>33</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K93" s="1" t="s">
         <v>28</v>
@@ -7047,7 +7014,7 @@
         <v>40</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O93" s="4"/>
       <c r="P93" s="4"/>
@@ -7063,13 +7030,13 @@
     </row>
     <row r="94" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D94" s="2">
         <v>45995</v>
@@ -7079,13 +7046,13 @@
       </c>
       <c r="F94" s="4"/>
       <c r="G94" s="5" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>23</v>
@@ -7115,10 +7082,10 @@
         <v>24</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D95" s="2">
         <v>45999</v>
@@ -7127,10 +7094,10 @@
         <v>48055460000143</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>21</v>
@@ -7148,7 +7115,7 @@
         <v>45999</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N95" s="1" t="s">
         <v>27</v>
@@ -7167,10 +7134,10 @@
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>34</v>
@@ -7182,10 +7149,10 @@
         <v>87687489000108</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>21</v>
@@ -7194,7 +7161,7 @@
         <v>33</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K96" s="1" t="s">
         <v>35</v>
@@ -7203,10 +7170,10 @@
         <v>45999</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O96" s="4"/>
       <c r="P96" s="4"/>
@@ -7222,13 +7189,13 @@
     </row>
     <row r="97" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D97" s="2">
         <v>45999</v>
@@ -7237,19 +7204,19 @@
         <v>1991461002180</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K97" s="1" t="s">
         <v>28</v>
@@ -7258,10 +7225,10 @@
         <v>45999</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="O97" s="4"/>
       <c r="P97" s="4"/>
@@ -7280,10 +7247,10 @@
         <v>24</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D98" s="2">
         <v>45999</v>
@@ -7292,10 +7259,10 @@
         <v>15022398000134</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>21</v>
@@ -7316,7 +7283,7 @@
         <v>40</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O98" s="4"/>
       <c r="P98" s="4"/>
@@ -7332,13 +7299,13 @@
     </row>
     <row r="99" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D99" s="2">
         <v>45999</v>
@@ -7347,16 +7314,16 @@
         <v>87091997000110</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>23</v>
@@ -7368,7 +7335,7 @@
         <v>45999</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N99" s="1" t="s">
         <v>27</v>
@@ -7387,13 +7354,13 @@
     </row>
     <row r="100" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D100" s="2">
         <v>45999</v>
@@ -7402,10 +7369,10 @@
         <v>76816842000420</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>21</v>
@@ -7414,7 +7381,7 @@
         <v>33</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K100" s="1" t="s">
         <v>28</v>
@@ -7423,10 +7390,10 @@
         <v>45999</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O100" s="4"/>
       <c r="P100" s="4"/>
@@ -7442,13 +7409,13 @@
     </row>
     <row r="101" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D101" s="2">
         <v>45999</v>
@@ -7457,10 +7424,10 @@
         <v>76816842000269</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>21</v>
@@ -7469,7 +7436,7 @@
         <v>33</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K101" s="1" t="s">
         <v>28</v>
@@ -7478,10 +7445,10 @@
         <v>45999</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O101" s="4"/>
       <c r="P101" s="4"/>
@@ -7497,13 +7464,13 @@
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D102" s="2">
         <v>45999</v>
@@ -7512,10 +7479,10 @@
         <v>8741844000103</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>21</v>
@@ -7524,7 +7491,7 @@
         <v>33</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K102" s="1" t="s">
         <v>28</v>
@@ -7533,10 +7500,10 @@
         <v>45999</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O102" s="4"/>
       <c r="P102" s="4"/>
@@ -7555,10 +7522,10 @@
         <v>24</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D103" s="2">
         <v>45999</v>
@@ -7568,7 +7535,7 @@
       </c>
       <c r="F103" s="4"/>
       <c r="G103" s="5" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>21</v>
@@ -7587,7 +7554,7 @@
       </c>
       <c r="M103" s="1"/>
       <c r="N103" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O103" s="4"/>
       <c r="P103" s="4"/>
@@ -7603,13 +7570,13 @@
     </row>
     <row r="104" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D104" s="2">
         <v>45999</v>
@@ -7618,10 +7585,10 @@
         <v>577709000154</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>21</v>
@@ -7639,7 +7606,7 @@
         <v>45999</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N104" s="1" t="s">
         <v>27</v>
@@ -7658,13 +7625,13 @@
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D105" s="2">
         <v>45999</v>
@@ -7673,10 +7640,10 @@
         <v>11111111111111</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>21</v>
@@ -7685,7 +7652,7 @@
         <v>33</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K105" s="1" t="s">
         <v>35</v>
@@ -7694,10 +7661,10 @@
         <v>45999</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O105" s="4"/>
       <c r="P105" s="4"/>
@@ -7716,10 +7683,10 @@
         <v>24</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D106" s="2">
         <v>46000</v>
@@ -7728,10 +7695,10 @@
         <v>26472037000106</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>21</v>
@@ -7749,7 +7716,7 @@
         <v>46000</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="N106" s="1" t="s">
         <v>27</v>
@@ -7771,10 +7738,10 @@
         <v>24</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D107" s="2">
         <v>46000</v>
@@ -7783,16 +7750,16 @@
         <v>26472037000109</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>23</v>
@@ -7804,10 +7771,10 @@
         <v>46000</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="N107" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O107" s="4"/>
       <c r="P107" s="4"/>
@@ -7826,10 +7793,10 @@
         <v>24</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D108" s="2">
         <v>45999</v>
@@ -7838,10 +7805,10 @@
         <v>46011435000132</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>21</v>
@@ -7859,7 +7826,7 @@
         <v>45999</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N108" s="1" t="s">
         <v>27</v>
@@ -7878,13 +7845,13 @@
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D109" s="2">
         <v>46000</v>
@@ -7893,10 +7860,10 @@
         <v>3570327000197</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>21</v>
@@ -7914,10 +7881,10 @@
         <v>46000</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="N109" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O109" s="4"/>
       <c r="P109" s="4"/>
@@ -7933,13 +7900,13 @@
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D110" s="2">
         <v>45999</v>
@@ -7949,13 +7916,13 @@
       </c>
       <c r="F110" s="4"/>
       <c r="G110" s="5" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>23</v>
@@ -7985,10 +7952,10 @@
         <v>24</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D111" s="2">
         <v>45999</v>
@@ -7997,10 +7964,10 @@
         <v>10592852000179</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>21</v>
@@ -8021,7 +7988,7 @@
         <v>26</v>
       </c>
       <c r="N111" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O111" s="4"/>
       <c r="P111" s="4"/>
@@ -8037,10 +8004,10 @@
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>34</v>
@@ -8052,13 +8019,13 @@
         <v>7433734000103</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I112" s="1" t="s">
         <v>33</v>
@@ -8073,10 +8040,10 @@
         <v>46001</v>
       </c>
       <c r="M112" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N112" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O112" s="4"/>
       <c r="P112" s="4"/>
@@ -8092,13 +8059,13 @@
     </row>
     <row r="113" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D113" s="2">
         <v>46000</v>
@@ -8107,10 +8074,10 @@
         <v>4785105000154</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>21</v>
@@ -8128,10 +8095,10 @@
         <v>46000</v>
       </c>
       <c r="M113" s="1" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="N113" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O113" s="4"/>
       <c r="P113" s="4"/>
@@ -8147,13 +8114,13 @@
     </row>
     <row r="114" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D114" s="2">
         <v>46000</v>
@@ -8162,10 +8129,10 @@
         <v>76816842000420</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>21</v>
@@ -8183,10 +8150,10 @@
         <v>46000</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N114" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O114" s="4"/>
       <c r="P114" s="4"/>
@@ -8202,13 +8169,13 @@
     </row>
     <row r="115" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D115" s="2">
         <v>46000</v>
@@ -8217,10 +8184,10 @@
         <v>76816842000269</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>21</v>
@@ -8238,10 +8205,10 @@
         <v>46000</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N115" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O115" s="4"/>
       <c r="P115" s="4"/>
@@ -8257,13 +8224,13 @@
     </row>
     <row r="116" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D116" s="2">
         <v>46000</v>
@@ -8272,10 +8239,10 @@
         <v>29404899000190</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>21</v>
@@ -8284,7 +8251,7 @@
         <v>33</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K116" s="1" t="s">
         <v>35</v>
@@ -8293,10 +8260,10 @@
         <v>46000</v>
       </c>
       <c r="M116" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="N116" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O116" s="4"/>
       <c r="P116" s="4"/>
@@ -8312,13 +8279,13 @@
     </row>
     <row r="117" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D117" s="2">
         <v>46000</v>
@@ -8327,10 +8294,10 @@
         <v>29404899000351</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>21</v>
@@ -8339,7 +8306,7 @@
         <v>33</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K117" s="1" t="s">
         <v>35</v>
@@ -8348,10 +8315,10 @@
         <v>46000</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="N117" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O117" s="4"/>
       <c r="P117" s="4"/>
@@ -8367,13 +8334,13 @@
     </row>
     <row r="118" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D118" s="2">
         <v>46000</v>
@@ -8382,16 +8349,16 @@
         <v>4868412000794</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>23</v>
@@ -8403,7 +8370,7 @@
         <v>46000</v>
       </c>
       <c r="M118" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N118" s="1" t="s">
         <v>27</v>
@@ -8422,13 +8389,13 @@
     </row>
     <row r="119" spans="1:19" ht="58" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D119" s="2">
         <v>46000</v>
@@ -8437,10 +8404,10 @@
         <v>61620792000191</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>21</v>
@@ -8458,10 +8425,10 @@
         <v>46000</v>
       </c>
       <c r="M119" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N119" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O119" s="4"/>
       <c r="P119" s="4"/>
@@ -8477,21 +8444,21 @@
     </row>
     <row r="120" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C120" s="1"/>
-      <c r="D120" s="2"/>
+      <c r="D120" s="2">
+        <v>46000</v>
+      </c>
       <c r="E120" s="3">
         <v>57900011000145</v>
       </c>
-      <c r="F120" s="4" t="s">
-        <v>312</v>
-      </c>
+      <c r="F120" s="4"/>
       <c r="G120" s="5" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>21</v>
@@ -8508,11 +8475,9 @@
       <c r="L120" s="2">
         <v>46000</v>
       </c>
-      <c r="M120" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="M120" s="1"/>
       <c r="N120" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O120" s="4"/>
       <c r="P120" s="4"/>
@@ -8528,13 +8493,13 @@
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D121" s="2">
         <v>46000</v>
@@ -8544,7 +8509,7 @@
       </c>
       <c r="F121" s="4"/>
       <c r="G121" s="5" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>21</v>
@@ -8553,7 +8518,7 @@
         <v>33</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K121" s="1" t="s">
         <v>35</v>
@@ -8562,10 +8527,10 @@
         <v>46000</v>
       </c>
       <c r="M121" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="N121" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O121" s="4"/>
       <c r="P121" s="4"/>
@@ -8579,9 +8544,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="122" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:19" ht="58" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>29</v>
@@ -8595,17 +8560,15 @@
       <c r="E122" s="3">
         <v>51532099000103</v>
       </c>
-      <c r="F122" s="4" t="s">
-        <v>316</v>
-      </c>
+      <c r="F122" s="4"/>
       <c r="G122" s="5" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>23</v>
@@ -8616,9 +8579,7 @@
       <c r="L122" s="2">
         <v>46003</v>
       </c>
-      <c r="M122" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="M122" s="1"/>
       <c r="N122" s="1" t="s">
         <v>27</v>
       </c>

--- a/base_hub_github.xlsx
+++ b/base_hub_github.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupoultracloud-my.sharepoint.com/personal/thiago_junior_ipiranga_ipiranga/Documents/Área de Trabalho/PBI HUB/Base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0CD70C8-737E-4BF5-859A-1228CEA5C99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{818A3FC8-4813-4373-81A1-DB103EE664FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2AF16816-F5A3-4636-B448-F48FE147706C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3F05687F-9A24-441C-BF0A-C152C7870A53}"/>
   </bookViews>
   <sheets>
     <sheet name="query" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="query__15" localSheetId="0" hidden="1">query!$A$1:$S$122</definedName>
+    <definedName name="query__16" localSheetId="0" hidden="1">query!$A$1:$S$122</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -24,7 +24,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{197882FB-3FF3-4E5C-AAC5-F2742C555C35}" odcFile="C:\Users\thiago.junior\Downloads\query (15).iqy" keepAlive="1" name="query (15)" type="5" refreshedVersion="8" minRefreshableVersion="3" saveData="1">
+  <connection id="1" xr16:uid="{0F7DBE8D-83F1-4F51-87BF-7A24BCEC4AAD}" odcFile="C:\Users\thiago.junior\Downloads\query (16).iqy" keepAlive="1" name="query (16)" type="5" refreshedVersion="8" minRefreshableVersion="3" saveData="1">
     <dbPr connection="Provider=Microsoft.Office.List.OLEDB.2.0;Data Source=&quot;&quot;;ApplicationName=Excel;Version=12.0.0.0" command="&lt;LIST&gt;&lt;VIEWGUID&gt;A45175CA-9778-441D-B066-D8555F7DBBE4&lt;/VIEWGUID&gt;&lt;LISTNAME&gt;06be0e4e-018b-4cef-a562-4db2a9a684e1&lt;/LISTNAME&gt;&lt;LISTWEB&gt;https://grupoultracloud-my.sharepoint.com/personal/roberta_rocha_ipiranga_ipiranga/_vti_bin&lt;/LISTWEB&gt;&lt;LISTSUBWEB&gt;&lt;/LISTSUBWEB&gt;&lt;ROOTFOLDER&gt;&lt;/ROOTFOLDER&gt;&lt;/LIST&gt;" commandType="5"/>
   </connection>
 </connections>
@@ -1580,7 +1580,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="query (15)" backgroundRefresh="0" connectionId="1" xr16:uid="{C906F2FF-DEED-433E-A129-678217FDEFE9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="query (16)" backgroundRefresh="0" connectionId="1" xr16:uid="{4D690842-31CD-4E62-9F26-F24F386B6CCB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="20">
     <queryTableFields count="19">
       <queryTableField id="10" name="Analista" tableColumnId="1"/>
@@ -1608,28 +1608,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6147E25F-2E1D-47BE-8A94-3110C4CC0826}" name="Tabela_query__15" displayName="Tabela_query__15" ref="A1:S122" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:S122" xr:uid="{6147E25F-2E1D-47BE-8A94-3110C4CC0826}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D5751D31-24E9-4B23-AEAD-CA6BCC746A43}" name="Tabela_query__16" displayName="Tabela_query__16" ref="A1:S122" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:S122" xr:uid="{D5751D31-24E9-4B23-AEAD-CA6BCC746A43}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{56FE0B3D-008E-48C1-A930-B9E444E770FE}" uniqueName="Analista" name="Analista" queryTableFieldId="10" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{92E11345-B2B8-4373-A230-02AD5B26EBE0}" uniqueName="SubClassifica_x005f_x00e7__x005f_x00e3_o" name="Sub Classificação" queryTableFieldId="15" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{D38DFDC3-268E-4C0B-B1C6-7C906DDA41F0}" uniqueName="Motivo" name="Motivo" queryTableFieldId="11" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{FEC4B782-3ADD-467E-AEDD-77810F34333C}" uniqueName="Data" name="Data Inicio" queryTableFieldId="2" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{A4761FA6-CEE6-4332-8D73-AFE7F422BE36}" uniqueName="CNPJ" name="CNPJ" queryTableFieldId="3" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{C1C5EAE9-C725-4331-97AF-86D776973086}" uniqueName="Raz_x005f_x00e3_oSocial" name="Razão Social" queryTableFieldId="4" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{9D2A510E-3F5A-4AAB-B337-4A0F6326AA05}" uniqueName="Descri_x005f_x00e7__x005f_x00e3_o" name="Descrição" queryTableFieldId="5" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{9068A5D9-F5B7-42C0-9213-43BD91AD7682}" uniqueName="FCR" name="FCR" queryTableFieldId="7" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{969C1DAE-93EE-435A-9055-F21AACFD10A0}" uniqueName="Origemdocontato" name="Área responsável pela resolução" queryTableFieldId="8" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{8694E2F6-FD1A-4628-BF66-C6F99870179D}" uniqueName="Origemdocontato0" name="Origem do contato" queryTableFieldId="9" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{7E3CACB5-D433-4E25-87D4-BC68347BC8CB}" uniqueName="Tipodecontato" name="Tipo de contato" queryTableFieldId="14" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{10160CD2-C7E2-4A26-B1EA-7DE0AE2126C4}" uniqueName="DataFim" name="Data Fim" queryTableFieldId="6" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{29D960B3-F807-4337-AC3E-DD01D4072C23}" uniqueName="GN" name="GN" queryTableFieldId="12" dataDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{03E4EC44-3F2C-434C-AA85-87B30886DD2A}" uniqueName="Solicitante" name="Solicitante" queryTableFieldId="13" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{72919651-D21A-4682-96C7-08D661F18C79}" uniqueName="Title" name="Título" queryTableFieldId="1" dataDxfId="3"/>
-    <tableColumn id="16" xr3:uid="{38192B54-B1F4-4601-BD8E-FFF8E4D9F368}" uniqueName="_x005f_x0024_Resources_x005f_x003a_core_x002" name="Status de liberação" queryTableFieldId="16" dataDxfId="2"/>
-    <tableColumn id="17" xr3:uid="{A8EAE3D4-C98D-4043-A86D-C1E0AB949E41}" uniqueName="_ApprovalStatus" name="Status de aprovação" queryTableFieldId="17"/>
-    <tableColumn id="18" xr3:uid="{FDA1F530-DBA5-40F8-87F8-4B1FCB5A2BC6}" uniqueName="FSObjType" name="Tipo de Item" queryTableFieldId="19" dataDxfId="1"/>
-    <tableColumn id="19" xr3:uid="{87261E95-2C38-4882-9B86-EAD8CD2D812F}" uniqueName="FileDirRef" name="Caminho" queryTableFieldId="18" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{C531232C-678C-47F0-ADB1-FAF4FB10F58C}" uniqueName="Analista" name="Analista" queryTableFieldId="10" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{57BB21EE-59B7-4D61-A6F7-742E127684C1}" uniqueName="SubClassifica_x005f_x00e7__x005f_x00e3_o" name="Sub Classificação" queryTableFieldId="15" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{0C6D45B5-2F6F-4EA2-837A-3AD5F37E1C99}" uniqueName="Motivo" name="Motivo" queryTableFieldId="11" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{FD8C59BF-60AC-4CAE-BDEB-E25E0E1BCF3A}" uniqueName="Data" name="Data Inicio" queryTableFieldId="2" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{E247E1C6-EA91-4FDE-8C97-2EEF1CD623E3}" uniqueName="CNPJ" name="CNPJ" queryTableFieldId="3" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{0FEB94A9-5373-49BE-A446-9A92863B407A}" uniqueName="Raz_x005f_x00e3_oSocial" name="Razão Social" queryTableFieldId="4" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{14D98964-F1F5-4EE5-A9C3-E4A3779CF71C}" uniqueName="Descri_x005f_x00e7__x005f_x00e3_o" name="Descrição" queryTableFieldId="5" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{FBA426EB-8E8F-4292-913B-9840C7FF4455}" uniqueName="FCR" name="FCR" queryTableFieldId="7" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{94A62D6C-EEC3-4D55-84D2-B11733830B28}" uniqueName="Origemdocontato" name="Área responsável pela resolução" queryTableFieldId="8" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{0C368789-5939-46A7-A815-C3BB5FD2471E}" uniqueName="Origemdocontato0" name="Origem do contato" queryTableFieldId="9" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{567570F1-8D46-4349-89AF-9BFF5FC54C66}" uniqueName="Tipodecontato" name="Tipo de contato" queryTableFieldId="14" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{FEDA55BD-4CB9-4E3A-93E7-2D4C666A7F51}" uniqueName="DataFim" name="Data Fim" queryTableFieldId="6" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{A531E6B3-720F-458C-A0D2-9527B473EB0A}" uniqueName="GN" name="GN" queryTableFieldId="12" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{F586CEFC-014E-4E8D-858A-0045B673D831}" uniqueName="Solicitante" name="Solicitante" queryTableFieldId="13" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{00902BBA-73AC-4910-BC6A-27CF93799CCF}" uniqueName="Title" name="Título" queryTableFieldId="1" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{5A8EFBFE-33D4-45D6-868A-EA4C8739FC6D}" uniqueName="_x005f_x0024_Resources_x005f_x003a_core_x002" name="Status de liberação" queryTableFieldId="16" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{F0B117A4-BF9B-49E1-9CA7-5A6E7F4DE277}" uniqueName="_ApprovalStatus" name="Status de aprovação" queryTableFieldId="17"/>
+    <tableColumn id="18" xr3:uid="{E325F8BE-1E1E-426F-B0C4-ED72CC729935}" uniqueName="FSObjType" name="Tipo de Item" queryTableFieldId="19" dataDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{C35E83C2-AFBA-4085-B12C-808B5D6F61FC}" uniqueName="FileDirRef" name="Caminho" queryTableFieldId="18" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1951,11 +1951,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E3807E4-0530-4E62-9322-3F192F1B82DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B6D05A-9060-4AFC-A35E-FF49D65B9081}">
   <dimension ref="A1:S122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:S122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/base_hub_github.xlsx
+++ b/base_hub_github.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupoultracloud-my.sharepoint.com/personal/thiago_junior_ipiranga_ipiranga/Documents/Área de Trabalho/PBI HUB/Base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{818A3FC8-4813-4373-81A1-DB103EE664FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{1D665042-68D4-457C-82F8-C0D7CAE9B9FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EC3ED42-4B72-47D2-9F06-3BFA50C25F46}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3F05687F-9A24-441C-BF0A-C152C7870A53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{904D8BD6-1E39-4904-AC5C-6444FE8972FE}"/>
   </bookViews>
   <sheets>
     <sheet name="query" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="query__16" localSheetId="0" hidden="1">query!$A$1:$S$122</definedName>
+    <definedName name="query__17" localSheetId="0" hidden="1">query!$A$1:$S$123</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -24,14 +24,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{0F7DBE8D-83F1-4F51-87BF-7A24BCEC4AAD}" odcFile="C:\Users\thiago.junior\Downloads\query (16).iqy" keepAlive="1" name="query (16)" type="5" refreshedVersion="8" minRefreshableVersion="3" saveData="1">
+  <connection id="1" xr16:uid="{51DF6A3B-C83B-4816-B6D1-281FF9807055}" odcFile="C:\Users\thiago.junior\Downloads\query (17).iqy" keepAlive="1" name="query (17)" type="5" refreshedVersion="8" minRefreshableVersion="3" saveData="1">
     <dbPr connection="Provider=Microsoft.Office.List.OLEDB.2.0;Data Source=&quot;&quot;;ApplicationName=Excel;Version=12.0.0.0" command="&lt;LIST&gt;&lt;VIEWGUID&gt;A45175CA-9778-441D-B066-D8555F7DBBE4&lt;/VIEWGUID&gt;&lt;LISTNAME&gt;06be0e4e-018b-4cef-a562-4db2a9a684e1&lt;/LISTNAME&gt;&lt;LISTWEB&gt;https://grupoultracloud-my.sharepoint.com/personal/roberta_rocha_ipiranga_ipiranga/_vti_bin&lt;/LISTWEB&gt;&lt;LISTSUBWEB&gt;&lt;/LISTSUBWEB&gt;&lt;ROOTFOLDER&gt;&lt;/ROOTFOLDER&gt;&lt;/LIST&gt;" commandType="5"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="317">
   <si>
     <t>Título</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>G.N. Urbano Goiania</t>
+  </si>
+  <si>
+    <t>Valenca A Service Ltda</t>
   </si>
   <si>
     <t>Posto com campanha ativa desde 20/10/2025, oferecendo R$9,00 de desconto no etanol original para clientes com ticket acima de R$100,00.
@@ -169,6 +172,9 @@
     <t>Thiago</t>
   </si>
   <si>
+    <t>G.N. Urbano Campinas</t>
+  </si>
+  <si>
     <t>Abastecedora De Combs.Rodovia Rs-118 Lt</t>
   </si>
   <si>
@@ -302,9 +308,6 @@
     <t xml:space="preserve">Posto relata erro na impressão do slip e pede para que chequemos se já a transação foi compensada. Orientei o processo no portal mas de toda forma sanei a duvida pontualmente. </t>
   </si>
   <si>
-    <t>G.N. Urbano Campinas</t>
-  </si>
-  <si>
     <t>Auto Posto Parque Novo Mundo I Ltda</t>
   </si>
   <si>
@@ -350,9 +353,15 @@
     <t>G.N. Urbano Sao Jose Rio Preto</t>
   </si>
   <si>
+    <t>D M E Comercio De Combustiveis Ltda</t>
+  </si>
+  <si>
     <t xml:space="preserve">Revendedor Antonio, relatou dificuldades para concluir a instalação do Conecta no PDV fixo com o representante local. Não possui número de chamado ou protocolo. Posto já possui adesão ao Conecta. Caso encaminhado por e-mail para o Luis e Gabriel da automação Meta. </t>
   </si>
   <si>
+    <t>G.N. Urbano Londrina</t>
+  </si>
+  <si>
     <t>Abast Fagundes Ltda</t>
   </si>
   <si>
@@ -545,9 +554,6 @@
     <t xml:space="preserve">Revendedora Marcia, entrou em contato para relatar instabilidade no App KmV. </t>
   </si>
   <si>
-    <t>G.N. Urbano Londrina</t>
-  </si>
-  <si>
     <t>Rede Ipe Maracaju Posto De Servicos Ltd</t>
   </si>
   <si>
@@ -608,6 +614,9 @@
     <t>Apresentei novamente a proposta do projeto Oferta é Sua Desconto ao revendedor Igor. Porém, infelizmente, ele tem se mostrado relutante, visto que já possui um aplicativo local para trabalhar com os próprios descontos.</t>
   </si>
   <si>
+    <t>Aruja Centro Automotivo Ltda</t>
+  </si>
+  <si>
     <t xml:space="preserve">Solicitação via CT de ajuste Lat Long ( Karina Silva) </t>
   </si>
   <si>
@@ -794,6 +803,9 @@
     <t>Apresentação Oferta é sua desconto</t>
   </si>
   <si>
+    <t>Centro Automotivo Blue Miami Ltda</t>
+  </si>
+  <si>
     <t>Responsável: Ana Paula Posto: Centro Automotivo Blue Miami Ltda CNPJ: 37.654.527/0001-40 Identificador da Venda: ABA-204346073 Data da Autorização: 18/11 às 21:30 Data do Estorno: 18/11 às 21:35 Valor da Transação: R$ 334,47 Valor Líquido: R$ 325,47 Meio de Pagamento: Online Status: Pendente Avaliação Observações: Venda autorizada e posteriormente estornada. Solicitar reversão ou procedimento adicional.</t>
   </si>
   <si>
@@ -935,9 +947,6 @@
     <t>Apresentação do OFS desconto revenda avaliando ficou de dar o retorno em 10/12</t>
   </si>
   <si>
-    <t>Valenca A Service Ltda</t>
-  </si>
-  <si>
     <t>apresentação do treinamento ( sistemicos + ofs desconto) campanha cadastrada mas o posto não estava entendendo operacionalmente o processo da concessão do desconto</t>
   </si>
   <si>
@@ -959,6 +968,9 @@
     <t>Em contato com a Rede para apresentar a solução Conecta, o posto informou que está avaliando a possibilidade de adesão. No entanto, não há previsão para implementação, considerando que estamos no final do ano e não desejam comprometer o atendimento com demandas técnicas neste período.</t>
   </si>
   <si>
+    <t>Auto Posto Eco Gas Ltda - Me</t>
+  </si>
+  <si>
     <t>Apresentação do Conecta Rede avaliando a implementação ( ação final de ano reversão dos postos  com sistema homolog porém sem conecta implementado)</t>
   </si>
   <si>
@@ -968,7 +980,13 @@
     <t>NA</t>
   </si>
   <si>
+    <t>Grupo Majore Paula Auto Posto Ltda</t>
+  </si>
+  <si>
     <t>Andrea, do Grupo Curt, solicitou apoio referente à devolução realizada no dia 02/12 no Majore. Não recebemos o KMV no valor de R$445,70 (slip anexo). Trata-se de um problema de desfazimento. Conversei com Ana Paula e o reembolso será efetuado na próxima sexta-feira, 12/12. Andrea já foi informada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solicitação de alteração de dimicílio bancário. Caso enviado para Ana Farandi. </t>
   </si>
 </sst>
 </file>
@@ -1580,7 +1598,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="query (16)" backgroundRefresh="0" connectionId="1" xr16:uid="{4D690842-31CD-4E62-9F26-F24F386B6CCB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="query (17)" backgroundRefresh="0" connectionId="1" xr16:uid="{F09F43EA-B2A3-45B8-BB0A-79B0C4E2D762}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="20">
     <queryTableFields count="19">
       <queryTableField id="10" name="Analista" tableColumnId="1"/>
@@ -1608,28 +1626,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D5751D31-24E9-4B23-AEAD-CA6BCC746A43}" name="Tabela_query__16" displayName="Tabela_query__16" ref="A1:S122" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:S122" xr:uid="{D5751D31-24E9-4B23-AEAD-CA6BCC746A43}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5312F806-BD64-4D7B-9D0A-47609BBB2F79}" name="Tabela_query__17" displayName="Tabela_query__17" ref="A1:S123" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:S123" xr:uid="{5312F806-BD64-4D7B-9D0A-47609BBB2F79}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{C531232C-678C-47F0-ADB1-FAF4FB10F58C}" uniqueName="Analista" name="Analista" queryTableFieldId="10" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{57BB21EE-59B7-4D61-A6F7-742E127684C1}" uniqueName="SubClassifica_x005f_x00e7__x005f_x00e3_o" name="Sub Classificação" queryTableFieldId="15" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{0C6D45B5-2F6F-4EA2-837A-3AD5F37E1C99}" uniqueName="Motivo" name="Motivo" queryTableFieldId="11" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{FD8C59BF-60AC-4CAE-BDEB-E25E0E1BCF3A}" uniqueName="Data" name="Data Inicio" queryTableFieldId="2" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{E247E1C6-EA91-4FDE-8C97-2EEF1CD623E3}" uniqueName="CNPJ" name="CNPJ" queryTableFieldId="3" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{0FEB94A9-5373-49BE-A446-9A92863B407A}" uniqueName="Raz_x005f_x00e3_oSocial" name="Razão Social" queryTableFieldId="4" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{14D98964-F1F5-4EE5-A9C3-E4A3779CF71C}" uniqueName="Descri_x005f_x00e7__x005f_x00e3_o" name="Descrição" queryTableFieldId="5" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{FBA426EB-8E8F-4292-913B-9840C7FF4455}" uniqueName="FCR" name="FCR" queryTableFieldId="7" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{94A62D6C-EEC3-4D55-84D2-B11733830B28}" uniqueName="Origemdocontato" name="Área responsável pela resolução" queryTableFieldId="8" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{0C368789-5939-46A7-A815-C3BB5FD2471E}" uniqueName="Origemdocontato0" name="Origem do contato" queryTableFieldId="9" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{567570F1-8D46-4349-89AF-9BFF5FC54C66}" uniqueName="Tipodecontato" name="Tipo de contato" queryTableFieldId="14" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{FEDA55BD-4CB9-4E3A-93E7-2D4C666A7F51}" uniqueName="DataFim" name="Data Fim" queryTableFieldId="6" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{A531E6B3-720F-458C-A0D2-9527B473EB0A}" uniqueName="GN" name="GN" queryTableFieldId="12" dataDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{F586CEFC-014E-4E8D-858A-0045B673D831}" uniqueName="Solicitante" name="Solicitante" queryTableFieldId="13" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{00902BBA-73AC-4910-BC6A-27CF93799CCF}" uniqueName="Title" name="Título" queryTableFieldId="1" dataDxfId="3"/>
-    <tableColumn id="16" xr3:uid="{5A8EFBFE-33D4-45D6-868A-EA4C8739FC6D}" uniqueName="_x005f_x0024_Resources_x005f_x003a_core_x002" name="Status de liberação" queryTableFieldId="16" dataDxfId="2"/>
-    <tableColumn id="17" xr3:uid="{F0B117A4-BF9B-49E1-9CA7-5A6E7F4DE277}" uniqueName="_ApprovalStatus" name="Status de aprovação" queryTableFieldId="17"/>
-    <tableColumn id="18" xr3:uid="{E325F8BE-1E1E-426F-B0C4-ED72CC729935}" uniqueName="FSObjType" name="Tipo de Item" queryTableFieldId="19" dataDxfId="1"/>
-    <tableColumn id="19" xr3:uid="{C35E83C2-AFBA-4085-B12C-808B5D6F61FC}" uniqueName="FileDirRef" name="Caminho" queryTableFieldId="18" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{8DFF27B8-C4B5-42F4-9F42-0E76E23B6B49}" uniqueName="Analista" name="Analista" queryTableFieldId="10" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{F6FEBABC-D572-4669-9B76-D2B9C9A82FC3}" uniqueName="SubClassifica_x005f_x00e7__x005f_x00e3_o" name="Sub Classificação" queryTableFieldId="15" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{D68C826D-DF6D-4F45-BC93-328FFEA7B750}" uniqueName="Motivo" name="Motivo" queryTableFieldId="11" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{670BE700-1CE8-4639-9B31-9EE3EA2FF740}" uniqueName="Data" name="Data Inicio" queryTableFieldId="2" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{2C708610-5350-4BA8-A212-F9DC3A5694FB}" uniqueName="CNPJ" name="CNPJ" queryTableFieldId="3" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{42A03FD9-C817-4CCC-93E1-DF7E8AB16F43}" uniqueName="Raz_x005f_x00e3_oSocial" name="Razão Social" queryTableFieldId="4" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{9E476440-3255-474A-9008-2A6D9FCC0BDC}" uniqueName="Descri_x005f_x00e7__x005f_x00e3_o" name="Descrição" queryTableFieldId="5" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{AB11265F-EE68-415F-B6CF-3ED20B06426A}" uniqueName="FCR" name="FCR" queryTableFieldId="7" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{1D5239D6-8A73-48A7-B26D-D236B3D7F8A3}" uniqueName="Origemdocontato" name="Área responsável pela resolução" queryTableFieldId="8" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{D348176F-6F76-44CA-94E2-87D3FC0D24CA}" uniqueName="Origemdocontato0" name="Origem do contato" queryTableFieldId="9" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{0FB1EA97-410E-4C3B-9285-308285F540EB}" uniqueName="Tipodecontato" name="Tipo de contato" queryTableFieldId="14" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{097D3F83-8690-4A2D-BF98-8E9241FFB93B}" uniqueName="DataFim" name="Data Fim" queryTableFieldId="6" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{96EADEE8-C021-432E-875A-AFFD50AC66E9}" uniqueName="GN" name="GN" queryTableFieldId="12" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{33EF54C6-578C-4A40-9528-404E4112CA09}" uniqueName="Solicitante" name="Solicitante" queryTableFieldId="13" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{68995028-6500-40F9-8761-3935AB86F05C}" uniqueName="Title" name="Título" queryTableFieldId="1" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{5DDD65DC-E143-412C-87D4-16F416D1573E}" uniqueName="_x005f_x0024_Resources_x005f_x003a_core_x002" name="Status de liberação" queryTableFieldId="16" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{8A85508C-E7BC-49FE-BFE9-01891928CE4F}" uniqueName="_ApprovalStatus" name="Status de aprovação" queryTableFieldId="17"/>
+    <tableColumn id="18" xr3:uid="{61ABA5B6-66F3-4EFB-A956-247A250E4D3D}" uniqueName="FSObjType" name="Tipo de Item" queryTableFieldId="19" dataDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{F5D66DB8-C127-4836-BED8-D348BCD54B41}" uniqueName="FileDirRef" name="Caminho" queryTableFieldId="18" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1951,11 +1969,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B6D05A-9060-4AFC-A35E-FF49D65B9081}">
-  <dimension ref="A1:S122"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7767F908-51DD-49BB-8A6D-733919931AFE}">
+  <dimension ref="A1:S123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:S122"/>
+      <selection sqref="A1:S123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2200,7 +2218,7 @@
     </row>
     <row r="5" spans="1:19" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>36</v>
@@ -2214,9 +2232,11 @@
       <c r="E5" s="3">
         <v>4785105000154</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="G5" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>21</v>
@@ -2225,15 +2245,17 @@
         <v>33</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>35</v>
       </c>
       <c r="L5" s="2">
-        <v>45978</v>
-      </c>
-      <c r="M5" s="1"/>
+        <v>45995</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="N5" s="1" t="s">
         <v>27</v>
       </c>
@@ -2251,13 +2273,13 @@
     </row>
     <row r="6" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="D6" s="2">
         <v>45985</v>
@@ -2266,16 +2288,16 @@
         <v>20887348000230</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>23</v>
@@ -2285,7 +2307,7 @@
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>27</v>
@@ -2301,13 +2323,13 @@
     </row>
     <row r="7" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D7" s="2">
         <v>45988</v>
@@ -2316,16 +2338,16 @@
         <v>2297218000185</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>23</v>
@@ -2337,7 +2359,7 @@
         <v>45988</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>27</v>
@@ -2356,13 +2378,13 @@
     </row>
     <row r="8" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D8" s="2">
         <v>45988</v>
@@ -2371,19 +2393,19 @@
         <v>577709000154</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>28</v>
@@ -2392,13 +2414,13 @@
         <v>45992</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P8" s="4"/>
       <c r="Q8">
@@ -2413,7 +2435,7 @@
     </row>
     <row r="9" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>29</v>
@@ -2428,16 +2450,16 @@
         <v>87091997000110</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>23</v>
@@ -2449,13 +2471,13 @@
         <v>45988</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P9" s="4"/>
       <c r="Q9">
@@ -2470,13 +2492,13 @@
     </row>
     <row r="10" spans="1:19" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D10" s="2">
         <v>45989</v>
@@ -2485,19 +2507,19 @@
         <v>87091997000110</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>28</v>
@@ -2506,13 +2528,13 @@
         <v>45989</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P10" s="4"/>
       <c r="R10" s="4" t="s">
@@ -2524,13 +2546,13 @@
     </row>
     <row r="11" spans="1:19" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D11" s="2">
         <v>45989</v>
@@ -2539,10 +2561,10 @@
         <v>24052827000107</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>21</v>
@@ -2560,7 +2582,7 @@
         <v>45989</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>27</v>
@@ -2579,7 +2601,7 @@
     </row>
     <row r="12" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>29</v>
@@ -2594,10 +2616,10 @@
         <v>14261931000101</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>21</v>
@@ -2615,7 +2637,7 @@
         <v>45989</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>27</v>
@@ -2631,13 +2653,13 @@
     </row>
     <row r="13" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D13" s="2">
         <v>45989</v>
@@ -2646,10 +2668,10 @@
         <v>10478691000510</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>21</v>
@@ -2658,7 +2680,7 @@
         <v>33</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>28</v>
@@ -2667,10 +2689,10 @@
         <v>45989</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
@@ -2701,10 +2723,10 @@
         <v>48468877000138</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>21</v>
@@ -2741,7 +2763,7 @@
     </row>
     <row r="15" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>29</v>
@@ -2756,10 +2778,10 @@
         <v>47481338000176</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>21</v>
@@ -2777,7 +2799,7 @@
         <v>45988</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>27</v>
@@ -2796,13 +2818,13 @@
     </row>
     <row r="16" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D16" s="2">
         <v>45989</v>
@@ -2811,10 +2833,10 @@
         <v>21021038000110</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>21</v>
@@ -2838,7 +2860,7 @@
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R16" s="4" t="s">
         <v>31</v>
@@ -2852,10 +2874,10 @@
         <v>24</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D17" s="2">
         <v>45989</v>
@@ -2864,10 +2886,10 @@
         <v>48346249000180</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>21</v>
@@ -2888,7 +2910,7 @@
         <v>40</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
@@ -2904,10 +2926,10 @@
     </row>
     <row r="18" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>34</v>
@@ -2919,10 +2941,10 @@
         <v>53964377000127</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>21</v>
@@ -2940,7 +2962,7 @@
         <v>45989</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>27</v>
@@ -2975,7 +2997,7 @@
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>21</v>
@@ -3009,13 +3031,13 @@
     </row>
     <row r="20" spans="1:19" ht="58" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D20" s="2">
         <v>45989</v>
@@ -3024,19 +3046,19 @@
         <v>49928345000107</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>28</v>
@@ -3045,10 +3067,10 @@
         <v>45994</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
@@ -3064,13 +3086,13 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D21" s="2">
         <v>45989</v>
@@ -3079,10 +3101,10 @@
         <v>59641702000191</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>21</v>
@@ -3100,10 +3122,10 @@
         <v>45989</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
@@ -3116,13 +3138,13 @@
     </row>
     <row r="22" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D22" s="2">
         <v>45989</v>
@@ -3130,15 +3152,17 @@
       <c r="E22" s="3">
         <v>47708647000136</v>
       </c>
-      <c r="F22" s="4"/>
+      <c r="F22" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="G22" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>23</v>
@@ -3149,7 +3173,9 @@
       <c r="L22" s="2">
         <v>45994</v>
       </c>
-      <c r="M22" s="1"/>
+      <c r="M22" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="N22" s="1" t="s">
         <v>27</v>
       </c>
@@ -3167,10 +3193,10 @@
     </row>
     <row r="23" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>34</v>
@@ -3182,10 +3208,10 @@
         <v>577065000285</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>21</v>
@@ -3194,7 +3220,7 @@
         <v>33</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>35</v>
@@ -3203,7 +3229,7 @@
         <v>45989</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="4"/>
@@ -3220,13 +3246,13 @@
     </row>
     <row r="24" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D24" s="2">
         <v>45989</v>
@@ -3235,13 +3261,13 @@
         <v>45993033000118</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>33</v>
@@ -3256,10 +3282,10 @@
         <v>45993</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
@@ -3275,10 +3301,10 @@
     </row>
     <row r="25" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>34</v>
@@ -3290,10 +3316,10 @@
         <v>46872263000191</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>21</v>
@@ -3311,7 +3337,7 @@
         <v>45996</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>27</v>
@@ -3330,13 +3356,13 @@
     </row>
     <row r="26" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D26" s="2">
         <v>45988</v>
@@ -3346,13 +3372,13 @@
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>23</v>
@@ -3365,7 +3391,7 @@
       </c>
       <c r="M26" s="1"/>
       <c r="N26" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
@@ -3396,16 +3422,16 @@
         <v>38074571000143</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>23</v>
@@ -3436,13 +3462,13 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D28" s="2">
         <v>45980</v>
@@ -3451,13 +3477,13 @@
         <v>3477535000146</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1" t="s">
@@ -3470,7 +3496,7 @@
         <v>45994</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>27</v>
@@ -3489,13 +3515,13 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D29" s="2">
         <v>45989</v>
@@ -3504,19 +3530,19 @@
         <v>11519114000169</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>28</v>
@@ -3525,10 +3551,10 @@
         <v>45992</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
@@ -3544,13 +3570,13 @@
     </row>
     <row r="30" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D30" s="2">
         <v>45992</v>
@@ -3559,10 +3585,10 @@
         <v>10317892000102</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>21</v>
@@ -3580,7 +3606,7 @@
         <v>45992</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>27</v>
@@ -3599,13 +3625,13 @@
     </row>
     <row r="31" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D31" s="2">
         <v>45992</v>
@@ -3614,10 +3640,10 @@
         <v>2144883000139</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>21</v>
@@ -3626,7 +3652,7 @@
         <v>33</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>28</v>
@@ -3635,10 +3661,10 @@
         <v>45992</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
@@ -3657,10 +3683,10 @@
         <v>24</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D32" s="2">
         <v>45992</v>
@@ -3669,16 +3695,16 @@
         <v>48346249000180</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>23</v>
@@ -3712,10 +3738,10 @@
         <v>24</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D33" s="2">
         <v>45992</v>
@@ -3724,10 +3750,10 @@
         <v>48346249000180</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>21</v>
@@ -3767,10 +3793,10 @@
         <v>24</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D34" s="2">
         <v>45992</v>
@@ -3779,10 +3805,10 @@
         <v>689380000113</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>21</v>
@@ -3822,10 +3848,10 @@
         <v>24</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D35" s="2">
         <v>45992</v>
@@ -3834,10 +3860,10 @@
         <v>32044415000153</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>21</v>
@@ -3877,10 +3903,10 @@
         <v>24</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D36" s="2">
         <v>45992</v>
@@ -3889,10 +3915,10 @@
         <v>2551867000160</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>21</v>
@@ -3944,10 +3970,10 @@
         <v>36180754000118</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>21</v>
@@ -3956,7 +3982,7 @@
         <v>33</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>35</v>
@@ -3968,7 +3994,7 @@
         <v>40</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
@@ -3990,7 +4016,7 @@
         <v>29</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D38" s="2">
         <v>45992</v>
@@ -3999,16 +4025,16 @@
         <v>2754502000133</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>23</v>
@@ -4054,10 +4080,10 @@
         <v>10522077000770</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>21</v>
@@ -4109,10 +4135,10 @@
         <v>3156892000102</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>21</v>
@@ -4164,10 +4190,10 @@
         <v>10592852000179</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>21</v>
@@ -4219,10 +4245,10 @@
         <v>57237149000106</v>
       </c>
       <c r="F42" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G42" s="5" t="s">
         <v>147</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>144</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>21</v>
@@ -4274,10 +4300,10 @@
         <v>53875328000118</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>21</v>
@@ -4329,10 +4355,10 @@
         <v>10522077000428</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>21</v>
@@ -4369,10 +4395,10 @@
     </row>
     <row r="45" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>39</v>
@@ -4384,10 +4410,10 @@
         <v>56738016000150</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>21</v>
@@ -4405,7 +4431,7 @@
         <v>45993</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="N45" s="1" t="s">
         <v>27</v>
@@ -4430,7 +4456,7 @@
         <v>29</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D46" s="2">
         <v>45993</v>
@@ -4439,16 +4465,16 @@
         <v>24314878000160</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>23</v>
@@ -4460,10 +4486,10 @@
         <v>45993</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
@@ -4495,7 +4521,7 @@
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>21</v>
@@ -4530,10 +4556,10 @@
     </row>
     <row r="48" spans="1:19" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>39</v>
@@ -4545,16 +4571,16 @@
         <v>62236617000168</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>23</v>
@@ -4566,10 +4592,10 @@
         <v>46000</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O48" s="4"/>
       <c r="P48" s="4"/>
@@ -4588,10 +4614,10 @@
         <v>24</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D49" s="2">
         <v>45993</v>
@@ -4600,10 +4626,10 @@
         <v>9241803394</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>21</v>
@@ -4643,10 +4669,10 @@
         <v>24</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D50" s="2">
         <v>45993</v>
@@ -4655,10 +4681,10 @@
         <v>2394473000146</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>21</v>
@@ -4667,7 +4693,7 @@
         <v>33</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>28</v>
@@ -4679,7 +4705,7 @@
         <v>40</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O50" s="4"/>
       <c r="P50" s="4"/>
@@ -4701,7 +4727,7 @@
         <v>36</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D51" s="2">
         <v>45993</v>
@@ -4710,10 +4736,10 @@
         <v>2394473000146</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>21</v>
@@ -4734,7 +4760,7 @@
         <v>40</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
@@ -4750,13 +4776,13 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D52" s="2">
         <v>45993</v>
@@ -4765,10 +4791,10 @@
         <v>3331129000170</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>21</v>
@@ -4777,7 +4803,7 @@
         <v>33</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>28</v>
@@ -4786,10 +4812,10 @@
         <v>45993</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O52" s="4"/>
       <c r="P52" s="4"/>
@@ -4805,7 +4831,7 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>29</v>
@@ -4820,13 +4846,13 @@
         <v>77817583000172</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>22</v>
@@ -4841,7 +4867,7 @@
         <v>45993</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="N53" s="1" t="s">
         <v>27</v>
@@ -4863,10 +4889,10 @@
         <v>24</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D54" s="2">
         <v>45993</v>
@@ -4875,10 +4901,10 @@
         <v>51829602000197</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>21</v>
@@ -4921,7 +4947,7 @@
         <v>29</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D55" s="2">
         <v>45993</v>
@@ -4930,16 +4956,16 @@
         <v>18359457000152</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>23</v>
@@ -4985,10 +5011,10 @@
         <v>29827042000182</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>21</v>
@@ -5025,13 +5051,13 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="D57" s="2">
         <v>45993</v>
@@ -5040,19 +5066,19 @@
         <v>3331129000170</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>28</v>
@@ -5061,10 +5087,10 @@
         <v>45993</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O57" s="4"/>
       <c r="P57" s="4"/>
@@ -5080,13 +5106,13 @@
     </row>
     <row r="58" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D58" s="2">
         <v>45994</v>
@@ -5095,13 +5121,13 @@
         <v>11519114000169</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>33</v>
@@ -5116,7 +5142,7 @@
         <v>45994</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="N58" s="1" t="s">
         <v>27</v>
@@ -5135,13 +5161,13 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D59" s="2">
         <v>45992</v>
@@ -5150,13 +5176,13 @@
         <v>19770536000114</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>33</v>
@@ -5171,7 +5197,7 @@
         <v>45992</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="N59" s="1" t="s">
         <v>27</v>
@@ -5190,13 +5216,13 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D60" s="2">
         <v>45993</v>
@@ -5205,10 +5231,10 @@
         <v>27394378000173</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>21</v>
@@ -5226,7 +5252,7 @@
         <v>45993</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N60" s="1" t="s">
         <v>27</v>
@@ -5245,10 +5271,10 @@
     </row>
     <row r="61" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>34</v>
@@ -5260,10 +5286,10 @@
         <v>46892512000100</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>21</v>
@@ -5272,7 +5298,7 @@
         <v>33</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>35</v>
@@ -5281,10 +5307,10 @@
         <v>45994</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O61" s="4"/>
       <c r="P61" s="4"/>
@@ -5300,13 +5326,13 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D62" s="2">
         <v>45994</v>
@@ -5314,9 +5340,11 @@
       <c r="E62" s="3">
         <v>4978803000176</v>
       </c>
-      <c r="F62" s="4"/>
+      <c r="F62" s="4" t="s">
+        <v>192</v>
+      </c>
       <c r="G62" s="5" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>21</v>
@@ -5325,7 +5353,7 @@
         <v>33</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>35</v>
@@ -5335,7 +5363,7 @@
       </c>
       <c r="M62" s="1"/>
       <c r="N62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O62" s="4"/>
       <c r="P62" s="4"/>
@@ -5351,7 +5379,7 @@
     </row>
     <row r="63" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>36</v>
@@ -5366,10 +5394,10 @@
         <v>11368640000175</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>21</v>
@@ -5378,7 +5406,7 @@
         <v>33</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>35</v>
@@ -5387,10 +5415,10 @@
         <v>45988</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O63" s="4"/>
       <c r="P63" s="4"/>
@@ -5409,10 +5437,10 @@
         <v>24</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D64" s="2">
         <v>45994</v>
@@ -5421,10 +5449,10 @@
         <v>23467987600012</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>21</v>
@@ -5464,10 +5492,10 @@
         <v>24</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D65" s="2">
         <v>45994</v>
@@ -5476,10 +5504,10 @@
         <v>19497817000107</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>21</v>
@@ -5497,10 +5525,10 @@
         <v>45994</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O65" s="4"/>
       <c r="P65" s="4"/>
@@ -5519,10 +5547,10 @@
         <v>24</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D66" s="2">
         <v>45994</v>
@@ -5531,19 +5559,19 @@
         <v>2279387000192</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>28</v>
@@ -5555,7 +5583,7 @@
         <v>40</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
@@ -5574,7 +5602,7 @@
         <v>24</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>34</v>
@@ -5586,10 +5614,10 @@
         <v>27192758000206</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>21</v>
@@ -5598,7 +5626,7 @@
         <v>33</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>35</v>
@@ -5626,13 +5654,13 @@
     </row>
     <row r="68" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D68" s="2">
         <v>45995</v>
@@ -5641,19 +5669,19 @@
         <v>57717655000100</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K68" s="1" t="s">
         <v>28</v>
@@ -5662,7 +5690,7 @@
         <v>45995</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="N68" s="1" t="s">
         <v>27</v>
@@ -5681,13 +5709,13 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D69" s="2">
         <v>45995</v>
@@ -5696,13 +5724,13 @@
         <v>7396700000196</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>33</v>
@@ -5717,7 +5745,7 @@
         <v>45995</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="N69" s="1" t="s">
         <v>27</v>
@@ -5736,13 +5764,13 @@
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D70" s="2">
         <v>45995</v>
@@ -5751,10 +5779,10 @@
         <v>45761173000160</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>21</v>
@@ -5772,10 +5800,10 @@
         <v>45995</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O70" s="4"/>
       <c r="P70" s="4"/>
@@ -5791,13 +5819,13 @@
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D71" s="2">
         <v>45995</v>
@@ -5806,10 +5834,10 @@
         <v>45761173000160</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>21</v>
@@ -5818,7 +5846,7 @@
         <v>33</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K71" s="1" t="s">
         <v>35</v>
@@ -5827,10 +5855,10 @@
         <v>45995</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O71" s="4"/>
       <c r="P71" s="4"/>
@@ -5846,13 +5874,13 @@
     </row>
     <row r="72" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D72" s="2">
         <v>45995</v>
@@ -5862,16 +5890,16 @@
       </c>
       <c r="F72" s="4"/>
       <c r="G72" s="5" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>28</v>
@@ -5895,13 +5923,13 @@
     </row>
     <row r="73" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D73" s="2">
         <v>45995</v>
@@ -5910,16 +5938,16 @@
         <v>87091997000110</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>23</v>
@@ -5931,7 +5959,7 @@
         <v>45995</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N73" s="1" t="s">
         <v>27</v>
@@ -5950,13 +5978,13 @@
     </row>
     <row r="74" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D74" s="2">
         <v>45995</v>
@@ -5965,19 +5993,19 @@
         <v>80979107000162</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>35</v>
@@ -5986,10 +6014,10 @@
         <v>45995</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O74" s="4"/>
       <c r="P74" s="4"/>
@@ -6005,13 +6033,13 @@
     </row>
     <row r="75" spans="1:19" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D75" s="2">
         <v>45995</v>
@@ -6020,29 +6048,29 @@
         <v>2234943001429</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K75" s="1" t="s">
         <v>28</v>
       </c>
       <c r="L75" s="2"/>
       <c r="M75" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O75" s="4"/>
       <c r="P75" s="4"/>
@@ -6058,10 +6086,10 @@
     </row>
     <row r="76" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="2">
@@ -6071,10 +6099,10 @@
         <v>61620792000191</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>21</v>
@@ -6092,7 +6120,7 @@
         <v>45995</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N76" s="1" t="s">
         <v>27</v>
@@ -6111,13 +6139,13 @@
     </row>
     <row r="77" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D77" s="2">
         <v>45995</v>
@@ -6126,16 +6154,16 @@
         <v>12645422000101</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>23</v>
@@ -6147,7 +6175,7 @@
         <v>45995</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="N77" s="1" t="s">
         <v>27</v>
@@ -6166,13 +6194,13 @@
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D78" s="2">
         <v>45995</v>
@@ -6181,16 +6209,16 @@
         <v>9164791001646</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>23</v>
@@ -6202,7 +6230,7 @@
         <v>45995</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N78" s="1" t="s">
         <v>27</v>
@@ -6221,7 +6249,7 @@
     </row>
     <row r="79" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>29</v>
@@ -6236,16 +6264,16 @@
         <v>72374952000186</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>23</v>
@@ -6255,7 +6283,7 @@
       </c>
       <c r="L79" s="2"/>
       <c r="M79" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="N79" s="1" t="s">
         <v>27</v>
@@ -6274,7 +6302,7 @@
     </row>
     <row r="80" spans="1:19" ht="58" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>29</v>
@@ -6289,16 +6317,16 @@
         <v>12074139000169</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>23</v>
@@ -6310,7 +6338,7 @@
         <v>45996</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N80" s="1" t="s">
         <v>27</v>
@@ -6329,13 +6357,13 @@
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D81" s="2">
         <v>45996</v>
@@ -6344,16 +6372,16 @@
         <v>5815156000144</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>23</v>
@@ -6365,7 +6393,7 @@
         <v>45996</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="N81" s="1" t="s">
         <v>27</v>
@@ -6384,13 +6412,13 @@
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D82" s="2">
         <v>45996</v>
@@ -6399,10 +6427,10 @@
         <v>55699369000126</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>21</v>
@@ -6420,7 +6448,7 @@
         <v>45996</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="N82" s="1"/>
       <c r="O82" s="4"/>
@@ -6437,10 +6465,10 @@
     </row>
     <row r="83" spans="1:19" ht="58" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>34</v>
@@ -6451,12 +6479,14 @@
       <c r="E83" s="3">
         <v>4785105000154</v>
       </c>
-      <c r="F83" s="4"/>
+      <c r="F83" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="G83" s="5" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>22</v>
@@ -6488,13 +6518,13 @@
     </row>
     <row r="84" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D84" s="2">
         <v>45996</v>
@@ -6503,13 +6533,13 @@
         <v>30455952000160</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I84" s="1"/>
       <c r="J84" s="1" t="s">
@@ -6522,10 +6552,10 @@
         <v>45996</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O84" s="4"/>
       <c r="P84" s="4"/>
@@ -6541,13 +6571,13 @@
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D85" s="2">
         <v>45996</v>
@@ -6556,16 +6586,16 @@
         <v>29404716000306</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>23</v>
@@ -6594,13 +6624,13 @@
     </row>
     <row r="86" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D86" s="2">
         <v>45996</v>
@@ -6609,10 +6639,10 @@
         <v>48227957000100</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>21</v>
@@ -6630,10 +6660,10 @@
         <v>45996</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O86" s="4"/>
       <c r="P86" s="4"/>
@@ -6649,13 +6679,13 @@
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D87" s="2">
         <v>45994</v>
@@ -6664,10 +6694,10 @@
         <v>47545858000103</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>21</v>
@@ -6685,7 +6715,7 @@
         <v>45994</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="N87" s="1" t="s">
         <v>27</v>
@@ -6704,10 +6734,10 @@
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>34</v>
@@ -6719,13 +6749,13 @@
         <v>52275228000198</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I88" s="1" t="s">
         <v>33</v>
@@ -6740,7 +6770,7 @@
         <v>45996</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="N88" s="1" t="s">
         <v>27</v>
@@ -6759,13 +6789,13 @@
     </row>
     <row r="89" spans="1:19" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D89" s="2">
         <v>45999</v>
@@ -6773,15 +6803,17 @@
       <c r="E89" s="3">
         <v>37654527000140</v>
       </c>
-      <c r="F89" s="4"/>
+      <c r="F89" s="4" t="s">
+        <v>255</v>
+      </c>
       <c r="G89" s="5" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>23</v>
@@ -6792,7 +6824,9 @@
       <c r="L89" s="2">
         <v>45999</v>
       </c>
-      <c r="M89" s="1"/>
+      <c r="M89" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="N89" s="1" t="s">
         <v>27</v>
       </c>
@@ -6810,13 +6844,13 @@
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D90" s="2">
         <v>45996</v>
@@ -6825,10 +6859,10 @@
         <v>45132315000120</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>21</v>
@@ -6846,10 +6880,10 @@
         <v>45996</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O90" s="4"/>
       <c r="P90" s="4"/>
@@ -6865,13 +6899,13 @@
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D91" s="2">
         <v>45995</v>
@@ -6880,10 +6914,10 @@
         <v>80979107000162</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>21</v>
@@ -6892,7 +6926,7 @@
         <v>33</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K91" s="1" t="s">
         <v>35</v>
@@ -6901,10 +6935,10 @@
         <v>45996</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O91" s="4"/>
       <c r="P91" s="4"/>
@@ -6920,13 +6954,13 @@
     </row>
     <row r="92" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D92" s="2">
         <v>45999</v>
@@ -6935,10 +6969,10 @@
         <v>57832654000107</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>21</v>
@@ -6956,7 +6990,7 @@
         <v>45999</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="N92" s="1" t="s">
         <v>27</v>
@@ -6975,13 +7009,13 @@
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D93" s="2">
         <v>45999</v>
@@ -6990,10 +7024,10 @@
         <v>24894843000147</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>21</v>
@@ -7002,7 +7036,7 @@
         <v>33</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K93" s="1" t="s">
         <v>28</v>
@@ -7014,7 +7048,7 @@
         <v>40</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O93" s="4"/>
       <c r="P93" s="4"/>
@@ -7030,13 +7064,13 @@
     </row>
     <row r="94" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D94" s="2">
         <v>45995</v>
@@ -7046,13 +7080,13 @@
       </c>
       <c r="F94" s="4"/>
       <c r="G94" s="5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>23</v>
@@ -7082,10 +7116,10 @@
         <v>24</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D95" s="2">
         <v>45999</v>
@@ -7094,10 +7128,10 @@
         <v>48055460000143</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>21</v>
@@ -7115,7 +7149,7 @@
         <v>45999</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="N95" s="1" t="s">
         <v>27</v>
@@ -7134,10 +7168,10 @@
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>34</v>
@@ -7149,10 +7183,10 @@
         <v>87687489000108</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>21</v>
@@ -7161,7 +7195,7 @@
         <v>33</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K96" s="1" t="s">
         <v>35</v>
@@ -7170,10 +7204,10 @@
         <v>45999</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O96" s="4"/>
       <c r="P96" s="4"/>
@@ -7189,13 +7223,13 @@
     </row>
     <row r="97" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D97" s="2">
         <v>45999</v>
@@ -7204,19 +7238,19 @@
         <v>1991461002180</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K97" s="1" t="s">
         <v>28</v>
@@ -7225,10 +7259,10 @@
         <v>45999</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="O97" s="4"/>
       <c r="P97" s="4"/>
@@ -7247,10 +7281,10 @@
         <v>24</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D98" s="2">
         <v>45999</v>
@@ -7259,10 +7293,10 @@
         <v>15022398000134</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>21</v>
@@ -7283,7 +7317,7 @@
         <v>40</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O98" s="4"/>
       <c r="P98" s="4"/>
@@ -7299,13 +7333,13 @@
     </row>
     <row r="99" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D99" s="2">
         <v>45999</v>
@@ -7314,16 +7348,16 @@
         <v>87091997000110</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>23</v>
@@ -7335,7 +7369,7 @@
         <v>45999</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N99" s="1" t="s">
         <v>27</v>
@@ -7354,13 +7388,13 @@
     </row>
     <row r="100" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D100" s="2">
         <v>45999</v>
@@ -7369,10 +7403,10 @@
         <v>76816842000420</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>21</v>
@@ -7381,7 +7415,7 @@
         <v>33</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K100" s="1" t="s">
         <v>28</v>
@@ -7390,10 +7424,10 @@
         <v>45999</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O100" s="4"/>
       <c r="P100" s="4"/>
@@ -7409,13 +7443,13 @@
     </row>
     <row r="101" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D101" s="2">
         <v>45999</v>
@@ -7424,10 +7458,10 @@
         <v>76816842000269</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>21</v>
@@ -7436,7 +7470,7 @@
         <v>33</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K101" s="1" t="s">
         <v>28</v>
@@ -7445,10 +7479,10 @@
         <v>45999</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O101" s="4"/>
       <c r="P101" s="4"/>
@@ -7464,13 +7498,13 @@
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D102" s="2">
         <v>45999</v>
@@ -7479,10 +7513,10 @@
         <v>8741844000103</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>21</v>
@@ -7491,7 +7525,7 @@
         <v>33</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K102" s="1" t="s">
         <v>28</v>
@@ -7500,10 +7534,10 @@
         <v>45999</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O102" s="4"/>
       <c r="P102" s="4"/>
@@ -7522,10 +7556,10 @@
         <v>24</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D103" s="2">
         <v>45999</v>
@@ -7535,7 +7569,7 @@
       </c>
       <c r="F103" s="4"/>
       <c r="G103" s="5" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>21</v>
@@ -7554,7 +7588,7 @@
       </c>
       <c r="M103" s="1"/>
       <c r="N103" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O103" s="4"/>
       <c r="P103" s="4"/>
@@ -7570,13 +7604,13 @@
     </row>
     <row r="104" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D104" s="2">
         <v>45999</v>
@@ -7585,10 +7619,10 @@
         <v>577709000154</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>21</v>
@@ -7606,7 +7640,7 @@
         <v>45999</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N104" s="1" t="s">
         <v>27</v>
@@ -7625,13 +7659,13 @@
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D105" s="2">
         <v>45999</v>
@@ -7640,10 +7674,10 @@
         <v>11111111111111</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>21</v>
@@ -7652,7 +7686,7 @@
         <v>33</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K105" s="1" t="s">
         <v>35</v>
@@ -7661,10 +7695,10 @@
         <v>45999</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O105" s="4"/>
       <c r="P105" s="4"/>
@@ -7683,10 +7717,10 @@
         <v>24</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="D106" s="2">
         <v>46000</v>
@@ -7695,10 +7729,10 @@
         <v>26472037000106</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>21</v>
@@ -7716,7 +7750,7 @@
         <v>46000</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="N106" s="1" t="s">
         <v>27</v>
@@ -7738,10 +7772,10 @@
         <v>24</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D107" s="2">
         <v>46000</v>
@@ -7750,16 +7784,16 @@
         <v>26472037000109</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>23</v>
@@ -7771,10 +7805,10 @@
         <v>46000</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="N107" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O107" s="4"/>
       <c r="P107" s="4"/>
@@ -7793,10 +7827,10 @@
         <v>24</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D108" s="2">
         <v>45999</v>
@@ -7805,10 +7839,10 @@
         <v>46011435000132</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>21</v>
@@ -7826,7 +7860,7 @@
         <v>45999</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="N108" s="1" t="s">
         <v>27</v>
@@ -7845,13 +7879,13 @@
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D109" s="2">
         <v>46000</v>
@@ -7860,10 +7894,10 @@
         <v>3570327000197</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>21</v>
@@ -7881,10 +7915,10 @@
         <v>46000</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N109" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O109" s="4"/>
       <c r="P109" s="4"/>
@@ -7900,13 +7934,13 @@
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D110" s="2">
         <v>45999</v>
@@ -7916,13 +7950,13 @@
       </c>
       <c r="F110" s="4"/>
       <c r="G110" s="5" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>23</v>
@@ -7952,10 +7986,10 @@
         <v>24</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D111" s="2">
         <v>45999</v>
@@ -7964,10 +7998,10 @@
         <v>10592852000179</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>21</v>
@@ -7988,7 +8022,7 @@
         <v>26</v>
       </c>
       <c r="N111" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O111" s="4"/>
       <c r="P111" s="4"/>
@@ -8004,10 +8038,10 @@
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>34</v>
@@ -8019,13 +8053,13 @@
         <v>7433734000103</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I112" s="1" t="s">
         <v>33</v>
@@ -8040,10 +8074,10 @@
         <v>46001</v>
       </c>
       <c r="M112" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="N112" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O112" s="4"/>
       <c r="P112" s="4"/>
@@ -8059,13 +8093,13 @@
     </row>
     <row r="113" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D113" s="2">
         <v>46000</v>
@@ -8074,10 +8108,10 @@
         <v>4785105000154</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>299</v>
+        <v>41</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>21</v>
@@ -8095,10 +8129,10 @@
         <v>46000</v>
       </c>
       <c r="M113" s="1" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="N113" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O113" s="4"/>
       <c r="P113" s="4"/>
@@ -8114,13 +8148,13 @@
     </row>
     <row r="114" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D114" s="2">
         <v>46000</v>
@@ -8129,10 +8163,10 @@
         <v>76816842000420</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>21</v>
@@ -8150,10 +8184,10 @@
         <v>46000</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N114" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O114" s="4"/>
       <c r="P114" s="4"/>
@@ -8169,13 +8203,13 @@
     </row>
     <row r="115" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D115" s="2">
         <v>46000</v>
@@ -8184,10 +8218,10 @@
         <v>76816842000269</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>21</v>
@@ -8205,10 +8239,10 @@
         <v>46000</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N115" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O115" s="4"/>
       <c r="P115" s="4"/>
@@ -8224,13 +8258,13 @@
     </row>
     <row r="116" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D116" s="2">
         <v>46000</v>
@@ -8239,10 +8273,10 @@
         <v>29404899000190</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>21</v>
@@ -8251,7 +8285,7 @@
         <v>33</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K116" s="1" t="s">
         <v>35</v>
@@ -8260,10 +8294,10 @@
         <v>46000</v>
       </c>
       <c r="M116" s="1" t="s">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="N116" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O116" s="4"/>
       <c r="P116" s="4"/>
@@ -8279,13 +8313,13 @@
     </row>
     <row r="117" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D117" s="2">
         <v>46000</v>
@@ -8294,10 +8328,10 @@
         <v>29404899000351</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>21</v>
@@ -8306,7 +8340,7 @@
         <v>33</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K117" s="1" t="s">
         <v>35</v>
@@ -8315,10 +8349,10 @@
         <v>46000</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="N117" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O117" s="4"/>
       <c r="P117" s="4"/>
@@ -8334,13 +8368,13 @@
     </row>
     <row r="118" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D118" s="2">
         <v>46000</v>
@@ -8349,16 +8383,16 @@
         <v>4868412000794</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>23</v>
@@ -8370,7 +8404,7 @@
         <v>46000</v>
       </c>
       <c r="M118" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="N118" s="1" t="s">
         <v>27</v>
@@ -8389,13 +8423,13 @@
     </row>
     <row r="119" spans="1:19" ht="58" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D119" s="2">
         <v>46000</v>
@@ -8404,10 +8438,10 @@
         <v>61620792000191</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>21</v>
@@ -8425,10 +8459,10 @@
         <v>46000</v>
       </c>
       <c r="M119" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="N119" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O119" s="4"/>
       <c r="P119" s="4"/>
@@ -8444,10 +8478,10 @@
     </row>
     <row r="120" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="2">
@@ -8456,9 +8490,11 @@
       <c r="E120" s="3">
         <v>57900011000145</v>
       </c>
-      <c r="F120" s="4"/>
+      <c r="F120" s="4" t="s">
+        <v>310</v>
+      </c>
       <c r="G120" s="5" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>21</v>
@@ -8475,9 +8511,11 @@
       <c r="L120" s="2">
         <v>46000</v>
       </c>
-      <c r="M120" s="1"/>
+      <c r="M120" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="N120" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O120" s="4"/>
       <c r="P120" s="4"/>
@@ -8493,13 +8531,13 @@
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D121" s="2">
         <v>46000</v>
@@ -8509,7 +8547,7 @@
       </c>
       <c r="F121" s="4"/>
       <c r="G121" s="5" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>21</v>
@@ -8518,7 +8556,7 @@
         <v>33</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K121" s="1" t="s">
         <v>35</v>
@@ -8527,10 +8565,10 @@
         <v>46000</v>
       </c>
       <c r="M121" s="1" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="N121" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O121" s="4"/>
       <c r="P121" s="4"/>
@@ -8546,7 +8584,7 @@
     </row>
     <row r="122" spans="1:19" ht="58" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>29</v>
@@ -8560,15 +8598,17 @@
       <c r="E122" s="3">
         <v>51532099000103</v>
       </c>
-      <c r="F122" s="4"/>
+      <c r="F122" s="4" t="s">
+        <v>314</v>
+      </c>
       <c r="G122" s="5" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>23</v>
@@ -8579,7 +8619,9 @@
       <c r="L122" s="2">
         <v>46003</v>
       </c>
-      <c r="M122" s="1"/>
+      <c r="M122" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="N122" s="1" t="s">
         <v>27</v>
       </c>
@@ -8592,6 +8634,59 @@
         <v>31</v>
       </c>
       <c r="S122" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A123" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D123" s="2">
+        <v>46001</v>
+      </c>
+      <c r="E123" s="3">
+        <v>87091997003136</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K123" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L123" s="2"/>
+      <c r="M123" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N123" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O123" s="4"/>
+      <c r="P123" s="4"/>
+      <c r="Q123">
+        <v>0</v>
+      </c>
+      <c r="R123" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S123" s="4" t="s">
         <v>30</v>
       </c>
     </row>

--- a/base_hub_github.xlsx
+++ b/base_hub_github.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupoultracloud-my.sharepoint.com/personal/thiago_junior_ipiranga_ipiranga/Documents/Área de Trabalho/PBI HUB/Base/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupoultracloud-my.sharepoint.com/personal/thiago_junior_ipiranga_ipiranga/Documents/Área de Trabalho/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{1D665042-68D4-457C-82F8-C0D7CAE9B9FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EC3ED42-4B72-47D2-9F06-3BFA50C25F46}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52378416-1770-4045-AC37-F7D1F0C0ACD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{904D8BD6-1E39-4904-AC5C-6444FE8972FE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DF3FD977-3E7A-4D0A-A9CC-3715A1DB2DCF}"/>
   </bookViews>
   <sheets>
     <sheet name="query" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="query__17" localSheetId="0" hidden="1">query!$A$1:$S$123</definedName>
+    <definedName name="query__18" localSheetId="0" hidden="1">query!$A$1:$T$127</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -24,14 +24,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{51DF6A3B-C83B-4816-B6D1-281FF9807055}" odcFile="C:\Users\thiago.junior\Downloads\query (17).iqy" keepAlive="1" name="query (17)" type="5" refreshedVersion="8" minRefreshableVersion="3" saveData="1">
+  <connection id="1" xr16:uid="{05C90113-4DFE-4D12-980E-25B348E6F816}" odcFile="C:\Users\thiago.junior\Downloads\query (18).iqy" keepAlive="1" name="query (18)" type="5" refreshedVersion="8" minRefreshableVersion="3" saveData="1">
     <dbPr connection="Provider=Microsoft.Office.List.OLEDB.2.0;Data Source=&quot;&quot;;ApplicationName=Excel;Version=12.0.0.0" command="&lt;LIST&gt;&lt;VIEWGUID&gt;A45175CA-9778-441D-B066-D8555F7DBBE4&lt;/VIEWGUID&gt;&lt;LISTNAME&gt;06be0e4e-018b-4cef-a562-4db2a9a684e1&lt;/LISTNAME&gt;&lt;LISTWEB&gt;https://grupoultracloud-my.sharepoint.com/personal/roberta_rocha_ipiranga_ipiranga/_vti_bin&lt;/LISTWEB&gt;&lt;LISTSUBWEB&gt;&lt;/LISTSUBWEB&gt;&lt;ROOTFOLDER&gt;&lt;/ROOTFOLDER&gt;&lt;/LIST&gt;" commandType="5"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="325">
   <si>
     <t>Título</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Status de aprovação</t>
+  </si>
+  <si>
+    <t>Número do Chamado Automação</t>
   </si>
   <si>
     <t>Caminho</t>
@@ -329,7 +332,7 @@
     <t>Leao Azul</t>
   </si>
   <si>
-    <t xml:space="preserve">Posto com duvidas sobre os descontos aplicados na Black Friday. Informado o caminho no portal para eles acompanharem.  </t>
+    <t xml:space="preserve">Posto com duvidas sobre os descontos aplicados na Black Friday. Informado o caminho no portal para eles acompanharem.  </t>
   </si>
   <si>
     <t>Revendedor solicita confirmação de transação.</t>
@@ -386,7 +389,7 @@
     <t>Auto Posto Batelao Porto Feliz Ltda.</t>
   </si>
   <si>
-    <t>A rede CURTI/BLUE  manifestou insatisfação porque as ofertas cadastradas não estão refletindo nos descontos para o consumidor final. Para contornar a situação, a Andrea optou por cadastrar individualmente as ofertas em cada posto, e estamos acompanhando o andamento</t>
+    <t>A rede CURTI/BLUE  manifestou insatisfação porque as ofertas cadastradas não estão refletindo nos descontos para o consumidor final. Para contornar a situação, a Andrea optou por cadastrar individualmente as ofertas em cada posto, e estamos acompanhando o andamento</t>
   </si>
   <si>
     <t>A pedido a Poliana, consultora de trade, tratamos o caso do Saulo Bento da Cunha - CPF 579.831.356-53 que não conseguia fazer as transações via KMV. Mandamos o caso para o time de Preensão a Fraude onde foi resolvido.</t>
@@ -656,7 +659,7 @@
     <t>MLN Bauru</t>
   </si>
   <si>
-    <t>o pessoal  da Milenium me chamou para informar que estão enfrentando o mesmo problema, mas apenas no PDV móvel. Eles já abriram chamado conforme orientação nossa.    Ah é Webposto também tá? Posto De Combustiveis Mln Bauru Ltda 57.717.655/0001-00</t>
+    <t>o pessoal  da Milenium me chamou para informar que estão enfrentando o mesmo problema, mas apenas no PDV móvel. Eles já abriram chamado conforme orientação nossa.    Ah é Webposto também tá? Posto De Combustiveis Mln Bauru Ltda 57.717.655/0001-00</t>
   </si>
   <si>
     <t>G.N. Hipermercado</t>
@@ -710,7 +713,7 @@
     <t>Postos Alpa Ltda</t>
   </si>
   <si>
-    <t>Pedido da Poliana para apoio com automação da Linx: Visitei ontem o Postos Alpa e a Linx não fez a instalação do conecta no PDV Fixo e nos PDVs móveis.     A única opção disponível é a transação de acúmulo de KM no PDV fixo. Anexos seguem os vídeos do PDV fixo com a tentativa que fizemos de transação de KMV via app, não concluiu e travou o caixa. Nas smart POS não tem nada instalado.     O TI do grupo Alpa abriu chamado solicitando a instalação, porém o n1 passou para o N2. Solicito por favor acionar a Linx para solucionar o mais breve possível. Posto inaugurou em julho e até hoje não recebem o KMV.</t>
+    <t>Pedido da Poliana para apoio com automação da Linx: Visitei ontem o Postos Alpa e a Linx não fez a instalação do conecta no PDV Fixo e nos PDVs móveis.     A única opção disponível é a transação de acúmulo de KM no PDV fixo. Anexos seguem os vídeos do PDV fixo com a tentativa que fizemos de transação de KMV via app, não concluiu e travou o caixa. Nas smart POS não tem nada instalado.     O TI do grupo Alpa abriu chamado solicitando a instalação, porém o n1 passou para o N2. Solicito por favor acionar a Linx para solucionar o mais breve possível. Posto inaugurou em julho e até hoje não recebem o KMV.</t>
   </si>
   <si>
     <t>G.N. Urbano Uberlandia</t>
@@ -719,7 +722,7 @@
     <t>Centro Automotivo Bap Gravatinha Ltda</t>
   </si>
   <si>
-    <t>Posto solicitou informações sobre atualização de dados de acesso ao portal kmv . Alterado para  rede.bap@uol.com.b conforme solicitado aproveitamos e apresentamos o oferta é sua.</t>
+    <t>Posto solicitou informações sobre atualização de dados de acesso ao portal kmv . Alterado para  rede.bap@uol.com.b conforme solicitado aproveitamos e apresentamos o oferta é sua.</t>
   </si>
   <si>
     <t>Brasil Leste Auto Posto Ltda</t>
@@ -869,7 +872,7 @@
     <t>Sc Comercio De Combustiveis Ltda - Me</t>
   </si>
   <si>
-    <t>Contatei Nelson  para conluir o aceite conecta</t>
+    <t>Contatei Nelson  para conluir o aceite conecta</t>
   </si>
   <si>
     <t>Conecta</t>
@@ -971,7 +974,7 @@
     <t>Auto Posto Eco Gas Ltda - Me</t>
   </si>
   <si>
-    <t>Apresentação do Conecta Rede avaliando a implementação ( ação final de ano reversão dos postos  com sistema homolog porém sem conecta implementado)</t>
+    <t>Apresentação do Conecta Rede avaliando a implementação ( ação final de ano reversão dos postos  com sistema homolog porém sem conecta implementado)</t>
   </si>
   <si>
     <t>Ajuste de lat-long de 30 postos.</t>
@@ -980,13 +983,34 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Grupo Majore Paula Auto Posto Ltda</t>
-  </si>
-  <si>
-    <t>Andrea, do Grupo Curt, solicitou apoio referente à devolução realizada no dia 02/12 no Majore. Não recebemos o KMV no valor de R$445,70 (slip anexo). Trata-se de um problema de desfazimento. Conversei com Ana Paula e o reembolso será efetuado na próxima sexta-feira, 12/12. Andrea já foi informada.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Solicitação de alteração de dimicílio bancário. Caso enviado para Ana Farandi. </t>
+  </si>
+  <si>
+    <t>Canuto &amp; Kotinski Ltda</t>
+  </si>
+  <si>
+    <t>Oferta de uso dos produtos digitais</t>
+  </si>
+  <si>
+    <t>G.N. Urbano Manaus</t>
+  </si>
+  <si>
+    <t>Sander Comercio De Combustiveis Ltda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caso enviado para Ana Paula Farandi. </t>
+  </si>
+  <si>
+    <t>111111</t>
+  </si>
+  <si>
+    <t>ssssaaa</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
 </sst>
 </file>
@@ -1524,7 +1548,11 @@
     <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="19">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1598,9 +1626,9 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="query (17)" backgroundRefresh="0" connectionId="1" xr16:uid="{F09F43EA-B2A3-45B8-BB0A-79B0C4E2D762}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="20">
-    <queryTableFields count="19">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="query (18)" backgroundRefresh="0" connectionId="1" xr16:uid="{238CA592-E574-4945-9BD3-1194593EC022}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh nextId="21">
+    <queryTableFields count="20">
       <queryTableField id="10" name="Analista" tableColumnId="1"/>
       <queryTableField id="15" name="Sub Classificação" tableColumnId="2"/>
       <queryTableField id="11" name="Motivo" tableColumnId="3"/>
@@ -1618,36 +1646,38 @@
       <queryTableField id="1" name="Título" tableColumnId="15"/>
       <queryTableField id="16" name="Status de liberação" tableColumnId="16"/>
       <queryTableField id="17" name="Status de aprovação" tableColumnId="17"/>
-      <queryTableField id="19" name="Tipo de Item" tableColumnId="18"/>
-      <queryTableField id="18" name="Caminho" tableColumnId="19"/>
+      <queryTableField id="18" name="Número do Chamado Automação" tableColumnId="18"/>
+      <queryTableField id="20" name="Tipo de Item" tableColumnId="19"/>
+      <queryTableField id="19" name="Caminho" tableColumnId="20"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5312F806-BD64-4D7B-9D0A-47609BBB2F79}" name="Tabela_query__17" displayName="Tabela_query__17" ref="A1:S123" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:S123" xr:uid="{5312F806-BD64-4D7B-9D0A-47609BBB2F79}"/>
-  <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{8DFF27B8-C4B5-42F4-9F42-0E76E23B6B49}" uniqueName="Analista" name="Analista" queryTableFieldId="10" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{F6FEBABC-D572-4669-9B76-D2B9C9A82FC3}" uniqueName="SubClassifica_x005f_x00e7__x005f_x00e3_o" name="Sub Classificação" queryTableFieldId="15" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{D68C826D-DF6D-4F45-BC93-328FFEA7B750}" uniqueName="Motivo" name="Motivo" queryTableFieldId="11" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{670BE700-1CE8-4639-9B31-9EE3EA2FF740}" uniqueName="Data" name="Data Inicio" queryTableFieldId="2" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{2C708610-5350-4BA8-A212-F9DC3A5694FB}" uniqueName="CNPJ" name="CNPJ" queryTableFieldId="3" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{42A03FD9-C817-4CCC-93E1-DF7E8AB16F43}" uniqueName="Raz_x005f_x00e3_oSocial" name="Razão Social" queryTableFieldId="4" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{9E476440-3255-474A-9008-2A6D9FCC0BDC}" uniqueName="Descri_x005f_x00e7__x005f_x00e3_o" name="Descrição" queryTableFieldId="5" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{AB11265F-EE68-415F-B6CF-3ED20B06426A}" uniqueName="FCR" name="FCR" queryTableFieldId="7" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{1D5239D6-8A73-48A7-B26D-D236B3D7F8A3}" uniqueName="Origemdocontato" name="Área responsável pela resolução" queryTableFieldId="8" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{D348176F-6F76-44CA-94E2-87D3FC0D24CA}" uniqueName="Origemdocontato0" name="Origem do contato" queryTableFieldId="9" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{0FB1EA97-410E-4C3B-9285-308285F540EB}" uniqueName="Tipodecontato" name="Tipo de contato" queryTableFieldId="14" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{097D3F83-8690-4A2D-BF98-8E9241FFB93B}" uniqueName="DataFim" name="Data Fim" queryTableFieldId="6" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{96EADEE8-C021-432E-875A-AFFD50AC66E9}" uniqueName="GN" name="GN" queryTableFieldId="12" dataDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{33EF54C6-578C-4A40-9528-404E4112CA09}" uniqueName="Solicitante" name="Solicitante" queryTableFieldId="13" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{68995028-6500-40F9-8761-3935AB86F05C}" uniqueName="Title" name="Título" queryTableFieldId="1" dataDxfId="3"/>
-    <tableColumn id="16" xr3:uid="{5DDD65DC-E143-412C-87D4-16F416D1573E}" uniqueName="_x005f_x0024_Resources_x005f_x003a_core_x002" name="Status de liberação" queryTableFieldId="16" dataDxfId="2"/>
-    <tableColumn id="17" xr3:uid="{8A85508C-E7BC-49FE-BFE9-01891928CE4F}" uniqueName="_ApprovalStatus" name="Status de aprovação" queryTableFieldId="17"/>
-    <tableColumn id="18" xr3:uid="{61ABA5B6-66F3-4EFB-A956-247A250E4D3D}" uniqueName="FSObjType" name="Tipo de Item" queryTableFieldId="19" dataDxfId="1"/>
-    <tableColumn id="19" xr3:uid="{F5D66DB8-C127-4836-BED8-D348BCD54B41}" uniqueName="FileDirRef" name="Caminho" queryTableFieldId="18" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5CB66CF7-D127-4AEA-89DD-0A4D8BA8F14F}" name="Tabela_query__18" displayName="Tabela_query__18" ref="A1:T127" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:T127" xr:uid="{5CB66CF7-D127-4AEA-89DD-0A4D8BA8F14F}"/>
+  <tableColumns count="20">
+    <tableColumn id="1" xr3:uid="{65422451-FB6C-48CD-B745-F897AFD4067A}" uniqueName="Analista" name="Analista" queryTableFieldId="10" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{60718BE9-0067-4AC0-B550-E1221C40E023}" uniqueName="SubClassifica_x005f_x00e7__x005f_x00e3_o" name="Sub Classificação" queryTableFieldId="15" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{D3144895-4BE5-457F-9919-43FA26211413}" uniqueName="Motivo" name="Motivo" queryTableFieldId="11" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{6658DC8E-F864-46B3-8E00-504FB93AADF6}" uniqueName="Data" name="Data Inicio" queryTableFieldId="2" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{99113218-7476-4A8A-A2BA-009C3FCA7C35}" uniqueName="CNPJ" name="CNPJ" queryTableFieldId="3" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{C3D5DFC0-4CD1-493A-BDA0-1491B29D8F20}" uniqueName="Raz_x005f_x00e3_oSocial" name="Razão Social" queryTableFieldId="4" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{26D8C567-E615-41BF-84AF-576236C11993}" uniqueName="Descri_x005f_x00e7__x005f_x00e3_o" name="Descrição" queryTableFieldId="5" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{67F63338-A242-4BF3-A4E0-3346CEB189B1}" uniqueName="FCR" name="FCR" queryTableFieldId="7" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{A486EF74-EDC8-4356-B318-7B1CCBD7410B}" uniqueName="Origemdocontato" name="Área responsável pela resolução" queryTableFieldId="8" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{E69686E8-FCBC-4BA2-A1DE-1A07C980470D}" uniqueName="Origemdocontato0" name="Origem do contato" queryTableFieldId="9" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{FFE860A7-0222-433B-AFFB-7D346C34E48B}" uniqueName="Tipodecontato" name="Tipo de contato" queryTableFieldId="14" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{AB306080-C448-4552-A7BA-5BBB6151ADD1}" uniqueName="DataFim" name="Data Fim" queryTableFieldId="6" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{DC9A84DF-86F5-43D6-9D66-AEB39C61B72D}" uniqueName="GN" name="GN" queryTableFieldId="12" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{A417C34C-3A11-4386-992F-21B41D5C5EE7}" uniqueName="Solicitante" name="Solicitante" queryTableFieldId="13" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{39D781C0-ED7D-4258-939E-D6120BF5B157}" uniqueName="Title" name="Título" queryTableFieldId="1" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{BAA6FB50-8476-4E6B-BF73-4DF72DFCD917}" uniqueName="_x005f_x0024_Resources_x005f_x003a_core_x002" name="Status de liberação" queryTableFieldId="16" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{ED6A7979-815B-455D-BEEA-33FB4752AAFF}" uniqueName="_ApprovalStatus" name="Status de aprovação" queryTableFieldId="17"/>
+    <tableColumn id="18" xr3:uid="{7C3B69FE-680C-4100-924C-8C224B552180}" uniqueName="N_x005f_x00fa_merodoChamado" name="Número do Chamado Automação" queryTableFieldId="18" dataDxfId="2"/>
+    <tableColumn id="19" xr3:uid="{181D3A80-5FE3-4927-B010-6AACE2220358}" uniqueName="FSObjType" name="Tipo de Item" queryTableFieldId="20" dataDxfId="1"/>
+    <tableColumn id="20" xr3:uid="{F2F77752-7748-4CF2-87CE-03B082BDED9D}" uniqueName="FileDirRef" name="Caminho" queryTableFieldId="19" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1969,11 +1999,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7767F908-51DD-49BB-8A6D-733919931AFE}">
-  <dimension ref="A1:S123"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A94803-6ECB-4BD5-AE98-6A46BC7C21C1}">
+  <dimension ref="A1:T127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:S123"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1995,11 +2025,12 @@
     <col min="15" max="15" width="35.7265625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.26953125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="20.08984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="66.36328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="30.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="66.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -2052,21 +2083,24 @@
         <v>16</v>
       </c>
       <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="S1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2">
         <v>45979</v>
@@ -2075,50 +2109,51 @@
         <v>23311314000100</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L2" s="2">
         <v>45979</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
-      <c r="R2" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R2" s="4"/>
       <c r="S2" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2">
         <v>45978</v>
@@ -2128,48 +2163,49 @@
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L3" s="2">
         <v>45979</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3">
         <v>0</v>
       </c>
-      <c r="R3" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R3" s="4"/>
       <c r="S3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2">
         <v>45975</v>
@@ -2178,53 +2214,54 @@
         <v>37063328000833</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L4" s="2">
         <v>45981</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4">
         <v>0</v>
       </c>
-      <c r="R4" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R4" s="4"/>
       <c r="S4" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="101.5" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2">
         <v>45995</v>
@@ -2233,53 +2270,54 @@
         <v>4785105000154</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L5" s="2">
         <v>45995</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5">
         <v>0</v>
       </c>
-      <c r="R5" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R5" s="4"/>
       <c r="S5" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D6" s="2">
         <v>45985</v>
@@ -2288,48 +2326,49 @@
         <v>20887348000230</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
-      <c r="R6" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R6" s="4"/>
       <c r="S6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D7" s="2">
         <v>45988</v>
@@ -2338,53 +2377,54 @@
         <v>2297218000185</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L7" s="2">
         <v>45988</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7">
         <v>0</v>
       </c>
-      <c r="R7" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R7" s="4"/>
       <c r="S7" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D8" s="2">
         <v>45988</v>
@@ -2393,55 +2433,56 @@
         <v>577709000154</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L8" s="2">
         <v>45992</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P8" s="4"/>
       <c r="Q8">
         <v>0</v>
       </c>
-      <c r="R8" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R8" s="4"/>
       <c r="S8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2">
         <v>45988</v>
@@ -2450,55 +2491,56 @@
         <v>87091997000110</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L9" s="2">
         <v>45988</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P9" s="4"/>
       <c r="Q9">
         <v>0</v>
       </c>
-      <c r="R9" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R9" s="4"/>
       <c r="S9" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="72.5" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D10" s="2">
         <v>45989</v>
@@ -2507,52 +2549,53 @@
         <v>87091997000110</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L10" s="2">
         <v>45989</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P10" s="4"/>
-      <c r="R10" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R10" s="4"/>
       <c r="S10" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="72.5" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D11" s="2">
         <v>45989</v>
@@ -2561,53 +2604,54 @@
         <v>24052827000107</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L11" s="2">
         <v>45989</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11">
         <v>0</v>
       </c>
-      <c r="R11" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R11" s="4"/>
       <c r="S11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D12" s="2">
         <v>45989</v>
@@ -2616,50 +2660,51 @@
         <v>14261931000101</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L12" s="2">
         <v>45989</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
-      <c r="R12" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R12" s="4"/>
       <c r="S12" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D13" s="2">
         <v>45989</v>
@@ -2668,53 +2713,54 @@
         <v>10478691000510</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L13" s="2">
         <v>45989</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13">
         <v>0</v>
       </c>
-      <c r="R13" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R13" s="4"/>
       <c r="S13" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D14" s="2">
         <v>45989</v>
@@ -2723,53 +2769,54 @@
         <v>48468877000138</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L14" s="2">
         <v>45989</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14">
         <v>0</v>
       </c>
-      <c r="R14" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R14" s="4"/>
       <c r="S14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D15" s="2">
         <v>45988</v>
@@ -2778,53 +2825,54 @@
         <v>47481338000176</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L15" s="2">
         <v>45988</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15">
         <v>0</v>
       </c>
-      <c r="R15" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R15" s="4"/>
       <c r="S15" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D16" s="2">
         <v>45989</v>
@@ -2833,51 +2881,52 @@
         <v>21021038000110</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L16" s="2">
         <v>45992</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16">
         <v>3</v>
       </c>
-      <c r="R16" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R16" s="4"/>
       <c r="S16" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D17" s="2">
         <v>45989</v>
@@ -2886,53 +2935,54 @@
         <v>48346249000180</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L17" s="2">
         <v>45989</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17">
         <v>0</v>
       </c>
-      <c r="R17" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R17" s="4"/>
       <c r="S17" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D18" s="2">
         <v>45989</v>
@@ -2941,53 +2991,54 @@
         <v>53964377000127</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L18" s="2">
         <v>45989</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18">
         <v>0</v>
       </c>
-      <c r="R18" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R18" s="4"/>
       <c r="S18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C19" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D19" s="2">
         <v>45989</v>
@@ -2997,47 +3048,48 @@
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L19" s="2">
         <v>45989</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
-      <c r="R19" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R19" s="4"/>
       <c r="S19" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="58" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="58" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D20" s="2">
         <v>45989</v>
@@ -3046,53 +3098,54 @@
         <v>49928345000107</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L20" s="2">
         <v>45994</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20">
         <v>0</v>
       </c>
-      <c r="R20" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R20" s="4"/>
       <c r="S20" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T20" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D21" s="2">
         <v>45989</v>
@@ -3101,50 +3154,51 @@
         <v>59641702000191</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L21" s="2">
         <v>45989</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
-      <c r="R21" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R21" s="4"/>
       <c r="S21" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T21" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="2">
         <v>45989</v>
@@ -3153,53 +3207,54 @@
         <v>47708647000136</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L22" s="2">
         <v>45994</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22">
         <v>0</v>
       </c>
-      <c r="R22" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R22" s="4"/>
       <c r="S22" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T22" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D23" s="2">
         <v>45989</v>
@@ -3208,28 +3263,28 @@
         <v>577065000285</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L23" s="2">
         <v>45989</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="4"/>
@@ -3237,22 +3292,23 @@
       <c r="Q23">
         <v>0</v>
       </c>
-      <c r="R23" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R23" s="4"/>
       <c r="S23" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T23" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D24" s="2">
         <v>45989</v>
@@ -3261,53 +3317,54 @@
         <v>45993033000118</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L24" s="2">
         <v>45993</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24">
         <v>0</v>
       </c>
-      <c r="R24" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R24" s="4"/>
       <c r="S24" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T24" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D25" s="2">
         <v>45992</v>
@@ -3316,53 +3373,54 @@
         <v>46872263000191</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L25" s="2">
         <v>45996</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
       <c r="Q25">
         <v>0</v>
       </c>
-      <c r="R25" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R25" s="4"/>
       <c r="S25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T25" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C26" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D26" s="2">
         <v>45988</v>
@@ -3372,48 +3430,49 @@
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L26" s="2">
         <v>45992</v>
       </c>
       <c r="M26" s="1"/>
       <c r="N26" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
       <c r="Q26">
         <v>0</v>
       </c>
-      <c r="R26" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R26" s="4"/>
       <c r="S26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T26" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C27" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D27" s="2">
         <v>45992</v>
@@ -3422,53 +3481,54 @@
         <v>38074571000143</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L27" s="2">
         <v>45992</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
       <c r="Q27">
         <v>0</v>
       </c>
-      <c r="R27" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R27" s="4"/>
       <c r="S27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T27" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C28" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D28" s="2">
         <v>45980</v>
@@ -3477,51 +3537,52 @@
         <v>3477535000146</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L28" s="2">
         <v>45994</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
       <c r="Q28">
         <v>0</v>
       </c>
-      <c r="R28" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R28" s="4"/>
       <c r="S28" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T28" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D29" s="2">
         <v>45989</v>
@@ -3530,53 +3591,54 @@
         <v>11519114000169</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L29" s="2">
         <v>45992</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
       <c r="Q29">
         <v>0</v>
       </c>
-      <c r="R29" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R29" s="4"/>
       <c r="S29" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T29" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D30" s="2">
         <v>45992</v>
@@ -3585,53 +3647,54 @@
         <v>10317892000102</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L30" s="2">
         <v>45992</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
       <c r="Q30">
         <v>0</v>
       </c>
-      <c r="R30" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R30" s="4"/>
       <c r="S30" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T30" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D31" s="2">
         <v>45992</v>
@@ -3640,53 +3703,54 @@
         <v>2144883000139</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L31" s="2">
         <v>45992</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
       <c r="Q31">
         <v>0</v>
       </c>
-      <c r="R31" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R31" s="4"/>
       <c r="S31" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T31" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D32" s="2">
         <v>45992</v>
@@ -3695,53 +3759,54 @@
         <v>48346249000180</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L32" s="2">
         <v>45992</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
       <c r="Q32">
         <v>0</v>
       </c>
-      <c r="R32" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R32" s="4"/>
       <c r="S32" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T32" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D33" s="2">
         <v>45992</v>
@@ -3750,53 +3815,54 @@
         <v>48346249000180</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L33" s="2">
         <v>45992</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
       <c r="Q33">
         <v>0</v>
       </c>
-      <c r="R33" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R33" s="4"/>
       <c r="S33" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T33" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D34" s="2">
         <v>45992</v>
@@ -3805,53 +3871,54 @@
         <v>689380000113</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L34" s="2">
         <v>45979</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
       <c r="Q34">
         <v>0</v>
       </c>
-      <c r="R34" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R34" s="4"/>
       <c r="S34" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T34" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D35" s="2">
         <v>45992</v>
@@ -3860,53 +3927,54 @@
         <v>32044415000153</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L35" s="2">
         <v>45992</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
       <c r="Q35">
         <v>0</v>
       </c>
-      <c r="R35" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R35" s="4"/>
       <c r="S35" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T35" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D36" s="2">
         <v>45992</v>
@@ -3915,53 +3983,54 @@
         <v>2551867000160</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L36" s="2">
         <v>45992</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
       <c r="Q36">
         <v>0</v>
       </c>
-      <c r="R36" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R36" s="4"/>
       <c r="S36" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T36" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D37" s="2">
         <v>45992</v>
@@ -3970,53 +4039,54 @@
         <v>36180754000118</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L37" s="2">
         <v>45992</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
       <c r="Q37">
         <v>0</v>
       </c>
-      <c r="R37" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R37" s="4"/>
       <c r="S37" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T37" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C38" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D38" s="2">
         <v>45992</v>
@@ -4025,53 +4095,54 @@
         <v>2754502000133</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L38" s="2">
         <v>45992</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
       <c r="Q38">
         <v>0</v>
       </c>
-      <c r="R38" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R38" s="4"/>
       <c r="S38" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T38" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C39" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D39" s="2">
         <v>45993</v>
@@ -4080,53 +4151,54 @@
         <v>10522077000770</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L39" s="2">
         <v>45993</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
       <c r="Q39">
         <v>0</v>
       </c>
-      <c r="R39" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R39" s="4"/>
       <c r="S39" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T39" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C40" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D40" s="2">
         <v>45993</v>
@@ -4135,53 +4207,54 @@
         <v>3156892000102</v>
       </c>
       <c r="F40" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G40" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="G40" s="5" t="s">
-        <v>147</v>
-      </c>
       <c r="H40" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L40" s="2">
         <v>45993</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
       <c r="Q40">
         <v>0</v>
       </c>
-      <c r="R40" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R40" s="4"/>
       <c r="S40" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T40" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C41" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D41" s="2">
         <v>45993</v>
@@ -4190,53 +4263,54 @@
         <v>10592852000179</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L41" s="2">
         <v>45993</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
       <c r="Q41">
         <v>0</v>
       </c>
-      <c r="R41" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R41" s="4"/>
       <c r="S41" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T41" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C42" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D42" s="2">
         <v>45993</v>
@@ -4245,53 +4319,54 @@
         <v>57237149000106</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L42" s="2">
         <v>45993</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
       <c r="Q42">
         <v>0</v>
       </c>
-      <c r="R42" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R42" s="4"/>
       <c r="S42" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T42" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C43" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D43" s="2">
         <v>45993</v>
@@ -4300,53 +4375,54 @@
         <v>53875328000118</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L43" s="2">
         <v>45993</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
       <c r="Q43">
         <v>0</v>
       </c>
-      <c r="R43" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R43" s="4"/>
       <c r="S43" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T43" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C44" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D44" s="2">
         <v>45993</v>
@@ -4355,53 +4431,54 @@
         <v>10522077000428</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L44" s="2">
         <v>45993</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
       <c r="Q44">
         <v>0</v>
       </c>
-      <c r="R44" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R44" s="4"/>
       <c r="S44" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T44" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D45" s="2">
         <v>45993</v>
@@ -4410,53 +4487,54 @@
         <v>56738016000150</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L45" s="2">
         <v>45993</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
       <c r="Q45">
         <v>0</v>
       </c>
-      <c r="R45" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R45" s="4"/>
       <c r="S45" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T45" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C46" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D46" s="2">
         <v>45993</v>
@@ -4465,53 +4543,54 @@
         <v>24314878000160</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L46" s="2">
         <v>45993</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
       <c r="Q46">
         <v>0</v>
       </c>
-      <c r="R46" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R46" s="4"/>
       <c r="S46" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T46" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C47" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D47" s="2">
         <v>45993</v>
@@ -4521,48 +4600,49 @@
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L47" s="2">
         <v>45993</v>
       </c>
       <c r="M47" s="1"/>
       <c r="N47" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
       <c r="Q47">
         <v>0</v>
       </c>
-      <c r="R47" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R47" s="4"/>
       <c r="S47" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" ht="72.5" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T47" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D48" s="2">
         <v>45993</v>
@@ -4571,53 +4651,54 @@
         <v>62236617000168</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L48" s="2">
         <v>46000</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O48" s="4"/>
       <c r="P48" s="4"/>
       <c r="Q48">
         <v>0</v>
       </c>
-      <c r="R48" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R48" s="4"/>
       <c r="S48" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T48" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D49" s="2">
         <v>45993</v>
@@ -4626,53 +4707,54 @@
         <v>9241803394</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L49" s="2">
         <v>45993</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
       <c r="Q49">
         <v>0</v>
       </c>
-      <c r="R49" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R49" s="4"/>
       <c r="S49" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T49" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D50" s="2">
         <v>45993</v>
@@ -4681,53 +4763,54 @@
         <v>2394473000146</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L50" s="2">
         <v>45993</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O50" s="4"/>
       <c r="P50" s="4"/>
       <c r="Q50">
         <v>0</v>
       </c>
-      <c r="R50" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R50" s="4"/>
       <c r="S50" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T50" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D51" s="2">
         <v>45993</v>
@@ -4736,53 +4819,54 @@
         <v>2394473000146</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L51" s="2">
         <v>45993</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
       <c r="Q51">
         <v>0</v>
       </c>
-      <c r="R51" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R51" s="4"/>
       <c r="S51" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T51" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D52" s="2">
         <v>45993</v>
@@ -4791,53 +4875,54 @@
         <v>3331129000170</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L52" s="2">
         <v>45993</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O52" s="4"/>
       <c r="P52" s="4"/>
       <c r="Q52">
         <v>0</v>
       </c>
-      <c r="R52" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R52" s="4"/>
       <c r="S52" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T52" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C53" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D53" s="2">
         <v>45993</v>
@@ -4846,53 +4931,54 @@
         <v>77817583000172</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L53" s="2">
         <v>45993</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O53" s="4"/>
       <c r="P53" s="4"/>
       <c r="Q53">
         <v>0</v>
       </c>
-      <c r="R53" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R53" s="4"/>
       <c r="S53" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T53" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D54" s="2">
         <v>45993</v>
@@ -4901,53 +4987,54 @@
         <v>51829602000197</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L54" s="2">
         <v>45993</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O54" s="4"/>
       <c r="P54" s="4"/>
       <c r="Q54">
         <v>0</v>
       </c>
-      <c r="R54" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R54" s="4"/>
       <c r="S54" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T54" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C55" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D55" s="2">
         <v>45993</v>
@@ -4956,53 +5043,54 @@
         <v>18359457000152</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L55" s="2">
         <v>45993</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
       <c r="Q55">
         <v>0</v>
       </c>
-      <c r="R55" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R55" s="4"/>
       <c r="S55" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T55" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="56" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C56" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D56" s="2">
         <v>45993</v>
@@ -5011,53 +5099,54 @@
         <v>29827042000182</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L56" s="2">
         <v>45993</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O56" s="4"/>
       <c r="P56" s="4"/>
       <c r="Q56">
         <v>0</v>
       </c>
-      <c r="R56" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R56" s="4"/>
       <c r="S56" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T56" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D57" s="2">
         <v>45993</v>
@@ -5066,53 +5155,54 @@
         <v>3331129000170</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L57" s="2">
         <v>45993</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O57" s="4"/>
       <c r="P57" s="4"/>
       <c r="Q57">
         <v>0</v>
       </c>
-      <c r="R57" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R57" s="4"/>
       <c r="S57" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T57" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D58" s="2">
         <v>45994</v>
@@ -5121,53 +5211,54 @@
         <v>11519114000169</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L58" s="2">
         <v>45994</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O58" s="4"/>
       <c r="P58" s="4"/>
       <c r="Q58">
         <v>0</v>
       </c>
-      <c r="R58" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R58" s="4"/>
       <c r="S58" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T58" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D59" s="2">
         <v>45992</v>
@@ -5176,53 +5267,54 @@
         <v>19770536000114</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L59" s="2">
         <v>45992</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O59" s="4"/>
       <c r="P59" s="4"/>
       <c r="Q59">
         <v>0</v>
       </c>
-      <c r="R59" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R59" s="4"/>
       <c r="S59" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T59" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D60" s="2">
         <v>45993</v>
@@ -5231,53 +5323,54 @@
         <v>27394378000173</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L60" s="2">
         <v>45993</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O60" s="4"/>
       <c r="P60" s="4"/>
       <c r="Q60">
         <v>0</v>
       </c>
-      <c r="R60" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R60" s="4"/>
       <c r="S60" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T60" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D61" s="2">
         <v>45994</v>
@@ -5286,53 +5379,54 @@
         <v>46892512000100</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L61" s="2">
         <v>45994</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O61" s="4"/>
       <c r="P61" s="4"/>
       <c r="Q61">
         <v>0</v>
       </c>
-      <c r="R61" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R61" s="4"/>
       <c r="S61" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T61" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D62" s="2">
         <v>45994</v>
@@ -5341,51 +5435,52 @@
         <v>4978803000176</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L62" s="2">
         <v>45994</v>
       </c>
       <c r="M62" s="1"/>
       <c r="N62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O62" s="4"/>
       <c r="P62" s="4"/>
       <c r="Q62">
         <v>0</v>
       </c>
-      <c r="R62" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R62" s="4"/>
       <c r="S62" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T62" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D63" s="2">
         <v>45988</v>
@@ -5394,53 +5489,54 @@
         <v>11368640000175</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L63" s="2">
         <v>45988</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O63" s="4"/>
       <c r="P63" s="4"/>
       <c r="Q63">
         <v>0</v>
       </c>
-      <c r="R63" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R63" s="4"/>
       <c r="S63" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T63" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D64" s="2">
         <v>45994</v>
@@ -5449,53 +5545,54 @@
         <v>23467987600012</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L64" s="2">
         <v>45994</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O64" s="4"/>
       <c r="P64" s="4"/>
       <c r="Q64">
         <v>0</v>
       </c>
-      <c r="R64" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R64" s="4"/>
       <c r="S64" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T64" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D65" s="2">
         <v>45994</v>
@@ -5504,53 +5601,54 @@
         <v>19497817000107</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L65" s="2">
         <v>45994</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O65" s="4"/>
       <c r="P65" s="4"/>
       <c r="Q65">
         <v>0</v>
       </c>
-      <c r="R65" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R65" s="4"/>
       <c r="S65" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T65" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D66" s="2">
         <v>45994</v>
@@ -5559,53 +5657,54 @@
         <v>2279387000192</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L66" s="2">
         <v>45994</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
       <c r="Q66">
         <v>1</v>
       </c>
-      <c r="R66" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R66" s="4"/>
       <c r="S66" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T66" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D67" s="2">
         <v>45994</v>
@@ -5614,53 +5713,54 @@
         <v>27192758000206</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L67" s="2">
         <v>45994</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
       <c r="Q67">
         <v>0</v>
       </c>
-      <c r="R67" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R67" s="4"/>
       <c r="S67" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T67" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D68" s="2">
         <v>45995</v>
@@ -5669,53 +5769,54 @@
         <v>57717655000100</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L68" s="2">
         <v>45995</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O68" s="4"/>
       <c r="P68" s="4"/>
       <c r="Q68">
         <v>0</v>
       </c>
-      <c r="R68" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R68" s="4"/>
       <c r="S68" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T68" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D69" s="2">
         <v>45995</v>
@@ -5724,53 +5825,54 @@
         <v>7396700000196</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L69" s="2">
         <v>45995</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O69" s="4"/>
       <c r="P69" s="4"/>
       <c r="Q69">
         <v>0</v>
       </c>
-      <c r="R69" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R69" s="4"/>
       <c r="S69" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T69" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D70" s="2">
         <v>45995</v>
@@ -5779,53 +5881,54 @@
         <v>45761173000160</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L70" s="2">
         <v>45995</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O70" s="4"/>
       <c r="P70" s="4"/>
       <c r="Q70">
         <v>0</v>
       </c>
-      <c r="R70" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R70" s="4"/>
       <c r="S70" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T70" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D71" s="2">
         <v>45995</v>
@@ -5834,53 +5937,54 @@
         <v>45761173000160</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L71" s="2">
         <v>45995</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O71" s="4"/>
       <c r="P71" s="4"/>
       <c r="Q71">
         <v>0</v>
       </c>
-      <c r="R71" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R71" s="4"/>
       <c r="S71" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T71" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D72" s="2">
         <v>45995</v>
@@ -5890,19 +5994,19 @@
       </c>
       <c r="F72" s="4"/>
       <c r="G72" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L72" s="2">
         <v>45995</v>
@@ -5914,22 +6018,23 @@
       <c r="Q72">
         <v>0</v>
       </c>
-      <c r="R72" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R72" s="4"/>
       <c r="S72" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T72" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="73" spans="1:19" ht="29" x14ac:dyDescent="0.35">
-      <c r="A73" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C73" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D73" s="2">
         <v>45995</v>
@@ -5938,53 +6043,54 @@
         <v>87091997000110</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L73" s="2">
         <v>45995</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O73" s="4"/>
       <c r="P73" s="4"/>
       <c r="Q73">
         <v>0</v>
       </c>
-      <c r="R73" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R73" s="4"/>
       <c r="S73" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T73" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D74" s="2">
         <v>45995</v>
@@ -5993,53 +6099,54 @@
         <v>80979107000162</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L74" s="2">
         <v>45995</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O74" s="4"/>
       <c r="P74" s="4"/>
       <c r="Q74">
         <v>0</v>
       </c>
-      <c r="R74" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R74" s="4"/>
       <c r="S74" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T74" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="75" spans="1:19" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A75" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C75" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D75" s="2">
         <v>45995</v>
@@ -6048,48 +6155,49 @@
         <v>2234943001429</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L75" s="2"/>
       <c r="M75" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O75" s="4"/>
       <c r="P75" s="4"/>
       <c r="Q75">
         <v>0</v>
       </c>
-      <c r="R75" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R75" s="4"/>
       <c r="S75" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T75" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="2">
@@ -6099,53 +6207,54 @@
         <v>61620792000191</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L76" s="2">
         <v>45995</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O76" s="4"/>
       <c r="P76" s="4"/>
       <c r="Q76">
         <v>0</v>
       </c>
-      <c r="R76" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R76" s="4"/>
       <c r="S76" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T76" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="77" spans="1:19" ht="29" x14ac:dyDescent="0.35">
-      <c r="A77" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C77" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D77" s="2">
         <v>45995</v>
@@ -6154,53 +6263,54 @@
         <v>12645422000101</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L77" s="2">
         <v>45995</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O77" s="4"/>
       <c r="P77" s="4"/>
       <c r="Q77">
         <v>0</v>
       </c>
-      <c r="R77" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R77" s="4"/>
       <c r="S77" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T77" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D78" s="2">
         <v>45995</v>
@@ -6209,53 +6319,54 @@
         <v>9164791001646</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L78" s="2">
         <v>45995</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O78" s="4"/>
       <c r="P78" s="4"/>
       <c r="Q78">
         <v>0</v>
       </c>
-      <c r="R78" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R78" s="4"/>
       <c r="S78" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T78" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="79" spans="1:19" ht="29" x14ac:dyDescent="0.35">
-      <c r="A79" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C79" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D79" s="2">
         <v>45996</v>
@@ -6264,51 +6375,52 @@
         <v>72374952000186</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L79" s="2"/>
       <c r="M79" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O79" s="4"/>
       <c r="P79" s="4"/>
       <c r="Q79">
         <v>0</v>
       </c>
-      <c r="R79" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R79" s="4"/>
       <c r="S79" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T79" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" ht="58" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="80" spans="1:19" ht="58" x14ac:dyDescent="0.35">
-      <c r="A80" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C80" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D80" s="2">
         <v>45996</v>
@@ -6317,53 +6429,54 @@
         <v>12074139000169</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L80" s="2">
         <v>45996</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O80" s="4"/>
       <c r="P80" s="4"/>
       <c r="Q80">
         <v>0</v>
       </c>
-      <c r="R80" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R80" s="4"/>
       <c r="S80" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T80" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A81" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C81" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D81" s="2">
         <v>45996</v>
@@ -6372,53 +6485,54 @@
         <v>5815156000144</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L81" s="2">
         <v>45996</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O81" s="4"/>
       <c r="P81" s="4"/>
       <c r="Q81">
         <v>0</v>
       </c>
-      <c r="R81" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R81" s="4"/>
       <c r="S81" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T81" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D82" s="2">
         <v>45996</v>
@@ -6427,28 +6541,28 @@
         <v>55699369000126</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L82" s="2">
         <v>45996</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N82" s="1"/>
       <c r="O82" s="4"/>
@@ -6456,22 +6570,23 @@
       <c r="Q82">
         <v>0</v>
       </c>
-      <c r="R82" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R82" s="4"/>
       <c r="S82" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" ht="58" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T82" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" ht="58" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D83" s="2">
         <v>45996</v>
@@ -6480,51 +6595,52 @@
         <v>4785105000154</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L83" s="2">
         <v>45996</v>
       </c>
       <c r="M83" s="1"/>
       <c r="N83" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O83" s="4"/>
       <c r="P83" s="4"/>
       <c r="Q83">
         <v>0</v>
       </c>
-      <c r="R83" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R83" s="4"/>
       <c r="S83" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T83" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D84" s="2">
         <v>45996</v>
@@ -6533,51 +6649,52 @@
         <v>30455952000160</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I84" s="1"/>
       <c r="J84" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L84" s="2">
         <v>45996</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O84" s="4"/>
       <c r="P84" s="4"/>
       <c r="Q84">
         <v>0</v>
       </c>
-      <c r="R84" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R84" s="4"/>
       <c r="S84" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T84" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D85" s="2">
         <v>45996</v>
@@ -6586,51 +6703,52 @@
         <v>29404716000306</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L85" s="2">
         <v>46000</v>
       </c>
       <c r="M85" s="1"/>
       <c r="N85" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O85" s="4"/>
       <c r="P85" s="4"/>
       <c r="Q85">
         <v>0</v>
       </c>
-      <c r="R85" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R85" s="4"/>
       <c r="S85" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T85" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D86" s="2">
         <v>45996</v>
@@ -6639,53 +6757,54 @@
         <v>48227957000100</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L86" s="2">
         <v>45996</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O86" s="4"/>
       <c r="P86" s="4"/>
       <c r="Q86">
         <v>0</v>
       </c>
-      <c r="R86" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R86" s="4"/>
       <c r="S86" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T86" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A87" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C87" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D87" s="2">
         <v>45994</v>
@@ -6694,53 +6813,54 @@
         <v>47545858000103</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L87" s="2">
         <v>45994</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O87" s="4"/>
       <c r="P87" s="4"/>
       <c r="Q87">
         <v>0</v>
       </c>
-      <c r="R87" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R87" s="4"/>
       <c r="S87" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T87" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D88" s="2">
         <v>45996</v>
@@ -6749,53 +6869,54 @@
         <v>52275228000198</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L88" s="2">
         <v>45996</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O88" s="4"/>
       <c r="P88" s="4"/>
       <c r="Q88">
         <v>0</v>
       </c>
-      <c r="R88" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R88" s="4"/>
       <c r="S88" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T88" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="89" spans="1:19" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A89" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C89" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D89" s="2">
         <v>45999</v>
@@ -6804,53 +6925,54 @@
         <v>37654527000140</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L89" s="2">
         <v>45999</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O89" s="4"/>
       <c r="P89" s="4"/>
       <c r="Q89">
         <v>0</v>
       </c>
-      <c r="R89" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R89" s="4"/>
       <c r="S89" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T89" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D90" s="2">
         <v>45996</v>
@@ -6859,53 +6981,54 @@
         <v>45132315000120</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L90" s="2">
         <v>45996</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O90" s="4"/>
       <c r="P90" s="4"/>
       <c r="Q90">
         <v>0</v>
       </c>
-      <c r="R90" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R90" s="4"/>
       <c r="S90" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T90" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D91" s="2">
         <v>45995</v>
@@ -6914,53 +7037,54 @@
         <v>80979107000162</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L91" s="2">
         <v>45996</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O91" s="4"/>
       <c r="P91" s="4"/>
       <c r="Q91">
         <v>0</v>
       </c>
-      <c r="R91" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R91" s="4"/>
       <c r="S91" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T91" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D92" s="2">
         <v>45999</v>
@@ -6969,53 +7093,54 @@
         <v>57832654000107</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L92" s="2">
         <v>45999</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O92" s="4"/>
       <c r="P92" s="4"/>
       <c r="Q92">
         <v>0</v>
       </c>
-      <c r="R92" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R92" s="4"/>
       <c r="S92" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T92" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D93" s="2">
         <v>45999</v>
@@ -7024,53 +7149,54 @@
         <v>24894843000147</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L93" s="2">
         <v>45999</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O93" s="4"/>
       <c r="P93" s="4"/>
       <c r="Q93">
         <v>0</v>
       </c>
-      <c r="R93" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R93" s="4"/>
       <c r="S93" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T93" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="94" spans="1:19" ht="29" x14ac:dyDescent="0.35">
-      <c r="A94" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C94" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D94" s="2">
         <v>45995</v>
@@ -7080,46 +7206,47 @@
       </c>
       <c r="F94" s="4"/>
       <c r="G94" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L94" s="2"/>
       <c r="M94" s="1"/>
       <c r="N94" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O94" s="4"/>
       <c r="P94" s="4"/>
       <c r="Q94">
         <v>0</v>
       </c>
-      <c r="R94" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R94" s="4"/>
       <c r="S94" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T94" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D95" s="2">
         <v>45999</v>
@@ -7128,53 +7255,54 @@
         <v>48055460000143</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L95" s="2">
         <v>45999</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O95" s="4"/>
       <c r="P95" s="4"/>
       <c r="Q95">
         <v>0</v>
       </c>
-      <c r="R95" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R95" s="4"/>
       <c r="S95" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T95" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D96" s="2">
         <v>45999</v>
@@ -7183,53 +7311,54 @@
         <v>87687489000108</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L96" s="2">
         <v>45999</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O96" s="4"/>
       <c r="P96" s="4"/>
       <c r="Q96">
         <v>0</v>
       </c>
-      <c r="R96" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R96" s="4"/>
       <c r="S96" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T96" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D97" s="2">
         <v>45999</v>
@@ -7238,53 +7367,54 @@
         <v>1991461002180</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L97" s="2">
         <v>45999</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O97" s="4"/>
       <c r="P97" s="4"/>
       <c r="Q97">
         <v>0</v>
       </c>
-      <c r="R97" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R97" s="4"/>
       <c r="S97" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T97" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D98" s="2">
         <v>45999</v>
@@ -7293,53 +7423,54 @@
         <v>15022398000134</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L98" s="2">
         <v>45999</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O98" s="4"/>
       <c r="P98" s="4"/>
       <c r="Q98">
         <v>0</v>
       </c>
-      <c r="R98" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R98" s="4"/>
       <c r="S98" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T98" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D99" s="2">
         <v>45999</v>
@@ -7348,53 +7479,54 @@
         <v>87091997000110</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L99" s="2">
         <v>45999</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O99" s="4"/>
       <c r="P99" s="4"/>
       <c r="Q99">
         <v>0</v>
       </c>
-      <c r="R99" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R99" s="4"/>
       <c r="S99" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="100" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T99" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D100" s="2">
         <v>45999</v>
@@ -7403,53 +7535,54 @@
         <v>76816842000420</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L100" s="2">
         <v>45999</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O100" s="4"/>
       <c r="P100" s="4"/>
       <c r="Q100">
         <v>0</v>
       </c>
-      <c r="R100" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R100" s="4"/>
       <c r="S100" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="101" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T100" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D101" s="2">
         <v>45999</v>
@@ -7458,53 +7591,54 @@
         <v>76816842000269</v>
       </c>
       <c r="F101" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="G101" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="G101" s="5" t="s">
-        <v>281</v>
-      </c>
       <c r="H101" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L101" s="2">
         <v>45999</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O101" s="4"/>
       <c r="P101" s="4"/>
       <c r="Q101">
         <v>0</v>
       </c>
-      <c r="R101" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R101" s="4"/>
       <c r="S101" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T101" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D102" s="2">
         <v>45999</v>
@@ -7513,53 +7647,54 @@
         <v>8741844000103</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L102" s="2">
         <v>45999</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O102" s="4"/>
       <c r="P102" s="4"/>
       <c r="Q102">
         <v>0</v>
       </c>
-      <c r="R102" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R102" s="4"/>
       <c r="S102" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T102" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D103" s="2">
         <v>45999</v>
@@ -7569,48 +7704,49 @@
       </c>
       <c r="F103" s="4"/>
       <c r="G103" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L103" s="2">
         <v>45999</v>
       </c>
       <c r="M103" s="1"/>
       <c r="N103" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O103" s="4"/>
       <c r="P103" s="4"/>
       <c r="Q103">
         <v>0</v>
       </c>
-      <c r="R103" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R103" s="4"/>
       <c r="S103" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T103" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="104" spans="1:19" ht="29" x14ac:dyDescent="0.35">
-      <c r="A104" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C104" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D104" s="2">
         <v>45999</v>
@@ -7619,53 +7755,54 @@
         <v>577709000154</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L104" s="2">
         <v>45999</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O104" s="4"/>
       <c r="P104" s="4"/>
       <c r="Q104">
         <v>0</v>
       </c>
-      <c r="R104" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R104" s="4"/>
       <c r="S104" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T104" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D105" s="2">
         <v>45999</v>
@@ -7674,53 +7811,54 @@
         <v>11111111111111</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L105" s="2">
         <v>45999</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O105" s="4"/>
       <c r="P105" s="4"/>
       <c r="Q105">
         <v>0</v>
       </c>
-      <c r="R105" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R105" s="4"/>
       <c r="S105" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T105" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D106" s="2">
         <v>46000</v>
@@ -7729,53 +7867,54 @@
         <v>26472037000106</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L106" s="2">
         <v>46000</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N106" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O106" s="4"/>
       <c r="P106" s="4"/>
       <c r="Q106">
         <v>0</v>
       </c>
-      <c r="R106" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R106" s="4"/>
       <c r="S106" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T106" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D107" s="2">
         <v>46000</v>
@@ -7784,53 +7923,54 @@
         <v>26472037000109</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L107" s="2">
         <v>46000</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N107" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O107" s="4"/>
       <c r="P107" s="4"/>
       <c r="Q107">
         <v>0</v>
       </c>
-      <c r="R107" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R107" s="4"/>
       <c r="S107" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T107" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D108" s="2">
         <v>45999</v>
@@ -7839,53 +7979,54 @@
         <v>46011435000132</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L108" s="2">
         <v>45999</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N108" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O108" s="4"/>
       <c r="P108" s="4"/>
       <c r="Q108">
         <v>0</v>
       </c>
-      <c r="R108" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R108" s="4"/>
       <c r="S108" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T108" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D109" s="2">
         <v>46000</v>
@@ -7894,53 +8035,54 @@
         <v>3570327000197</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L109" s="2">
         <v>46000</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N109" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O109" s="4"/>
       <c r="P109" s="4"/>
       <c r="Q109">
         <v>0</v>
       </c>
-      <c r="R109" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R109" s="4"/>
       <c r="S109" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T109" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A110" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C110" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D110" s="2">
         <v>45999</v>
@@ -7950,19 +8092,19 @@
       </c>
       <c r="F110" s="4"/>
       <c r="G110" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L110" s="2">
         <v>46000</v>
@@ -7974,22 +8116,23 @@
       <c r="Q110">
         <v>0</v>
       </c>
-      <c r="R110" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R110" s="4"/>
       <c r="S110" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T110" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D111" s="2">
         <v>45999</v>
@@ -7998,53 +8141,54 @@
         <v>10592852000179</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L111" s="2">
         <v>45999</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N111" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O111" s="4"/>
       <c r="P111" s="4"/>
       <c r="Q111">
         <v>0</v>
       </c>
-      <c r="R111" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R111" s="4"/>
       <c r="S111" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T111" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D112" s="2">
         <v>46000</v>
@@ -8053,53 +8197,54 @@
         <v>7433734000103</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L112" s="2">
         <v>46001</v>
       </c>
       <c r="M112" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N112" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O112" s="4"/>
       <c r="P112" s="4"/>
       <c r="Q112">
         <v>0</v>
       </c>
-      <c r="R112" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R112" s="4"/>
       <c r="S112" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="113" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T112" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D113" s="2">
         <v>46000</v>
@@ -8108,53 +8253,54 @@
         <v>4785105000154</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L113" s="2">
         <v>46000</v>
       </c>
       <c r="M113" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N113" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O113" s="4"/>
       <c r="P113" s="4"/>
       <c r="Q113">
         <v>0</v>
       </c>
-      <c r="R113" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R113" s="4"/>
       <c r="S113" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="114" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T113" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D114" s="2">
         <v>46000</v>
@@ -8163,53 +8309,54 @@
         <v>76816842000420</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L114" s="2">
         <v>46000</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N114" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O114" s="4"/>
       <c r="P114" s="4"/>
       <c r="Q114">
         <v>0</v>
       </c>
-      <c r="R114" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R114" s="4"/>
       <c r="S114" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="115" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T114" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D115" s="2">
         <v>46000</v>
@@ -8218,53 +8365,54 @@
         <v>76816842000269</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L115" s="2">
         <v>46000</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N115" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O115" s="4"/>
       <c r="P115" s="4"/>
       <c r="Q115">
         <v>0</v>
       </c>
-      <c r="R115" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R115" s="4"/>
       <c r="S115" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="116" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T115" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D116" s="2">
         <v>46000</v>
@@ -8273,53 +8421,54 @@
         <v>29404899000190</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L116" s="2">
         <v>46000</v>
       </c>
       <c r="M116" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N116" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O116" s="4"/>
       <c r="P116" s="4"/>
       <c r="Q116">
         <v>0</v>
       </c>
-      <c r="R116" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R116" s="4"/>
       <c r="S116" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="117" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T116" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D117" s="2">
         <v>46000</v>
@@ -8328,53 +8477,54 @@
         <v>29404899000351</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L117" s="2">
         <v>46000</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N117" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O117" s="4"/>
       <c r="P117" s="4"/>
       <c r="Q117">
         <v>0</v>
       </c>
-      <c r="R117" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R117" s="4"/>
       <c r="S117" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T117" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A118" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="118" spans="1:19" ht="29" x14ac:dyDescent="0.35">
-      <c r="A118" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C118" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D118" s="2">
         <v>46000</v>
@@ -8383,53 +8533,54 @@
         <v>4868412000794</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L118" s="2">
         <v>46000</v>
       </c>
       <c r="M118" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N118" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O118" s="4"/>
       <c r="P118" s="4"/>
       <c r="Q118">
         <v>0</v>
       </c>
-      <c r="R118" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R118" s="4"/>
       <c r="S118" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="119" spans="1:19" ht="58" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T118" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" ht="58" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D119" s="2">
         <v>46000</v>
@@ -8438,50 +8589,51 @@
         <v>61620792000191</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L119" s="2">
         <v>46000</v>
       </c>
       <c r="M119" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N119" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O119" s="4"/>
       <c r="P119" s="4"/>
       <c r="Q119">
         <v>0</v>
       </c>
-      <c r="R119" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R119" s="4"/>
       <c r="S119" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="120" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T119" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="2">
@@ -8491,53 +8643,54 @@
         <v>57900011000145</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L120" s="2">
         <v>46000</v>
       </c>
       <c r="M120" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N120" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O120" s="4"/>
       <c r="P120" s="4"/>
       <c r="Q120">
         <v>0</v>
       </c>
-      <c r="R120" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R120" s="4"/>
       <c r="S120" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T120" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D121" s="2">
         <v>46000</v>
@@ -8547,147 +8700,354 @@
       </c>
       <c r="F121" s="4"/>
       <c r="G121" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L121" s="2">
         <v>46000</v>
       </c>
       <c r="M121" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N121" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O121" s="4"/>
       <c r="P121" s="4"/>
       <c r="Q121">
         <v>0</v>
       </c>
-      <c r="R121" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R121" s="4"/>
       <c r="S121" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="122" spans="1:19" ht="58" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T121" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D122" s="2">
         <v>46001</v>
       </c>
       <c r="E122" s="3">
-        <v>51532099000103</v>
+        <v>87091997003136</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>314</v>
+        <v>69</v>
       </c>
       <c r="G122" s="5" t="s">
         <v>315</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="K122" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L122" s="2"/>
+      <c r="M122" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N122" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="L122" s="2">
-        <v>46003</v>
-      </c>
-      <c r="M122" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N122" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="O122" s="4"/>
       <c r="P122" s="4"/>
       <c r="Q122">
         <v>0</v>
       </c>
-      <c r="R122" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R122" s="4"/>
       <c r="S122" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T122" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>51</v>
+        <v>279</v>
       </c>
       <c r="D123" s="2">
         <v>46001</v>
       </c>
       <c r="E123" s="3">
-        <v>87091997003136</v>
+        <v>22624848000205</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>68</v>
+        <v>316</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L123" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="L123" s="2">
+        <v>46001</v>
+      </c>
       <c r="M123" s="1" t="s">
-        <v>52</v>
+        <v>318</v>
       </c>
       <c r="N123" s="1" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="O123" s="4"/>
       <c r="P123" s="4"/>
       <c r="Q123">
         <v>0</v>
       </c>
-      <c r="R123" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="R123" s="4"/>
       <c r="S123" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="T123" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A124" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D124" s="2">
+        <v>46001</v>
+      </c>
+      <c r="E124" s="3">
+        <v>91411256004991</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K124" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L124" s="2"/>
+      <c r="M124" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="N124" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O124" s="4"/>
+      <c r="P124" s="4"/>
+      <c r="Q124">
+        <v>0</v>
+      </c>
+      <c r="R124" s="4"/>
+      <c r="S124" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T124" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A125" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D125" s="2">
+        <v>46001</v>
+      </c>
+      <c r="E125" s="3">
+        <v>1991461003402</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K125" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L125" s="2"/>
+      <c r="M125" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="N125" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O125" s="4"/>
+      <c r="P125" s="4"/>
+      <c r="Q125">
+        <v>0</v>
+      </c>
+      <c r="R125" s="4"/>
+      <c r="S125" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T125" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A126" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D126" s="2">
+        <v>46001</v>
+      </c>
+      <c r="E126" s="3">
+        <v>1111111111111</v>
+      </c>
+      <c r="F126" s="4"/>
+      <c r="G126" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K126" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L126" s="2">
+        <v>46001</v>
+      </c>
+      <c r="M126" s="1"/>
+      <c r="N126" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O126" s="4"/>
+      <c r="P126" s="4"/>
+      <c r="Q126">
+        <v>0</v>
+      </c>
+      <c r="R126" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="S126" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T126" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D127" s="2">
+        <v>46001</v>
+      </c>
+      <c r="E127" s="3">
+        <v>1111</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="G127" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I127" s="1"/>
+      <c r="J127" s="1"/>
+      <c r="K127" s="1"/>
+      <c r="L127" s="2">
+        <v>46001</v>
+      </c>
+      <c r="M127" s="1"/>
+      <c r="N127" s="1"/>
+      <c r="O127" s="4"/>
+      <c r="P127" s="4"/>
+      <c r="Q127">
+        <v>0</v>
+      </c>
+      <c r="R127" s="4"/>
+      <c r="S127" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T127" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/base_hub_github.xlsx
+++ b/base_hub_github.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupoultracloud-my.sharepoint.com/personal/thiago_junior_ipiranga_ipiranga/Documents/Área de Trabalho/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52378416-1770-4045-AC37-F7D1F0C0ACD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{32200212-85CA-448E-BB9A-2008FBC97987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A6E7887-73C2-467B-B039-79E31D263AAC}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DF3FD977-3E7A-4D0A-A9CC-3715A1DB2DCF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0CB50D34-D488-4D66-A2C1-49C7A3E1583A}"/>
   </bookViews>
   <sheets>
-    <sheet name="query" sheetId="1" r:id="rId1"/>
+    <sheet name="query " sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="query__18" localSheetId="0" hidden="1">query!$A$1:$T$127</definedName>
+    <definedName name="query__19" localSheetId="0" hidden="1">'query '!$A$1:$T$133</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -24,14 +24,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{05C90113-4DFE-4D12-980E-25B348E6F816}" odcFile="C:\Users\thiago.junior\Downloads\query (18).iqy" keepAlive="1" name="query (18)" type="5" refreshedVersion="8" minRefreshableVersion="3" saveData="1">
+  <connection id="1" xr16:uid="{6DC490EA-0989-4940-8E50-D9D9542D6A78}" odcFile="C:\Users\thiago.junior\Downloads\query (19).iqy" keepAlive="1" name="query (19)" type="5" refreshedVersion="8" minRefreshableVersion="3" saveData="1">
     <dbPr connection="Provider=Microsoft.Office.List.OLEDB.2.0;Data Source=&quot;&quot;;ApplicationName=Excel;Version=12.0.0.0" command="&lt;LIST&gt;&lt;VIEWGUID&gt;A45175CA-9778-441D-B066-D8555F7DBBE4&lt;/VIEWGUID&gt;&lt;LISTNAME&gt;06be0e4e-018b-4cef-a562-4db2a9a684e1&lt;/LISTNAME&gt;&lt;LISTWEB&gt;https://grupoultracloud-my.sharepoint.com/personal/roberta_rocha_ipiranga_ipiranga/_vti_bin&lt;/LISTWEB&gt;&lt;LISTSUBWEB&gt;&lt;/LISTSUBWEB&gt;&lt;ROOTFOLDER&gt;&lt;/ROOTFOLDER&gt;&lt;/LIST&gt;" commandType="5"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="335">
   <si>
     <t>Título</t>
   </si>
@@ -971,9 +971,6 @@
     <t>Em contato com a Rede para apresentar a solução Conecta, o posto informou que está avaliando a possibilidade de adesão. No entanto, não há previsão para implementação, considerando que estamos no final do ano e não desejam comprometer o atendimento com demandas técnicas neste período.</t>
   </si>
   <si>
-    <t>Auto Posto Eco Gas Ltda - Me</t>
-  </si>
-  <si>
     <t>Apresentação do Conecta Rede avaliando a implementação ( ação final de ano reversão dos postos  com sistema homolog porém sem conecta implementado)</t>
   </si>
   <si>
@@ -1001,16 +998,49 @@
     <t xml:space="preserve">Caso enviado para Ana Paula Farandi. </t>
   </si>
   <si>
-    <t>111111</t>
-  </si>
-  <si>
-    <t>ssssaaa</t>
-  </si>
-  <si>
-    <t>1111</t>
-  </si>
-  <si>
-    <t>11</t>
+    <t>10 cnpj's ajustados</t>
+  </si>
+  <si>
+    <t>Sant Ana Auto Posto Ltda - Epp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14652825000103	Sant Ana Auto Posto Ltda - Epp	GRUPO PANAMERICANO - Oferta de uso de produtos digitais </t>
+  </si>
+  <si>
+    <t>Auto Posto Vip Diamantes Ltda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oferta de uso de produtos digitais </t>
+  </si>
+  <si>
+    <t>Escritório</t>
+  </si>
+  <si>
+    <t>Auto posto B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN aciona solicitando esclarecimento sobre pontuação em dobro de postos favoritos. </t>
+  </si>
+  <si>
+    <t>Dúvidas Acúmulos</t>
+  </si>
+  <si>
+    <t>Posto Marajó</t>
+  </si>
+  <si>
+    <t>Entrei em contato com o revendedor para ativação do Ipiranga Online</t>
+  </si>
+  <si>
+    <t>Cascol Combustiveis Para Veiculos Ltda</t>
+  </si>
+  <si>
+    <t>CN Isabela solic ita apoio com automação</t>
+  </si>
+  <si>
+    <t>Xm Comercio De Combustivel Ltda - Epp</t>
+  </si>
+  <si>
+    <t>F Dos Santos Andrade Ltda</t>
   </si>
 </sst>
 </file>
@@ -1626,7 +1656,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="query (18)" backgroundRefresh="0" connectionId="1" xr16:uid="{238CA592-E574-4945-9BD3-1194593EC022}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="query (19)" backgroundRefresh="0" connectionId="1" xr16:uid="{604DC875-43A3-44AC-AD95-451C12802B56}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="21">
     <queryTableFields count="20">
       <queryTableField id="10" name="Analista" tableColumnId="1"/>
@@ -1655,29 +1685,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5CB66CF7-D127-4AEA-89DD-0A4D8BA8F14F}" name="Tabela_query__18" displayName="Tabela_query__18" ref="A1:T127" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:T127" xr:uid="{5CB66CF7-D127-4AEA-89DD-0A4D8BA8F14F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{43587D60-6472-4C91-8CFE-8C03FB1B0894}" name="Tabela_query__19" displayName="Tabela_query__19" ref="A1:T133" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:T133" xr:uid="{43587D60-6472-4C91-8CFE-8C03FB1B0894}"/>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{65422451-FB6C-48CD-B745-F897AFD4067A}" uniqueName="Analista" name="Analista" queryTableFieldId="10" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{60718BE9-0067-4AC0-B550-E1221C40E023}" uniqueName="SubClassifica_x005f_x00e7__x005f_x00e3_o" name="Sub Classificação" queryTableFieldId="15" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{D3144895-4BE5-457F-9919-43FA26211413}" uniqueName="Motivo" name="Motivo" queryTableFieldId="11" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{6658DC8E-F864-46B3-8E00-504FB93AADF6}" uniqueName="Data" name="Data Inicio" queryTableFieldId="2" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{99113218-7476-4A8A-A2BA-009C3FCA7C35}" uniqueName="CNPJ" name="CNPJ" queryTableFieldId="3" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{C3D5DFC0-4CD1-493A-BDA0-1491B29D8F20}" uniqueName="Raz_x005f_x00e3_oSocial" name="Razão Social" queryTableFieldId="4" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{26D8C567-E615-41BF-84AF-576236C11993}" uniqueName="Descri_x005f_x00e7__x005f_x00e3_o" name="Descrição" queryTableFieldId="5" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{67F63338-A242-4BF3-A4E0-3346CEB189B1}" uniqueName="FCR" name="FCR" queryTableFieldId="7" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{A486EF74-EDC8-4356-B318-7B1CCBD7410B}" uniqueName="Origemdocontato" name="Área responsável pela resolução" queryTableFieldId="8" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{E69686E8-FCBC-4BA2-A1DE-1A07C980470D}" uniqueName="Origemdocontato0" name="Origem do contato" queryTableFieldId="9" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{FFE860A7-0222-433B-AFFB-7D346C34E48B}" uniqueName="Tipodecontato" name="Tipo de contato" queryTableFieldId="14" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{AB306080-C448-4552-A7BA-5BBB6151ADD1}" uniqueName="DataFim" name="Data Fim" queryTableFieldId="6" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{DC9A84DF-86F5-43D6-9D66-AEB39C61B72D}" uniqueName="GN" name="GN" queryTableFieldId="12" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{A417C34C-3A11-4386-992F-21B41D5C5EE7}" uniqueName="Solicitante" name="Solicitante" queryTableFieldId="13" dataDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{39D781C0-ED7D-4258-939E-D6120BF5B157}" uniqueName="Title" name="Título" queryTableFieldId="1" dataDxfId="4"/>
-    <tableColumn id="16" xr3:uid="{BAA6FB50-8476-4E6B-BF73-4DF72DFCD917}" uniqueName="_x005f_x0024_Resources_x005f_x003a_core_x002" name="Status de liberação" queryTableFieldId="16" dataDxfId="3"/>
-    <tableColumn id="17" xr3:uid="{ED6A7979-815B-455D-BEEA-33FB4752AAFF}" uniqueName="_ApprovalStatus" name="Status de aprovação" queryTableFieldId="17"/>
-    <tableColumn id="18" xr3:uid="{7C3B69FE-680C-4100-924C-8C224B552180}" uniqueName="N_x005f_x00fa_merodoChamado" name="Número do Chamado Automação" queryTableFieldId="18" dataDxfId="2"/>
-    <tableColumn id="19" xr3:uid="{181D3A80-5FE3-4927-B010-6AACE2220358}" uniqueName="FSObjType" name="Tipo de Item" queryTableFieldId="20" dataDxfId="1"/>
-    <tableColumn id="20" xr3:uid="{F2F77752-7748-4CF2-87CE-03B082BDED9D}" uniqueName="FileDirRef" name="Caminho" queryTableFieldId="19" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{CC4EFE57-D4B0-4EC2-A3BE-22956972ACB4}" uniqueName="Analista" name="Analista" queryTableFieldId="10" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{F4DC61AB-07A1-43C4-BEF8-52456A1ADD36}" uniqueName="SubClassifica_x005f_x00e7__x005f_x00e3_o" name="Sub Classificação" queryTableFieldId="15" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{CDFE0AE9-27B5-4FC1-AE0E-EE7DAA4A43DA}" uniqueName="Motivo" name="Motivo" queryTableFieldId="11" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{63E377F6-8C25-41E5-A765-0E53CB4A0D3F}" uniqueName="Data" name="Data Inicio" queryTableFieldId="2" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{ED6F5DB2-B263-40BB-9B95-EF6C9322CC54}" uniqueName="CNPJ" name="CNPJ" queryTableFieldId="3" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{5B5B034F-EEEB-449F-8AEF-22C42833D742}" uniqueName="Raz_x005f_x00e3_oSocial" name="Razão Social" queryTableFieldId="4" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{36FA52C6-04CC-4E96-8A8D-C90AD2AAAADF}" uniqueName="Descri_x005f_x00e7__x005f_x00e3_o" name="Descrição" queryTableFieldId="5" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{194981B6-C7F7-4FC0-9454-8756DB2C48D7}" uniqueName="FCR" name="FCR" queryTableFieldId="7" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{13BE9FDD-6359-4B79-A466-4F565ECCE5AE}" uniqueName="Origemdocontato" name="Área responsável pela resolução" queryTableFieldId="8" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{CA3D47DD-CDF4-4448-A85D-AB446E094A8B}" uniqueName="Origemdocontato0" name="Origem do contato" queryTableFieldId="9" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{68E9B49D-14F4-4653-AD77-9C18F57083A7}" uniqueName="Tipodecontato" name="Tipo de contato" queryTableFieldId="14" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{94E2DCDC-C9CB-4250-8DF1-086E765C49DE}" uniqueName="DataFim" name="Data Fim" queryTableFieldId="6" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{36FBFE7A-42E0-428E-BAC3-9D15A0CCFEC3}" uniqueName="GN" name="GN" queryTableFieldId="12" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{A03B8B99-BC19-49F1-AC0C-E3FA46FB5D28}" uniqueName="Solicitante" name="Solicitante" queryTableFieldId="13" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{F07F2425-082F-4408-A587-AB302C68777A}" uniqueName="Title" name="Título" queryTableFieldId="1" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{22F017CE-A6FB-4917-BA31-8B3F96731F42}" uniqueName="_x005f_x0024_Resources_x005f_x003a_core_x002" name="Status de liberação" queryTableFieldId="16" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{A93AEA4D-A6C9-405B-99C1-CACE7542AAD6}" uniqueName="_ApprovalStatus" name="Status de aprovação" queryTableFieldId="17"/>
+    <tableColumn id="18" xr3:uid="{7745F0D1-8AB2-4B6D-851D-FB981A8A9571}" uniqueName="N_x005f_x00fa_merodoChamado" name="Número do Chamado Automação" queryTableFieldId="18" dataDxfId="2"/>
+    <tableColumn id="19" xr3:uid="{CC7C7934-636E-47E5-A230-C705D4BE8630}" uniqueName="FSObjType" name="Tipo de Item" queryTableFieldId="20" dataDxfId="1"/>
+    <tableColumn id="20" xr3:uid="{DC57F11E-36EE-4A5E-A532-3141354BF55D}" uniqueName="FileDirRef" name="Caminho" queryTableFieldId="19" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1999,11 +2029,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A94803-6ECB-4BD5-AE98-6A46BC7C21C1}">
-  <dimension ref="A1:T127"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE53FA5-4493-4874-87E6-F496A0C626E3}">
+  <dimension ref="A1:T133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection sqref="A1:T133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6199,7 +6229,9 @@
       <c r="B76" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C76" s="1"/>
+      <c r="C76" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="D76" s="2">
         <v>45995</v>
       </c>
@@ -6227,9 +6259,7 @@
       <c r="L76" s="2">
         <v>45995</v>
       </c>
-      <c r="M76" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="M76" s="1"/>
       <c r="N76" s="1" t="s">
         <v>28</v>
       </c>
@@ -8635,18 +8665,18 @@
       <c r="B120" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C120" s="1"/>
+      <c r="C120" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="D120" s="2">
         <v>46000</v>
       </c>
       <c r="E120" s="3">
         <v>57900011000145</v>
       </c>
-      <c r="F120" s="4" t="s">
+      <c r="F120" s="4"/>
+      <c r="G120" s="5" t="s">
         <v>311</v>
-      </c>
-      <c r="G120" s="5" t="s">
-        <v>312</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>22</v>
@@ -8663,9 +8693,7 @@
       <c r="L120" s="2">
         <v>46000</v>
       </c>
-      <c r="M120" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="M120" s="1"/>
       <c r="N120" s="1" t="s">
         <v>144</v>
       </c>
@@ -8700,7 +8728,7 @@
       </c>
       <c r="F121" s="4"/>
       <c r="G121" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>22</v>
@@ -8718,7 +8746,7 @@
         <v>46000</v>
       </c>
       <c r="M121" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="N121" s="1" t="s">
         <v>144</v>
@@ -8756,7 +8784,7 @@
         <v>69</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>49</v>
@@ -8807,10 +8835,10 @@
         <v>22624848000205</v>
       </c>
       <c r="F123" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="G123" s="5" t="s">
         <v>316</v>
-      </c>
-      <c r="G123" s="5" t="s">
-        <v>317</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>22</v>
@@ -8828,7 +8856,7 @@
         <v>46001</v>
       </c>
       <c r="M123" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N123" s="1" t="s">
         <v>115</v>
@@ -8863,10 +8891,10 @@
         <v>91411256004991</v>
       </c>
       <c r="F124" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="G124" s="5" t="s">
         <v>319</v>
-      </c>
-      <c r="G124" s="5" t="s">
-        <v>320</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>49</v>
@@ -8920,7 +8948,7 @@
         <v>274</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>49</v>
@@ -8956,23 +8984,23 @@
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
-        <v>45</v>
+        <v>262</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="D126" s="2">
         <v>46001</v>
       </c>
       <c r="E126" s="3">
-        <v>1111111111111</v>
+        <v>11111111111111</v>
       </c>
       <c r="F126" s="4"/>
       <c r="G126" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>22</v>
@@ -8981,26 +9009,24 @@
         <v>34</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K126" s="1" t="s">
-        <v>36</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="K126" s="1"/>
       <c r="L126" s="2">
         <v>46001</v>
       </c>
-      <c r="M126" s="1"/>
+      <c r="M126" s="1" t="s">
+        <v>313</v>
+      </c>
       <c r="N126" s="1" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="O126" s="4"/>
       <c r="P126" s="4"/>
       <c r="Q126">
         <v>0</v>
       </c>
-      <c r="R126" s="4" t="s">
-        <v>322</v>
-      </c>
+      <c r="R126" s="4"/>
       <c r="S126" s="4" t="s">
         <v>32</v>
       </c>
@@ -9008,35 +9034,49 @@
         <v>31</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
+    <row r="127" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A127" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="C127" s="1" t="s">
-        <v>26</v>
+        <v>279</v>
       </c>
       <c r="D127" s="2">
         <v>46001</v>
       </c>
       <c r="E127" s="3">
-        <v>1111</v>
+        <v>14652825000103</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I127" s="1"/>
-      <c r="J127" s="1"/>
-      <c r="K127" s="1"/>
+      <c r="I127" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="L127" s="2">
         <v>46001</v>
       </c>
-      <c r="M127" s="1"/>
-      <c r="N127" s="1"/>
+      <c r="M127" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="N127" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="O127" s="4"/>
       <c r="P127" s="4"/>
       <c r="Q127">
@@ -9047,6 +9087,342 @@
         <v>32</v>
       </c>
       <c r="T127" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A128" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D128" s="2">
+        <v>46001</v>
+      </c>
+      <c r="E128" s="3">
+        <v>15699123000130</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L128" s="2">
+        <v>46001</v>
+      </c>
+      <c r="M128" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="N128" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O128" s="4"/>
+      <c r="P128" s="4"/>
+      <c r="Q128">
+        <v>0</v>
+      </c>
+      <c r="R128" s="4"/>
+      <c r="S128" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T128" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A129" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D129" s="2">
+        <v>46001</v>
+      </c>
+      <c r="E129" s="3">
+        <v>27192758000397</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="G129" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L129" s="2">
+        <v>46001</v>
+      </c>
+      <c r="M129" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N129" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O129" s="4"/>
+      <c r="P129" s="4"/>
+      <c r="Q129">
+        <v>0</v>
+      </c>
+      <c r="R129" s="4"/>
+      <c r="S129" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T129" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A130" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D130" s="2">
+        <v>46001</v>
+      </c>
+      <c r="E130" s="3">
+        <v>37261764000140</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="G130" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K130" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L130" s="2">
+        <v>46001</v>
+      </c>
+      <c r="M130" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="N130" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O130" s="4"/>
+      <c r="P130" s="4"/>
+      <c r="Q130">
+        <v>0</v>
+      </c>
+      <c r="R130" s="4"/>
+      <c r="S130" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T130" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A131" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D131" s="2">
+        <v>46001</v>
+      </c>
+      <c r="E131" s="3">
+        <v>306597002655</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="G131" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K131" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L131" s="2">
+        <v>46001</v>
+      </c>
+      <c r="M131" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N131" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O131" s="4"/>
+      <c r="P131" s="4"/>
+      <c r="Q131">
+        <v>0</v>
+      </c>
+      <c r="R131" s="4"/>
+      <c r="S131" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T131" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A132" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D132" s="2">
+        <v>46001</v>
+      </c>
+      <c r="E132" s="3">
+        <v>26697754000136</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="G132" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K132" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L132" s="2">
+        <v>46001</v>
+      </c>
+      <c r="M132" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="N132" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O132" s="4"/>
+      <c r="P132" s="4"/>
+      <c r="Q132">
+        <v>0</v>
+      </c>
+      <c r="R132" s="4"/>
+      <c r="S132" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T132" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A133" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D133" s="2">
+        <v>46001</v>
+      </c>
+      <c r="E133" s="3">
+        <v>35119645000203</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="G133" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K133" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L133" s="2">
+        <v>46001</v>
+      </c>
+      <c r="M133" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="N133" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O133" s="4"/>
+      <c r="P133" s="4"/>
+      <c r="Q133">
+        <v>0</v>
+      </c>
+      <c r="R133" s="4"/>
+      <c r="S133" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T133" s="4" t="s">
         <v>31</v>
       </c>
     </row>

--- a/base_hub_github.xlsx
+++ b/base_hub_github.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupoultracloud-my.sharepoint.com/personal/thiago_junior_ipiranga_ipiranga/Documents/Área de Trabalho/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{32200212-85CA-448E-BB9A-2008FBC97987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A6E7887-73C2-467B-B039-79E31D263AAC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{78A6A893-E4DB-4220-9AB9-E7FE0EBD7B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0CB50D34-D488-4D66-A2C1-49C7A3E1583A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DAA52D18-546C-4E8B-8548-E2AE19AA3859}"/>
   </bookViews>
   <sheets>
-    <sheet name="query " sheetId="1" r:id="rId1"/>
+    <sheet name="query" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="query__19" localSheetId="0" hidden="1">'query '!$A$1:$T$133</definedName>
+    <definedName name="query__22" localSheetId="0" hidden="1">query!$A$1:$T$153</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -24,14 +24,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{6DC490EA-0989-4940-8E50-D9D9542D6A78}" odcFile="C:\Users\thiago.junior\Downloads\query (19).iqy" keepAlive="1" name="query (19)" type="5" refreshedVersion="8" minRefreshableVersion="3" saveData="1">
+  <connection id="1" xr16:uid="{B4B9447C-4762-45AD-A91D-ECE1826FDCA0}" odcFile="C:\Users\thiago.junior\Downloads\query (22).iqy" keepAlive="1" name="query (22)" type="5" refreshedVersion="8" minRefreshableVersion="3" saveData="1">
     <dbPr connection="Provider=Microsoft.Office.List.OLEDB.2.0;Data Source=&quot;&quot;;ApplicationName=Excel;Version=12.0.0.0" command="&lt;LIST&gt;&lt;VIEWGUID&gt;A45175CA-9778-441D-B066-D8555F7DBBE4&lt;/VIEWGUID&gt;&lt;LISTNAME&gt;06be0e4e-018b-4cef-a562-4db2a9a684e1&lt;/LISTNAME&gt;&lt;LISTWEB&gt;https://grupoultracloud-my.sharepoint.com/personal/roberta_rocha_ipiranga_ipiranga/_vti_bin&lt;/LISTWEB&gt;&lt;LISTSUBWEB&gt;&lt;/LISTSUBWEB&gt;&lt;ROOTFOLDER&gt;&lt;/ROOTFOLDER&gt;&lt;/LIST&gt;" commandType="5"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1968" uniqueCount="373">
   <si>
     <t>Título</t>
   </si>
@@ -911,6 +911,9 @@
     <t>Ação de ajuste Lat long</t>
   </si>
   <si>
+    <t>Gerência de Produtos Digitais</t>
+  </si>
+  <si>
     <t>Auto Posto Fx Ltda</t>
   </si>
   <si>
@@ -977,30 +980,30 @@
     <t>Ajuste de lat-long de 30 postos.</t>
   </si>
   <si>
+    <t xml:space="preserve">Solicitação de alteração de dimicílio bancário. Caso enviado para Ana Farandi. </t>
+  </si>
+  <si>
+    <t>Canuto &amp; Kotinski Ltda</t>
+  </si>
+  <si>
+    <t>Oferta de uso dos produtos digitais</t>
+  </si>
+  <si>
+    <t>G.N. Urbano Manaus</t>
+  </si>
+  <si>
+    <t>Sander Comercio De Combustiveis Ltda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caso enviado para Ana Paula Farandi. </t>
+  </si>
+  <si>
+    <t>10 cnpj's ajustados</t>
+  </si>
+  <si>
     <t>NA</t>
   </si>
   <si>
-    <t xml:space="preserve">Solicitação de alteração de dimicílio bancário. Caso enviado para Ana Farandi. </t>
-  </si>
-  <si>
-    <t>Canuto &amp; Kotinski Ltda</t>
-  </si>
-  <si>
-    <t>Oferta de uso dos produtos digitais</t>
-  </si>
-  <si>
-    <t>G.N. Urbano Manaus</t>
-  </si>
-  <si>
-    <t>Sander Comercio De Combustiveis Ltda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caso enviado para Ana Paula Farandi. </t>
-  </si>
-  <si>
-    <t>10 cnpj's ajustados</t>
-  </si>
-  <si>
     <t>Sant Ana Auto Posto Ltda - Epp</t>
   </si>
   <si>
@@ -1041,6 +1044,117 @@
   </si>
   <si>
     <t>F Dos Santos Andrade Ltda</t>
+  </si>
+  <si>
+    <t>Grupo Capoani</t>
+  </si>
+  <si>
+    <t>A consultora Carina Belinek, pediu para não entrar em contato com o representante, por causa de alguns impasses que estão dificultando o aceite, entre eles, a cobrança de Royalties. Estão com grandes dificuldades de mercado, no caso da gasolina.</t>
+  </si>
+  <si>
+    <t>Auto posto do turista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizei contato com o Junior ara concluir a adesão ao conecta </t>
+  </si>
+  <si>
+    <t>Posto Formula 1 De Teodoro Ltda</t>
+  </si>
+  <si>
+    <t>Enviada proposta para implementaçao do conecta aguardando retorno</t>
+  </si>
+  <si>
+    <t>Auto Posto Florida Ribeirao Ltda</t>
+  </si>
+  <si>
+    <t>negociação conecta aguardando o retorno para o aceite posto com automação homologada CT Fernanda Zaine apoiando</t>
+  </si>
+  <si>
+    <t>G.N. Urbano Ribeirao Preto</t>
+  </si>
+  <si>
+    <t>P Portal Ipiranga Ribeirao Preto Ltda</t>
+  </si>
+  <si>
+    <t>negociação conecta, CT Fernanda Zaine Apoiando com o Aceite</t>
+  </si>
+  <si>
+    <t>Auto Posto Oregon Ltda</t>
+  </si>
+  <si>
+    <t>O revendedor João se queixa de que não está conseguindo finalizar pedidos no App (pedido digitado) pelo PDV fixo. Pedi para que ele entre em contato com o representante da Xpert e solicite apoio. Caso eles não resolvam, acionarei a Xpert pedindo suporte.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrei em contato com felipe para ofertar o KMV e uso dos produtos digitais </t>
+  </si>
+  <si>
+    <t>O revendedor Rodrigo entrou em contato para solicitar apoio com o cadastro dos VIPs.</t>
+  </si>
+  <si>
+    <t>Auto Posto Vale Mais Ipiranga Ltda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrei em contato com gerente do posto para ofertar KMV e uso de produtos digitais. </t>
+  </si>
+  <si>
+    <t>Bairro Novo Auto Posto Ltda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrei em contato o posto para oferta de KMV e uso de produtos digitais. </t>
+  </si>
+  <si>
+    <t>Auto Posto Eco Ltda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrei em contato com o posto para oferta de produtos digitais </t>
+  </si>
+  <si>
+    <t>A revendedora Sandra entrou em contato para se queixar da POS da Rede, pois sempre que tenta acessar a loja de aplicativos (Laranjinha Store) para baixar o NIPPO, a tela trava e não progride. Pedi para ela alterar a conexão, porém o erro permanece. Passei para ela o número da central da Rede para que possa abrir um chamado.</t>
+  </si>
+  <si>
+    <t>Auto Posto Xavantes Ltda</t>
+  </si>
+  <si>
+    <t>Apoio com login para o revendedor Vilson, portal KMV.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revendedor não está conseguindo emitir NF pelo portal KMV, pedi apoio ao Thiago Alvarenga. </t>
+  </si>
+  <si>
+    <t>Coord Engenharia Dig Revendedo</t>
+  </si>
+  <si>
+    <t>Posto Sette Ltda</t>
+  </si>
+  <si>
+    <t>Estou em negociação com a revendedora Milena para ofertar o projeto OFS Desconto, porém ela parou de responder. Pedi apoio à CN Suzane.</t>
+  </si>
+  <si>
+    <t>Grupo Dom Pedro</t>
+  </si>
+  <si>
+    <t>Conversei com o consultor Heliton Moreno, e a resposta dada foi de que o grupo Dom Pedro não está disposto a dar o "aceite" devido ao acesso da IPP ao banco de dados do grupo. No total, foram são 13 CNPJ's do grupo. (Aba prioridade zero)</t>
+  </si>
+  <si>
+    <t>G.N. Rodovia Ribeirao Preto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Posto com duvidas sobre cadastro do vip  e sobre kmv ( duvidas sobre como mapear os novos clientes kmv incentivados pelos vips- informado que não consefguimos tagibilizar isso pois os cadastros são feitos diretos pelos clientes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O posto GB Comércio de Combustíveis Eireli (CNPJ: 27.580.127/0001-83) passou por sucessão e agora é Onix Comércio de Combustíveis e Produtos (CNPJ: 48.227.957/0001-00). Porém, sempre que uma transação de KMV é realizada sob o Onix, ela reflete no portal KMV do antigo GB, mesmo que no slip/comprovante conste como Onix. Solicitei verificação do motivo dessa inconsistência ao Thiago Alvarenga. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A automação precisa configurar para imprimir o comprovante de transações KMV, neste momento o posto não está conseguindo realizar a impressão, problema presente em todos os postos da rede. </t>
+  </si>
+  <si>
+    <t>POSTOSAS3-28572</t>
+  </si>
+  <si>
+    <t>Posto De Combustiveis Vaccari Ltda</t>
+  </si>
+  <si>
+    <t>Demanda: Apoio à Nadine Toanissa Situação: Revendedor entrou em contato com a Argo solicitando a desativação da tela de CPF. Ação Tomada: Conversei com a revendedora Elaine, expliquei a importância da funcionalidade e ela concordou em manter a função ativa. Status: Resolvido – funcionalidade permanece ativa.</t>
   </si>
 </sst>
 </file>
@@ -1656,7 +1770,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="query (19)" backgroundRefresh="0" connectionId="1" xr16:uid="{604DC875-43A3-44AC-AD95-451C12802B56}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="query (22)" backgroundRefresh="0" connectionId="1" xr16:uid="{F8C57808-4374-4271-A089-829CFF06FC97}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="21">
     <queryTableFields count="20">
       <queryTableField id="10" name="Analista" tableColumnId="1"/>
@@ -1685,29 +1799,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{43587D60-6472-4C91-8CFE-8C03FB1B0894}" name="Tabela_query__19" displayName="Tabela_query__19" ref="A1:T133" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:T133" xr:uid="{43587D60-6472-4C91-8CFE-8C03FB1B0894}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5D0A0EE-1420-4948-A2BB-DE6C1C3E7051}" name="Tabela_query__22" displayName="Tabela_query__22" ref="A1:T153" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:T153" xr:uid="{E5D0A0EE-1420-4948-A2BB-DE6C1C3E7051}"/>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{CC4EFE57-D4B0-4EC2-A3BE-22956972ACB4}" uniqueName="Analista" name="Analista" queryTableFieldId="10" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{F4DC61AB-07A1-43C4-BEF8-52456A1ADD36}" uniqueName="SubClassifica_x005f_x00e7__x005f_x00e3_o" name="Sub Classificação" queryTableFieldId="15" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{CDFE0AE9-27B5-4FC1-AE0E-EE7DAA4A43DA}" uniqueName="Motivo" name="Motivo" queryTableFieldId="11" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{63E377F6-8C25-41E5-A765-0E53CB4A0D3F}" uniqueName="Data" name="Data Inicio" queryTableFieldId="2" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{ED6F5DB2-B263-40BB-9B95-EF6C9322CC54}" uniqueName="CNPJ" name="CNPJ" queryTableFieldId="3" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{5B5B034F-EEEB-449F-8AEF-22C42833D742}" uniqueName="Raz_x005f_x00e3_oSocial" name="Razão Social" queryTableFieldId="4" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{36FA52C6-04CC-4E96-8A8D-C90AD2AAAADF}" uniqueName="Descri_x005f_x00e7__x005f_x00e3_o" name="Descrição" queryTableFieldId="5" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{194981B6-C7F7-4FC0-9454-8756DB2C48D7}" uniqueName="FCR" name="FCR" queryTableFieldId="7" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{13BE9FDD-6359-4B79-A466-4F565ECCE5AE}" uniqueName="Origemdocontato" name="Área responsável pela resolução" queryTableFieldId="8" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{CA3D47DD-CDF4-4448-A85D-AB446E094A8B}" uniqueName="Origemdocontato0" name="Origem do contato" queryTableFieldId="9" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{68E9B49D-14F4-4653-AD77-9C18F57083A7}" uniqueName="Tipodecontato" name="Tipo de contato" queryTableFieldId="14" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{94E2DCDC-C9CB-4250-8DF1-086E765C49DE}" uniqueName="DataFim" name="Data Fim" queryTableFieldId="6" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{36FBFE7A-42E0-428E-BAC3-9D15A0CCFEC3}" uniqueName="GN" name="GN" queryTableFieldId="12" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{A03B8B99-BC19-49F1-AC0C-E3FA46FB5D28}" uniqueName="Solicitante" name="Solicitante" queryTableFieldId="13" dataDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{F07F2425-082F-4408-A587-AB302C68777A}" uniqueName="Title" name="Título" queryTableFieldId="1" dataDxfId="4"/>
-    <tableColumn id="16" xr3:uid="{22F017CE-A6FB-4917-BA31-8B3F96731F42}" uniqueName="_x005f_x0024_Resources_x005f_x003a_core_x002" name="Status de liberação" queryTableFieldId="16" dataDxfId="3"/>
-    <tableColumn id="17" xr3:uid="{A93AEA4D-A6C9-405B-99C1-CACE7542AAD6}" uniqueName="_ApprovalStatus" name="Status de aprovação" queryTableFieldId="17"/>
-    <tableColumn id="18" xr3:uid="{7745F0D1-8AB2-4B6D-851D-FB981A8A9571}" uniqueName="N_x005f_x00fa_merodoChamado" name="Número do Chamado Automação" queryTableFieldId="18" dataDxfId="2"/>
-    <tableColumn id="19" xr3:uid="{CC7C7934-636E-47E5-A230-C705D4BE8630}" uniqueName="FSObjType" name="Tipo de Item" queryTableFieldId="20" dataDxfId="1"/>
-    <tableColumn id="20" xr3:uid="{DC57F11E-36EE-4A5E-A532-3141354BF55D}" uniqueName="FileDirRef" name="Caminho" queryTableFieldId="19" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{E7DDC25C-2296-40A9-BAD0-81C2C48C4684}" uniqueName="Analista" name="Analista" queryTableFieldId="10" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{93B7A22C-91E1-4C2E-BEA5-50C965CFD30B}" uniqueName="SubClassifica_x005f_x00e7__x005f_x00e3_o" name="Sub Classificação" queryTableFieldId="15" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{5D72C413-D970-45E7-BCC7-2B63437B8C0D}" uniqueName="Motivo" name="Motivo" queryTableFieldId="11" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{4FF1521B-8EEE-4EFC-A480-2AEA4DAC3D00}" uniqueName="Data" name="Data Inicio" queryTableFieldId="2" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{A107990C-949D-4AB3-86F1-3D1DB80C9FCC}" uniqueName="CNPJ" name="CNPJ" queryTableFieldId="3" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{944B214A-0758-4F9A-82FC-A8B007948422}" uniqueName="Raz_x005f_x00e3_oSocial" name="Razão Social" queryTableFieldId="4" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{8431BF01-DD7E-4704-B036-29F91E598799}" uniqueName="Descri_x005f_x00e7__x005f_x00e3_o" name="Descrição" queryTableFieldId="5" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{EFABFAAF-7284-49BC-BE32-F42C9D760CD8}" uniqueName="FCR" name="FCR" queryTableFieldId="7" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{CA2D7351-4090-48B9-9015-33ACCFBF45A8}" uniqueName="Origemdocontato" name="Área responsável pela resolução" queryTableFieldId="8" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{E5C02F78-73DF-4927-9DB4-7228DEF361FC}" uniqueName="Origemdocontato0" name="Origem do contato" queryTableFieldId="9" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{C794052C-64D6-42DC-84AC-5036F6C81995}" uniqueName="Tipodecontato" name="Tipo de contato" queryTableFieldId="14" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{078CA1A1-C26A-4F4A-818E-A10E255AE6D8}" uniqueName="DataFim" name="Data Fim" queryTableFieldId="6" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{D5A7B54D-9165-423A-8231-536D7A0E1DCA}" uniqueName="GN" name="GN" queryTableFieldId="12" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{F07DE6D2-7974-4A1E-9FD4-08A5587CD1E0}" uniqueName="Solicitante" name="Solicitante" queryTableFieldId="13" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{AD10563F-CAAC-4F73-B02D-C38BFDC61E4A}" uniqueName="Title" name="Título" queryTableFieldId="1" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{A5F02BA5-96CE-4BA7-A4E9-FC100F3F11BD}" uniqueName="_x005f_x0024_Resources_x005f_x003a_core_x002" name="Status de liberação" queryTableFieldId="16" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{9CABEA3A-F115-4AD0-A503-39D17A36660D}" uniqueName="_ApprovalStatus" name="Status de aprovação" queryTableFieldId="17"/>
+    <tableColumn id="18" xr3:uid="{C70201C8-00A1-4E93-84FE-B84008970423}" uniqueName="N_x005f_x00fa_merodoChamado" name="Número do Chamado Automação" queryTableFieldId="18" dataDxfId="2"/>
+    <tableColumn id="19" xr3:uid="{A4FBAECB-1089-44FA-AE3A-7AD80CAC6555}" uniqueName="FSObjType" name="Tipo de Item" queryTableFieldId="20" dataDxfId="1"/>
+    <tableColumn id="20" xr3:uid="{B4BC5860-1B9E-4DD7-A3FC-4BC41F16C7AB}" uniqueName="FileDirRef" name="Caminho" queryTableFieldId="19" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2029,11 +2143,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE53FA5-4493-4874-87E6-F496A0C626E3}">
-  <dimension ref="A1:T133"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68205C8F-A5D9-446F-BDB1-F60B1DD3C6D1}">
+  <dimension ref="A1:T153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:T133"/>
+      <selection sqref="A1:T153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2047,7 +2161,7 @@
     <col min="7" max="7" width="80.7265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.54296875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="30.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.90625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.90625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="26" bestFit="1" customWidth="1"/>
@@ -7853,7 +7967,7 @@
         <v>34</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>64</v>
+        <v>291</v>
       </c>
       <c r="K105" s="1" t="s">
         <v>36</v>
@@ -7897,10 +8011,10 @@
         <v>26472037000106</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>22</v>
@@ -7918,7 +8032,7 @@
         <v>46000</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N106" s="1" t="s">
         <v>28</v>
@@ -7953,10 +8067,10 @@
         <v>26472037000109</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>22</v>
@@ -7974,7 +8088,7 @@
         <v>46000</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N107" s="1" t="s">
         <v>115</v>
@@ -8009,10 +8123,10 @@
         <v>46011435000132</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>22</v>
@@ -8065,10 +8179,10 @@
         <v>3570327000197</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>22</v>
@@ -8122,7 +8236,7 @@
       </c>
       <c r="F110" s="4"/>
       <c r="G110" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>49</v>
@@ -8174,7 +8288,7 @@
         <v>150</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>22</v>
@@ -8227,10 +8341,10 @@
         <v>7433734000103</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>49</v>
@@ -8286,7 +8400,7 @@
         <v>42</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>22</v>
@@ -8342,7 +8456,7 @@
         <v>281</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>22</v>
@@ -8398,7 +8512,7 @@
         <v>283</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>22</v>
@@ -8451,10 +8565,10 @@
         <v>29404899000190</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>22</v>
@@ -8507,10 +8621,10 @@
         <v>29404899000351</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>22</v>
@@ -8563,10 +8677,10 @@
         <v>4868412000794</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>49</v>
@@ -8622,7 +8736,7 @@
         <v>227</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>22</v>
@@ -8676,7 +8790,7 @@
       </c>
       <c r="F120" s="4"/>
       <c r="G120" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>22</v>
@@ -8728,7 +8842,7 @@
       </c>
       <c r="F121" s="4"/>
       <c r="G121" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>22</v>
@@ -8737,7 +8851,7 @@
         <v>34</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>64</v>
+        <v>291</v>
       </c>
       <c r="K121" s="1" t="s">
         <v>36</v>
@@ -8745,9 +8859,7 @@
       <c r="L121" s="2">
         <v>46000</v>
       </c>
-      <c r="M121" s="1" t="s">
-        <v>313</v>
-      </c>
+      <c r="M121" s="1"/>
       <c r="N121" s="1" t="s">
         <v>144</v>
       </c>
@@ -8798,7 +8910,9 @@
       <c r="K122" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L122" s="2"/>
+      <c r="L122" s="2">
+        <v>46002</v>
+      </c>
       <c r="M122" s="1" t="s">
         <v>53</v>
       </c>
@@ -8908,7 +9022,9 @@
       <c r="K124" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L124" s="2"/>
+      <c r="L124" s="2">
+        <v>46002</v>
+      </c>
       <c r="M124" s="1" t="s">
         <v>223</v>
       </c>
@@ -8962,7 +9078,9 @@
       <c r="K125" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L125" s="2"/>
+      <c r="L125" s="2">
+        <v>46002</v>
+      </c>
       <c r="M125" s="1" t="s">
         <v>273</v>
       </c>
@@ -9009,14 +9127,14 @@
         <v>34</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>64</v>
+        <v>291</v>
       </c>
       <c r="K126" s="1"/>
       <c r="L126" s="2">
         <v>46001</v>
       </c>
       <c r="M126" s="1" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="N126" s="1" t="s">
         <v>144</v>
@@ -9051,10 +9169,10 @@
         <v>14652825000103</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>22</v>
@@ -9107,10 +9225,10 @@
         <v>15699123000130</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>22</v>
@@ -9119,7 +9237,7 @@
         <v>34</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K128" s="1" t="s">
         <v>36</v>
@@ -9154,7 +9272,7 @@
         <v>78</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D129" s="2">
         <v>46001</v>
@@ -9163,10 +9281,10 @@
         <v>27192758000397</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>22</v>
@@ -9219,10 +9337,10 @@
         <v>37261764000140</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>22</v>
@@ -9275,10 +9393,10 @@
         <v>306597002655</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>22</v>
@@ -9331,10 +9449,10 @@
         <v>26697754000136</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>22</v>
@@ -9387,10 +9505,10 @@
         <v>35119645000203</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>22</v>
@@ -9423,6 +9541,1118 @@
         <v>32</v>
       </c>
       <c r="T133" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A134" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D134" s="2">
+        <v>45999</v>
+      </c>
+      <c r="E134" s="3">
+        <v>14060985000155</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="G134" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K134" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L134" s="2">
+        <v>45999</v>
+      </c>
+      <c r="M134" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="N134" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O134" s="4"/>
+      <c r="P134" s="4"/>
+      <c r="Q134">
+        <v>0</v>
+      </c>
+      <c r="R134" s="4"/>
+      <c r="S134" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T134" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A135" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D135" s="2">
+        <v>46002</v>
+      </c>
+      <c r="E135" s="3">
+        <v>2279387000192</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="G135" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K135" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L135" s="2">
+        <v>46002</v>
+      </c>
+      <c r="M135" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N135" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O135" s="4"/>
+      <c r="P135" s="4"/>
+      <c r="Q135">
+        <v>0</v>
+      </c>
+      <c r="R135" s="4"/>
+      <c r="S135" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T135" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A136" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D136" s="2">
+        <v>46002</v>
+      </c>
+      <c r="E136" s="3">
+        <v>4171451000142</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="G136" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K136" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L136" s="2">
+        <v>46006</v>
+      </c>
+      <c r="M136" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N136" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O136" s="4"/>
+      <c r="P136" s="4"/>
+      <c r="Q136">
+        <v>0</v>
+      </c>
+      <c r="R136" s="4"/>
+      <c r="S136" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T136" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A137" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D137" s="2">
+        <v>46002</v>
+      </c>
+      <c r="E137" s="3">
+        <v>7177658000112</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="G137" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K137" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L137" s="2">
+        <v>46006</v>
+      </c>
+      <c r="M137" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="N137" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O137" s="4"/>
+      <c r="P137" s="4"/>
+      <c r="Q137">
+        <v>0</v>
+      </c>
+      <c r="R137" s="4"/>
+      <c r="S137" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T137" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A138" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D138" s="2">
+        <v>46002</v>
+      </c>
+      <c r="E138" s="3">
+        <v>13367056000120</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="G138" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K138" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L138" s="2">
+        <v>46006</v>
+      </c>
+      <c r="M138" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="N138" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O138" s="4"/>
+      <c r="P138" s="4"/>
+      <c r="Q138">
+        <v>0</v>
+      </c>
+      <c r="R138" s="4"/>
+      <c r="S138" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T138" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A139" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D139" s="2">
+        <v>46002</v>
+      </c>
+      <c r="E139" s="3">
+        <v>45761173000160</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="G139" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K139" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L139" s="2"/>
+      <c r="M139" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="N139" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O139" s="4"/>
+      <c r="P139" s="4"/>
+      <c r="Q139">
+        <v>0</v>
+      </c>
+      <c r="R139" s="4"/>
+      <c r="S139" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T139" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A140" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D140" s="2"/>
+      <c r="E140" s="3">
+        <v>35119645000203</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="G140" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K140" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L140" s="2">
+        <v>46002</v>
+      </c>
+      <c r="M140" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="N140" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O140" s="4"/>
+      <c r="P140" s="4"/>
+      <c r="Q140">
+        <v>0</v>
+      </c>
+      <c r="R140" s="4"/>
+      <c r="S140" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T140" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A141" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D141" s="2">
+        <v>46002</v>
+      </c>
+      <c r="E141" s="3">
+        <v>76816842000420</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G141" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K141" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L141" s="2">
+        <v>46002</v>
+      </c>
+      <c r="M141" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N141" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O141" s="4"/>
+      <c r="P141" s="4"/>
+      <c r="Q141">
+        <v>0</v>
+      </c>
+      <c r="R141" s="4"/>
+      <c r="S141" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T141" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A142" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D142" s="2">
+        <v>46002</v>
+      </c>
+      <c r="E142" s="3">
+        <v>52642559000119</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="G142" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K142" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L142" s="2">
+        <v>46002</v>
+      </c>
+      <c r="M142" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="N142" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O142" s="4"/>
+      <c r="P142" s="4"/>
+      <c r="Q142">
+        <v>0</v>
+      </c>
+      <c r="R142" s="4"/>
+      <c r="S142" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T142" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A143" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D143" s="2">
+        <v>46002</v>
+      </c>
+      <c r="E143" s="3">
+        <v>5357865000123</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="G143" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K143" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L143" s="2">
+        <v>46002</v>
+      </c>
+      <c r="M143" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="N143" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O143" s="4"/>
+      <c r="P143" s="4"/>
+      <c r="Q143">
+        <v>0</v>
+      </c>
+      <c r="R143" s="4"/>
+      <c r="S143" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T143" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A144" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D144" s="2">
+        <v>46002</v>
+      </c>
+      <c r="E144" s="3">
+        <v>7405721000120</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="G144" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K144" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L144" s="2">
+        <v>46002</v>
+      </c>
+      <c r="M144" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="N144" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O144" s="4"/>
+      <c r="P144" s="4"/>
+      <c r="Q144">
+        <v>0</v>
+      </c>
+      <c r="R144" s="4"/>
+      <c r="S144" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T144" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" ht="58" x14ac:dyDescent="0.35">
+      <c r="A145" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D145" s="2">
+        <v>46002</v>
+      </c>
+      <c r="E145" s="3">
+        <v>4868412000794</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="G145" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K145" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L145" s="2">
+        <v>46002</v>
+      </c>
+      <c r="M145" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="N145" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O145" s="4"/>
+      <c r="P145" s="4"/>
+      <c r="Q145">
+        <v>0</v>
+      </c>
+      <c r="R145" s="4"/>
+      <c r="S145" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T145" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A146" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D146" s="2">
+        <v>46002</v>
+      </c>
+      <c r="E146" s="3">
+        <v>5011016000113</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="G146" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K146" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L146" s="2">
+        <v>46002</v>
+      </c>
+      <c r="M146" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N146" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O146" s="4"/>
+      <c r="P146" s="4"/>
+      <c r="Q146">
+        <v>0</v>
+      </c>
+      <c r="R146" s="4"/>
+      <c r="S146" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T146" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A147" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D147" s="2">
+        <v>46002</v>
+      </c>
+      <c r="E147" s="3">
+        <v>577065000102</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G147" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K147" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L147" s="2"/>
+      <c r="M147" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N147" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O147" s="4"/>
+      <c r="P147" s="4"/>
+      <c r="Q147">
+        <v>0</v>
+      </c>
+      <c r="R147" s="4"/>
+      <c r="S147" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T147" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A148" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D148" s="2">
+        <v>46002</v>
+      </c>
+      <c r="E148" s="3">
+        <v>51556055000113</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="G148" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K148" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L148" s="2"/>
+      <c r="M148" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N148" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O148" s="4"/>
+      <c r="P148" s="4"/>
+      <c r="Q148">
+        <v>0</v>
+      </c>
+      <c r="R148" s="4"/>
+      <c r="S148" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T148" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A149" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D149" s="2">
+        <v>46002</v>
+      </c>
+      <c r="E149" s="3">
+        <v>20415295001901</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="G149" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K149" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L149" s="2">
+        <v>46002</v>
+      </c>
+      <c r="M149" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="N149" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O149" s="4"/>
+      <c r="P149" s="4"/>
+      <c r="Q149">
+        <v>0</v>
+      </c>
+      <c r="R149" s="4"/>
+      <c r="S149" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T149" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A150" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D150" s="2">
+        <v>46002</v>
+      </c>
+      <c r="E150" s="3">
+        <v>57832654000107</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="G150" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K150" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L150" s="2">
+        <v>46002</v>
+      </c>
+      <c r="M150" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="N150" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O150" s="4"/>
+      <c r="P150" s="4"/>
+      <c r="Q150">
+        <v>0</v>
+      </c>
+      <c r="R150" s="4"/>
+      <c r="S150" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T150" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A151" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D151" s="2">
+        <v>45999</v>
+      </c>
+      <c r="E151" s="3">
+        <v>48227957000100</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="G151" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K151" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L151" s="2">
+        <v>46001</v>
+      </c>
+      <c r="M151" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N151" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O151" s="4"/>
+      <c r="P151" s="4"/>
+      <c r="Q151">
+        <v>0</v>
+      </c>
+      <c r="R151" s="4"/>
+      <c r="S151" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T151" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A152" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D152" s="2">
+        <v>46002</v>
+      </c>
+      <c r="E152" s="3">
+        <v>306597008696</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="G152" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J152" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K152" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L152" s="2"/>
+      <c r="M152" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N152" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O152" s="4"/>
+      <c r="P152" s="4"/>
+      <c r="Q152">
+        <v>0</v>
+      </c>
+      <c r="R152" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="S152" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T152" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" ht="58" x14ac:dyDescent="0.35">
+      <c r="A153" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D153" s="2">
+        <v>46002</v>
+      </c>
+      <c r="E153" s="3">
+        <v>87687489000108</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="G153" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K153" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L153" s="2">
+        <v>46002</v>
+      </c>
+      <c r="M153" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="N153" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="O153" s="4"/>
+      <c r="P153" s="4"/>
+      <c r="Q153">
+        <v>0</v>
+      </c>
+      <c r="R153" s="4"/>
+      <c r="S153" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T153" s="4" t="s">
         <v>31</v>
       </c>
     </row>

--- a/base_hub_github.xlsx
+++ b/base_hub_github.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupoultracloud-my.sharepoint.com/personal/thiago_junior_ipiranga_ipiranga/Documents/Área de Trabalho/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiago.junior\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1411FB69-2F99-4D54-AF72-D4A35E7FF31D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C171779F-D6A7-497C-80AD-34445D34B6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0CEAAE7A-2800-490D-950E-FB3315112E55}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{51F56C51-F5F5-433B-8A46-DC2AF90011F9}"/>
   </bookViews>
   <sheets>
-    <sheet name="query (33)" sheetId="1" r:id="rId1"/>
+    <sheet name="base" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="query__33" localSheetId="0" hidden="1">'query (33)'!$A$1:$T$158</definedName>
+    <definedName name="query__34" localSheetId="0" hidden="1">base!$A$1:$T$164</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -24,14 +24,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{45954425-21A0-4E83-911F-7F4C7706F77B}" odcFile="C:\Users\thiago.junior\Downloads\query (33).iqy" keepAlive="1" name="query (33)" type="5" refreshedVersion="8" minRefreshableVersion="3" saveData="1">
+  <connection id="1" xr16:uid="{D222542C-71DF-49A3-A3DB-84C252527598}" odcFile="C:\Users\thiago.junior\Downloads\query (34).iqy" keepAlive="1" name="query (34)" type="5" refreshedVersion="8" minRefreshableVersion="3" saveData="1">
     <dbPr connection="Provider=Microsoft.Office.List.OLEDB.2.0;Data Source=&quot;&quot;;ApplicationName=Excel;Version=12.0.0.0" command="&lt;LIST&gt;&lt;VIEWGUID&gt;A45175CA-9778-441D-B066-D8555F7DBBE4&lt;/VIEWGUID&gt;&lt;LISTNAME&gt;06be0e4e-018b-4cef-a562-4db2a9a684e1&lt;/LISTNAME&gt;&lt;LISTWEB&gt;https://grupoultracloud-my.sharepoint.com/personal/roberta_rocha_ipiranga_ipiranga/_vti_bin&lt;/LISTWEB&gt;&lt;LISTSUBWEB&gt;&lt;/LISTSUBWEB&gt;&lt;ROOTFOLDER&gt;&lt;/ROOTFOLDER&gt;&lt;/LIST&gt;" commandType="5"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2045" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2123" uniqueCount="382">
   <si>
     <t>Título</t>
   </si>
@@ -1145,6 +1145,42 @@
   </si>
   <si>
     <t>04894915</t>
+  </si>
+  <si>
+    <t>Mendes Combustiveis Ltda</t>
+  </si>
+  <si>
+    <t>GRUPO MENDES CATATAU - Já possui maquina da REDE em outros postos, porém não consegue fazer a solicitação das maquinas no Mendes Combustiveis Ltda - 3125831000501.</t>
+  </si>
+  <si>
+    <t>MD Auto posto</t>
+  </si>
+  <si>
+    <t>Joyce revendedora solicita o retorno do CT sobre pedido de cancelamento do PPI</t>
+  </si>
+  <si>
+    <t>J A Aires Comercial De Combusti Ltda</t>
+  </si>
+  <si>
+    <t>A Revendedora Marilu entrou em contato, pois seus clientes não estavam conseguindo favoritar o posto no app KMV. Caso resolvido!</t>
+  </si>
+  <si>
+    <t>Auto Posto Rio Cervo Ltda</t>
+  </si>
+  <si>
+    <t>Cliente relata que um dos seus clientes não consegue fazer transações com o App, não passou informações do cleinte, as informei o que pode ser e o numero da central</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sander Comercio De Combustiveis Ltda</t>
+  </si>
+  <si>
+    <t>Reunião por chamada de vídeo (Teams) com o revendedor Luan, a fim de esclarecer dúvidas sobre acúmulos e o programa Ipiranga Top.</t>
+  </si>
+  <si>
+    <t>Afgm Com Derivados De Petroleo Ltda</t>
+  </si>
+  <si>
+    <t>Afgm Com Derivados De Petroleo Ltda - 45431429000171| Solicitação de treinamento a pedido do CN marconio (Contato; Daniela Telefone: 31-99324-0071)</t>
   </si>
 </sst>
 </file>
@@ -1760,7 +1796,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="query (33)" backgroundRefresh="0" connectionId="1" xr16:uid="{E50592E6-9CD1-480D-852B-0401505E3F67}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="query (34)" backgroundRefresh="0" connectionId="1" xr16:uid="{903A9890-D6E8-4D37-A91B-FC35EEAEA41E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="21">
     <queryTableFields count="20">
       <queryTableField id="10" name="Analista" tableColumnId="1"/>
@@ -1789,29 +1825,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E380A236-79A9-4546-9F2F-28B583FE9619}" name="Tabela_query__33" displayName="Tabela_query__33" ref="A1:T158" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:T158" xr:uid="{E380A236-79A9-4546-9F2F-28B583FE9619}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C39F9CB4-1030-4BAB-92C9-5621BB81318D}" name="Tabela_query__34" displayName="Tabela_query__34" ref="A1:T164" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:T164" xr:uid="{C39F9CB4-1030-4BAB-92C9-5621BB81318D}"/>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{A4250A8E-C8ED-4DF5-AF17-F540D4A7BC4B}" uniqueName="Analista" name="Analista" queryTableFieldId="10" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{AF7E25B7-E0EB-42A4-BA7B-B6A6F9D6D4AB}" uniqueName="SubClassifica_x005f_x00e7__x005f_x00e3_o" name="Sub Classificação" queryTableFieldId="15" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{860377A1-3AA5-4FE1-989A-327DA6C0A1C7}" uniqueName="Motivo" name="Motivo" queryTableFieldId="11" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{1100EE87-2AEA-424A-AE9C-5D717EF02736}" uniqueName="CNPJ" name="CNPJ" queryTableFieldId="3" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{746EBBA6-6880-4AAA-BFA4-C13A38573732}" uniqueName="Raz_x005f_x00e3_oSocial" name="Razão Social" queryTableFieldId="4" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{FD401D8D-0F8B-42C9-8C29-3A00CC6ACDE4}" uniqueName="Descri_x005f_x00e7__x005f_x00e3_o" name="Descrição" queryTableFieldId="5" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{BE2C600E-E060-4632-A669-BC1356C39DB8}" uniqueName="FCR" name="FCR" queryTableFieldId="7" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{27E1E663-7443-478F-8EC1-05DFB30549F1}" uniqueName="Origemdocontato" name="Área responsável pela resolução" queryTableFieldId="8" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{6ADF85F2-B91A-4F7E-BF9F-6A3ADDAEA332}" uniqueName="Origemdocontato0" name="Origem do contato" queryTableFieldId="9" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{19805E96-94CA-49CA-BFC7-ADF256BFDEB8}" uniqueName="Tipodecontato" name="Tipo de contato" queryTableFieldId="14" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{6BFB79D2-181F-4FE3-B68D-93C6129E3D17}" uniqueName="Data" name="Data Inicio" queryTableFieldId="2" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{7EF0D793-A907-4725-89DD-C59B0CFCB5CF}" uniqueName="DataFim" name="Data Fim" queryTableFieldId="6" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{4DC028F3-D67B-4BF4-837D-B8B18B6FB377}" uniqueName="GN" name="GN" queryTableFieldId="12" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{0968920A-EE98-495C-83FD-0D51BECD0C68}" uniqueName="Solicitante" name="Solicitante" queryTableFieldId="13" dataDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{D7F19676-DE7F-4718-A904-B33B25D131C3}" uniqueName="Title" name="Título" queryTableFieldId="1" dataDxfId="4"/>
-    <tableColumn id="16" xr3:uid="{BDA0C253-E38C-4469-9001-E0F3B0FD7C8B}" uniqueName="_x005f_x0024_Resources_x005f_x003a_core_x002" name="Status de liberação" queryTableFieldId="16" dataDxfId="3"/>
-    <tableColumn id="17" xr3:uid="{AD511146-B2E6-4FF3-B81D-385BCDF310F0}" uniqueName="_ApprovalStatus" name="Status de aprovação" queryTableFieldId="17"/>
-    <tableColumn id="18" xr3:uid="{24ABF6E2-131C-433C-B843-ADCB35803B2A}" uniqueName="N_x005f_x00fa_merodoChamado" name="Número do Chamado Automação" queryTableFieldId="18" dataDxfId="2"/>
-    <tableColumn id="19" xr3:uid="{40FA6070-7217-4BC0-8AFC-FB01E84E964F}" uniqueName="FSObjType" name="Tipo de Item" queryTableFieldId="20" dataDxfId="1"/>
-    <tableColumn id="20" xr3:uid="{199502E5-265B-41FB-8F58-B0D71EECFCBC}" uniqueName="FileDirRef" name="Caminho" queryTableFieldId="19" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{F195C836-169B-40E9-8CD8-FDB87A41E1FB}" uniqueName="Analista" name="Analista" queryTableFieldId="10" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{707BFC48-A864-450D-A65B-685FC8DB2CF8}" uniqueName="SubClassifica_x005f_x00e7__x005f_x00e3_o" name="Sub Classificação" queryTableFieldId="15" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{58159947-241A-4A90-B198-D8806110339F}" uniqueName="Motivo" name="Motivo" queryTableFieldId="11" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{24DC5B91-6EDC-484F-99C7-A183499F11B5}" uniqueName="CNPJ" name="CNPJ" queryTableFieldId="3" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{A74BA7CF-CB9A-4FB1-B88A-BEA9256C0503}" uniqueName="Raz_x005f_x00e3_oSocial" name="Razão Social" queryTableFieldId="4" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{AD51F4D1-3B12-4617-BA2C-C95D27497D15}" uniqueName="Descri_x005f_x00e7__x005f_x00e3_o" name="Descrição" queryTableFieldId="5" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{4546ED66-5ECF-49C4-989C-4F959C4023F3}" uniqueName="FCR" name="FCR" queryTableFieldId="7" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{76BCBF46-BAFA-43B8-8B42-DC51078168F2}" uniqueName="Origemdocontato" name="Área responsável pela resolução" queryTableFieldId="8" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{CF1D60E6-40BF-4406-AB41-3673DA03537C}" uniqueName="Origemdocontato0" name="Origem do contato" queryTableFieldId="9" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{D7FE87E6-A55F-40DF-8517-D3ED626C6F79}" uniqueName="Tipodecontato" name="Tipo de contato" queryTableFieldId="14" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{727EE1D4-800B-41C7-9B5E-18BD4201F4E1}" uniqueName="Data" name="Data Inicio" queryTableFieldId="2" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{9BABC62B-2452-4D28-9BFC-FE716D54FAF8}" uniqueName="DataFim" name="Data Fim" queryTableFieldId="6" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{1CD293D1-1B0E-401E-B112-0AAF09E50F91}" uniqueName="GN" name="GN" queryTableFieldId="12" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{A4B96B1D-0DDE-45B7-A8AF-65E6CA29DDD9}" uniqueName="Solicitante" name="Solicitante" queryTableFieldId="13" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{A99C2086-A87F-42C9-8450-A49BA2DAC78C}" uniqueName="Title" name="Título" queryTableFieldId="1" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{2DC3864F-C708-4EB8-9E5F-E398CDBBD5B8}" uniqueName="_x005f_x0024_Resources_x005f_x003a_core_x002" name="Status de liberação" queryTableFieldId="16" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{E73F435A-6472-4908-A761-CA1B0A72F448}" uniqueName="_ApprovalStatus" name="Status de aprovação" queryTableFieldId="17"/>
+    <tableColumn id="18" xr3:uid="{1E978CCF-4B99-4E75-88A5-E1D450CA9E03}" uniqueName="N_x005f_x00fa_merodoChamado" name="Número do Chamado Automação" queryTableFieldId="18" dataDxfId="2"/>
+    <tableColumn id="19" xr3:uid="{8B5C6DD3-A599-45FD-B34E-F8D81D38E22B}" uniqueName="FSObjType" name="Tipo de Item" queryTableFieldId="20" dataDxfId="1"/>
+    <tableColumn id="20" xr3:uid="{6B7486DC-A507-40A2-8A2A-7A1C2361C9FE}" uniqueName="FileDirRef" name="Caminho" queryTableFieldId="19" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2133,11 +2169,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62AD7399-E1DE-4CDD-BE29-DC4EE0C98E4C}">
-  <dimension ref="A1:T158"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E1D27FA-E91E-47E9-B29B-8657D7F1FC70}">
+  <dimension ref="A1:T164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:T158"/>
+      <selection sqref="A1:T164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4830,7 +4866,9 @@
       <c r="K48" s="5">
         <v>45995</v>
       </c>
-      <c r="L48" s="5"/>
+      <c r="L48" s="5">
+        <v>46006</v>
+      </c>
       <c r="M48" s="1" t="s">
         <v>170</v>
       </c>
@@ -5050,7 +5088,9 @@
       <c r="K52" s="5">
         <v>45996</v>
       </c>
-      <c r="L52" s="5"/>
+      <c r="L52" s="5">
+        <v>46003</v>
+      </c>
       <c r="M52" s="1" t="s">
         <v>156</v>
       </c>
@@ -10955,6 +10995,338 @@
         <v>32</v>
       </c>
       <c r="T158" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A159" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D159" s="2">
+        <v>3125831000501</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J159" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K159" s="5">
+        <v>45988</v>
+      </c>
+      <c r="L159" s="5"/>
+      <c r="M159" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="N159" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O159" s="3"/>
+      <c r="P159" s="3"/>
+      <c r="Q159">
+        <v>0</v>
+      </c>
+      <c r="R159" s="3"/>
+      <c r="S159" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T159" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A160" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D160" s="2">
+        <v>48346249000180</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J160" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K160" s="5">
+        <v>46006</v>
+      </c>
+      <c r="L160" s="5">
+        <v>46006</v>
+      </c>
+      <c r="M160" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N160" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O160" s="3"/>
+      <c r="P160" s="3"/>
+      <c r="Q160">
+        <v>0</v>
+      </c>
+      <c r="R160" s="3"/>
+      <c r="S160" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T160" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="161" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A161" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D161" s="2">
+        <v>32249473000113</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J161" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K161" s="5">
+        <v>46006</v>
+      </c>
+      <c r="L161" s="5">
+        <v>46006</v>
+      </c>
+      <c r="M161" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N161" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O161" s="3"/>
+      <c r="P161" s="3"/>
+      <c r="Q161">
+        <v>0</v>
+      </c>
+      <c r="R161" s="3"/>
+      <c r="S161" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T161" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="162" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A162" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D162" s="2">
+        <v>12090263000118</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="F162" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J162" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K162" s="5">
+        <v>46006</v>
+      </c>
+      <c r="L162" s="5">
+        <v>46006</v>
+      </c>
+      <c r="M162" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="N162" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O162" s="3"/>
+      <c r="P162" s="3"/>
+      <c r="Q162">
+        <v>0</v>
+      </c>
+      <c r="R162" s="3"/>
+      <c r="S162" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T162" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="163" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A163" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D163" s="2">
+        <v>91411256004800</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="F163" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J163" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K163" s="5">
+        <v>46006</v>
+      </c>
+      <c r="L163" s="5">
+        <v>46006</v>
+      </c>
+      <c r="M163" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="N163" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O163" s="3"/>
+      <c r="P163" s="3"/>
+      <c r="Q163">
+        <v>0</v>
+      </c>
+      <c r="R163" s="3"/>
+      <c r="S163" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T163" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="164" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A164" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D164" s="2">
+        <v>45431429000171</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="F164" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J164" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K164" s="5">
+        <v>46006</v>
+      </c>
+      <c r="L164" s="5"/>
+      <c r="M164" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N164" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O164" s="3"/>
+      <c r="P164" s="3"/>
+      <c r="Q164">
+        <v>0</v>
+      </c>
+      <c r="R164" s="3"/>
+      <c r="S164" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T164" s="3" t="s">
         <v>31</v>
       </c>
     </row>

--- a/base_hub_github.xlsx
+++ b/base_hub_github.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiago.junior\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupoultracloud-my.sharepoint.com/personal/thiago_junior_ipiranga_ipiranga/Documents/Área de Trabalho/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C171779F-D6A7-497C-80AD-34445D34B6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{1411FB69-2F99-4D54-AF72-D4A35E7FF31D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49D05E9C-06E1-4B46-A562-6263AD795D34}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{51F56C51-F5F5-433B-8A46-DC2AF90011F9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0CEAAE7A-2800-490D-950E-FB3315112E55}"/>
   </bookViews>
   <sheets>
-    <sheet name="base" sheetId="1" r:id="rId1"/>
+    <sheet name="query" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="query__34" localSheetId="0" hidden="1">base!$A$1:$T$164</definedName>
+    <definedName name="query__36" localSheetId="0" hidden="1">query!$A$1:$T$164</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -24,7 +24,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{D222542C-71DF-49A3-A3DB-84C252527598}" odcFile="C:\Users\thiago.junior\Downloads\query (34).iqy" keepAlive="1" name="query (34)" type="5" refreshedVersion="8" minRefreshableVersion="3" saveData="1">
+  <connection id="1" xr16:uid="{9E3E9D3C-D4CF-4EF1-BD75-151A7FC9AB34}" odcFile="C:\Users\thiago.junior\Downloads\query (36).iqy" keepAlive="1" name="query (36)" type="5" refreshedVersion="8" minRefreshableVersion="3" saveData="1">
     <dbPr connection="Provider=Microsoft.Office.List.OLEDB.2.0;Data Source=&quot;&quot;;ApplicationName=Excel;Version=12.0.0.0" command="&lt;LIST&gt;&lt;VIEWGUID&gt;A45175CA-9778-441D-B066-D8555F7DBBE4&lt;/VIEWGUID&gt;&lt;LISTNAME&gt;06be0e4e-018b-4cef-a562-4db2a9a684e1&lt;/LISTNAME&gt;&lt;LISTWEB&gt;https://grupoultracloud-my.sharepoint.com/personal/roberta_rocha_ipiranga_ipiranga/_vti_bin&lt;/LISTWEB&gt;&lt;LISTSUBWEB&gt;&lt;/LISTSUBWEB&gt;&lt;ROOTFOLDER&gt;&lt;/ROOTFOLDER&gt;&lt;/LIST&gt;" commandType="5"/>
   </connection>
 </connections>
@@ -1664,11 +1664,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1796,7 +1794,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="query (34)" backgroundRefresh="0" connectionId="1" xr16:uid="{903A9890-D6E8-4D37-A91B-FC35EEAEA41E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="query (36)" backgroundRefresh="0" connectionId="1" xr16:uid="{64F81834-920E-48FB-8B92-D8872F20E145}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="21">
     <queryTableFields count="20">
       <queryTableField id="10" name="Analista" tableColumnId="1"/>
@@ -1825,29 +1823,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C39F9CB4-1030-4BAB-92C9-5621BB81318D}" name="Tabela_query__34" displayName="Tabela_query__34" ref="A1:T164" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:T164" xr:uid="{C39F9CB4-1030-4BAB-92C9-5621BB81318D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5D8231BD-A1D7-4EB3-AAD4-7F4EB60CA8EB}" name="Tabela_query__36" displayName="Tabela_query__36" ref="A1:T164" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:T164" xr:uid="{5D8231BD-A1D7-4EB3-AAD4-7F4EB60CA8EB}"/>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{F195C836-169B-40E9-8CD8-FDB87A41E1FB}" uniqueName="Analista" name="Analista" queryTableFieldId="10" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{707BFC48-A864-450D-A65B-685FC8DB2CF8}" uniqueName="SubClassifica_x005f_x00e7__x005f_x00e3_o" name="Sub Classificação" queryTableFieldId="15" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{58159947-241A-4A90-B198-D8806110339F}" uniqueName="Motivo" name="Motivo" queryTableFieldId="11" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{24DC5B91-6EDC-484F-99C7-A183499F11B5}" uniqueName="CNPJ" name="CNPJ" queryTableFieldId="3" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{A74BA7CF-CB9A-4FB1-B88A-BEA9256C0503}" uniqueName="Raz_x005f_x00e3_oSocial" name="Razão Social" queryTableFieldId="4" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{AD51F4D1-3B12-4617-BA2C-C95D27497D15}" uniqueName="Descri_x005f_x00e7__x005f_x00e3_o" name="Descrição" queryTableFieldId="5" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{4546ED66-5ECF-49C4-989C-4F959C4023F3}" uniqueName="FCR" name="FCR" queryTableFieldId="7" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{76BCBF46-BAFA-43B8-8B42-DC51078168F2}" uniqueName="Origemdocontato" name="Área responsável pela resolução" queryTableFieldId="8" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{CF1D60E6-40BF-4406-AB41-3673DA03537C}" uniqueName="Origemdocontato0" name="Origem do contato" queryTableFieldId="9" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{D7FE87E6-A55F-40DF-8517-D3ED626C6F79}" uniqueName="Tipodecontato" name="Tipo de contato" queryTableFieldId="14" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{727EE1D4-800B-41C7-9B5E-18BD4201F4E1}" uniqueName="Data" name="Data Inicio" queryTableFieldId="2" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{9BABC62B-2452-4D28-9BFC-FE716D54FAF8}" uniqueName="DataFim" name="Data Fim" queryTableFieldId="6" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{1CD293D1-1B0E-401E-B112-0AAF09E50F91}" uniqueName="GN" name="GN" queryTableFieldId="12" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{A4B96B1D-0DDE-45B7-A8AF-65E6CA29DDD9}" uniqueName="Solicitante" name="Solicitante" queryTableFieldId="13" dataDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{A99C2086-A87F-42C9-8450-A49BA2DAC78C}" uniqueName="Title" name="Título" queryTableFieldId="1" dataDxfId="4"/>
-    <tableColumn id="16" xr3:uid="{2DC3864F-C708-4EB8-9E5F-E398CDBBD5B8}" uniqueName="_x005f_x0024_Resources_x005f_x003a_core_x002" name="Status de liberação" queryTableFieldId="16" dataDxfId="3"/>
-    <tableColumn id="17" xr3:uid="{E73F435A-6472-4908-A761-CA1B0A72F448}" uniqueName="_ApprovalStatus" name="Status de aprovação" queryTableFieldId="17"/>
-    <tableColumn id="18" xr3:uid="{1E978CCF-4B99-4E75-88A5-E1D450CA9E03}" uniqueName="N_x005f_x00fa_merodoChamado" name="Número do Chamado Automação" queryTableFieldId="18" dataDxfId="2"/>
-    <tableColumn id="19" xr3:uid="{8B5C6DD3-A599-45FD-B34E-F8D81D38E22B}" uniqueName="FSObjType" name="Tipo de Item" queryTableFieldId="20" dataDxfId="1"/>
-    <tableColumn id="20" xr3:uid="{6B7486DC-A507-40A2-8A2A-7A1C2361C9FE}" uniqueName="FileDirRef" name="Caminho" queryTableFieldId="19" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{572E3E05-DA7D-4023-91C1-3B7AD22C8406}" uniqueName="Analista" name="Analista" queryTableFieldId="10" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{53CE58A1-12E5-4EC2-A836-11482C865C82}" uniqueName="SubClassifica_x005f_x00e7__x005f_x00e3_o" name="Sub Classificação" queryTableFieldId="15" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{84A23010-BFF8-4A7C-BD48-BD0C334190AE}" uniqueName="Motivo" name="Motivo" queryTableFieldId="11" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{9E322C1E-97F8-4524-BCF1-E44A18E9D493}" uniqueName="CNPJ" name="CNPJ" queryTableFieldId="3" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{AE8CCF6E-787D-4095-A6C3-E41E9D4ADC92}" uniqueName="Raz_x005f_x00e3_oSocial" name="Razão Social" queryTableFieldId="4" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{18115D13-239E-48BE-9297-F72FC3D3D98D}" uniqueName="Descri_x005f_x00e7__x005f_x00e3_o" name="Descrição" queryTableFieldId="5" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{06E88175-A6D5-4F5F-A7DA-5EBFB41AC6CE}" uniqueName="FCR" name="FCR" queryTableFieldId="7" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{49E3894C-BCB2-49A3-A2C0-36E9767716BC}" uniqueName="Origemdocontato" name="Área responsável pela resolução" queryTableFieldId="8" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{4EF1F494-2CE0-45CA-8DA3-3D5C3080262D}" uniqueName="Origemdocontato0" name="Origem do contato" queryTableFieldId="9" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{9649A11C-DCEB-45EE-90D2-9AC22768BA8F}" uniqueName="Tipodecontato" name="Tipo de contato" queryTableFieldId="14" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{3E3169DA-9FFD-4BDB-B2F2-E51B9977FB40}" uniqueName="Data" name="Data Inicio" queryTableFieldId="2" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{7CC37DAA-CDA8-4F67-9A88-4C02F318DC8D}" uniqueName="DataFim" name="Data Fim" queryTableFieldId="6" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{661BD227-389D-4E14-A02E-ACE7C6DF46D6}" uniqueName="GN" name="GN" queryTableFieldId="12" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{E13C0D2A-159F-497B-BF48-1888AFA47B47}" uniqueName="Solicitante" name="Solicitante" queryTableFieldId="13" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{3CC5DFB6-4CC2-4661-B120-94EB7500A375}" uniqueName="Title" name="Título" queryTableFieldId="1" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{D66BACCC-20D4-4212-960B-13EF60F614E6}" uniqueName="_x005f_x0024_Resources_x005f_x003a_core_x002" name="Status de liberação" queryTableFieldId="16" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{795C48D3-A874-4D7C-8816-338EBB109318}" uniqueName="_ApprovalStatus" name="Status de aprovação" queryTableFieldId="17"/>
+    <tableColumn id="18" xr3:uid="{C2EB5717-30A5-4193-A80B-A794E13C9FF5}" uniqueName="N_x005f_x00fa_merodoChamado" name="Número do Chamado Automação" queryTableFieldId="18" dataDxfId="2"/>
+    <tableColumn id="19" xr3:uid="{F4132534-E458-4236-8DEE-6AFEF2EED2EC}" uniqueName="FSObjType" name="Tipo de Item" queryTableFieldId="20" dataDxfId="1"/>
+    <tableColumn id="20" xr3:uid="{D25F44A7-A469-40DA-AA87-B8C38B716971}" uniqueName="FileDirRef" name="Caminho" queryTableFieldId="19" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2169,11 +2167,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E1D27FA-E91E-47E9-B29B-8657D7F1FC70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62AD7399-E1DE-4CDD-BE29-DC4EE0C98E4C}">
   <dimension ref="A1:T164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:T164"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="A164" sqref="A164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2272,13 +2270,13 @@
       <c r="C2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <v>4785105000154</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -2293,10 +2291,10 @@
       <c r="J2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="3">
         <v>45995</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="3">
         <v>45995</v>
       </c>
       <c r="M2" s="1" t="s">
@@ -2305,16 +2303,16 @@
       <c r="N2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
       <c r="Q2">
         <v>0</v>
       </c>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T2" s="3" t="s">
+      <c r="R2" s="1"/>
+      <c r="S2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2328,13 +2326,13 @@
       <c r="C3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3">
         <v>46872263000191</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -2349,10 +2347,10 @@
       <c r="J3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="3">
         <v>45992</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="3">
         <v>45996</v>
       </c>
       <c r="M3" s="1" t="s">
@@ -2361,16 +2359,16 @@
       <c r="N3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
       <c r="Q3">
         <v>0</v>
       </c>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T3" s="3" t="s">
+      <c r="R3" s="1"/>
+      <c r="S3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2384,13 +2382,13 @@
       <c r="C4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4">
         <v>38074571000143</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -2405,10 +2403,10 @@
       <c r="J4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="3">
         <v>45992</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="3">
         <v>45992</v>
       </c>
       <c r="M4" s="1" t="s">
@@ -2417,16 +2415,16 @@
       <c r="N4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
       <c r="Q4">
         <v>0</v>
       </c>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T4" s="3" t="s">
+      <c r="R4" s="1"/>
+      <c r="S4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T4" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2440,13 +2438,13 @@
       <c r="C5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5">
         <v>10317892000102</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="2" t="s">
         <v>47</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -2461,10 +2459,10 @@
       <c r="J5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="3">
         <v>45992</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="3">
         <v>45992</v>
       </c>
       <c r="M5" s="1" t="s">
@@ -2473,16 +2471,16 @@
       <c r="N5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
       <c r="Q5">
         <v>0</v>
       </c>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T5" s="3" t="s">
+      <c r="R5" s="1"/>
+      <c r="S5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2496,13 +2494,13 @@
       <c r="C6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6">
         <v>2144883000139</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="2" t="s">
         <v>51</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -2517,10 +2515,10 @@
       <c r="J6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="3">
         <v>45992</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="3">
         <v>45992</v>
       </c>
       <c r="M6" s="1" t="s">
@@ -2529,16 +2527,16 @@
       <c r="N6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
       <c r="Q6">
         <v>0</v>
       </c>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T6" s="3" t="s">
+      <c r="R6" s="1"/>
+      <c r="S6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T6" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2552,13 +2550,13 @@
       <c r="C7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7">
         <v>48346249000180</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="2" t="s">
         <v>56</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -2573,10 +2571,10 @@
       <c r="J7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="3">
         <v>45992</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="3">
         <v>45992</v>
       </c>
       <c r="M7" s="1" t="s">
@@ -2585,16 +2583,16 @@
       <c r="N7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
       <c r="Q7">
         <v>0</v>
       </c>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T7" s="3" t="s">
+      <c r="R7" s="1"/>
+      <c r="S7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T7" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2608,13 +2606,13 @@
       <c r="C8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8">
         <v>48346249000180</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="2" t="s">
         <v>59</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -2629,10 +2627,10 @@
       <c r="J8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="3">
         <v>45992</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="3">
         <v>45992</v>
       </c>
       <c r="M8" s="1" t="s">
@@ -2641,16 +2639,16 @@
       <c r="N8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
       <c r="Q8">
         <v>0</v>
       </c>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T8" s="3" t="s">
+      <c r="R8" s="1"/>
+      <c r="S8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T8" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2664,13 +2662,13 @@
       <c r="C9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9">
         <v>689380000113</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="2" t="s">
         <v>62</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -2685,10 +2683,10 @@
       <c r="J9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="3">
         <v>45992</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="3">
         <v>45979</v>
       </c>
       <c r="M9" s="1" t="s">
@@ -2697,16 +2695,16 @@
       <c r="N9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
       <c r="Q9">
         <v>0</v>
       </c>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T9" s="3" t="s">
+      <c r="R9" s="1"/>
+      <c r="S9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T9" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2720,13 +2718,13 @@
       <c r="C10" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10">
         <v>32044415000153</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -2741,10 +2739,10 @@
       <c r="J10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="3">
         <v>45992</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="3">
         <v>45992</v>
       </c>
       <c r="M10" s="1" t="s">
@@ -2753,16 +2751,16 @@
       <c r="N10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
       <c r="Q10">
         <v>0</v>
       </c>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T10" s="3" t="s">
+      <c r="R10" s="1"/>
+      <c r="S10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T10" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2776,13 +2774,13 @@
       <c r="C11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11">
         <v>2551867000160</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="2" t="s">
         <v>67</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -2797,10 +2795,10 @@
       <c r="J11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="3">
         <v>45992</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="3">
         <v>45992</v>
       </c>
       <c r="M11" s="1" t="s">
@@ -2809,16 +2807,16 @@
       <c r="N11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
       <c r="Q11">
         <v>0</v>
       </c>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T11" s="3" t="s">
+      <c r="R11" s="1"/>
+      <c r="S11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T11" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2832,13 +2830,13 @@
       <c r="C12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12">
         <v>36180754000118</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="2" t="s">
         <v>69</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -2853,10 +2851,10 @@
       <c r="J12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="3">
         <v>45992</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="3">
         <v>45992</v>
       </c>
       <c r="M12" s="1" t="s">
@@ -2865,16 +2863,16 @@
       <c r="N12" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
       <c r="Q12">
         <v>0</v>
       </c>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T12" s="3" t="s">
+      <c r="R12" s="1"/>
+      <c r="S12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T12" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2888,13 +2886,13 @@
       <c r="C13" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13">
         <v>2754502000133</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -2909,10 +2907,10 @@
       <c r="J13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="3">
         <v>45992</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="3">
         <v>45992</v>
       </c>
       <c r="M13" s="1" t="s">
@@ -2921,16 +2919,16 @@
       <c r="N13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
       <c r="Q13">
         <v>0</v>
       </c>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T13" s="3" t="s">
+      <c r="R13" s="1"/>
+      <c r="S13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T13" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2944,13 +2942,13 @@
       <c r="C14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14">
         <v>10522077000770</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="2" t="s">
         <v>77</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -2965,10 +2963,10 @@
       <c r="J14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="3">
         <v>45993</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="3">
         <v>45993</v>
       </c>
       <c r="M14" s="1" t="s">
@@ -2977,16 +2975,16 @@
       <c r="N14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
       <c r="Q14">
         <v>0</v>
       </c>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T14" s="3" t="s">
+      <c r="R14" s="1"/>
+      <c r="S14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T14" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3000,13 +2998,13 @@
       <c r="C15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15">
         <v>3156892000102</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="2" t="s">
         <v>77</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -3021,10 +3019,10 @@
       <c r="J15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="3">
         <v>45993</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="3">
         <v>45993</v>
       </c>
       <c r="M15" s="1" t="s">
@@ -3033,16 +3031,16 @@
       <c r="N15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
       <c r="Q15">
         <v>0</v>
       </c>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T15" s="3" t="s">
+      <c r="R15" s="1"/>
+      <c r="S15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T15" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3056,13 +3054,13 @@
       <c r="C16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16">
         <v>10592852000179</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="2" t="s">
         <v>77</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -3077,10 +3075,10 @@
       <c r="J16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="3">
         <v>45993</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="3">
         <v>45993</v>
       </c>
       <c r="M16" s="1" t="s">
@@ -3089,16 +3087,16 @@
       <c r="N16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
       <c r="Q16">
         <v>0</v>
       </c>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T16" s="3" t="s">
+      <c r="R16" s="1"/>
+      <c r="S16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T16" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3112,13 +3110,13 @@
       <c r="C17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17">
         <v>57237149000106</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="2" t="s">
         <v>77</v>
       </c>
       <c r="G17" s="1" t="s">
@@ -3133,10 +3131,10 @@
       <c r="J17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="3">
         <v>45993</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="3">
         <v>45993</v>
       </c>
       <c r="M17" s="1" t="s">
@@ -3145,16 +3143,16 @@
       <c r="N17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
       <c r="Q17">
         <v>0</v>
       </c>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T17" s="3" t="s">
+      <c r="R17" s="1"/>
+      <c r="S17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T17" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3168,13 +3166,13 @@
       <c r="C18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18">
         <v>53875328000118</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="2" t="s">
         <v>77</v>
       </c>
       <c r="G18" s="1" t="s">
@@ -3189,10 +3187,10 @@
       <c r="J18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="3">
         <v>45993</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="3">
         <v>45993</v>
       </c>
       <c r="M18" s="1" t="s">
@@ -3201,16 +3199,16 @@
       <c r="N18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
       <c r="Q18">
         <v>0</v>
       </c>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T18" s="3" t="s">
+      <c r="R18" s="1"/>
+      <c r="S18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T18" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3224,13 +3222,13 @@
       <c r="C19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19">
         <v>10522077000428</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="2" t="s">
         <v>77</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -3245,10 +3243,10 @@
       <c r="J19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="3">
         <v>45993</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="3">
         <v>45993</v>
       </c>
       <c r="M19" s="1" t="s">
@@ -3257,16 +3255,16 @@
       <c r="N19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
       <c r="Q19">
         <v>0</v>
       </c>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T19" s="3" t="s">
+      <c r="R19" s="1"/>
+      <c r="S19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T19" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3280,13 +3278,13 @@
       <c r="C20" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20">
         <v>56738016000150</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="2" t="s">
         <v>85</v>
       </c>
       <c r="G20" s="1" t="s">
@@ -3301,10 +3299,10 @@
       <c r="J20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" s="3">
         <v>45993</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L20" s="3">
         <v>45993</v>
       </c>
       <c r="M20" s="1" t="s">
@@ -3313,16 +3311,16 @@
       <c r="N20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
       <c r="Q20">
         <v>0</v>
       </c>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T20" s="3" t="s">
+      <c r="R20" s="1"/>
+      <c r="S20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T20" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3336,13 +3334,13 @@
       <c r="C21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21">
         <v>24314878000160</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="2" t="s">
         <v>89</v>
       </c>
       <c r="G21" s="1" t="s">
@@ -3357,10 +3355,10 @@
       <c r="J21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="3">
         <v>45993</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="3">
         <v>45993</v>
       </c>
       <c r="M21" s="1" t="s">
@@ -3369,16 +3367,16 @@
       <c r="N21" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
       <c r="Q21">
         <v>0</v>
       </c>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T21" s="3" t="s">
+      <c r="R21" s="1"/>
+      <c r="S21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T21" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3392,11 +3390,11 @@
       <c r="C22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22">
         <v>2394473000146</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="4" t="s">
+      <c r="E22" s="1"/>
+      <c r="F22" s="2" t="s">
         <v>92</v>
       </c>
       <c r="G22" s="1" t="s">
@@ -3411,26 +3409,26 @@
       <c r="J22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="3">
         <v>45993</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L22" s="3">
         <v>45993</v>
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
       <c r="Q22">
         <v>0</v>
       </c>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T22" s="3" t="s">
+      <c r="R22" s="1"/>
+      <c r="S22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T22" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3444,13 +3442,13 @@
       <c r="C23" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23">
         <v>62236617000168</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="2" t="s">
         <v>94</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -3465,10 +3463,10 @@
       <c r="J23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23" s="3">
         <v>45993</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L23" s="3">
         <v>46000</v>
       </c>
       <c r="M23" s="1" t="s">
@@ -3477,16 +3475,16 @@
       <c r="N23" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
       <c r="Q23">
         <v>0</v>
       </c>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T23" s="3" t="s">
+      <c r="R23" s="1"/>
+      <c r="S23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T23" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3500,13 +3498,13 @@
       <c r="C24" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24">
         <v>9241803394</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="2" t="s">
         <v>97</v>
       </c>
       <c r="G24" s="1" t="s">
@@ -3521,10 +3519,10 @@
       <c r="J24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K24" s="3">
         <v>45993</v>
       </c>
-      <c r="L24" s="5">
+      <c r="L24" s="3">
         <v>45993</v>
       </c>
       <c r="M24" s="1" t="s">
@@ -3533,16 +3531,16 @@
       <c r="N24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
       <c r="Q24">
         <v>0</v>
       </c>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T24" s="3" t="s">
+      <c r="R24" s="1"/>
+      <c r="S24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T24" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3556,13 +3554,13 @@
       <c r="C25" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25">
         <v>2394473000146</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="2" t="s">
         <v>100</v>
       </c>
       <c r="G25" s="1" t="s">
@@ -3577,10 +3575,10 @@
       <c r="J25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K25" s="5">
+      <c r="K25" s="3">
         <v>45993</v>
       </c>
-      <c r="L25" s="5">
+      <c r="L25" s="3">
         <v>45993</v>
       </c>
       <c r="M25" s="1" t="s">
@@ -3589,16 +3587,16 @@
       <c r="N25" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
       <c r="Q25">
         <v>0</v>
       </c>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T25" s="3" t="s">
+      <c r="R25" s="1"/>
+      <c r="S25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T25" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3612,13 +3610,13 @@
       <c r="C26" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26">
         <v>2394473000146</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="2" t="s">
         <v>102</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -3633,10 +3631,10 @@
       <c r="J26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K26" s="5">
+      <c r="K26" s="3">
         <v>45993</v>
       </c>
-      <c r="L26" s="5">
+      <c r="L26" s="3">
         <v>45993</v>
       </c>
       <c r="M26" s="1" t="s">
@@ -3645,16 +3643,16 @@
       <c r="N26" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
       <c r="Q26">
         <v>0</v>
       </c>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T26" s="3" t="s">
+      <c r="R26" s="1"/>
+      <c r="S26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T26" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3668,13 +3666,13 @@
       <c r="C27" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27">
         <v>3331129000170</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="2" t="s">
         <v>104</v>
       </c>
       <c r="G27" s="1" t="s">
@@ -3689,10 +3687,10 @@
       <c r="J27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K27" s="5">
+      <c r="K27" s="3">
         <v>45993</v>
       </c>
-      <c r="L27" s="5">
+      <c r="L27" s="3">
         <v>45993</v>
       </c>
       <c r="M27" s="1" t="s">
@@ -3701,16 +3699,16 @@
       <c r="N27" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
       <c r="Q27">
         <v>0</v>
       </c>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T27" s="3" t="s">
+      <c r="R27" s="1"/>
+      <c r="S27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T27" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3724,13 +3722,13 @@
       <c r="C28" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28">
         <v>77817583000172</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="2" t="s">
         <v>109</v>
       </c>
       <c r="G28" s="1" t="s">
@@ -3745,10 +3743,10 @@
       <c r="J28" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K28" s="5">
+      <c r="K28" s="3">
         <v>45993</v>
       </c>
-      <c r="L28" s="5">
+      <c r="L28" s="3">
         <v>45993</v>
       </c>
       <c r="M28" s="1" t="s">
@@ -3757,16 +3755,16 @@
       <c r="N28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
       <c r="Q28">
         <v>0</v>
       </c>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T28" s="3" t="s">
+      <c r="R28" s="1"/>
+      <c r="S28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T28" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3780,13 +3778,13 @@
       <c r="C29" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29">
         <v>51829602000197</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="2" t="s">
         <v>112</v>
       </c>
       <c r="G29" s="1" t="s">
@@ -3801,10 +3799,10 @@
       <c r="J29" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K29" s="5">
+      <c r="K29" s="3">
         <v>45993</v>
       </c>
-      <c r="L29" s="5">
+      <c r="L29" s="3">
         <v>45993</v>
       </c>
       <c r="M29" s="1" t="s">
@@ -3813,16 +3811,16 @@
       <c r="N29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
       <c r="Q29">
         <v>0</v>
       </c>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T29" s="3" t="s">
+      <c r="R29" s="1"/>
+      <c r="S29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T29" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3836,13 +3834,13 @@
       <c r="C30" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30">
         <v>18359457000152</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="2" t="s">
         <v>114</v>
       </c>
       <c r="G30" s="1" t="s">
@@ -3857,10 +3855,10 @@
       <c r="J30" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="3">
         <v>45993</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="3">
         <v>45993</v>
       </c>
       <c r="M30" s="1" t="s">
@@ -3869,16 +3867,16 @@
       <c r="N30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
       <c r="Q30">
         <v>0</v>
       </c>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T30" s="3" t="s">
+      <c r="R30" s="1"/>
+      <c r="S30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T30" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3892,13 +3890,13 @@
       <c r="C31" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31">
         <v>29827042000182</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="2" t="s">
         <v>118</v>
       </c>
       <c r="G31" s="1" t="s">
@@ -3913,10 +3911,10 @@
       <c r="J31" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K31" s="3">
         <v>45993</v>
       </c>
-      <c r="L31" s="5">
+      <c r="L31" s="3">
         <v>45993</v>
       </c>
       <c r="M31" s="1" t="s">
@@ -3925,16 +3923,16 @@
       <c r="N31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
       <c r="Q31">
         <v>0</v>
       </c>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T31" s="3" t="s">
+      <c r="R31" s="1"/>
+      <c r="S31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T31" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3948,13 +3946,13 @@
       <c r="C32" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32">
         <v>3331129000170</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G32" s="1" t="s">
@@ -3969,10 +3967,10 @@
       <c r="J32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K32" s="5">
+      <c r="K32" s="3">
         <v>45993</v>
       </c>
-      <c r="L32" s="5">
+      <c r="L32" s="3">
         <v>45993</v>
       </c>
       <c r="M32" s="1" t="s">
@@ -3981,16 +3979,16 @@
       <c r="N32" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
       <c r="Q32">
         <v>0</v>
       </c>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T32" s="3" t="s">
+      <c r="R32" s="1"/>
+      <c r="S32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T32" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4004,13 +4002,13 @@
       <c r="C33" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33">
         <v>11519114000169</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="2" t="s">
         <v>123</v>
       </c>
       <c r="G33" s="1" t="s">
@@ -4025,10 +4023,10 @@
       <c r="J33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K33" s="5">
+      <c r="K33" s="3">
         <v>45994</v>
       </c>
-      <c r="L33" s="5">
+      <c r="L33" s="3">
         <v>45994</v>
       </c>
       <c r="M33" s="1" t="s">
@@ -4037,16 +4035,16 @@
       <c r="N33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
       <c r="Q33">
         <v>0</v>
       </c>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T33" s="3" t="s">
+      <c r="R33" s="1"/>
+      <c r="S33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T33" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4060,13 +4058,13 @@
       <c r="C34" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34">
         <v>19770536000114</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="2" t="s">
         <v>127</v>
       </c>
       <c r="G34" s="1" t="s">
@@ -4081,10 +4079,10 @@
       <c r="J34" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K34" s="5">
+      <c r="K34" s="3">
         <v>45992</v>
       </c>
-      <c r="L34" s="5">
+      <c r="L34" s="3">
         <v>45992</v>
       </c>
       <c r="M34" s="1" t="s">
@@ -4093,16 +4091,16 @@
       <c r="N34" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
       <c r="Q34">
         <v>0</v>
       </c>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T34" s="3" t="s">
+      <c r="R34" s="1"/>
+      <c r="S34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T34" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4116,13 +4114,13 @@
       <c r="C35" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35">
         <v>27394378000173</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="2" t="s">
         <v>131</v>
       </c>
       <c r="G35" s="1" t="s">
@@ -4137,10 +4135,10 @@
       <c r="J35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K35" s="5">
+      <c r="K35" s="3">
         <v>45993</v>
       </c>
-      <c r="L35" s="5">
+      <c r="L35" s="3">
         <v>45993</v>
       </c>
       <c r="M35" s="1" t="s">
@@ -4149,16 +4147,16 @@
       <c r="N35" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
       <c r="Q35">
         <v>0</v>
       </c>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T35" s="3" t="s">
+      <c r="R35" s="1"/>
+      <c r="S35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T35" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4172,13 +4170,13 @@
       <c r="C36" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36">
         <v>46892512000100</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="2" t="s">
         <v>134</v>
       </c>
       <c r="G36" s="1" t="s">
@@ -4193,10 +4191,10 @@
       <c r="J36" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K36" s="5">
+      <c r="K36" s="3">
         <v>45994</v>
       </c>
-      <c r="L36" s="5">
+      <c r="L36" s="3">
         <v>45994</v>
       </c>
       <c r="M36" s="1" t="s">
@@ -4205,16 +4203,16 @@
       <c r="N36" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
       <c r="Q36">
         <v>0</v>
       </c>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T36" s="3" t="s">
+      <c r="R36" s="1"/>
+      <c r="S36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T36" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4228,13 +4226,13 @@
       <c r="C37" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37">
         <v>4978803000176</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="2" t="s">
         <v>138</v>
       </c>
       <c r="G37" s="1" t="s">
@@ -4249,26 +4247,26 @@
       <c r="J37" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K37" s="5">
+      <c r="K37" s="3">
         <v>45994</v>
       </c>
-      <c r="L37" s="5">
+      <c r="L37" s="3">
         <v>45994</v>
       </c>
       <c r="M37" s="1"/>
       <c r="N37" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
       <c r="Q37">
         <v>0</v>
       </c>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T37" s="3" t="s">
+      <c r="R37" s="1"/>
+      <c r="S37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4282,13 +4280,13 @@
       <c r="C38" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38">
         <v>23467987600012</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" s="2" t="s">
         <v>140</v>
       </c>
       <c r="G38" s="1" t="s">
@@ -4303,10 +4301,10 @@
       <c r="J38" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K38" s="5">
+      <c r="K38" s="3">
         <v>45994</v>
       </c>
-      <c r="L38" s="5">
+      <c r="L38" s="3">
         <v>45994</v>
       </c>
       <c r="M38" s="1" t="s">
@@ -4315,16 +4313,16 @@
       <c r="N38" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
       <c r="Q38">
         <v>0</v>
       </c>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T38" s="3" t="s">
+      <c r="R38" s="1"/>
+      <c r="S38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T38" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4338,13 +4336,13 @@
       <c r="C39" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39">
         <v>19497817000107</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F39" s="2" t="s">
         <v>143</v>
       </c>
       <c r="G39" s="1" t="s">
@@ -4359,10 +4357,10 @@
       <c r="J39" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K39" s="5">
+      <c r="K39" s="3">
         <v>45994</v>
       </c>
-      <c r="L39" s="5">
+      <c r="L39" s="3">
         <v>45994</v>
       </c>
       <c r="M39" s="1" t="s">
@@ -4371,16 +4369,16 @@
       <c r="N39" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
       <c r="Q39">
         <v>0</v>
       </c>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T39" s="3" t="s">
+      <c r="R39" s="1"/>
+      <c r="S39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T39" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4394,13 +4392,13 @@
       <c r="C40" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40">
         <v>2279387000192</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" s="2" t="s">
         <v>146</v>
       </c>
       <c r="G40" s="1" t="s">
@@ -4415,10 +4413,10 @@
       <c r="J40" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K40" s="5">
+      <c r="K40" s="3">
         <v>45994</v>
       </c>
-      <c r="L40" s="5">
+      <c r="L40" s="3">
         <v>45994</v>
       </c>
       <c r="M40" s="1" t="s">
@@ -4427,16 +4425,16 @@
       <c r="N40" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
       <c r="Q40">
         <v>1</v>
       </c>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T40" s="3" t="s">
+      <c r="R40" s="1"/>
+      <c r="S40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T40" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4450,13 +4448,13 @@
       <c r="C41" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41">
         <v>27192758000206</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F41" s="2" t="s">
         <v>149</v>
       </c>
       <c r="G41" s="1" t="s">
@@ -4471,10 +4469,10 @@
       <c r="J41" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K41" s="5">
+      <c r="K41" s="3">
         <v>45994</v>
       </c>
-      <c r="L41" s="5">
+      <c r="L41" s="3">
         <v>45994</v>
       </c>
       <c r="M41" s="1" t="s">
@@ -4483,16 +4481,16 @@
       <c r="N41" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
       <c r="Q41">
         <v>0</v>
       </c>
-      <c r="R41" s="3"/>
-      <c r="S41" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T41" s="3" t="s">
+      <c r="R41" s="1"/>
+      <c r="S41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T41" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4506,13 +4504,13 @@
       <c r="C42" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42">
         <v>57717655000100</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F42" s="2" t="s">
         <v>151</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -4527,10 +4525,10 @@
       <c r="J42" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K42" s="5">
+      <c r="K42" s="3">
         <v>45995</v>
       </c>
-      <c r="L42" s="5">
+      <c r="L42" s="3">
         <v>45995</v>
       </c>
       <c r="M42" s="1" t="s">
@@ -4539,16 +4537,16 @@
       <c r="N42" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
       <c r="Q42">
         <v>0</v>
       </c>
-      <c r="R42" s="3"/>
-      <c r="S42" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T42" s="3" t="s">
+      <c r="R42" s="1"/>
+      <c r="S42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T42" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4562,13 +4560,13 @@
       <c r="C43" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43">
         <v>7396700000196</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F43" s="2" t="s">
         <v>154</v>
       </c>
       <c r="G43" s="1" t="s">
@@ -4583,10 +4581,10 @@
       <c r="J43" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K43" s="5">
+      <c r="K43" s="3">
         <v>45995</v>
       </c>
-      <c r="L43" s="5">
+      <c r="L43" s="3">
         <v>45995</v>
       </c>
       <c r="M43" s="1" t="s">
@@ -4595,16 +4593,16 @@
       <c r="N43" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
       <c r="Q43">
         <v>0</v>
       </c>
-      <c r="R43" s="3"/>
-      <c r="S43" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T43" s="3" t="s">
+      <c r="R43" s="1"/>
+      <c r="S43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T43" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4618,13 +4616,13 @@
       <c r="C44" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44">
         <v>45761173000160</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F44" s="2" t="s">
         <v>158</v>
       </c>
       <c r="G44" s="1" t="s">
@@ -4639,10 +4637,10 @@
       <c r="J44" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K44" s="5">
+      <c r="K44" s="3">
         <v>45995</v>
       </c>
-      <c r="L44" s="5">
+      <c r="L44" s="3">
         <v>45995</v>
       </c>
       <c r="M44" s="1" t="s">
@@ -4651,16 +4649,16 @@
       <c r="N44" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
       <c r="Q44">
         <v>0</v>
       </c>
-      <c r="R44" s="3"/>
-      <c r="S44" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T44" s="3" t="s">
+      <c r="R44" s="1"/>
+      <c r="S44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T44" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4674,13 +4672,13 @@
       <c r="C45" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45">
         <v>45761173000160</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F45" s="2" t="s">
         <v>160</v>
       </c>
       <c r="G45" s="1" t="s">
@@ -4695,10 +4693,10 @@
       <c r="J45" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K45" s="5">
+      <c r="K45" s="3">
         <v>45995</v>
       </c>
-      <c r="L45" s="5">
+      <c r="L45" s="3">
         <v>45995</v>
       </c>
       <c r="M45" s="1" t="s">
@@ -4707,16 +4705,16 @@
       <c r="N45" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
       <c r="Q45">
         <v>0</v>
       </c>
-      <c r="R45" s="3"/>
-      <c r="S45" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T45" s="3" t="s">
+      <c r="R45" s="1"/>
+      <c r="S45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T45" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4730,13 +4728,13 @@
       <c r="C46" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46">
         <v>87091997000110</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F46" s="2" t="s">
         <v>162</v>
       </c>
       <c r="G46" s="1" t="s">
@@ -4751,10 +4749,10 @@
       <c r="J46" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K46" s="5">
+      <c r="K46" s="3">
         <v>45995</v>
       </c>
-      <c r="L46" s="5">
+      <c r="L46" s="3">
         <v>45995</v>
       </c>
       <c r="M46" s="1" t="s">
@@ -4763,16 +4761,16 @@
       <c r="N46" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
       <c r="Q46">
         <v>0</v>
       </c>
-      <c r="R46" s="3"/>
-      <c r="S46" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T46" s="3" t="s">
+      <c r="R46" s="1"/>
+      <c r="S46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T46" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4786,13 +4784,13 @@
       <c r="C47" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47">
         <v>80979107000162</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="F47" s="2" t="s">
         <v>165</v>
       </c>
       <c r="G47" s="1" t="s">
@@ -4807,10 +4805,10 @@
       <c r="J47" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K47" s="5">
+      <c r="K47" s="3">
         <v>45995</v>
       </c>
-      <c r="L47" s="5">
+      <c r="L47" s="3">
         <v>45995</v>
       </c>
       <c r="M47" s="1" t="s">
@@ -4819,16 +4817,16 @@
       <c r="N47" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
       <c r="Q47">
         <v>0</v>
       </c>
-      <c r="R47" s="3"/>
-      <c r="S47" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T47" s="3" t="s">
+      <c r="R47" s="1"/>
+      <c r="S47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T47" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4842,13 +4840,13 @@
       <c r="C48" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48">
         <v>2234943001429</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F48" s="2" t="s">
         <v>169</v>
       </c>
       <c r="G48" s="1" t="s">
@@ -4863,10 +4861,10 @@
       <c r="J48" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K48" s="5">
+      <c r="K48" s="3">
         <v>45995</v>
       </c>
-      <c r="L48" s="5">
+      <c r="L48" s="3">
         <v>46006</v>
       </c>
       <c r="M48" s="1" t="s">
@@ -4875,16 +4873,16 @@
       <c r="N48" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
       <c r="Q48">
         <v>0</v>
       </c>
-      <c r="R48" s="3"/>
-      <c r="S48" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T48" s="3" t="s">
+      <c r="R48" s="1"/>
+      <c r="S48" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T48" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4898,13 +4896,13 @@
       <c r="C49" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49">
         <v>61620792000191</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="F49" s="2" t="s">
         <v>172</v>
       </c>
       <c r="G49" s="1" t="s">
@@ -4919,26 +4917,26 @@
       <c r="J49" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K49" s="5">
+      <c r="K49" s="3">
         <v>45995</v>
       </c>
-      <c r="L49" s="5">
+      <c r="L49" s="3">
         <v>45995</v>
       </c>
       <c r="M49" s="1"/>
       <c r="N49" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
       <c r="Q49">
         <v>0</v>
       </c>
-      <c r="R49" s="3"/>
-      <c r="S49" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T49" s="3" t="s">
+      <c r="R49" s="1"/>
+      <c r="S49" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T49" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4952,13 +4950,13 @@
       <c r="C50" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50">
         <v>12645422000101</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="F50" s="2" t="s">
         <v>174</v>
       </c>
       <c r="G50" s="1" t="s">
@@ -4973,10 +4971,10 @@
       <c r="J50" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K50" s="5">
+      <c r="K50" s="3">
         <v>45995</v>
       </c>
-      <c r="L50" s="5">
+      <c r="L50" s="3">
         <v>45995</v>
       </c>
       <c r="M50" s="1" t="s">
@@ -4985,16 +4983,16 @@
       <c r="N50" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
       <c r="Q50">
         <v>0</v>
       </c>
-      <c r="R50" s="3"/>
-      <c r="S50" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T50" s="3" t="s">
+      <c r="R50" s="1"/>
+      <c r="S50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T50" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5008,13 +5006,13 @@
       <c r="C51" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51">
         <v>9164791001646</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="F51" s="2" t="s">
         <v>176</v>
       </c>
       <c r="G51" s="1" t="s">
@@ -5029,10 +5027,10 @@
       <c r="J51" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K51" s="5">
+      <c r="K51" s="3">
         <v>45995</v>
       </c>
-      <c r="L51" s="5">
+      <c r="L51" s="3">
         <v>45995</v>
       </c>
       <c r="M51" s="1" t="s">
@@ -5041,16 +5039,16 @@
       <c r="N51" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O51" s="3"/>
-      <c r="P51" s="3"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
       <c r="Q51">
         <v>0</v>
       </c>
-      <c r="R51" s="3"/>
-      <c r="S51" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T51" s="3" t="s">
+      <c r="R51" s="1"/>
+      <c r="S51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T51" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5064,13 +5062,13 @@
       <c r="C52" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52">
         <v>72374952000186</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="F52" s="2" t="s">
         <v>178</v>
       </c>
       <c r="G52" s="1" t="s">
@@ -5085,10 +5083,10 @@
       <c r="J52" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K52" s="5">
+      <c r="K52" s="3">
         <v>45996</v>
       </c>
-      <c r="L52" s="5">
+      <c r="L52" s="3">
         <v>46003</v>
       </c>
       <c r="M52" s="1" t="s">
@@ -5097,16 +5095,16 @@
       <c r="N52" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O52" s="3"/>
-      <c r="P52" s="3"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
       <c r="Q52">
         <v>0</v>
       </c>
-      <c r="R52" s="3"/>
-      <c r="S52" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T52" s="3" t="s">
+      <c r="R52" s="1"/>
+      <c r="S52" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T52" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5120,13 +5118,13 @@
       <c r="C53" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53">
         <v>12074139000169</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="F53" s="2" t="s">
         <v>181</v>
       </c>
       <c r="G53" s="1" t="s">
@@ -5141,10 +5139,10 @@
       <c r="J53" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K53" s="5">
+      <c r="K53" s="3">
         <v>45996</v>
       </c>
-      <c r="L53" s="5">
+      <c r="L53" s="3">
         <v>45996</v>
       </c>
       <c r="M53" s="1" t="s">
@@ -5153,16 +5151,16 @@
       <c r="N53" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O53" s="3"/>
-      <c r="P53" s="3"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
       <c r="Q53">
         <v>0</v>
       </c>
-      <c r="R53" s="3"/>
-      <c r="S53" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T53" s="3" t="s">
+      <c r="R53" s="1"/>
+      <c r="S53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T53" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5176,13 +5174,13 @@
       <c r="C54" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54">
         <v>5815156000144</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="F54" s="2" t="s">
         <v>184</v>
       </c>
       <c r="G54" s="1" t="s">
@@ -5197,10 +5195,10 @@
       <c r="J54" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K54" s="5">
+      <c r="K54" s="3">
         <v>45996</v>
       </c>
-      <c r="L54" s="5">
+      <c r="L54" s="3">
         <v>45996</v>
       </c>
       <c r="M54" s="1" t="s">
@@ -5209,16 +5207,16 @@
       <c r="N54" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O54" s="3"/>
-      <c r="P54" s="3"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
       <c r="Q54">
         <v>0</v>
       </c>
-      <c r="R54" s="3"/>
-      <c r="S54" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T54" s="3" t="s">
+      <c r="R54" s="1"/>
+      <c r="S54" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T54" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5232,13 +5230,13 @@
       <c r="C55" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55">
         <v>55699369000126</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E55" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="F55" s="2" t="s">
         <v>186</v>
       </c>
       <c r="G55" s="1" t="s">
@@ -5253,26 +5251,26 @@
       <c r="J55" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K55" s="5">
+      <c r="K55" s="3">
         <v>45996</v>
       </c>
-      <c r="L55" s="5">
+      <c r="L55" s="3">
         <v>45996</v>
       </c>
       <c r="M55" s="1" t="s">
         <v>129</v>
       </c>
       <c r="N55" s="1"/>
-      <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
       <c r="Q55">
         <v>0</v>
       </c>
-      <c r="R55" s="3"/>
-      <c r="S55" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T55" s="3" t="s">
+      <c r="R55" s="1"/>
+      <c r="S55" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T55" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5286,13 +5284,13 @@
       <c r="C56" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56">
         <v>4785105000154</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E56" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="F56" s="2" t="s">
         <v>187</v>
       </c>
       <c r="G56" s="1" t="s">
@@ -5307,26 +5305,26 @@
       <c r="J56" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K56" s="5">
+      <c r="K56" s="3">
         <v>45996</v>
       </c>
-      <c r="L56" s="5">
+      <c r="L56" s="3">
         <v>45996</v>
       </c>
       <c r="M56" s="1"/>
       <c r="N56" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
       <c r="Q56">
         <v>0</v>
       </c>
-      <c r="R56" s="3"/>
-      <c r="S56" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T56" s="3" t="s">
+      <c r="R56" s="1"/>
+      <c r="S56" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T56" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5340,13 +5338,13 @@
       <c r="C57" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57">
         <v>30455952000160</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E57" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="F57" s="2" t="s">
         <v>189</v>
       </c>
       <c r="G57" s="1" t="s">
@@ -5359,10 +5357,10 @@
       <c r="J57" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K57" s="5">
+      <c r="K57" s="3">
         <v>45996</v>
       </c>
-      <c r="L57" s="5">
+      <c r="L57" s="3">
         <v>45996</v>
       </c>
       <c r="M57" s="1" t="s">
@@ -5371,16 +5369,16 @@
       <c r="N57" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O57" s="3"/>
-      <c r="P57" s="3"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
       <c r="Q57">
         <v>0</v>
       </c>
-      <c r="R57" s="3"/>
-      <c r="S57" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T57" s="3" t="s">
+      <c r="R57" s="1"/>
+      <c r="S57" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T57" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5394,13 +5392,13 @@
       <c r="C58" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58">
         <v>29404716000306</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E58" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="F58" s="2" t="s">
         <v>191</v>
       </c>
       <c r="G58" s="1" t="s">
@@ -5415,26 +5413,26 @@
       <c r="J58" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K58" s="5">
+      <c r="K58" s="3">
         <v>45996</v>
       </c>
-      <c r="L58" s="5">
+      <c r="L58" s="3">
         <v>46000</v>
       </c>
       <c r="M58" s="1"/>
       <c r="N58" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O58" s="3"/>
-      <c r="P58" s="3"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
       <c r="Q58">
         <v>0</v>
       </c>
-      <c r="R58" s="3"/>
-      <c r="S58" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T58" s="3" t="s">
+      <c r="R58" s="1"/>
+      <c r="S58" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T58" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5448,13 +5446,13 @@
       <c r="C59" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59">
         <v>48227957000100</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="E59" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="F59" s="2" t="s">
         <v>195</v>
       </c>
       <c r="G59" s="1" t="s">
@@ -5469,10 +5467,10 @@
       <c r="J59" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K59" s="5">
+      <c r="K59" s="3">
         <v>45996</v>
       </c>
-      <c r="L59" s="5">
+      <c r="L59" s="3">
         <v>45996</v>
       </c>
       <c r="M59" s="1" t="s">
@@ -5481,16 +5479,16 @@
       <c r="N59" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O59" s="3"/>
-      <c r="P59" s="3"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
       <c r="Q59">
         <v>0</v>
       </c>
-      <c r="R59" s="3"/>
-      <c r="S59" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T59" s="3" t="s">
+      <c r="R59" s="1"/>
+      <c r="S59" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T59" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5504,13 +5502,13 @@
       <c r="C60" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60">
         <v>47545858000103</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E60" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F60" s="4" t="s">
+      <c r="F60" s="2" t="s">
         <v>197</v>
       </c>
       <c r="G60" s="1" t="s">
@@ -5525,10 +5523,10 @@
       <c r="J60" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K60" s="5">
+      <c r="K60" s="3">
         <v>45994</v>
       </c>
-      <c r="L60" s="5">
+      <c r="L60" s="3">
         <v>45994</v>
       </c>
       <c r="M60" s="1" t="s">
@@ -5537,16 +5535,16 @@
       <c r="N60" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O60" s="3"/>
-      <c r="P60" s="3"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
       <c r="Q60">
         <v>0</v>
       </c>
-      <c r="R60" s="3"/>
-      <c r="S60" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T60" s="3" t="s">
+      <c r="R60" s="1"/>
+      <c r="S60" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T60" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5560,13 +5558,13 @@
       <c r="C61" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61">
         <v>52275228000198</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E61" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="F61" s="2" t="s">
         <v>199</v>
       </c>
       <c r="G61" s="1" t="s">
@@ -5581,10 +5579,10 @@
       <c r="J61" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K61" s="5">
+      <c r="K61" s="3">
         <v>45996</v>
       </c>
-      <c r="L61" s="5">
+      <c r="L61" s="3">
         <v>45996</v>
       </c>
       <c r="M61" s="1" t="s">
@@ -5593,16 +5591,16 @@
       <c r="N61" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O61" s="3"/>
-      <c r="P61" s="3"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
       <c r="Q61">
         <v>0</v>
       </c>
-      <c r="R61" s="3"/>
-      <c r="S61" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T61" s="3" t="s">
+      <c r="R61" s="1"/>
+      <c r="S61" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T61" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5616,13 +5614,13 @@
       <c r="C62" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62">
         <v>37654527000140</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E62" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="F62" s="2" t="s">
         <v>201</v>
       </c>
       <c r="G62" s="1" t="s">
@@ -5637,10 +5635,10 @@
       <c r="J62" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K62" s="5">
+      <c r="K62" s="3">
         <v>45999</v>
       </c>
-      <c r="L62" s="5">
+      <c r="L62" s="3">
         <v>45999</v>
       </c>
       <c r="M62" s="1" t="s">
@@ -5649,16 +5647,16 @@
       <c r="N62" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O62" s="3"/>
-      <c r="P62" s="3"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
       <c r="Q62">
         <v>0</v>
       </c>
-      <c r="R62" s="3"/>
-      <c r="S62" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T62" s="3" t="s">
+      <c r="R62" s="1"/>
+      <c r="S62" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T62" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5672,13 +5670,13 @@
       <c r="C63" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63">
         <v>45132315000120</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="E63" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="F63" s="2" t="s">
         <v>203</v>
       </c>
       <c r="G63" s="1" t="s">
@@ -5693,10 +5691,10 @@
       <c r="J63" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K63" s="5">
+      <c r="K63" s="3">
         <v>45996</v>
       </c>
-      <c r="L63" s="5">
+      <c r="L63" s="3">
         <v>45996</v>
       </c>
       <c r="M63" s="1" t="s">
@@ -5705,16 +5703,16 @@
       <c r="N63" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O63" s="3"/>
-      <c r="P63" s="3"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
       <c r="Q63">
         <v>0</v>
       </c>
-      <c r="R63" s="3"/>
-      <c r="S63" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T63" s="3" t="s">
+      <c r="R63" s="1"/>
+      <c r="S63" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T63" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5728,13 +5726,13 @@
       <c r="C64" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64">
         <v>80979107000162</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E64" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="F64" s="2" t="s">
         <v>205</v>
       </c>
       <c r="G64" s="1" t="s">
@@ -5749,10 +5747,10 @@
       <c r="J64" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K64" s="5">
+      <c r="K64" s="3">
         <v>45995</v>
       </c>
-      <c r="L64" s="5">
+      <c r="L64" s="3">
         <v>45996</v>
       </c>
       <c r="M64" s="1" t="s">
@@ -5761,16 +5759,16 @@
       <c r="N64" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O64" s="3"/>
-      <c r="P64" s="3"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
       <c r="Q64">
         <v>0</v>
       </c>
-      <c r="R64" s="3"/>
-      <c r="S64" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T64" s="3" t="s">
+      <c r="R64" s="1"/>
+      <c r="S64" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T64" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5784,13 +5782,13 @@
       <c r="C65" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65">
         <v>57832654000107</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="E65" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F65" s="4" t="s">
+      <c r="F65" s="2" t="s">
         <v>208</v>
       </c>
       <c r="G65" s="1" t="s">
@@ -5805,10 +5803,10 @@
       <c r="J65" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K65" s="5">
+      <c r="K65" s="3">
         <v>45999</v>
       </c>
-      <c r="L65" s="5">
+      <c r="L65" s="3">
         <v>45999</v>
       </c>
       <c r="M65" s="1" t="s">
@@ -5817,16 +5815,16 @@
       <c r="N65" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O65" s="3"/>
-      <c r="P65" s="3"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
       <c r="Q65">
         <v>0</v>
       </c>
-      <c r="R65" s="3"/>
-      <c r="S65" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T65" s="3" t="s">
+      <c r="R65" s="1"/>
+      <c r="S65" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T65" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5840,13 +5838,13 @@
       <c r="C66" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66">
         <v>24894843000147</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="E66" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="F66" s="2" t="s">
         <v>210</v>
       </c>
       <c r="G66" s="1" t="s">
@@ -5861,10 +5859,10 @@
       <c r="J66" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K66" s="5">
+      <c r="K66" s="3">
         <v>45999</v>
       </c>
-      <c r="L66" s="5">
+      <c r="L66" s="3">
         <v>45999</v>
       </c>
       <c r="M66" s="1" t="s">
@@ -5873,16 +5871,16 @@
       <c r="N66" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O66" s="3"/>
-      <c r="P66" s="3"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
       <c r="Q66">
         <v>0</v>
       </c>
-      <c r="R66" s="3"/>
-      <c r="S66" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T66" s="3" t="s">
+      <c r="R66" s="1"/>
+      <c r="S66" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T66" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5896,13 +5894,13 @@
       <c r="C67" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67">
         <v>298631000139</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="E67" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="F67" s="4" t="s">
+      <c r="F67" s="2" t="s">
         <v>212</v>
       </c>
       <c r="G67" s="1" t="s">
@@ -5917,10 +5915,10 @@
       <c r="J67" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K67" s="5">
+      <c r="K67" s="3">
         <v>45995</v>
       </c>
-      <c r="L67" s="5">
+      <c r="L67" s="3">
         <v>46000</v>
       </c>
       <c r="M67" s="1" t="s">
@@ -5929,16 +5927,16 @@
       <c r="N67" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O67" s="3"/>
-      <c r="P67" s="3"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
       <c r="Q67">
         <v>0</v>
       </c>
-      <c r="R67" s="3"/>
-      <c r="S67" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T67" s="3" t="s">
+      <c r="R67" s="1"/>
+      <c r="S67" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T67" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5952,13 +5950,13 @@
       <c r="C68" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68">
         <v>48055460000143</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E68" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="F68" s="2" t="s">
         <v>214</v>
       </c>
       <c r="G68" s="1" t="s">
@@ -5973,10 +5971,10 @@
       <c r="J68" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K68" s="5">
+      <c r="K68" s="3">
         <v>45999</v>
       </c>
-      <c r="L68" s="5">
+      <c r="L68" s="3">
         <v>45999</v>
       </c>
       <c r="M68" s="1" t="s">
@@ -5985,16 +5983,16 @@
       <c r="N68" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O68" s="3"/>
-      <c r="P68" s="3"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
       <c r="Q68">
         <v>0</v>
       </c>
-      <c r="R68" s="3"/>
-      <c r="S68" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T68" s="3" t="s">
+      <c r="R68" s="1"/>
+      <c r="S68" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T68" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6008,13 +6006,13 @@
       <c r="C69" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D69">
         <v>87687489000108</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="E69" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="F69" s="2" t="s">
         <v>217</v>
       </c>
       <c r="G69" s="1" t="s">
@@ -6029,10 +6027,10 @@
       <c r="J69" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K69" s="5">
+      <c r="K69" s="3">
         <v>45999</v>
       </c>
-      <c r="L69" s="5">
+      <c r="L69" s="3">
         <v>45999</v>
       </c>
       <c r="M69" s="1" t="s">
@@ -6041,16 +6039,16 @@
       <c r="N69" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O69" s="3"/>
-      <c r="P69" s="3"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
       <c r="Q69">
         <v>0</v>
       </c>
-      <c r="R69" s="3"/>
-      <c r="S69" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T69" s="3" t="s">
+      <c r="R69" s="1"/>
+      <c r="S69" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T69" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6064,13 +6062,13 @@
       <c r="C70" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70">
         <v>1991461002180</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="E70" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F70" s="4" t="s">
+      <c r="F70" s="2" t="s">
         <v>220</v>
       </c>
       <c r="G70" s="1" t="s">
@@ -6085,10 +6083,10 @@
       <c r="J70" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K70" s="5">
+      <c r="K70" s="3">
         <v>45999</v>
       </c>
-      <c r="L70" s="5">
+      <c r="L70" s="3">
         <v>45999</v>
       </c>
       <c r="M70" s="1" t="s">
@@ -6097,16 +6095,16 @@
       <c r="N70" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="O70" s="3"/>
-      <c r="P70" s="3"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
       <c r="Q70">
         <v>0</v>
       </c>
-      <c r="R70" s="3"/>
-      <c r="S70" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T70" s="3" t="s">
+      <c r="R70" s="1"/>
+      <c r="S70" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T70" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6120,13 +6118,13 @@
       <c r="C71" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71">
         <v>15022398000134</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="E71" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="F71" s="4" t="s">
+      <c r="F71" s="2" t="s">
         <v>223</v>
       </c>
       <c r="G71" s="1" t="s">
@@ -6141,10 +6139,10 @@
       <c r="J71" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K71" s="5">
+      <c r="K71" s="3">
         <v>45999</v>
       </c>
-      <c r="L71" s="5">
+      <c r="L71" s="3">
         <v>45999</v>
       </c>
       <c r="M71" s="1" t="s">
@@ -6153,16 +6151,16 @@
       <c r="N71" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O71" s="3"/>
-      <c r="P71" s="3"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
       <c r="Q71">
         <v>0</v>
       </c>
-      <c r="R71" s="3"/>
-      <c r="S71" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T71" s="3" t="s">
+      <c r="R71" s="1"/>
+      <c r="S71" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T71" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6176,13 +6174,13 @@
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72">
         <v>87091997000110</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="E72" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="F72" s="4" t="s">
+      <c r="F72" s="2" t="s">
         <v>225</v>
       </c>
       <c r="G72" s="1" t="s">
@@ -6197,10 +6195,10 @@
       <c r="J72" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K72" s="5">
+      <c r="K72" s="3">
         <v>45999</v>
       </c>
-      <c r="L72" s="5">
+      <c r="L72" s="3">
         <v>45999</v>
       </c>
       <c r="M72" s="1" t="s">
@@ -6209,16 +6207,16 @@
       <c r="N72" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O72" s="3"/>
-      <c r="P72" s="3"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
       <c r="Q72">
         <v>0</v>
       </c>
-      <c r="R72" s="3"/>
-      <c r="S72" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T72" s="3" t="s">
+      <c r="R72" s="1"/>
+      <c r="S72" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T72" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6232,13 +6230,13 @@
       <c r="C73" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D73">
         <v>76816842000420</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="E73" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="F73" s="4" t="s">
+      <c r="F73" s="2" t="s">
         <v>227</v>
       </c>
       <c r="G73" s="1" t="s">
@@ -6253,10 +6251,10 @@
       <c r="J73" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K73" s="5">
+      <c r="K73" s="3">
         <v>45999</v>
       </c>
-      <c r="L73" s="5">
+      <c r="L73" s="3">
         <v>45999</v>
       </c>
       <c r="M73" s="1" t="s">
@@ -6265,16 +6263,16 @@
       <c r="N73" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O73" s="3"/>
-      <c r="P73" s="3"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
       <c r="Q73">
         <v>0</v>
       </c>
-      <c r="R73" s="3"/>
-      <c r="S73" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T73" s="3" t="s">
+      <c r="R73" s="1"/>
+      <c r="S73" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T73" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6288,13 +6286,13 @@
       <c r="C74" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D74" s="2">
+      <c r="D74">
         <v>76816842000269</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E74" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="F74" s="4" t="s">
+      <c r="F74" s="2" t="s">
         <v>227</v>
       </c>
       <c r="G74" s="1" t="s">
@@ -6309,10 +6307,10 @@
       <c r="J74" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K74" s="5">
+      <c r="K74" s="3">
         <v>45999</v>
       </c>
-      <c r="L74" s="5">
+      <c r="L74" s="3">
         <v>45999</v>
       </c>
       <c r="M74" s="1" t="s">
@@ -6321,16 +6319,16 @@
       <c r="N74" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O74" s="3"/>
-      <c r="P74" s="3"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
       <c r="Q74">
         <v>0</v>
       </c>
-      <c r="R74" s="3"/>
-      <c r="S74" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T74" s="3" t="s">
+      <c r="R74" s="1"/>
+      <c r="S74" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T74" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6344,13 +6342,13 @@
       <c r="C75" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D75">
         <v>8741844000103</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E75" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="F75" s="4" t="s">
+      <c r="F75" s="2" t="s">
         <v>231</v>
       </c>
       <c r="G75" s="1" t="s">
@@ -6365,10 +6363,10 @@
       <c r="J75" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K75" s="5">
+      <c r="K75" s="3">
         <v>45999</v>
       </c>
-      <c r="L75" s="5">
+      <c r="L75" s="3">
         <v>45999</v>
       </c>
       <c r="M75" s="1" t="s">
@@ -6377,16 +6375,16 @@
       <c r="N75" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O75" s="3"/>
-      <c r="P75" s="3"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
       <c r="Q75">
         <v>0</v>
       </c>
-      <c r="R75" s="3"/>
-      <c r="S75" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T75" s="3" t="s">
+      <c r="R75" s="1"/>
+      <c r="S75" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T75" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6400,11 +6398,11 @@
       <c r="C76" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D76" s="2">
+      <c r="D76">
         <v>48055460000143</v>
       </c>
-      <c r="E76" s="3"/>
-      <c r="F76" s="4" t="s">
+      <c r="E76" s="1"/>
+      <c r="F76" s="2" t="s">
         <v>233</v>
       </c>
       <c r="G76" s="1" t="s">
@@ -6419,26 +6417,26 @@
       <c r="J76" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K76" s="5">
+      <c r="K76" s="3">
         <v>45999</v>
       </c>
-      <c r="L76" s="5">
+      <c r="L76" s="3">
         <v>45999</v>
       </c>
       <c r="M76" s="1"/>
       <c r="N76" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O76" s="3"/>
-      <c r="P76" s="3"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
       <c r="Q76">
         <v>0</v>
       </c>
-      <c r="R76" s="3"/>
-      <c r="S76" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T76" s="3" t="s">
+      <c r="R76" s="1"/>
+      <c r="S76" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T76" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6452,13 +6450,13 @@
       <c r="C77" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D77">
         <v>577709000154</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="E77" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="F77" s="4" t="s">
+      <c r="F77" s="2" t="s">
         <v>235</v>
       </c>
       <c r="G77" s="1" t="s">
@@ -6473,10 +6471,10 @@
       <c r="J77" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K77" s="5">
+      <c r="K77" s="3">
         <v>45999</v>
       </c>
-      <c r="L77" s="5">
+      <c r="L77" s="3">
         <v>45999</v>
       </c>
       <c r="M77" s="1" t="s">
@@ -6485,16 +6483,16 @@
       <c r="N77" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O77" s="3"/>
-      <c r="P77" s="3"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
       <c r="Q77">
         <v>0</v>
       </c>
-      <c r="R77" s="3"/>
-      <c r="S77" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T77" s="3" t="s">
+      <c r="R77" s="1"/>
+      <c r="S77" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T77" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6508,13 +6506,13 @@
       <c r="C78" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D78" s="2">
+      <c r="D78">
         <v>11111111111111</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="E78" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="F78" s="4" t="s">
+      <c r="F78" s="2" t="s">
         <v>237</v>
       </c>
       <c r="G78" s="1" t="s">
@@ -6529,10 +6527,10 @@
       <c r="J78" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K78" s="5">
+      <c r="K78" s="3">
         <v>45999</v>
       </c>
-      <c r="L78" s="5">
+      <c r="L78" s="3">
         <v>45999</v>
       </c>
       <c r="M78" s="1" t="s">
@@ -6541,16 +6539,16 @@
       <c r="N78" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O78" s="3"/>
-      <c r="P78" s="3"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
       <c r="Q78">
         <v>0</v>
       </c>
-      <c r="R78" s="3"/>
-      <c r="S78" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T78" s="3" t="s">
+      <c r="R78" s="1"/>
+      <c r="S78" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T78" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6564,13 +6562,13 @@
       <c r="C79" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D79" s="2">
+      <c r="D79">
         <v>26472037000106</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="E79" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="F79" s="4" t="s">
+      <c r="F79" s="2" t="s">
         <v>240</v>
       </c>
       <c r="G79" s="1" t="s">
@@ -6585,10 +6583,10 @@
       <c r="J79" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K79" s="5">
+      <c r="K79" s="3">
         <v>46000</v>
       </c>
-      <c r="L79" s="5">
+      <c r="L79" s="3">
         <v>46000</v>
       </c>
       <c r="M79" s="1" t="s">
@@ -6597,16 +6595,16 @@
       <c r="N79" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O79" s="3"/>
-      <c r="P79" s="3"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
       <c r="Q79">
         <v>0</v>
       </c>
-      <c r="R79" s="3"/>
-      <c r="S79" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T79" s="3" t="s">
+      <c r="R79" s="1"/>
+      <c r="S79" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T79" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6620,13 +6618,13 @@
       <c r="C80" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D80">
         <v>26472037000109</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="E80" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F80" s="4" t="s">
+      <c r="F80" s="2" t="s">
         <v>243</v>
       </c>
       <c r="G80" s="1" t="s">
@@ -6641,10 +6639,10 @@
       <c r="J80" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K80" s="5">
+      <c r="K80" s="3">
         <v>46000</v>
       </c>
-      <c r="L80" s="5">
+      <c r="L80" s="3">
         <v>46000</v>
       </c>
       <c r="M80" s="1" t="s">
@@ -6653,16 +6651,16 @@
       <c r="N80" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O80" s="3"/>
-      <c r="P80" s="3"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
       <c r="Q80">
         <v>0</v>
       </c>
-      <c r="R80" s="3"/>
-      <c r="S80" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T80" s="3" t="s">
+      <c r="R80" s="1"/>
+      <c r="S80" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T80" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6676,13 +6674,13 @@
       <c r="C81" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D81" s="2">
+      <c r="D81">
         <v>46011435000132</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="E81" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F81" s="4" t="s">
+      <c r="F81" s="2" t="s">
         <v>245</v>
       </c>
       <c r="G81" s="1" t="s">
@@ -6697,10 +6695,10 @@
       <c r="J81" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K81" s="5">
+      <c r="K81" s="3">
         <v>45999</v>
       </c>
-      <c r="L81" s="5">
+      <c r="L81" s="3">
         <v>45999</v>
       </c>
       <c r="M81" s="1" t="s">
@@ -6709,16 +6707,16 @@
       <c r="N81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O81" s="3"/>
-      <c r="P81" s="3"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
       <c r="Q81">
         <v>0</v>
       </c>
-      <c r="R81" s="3"/>
-      <c r="S81" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T81" s="3" t="s">
+      <c r="R81" s="1"/>
+      <c r="S81" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T81" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6732,13 +6730,13 @@
       <c r="C82" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D82" s="2">
+      <c r="D82">
         <v>3570327000197</v>
       </c>
-      <c r="E82" s="3" t="s">
+      <c r="E82" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="F82" s="4" t="s">
+      <c r="F82" s="2" t="s">
         <v>247</v>
       </c>
       <c r="G82" s="1" t="s">
@@ -6753,10 +6751,10 @@
       <c r="J82" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K82" s="5">
+      <c r="K82" s="3">
         <v>46000</v>
       </c>
-      <c r="L82" s="5">
+      <c r="L82" s="3">
         <v>46000</v>
       </c>
       <c r="M82" s="1" t="s">
@@ -6765,16 +6763,16 @@
       <c r="N82" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O82" s="3"/>
-      <c r="P82" s="3"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
       <c r="Q82">
         <v>0</v>
       </c>
-      <c r="R82" s="3"/>
-      <c r="S82" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T82" s="3" t="s">
+      <c r="R82" s="1"/>
+      <c r="S82" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T82" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6788,11 +6786,11 @@
       <c r="C83" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D83" s="2">
+      <c r="D83">
         <v>1000000000000</v>
       </c>
-      <c r="E83" s="3"/>
-      <c r="F83" s="4" t="s">
+      <c r="E83" s="1"/>
+      <c r="F83" s="2" t="s">
         <v>248</v>
       </c>
       <c r="G83" s="1" t="s">
@@ -6807,26 +6805,26 @@
       <c r="J83" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K83" s="5">
+      <c r="K83" s="3">
         <v>45999</v>
       </c>
-      <c r="L83" s="5">
+      <c r="L83" s="3">
         <v>46000</v>
       </c>
       <c r="M83" s="1" t="s">
         <v>250</v>
       </c>
       <c r="N83" s="1"/>
-      <c r="O83" s="3"/>
-      <c r="P83" s="3"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
       <c r="Q83">
         <v>0</v>
       </c>
-      <c r="R83" s="3"/>
-      <c r="S83" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T83" s="3" t="s">
+      <c r="R83" s="1"/>
+      <c r="S83" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T83" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6840,13 +6838,13 @@
       <c r="C84" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D84" s="2">
+      <c r="D84">
         <v>10592852000179</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="E84" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F84" s="4" t="s">
+      <c r="F84" s="2" t="s">
         <v>251</v>
       </c>
       <c r="G84" s="1" t="s">
@@ -6861,10 +6859,10 @@
       <c r="J84" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K84" s="5">
+      <c r="K84" s="3">
         <v>45999</v>
       </c>
-      <c r="L84" s="5">
+      <c r="L84" s="3">
         <v>45999</v>
       </c>
       <c r="M84" s="1" t="s">
@@ -6873,16 +6871,16 @@
       <c r="N84" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O84" s="3"/>
-      <c r="P84" s="3"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
       <c r="Q84">
         <v>0</v>
       </c>
-      <c r="R84" s="3"/>
-      <c r="S84" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T84" s="3" t="s">
+      <c r="R84" s="1"/>
+      <c r="S84" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T84" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6896,13 +6894,13 @@
       <c r="C85" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D85" s="2">
+      <c r="D85">
         <v>7433734000103</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="E85" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="F85" s="4" t="s">
+      <c r="F85" s="2" t="s">
         <v>253</v>
       </c>
       <c r="G85" s="1" t="s">
@@ -6917,10 +6915,10 @@
       <c r="J85" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K85" s="5">
+      <c r="K85" s="3">
         <v>46000</v>
       </c>
-      <c r="L85" s="5">
+      <c r="L85" s="3">
         <v>46001</v>
       </c>
       <c r="M85" s="1" t="s">
@@ -6929,16 +6927,16 @@
       <c r="N85" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O85" s="3"/>
-      <c r="P85" s="3"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
       <c r="Q85">
         <v>0</v>
       </c>
-      <c r="R85" s="3"/>
-      <c r="S85" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T85" s="3" t="s">
+      <c r="R85" s="1"/>
+      <c r="S85" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T85" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6952,13 +6950,13 @@
       <c r="C86" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D86" s="2">
+      <c r="D86">
         <v>4785105000154</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="E86" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F86" s="4" t="s">
+      <c r="F86" s="2" t="s">
         <v>254</v>
       </c>
       <c r="G86" s="1" t="s">
@@ -6973,10 +6971,10 @@
       <c r="J86" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K86" s="5">
+      <c r="K86" s="3">
         <v>46000</v>
       </c>
-      <c r="L86" s="5">
+      <c r="L86" s="3">
         <v>46000</v>
       </c>
       <c r="M86" s="1" t="s">
@@ -6985,16 +6983,16 @@
       <c r="N86" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O86" s="3"/>
-      <c r="P86" s="3"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
       <c r="Q86">
         <v>0</v>
       </c>
-      <c r="R86" s="3"/>
-      <c r="S86" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T86" s="3" t="s">
+      <c r="R86" s="1"/>
+      <c r="S86" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T86" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7008,13 +7006,13 @@
       <c r="C87" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D87" s="2">
+      <c r="D87">
         <v>76816842000420</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="E87" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="F87" s="4" t="s">
+      <c r="F87" s="2" t="s">
         <v>255</v>
       </c>
       <c r="G87" s="1" t="s">
@@ -7029,10 +7027,10 @@
       <c r="J87" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K87" s="5">
+      <c r="K87" s="3">
         <v>46000</v>
       </c>
-      <c r="L87" s="5">
+      <c r="L87" s="3">
         <v>46000</v>
       </c>
       <c r="M87" s="1" t="s">
@@ -7041,16 +7039,16 @@
       <c r="N87" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O87" s="3"/>
-      <c r="P87" s="3"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
       <c r="Q87">
         <v>0</v>
       </c>
-      <c r="R87" s="3"/>
-      <c r="S87" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T87" s="3" t="s">
+      <c r="R87" s="1"/>
+      <c r="S87" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T87" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7064,13 +7062,13 @@
       <c r="C88" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D88" s="2">
+      <c r="D88">
         <v>76816842000269</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="E88" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="F88" s="4" t="s">
+      <c r="F88" s="2" t="s">
         <v>255</v>
       </c>
       <c r="G88" s="1" t="s">
@@ -7085,10 +7083,10 @@
       <c r="J88" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K88" s="5">
+      <c r="K88" s="3">
         <v>46000</v>
       </c>
-      <c r="L88" s="5">
+      <c r="L88" s="3">
         <v>46000</v>
       </c>
       <c r="M88" s="1" t="s">
@@ -7097,16 +7095,16 @@
       <c r="N88" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O88" s="3"/>
-      <c r="P88" s="3"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
       <c r="Q88">
         <v>0</v>
       </c>
-      <c r="R88" s="3"/>
-      <c r="S88" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T88" s="3" t="s">
+      <c r="R88" s="1"/>
+      <c r="S88" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T88" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7120,13 +7118,13 @@
       <c r="C89" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D89" s="2">
+      <c r="D89">
         <v>29404899000190</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="E89" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="F89" s="4" t="s">
+      <c r="F89" s="2" t="s">
         <v>257</v>
       </c>
       <c r="G89" s="1" t="s">
@@ -7141,10 +7139,10 @@
       <c r="J89" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K89" s="5">
+      <c r="K89" s="3">
         <v>46000</v>
       </c>
-      <c r="L89" s="5">
+      <c r="L89" s="3">
         <v>46000</v>
       </c>
       <c r="M89" s="1" t="s">
@@ -7153,16 +7151,16 @@
       <c r="N89" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O89" s="3"/>
-      <c r="P89" s="3"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
       <c r="Q89">
         <v>0</v>
       </c>
-      <c r="R89" s="3"/>
-      <c r="S89" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T89" s="3" t="s">
+      <c r="R89" s="1"/>
+      <c r="S89" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T89" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7176,13 +7174,13 @@
       <c r="C90" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D90" s="2">
+      <c r="D90">
         <v>29404899000351</v>
       </c>
-      <c r="E90" s="3" t="s">
+      <c r="E90" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="F90" s="4" t="s">
+      <c r="F90" s="2" t="s">
         <v>257</v>
       </c>
       <c r="G90" s="1" t="s">
@@ -7197,10 +7195,10 @@
       <c r="J90" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K90" s="5">
+      <c r="K90" s="3">
         <v>46000</v>
       </c>
-      <c r="L90" s="5">
+      <c r="L90" s="3">
         <v>46000</v>
       </c>
       <c r="M90" s="1" t="s">
@@ -7209,16 +7207,16 @@
       <c r="N90" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O90" s="3"/>
-      <c r="P90" s="3"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
       <c r="Q90">
         <v>0</v>
       </c>
-      <c r="R90" s="3"/>
-      <c r="S90" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T90" s="3" t="s">
+      <c r="R90" s="1"/>
+      <c r="S90" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T90" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7232,13 +7230,13 @@
       <c r="C91" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D91" s="2">
+      <c r="D91">
         <v>4868412000794</v>
       </c>
-      <c r="E91" s="3" t="s">
+      <c r="E91" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="F91" s="4" t="s">
+      <c r="F91" s="2" t="s">
         <v>259</v>
       </c>
       <c r="G91" s="1" t="s">
@@ -7253,10 +7251,10 @@
       <c r="J91" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K91" s="5">
+      <c r="K91" s="3">
         <v>46000</v>
       </c>
-      <c r="L91" s="5">
+      <c r="L91" s="3">
         <v>46000</v>
       </c>
       <c r="M91" s="1" t="s">
@@ -7265,16 +7263,16 @@
       <c r="N91" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O91" s="3"/>
-      <c r="P91" s="3"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
       <c r="Q91">
         <v>0</v>
       </c>
-      <c r="R91" s="3"/>
-      <c r="S91" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T91" s="3" t="s">
+      <c r="R91" s="1"/>
+      <c r="S91" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T91" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7288,13 +7286,13 @@
       <c r="C92" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D92" s="2">
+      <c r="D92">
         <v>61620792000191</v>
       </c>
-      <c r="E92" s="3" t="s">
+      <c r="E92" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F92" s="4" t="s">
+      <c r="F92" s="2" t="s">
         <v>260</v>
       </c>
       <c r="G92" s="1" t="s">
@@ -7309,10 +7307,10 @@
       <c r="J92" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K92" s="5">
+      <c r="K92" s="3">
         <v>46000</v>
       </c>
-      <c r="L92" s="5">
+      <c r="L92" s="3">
         <v>46000</v>
       </c>
       <c r="M92" s="1" t="s">
@@ -7321,16 +7319,16 @@
       <c r="N92" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O92" s="3"/>
-      <c r="P92" s="3"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
       <c r="Q92">
         <v>0</v>
       </c>
-      <c r="R92" s="3"/>
-      <c r="S92" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T92" s="3" t="s">
+      <c r="R92" s="1"/>
+      <c r="S92" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T92" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7344,11 +7342,11 @@
       <c r="C93" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D93" s="2">
+      <c r="D93">
         <v>57900011000145</v>
       </c>
-      <c r="E93" s="3"/>
-      <c r="F93" s="4" t="s">
+      <c r="E93" s="1"/>
+      <c r="F93" s="2" t="s">
         <v>261</v>
       </c>
       <c r="G93" s="1" t="s">
@@ -7363,26 +7361,26 @@
       <c r="J93" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K93" s="5">
+      <c r="K93" s="3">
         <v>46000</v>
       </c>
-      <c r="L93" s="5">
+      <c r="L93" s="3">
         <v>46000</v>
       </c>
       <c r="M93" s="1"/>
       <c r="N93" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O93" s="3"/>
-      <c r="P93" s="3"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
       <c r="Q93">
         <v>0</v>
       </c>
-      <c r="R93" s="3"/>
-      <c r="S93" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T93" s="3" t="s">
+      <c r="R93" s="1"/>
+      <c r="S93" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T93" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7396,11 +7394,11 @@
       <c r="C94" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D94" s="2">
+      <c r="D94">
         <v>11111111111111</v>
       </c>
-      <c r="E94" s="3"/>
-      <c r="F94" s="4" t="s">
+      <c r="E94" s="1"/>
+      <c r="F94" s="2" t="s">
         <v>262</v>
       </c>
       <c r="G94" s="1" t="s">
@@ -7415,26 +7413,26 @@
       <c r="J94" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K94" s="5">
+      <c r="K94" s="3">
         <v>46000</v>
       </c>
-      <c r="L94" s="5">
+      <c r="L94" s="3">
         <v>46000</v>
       </c>
       <c r="M94" s="1"/>
       <c r="N94" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O94" s="3"/>
-      <c r="P94" s="3"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="1"/>
       <c r="Q94">
         <v>0</v>
       </c>
-      <c r="R94" s="3"/>
-      <c r="S94" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T94" s="3" t="s">
+      <c r="R94" s="1"/>
+      <c r="S94" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T94" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7448,13 +7446,13 @@
       <c r="C95" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D95" s="2">
+      <c r="D95">
         <v>87091997003136</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="E95" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="F95" s="4" t="s">
+      <c r="F95" s="2" t="s">
         <v>263</v>
       </c>
       <c r="G95" s="1" t="s">
@@ -7469,10 +7467,10 @@
       <c r="J95" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K95" s="5">
+      <c r="K95" s="3">
         <v>46001</v>
       </c>
-      <c r="L95" s="5">
+      <c r="L95" s="3">
         <v>46002</v>
       </c>
       <c r="M95" s="1" t="s">
@@ -7481,16 +7479,16 @@
       <c r="N95" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O95" s="3"/>
-      <c r="P95" s="3"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
       <c r="Q95">
         <v>0</v>
       </c>
-      <c r="R95" s="3"/>
-      <c r="S95" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T95" s="3" t="s">
+      <c r="R95" s="1"/>
+      <c r="S95" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T95" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7504,13 +7502,13 @@
       <c r="C96" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D96" s="2">
+      <c r="D96">
         <v>22624848000205</v>
       </c>
-      <c r="E96" s="3" t="s">
+      <c r="E96" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="F96" s="4" t="s">
+      <c r="F96" s="2" t="s">
         <v>265</v>
       </c>
       <c r="G96" s="1" t="s">
@@ -7525,10 +7523,10 @@
       <c r="J96" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K96" s="5">
+      <c r="K96" s="3">
         <v>46001</v>
       </c>
-      <c r="L96" s="5">
+      <c r="L96" s="3">
         <v>46001</v>
       </c>
       <c r="M96" s="1" t="s">
@@ -7537,16 +7535,16 @@
       <c r="N96" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O96" s="3"/>
-      <c r="P96" s="3"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
       <c r="Q96">
         <v>0</v>
       </c>
-      <c r="R96" s="3"/>
-      <c r="S96" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T96" s="3" t="s">
+      <c r="R96" s="1"/>
+      <c r="S96" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T96" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7560,13 +7558,13 @@
       <c r="C97" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D97" s="2">
+      <c r="D97">
         <v>91411256004991</v>
       </c>
-      <c r="E97" s="3" t="s">
+      <c r="E97" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="F97" s="4" t="s">
+      <c r="F97" s="2" t="s">
         <v>268</v>
       </c>
       <c r="G97" s="1" t="s">
@@ -7581,10 +7579,10 @@
       <c r="J97" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K97" s="5">
+      <c r="K97" s="3">
         <v>46001</v>
       </c>
-      <c r="L97" s="5">
+      <c r="L97" s="3">
         <v>46002</v>
       </c>
       <c r="M97" s="1" t="s">
@@ -7593,16 +7591,16 @@
       <c r="N97" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O97" s="3"/>
-      <c r="P97" s="3"/>
+      <c r="O97" s="1"/>
+      <c r="P97" s="1"/>
       <c r="Q97">
         <v>0</v>
       </c>
-      <c r="R97" s="3"/>
-      <c r="S97" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T97" s="3" t="s">
+      <c r="R97" s="1"/>
+      <c r="S97" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T97" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7616,13 +7614,13 @@
       <c r="C98" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D98" s="2">
+      <c r="D98">
         <v>1991461003402</v>
       </c>
-      <c r="E98" s="3" t="s">
+      <c r="E98" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F98" s="4" t="s">
+      <c r="F98" s="2" t="s">
         <v>268</v>
       </c>
       <c r="G98" s="1" t="s">
@@ -7637,10 +7635,10 @@
       <c r="J98" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K98" s="5">
+      <c r="K98" s="3">
         <v>46001</v>
       </c>
-      <c r="L98" s="5">
+      <c r="L98" s="3">
         <v>46002</v>
       </c>
       <c r="M98" s="1" t="s">
@@ -7649,16 +7647,16 @@
       <c r="N98" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O98" s="3"/>
-      <c r="P98" s="3"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
       <c r="Q98">
         <v>0</v>
       </c>
-      <c r="R98" s="3"/>
-      <c r="S98" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T98" s="3" t="s">
+      <c r="R98" s="1"/>
+      <c r="S98" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T98" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7672,11 +7670,11 @@
       <c r="C99" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D99" s="2">
+      <c r="D99">
         <v>11111111111111</v>
       </c>
-      <c r="E99" s="3"/>
-      <c r="F99" s="4" t="s">
+      <c r="E99" s="1"/>
+      <c r="F99" s="2" t="s">
         <v>269</v>
       </c>
       <c r="G99" s="1" t="s">
@@ -7689,10 +7687,10 @@
         <v>238</v>
       </c>
       <c r="J99" s="1"/>
-      <c r="K99" s="5">
+      <c r="K99" s="3">
         <v>46001</v>
       </c>
-      <c r="L99" s="5">
+      <c r="L99" s="3">
         <v>46001</v>
       </c>
       <c r="M99" s="1" t="s">
@@ -7701,16 +7699,16 @@
       <c r="N99" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O99" s="3"/>
-      <c r="P99" s="3"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="1"/>
       <c r="Q99">
         <v>0</v>
       </c>
-      <c r="R99" s="3"/>
-      <c r="S99" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T99" s="3" t="s">
+      <c r="R99" s="1"/>
+      <c r="S99" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T99" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7724,13 +7722,13 @@
       <c r="C100" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D100" s="2">
+      <c r="D100">
         <v>14652825000103</v>
       </c>
-      <c r="E100" s="3" t="s">
+      <c r="E100" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="F100" s="4" t="s">
+      <c r="F100" s="2" t="s">
         <v>271</v>
       </c>
       <c r="G100" s="1" t="s">
@@ -7745,10 +7743,10 @@
       <c r="J100" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K100" s="5">
+      <c r="K100" s="3">
         <v>46001</v>
       </c>
-      <c r="L100" s="5">
+      <c r="L100" s="3">
         <v>46001</v>
       </c>
       <c r="M100" s="1" t="s">
@@ -7757,16 +7755,16 @@
       <c r="N100" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O100" s="3"/>
-      <c r="P100" s="3"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="1"/>
       <c r="Q100">
         <v>0</v>
       </c>
-      <c r="R100" s="3"/>
-      <c r="S100" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T100" s="3" t="s">
+      <c r="R100" s="1"/>
+      <c r="S100" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T100" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7780,13 +7778,13 @@
       <c r="C101" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D101" s="2">
+      <c r="D101">
         <v>15699123000130</v>
       </c>
-      <c r="E101" s="3" t="s">
+      <c r="E101" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="F101" s="4" t="s">
+      <c r="F101" s="2" t="s">
         <v>273</v>
       </c>
       <c r="G101" s="1" t="s">
@@ -7801,10 +7799,10 @@
       <c r="J101" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K101" s="5">
+      <c r="K101" s="3">
         <v>46001</v>
       </c>
-      <c r="L101" s="5">
+      <c r="L101" s="3">
         <v>46001</v>
       </c>
       <c r="M101" s="1" t="s">
@@ -7813,16 +7811,16 @@
       <c r="N101" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O101" s="3"/>
-      <c r="P101" s="3"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="1"/>
       <c r="Q101">
         <v>0</v>
       </c>
-      <c r="R101" s="3"/>
-      <c r="S101" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T101" s="3" t="s">
+      <c r="R101" s="1"/>
+      <c r="S101" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T101" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7836,13 +7834,13 @@
       <c r="C102" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D102" s="2">
+      <c r="D102">
         <v>27192758000397</v>
       </c>
-      <c r="E102" s="3" t="s">
+      <c r="E102" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="F102" s="4" t="s">
+      <c r="F102" s="2" t="s">
         <v>276</v>
       </c>
       <c r="G102" s="1" t="s">
@@ -7857,10 +7855,10 @@
       <c r="J102" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K102" s="5">
+      <c r="K102" s="3">
         <v>46001</v>
       </c>
-      <c r="L102" s="5">
+      <c r="L102" s="3">
         <v>46001</v>
       </c>
       <c r="M102" s="1" t="s">
@@ -7869,16 +7867,16 @@
       <c r="N102" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O102" s="3"/>
-      <c r="P102" s="3"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="1"/>
       <c r="Q102">
         <v>0</v>
       </c>
-      <c r="R102" s="3"/>
-      <c r="S102" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T102" s="3" t="s">
+      <c r="R102" s="1"/>
+      <c r="S102" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T102" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7892,13 +7890,13 @@
       <c r="C103" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D103" s="2">
+      <c r="D103">
         <v>37261764000140</v>
       </c>
-      <c r="E103" s="3" t="s">
+      <c r="E103" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="F103" s="4" t="s">
+      <c r="F103" s="2" t="s">
         <v>279</v>
       </c>
       <c r="G103" s="1" t="s">
@@ -7913,10 +7911,10 @@
       <c r="J103" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K103" s="5">
+      <c r="K103" s="3">
         <v>46001</v>
       </c>
-      <c r="L103" s="5">
+      <c r="L103" s="3">
         <v>46001</v>
       </c>
       <c r="M103" s="1" t="s">
@@ -7925,16 +7923,16 @@
       <c r="N103" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O103" s="3"/>
-      <c r="P103" s="3"/>
+      <c r="O103" s="1"/>
+      <c r="P103" s="1"/>
       <c r="Q103">
         <v>0</v>
       </c>
-      <c r="R103" s="3"/>
-      <c r="S103" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T103" s="3" t="s">
+      <c r="R103" s="1"/>
+      <c r="S103" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T103" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7948,13 +7946,13 @@
       <c r="C104" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D104" s="2">
+      <c r="D104">
         <v>306597002655</v>
       </c>
-      <c r="E104" s="3" t="s">
+      <c r="E104" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="F104" s="4" t="s">
+      <c r="F104" s="2" t="s">
         <v>281</v>
       </c>
       <c r="G104" s="1" t="s">
@@ -7969,10 +7967,10 @@
       <c r="J104" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K104" s="5">
+      <c r="K104" s="3">
         <v>46001</v>
       </c>
-      <c r="L104" s="5">
+      <c r="L104" s="3">
         <v>46001</v>
       </c>
       <c r="M104" s="1" t="s">
@@ -7981,16 +7979,16 @@
       <c r="N104" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O104" s="3"/>
-      <c r="P104" s="3"/>
+      <c r="O104" s="1"/>
+      <c r="P104" s="1"/>
       <c r="Q104">
         <v>0</v>
       </c>
-      <c r="R104" s="3"/>
-      <c r="S104" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T104" s="3" t="s">
+      <c r="R104" s="1"/>
+      <c r="S104" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T104" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8004,13 +8002,13 @@
       <c r="C105" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D105" s="2">
+      <c r="D105">
         <v>26697754000136</v>
       </c>
-      <c r="E105" s="3" t="s">
+      <c r="E105" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="F105" s="4" t="s">
+      <c r="F105" s="2" t="s">
         <v>273</v>
       </c>
       <c r="G105" s="1" t="s">
@@ -8025,10 +8023,10 @@
       <c r="J105" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K105" s="5">
+      <c r="K105" s="3">
         <v>46001</v>
       </c>
-      <c r="L105" s="5">
+      <c r="L105" s="3">
         <v>46001</v>
       </c>
       <c r="M105" s="1" t="s">
@@ -8037,16 +8035,16 @@
       <c r="N105" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O105" s="3"/>
-      <c r="P105" s="3"/>
+      <c r="O105" s="1"/>
+      <c r="P105" s="1"/>
       <c r="Q105">
         <v>0</v>
       </c>
-      <c r="R105" s="3"/>
-      <c r="S105" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T105" s="3" t="s">
+      <c r="R105" s="1"/>
+      <c r="S105" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T105" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8060,13 +8058,13 @@
       <c r="C106" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D106" s="2">
+      <c r="D106">
         <v>35119645000203</v>
       </c>
-      <c r="E106" s="3" t="s">
+      <c r="E106" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F106" s="4" t="s">
+      <c r="F106" s="2" t="s">
         <v>273</v>
       </c>
       <c r="G106" s="1" t="s">
@@ -8081,10 +8079,10 @@
       <c r="J106" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K106" s="5">
+      <c r="K106" s="3">
         <v>46001</v>
       </c>
-      <c r="L106" s="5">
+      <c r="L106" s="3">
         <v>46001</v>
       </c>
       <c r="M106" s="1" t="s">
@@ -8093,16 +8091,16 @@
       <c r="N106" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O106" s="3"/>
-      <c r="P106" s="3"/>
+      <c r="O106" s="1"/>
+      <c r="P106" s="1"/>
       <c r="Q106">
         <v>0</v>
       </c>
-      <c r="R106" s="3"/>
-      <c r="S106" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T106" s="3" t="s">
+      <c r="R106" s="1"/>
+      <c r="S106" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T106" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8116,13 +8114,13 @@
       <c r="C107" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D107" s="2">
+      <c r="D107">
         <v>14060985000155</v>
       </c>
-      <c r="E107" s="3" t="s">
+      <c r="E107" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="F107" s="4" t="s">
+      <c r="F107" s="2" t="s">
         <v>285</v>
       </c>
       <c r="G107" s="1" t="s">
@@ -8137,10 +8135,10 @@
       <c r="J107" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K107" s="5">
+      <c r="K107" s="3">
         <v>45999</v>
       </c>
-      <c r="L107" s="5">
+      <c r="L107" s="3">
         <v>45999</v>
       </c>
       <c r="M107" s="1" t="s">
@@ -8149,16 +8147,16 @@
       <c r="N107" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O107" s="3"/>
-      <c r="P107" s="3"/>
+      <c r="O107" s="1"/>
+      <c r="P107" s="1"/>
       <c r="Q107">
         <v>0</v>
       </c>
-      <c r="R107" s="3"/>
-      <c r="S107" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T107" s="3" t="s">
+      <c r="R107" s="1"/>
+      <c r="S107" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T107" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8172,13 +8170,13 @@
       <c r="C108" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D108" s="2">
+      <c r="D108">
         <v>2279387000192</v>
       </c>
-      <c r="E108" s="3" t="s">
+      <c r="E108" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="F108" s="4" t="s">
+      <c r="F108" s="2" t="s">
         <v>287</v>
       </c>
       <c r="G108" s="1" t="s">
@@ -8193,10 +8191,10 @@
       <c r="J108" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K108" s="5">
+      <c r="K108" s="3">
         <v>46002</v>
       </c>
-      <c r="L108" s="5">
+      <c r="L108" s="3">
         <v>46002</v>
       </c>
       <c r="M108" s="1" t="s">
@@ -8205,16 +8203,16 @@
       <c r="N108" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O108" s="3"/>
-      <c r="P108" s="3"/>
+      <c r="O108" s="1"/>
+      <c r="P108" s="1"/>
       <c r="Q108">
         <v>0</v>
       </c>
-      <c r="R108" s="3"/>
-      <c r="S108" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T108" s="3" t="s">
+      <c r="R108" s="1"/>
+      <c r="S108" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T108" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8228,13 +8226,13 @@
       <c r="C109" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D109" s="2">
+      <c r="D109">
         <v>4171451000142</v>
       </c>
-      <c r="E109" s="3" t="s">
+      <c r="E109" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="F109" s="4" t="s">
+      <c r="F109" s="2" t="s">
         <v>289</v>
       </c>
       <c r="G109" s="1" t="s">
@@ -8249,10 +8247,10 @@
       <c r="J109" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K109" s="5">
+      <c r="K109" s="3">
         <v>46002</v>
       </c>
-      <c r="L109" s="5">
+      <c r="L109" s="3">
         <v>46006</v>
       </c>
       <c r="M109" s="1" t="s">
@@ -8261,16 +8259,16 @@
       <c r="N109" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O109" s="3"/>
-      <c r="P109" s="3"/>
+      <c r="O109" s="1"/>
+      <c r="P109" s="1"/>
       <c r="Q109">
         <v>0</v>
       </c>
-      <c r="R109" s="3"/>
-      <c r="S109" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T109" s="3" t="s">
+      <c r="R109" s="1"/>
+      <c r="S109" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T109" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8284,13 +8282,13 @@
       <c r="C110" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D110" s="2">
+      <c r="D110">
         <v>7177658000112</v>
       </c>
-      <c r="E110" s="3" t="s">
+      <c r="E110" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="F110" s="4" t="s">
+      <c r="F110" s="2" t="s">
         <v>292</v>
       </c>
       <c r="G110" s="1" t="s">
@@ -8305,10 +8303,10 @@
       <c r="J110" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K110" s="5">
+      <c r="K110" s="3">
         <v>46002</v>
       </c>
-      <c r="L110" s="5">
+      <c r="L110" s="3">
         <v>46006</v>
       </c>
       <c r="M110" s="1" t="s">
@@ -8317,16 +8315,16 @@
       <c r="N110" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O110" s="3"/>
-      <c r="P110" s="3"/>
+      <c r="O110" s="1"/>
+      <c r="P110" s="1"/>
       <c r="Q110">
         <v>0</v>
       </c>
-      <c r="R110" s="3"/>
-      <c r="S110" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T110" s="3" t="s">
+      <c r="R110" s="1"/>
+      <c r="S110" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T110" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8340,13 +8338,13 @@
       <c r="C111" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D111" s="2">
+      <c r="D111">
         <v>13367056000120</v>
       </c>
-      <c r="E111" s="3" t="s">
+      <c r="E111" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="F111" s="4" t="s">
+      <c r="F111" s="2" t="s">
         <v>295</v>
       </c>
       <c r="G111" s="1" t="s">
@@ -8361,10 +8359,10 @@
       <c r="J111" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K111" s="5">
+      <c r="K111" s="3">
         <v>46002</v>
       </c>
-      <c r="L111" s="5">
+      <c r="L111" s="3">
         <v>46006</v>
       </c>
       <c r="M111" s="1" t="s">
@@ -8373,16 +8371,16 @@
       <c r="N111" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O111" s="3"/>
-      <c r="P111" s="3"/>
+      <c r="O111" s="1"/>
+      <c r="P111" s="1"/>
       <c r="Q111">
         <v>0</v>
       </c>
-      <c r="R111" s="3"/>
-      <c r="S111" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T111" s="3" t="s">
+      <c r="R111" s="1"/>
+      <c r="S111" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T111" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8396,13 +8394,13 @@
       <c r="C112" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D112" s="2">
+      <c r="D112">
         <v>45761173000160</v>
       </c>
-      <c r="E112" s="3" t="s">
+      <c r="E112" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="F112" s="4" t="s">
+      <c r="F112" s="2" t="s">
         <v>297</v>
       </c>
       <c r="G112" s="1" t="s">
@@ -8417,26 +8415,26 @@
       <c r="J112" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K112" s="5">
+      <c r="K112" s="3">
         <v>46002</v>
       </c>
-      <c r="L112" s="5"/>
+      <c r="L112" s="3"/>
       <c r="M112" s="1" t="s">
         <v>167</v>
       </c>
       <c r="N112" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O112" s="3"/>
-      <c r="P112" s="3"/>
+      <c r="O112" s="1"/>
+      <c r="P112" s="1"/>
       <c r="Q112">
         <v>0</v>
       </c>
-      <c r="R112" s="3"/>
-      <c r="S112" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T112" s="3" t="s">
+      <c r="R112" s="1"/>
+      <c r="S112" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T112" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8450,13 +8448,13 @@
       <c r="C113" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D113" s="2">
+      <c r="D113">
         <v>35119645000203</v>
       </c>
-      <c r="E113" s="3" t="s">
+      <c r="E113" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F113" s="4" t="s">
+      <c r="F113" s="2" t="s">
         <v>298</v>
       </c>
       <c r="G113" s="1" t="s">
@@ -8471,8 +8469,8 @@
       <c r="J113" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K113" s="5"/>
-      <c r="L113" s="5">
+      <c r="K113" s="3"/>
+      <c r="L113" s="3">
         <v>46002</v>
       </c>
       <c r="M113" s="1" t="s">
@@ -8481,16 +8479,16 @@
       <c r="N113" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O113" s="3"/>
-      <c r="P113" s="3"/>
+      <c r="O113" s="1"/>
+      <c r="P113" s="1"/>
       <c r="Q113">
         <v>0</v>
       </c>
-      <c r="R113" s="3"/>
-      <c r="S113" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T113" s="3" t="s">
+      <c r="R113" s="1"/>
+      <c r="S113" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T113" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8504,13 +8502,13 @@
       <c r="C114" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D114" s="2">
+      <c r="D114">
         <v>76816842000420</v>
       </c>
-      <c r="E114" s="3" t="s">
+      <c r="E114" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="F114" s="4" t="s">
+      <c r="F114" s="2" t="s">
         <v>299</v>
       </c>
       <c r="G114" s="1" t="s">
@@ -8525,10 +8523,10 @@
       <c r="J114" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K114" s="5">
+      <c r="K114" s="3">
         <v>46002</v>
       </c>
-      <c r="L114" s="5">
+      <c r="L114" s="3">
         <v>46002</v>
       </c>
       <c r="M114" s="1" t="s">
@@ -8537,16 +8535,16 @@
       <c r="N114" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O114" s="3"/>
-      <c r="P114" s="3"/>
+      <c r="O114" s="1"/>
+      <c r="P114" s="1"/>
       <c r="Q114">
         <v>0</v>
       </c>
-      <c r="R114" s="3"/>
-      <c r="S114" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T114" s="3" t="s">
+      <c r="R114" s="1"/>
+      <c r="S114" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T114" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8560,13 +8558,13 @@
       <c r="C115" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D115" s="2">
+      <c r="D115">
         <v>52642559000119</v>
       </c>
-      <c r="E115" s="3" t="s">
+      <c r="E115" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="F115" s="4" t="s">
+      <c r="F115" s="2" t="s">
         <v>301</v>
       </c>
       <c r="G115" s="1" t="s">
@@ -8581,10 +8579,10 @@
       <c r="J115" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K115" s="5">
+      <c r="K115" s="3">
         <v>46002</v>
       </c>
-      <c r="L115" s="5">
+      <c r="L115" s="3">
         <v>46002</v>
       </c>
       <c r="M115" s="1" t="s">
@@ -8593,16 +8591,16 @@
       <c r="N115" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O115" s="3"/>
-      <c r="P115" s="3"/>
+      <c r="O115" s="1"/>
+      <c r="P115" s="1"/>
       <c r="Q115">
         <v>0</v>
       </c>
-      <c r="R115" s="3"/>
-      <c r="S115" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T115" s="3" t="s">
+      <c r="R115" s="1"/>
+      <c r="S115" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T115" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8616,13 +8614,13 @@
       <c r="C116" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D116" s="2">
+      <c r="D116">
         <v>5357865000123</v>
       </c>
-      <c r="E116" s="3" t="s">
+      <c r="E116" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="F116" s="4" t="s">
+      <c r="F116" s="2" t="s">
         <v>303</v>
       </c>
       <c r="G116" s="1" t="s">
@@ -8637,10 +8635,10 @@
       <c r="J116" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K116" s="5">
+      <c r="K116" s="3">
         <v>46002</v>
       </c>
-      <c r="L116" s="5">
+      <c r="L116" s="3">
         <v>46002</v>
       </c>
       <c r="M116" s="1" t="s">
@@ -8649,16 +8647,16 @@
       <c r="N116" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O116" s="3"/>
-      <c r="P116" s="3"/>
+      <c r="O116" s="1"/>
+      <c r="P116" s="1"/>
       <c r="Q116">
         <v>0</v>
       </c>
-      <c r="R116" s="3"/>
-      <c r="S116" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T116" s="3" t="s">
+      <c r="R116" s="1"/>
+      <c r="S116" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T116" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8672,13 +8670,13 @@
       <c r="C117" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D117" s="2">
+      <c r="D117">
         <v>7405721000120</v>
       </c>
-      <c r="E117" s="3" t="s">
+      <c r="E117" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="F117" s="4" t="s">
+      <c r="F117" s="2" t="s">
         <v>305</v>
       </c>
       <c r="G117" s="1" t="s">
@@ -8693,10 +8691,10 @@
       <c r="J117" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K117" s="5">
+      <c r="K117" s="3">
         <v>46002</v>
       </c>
-      <c r="L117" s="5">
+      <c r="L117" s="3">
         <v>46002</v>
       </c>
       <c r="M117" s="1" t="s">
@@ -8705,16 +8703,16 @@
       <c r="N117" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O117" s="3"/>
-      <c r="P117" s="3"/>
+      <c r="O117" s="1"/>
+      <c r="P117" s="1"/>
       <c r="Q117">
         <v>0</v>
       </c>
-      <c r="R117" s="3"/>
-      <c r="S117" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T117" s="3" t="s">
+      <c r="R117" s="1"/>
+      <c r="S117" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T117" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8728,13 +8726,13 @@
       <c r="C118" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D118" s="2">
+      <c r="D118">
         <v>4868412000794</v>
       </c>
-      <c r="E118" s="3" t="s">
+      <c r="E118" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="F118" s="4" t="s">
+      <c r="F118" s="2" t="s">
         <v>306</v>
       </c>
       <c r="G118" s="1" t="s">
@@ -8749,10 +8747,10 @@
       <c r="J118" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K118" s="5">
+      <c r="K118" s="3">
         <v>46002</v>
       </c>
-      <c r="L118" s="5">
+      <c r="L118" s="3">
         <v>46002</v>
       </c>
       <c r="M118" s="1" t="s">
@@ -8761,16 +8759,16 @@
       <c r="N118" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O118" s="3"/>
-      <c r="P118" s="3"/>
+      <c r="O118" s="1"/>
+      <c r="P118" s="1"/>
       <c r="Q118">
         <v>0</v>
       </c>
-      <c r="R118" s="3"/>
-      <c r="S118" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T118" s="3" t="s">
+      <c r="R118" s="1"/>
+      <c r="S118" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T118" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8784,13 +8782,13 @@
       <c r="C119" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D119" s="2">
+      <c r="D119">
         <v>5011016000113</v>
       </c>
-      <c r="E119" s="3" t="s">
+      <c r="E119" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="F119" s="4" t="s">
+      <c r="F119" s="2" t="s">
         <v>308</v>
       </c>
       <c r="G119" s="1" t="s">
@@ -8805,10 +8803,10 @@
       <c r="J119" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K119" s="5">
+      <c r="K119" s="3">
         <v>46002</v>
       </c>
-      <c r="L119" s="5">
+      <c r="L119" s="3">
         <v>46002</v>
       </c>
       <c r="M119" s="1" t="s">
@@ -8817,16 +8815,16 @@
       <c r="N119" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O119" s="3"/>
-      <c r="P119" s="3"/>
+      <c r="O119" s="1"/>
+      <c r="P119" s="1"/>
       <c r="Q119">
         <v>0</v>
       </c>
-      <c r="R119" s="3"/>
-      <c r="S119" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T119" s="3" t="s">
+      <c r="R119" s="1"/>
+      <c r="S119" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T119" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8840,13 +8838,13 @@
       <c r="C120" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D120" s="2">
+      <c r="D120">
         <v>577065000102</v>
       </c>
-      <c r="E120" s="3" t="s">
+      <c r="E120" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="F120" s="4" t="s">
+      <c r="F120" s="2" t="s">
         <v>310</v>
       </c>
       <c r="G120" s="1" t="s">
@@ -8861,26 +8859,26 @@
       <c r="J120" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K120" s="5">
+      <c r="K120" s="3">
         <v>46002</v>
       </c>
-      <c r="L120" s="5"/>
+      <c r="L120" s="3"/>
       <c r="M120" s="1" t="s">
         <v>163</v>
       </c>
       <c r="N120" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O120" s="3"/>
-      <c r="P120" s="3"/>
+      <c r="O120" s="1"/>
+      <c r="P120" s="1"/>
       <c r="Q120">
         <v>0</v>
       </c>
-      <c r="R120" s="3"/>
-      <c r="S120" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T120" s="3" t="s">
+      <c r="R120" s="1"/>
+      <c r="S120" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T120" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8894,13 +8892,13 @@
       <c r="C121" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D121" s="2">
+      <c r="D121">
         <v>51556055000113</v>
       </c>
-      <c r="E121" s="3" t="s">
+      <c r="E121" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="F121" s="4" t="s">
+      <c r="F121" s="2" t="s">
         <v>313</v>
       </c>
       <c r="G121" s="1" t="s">
@@ -8915,26 +8913,26 @@
       <c r="J121" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K121" s="5">
+      <c r="K121" s="3">
         <v>46002</v>
       </c>
-      <c r="L121" s="5"/>
+      <c r="L121" s="3"/>
       <c r="M121" s="1" t="s">
         <v>135</v>
       </c>
       <c r="N121" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O121" s="3"/>
-      <c r="P121" s="3"/>
+      <c r="O121" s="1"/>
+      <c r="P121" s="1"/>
       <c r="Q121">
         <v>0</v>
       </c>
-      <c r="R121" s="3"/>
-      <c r="S121" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T121" s="3" t="s">
+      <c r="R121" s="1"/>
+      <c r="S121" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T121" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8948,13 +8946,13 @@
       <c r="C122" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D122" s="2">
+      <c r="D122">
         <v>20415295001901</v>
       </c>
-      <c r="E122" s="3" t="s">
+      <c r="E122" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="F122" s="4" t="s">
+      <c r="F122" s="2" t="s">
         <v>315</v>
       </c>
       <c r="G122" s="1" t="s">
@@ -8969,10 +8967,10 @@
       <c r="J122" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K122" s="5">
+      <c r="K122" s="3">
         <v>46002</v>
       </c>
-      <c r="L122" s="5">
+      <c r="L122" s="3">
         <v>46002</v>
       </c>
       <c r="M122" s="1" t="s">
@@ -8981,16 +8979,16 @@
       <c r="N122" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O122" s="3"/>
-      <c r="P122" s="3"/>
+      <c r="O122" s="1"/>
+      <c r="P122" s="1"/>
       <c r="Q122">
         <v>0</v>
       </c>
-      <c r="R122" s="3"/>
-      <c r="S122" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T122" s="3" t="s">
+      <c r="R122" s="1"/>
+      <c r="S122" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T122" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9004,13 +9002,13 @@
       <c r="C123" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D123" s="2">
+      <c r="D123">
         <v>57832654000107</v>
       </c>
-      <c r="E123" s="3" t="s">
+      <c r="E123" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F123" s="4" t="s">
+      <c r="F123" s="2" t="s">
         <v>317</v>
       </c>
       <c r="G123" s="1" t="s">
@@ -9025,10 +9023,10 @@
       <c r="J123" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K123" s="5">
+      <c r="K123" s="3">
         <v>46002</v>
       </c>
-      <c r="L123" s="5">
+      <c r="L123" s="3">
         <v>46002</v>
       </c>
       <c r="M123" s="1" t="s">
@@ -9037,16 +9035,16 @@
       <c r="N123" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O123" s="3"/>
-      <c r="P123" s="3"/>
+      <c r="O123" s="1"/>
+      <c r="P123" s="1"/>
       <c r="Q123">
         <v>0</v>
       </c>
-      <c r="R123" s="3"/>
-      <c r="S123" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T123" s="3" t="s">
+      <c r="R123" s="1"/>
+      <c r="S123" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T123" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9060,13 +9058,13 @@
       <c r="C124" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D124" s="2">
+      <c r="D124">
         <v>48227957000100</v>
       </c>
-      <c r="E124" s="3" t="s">
+      <c r="E124" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="F124" s="4" t="s">
+      <c r="F124" s="2" t="s">
         <v>318</v>
       </c>
       <c r="G124" s="1" t="s">
@@ -9081,10 +9079,10 @@
       <c r="J124" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K124" s="5">
+      <c r="K124" s="3">
         <v>45999</v>
       </c>
-      <c r="L124" s="5">
+      <c r="L124" s="3">
         <v>46001</v>
       </c>
       <c r="M124" s="1" t="s">
@@ -9093,16 +9091,16 @@
       <c r="N124" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O124" s="3"/>
-      <c r="P124" s="3"/>
+      <c r="O124" s="1"/>
+      <c r="P124" s="1"/>
       <c r="Q124">
         <v>0</v>
       </c>
-      <c r="R124" s="3"/>
-      <c r="S124" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T124" s="3" t="s">
+      <c r="R124" s="1"/>
+      <c r="S124" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T124" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9116,13 +9114,13 @@
       <c r="C125" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D125" s="2">
+      <c r="D125">
         <v>306597008696</v>
       </c>
-      <c r="E125" s="3" t="s">
+      <c r="E125" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="F125" s="4" t="s">
+      <c r="F125" s="2" t="s">
         <v>319</v>
       </c>
       <c r="G125" s="1" t="s">
@@ -9137,28 +9135,28 @@
       <c r="J125" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K125" s="5">
+      <c r="K125" s="3">
         <v>46002</v>
       </c>
-      <c r="L125" s="5"/>
+      <c r="L125" s="3"/>
       <c r="M125" s="1" t="s">
         <v>44</v>
       </c>
       <c r="N125" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O125" s="3"/>
-      <c r="P125" s="3"/>
+      <c r="O125" s="1"/>
+      <c r="P125" s="1"/>
       <c r="Q125">
         <v>0</v>
       </c>
-      <c r="R125" s="3" t="s">
+      <c r="R125" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="S125" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T125" s="3" t="s">
+      <c r="S125" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T125" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9172,13 +9170,13 @@
       <c r="C126" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D126" s="2">
+      <c r="D126">
         <v>87687489000108</v>
       </c>
-      <c r="E126" s="3" t="s">
+      <c r="E126" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="F126" s="4" t="s">
+      <c r="F126" s="2" t="s">
         <v>322</v>
       </c>
       <c r="G126" s="1" t="s">
@@ -9193,10 +9191,10 @@
       <c r="J126" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K126" s="5">
+      <c r="K126" s="3">
         <v>46002</v>
       </c>
-      <c r="L126" s="5">
+      <c r="L126" s="3">
         <v>46002</v>
       </c>
       <c r="M126" s="1" t="s">
@@ -9205,16 +9203,16 @@
       <c r="N126" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="O126" s="3"/>
-      <c r="P126" s="3"/>
+      <c r="O126" s="1"/>
+      <c r="P126" s="1"/>
       <c r="Q126">
         <v>0</v>
       </c>
-      <c r="R126" s="3"/>
-      <c r="S126" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T126" s="3" t="s">
+      <c r="R126" s="1"/>
+      <c r="S126" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T126" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9228,13 +9226,13 @@
       <c r="C127" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D127" s="2">
+      <c r="D127">
         <v>4313357000180</v>
       </c>
-      <c r="E127" s="3" t="s">
+      <c r="E127" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="F127" s="4" t="s">
+      <c r="F127" s="2" t="s">
         <v>324</v>
       </c>
       <c r="G127" s="1" t="s">
@@ -9249,26 +9247,26 @@
       <c r="J127" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K127" s="5">
+      <c r="K127" s="3">
         <v>46003</v>
       </c>
-      <c r="L127" s="5"/>
+      <c r="L127" s="3"/>
       <c r="M127" s="1" t="s">
         <v>293</v>
       </c>
       <c r="N127" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O127" s="3"/>
-      <c r="P127" s="3"/>
+      <c r="O127" s="1"/>
+      <c r="P127" s="1"/>
       <c r="Q127">
         <v>0</v>
       </c>
-      <c r="R127" s="3"/>
-      <c r="S127" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T127" s="3" t="s">
+      <c r="R127" s="1"/>
+      <c r="S127" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T127" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9282,13 +9280,13 @@
       <c r="C128" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D128" s="2">
+      <c r="D128">
         <v>10337187000177</v>
       </c>
-      <c r="E128" s="3" t="s">
+      <c r="E128" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="F128" s="4" t="s">
+      <c r="F128" s="2" t="s">
         <v>327</v>
       </c>
       <c r="G128" s="1" t="s">
@@ -9303,10 +9301,10 @@
       <c r="J128" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K128" s="5">
+      <c r="K128" s="3">
         <v>46003</v>
       </c>
-      <c r="L128" s="5">
+      <c r="L128" s="3">
         <v>46003</v>
       </c>
       <c r="M128" s="1" t="s">
@@ -9315,16 +9313,16 @@
       <c r="N128" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="O128" s="3"/>
-      <c r="P128" s="3"/>
+      <c r="O128" s="1"/>
+      <c r="P128" s="1"/>
       <c r="Q128">
         <v>0</v>
       </c>
-      <c r="R128" s="3"/>
-      <c r="S128" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T128" s="3" t="s">
+      <c r="R128" s="1"/>
+      <c r="S128" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T128" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9338,13 +9336,13 @@
       <c r="C129" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D129" s="2">
+      <c r="D129">
         <v>12607854000110</v>
       </c>
-      <c r="E129" s="3" t="s">
+      <c r="E129" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="F129" s="4" t="s">
+      <c r="F129" s="2" t="s">
         <v>329</v>
       </c>
       <c r="G129" s="1" t="s">
@@ -9359,10 +9357,10 @@
       <c r="J129" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K129" s="5">
+      <c r="K129" s="3">
         <v>46003</v>
       </c>
-      <c r="L129" s="5">
+      <c r="L129" s="3">
         <v>46003</v>
       </c>
       <c r="M129" s="1" t="s">
@@ -9371,16 +9369,16 @@
       <c r="N129" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O129" s="3"/>
-      <c r="P129" s="3"/>
+      <c r="O129" s="1"/>
+      <c r="P129" s="1"/>
       <c r="Q129">
         <v>0</v>
       </c>
-      <c r="R129" s="3"/>
-      <c r="S129" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T129" s="3" t="s">
+      <c r="R129" s="1"/>
+      <c r="S129" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T129" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9394,13 +9392,13 @@
       <c r="C130" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D130" s="2">
+      <c r="D130">
         <v>14927153000193</v>
       </c>
-      <c r="E130" s="3" t="s">
+      <c r="E130" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="F130" s="4" t="s">
+      <c r="F130" s="2" t="s">
         <v>329</v>
       </c>
       <c r="G130" s="1" t="s">
@@ -9415,10 +9413,10 @@
       <c r="J130" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K130" s="5">
+      <c r="K130" s="3">
         <v>46003</v>
       </c>
-      <c r="L130" s="5">
+      <c r="L130" s="3">
         <v>46003</v>
       </c>
       <c r="M130" s="1" t="s">
@@ -9427,16 +9425,16 @@
       <c r="N130" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O130" s="3"/>
-      <c r="P130" s="3"/>
+      <c r="O130" s="1"/>
+      <c r="P130" s="1"/>
       <c r="Q130">
         <v>0</v>
       </c>
-      <c r="R130" s="3"/>
-      <c r="S130" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T130" s="3" t="s">
+      <c r="R130" s="1"/>
+      <c r="S130" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T130" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9450,13 +9448,13 @@
       <c r="C131" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D131" s="2">
+      <c r="D131">
         <v>23045221000181</v>
       </c>
-      <c r="E131" s="3" t="s">
+      <c r="E131" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="F131" s="4" t="s">
+      <c r="F131" s="2" t="s">
         <v>329</v>
       </c>
       <c r="G131" s="1" t="s">
@@ -9471,10 +9469,10 @@
       <c r="J131" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K131" s="5">
+      <c r="K131" s="3">
         <v>46003</v>
       </c>
-      <c r="L131" s="5">
+      <c r="L131" s="3">
         <v>46003</v>
       </c>
       <c r="M131" s="1" t="s">
@@ -9483,16 +9481,16 @@
       <c r="N131" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O131" s="3"/>
-      <c r="P131" s="3"/>
+      <c r="O131" s="1"/>
+      <c r="P131" s="1"/>
       <c r="Q131">
         <v>0</v>
       </c>
-      <c r="R131" s="3"/>
-      <c r="S131" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T131" s="3" t="s">
+      <c r="R131" s="1"/>
+      <c r="S131" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T131" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9506,13 +9504,13 @@
       <c r="C132" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D132" s="2">
+      <c r="D132">
         <v>26200120000398</v>
       </c>
-      <c r="E132" s="3" t="s">
+      <c r="E132" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="F132" s="4" t="s">
+      <c r="F132" s="2" t="s">
         <v>329</v>
       </c>
       <c r="G132" s="1" t="s">
@@ -9527,10 +9525,10 @@
       <c r="J132" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K132" s="5">
+      <c r="K132" s="3">
         <v>46003</v>
       </c>
-      <c r="L132" s="5">
+      <c r="L132" s="3">
         <v>46003</v>
       </c>
       <c r="M132" s="1" t="s">
@@ -9539,16 +9537,16 @@
       <c r="N132" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O132" s="3"/>
-      <c r="P132" s="3"/>
+      <c r="O132" s="1"/>
+      <c r="P132" s="1"/>
       <c r="Q132">
         <v>0</v>
       </c>
-      <c r="R132" s="3"/>
-      <c r="S132" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T132" s="3" t="s">
+      <c r="R132" s="1"/>
+      <c r="S132" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T132" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9562,13 +9560,13 @@
       <c r="C133" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D133" s="2">
+      <c r="D133">
         <v>27478752000119</v>
       </c>
-      <c r="E133" s="3" t="s">
+      <c r="E133" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="F133" s="4" t="s">
+      <c r="F133" s="2" t="s">
         <v>329</v>
       </c>
       <c r="G133" s="1" t="s">
@@ -9583,10 +9581,10 @@
       <c r="J133" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K133" s="5">
+      <c r="K133" s="3">
         <v>46003</v>
       </c>
-      <c r="L133" s="5">
+      <c r="L133" s="3">
         <v>46003</v>
       </c>
       <c r="M133" s="1" t="s">
@@ -9595,16 +9593,16 @@
       <c r="N133" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O133" s="3"/>
-      <c r="P133" s="3"/>
+      <c r="O133" s="1"/>
+      <c r="P133" s="1"/>
       <c r="Q133">
         <v>0</v>
       </c>
-      <c r="R133" s="3"/>
-      <c r="S133" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T133" s="3" t="s">
+      <c r="R133" s="1"/>
+      <c r="S133" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T133" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9618,13 +9616,13 @@
       <c r="C134" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D134" s="2">
+      <c r="D134">
         <v>4210075000158</v>
       </c>
-      <c r="E134" s="3" t="s">
+      <c r="E134" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="F134" s="4" t="s">
+      <c r="F134" s="2" t="s">
         <v>329</v>
       </c>
       <c r="G134" s="1" t="s">
@@ -9639,10 +9637,10 @@
       <c r="J134" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K134" s="5">
+      <c r="K134" s="3">
         <v>46003</v>
       </c>
-      <c r="L134" s="5">
+      <c r="L134" s="3">
         <v>46003</v>
       </c>
       <c r="M134" s="1" t="s">
@@ -9651,16 +9649,16 @@
       <c r="N134" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O134" s="3"/>
-      <c r="P134" s="3"/>
+      <c r="O134" s="1"/>
+      <c r="P134" s="1"/>
       <c r="Q134">
         <v>0</v>
       </c>
-      <c r="R134" s="3"/>
-      <c r="S134" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T134" s="3" t="s">
+      <c r="R134" s="1"/>
+      <c r="S134" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T134" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9674,13 +9672,13 @@
       <c r="C135" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D135" s="2">
+      <c r="D135">
         <v>5883774000121</v>
       </c>
-      <c r="E135" s="3" t="s">
+      <c r="E135" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="F135" s="4" t="s">
+      <c r="F135" s="2" t="s">
         <v>329</v>
       </c>
       <c r="G135" s="1" t="s">
@@ -9695,10 +9693,10 @@
       <c r="J135" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K135" s="5">
+      <c r="K135" s="3">
         <v>46003</v>
       </c>
-      <c r="L135" s="5">
+      <c r="L135" s="3">
         <v>46003</v>
       </c>
       <c r="M135" s="1" t="s">
@@ -9707,16 +9705,16 @@
       <c r="N135" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O135" s="3"/>
-      <c r="P135" s="3"/>
+      <c r="O135" s="1"/>
+      <c r="P135" s="1"/>
       <c r="Q135">
         <v>0</v>
       </c>
-      <c r="R135" s="3"/>
-      <c r="S135" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T135" s="3" t="s">
+      <c r="R135" s="1"/>
+      <c r="S135" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T135" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9730,13 +9728,13 @@
       <c r="C136" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D136" s="2">
+      <c r="D136">
         <v>5924354000146</v>
       </c>
-      <c r="E136" s="3" t="s">
+      <c r="E136" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="F136" s="4" t="s">
+      <c r="F136" s="2" t="s">
         <v>329</v>
       </c>
       <c r="G136" s="1" t="s">
@@ -9751,10 +9749,10 @@
       <c r="J136" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K136" s="5">
+      <c r="K136" s="3">
         <v>46003</v>
       </c>
-      <c r="L136" s="5">
+      <c r="L136" s="3">
         <v>46003</v>
       </c>
       <c r="M136" s="1" t="s">
@@ -9763,16 +9761,16 @@
       <c r="N136" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O136" s="3"/>
-      <c r="P136" s="3"/>
+      <c r="O136" s="1"/>
+      <c r="P136" s="1"/>
       <c r="Q136">
         <v>0</v>
       </c>
-      <c r="R136" s="3"/>
-      <c r="S136" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T136" s="3" t="s">
+      <c r="R136" s="1"/>
+      <c r="S136" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T136" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9786,13 +9784,13 @@
       <c r="C137" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D137" s="2">
+      <c r="D137">
         <v>6590459000500</v>
       </c>
-      <c r="E137" s="3" t="s">
+      <c r="E137" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="F137" s="4" t="s">
+      <c r="F137" s="2" t="s">
         <v>329</v>
       </c>
       <c r="G137" s="1" t="s">
@@ -9807,10 +9805,10 @@
       <c r="J137" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K137" s="5">
+      <c r="K137" s="3">
         <v>46003</v>
       </c>
-      <c r="L137" s="5">
+      <c r="L137" s="3">
         <v>46003</v>
       </c>
       <c r="M137" s="1" t="s">
@@ -9819,16 +9817,16 @@
       <c r="N137" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O137" s="3"/>
-      <c r="P137" s="3"/>
+      <c r="O137" s="1"/>
+      <c r="P137" s="1"/>
       <c r="Q137">
         <v>0</v>
       </c>
-      <c r="R137" s="3"/>
-      <c r="S137" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T137" s="3" t="s">
+      <c r="R137" s="1"/>
+      <c r="S137" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T137" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9842,13 +9840,13 @@
       <c r="C138" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D138" s="2">
+      <c r="D138">
         <v>7155921000172</v>
       </c>
-      <c r="E138" s="3" t="s">
+      <c r="E138" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="F138" s="4" t="s">
+      <c r="F138" s="2" t="s">
         <v>329</v>
       </c>
       <c r="G138" s="1" t="s">
@@ -9863,10 +9861,10 @@
       <c r="J138" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K138" s="5">
+      <c r="K138" s="3">
         <v>46003</v>
       </c>
-      <c r="L138" s="5">
+      <c r="L138" s="3">
         <v>46003</v>
       </c>
       <c r="M138" s="1" t="s">
@@ -9875,16 +9873,16 @@
       <c r="N138" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O138" s="3"/>
-      <c r="P138" s="3"/>
+      <c r="O138" s="1"/>
+      <c r="P138" s="1"/>
       <c r="Q138">
         <v>0</v>
       </c>
-      <c r="R138" s="3"/>
-      <c r="S138" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T138" s="3" t="s">
+      <c r="R138" s="1"/>
+      <c r="S138" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T138" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9898,13 +9896,13 @@
       <c r="C139" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D139" s="2">
+      <c r="D139">
         <v>7306162000363</v>
       </c>
-      <c r="E139" s="3" t="s">
+      <c r="E139" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="F139" s="4" t="s">
+      <c r="F139" s="2" t="s">
         <v>329</v>
       </c>
       <c r="G139" s="1" t="s">
@@ -9919,10 +9917,10 @@
       <c r="J139" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K139" s="5">
+      <c r="K139" s="3">
         <v>46003</v>
       </c>
-      <c r="L139" s="5">
+      <c r="L139" s="3">
         <v>46003</v>
       </c>
       <c r="M139" s="1" t="s">
@@ -9931,16 +9929,16 @@
       <c r="N139" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O139" s="3"/>
-      <c r="P139" s="3"/>
+      <c r="O139" s="1"/>
+      <c r="P139" s="1"/>
       <c r="Q139">
         <v>0</v>
       </c>
-      <c r="R139" s="3"/>
-      <c r="S139" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T139" s="3" t="s">
+      <c r="R139" s="1"/>
+      <c r="S139" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T139" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9954,13 +9952,13 @@
       <c r="C140" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D140" s="2">
+      <c r="D140">
         <v>7306162000444</v>
       </c>
-      <c r="E140" s="3" t="s">
+      <c r="E140" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="F140" s="4" t="s">
+      <c r="F140" s="2" t="s">
         <v>329</v>
       </c>
       <c r="G140" s="1" t="s">
@@ -9975,10 +9973,10 @@
       <c r="J140" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K140" s="5">
+      <c r="K140" s="3">
         <v>46003</v>
       </c>
-      <c r="L140" s="5">
+      <c r="L140" s="3">
         <v>46003</v>
       </c>
       <c r="M140" s="1" t="s">
@@ -9987,16 +9985,16 @@
       <c r="N140" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O140" s="3"/>
-      <c r="P140" s="3"/>
+      <c r="O140" s="1"/>
+      <c r="P140" s="1"/>
       <c r="Q140">
         <v>0</v>
       </c>
-      <c r="R140" s="3"/>
-      <c r="S140" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T140" s="3" t="s">
+      <c r="R140" s="1"/>
+      <c r="S140" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T140" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10010,13 +10008,13 @@
       <c r="C141" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D141" s="2">
+      <c r="D141">
         <v>7306162000525</v>
       </c>
-      <c r="E141" s="3" t="s">
+      <c r="E141" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="F141" s="4" t="s">
+      <c r="F141" s="2" t="s">
         <v>329</v>
       </c>
       <c r="G141" s="1" t="s">
@@ -10031,10 +10029,10 @@
       <c r="J141" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K141" s="5">
+      <c r="K141" s="3">
         <v>46003</v>
       </c>
-      <c r="L141" s="5">
+      <c r="L141" s="3">
         <v>46003</v>
       </c>
       <c r="M141" s="1" t="s">
@@ -10043,16 +10041,16 @@
       <c r="N141" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O141" s="3"/>
-      <c r="P141" s="3"/>
+      <c r="O141" s="1"/>
+      <c r="P141" s="1"/>
       <c r="Q141">
         <v>0</v>
       </c>
-      <c r="R141" s="3"/>
-      <c r="S141" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T141" s="3" t="s">
+      <c r="R141" s="1"/>
+      <c r="S141" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T141" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10066,13 +10064,13 @@
       <c r="C142" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D142" s="2">
+      <c r="D142">
         <v>7306162000606</v>
       </c>
-      <c r="E142" s="3" t="s">
+      <c r="E142" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="F142" s="4" t="s">
+      <c r="F142" s="2" t="s">
         <v>329</v>
       </c>
       <c r="G142" s="1" t="s">
@@ -10087,10 +10085,10 @@
       <c r="J142" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K142" s="5">
+      <c r="K142" s="3">
         <v>46003</v>
       </c>
-      <c r="L142" s="5">
+      <c r="L142" s="3">
         <v>46003</v>
       </c>
       <c r="M142" s="1" t="s">
@@ -10099,16 +10097,16 @@
       <c r="N142" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O142" s="3"/>
-      <c r="P142" s="3"/>
+      <c r="O142" s="1"/>
+      <c r="P142" s="1"/>
       <c r="Q142">
         <v>0</v>
       </c>
-      <c r="R142" s="3"/>
-      <c r="S142" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T142" s="3" t="s">
+      <c r="R142" s="1"/>
+      <c r="S142" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T142" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10122,13 +10120,13 @@
       <c r="C143" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D143" s="2">
+      <c r="D143">
         <v>8986525001636</v>
       </c>
-      <c r="E143" s="3" t="s">
+      <c r="E143" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="F143" s="4" t="s">
+      <c r="F143" s="2" t="s">
         <v>329</v>
       </c>
       <c r="G143" s="1" t="s">
@@ -10143,10 +10141,10 @@
       <c r="J143" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K143" s="5">
+      <c r="K143" s="3">
         <v>46003</v>
       </c>
-      <c r="L143" s="5">
+      <c r="L143" s="3">
         <v>46003</v>
       </c>
       <c r="M143" s="1" t="s">
@@ -10155,16 +10153,16 @@
       <c r="N143" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O143" s="3"/>
-      <c r="P143" s="3"/>
+      <c r="O143" s="1"/>
+      <c r="P143" s="1"/>
       <c r="Q143">
         <v>0</v>
       </c>
-      <c r="R143" s="3"/>
-      <c r="S143" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T143" s="3" t="s">
+      <c r="R143" s="1"/>
+      <c r="S143" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T143" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10178,13 +10176,13 @@
       <c r="C144" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D144" s="2">
+      <c r="D144">
         <v>9351716000108</v>
       </c>
-      <c r="E144" s="3" t="s">
+      <c r="E144" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="F144" s="4" t="s">
+      <c r="F144" s="2" t="s">
         <v>329</v>
       </c>
       <c r="G144" s="1" t="s">
@@ -10199,10 +10197,10 @@
       <c r="J144" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K144" s="5">
+      <c r="K144" s="3">
         <v>46003</v>
       </c>
-      <c r="L144" s="5">
+      <c r="L144" s="3">
         <v>46003</v>
       </c>
       <c r="M144" s="1" t="s">
@@ -10211,16 +10209,16 @@
       <c r="N144" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O144" s="3"/>
-      <c r="P144" s="3"/>
+      <c r="O144" s="1"/>
+      <c r="P144" s="1"/>
       <c r="Q144">
         <v>0</v>
       </c>
-      <c r="R144" s="3"/>
-      <c r="S144" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T144" s="3" t="s">
+      <c r="R144" s="1"/>
+      <c r="S144" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T144" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10234,13 +10232,13 @@
       <c r="C145" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D145" s="2">
+      <c r="D145">
         <v>48346249000180</v>
       </c>
-      <c r="E145" s="3" t="s">
+      <c r="E145" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F145" s="4" t="s">
+      <c r="F145" s="2" t="s">
         <v>342</v>
       </c>
       <c r="G145" s="1" t="s">
@@ -10255,10 +10253,10 @@
       <c r="J145" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K145" s="5">
+      <c r="K145" s="3">
         <v>46003</v>
       </c>
-      <c r="L145" s="5">
+      <c r="L145" s="3">
         <v>46003</v>
       </c>
       <c r="M145" s="1" t="s">
@@ -10267,16 +10265,16 @@
       <c r="N145" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O145" s="3"/>
-      <c r="P145" s="3"/>
+      <c r="O145" s="1"/>
+      <c r="P145" s="1"/>
       <c r="Q145">
         <v>0</v>
       </c>
-      <c r="R145" s="3"/>
-      <c r="S145" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T145" s="3" t="s">
+      <c r="R145" s="1"/>
+      <c r="S145" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T145" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10290,13 +10288,13 @@
       <c r="C146" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D146" s="2">
+      <c r="D146">
         <v>13572350000174</v>
       </c>
-      <c r="E146" s="3" t="s">
+      <c r="E146" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="F146" s="4" t="s">
+      <c r="F146" s="2" t="s">
         <v>344</v>
       </c>
       <c r="G146" s="1" t="s">
@@ -10311,10 +10309,10 @@
       <c r="J146" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K146" s="5">
+      <c r="K146" s="3">
         <v>46003</v>
       </c>
-      <c r="L146" s="5">
+      <c r="L146" s="3">
         <v>46003</v>
       </c>
       <c r="M146" s="1" t="s">
@@ -10323,16 +10321,16 @@
       <c r="N146" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O146" s="3"/>
-      <c r="P146" s="3"/>
+      <c r="O146" s="1"/>
+      <c r="P146" s="1"/>
       <c r="Q146">
         <v>0</v>
       </c>
-      <c r="R146" s="3"/>
-      <c r="S146" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T146" s="3" t="s">
+      <c r="R146" s="1"/>
+      <c r="S146" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T146" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10346,13 +10344,13 @@
       <c r="C147" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="D147" s="2">
+      <c r="D147">
         <v>27401974000133</v>
       </c>
-      <c r="E147" s="3" t="s">
+      <c r="E147" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="F147" s="4" t="s">
+      <c r="F147" s="2" t="s">
         <v>347</v>
       </c>
       <c r="G147" s="1" t="s">
@@ -10367,26 +10365,26 @@
       <c r="J147" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K147" s="5">
+      <c r="K147" s="3">
         <v>46001</v>
       </c>
-      <c r="L147" s="5"/>
+      <c r="L147" s="3"/>
       <c r="M147" s="1" t="s">
         <v>144</v>
       </c>
       <c r="N147" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O147" s="3"/>
-      <c r="P147" s="3"/>
+      <c r="O147" s="1"/>
+      <c r="P147" s="1"/>
       <c r="Q147">
         <v>0</v>
       </c>
-      <c r="R147" s="3"/>
-      <c r="S147" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T147" s="3" t="s">
+      <c r="R147" s="1"/>
+      <c r="S147" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T147" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10400,13 +10398,13 @@
       <c r="C148" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="D148" s="2">
+      <c r="D148">
         <v>52213309000163</v>
       </c>
-      <c r="E148" s="3" t="s">
+      <c r="E148" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="F148" s="4" t="s">
+      <c r="F148" s="2" t="s">
         <v>351</v>
       </c>
       <c r="G148" s="1" t="s">
@@ -10421,26 +10419,26 @@
       <c r="J148" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K148" s="5">
+      <c r="K148" s="3">
         <v>46001</v>
       </c>
-      <c r="L148" s="5"/>
+      <c r="L148" s="3"/>
       <c r="M148" s="1" t="s">
         <v>27</v>
       </c>
       <c r="N148" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O148" s="3"/>
-      <c r="P148" s="3"/>
+      <c r="O148" s="1"/>
+      <c r="P148" s="1"/>
       <c r="Q148">
         <v>0</v>
       </c>
-      <c r="R148" s="3"/>
-      <c r="S148" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T148" s="3" t="s">
+      <c r="R148" s="1"/>
+      <c r="S148" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T148" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10454,13 +10452,13 @@
       <c r="C149" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D149" s="2">
+      <c r="D149">
         <v>77708576000566</v>
       </c>
-      <c r="E149" s="3" t="s">
+      <c r="E149" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="F149" s="4" t="s">
+      <c r="F149" s="2" t="s">
         <v>353</v>
       </c>
       <c r="G149" s="1" t="s">
@@ -10475,10 +10473,10 @@
       <c r="J149" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K149" s="5">
+      <c r="K149" s="3">
         <v>46002</v>
       </c>
-      <c r="L149" s="5">
+      <c r="L149" s="3">
         <v>46003</v>
       </c>
       <c r="M149" s="1" t="s">
@@ -10487,16 +10485,16 @@
       <c r="N149" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O149" s="3"/>
-      <c r="P149" s="3"/>
+      <c r="O149" s="1"/>
+      <c r="P149" s="1"/>
       <c r="Q149">
         <v>0</v>
       </c>
-      <c r="R149" s="3"/>
-      <c r="S149" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T149" s="3" t="s">
+      <c r="R149" s="1"/>
+      <c r="S149" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T149" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10510,13 +10508,13 @@
       <c r="C150" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D150" s="2">
+      <c r="D150">
         <v>12996367000196</v>
       </c>
-      <c r="E150" s="3" t="s">
+      <c r="E150" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="F150" s="4" t="s">
+      <c r="F150" s="2" t="s">
         <v>355</v>
       </c>
       <c r="G150" s="1" t="s">
@@ -10531,10 +10529,10 @@
       <c r="J150" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K150" s="5">
+      <c r="K150" s="3">
         <v>46001</v>
       </c>
-      <c r="L150" s="5">
+      <c r="L150" s="3">
         <v>46001</v>
       </c>
       <c r="M150" s="1" t="s">
@@ -10543,16 +10541,16 @@
       <c r="N150" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O150" s="3"/>
-      <c r="P150" s="3"/>
+      <c r="O150" s="1"/>
+      <c r="P150" s="1"/>
       <c r="Q150">
         <v>0</v>
       </c>
-      <c r="R150" s="3"/>
-      <c r="S150" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T150" s="3" t="s">
+      <c r="R150" s="1"/>
+      <c r="S150" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T150" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10566,13 +10564,13 @@
       <c r="C151" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D151" s="2">
+      <c r="D151">
         <v>16581045002180</v>
       </c>
-      <c r="E151" s="3" t="s">
+      <c r="E151" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="F151" s="4" t="s">
+      <c r="F151" s="2" t="s">
         <v>357</v>
       </c>
       <c r="G151" s="1" t="s">
@@ -10587,26 +10585,26 @@
       <c r="J151" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K151" s="5">
+      <c r="K151" s="3">
         <v>46003</v>
       </c>
-      <c r="L151" s="5"/>
+      <c r="L151" s="3"/>
       <c r="M151" s="1" t="s">
         <v>228</v>
       </c>
       <c r="N151" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O151" s="3"/>
-      <c r="P151" s="3"/>
+      <c r="O151" s="1"/>
+      <c r="P151" s="1"/>
       <c r="Q151">
         <v>0</v>
       </c>
-      <c r="R151" s="3"/>
-      <c r="S151" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T151" s="3" t="s">
+      <c r="R151" s="1"/>
+      <c r="S151" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T151" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10620,13 +10618,13 @@
       <c r="C152" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D152" s="2">
+      <c r="D152">
         <v>16581045002261</v>
       </c>
-      <c r="E152" s="3" t="s">
+      <c r="E152" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="F152" s="4" t="s">
+      <c r="F152" s="2" t="s">
         <v>357</v>
       </c>
       <c r="G152" s="1" t="s">
@@ -10641,26 +10639,26 @@
       <c r="J152" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K152" s="5">
+      <c r="K152" s="3">
         <v>46003</v>
       </c>
-      <c r="L152" s="5"/>
+      <c r="L152" s="3"/>
       <c r="M152" s="1" t="s">
         <v>228</v>
       </c>
       <c r="N152" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O152" s="3"/>
-      <c r="P152" s="3"/>
+      <c r="O152" s="1"/>
+      <c r="P152" s="1"/>
       <c r="Q152">
         <v>0</v>
       </c>
-      <c r="R152" s="3"/>
-      <c r="S152" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T152" s="3" t="s">
+      <c r="R152" s="1"/>
+      <c r="S152" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T152" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10674,13 +10672,13 @@
       <c r="C153" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D153" s="2">
+      <c r="D153">
         <v>87091997000706</v>
       </c>
-      <c r="E153" s="3" t="s">
+      <c r="E153" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="F153" s="4" t="s">
+      <c r="F153" s="2" t="s">
         <v>358</v>
       </c>
       <c r="G153" s="1" t="s">
@@ -10695,10 +10693,10 @@
       <c r="J153" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K153" s="5">
+      <c r="K153" s="3">
         <v>46003</v>
       </c>
-      <c r="L153" s="5">
+      <c r="L153" s="3">
         <v>46003</v>
       </c>
       <c r="M153" s="1" t="s">
@@ -10707,16 +10705,16 @@
       <c r="N153" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O153" s="3"/>
-      <c r="P153" s="3"/>
+      <c r="O153" s="1"/>
+      <c r="P153" s="1"/>
       <c r="Q153">
         <v>0</v>
       </c>
-      <c r="R153" s="3"/>
-      <c r="S153" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T153" s="3" t="s">
+      <c r="R153" s="1"/>
+      <c r="S153" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T153" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10730,13 +10728,13 @@
       <c r="C154" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D154" s="2">
+      <c r="D154">
         <v>87091997002245</v>
       </c>
-      <c r="E154" s="3" t="s">
+      <c r="E154" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="F154" s="4" t="s">
+      <c r="F154" s="2" t="s">
         <v>359</v>
       </c>
       <c r="G154" s="1" t="s">
@@ -10751,10 +10749,10 @@
       <c r="J154" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K154" s="5">
+      <c r="K154" s="3">
         <v>46003</v>
       </c>
-      <c r="L154" s="5">
+      <c r="L154" s="3">
         <v>46003</v>
       </c>
       <c r="M154" s="1" t="s">
@@ -10763,16 +10761,16 @@
       <c r="N154" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O154" s="3"/>
-      <c r="P154" s="3"/>
+      <c r="O154" s="1"/>
+      <c r="P154" s="1"/>
       <c r="Q154">
         <v>0</v>
       </c>
-      <c r="R154" s="3"/>
-      <c r="S154" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T154" s="3" t="s">
+      <c r="R154" s="1"/>
+      <c r="S154" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T154" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10786,13 +10784,13 @@
       <c r="C155" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D155" s="2">
+      <c r="D155">
         <v>38538585000251</v>
       </c>
-      <c r="E155" s="3" t="s">
+      <c r="E155" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="F155" s="4" t="s">
+      <c r="F155" s="2" t="s">
         <v>361</v>
       </c>
       <c r="G155" s="1" t="s">
@@ -10807,10 +10805,10 @@
       <c r="J155" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K155" s="5">
+      <c r="K155" s="3">
         <v>46003</v>
       </c>
-      <c r="L155" s="5">
+      <c r="L155" s="3">
         <v>46003</v>
       </c>
       <c r="M155" s="1" t="s">
@@ -10819,16 +10817,16 @@
       <c r="N155" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O155" s="3"/>
-      <c r="P155" s="3"/>
+      <c r="O155" s="1"/>
+      <c r="P155" s="1"/>
       <c r="Q155">
         <v>0</v>
       </c>
-      <c r="R155" s="3"/>
-      <c r="S155" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T155" s="3" t="s">
+      <c r="R155" s="1"/>
+      <c r="S155" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T155" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10842,13 +10840,13 @@
       <c r="C156" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D156" s="2">
+      <c r="D156">
         <v>3853855000251</v>
       </c>
-      <c r="E156" s="3" t="s">
+      <c r="E156" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="F156" s="4" t="s">
+      <c r="F156" s="2" t="s">
         <v>363</v>
       </c>
       <c r="G156" s="1" t="s">
@@ -10863,10 +10861,10 @@
       <c r="J156" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K156" s="5">
+      <c r="K156" s="3">
         <v>46003</v>
       </c>
-      <c r="L156" s="5">
+      <c r="L156" s="3">
         <v>46003</v>
       </c>
       <c r="M156" s="1" t="s">
@@ -10875,16 +10873,16 @@
       <c r="N156" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O156" s="3"/>
-      <c r="P156" s="3"/>
+      <c r="O156" s="1"/>
+      <c r="P156" s="1"/>
       <c r="Q156">
         <v>0</v>
       </c>
-      <c r="R156" s="3"/>
-      <c r="S156" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T156" s="3" t="s">
+      <c r="R156" s="1"/>
+      <c r="S156" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T156" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10898,13 +10896,13 @@
       <c r="C157" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="D157" s="2">
+      <c r="D157">
         <v>2793748000114</v>
       </c>
-      <c r="E157" s="3" t="s">
+      <c r="E157" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="F157" s="4" t="s">
+      <c r="F157" s="2" t="s">
         <v>365</v>
       </c>
       <c r="G157" s="1" t="s">
@@ -10919,26 +10917,26 @@
       <c r="J157" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K157" s="5">
+      <c r="K157" s="3">
         <v>46001</v>
       </c>
-      <c r="L157" s="5"/>
+      <c r="L157" s="3"/>
       <c r="M157" s="1" t="s">
         <v>156</v>
       </c>
       <c r="N157" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O157" s="3"/>
-      <c r="P157" s="3"/>
+      <c r="O157" s="1"/>
+      <c r="P157" s="1"/>
       <c r="Q157">
         <v>0</v>
       </c>
-      <c r="R157" s="3"/>
-      <c r="S157" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T157" s="3" t="s">
+      <c r="R157" s="1"/>
+      <c r="S157" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T157" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10952,13 +10950,13 @@
       <c r="C158" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D158" s="2">
+      <c r="D158">
         <v>51312697000177</v>
       </c>
-      <c r="E158" s="3" t="s">
+      <c r="E158" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="F158" s="4" t="s">
+      <c r="F158" s="2" t="s">
         <v>368</v>
       </c>
       <c r="G158" s="1" t="s">
@@ -10973,28 +10971,28 @@
       <c r="J158" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K158" s="5">
+      <c r="K158" s="3">
         <v>45999</v>
       </c>
-      <c r="L158" s="5"/>
+      <c r="L158" s="3"/>
       <c r="M158" s="1" t="s">
         <v>156</v>
       </c>
       <c r="N158" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O158" s="3"/>
-      <c r="P158" s="3"/>
+      <c r="O158" s="1"/>
+      <c r="P158" s="1"/>
       <c r="Q158">
         <v>0</v>
       </c>
-      <c r="R158" s="3" t="s">
+      <c r="R158" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="S158" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T158" s="3" t="s">
+      <c r="S158" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T158" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11008,13 +11006,13 @@
       <c r="C159" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D159" s="2">
+      <c r="D159">
         <v>3125831000501</v>
       </c>
-      <c r="E159" s="3" t="s">
+      <c r="E159" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="F159" s="4" t="s">
+      <c r="F159" s="2" t="s">
         <v>371</v>
       </c>
       <c r="G159" s="1" t="s">
@@ -11029,26 +11027,26 @@
       <c r="J159" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K159" s="5">
+      <c r="K159" s="3">
         <v>45988</v>
       </c>
-      <c r="L159" s="5"/>
+      <c r="L159" s="3"/>
       <c r="M159" s="1" t="s">
         <v>232</v>
       </c>
       <c r="N159" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O159" s="3"/>
-      <c r="P159" s="3"/>
+      <c r="O159" s="1"/>
+      <c r="P159" s="1"/>
       <c r="Q159">
         <v>0</v>
       </c>
-      <c r="R159" s="3"/>
-      <c r="S159" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T159" s="3" t="s">
+      <c r="R159" s="1"/>
+      <c r="S159" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T159" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11062,13 +11060,13 @@
       <c r="C160" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D160" s="2">
+      <c r="D160">
         <v>48346249000180</v>
       </c>
-      <c r="E160" s="3" t="s">
+      <c r="E160" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="F160" s="4" t="s">
+      <c r="F160" s="2" t="s">
         <v>373</v>
       </c>
       <c r="G160" s="1" t="s">
@@ -11083,10 +11081,10 @@
       <c r="J160" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K160" s="5">
+      <c r="K160" s="3">
         <v>46006</v>
       </c>
-      <c r="L160" s="5">
+      <c r="L160" s="3">
         <v>46006</v>
       </c>
       <c r="M160" s="1" t="s">
@@ -11095,16 +11093,16 @@
       <c r="N160" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O160" s="3"/>
-      <c r="P160" s="3"/>
+      <c r="O160" s="1"/>
+      <c r="P160" s="1"/>
       <c r="Q160">
         <v>0</v>
       </c>
-      <c r="R160" s="3"/>
-      <c r="S160" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T160" s="3" t="s">
+      <c r="R160" s="1"/>
+      <c r="S160" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T160" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11118,13 +11116,13 @@
       <c r="C161" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D161" s="2">
+      <c r="D161">
         <v>32249473000113</v>
       </c>
-      <c r="E161" s="3" t="s">
+      <c r="E161" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="F161" s="4" t="s">
+      <c r="F161" s="2" t="s">
         <v>375</v>
       </c>
       <c r="G161" s="1" t="s">
@@ -11139,10 +11137,10 @@
       <c r="J161" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K161" s="5">
+      <c r="K161" s="3">
         <v>46006</v>
       </c>
-      <c r="L161" s="5">
+      <c r="L161" s="3">
         <v>46006</v>
       </c>
       <c r="M161" s="1" t="s">
@@ -11151,16 +11149,16 @@
       <c r="N161" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O161" s="3"/>
-      <c r="P161" s="3"/>
+      <c r="O161" s="1"/>
+      <c r="P161" s="1"/>
       <c r="Q161">
         <v>0</v>
       </c>
-      <c r="R161" s="3"/>
-      <c r="S161" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T161" s="3" t="s">
+      <c r="R161" s="1"/>
+      <c r="S161" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T161" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11174,13 +11172,13 @@
       <c r="C162" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D162" s="2">
+      <c r="D162">
         <v>12090263000118</v>
       </c>
-      <c r="E162" s="3" t="s">
+      <c r="E162" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="F162" s="4" t="s">
+      <c r="F162" s="2" t="s">
         <v>377</v>
       </c>
       <c r="G162" s="1" t="s">
@@ -11195,10 +11193,10 @@
       <c r="J162" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K162" s="5">
+      <c r="K162" s="3">
         <v>46006</v>
       </c>
-      <c r="L162" s="5">
+      <c r="L162" s="3">
         <v>46006</v>
       </c>
       <c r="M162" s="1" t="s">
@@ -11207,16 +11205,16 @@
       <c r="N162" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O162" s="3"/>
-      <c r="P162" s="3"/>
+      <c r="O162" s="1"/>
+      <c r="P162" s="1"/>
       <c r="Q162">
         <v>0</v>
       </c>
-      <c r="R162" s="3"/>
-      <c r="S162" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T162" s="3" t="s">
+      <c r="R162" s="1"/>
+      <c r="S162" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T162" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11230,13 +11228,13 @@
       <c r="C163" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D163" s="2">
+      <c r="D163">
         <v>91411256004800</v>
       </c>
-      <c r="E163" s="3" t="s">
+      <c r="E163" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="F163" s="4" t="s">
+      <c r="F163" s="2" t="s">
         <v>379</v>
       </c>
       <c r="G163" s="1" t="s">
@@ -11251,10 +11249,10 @@
       <c r="J163" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K163" s="5">
+      <c r="K163" s="3">
         <v>46006</v>
       </c>
-      <c r="L163" s="5">
+      <c r="L163" s="3">
         <v>46006</v>
       </c>
       <c r="M163" s="1" t="s">
@@ -11263,16 +11261,16 @@
       <c r="N163" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O163" s="3"/>
-      <c r="P163" s="3"/>
+      <c r="O163" s="1"/>
+      <c r="P163" s="1"/>
       <c r="Q163">
         <v>0</v>
       </c>
-      <c r="R163" s="3"/>
-      <c r="S163" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T163" s="3" t="s">
+      <c r="R163" s="1"/>
+      <c r="S163" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T163" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11286,13 +11284,13 @@
       <c r="C164" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D164" s="2">
+      <c r="D164">
         <v>45431429000171</v>
       </c>
-      <c r="E164" s="3" t="s">
+      <c r="E164" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="F164" s="4" t="s">
+      <c r="F164" s="2" t="s">
         <v>381</v>
       </c>
       <c r="G164" s="1" t="s">
@@ -11307,26 +11305,26 @@
       <c r="J164" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K164" s="5">
+      <c r="K164" s="3">
         <v>46006</v>
       </c>
-      <c r="L164" s="5"/>
+      <c r="L164" s="3"/>
       <c r="M164" s="1" t="s">
         <v>129</v>
       </c>
       <c r="N164" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O164" s="3"/>
-      <c r="P164" s="3"/>
+      <c r="O164" s="1"/>
+      <c r="P164" s="1"/>
       <c r="Q164">
         <v>0</v>
       </c>
-      <c r="R164" s="3"/>
-      <c r="S164" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T164" s="3" t="s">
+      <c r="R164" s="1"/>
+      <c r="S164" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T164" s="1" t="s">
         <v>31</v>
       </c>
     </row>

--- a/base_hub_github.xlsx
+++ b/base_hub_github.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupoultracloud-my.sharepoint.com/personal/thiago_junior_ipiranga_ipiranga/Documents/Área de Trabalho/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiago.junior\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{1411FB69-2F99-4D54-AF72-D4A35E7FF31D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49D05E9C-06E1-4B46-A562-6263AD795D34}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{56E7E105-4B95-4AA6-8506-47501BE4F817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0CEAAE7A-2800-490D-950E-FB3315112E55}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{355B58B1-9E79-4450-9162-7CFC001C8203}"/>
   </bookViews>
   <sheets>
     <sheet name="query" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="query__36" localSheetId="0" hidden="1">query!$A$1:$T$164</definedName>
+    <definedName name="query__37" localSheetId="0" hidden="1">query!$A$1:$T$173</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -24,14 +24,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{9E3E9D3C-D4CF-4EF1-BD75-151A7FC9AB34}" odcFile="C:\Users\thiago.junior\Downloads\query (36).iqy" keepAlive="1" name="query (36)" type="5" refreshedVersion="8" minRefreshableVersion="3" saveData="1">
+  <connection id="1" xr16:uid="{87148253-B97E-4288-B92D-49AAE69E7560}" odcFile="C:\Users\thiago.junior\Downloads\query (37).iqy" keepAlive="1" name="query (37)" type="5" refreshedVersion="8" minRefreshableVersion="3" saveData="1">
     <dbPr connection="Provider=Microsoft.Office.List.OLEDB.2.0;Data Source=&quot;&quot;;ApplicationName=Excel;Version=12.0.0.0" command="&lt;LIST&gt;&lt;VIEWGUID&gt;A45175CA-9778-441D-B066-D8555F7DBBE4&lt;/VIEWGUID&gt;&lt;LISTNAME&gt;06be0e4e-018b-4cef-a562-4db2a9a684e1&lt;/LISTNAME&gt;&lt;LISTWEB&gt;https://grupoultracloud-my.sharepoint.com/personal/roberta_rocha_ipiranga_ipiranga/_vti_bin&lt;/LISTWEB&gt;&lt;LISTSUBWEB&gt;&lt;/LISTSUBWEB&gt;&lt;ROOTFOLDER&gt;&lt;/ROOTFOLDER&gt;&lt;/LIST&gt;" commandType="5"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2123" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2237" uniqueCount="399">
   <si>
     <t>Título</t>
   </si>
@@ -1181,6 +1181,57 @@
   </si>
   <si>
     <t>Afgm Com Derivados De Petroleo Ltda - 45431429000171| Solicitação de treinamento a pedido do CN marconio (Contato; Daniela Telefone: 31-99324-0071)</t>
+  </si>
+  <si>
+    <t>Cat3 Comercio De Combustiveis Ltda</t>
+  </si>
+  <si>
+    <t>Revendedora Diulia, entrou em contato para tirar dúvidas sobre o KMV na AM PM.</t>
+  </si>
+  <si>
+    <t>Ajuste de lat-long. Ajustado 9, pendente de localização do revendendor, 8.</t>
+  </si>
+  <si>
+    <t>Grupo Pelanda</t>
+  </si>
+  <si>
+    <t>O grupo Pelanda, entrou em contato para apontar que a funcionalidade de promoções, não estava disponível em um dos seus CNPJ's.</t>
+  </si>
+  <si>
+    <t>Posto Beninca Ltda</t>
+  </si>
+  <si>
+    <t>Posto Beninca Ltda | 27 99609-0211 | Tenho um revendedor que deseja se cadastrar ao clube vip para fazer as baixas das vendas do caixa, mas apresenta esse erro abaixo. A gerente acredita que tem a ver com o cadastro dele no Pró-Frotas e se caso  seja isso que estiver interferindo no cadastro dele como VIP, ela pede que o cadastro do Pró-Frotas seja excluido. </t>
+  </si>
+  <si>
+    <t>Central Pró-Frotas</t>
+  </si>
+  <si>
+    <t>Posto Trevao Borges Leal Ltda</t>
+  </si>
+  <si>
+    <t>Helena solicita confirmação dos repasses</t>
+  </si>
+  <si>
+    <t>Posto Ulianopolis Ltda - Me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treinamento e oferta de suso de produtos digitais </t>
+  </si>
+  <si>
+    <t>Cascol Combustiveis Para Veiculos</t>
+  </si>
+  <si>
+    <t>Danubia olicita apoio para confirmar transações KMV no portal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cascol Combustiveis Para Veiculos </t>
+  </si>
+  <si>
+    <t>Danubia solicita apoio para confirmar transações KMV no portal</t>
+  </si>
+  <si>
+    <t>Cascoll Combustiveis</t>
   </si>
 </sst>
 </file>
@@ -1664,9 +1715,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1794,7 +1847,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="query (36)" backgroundRefresh="0" connectionId="1" xr16:uid="{64F81834-920E-48FB-8B92-D8872F20E145}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="query (37)" backgroundRefresh="0" connectionId="1" xr16:uid="{46E36A79-328F-491B-A3F0-82DB4D953BF1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="21">
     <queryTableFields count="20">
       <queryTableField id="10" name="Analista" tableColumnId="1"/>
@@ -1823,29 +1876,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5D8231BD-A1D7-4EB3-AAD4-7F4EB60CA8EB}" name="Tabela_query__36" displayName="Tabela_query__36" ref="A1:T164" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:T164" xr:uid="{5D8231BD-A1D7-4EB3-AAD4-7F4EB60CA8EB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BCCC862-B41A-4E7B-A15D-0D9ED18C090A}" name="Tabela_query__37" displayName="Tabela_query__37" ref="A1:T173" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:T173" xr:uid="{5BCCC862-B41A-4E7B-A15D-0D9ED18C090A}"/>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{572E3E05-DA7D-4023-91C1-3B7AD22C8406}" uniqueName="Analista" name="Analista" queryTableFieldId="10" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{53CE58A1-12E5-4EC2-A836-11482C865C82}" uniqueName="SubClassifica_x005f_x00e7__x005f_x00e3_o" name="Sub Classificação" queryTableFieldId="15" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{84A23010-BFF8-4A7C-BD48-BD0C334190AE}" uniqueName="Motivo" name="Motivo" queryTableFieldId="11" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{9E322C1E-97F8-4524-BCF1-E44A18E9D493}" uniqueName="CNPJ" name="CNPJ" queryTableFieldId="3" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{AE8CCF6E-787D-4095-A6C3-E41E9D4ADC92}" uniqueName="Raz_x005f_x00e3_oSocial" name="Razão Social" queryTableFieldId="4" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{18115D13-239E-48BE-9297-F72FC3D3D98D}" uniqueName="Descri_x005f_x00e7__x005f_x00e3_o" name="Descrição" queryTableFieldId="5" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{06E88175-A6D5-4F5F-A7DA-5EBFB41AC6CE}" uniqueName="FCR" name="FCR" queryTableFieldId="7" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{49E3894C-BCB2-49A3-A2C0-36E9767716BC}" uniqueName="Origemdocontato" name="Área responsável pela resolução" queryTableFieldId="8" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{4EF1F494-2CE0-45CA-8DA3-3D5C3080262D}" uniqueName="Origemdocontato0" name="Origem do contato" queryTableFieldId="9" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{9649A11C-DCEB-45EE-90D2-9AC22768BA8F}" uniqueName="Tipodecontato" name="Tipo de contato" queryTableFieldId="14" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{3E3169DA-9FFD-4BDB-B2F2-E51B9977FB40}" uniqueName="Data" name="Data Inicio" queryTableFieldId="2" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{7CC37DAA-CDA8-4F67-9A88-4C02F318DC8D}" uniqueName="DataFim" name="Data Fim" queryTableFieldId="6" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{661BD227-389D-4E14-A02E-ACE7C6DF46D6}" uniqueName="GN" name="GN" queryTableFieldId="12" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{E13C0D2A-159F-497B-BF48-1888AFA47B47}" uniqueName="Solicitante" name="Solicitante" queryTableFieldId="13" dataDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{3CC5DFB6-4CC2-4661-B120-94EB7500A375}" uniqueName="Title" name="Título" queryTableFieldId="1" dataDxfId="4"/>
-    <tableColumn id="16" xr3:uid="{D66BACCC-20D4-4212-960B-13EF60F614E6}" uniqueName="_x005f_x0024_Resources_x005f_x003a_core_x002" name="Status de liberação" queryTableFieldId="16" dataDxfId="3"/>
-    <tableColumn id="17" xr3:uid="{795C48D3-A874-4D7C-8816-338EBB109318}" uniqueName="_ApprovalStatus" name="Status de aprovação" queryTableFieldId="17"/>
-    <tableColumn id="18" xr3:uid="{C2EB5717-30A5-4193-A80B-A794E13C9FF5}" uniqueName="N_x005f_x00fa_merodoChamado" name="Número do Chamado Automação" queryTableFieldId="18" dataDxfId="2"/>
-    <tableColumn id="19" xr3:uid="{F4132534-E458-4236-8DEE-6AFEF2EED2EC}" uniqueName="FSObjType" name="Tipo de Item" queryTableFieldId="20" dataDxfId="1"/>
-    <tableColumn id="20" xr3:uid="{D25F44A7-A469-40DA-AA87-B8C38B716971}" uniqueName="FileDirRef" name="Caminho" queryTableFieldId="19" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{63EEE760-5D8A-41AC-840D-13197B24410E}" uniqueName="Analista" name="Analista" queryTableFieldId="10" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{5B2742C3-8EE8-4B52-8BC7-03ED3733F002}" uniqueName="SubClassifica_x005f_x00e7__x005f_x00e3_o" name="Sub Classificação" queryTableFieldId="15" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{CD243106-EA44-4ED8-8843-E230925B6AE4}" uniqueName="Motivo" name="Motivo" queryTableFieldId="11" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{CB3D6C65-F892-455D-9D3E-363854B87BD1}" uniqueName="CNPJ" name="CNPJ" queryTableFieldId="3" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{A0598E59-1033-419A-AE07-F61947533588}" uniqueName="Raz_x005f_x00e3_oSocial" name="Razão Social" queryTableFieldId="4" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{329BE4D6-75D8-4819-9A33-E3C3E49F8655}" uniqueName="Descri_x005f_x00e7__x005f_x00e3_o" name="Descrição" queryTableFieldId="5" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{ADE3AEE0-38B9-4C63-B8C2-751EF4372148}" uniqueName="FCR" name="FCR" queryTableFieldId="7" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{46F458BF-75CC-4AAF-AAFB-F7E737553D8B}" uniqueName="Origemdocontato" name="Área responsável pela resolução" queryTableFieldId="8" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{9259FCA5-45DC-42A2-B7BB-7C47CB92EA67}" uniqueName="Origemdocontato0" name="Origem do contato" queryTableFieldId="9" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{93A552E5-069D-47A1-BB2E-560F16E7E186}" uniqueName="Tipodecontato" name="Tipo de contato" queryTableFieldId="14" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{7986F0CE-EFA2-4F7C-BA9D-BA1D74C97E94}" uniqueName="Data" name="Data Inicio" queryTableFieldId="2" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{C48390D6-2E0D-4329-9F57-CD26350BFC9C}" uniqueName="DataFim" name="Data Fim" queryTableFieldId="6" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{2A86E158-5D9A-43E9-A893-D4BC4F5BD1F8}" uniqueName="GN" name="GN" queryTableFieldId="12" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{45921FC5-D700-40E5-8425-85A3441111DE}" uniqueName="Solicitante" name="Solicitante" queryTableFieldId="13" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{DFA91F7F-DCE3-45E0-A47B-5A164F744055}" uniqueName="Title" name="Título" queryTableFieldId="1" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{F01224D5-5DA6-4946-92E4-0C0699D16D69}" uniqueName="_x005f_x0024_Resources_x005f_x003a_core_x002" name="Status de liberação" queryTableFieldId="16" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{63FD9994-BF0E-4706-B655-CCFAABBE8757}" uniqueName="_ApprovalStatus" name="Status de aprovação" queryTableFieldId="17"/>
+    <tableColumn id="18" xr3:uid="{14DCE43E-03C1-41E1-9FC1-B97987F2EC46}" uniqueName="N_x005f_x00fa_merodoChamado" name="Número do Chamado Automação" queryTableFieldId="18" dataDxfId="2"/>
+    <tableColumn id="19" xr3:uid="{C4FD2DE5-17C9-484F-BD61-6A6496C96BCB}" uniqueName="FSObjType" name="Tipo de Item" queryTableFieldId="20" dataDxfId="1"/>
+    <tableColumn id="20" xr3:uid="{07053EBB-A228-49A2-8C58-73D1F6C52307}" uniqueName="FileDirRef" name="Caminho" queryTableFieldId="19" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2167,11 +2220,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62AD7399-E1DE-4CDD-BE29-DC4EE0C98E4C}">
-  <dimension ref="A1:T164"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697750EE-04DD-4936-AB3F-D30DEE050643}">
+  <dimension ref="A1:T173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="A164" sqref="A164"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:T173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2270,13 +2323,13 @@
       <c r="C2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>4785105000154</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -2291,10 +2344,10 @@
       <c r="J2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="5">
         <v>45995</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="5">
         <v>45995</v>
       </c>
       <c r="M2" s="1" t="s">
@@ -2303,16 +2356,16 @@
       <c r="N2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
       <c r="Q2">
         <v>0</v>
       </c>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T2" s="1" t="s">
+      <c r="R2" s="3"/>
+      <c r="S2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2326,13 +2379,13 @@
       <c r="C3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>46872263000191</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>34</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -2347,10 +2400,10 @@
       <c r="J3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="5">
         <v>45992</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="5">
         <v>45996</v>
       </c>
       <c r="M3" s="1" t="s">
@@ -2359,16 +2412,16 @@
       <c r="N3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
       <c r="Q3">
         <v>0</v>
       </c>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T3" s="1" t="s">
+      <c r="R3" s="3"/>
+      <c r="S3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2382,13 +2435,13 @@
       <c r="C4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>38074571000143</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="4" t="s">
         <v>40</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -2403,10 +2456,10 @@
       <c r="J4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="5">
         <v>45992</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="5">
         <v>45992</v>
       </c>
       <c r="M4" s="1" t="s">
@@ -2415,16 +2468,16 @@
       <c r="N4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
       <c r="Q4">
         <v>0</v>
       </c>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T4" s="1" t="s">
+      <c r="R4" s="3"/>
+      <c r="S4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T4" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2438,13 +2491,13 @@
       <c r="C5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>10317892000102</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="4" t="s">
         <v>47</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -2459,10 +2512,10 @@
       <c r="J5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="5">
         <v>45992</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="5">
         <v>45992</v>
       </c>
       <c r="M5" s="1" t="s">
@@ -2471,16 +2524,16 @@
       <c r="N5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
       <c r="Q5">
         <v>0</v>
       </c>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T5" s="1" t="s">
+      <c r="R5" s="3"/>
+      <c r="S5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2494,13 +2547,13 @@
       <c r="C6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>2144883000139</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="4" t="s">
         <v>51</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -2515,10 +2568,10 @@
       <c r="J6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="5">
         <v>45992</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="5">
         <v>45992</v>
       </c>
       <c r="M6" s="1" t="s">
@@ -2527,16 +2580,16 @@
       <c r="N6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
       <c r="Q6">
         <v>0</v>
       </c>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T6" s="1" t="s">
+      <c r="R6" s="3"/>
+      <c r="S6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T6" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2550,13 +2603,13 @@
       <c r="C7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>48346249000180</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="4" t="s">
         <v>56</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -2571,10 +2624,10 @@
       <c r="J7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="5">
         <v>45992</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="5">
         <v>45992</v>
       </c>
       <c r="M7" s="1" t="s">
@@ -2583,16 +2636,16 @@
       <c r="N7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
       <c r="Q7">
         <v>0</v>
       </c>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T7" s="1" t="s">
+      <c r="R7" s="3"/>
+      <c r="S7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T7" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2606,13 +2659,13 @@
       <c r="C8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>48346249000180</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="4" t="s">
         <v>59</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -2627,10 +2680,10 @@
       <c r="J8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="5">
         <v>45992</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="5">
         <v>45992</v>
       </c>
       <c r="M8" s="1" t="s">
@@ -2639,16 +2692,16 @@
       <c r="N8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
       <c r="Q8">
         <v>0</v>
       </c>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T8" s="1" t="s">
+      <c r="R8" s="3"/>
+      <c r="S8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T8" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2662,13 +2715,13 @@
       <c r="C9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>689380000113</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="4" t="s">
         <v>62</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -2683,10 +2736,10 @@
       <c r="J9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="5">
         <v>45992</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="5">
         <v>45979</v>
       </c>
       <c r="M9" s="1" t="s">
@@ -2695,16 +2748,16 @@
       <c r="N9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
       <c r="Q9">
         <v>0</v>
       </c>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T9" s="1" t="s">
+      <c r="R9" s="3"/>
+      <c r="S9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T9" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2718,13 +2771,13 @@
       <c r="C10" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>32044415000153</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="4" t="s">
         <v>65</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -2739,10 +2792,10 @@
       <c r="J10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="5">
         <v>45992</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="5">
         <v>45992</v>
       </c>
       <c r="M10" s="1" t="s">
@@ -2751,16 +2804,16 @@
       <c r="N10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
       <c r="Q10">
         <v>0</v>
       </c>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T10" s="1" t="s">
+      <c r="R10" s="3"/>
+      <c r="S10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T10" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2774,13 +2827,13 @@
       <c r="C11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>2551867000160</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="4" t="s">
         <v>67</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -2795,10 +2848,10 @@
       <c r="J11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="5">
         <v>45992</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="5">
         <v>45992</v>
       </c>
       <c r="M11" s="1" t="s">
@@ -2807,16 +2860,16 @@
       <c r="N11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
       <c r="Q11">
         <v>0</v>
       </c>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T11" s="1" t="s">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T11" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2830,13 +2883,13 @@
       <c r="C12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>36180754000118</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="4" t="s">
         <v>69</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -2851,10 +2904,10 @@
       <c r="J12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="5">
         <v>45992</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="5">
         <v>45992</v>
       </c>
       <c r="M12" s="1" t="s">
@@ -2863,16 +2916,16 @@
       <c r="N12" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
       <c r="Q12">
         <v>0</v>
       </c>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T12" s="1" t="s">
+      <c r="R12" s="3"/>
+      <c r="S12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T12" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2886,13 +2939,13 @@
       <c r="C13" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>2754502000133</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="4" t="s">
         <v>72</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -2907,10 +2960,10 @@
       <c r="J13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="5">
         <v>45992</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="5">
         <v>45992</v>
       </c>
       <c r="M13" s="1" t="s">
@@ -2919,16 +2972,16 @@
       <c r="N13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
       <c r="Q13">
         <v>0</v>
       </c>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T13" s="1" t="s">
+      <c r="R13" s="3"/>
+      <c r="S13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T13" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2942,13 +2995,13 @@
       <c r="C14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>10522077000770</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="4" t="s">
         <v>77</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -2963,10 +3016,10 @@
       <c r="J14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="5">
         <v>45993</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="5">
         <v>45993</v>
       </c>
       <c r="M14" s="1" t="s">
@@ -2975,16 +3028,16 @@
       <c r="N14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
       <c r="Q14">
         <v>0</v>
       </c>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T14" s="1" t="s">
+      <c r="R14" s="3"/>
+      <c r="S14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T14" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2998,13 +3051,13 @@
       <c r="C15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>3156892000102</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="4" t="s">
         <v>77</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -3019,10 +3072,10 @@
       <c r="J15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="5">
         <v>45993</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="5">
         <v>45993</v>
       </c>
       <c r="M15" s="1" t="s">
@@ -3031,16 +3084,16 @@
       <c r="N15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
       <c r="Q15">
         <v>0</v>
       </c>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T15" s="1" t="s">
+      <c r="R15" s="3"/>
+      <c r="S15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T15" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3054,13 +3107,13 @@
       <c r="C16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>10592852000179</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="4" t="s">
         <v>77</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -3075,10 +3128,10 @@
       <c r="J16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="5">
         <v>45993</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16" s="5">
         <v>45993</v>
       </c>
       <c r="M16" s="1" t="s">
@@ -3087,16 +3140,16 @@
       <c r="N16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
       <c r="Q16">
         <v>0</v>
       </c>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T16" s="1" t="s">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T16" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3110,13 +3163,13 @@
       <c r="C17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>57237149000106</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="4" t="s">
         <v>77</v>
       </c>
       <c r="G17" s="1" t="s">
@@ -3131,10 +3184,10 @@
       <c r="J17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="5">
         <v>45993</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="5">
         <v>45993</v>
       </c>
       <c r="M17" s="1" t="s">
@@ -3143,16 +3196,16 @@
       <c r="N17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
       <c r="Q17">
         <v>0</v>
       </c>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T17" s="1" t="s">
+      <c r="R17" s="3"/>
+      <c r="S17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T17" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3166,13 +3219,13 @@
       <c r="C18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>53875328000118</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="4" t="s">
         <v>77</v>
       </c>
       <c r="G18" s="1" t="s">
@@ -3187,10 +3240,10 @@
       <c r="J18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="5">
         <v>45993</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="5">
         <v>45993</v>
       </c>
       <c r="M18" s="1" t="s">
@@ -3199,16 +3252,16 @@
       <c r="N18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
       <c r="Q18">
         <v>0</v>
       </c>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T18" s="1" t="s">
+      <c r="R18" s="3"/>
+      <c r="S18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T18" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3222,13 +3275,13 @@
       <c r="C19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>10522077000428</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="4" t="s">
         <v>77</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -3243,10 +3296,10 @@
       <c r="J19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="5">
         <v>45993</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19" s="5">
         <v>45993</v>
       </c>
       <c r="M19" s="1" t="s">
@@ -3255,16 +3308,16 @@
       <c r="N19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
       <c r="Q19">
         <v>0</v>
       </c>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T19" s="1" t="s">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T19" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3278,13 +3331,13 @@
       <c r="C20" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>56738016000150</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="4" t="s">
         <v>85</v>
       </c>
       <c r="G20" s="1" t="s">
@@ -3299,10 +3352,10 @@
       <c r="J20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="5">
         <v>45993</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="5">
         <v>45993</v>
       </c>
       <c r="M20" s="1" t="s">
@@ -3311,16 +3364,16 @@
       <c r="N20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
       <c r="Q20">
         <v>0</v>
       </c>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T20" s="1" t="s">
+      <c r="R20" s="3"/>
+      <c r="S20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T20" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3334,13 +3387,13 @@
       <c r="C21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>24314878000160</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="4" t="s">
         <v>89</v>
       </c>
       <c r="G21" s="1" t="s">
@@ -3355,10 +3408,10 @@
       <c r="J21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="5">
         <v>45993</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="5">
         <v>45993</v>
       </c>
       <c r="M21" s="1" t="s">
@@ -3367,16 +3420,16 @@
       <c r="N21" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
       <c r="Q21">
         <v>0</v>
       </c>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T21" s="1" t="s">
+      <c r="R21" s="3"/>
+      <c r="S21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T21" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3390,11 +3443,11 @@
       <c r="C22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>2394473000146</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="2" t="s">
+      <c r="E22" s="3"/>
+      <c r="F22" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G22" s="1" t="s">
@@ -3409,26 +3462,26 @@
       <c r="J22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="5">
         <v>45993</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="5">
         <v>45993</v>
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
       <c r="Q22">
         <v>0</v>
       </c>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T22" s="1" t="s">
+      <c r="R22" s="3"/>
+      <c r="S22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T22" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3442,13 +3495,13 @@
       <c r="C23" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>62236617000168</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="4" t="s">
         <v>94</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -3463,10 +3516,10 @@
       <c r="J23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="5">
         <v>45993</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="5">
         <v>46000</v>
       </c>
       <c r="M23" s="1" t="s">
@@ -3475,16 +3528,16 @@
       <c r="N23" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
       <c r="Q23">
         <v>0</v>
       </c>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T23" s="1" t="s">
+      <c r="R23" s="3"/>
+      <c r="S23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T23" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3498,13 +3551,13 @@
       <c r="C24" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>9241803394</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="4" t="s">
         <v>97</v>
       </c>
       <c r="G24" s="1" t="s">
@@ -3519,10 +3572,10 @@
       <c r="J24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="5">
         <v>45993</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="5">
         <v>45993</v>
       </c>
       <c r="M24" s="1" t="s">
@@ -3531,16 +3584,16 @@
       <c r="N24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
       <c r="Q24">
         <v>0</v>
       </c>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T24" s="1" t="s">
+      <c r="R24" s="3"/>
+      <c r="S24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T24" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3554,13 +3607,13 @@
       <c r="C25" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <v>2394473000146</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="4" t="s">
         <v>100</v>
       </c>
       <c r="G25" s="1" t="s">
@@ -3575,10 +3628,10 @@
       <c r="J25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="5">
         <v>45993</v>
       </c>
-      <c r="L25" s="3">
+      <c r="L25" s="5">
         <v>45993</v>
       </c>
       <c r="M25" s="1" t="s">
@@ -3587,16 +3640,16 @@
       <c r="N25" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
       <c r="Q25">
         <v>0</v>
       </c>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T25" s="1" t="s">
+      <c r="R25" s="3"/>
+      <c r="S25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T25" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3610,13 +3663,13 @@
       <c r="C26" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2">
         <v>2394473000146</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="4" t="s">
         <v>102</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -3631,10 +3684,10 @@
       <c r="J26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="5">
         <v>45993</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26" s="5">
         <v>45993</v>
       </c>
       <c r="M26" s="1" t="s">
@@ -3643,16 +3696,16 @@
       <c r="N26" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
       <c r="Q26">
         <v>0</v>
       </c>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T26" s="1" t="s">
+      <c r="R26" s="3"/>
+      <c r="S26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T26" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3666,13 +3719,13 @@
       <c r="C27" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
         <v>3331129000170</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="4" t="s">
         <v>104</v>
       </c>
       <c r="G27" s="1" t="s">
@@ -3687,10 +3740,10 @@
       <c r="J27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="5">
         <v>45993</v>
       </c>
-      <c r="L27" s="3">
+      <c r="L27" s="5">
         <v>45993</v>
       </c>
       <c r="M27" s="1" t="s">
@@ -3699,16 +3752,16 @@
       <c r="N27" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
       <c r="Q27">
         <v>0</v>
       </c>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T27" s="1" t="s">
+      <c r="R27" s="3"/>
+      <c r="S27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T27" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3722,13 +3775,13 @@
       <c r="C28" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="2">
         <v>77817583000172</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="4" t="s">
         <v>109</v>
       </c>
       <c r="G28" s="1" t="s">
@@ -3743,10 +3796,10 @@
       <c r="J28" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28" s="5">
         <v>45993</v>
       </c>
-      <c r="L28" s="3">
+      <c r="L28" s="5">
         <v>45993</v>
       </c>
       <c r="M28" s="1" t="s">
@@ -3755,16 +3808,16 @@
       <c r="N28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
       <c r="Q28">
         <v>0</v>
       </c>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T28" s="1" t="s">
+      <c r="R28" s="3"/>
+      <c r="S28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T28" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3778,13 +3831,13 @@
       <c r="C29" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="2">
         <v>51829602000197</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="4" t="s">
         <v>112</v>
       </c>
       <c r="G29" s="1" t="s">
@@ -3799,10 +3852,10 @@
       <c r="J29" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="5">
         <v>45993</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="5">
         <v>45993</v>
       </c>
       <c r="M29" s="1" t="s">
@@ -3811,16 +3864,16 @@
       <c r="N29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
       <c r="Q29">
         <v>0</v>
       </c>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T29" s="1" t="s">
+      <c r="R29" s="3"/>
+      <c r="S29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T29" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3834,13 +3887,13 @@
       <c r="C30" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="2">
         <v>18359457000152</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="4" t="s">
         <v>114</v>
       </c>
       <c r="G30" s="1" t="s">
@@ -3855,10 +3908,10 @@
       <c r="J30" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30" s="5">
         <v>45993</v>
       </c>
-      <c r="L30" s="3">
+      <c r="L30" s="5">
         <v>45993</v>
       </c>
       <c r="M30" s="1" t="s">
@@ -3867,16 +3920,16 @@
       <c r="N30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
       <c r="Q30">
         <v>0</v>
       </c>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T30" s="1" t="s">
+      <c r="R30" s="3"/>
+      <c r="S30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T30" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3890,13 +3943,13 @@
       <c r="C31" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="2">
         <v>29827042000182</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="4" t="s">
         <v>118</v>
       </c>
       <c r="G31" s="1" t="s">
@@ -3911,10 +3964,10 @@
       <c r="J31" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K31" s="3">
+      <c r="K31" s="5">
         <v>45993</v>
       </c>
-      <c r="L31" s="3">
+      <c r="L31" s="5">
         <v>45993</v>
       </c>
       <c r="M31" s="1" t="s">
@@ -3923,16 +3976,16 @@
       <c r="N31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
       <c r="Q31">
         <v>0</v>
       </c>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T31" s="1" t="s">
+      <c r="R31" s="3"/>
+      <c r="S31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T31" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3946,13 +3999,13 @@
       <c r="C32" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="2">
         <v>3331129000170</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G32" s="1" t="s">
@@ -3967,10 +4020,10 @@
       <c r="J32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="5">
         <v>45993</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="5">
         <v>45993</v>
       </c>
       <c r="M32" s="1" t="s">
@@ -3979,16 +4032,16 @@
       <c r="N32" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
       <c r="Q32">
         <v>0</v>
       </c>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T32" s="1" t="s">
+      <c r="R32" s="3"/>
+      <c r="S32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T32" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4002,13 +4055,13 @@
       <c r="C33" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="2">
         <v>11519114000169</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="4" t="s">
         <v>123</v>
       </c>
       <c r="G33" s="1" t="s">
@@ -4023,10 +4076,10 @@
       <c r="J33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="5">
         <v>45994</v>
       </c>
-      <c r="L33" s="3">
+      <c r="L33" s="5">
         <v>45994</v>
       </c>
       <c r="M33" s="1" t="s">
@@ -4035,16 +4088,16 @@
       <c r="N33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
       <c r="Q33">
         <v>0</v>
       </c>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T33" s="1" t="s">
+      <c r="R33" s="3"/>
+      <c r="S33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T33" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4058,13 +4111,13 @@
       <c r="C34" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="2">
         <v>19770536000114</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" s="4" t="s">
         <v>127</v>
       </c>
       <c r="G34" s="1" t="s">
@@ -4079,10 +4132,10 @@
       <c r="J34" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K34" s="5">
         <v>45992</v>
       </c>
-      <c r="L34" s="3">
+      <c r="L34" s="5">
         <v>45992</v>
       </c>
       <c r="M34" s="1" t="s">
@@ -4091,16 +4144,16 @@
       <c r="N34" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
       <c r="Q34">
         <v>0</v>
       </c>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T34" s="1" t="s">
+      <c r="R34" s="3"/>
+      <c r="S34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T34" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4114,13 +4167,13 @@
       <c r="C35" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="2">
         <v>27394378000173</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="4" t="s">
         <v>131</v>
       </c>
       <c r="G35" s="1" t="s">
@@ -4135,10 +4188,10 @@
       <c r="J35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="5">
         <v>45993</v>
       </c>
-      <c r="L35" s="3">
+      <c r="L35" s="5">
         <v>45993</v>
       </c>
       <c r="M35" s="1" t="s">
@@ -4147,16 +4200,16 @@
       <c r="N35" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
       <c r="Q35">
         <v>0</v>
       </c>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T35" s="1" t="s">
+      <c r="R35" s="3"/>
+      <c r="S35" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T35" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4170,13 +4223,13 @@
       <c r="C36" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="2">
         <v>46892512000100</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="4" t="s">
         <v>134</v>
       </c>
       <c r="G36" s="1" t="s">
@@ -4191,10 +4244,10 @@
       <c r="J36" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K36" s="3">
+      <c r="K36" s="5">
         <v>45994</v>
       </c>
-      <c r="L36" s="3">
+      <c r="L36" s="5">
         <v>45994</v>
       </c>
       <c r="M36" s="1" t="s">
@@ -4203,16 +4256,16 @@
       <c r="N36" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
       <c r="Q36">
         <v>0</v>
       </c>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T36" s="1" t="s">
+      <c r="R36" s="3"/>
+      <c r="S36" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T36" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4226,13 +4279,13 @@
       <c r="C37" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="2">
         <v>4978803000176</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="4" t="s">
         <v>138</v>
       </c>
       <c r="G37" s="1" t="s">
@@ -4247,26 +4300,26 @@
       <c r="J37" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K37" s="3">
+      <c r="K37" s="5">
         <v>45994</v>
       </c>
-      <c r="L37" s="3">
+      <c r="L37" s="5">
         <v>45994</v>
       </c>
       <c r="M37" s="1"/>
       <c r="N37" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
       <c r="Q37">
         <v>0</v>
       </c>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T37" s="1" t="s">
+      <c r="R37" s="3"/>
+      <c r="S37" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T37" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4280,13 +4333,13 @@
       <c r="C38" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="2">
         <v>23467987600012</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="4" t="s">
         <v>140</v>
       </c>
       <c r="G38" s="1" t="s">
@@ -4301,10 +4354,10 @@
       <c r="J38" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K38" s="3">
+      <c r="K38" s="5">
         <v>45994</v>
       </c>
-      <c r="L38" s="3">
+      <c r="L38" s="5">
         <v>45994</v>
       </c>
       <c r="M38" s="1" t="s">
@@ -4313,16 +4366,16 @@
       <c r="N38" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
       <c r="Q38">
         <v>0</v>
       </c>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T38" s="1" t="s">
+      <c r="R38" s="3"/>
+      <c r="S38" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T38" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4336,13 +4389,13 @@
       <c r="C39" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="2">
         <v>19497817000107</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" s="4" t="s">
         <v>143</v>
       </c>
       <c r="G39" s="1" t="s">
@@ -4357,10 +4410,10 @@
       <c r="J39" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K39" s="3">
+      <c r="K39" s="5">
         <v>45994</v>
       </c>
-      <c r="L39" s="3">
+      <c r="L39" s="5">
         <v>45994</v>
       </c>
       <c r="M39" s="1" t="s">
@@ -4369,16 +4422,16 @@
       <c r="N39" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
       <c r="Q39">
         <v>0</v>
       </c>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T39" s="1" t="s">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T39" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4392,13 +4445,13 @@
       <c r="C40" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="2">
         <v>2279387000192</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="4" t="s">
         <v>146</v>
       </c>
       <c r="G40" s="1" t="s">
@@ -4413,10 +4466,10 @@
       <c r="J40" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K40" s="3">
+      <c r="K40" s="5">
         <v>45994</v>
       </c>
-      <c r="L40" s="3">
+      <c r="L40" s="5">
         <v>45994</v>
       </c>
       <c r="M40" s="1" t="s">
@@ -4425,16 +4478,16 @@
       <c r="N40" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
       <c r="Q40">
         <v>1</v>
       </c>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T40" s="1" t="s">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T40" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4448,13 +4501,13 @@
       <c r="C41" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="2">
         <v>27192758000206</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F41" s="4" t="s">
         <v>149</v>
       </c>
       <c r="G41" s="1" t="s">
@@ -4469,10 +4522,10 @@
       <c r="J41" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="5">
         <v>45994</v>
       </c>
-      <c r="L41" s="3">
+      <c r="L41" s="5">
         <v>45994</v>
       </c>
       <c r="M41" s="1" t="s">
@@ -4481,16 +4534,16 @@
       <c r="N41" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
       <c r="Q41">
         <v>0</v>
       </c>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T41" s="1" t="s">
+      <c r="R41" s="3"/>
+      <c r="S41" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T41" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4504,13 +4557,13 @@
       <c r="C42" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="2">
         <v>57717655000100</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F42" s="4" t="s">
         <v>151</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -4525,10 +4578,10 @@
       <c r="J42" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="5">
         <v>45995</v>
       </c>
-      <c r="L42" s="3">
+      <c r="L42" s="5">
         <v>45995</v>
       </c>
       <c r="M42" s="1" t="s">
@@ -4537,16 +4590,16 @@
       <c r="N42" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
       <c r="Q42">
         <v>0</v>
       </c>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T42" s="1" t="s">
+      <c r="R42" s="3"/>
+      <c r="S42" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T42" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4560,13 +4613,13 @@
       <c r="C43" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="2">
         <v>7396700000196</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F43" s="4" t="s">
         <v>154</v>
       </c>
       <c r="G43" s="1" t="s">
@@ -4581,10 +4634,10 @@
       <c r="J43" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43" s="5">
         <v>45995</v>
       </c>
-      <c r="L43" s="3">
+      <c r="L43" s="5">
         <v>45995</v>
       </c>
       <c r="M43" s="1" t="s">
@@ -4593,16 +4646,16 @@
       <c r="N43" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
       <c r="Q43">
         <v>0</v>
       </c>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T43" s="1" t="s">
+      <c r="R43" s="3"/>
+      <c r="S43" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T43" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4616,13 +4669,13 @@
       <c r="C44" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="2">
         <v>45761173000160</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F44" s="4" t="s">
         <v>158</v>
       </c>
       <c r="G44" s="1" t="s">
@@ -4637,10 +4690,10 @@
       <c r="J44" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="5">
         <v>45995</v>
       </c>
-      <c r="L44" s="3">
+      <c r="L44" s="5">
         <v>45995</v>
       </c>
       <c r="M44" s="1" t="s">
@@ -4649,16 +4702,16 @@
       <c r="N44" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
       <c r="Q44">
         <v>0</v>
       </c>
-      <c r="R44" s="1"/>
-      <c r="S44" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T44" s="1" t="s">
+      <c r="R44" s="3"/>
+      <c r="S44" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T44" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4672,13 +4725,13 @@
       <c r="C45" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="2">
         <v>45761173000160</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F45" s="4" t="s">
         <v>160</v>
       </c>
       <c r="G45" s="1" t="s">
@@ -4693,10 +4746,10 @@
       <c r="J45" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="5">
         <v>45995</v>
       </c>
-      <c r="L45" s="3">
+      <c r="L45" s="5">
         <v>45995</v>
       </c>
       <c r="M45" s="1" t="s">
@@ -4705,16 +4758,16 @@
       <c r="N45" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
       <c r="Q45">
         <v>0</v>
       </c>
-      <c r="R45" s="1"/>
-      <c r="S45" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T45" s="1" t="s">
+      <c r="R45" s="3"/>
+      <c r="S45" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T45" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4728,13 +4781,13 @@
       <c r="C46" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="2">
         <v>87091997000110</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F46" s="4" t="s">
         <v>162</v>
       </c>
       <c r="G46" s="1" t="s">
@@ -4749,10 +4802,10 @@
       <c r="J46" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="5">
         <v>45995</v>
       </c>
-      <c r="L46" s="3">
+      <c r="L46" s="5">
         <v>45995</v>
       </c>
       <c r="M46" s="1" t="s">
@@ -4761,16 +4814,16 @@
       <c r="N46" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
       <c r="Q46">
         <v>0</v>
       </c>
-      <c r="R46" s="1"/>
-      <c r="S46" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T46" s="1" t="s">
+      <c r="R46" s="3"/>
+      <c r="S46" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T46" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4784,13 +4837,13 @@
       <c r="C47" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="2">
         <v>80979107000162</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F47" s="4" t="s">
         <v>165</v>
       </c>
       <c r="G47" s="1" t="s">
@@ -4805,10 +4858,10 @@
       <c r="J47" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="5">
         <v>45995</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L47" s="5">
         <v>45995</v>
       </c>
       <c r="M47" s="1" t="s">
@@ -4817,16 +4870,16 @@
       <c r="N47" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
       <c r="Q47">
         <v>0</v>
       </c>
-      <c r="R47" s="1"/>
-      <c r="S47" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T47" s="1" t="s">
+      <c r="R47" s="3"/>
+      <c r="S47" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T47" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4840,13 +4893,13 @@
       <c r="C48" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="2">
         <v>2234943001429</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F48" s="4" t="s">
         <v>169</v>
       </c>
       <c r="G48" s="1" t="s">
@@ -4861,10 +4914,10 @@
       <c r="J48" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="5">
         <v>45995</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L48" s="5">
         <v>46006</v>
       </c>
       <c r="M48" s="1" t="s">
@@ -4873,16 +4926,16 @@
       <c r="N48" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
       <c r="Q48">
         <v>0</v>
       </c>
-      <c r="R48" s="1"/>
-      <c r="S48" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T48" s="1" t="s">
+      <c r="R48" s="3"/>
+      <c r="S48" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T48" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4896,13 +4949,13 @@
       <c r="C49" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="2">
         <v>61620792000191</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="F49" s="4" t="s">
         <v>172</v>
       </c>
       <c r="G49" s="1" t="s">
@@ -4917,26 +4970,26 @@
       <c r="J49" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49" s="5">
         <v>45995</v>
       </c>
-      <c r="L49" s="3">
+      <c r="L49" s="5">
         <v>45995</v>
       </c>
       <c r="M49" s="1"/>
       <c r="N49" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
       <c r="Q49">
         <v>0</v>
       </c>
-      <c r="R49" s="1"/>
-      <c r="S49" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T49" s="1" t="s">
+      <c r="R49" s="3"/>
+      <c r="S49" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T49" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4950,13 +5003,13 @@
       <c r="C50" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="2">
         <v>12645422000101</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F50" s="4" t="s">
         <v>174</v>
       </c>
       <c r="G50" s="1" t="s">
@@ -4971,10 +5024,10 @@
       <c r="J50" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K50" s="3">
+      <c r="K50" s="5">
         <v>45995</v>
       </c>
-      <c r="L50" s="3">
+      <c r="L50" s="5">
         <v>45995</v>
       </c>
       <c r="M50" s="1" t="s">
@@ -4983,16 +5036,16 @@
       <c r="N50" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
       <c r="Q50">
         <v>0</v>
       </c>
-      <c r="R50" s="1"/>
-      <c r="S50" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T50" s="1" t="s">
+      <c r="R50" s="3"/>
+      <c r="S50" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T50" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5006,13 +5059,13 @@
       <c r="C51" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="2">
         <v>9164791001646</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F51" s="4" t="s">
         <v>176</v>
       </c>
       <c r="G51" s="1" t="s">
@@ -5027,10 +5080,10 @@
       <c r="J51" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K51" s="3">
+      <c r="K51" s="5">
         <v>45995</v>
       </c>
-      <c r="L51" s="3">
+      <c r="L51" s="5">
         <v>45995</v>
       </c>
       <c r="M51" s="1" t="s">
@@ -5039,16 +5092,16 @@
       <c r="N51" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
       <c r="Q51">
         <v>0</v>
       </c>
-      <c r="R51" s="1"/>
-      <c r="S51" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T51" s="1" t="s">
+      <c r="R51" s="3"/>
+      <c r="S51" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T51" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5062,13 +5115,13 @@
       <c r="C52" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="2">
         <v>72374952000186</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="F52" s="4" t="s">
         <v>178</v>
       </c>
       <c r="G52" s="1" t="s">
@@ -5083,10 +5136,10 @@
       <c r="J52" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="5">
         <v>45996</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L52" s="5">
         <v>46003</v>
       </c>
       <c r="M52" s="1" t="s">
@@ -5095,16 +5148,16 @@
       <c r="N52" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O52" s="1"/>
-      <c r="P52" s="1"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
       <c r="Q52">
         <v>0</v>
       </c>
-      <c r="R52" s="1"/>
-      <c r="S52" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T52" s="1" t="s">
+      <c r="R52" s="3"/>
+      <c r="S52" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T52" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5118,13 +5171,13 @@
       <c r="C53" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="2">
         <v>12074139000169</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="F53" s="4" t="s">
         <v>181</v>
       </c>
       <c r="G53" s="1" t="s">
@@ -5139,10 +5192,10 @@
       <c r="J53" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K53" s="3">
+      <c r="K53" s="5">
         <v>45996</v>
       </c>
-      <c r="L53" s="3">
+      <c r="L53" s="5">
         <v>45996</v>
       </c>
       <c r="M53" s="1" t="s">
@@ -5151,16 +5204,16 @@
       <c r="N53" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
       <c r="Q53">
         <v>0</v>
       </c>
-      <c r="R53" s="1"/>
-      <c r="S53" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T53" s="1" t="s">
+      <c r="R53" s="3"/>
+      <c r="S53" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T53" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5174,13 +5227,13 @@
       <c r="C54" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="2">
         <v>5815156000144</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="F54" s="4" t="s">
         <v>184</v>
       </c>
       <c r="G54" s="1" t="s">
@@ -5195,10 +5248,10 @@
       <c r="J54" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54" s="5">
         <v>45996</v>
       </c>
-      <c r="L54" s="3">
+      <c r="L54" s="5">
         <v>45996</v>
       </c>
       <c r="M54" s="1" t="s">
@@ -5207,16 +5260,16 @@
       <c r="N54" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
       <c r="Q54">
         <v>0</v>
       </c>
-      <c r="R54" s="1"/>
-      <c r="S54" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T54" s="1" t="s">
+      <c r="R54" s="3"/>
+      <c r="S54" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T54" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5230,13 +5283,13 @@
       <c r="C55" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="2">
         <v>55699369000126</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="F55" s="4" t="s">
         <v>186</v>
       </c>
       <c r="G55" s="1" t="s">
@@ -5251,26 +5304,26 @@
       <c r="J55" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K55" s="3">
+      <c r="K55" s="5">
         <v>45996</v>
       </c>
-      <c r="L55" s="3">
+      <c r="L55" s="5">
         <v>45996</v>
       </c>
       <c r="M55" s="1" t="s">
         <v>129</v>
       </c>
       <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
-      <c r="P55" s="1"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
       <c r="Q55">
         <v>0</v>
       </c>
-      <c r="R55" s="1"/>
-      <c r="S55" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T55" s="1" t="s">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T55" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5284,13 +5337,13 @@
       <c r="C56" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="2">
         <v>4785105000154</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="F56" s="4" t="s">
         <v>187</v>
       </c>
       <c r="G56" s="1" t="s">
@@ -5305,26 +5358,26 @@
       <c r="J56" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K56" s="3">
+      <c r="K56" s="5">
         <v>45996</v>
       </c>
-      <c r="L56" s="3">
+      <c r="L56" s="5">
         <v>45996</v>
       </c>
       <c r="M56" s="1"/>
       <c r="N56" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
       <c r="Q56">
         <v>0</v>
       </c>
-      <c r="R56" s="1"/>
-      <c r="S56" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T56" s="1" t="s">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T56" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5338,13 +5391,13 @@
       <c r="C57" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="2">
         <v>30455952000160</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="F57" s="4" t="s">
         <v>189</v>
       </c>
       <c r="G57" s="1" t="s">
@@ -5357,10 +5410,10 @@
       <c r="J57" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="5">
         <v>45996</v>
       </c>
-      <c r="L57" s="3">
+      <c r="L57" s="5">
         <v>45996</v>
       </c>
       <c r="M57" s="1" t="s">
@@ -5369,16 +5422,16 @@
       <c r="N57" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O57" s="1"/>
-      <c r="P57" s="1"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
       <c r="Q57">
         <v>0</v>
       </c>
-      <c r="R57" s="1"/>
-      <c r="S57" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T57" s="1" t="s">
+      <c r="R57" s="3"/>
+      <c r="S57" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T57" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5392,13 +5445,13 @@
       <c r="C58" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="2">
         <v>29404716000306</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="F58" s="4" t="s">
         <v>191</v>
       </c>
       <c r="G58" s="1" t="s">
@@ -5413,26 +5466,26 @@
       <c r="J58" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="5">
         <v>45996</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L58" s="5">
         <v>46000</v>
       </c>
       <c r="M58" s="1"/>
       <c r="N58" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O58" s="1"/>
-      <c r="P58" s="1"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
       <c r="Q58">
         <v>0</v>
       </c>
-      <c r="R58" s="1"/>
-      <c r="S58" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T58" s="1" t="s">
+      <c r="R58" s="3"/>
+      <c r="S58" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T58" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5446,13 +5499,13 @@
       <c r="C59" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="2">
         <v>48227957000100</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E59" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="F59" s="4" t="s">
         <v>195</v>
       </c>
       <c r="G59" s="1" t="s">
@@ -5467,10 +5520,10 @@
       <c r="J59" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="5">
         <v>45996</v>
       </c>
-      <c r="L59" s="3">
+      <c r="L59" s="5">
         <v>45996</v>
       </c>
       <c r="M59" s="1" t="s">
@@ -5479,16 +5532,16 @@
       <c r="N59" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
       <c r="Q59">
         <v>0</v>
       </c>
-      <c r="R59" s="1"/>
-      <c r="S59" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T59" s="1" t="s">
+      <c r="R59" s="3"/>
+      <c r="S59" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T59" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5502,13 +5555,13 @@
       <c r="C60" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="2">
         <v>47545858000103</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="F60" s="4" t="s">
         <v>197</v>
       </c>
       <c r="G60" s="1" t="s">
@@ -5523,10 +5576,10 @@
       <c r="J60" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K60" s="5">
         <v>45994</v>
       </c>
-      <c r="L60" s="3">
+      <c r="L60" s="5">
         <v>45994</v>
       </c>
       <c r="M60" s="1" t="s">
@@ -5535,16 +5588,16 @@
       <c r="N60" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
       <c r="Q60">
         <v>0</v>
       </c>
-      <c r="R60" s="1"/>
-      <c r="S60" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T60" s="1" t="s">
+      <c r="R60" s="3"/>
+      <c r="S60" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T60" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5558,13 +5611,13 @@
       <c r="C61" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="2">
         <v>52275228000198</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="F61" s="4" t="s">
         <v>199</v>
       </c>
       <c r="G61" s="1" t="s">
@@ -5579,10 +5632,10 @@
       <c r="J61" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K61" s="3">
+      <c r="K61" s="5">
         <v>45996</v>
       </c>
-      <c r="L61" s="3">
+      <c r="L61" s="5">
         <v>45996</v>
       </c>
       <c r="M61" s="1" t="s">
@@ -5591,16 +5644,16 @@
       <c r="N61" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O61" s="1"/>
-      <c r="P61" s="1"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
       <c r="Q61">
         <v>0</v>
       </c>
-      <c r="R61" s="1"/>
-      <c r="S61" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T61" s="1" t="s">
+      <c r="R61" s="3"/>
+      <c r="S61" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T61" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5614,13 +5667,13 @@
       <c r="C62" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="2">
         <v>37654527000140</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="F62" s="4" t="s">
         <v>201</v>
       </c>
       <c r="G62" s="1" t="s">
@@ -5635,10 +5688,10 @@
       <c r="J62" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K62" s="3">
+      <c r="K62" s="5">
         <v>45999</v>
       </c>
-      <c r="L62" s="3">
+      <c r="L62" s="5">
         <v>45999</v>
       </c>
       <c r="M62" s="1" t="s">
@@ -5647,16 +5700,16 @@
       <c r="N62" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O62" s="1"/>
-      <c r="P62" s="1"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
       <c r="Q62">
         <v>0</v>
       </c>
-      <c r="R62" s="1"/>
-      <c r="S62" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T62" s="1" t="s">
+      <c r="R62" s="3"/>
+      <c r="S62" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T62" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5670,13 +5723,13 @@
       <c r="C63" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="2">
         <v>45132315000120</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E63" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="F63" s="4" t="s">
         <v>203</v>
       </c>
       <c r="G63" s="1" t="s">
@@ -5691,10 +5744,10 @@
       <c r="J63" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K63" s="3">
+      <c r="K63" s="5">
         <v>45996</v>
       </c>
-      <c r="L63" s="3">
+      <c r="L63" s="5">
         <v>45996</v>
       </c>
       <c r="M63" s="1" t="s">
@@ -5703,16 +5756,16 @@
       <c r="N63" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
       <c r="Q63">
         <v>0</v>
       </c>
-      <c r="R63" s="1"/>
-      <c r="S63" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T63" s="1" t="s">
+      <c r="R63" s="3"/>
+      <c r="S63" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T63" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5726,13 +5779,13 @@
       <c r="C64" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="2">
         <v>80979107000162</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="F64" s="4" t="s">
         <v>205</v>
       </c>
       <c r="G64" s="1" t="s">
@@ -5747,10 +5800,10 @@
       <c r="J64" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K64" s="3">
+      <c r="K64" s="5">
         <v>45995</v>
       </c>
-      <c r="L64" s="3">
+      <c r="L64" s="5">
         <v>45996</v>
       </c>
       <c r="M64" s="1" t="s">
@@ -5759,16 +5812,16 @@
       <c r="N64" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O64" s="1"/>
-      <c r="P64" s="1"/>
+      <c r="O64" s="3"/>
+      <c r="P64" s="3"/>
       <c r="Q64">
         <v>0</v>
       </c>
-      <c r="R64" s="1"/>
-      <c r="S64" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T64" s="1" t="s">
+      <c r="R64" s="3"/>
+      <c r="S64" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T64" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5782,13 +5835,13 @@
       <c r="C65" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="2">
         <v>57832654000107</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E65" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="F65" s="4" t="s">
         <v>208</v>
       </c>
       <c r="G65" s="1" t="s">
@@ -5803,10 +5856,10 @@
       <c r="J65" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K65" s="3">
+      <c r="K65" s="5">
         <v>45999</v>
       </c>
-      <c r="L65" s="3">
+      <c r="L65" s="5">
         <v>45999</v>
       </c>
       <c r="M65" s="1" t="s">
@@ -5815,16 +5868,16 @@
       <c r="N65" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O65" s="1"/>
-      <c r="P65" s="1"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
       <c r="Q65">
         <v>0</v>
       </c>
-      <c r="R65" s="1"/>
-      <c r="S65" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T65" s="1" t="s">
+      <c r="R65" s="3"/>
+      <c r="S65" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T65" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5838,13 +5891,13 @@
       <c r="C66" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="2">
         <v>24894843000147</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="F66" s="4" t="s">
         <v>210</v>
       </c>
       <c r="G66" s="1" t="s">
@@ -5859,10 +5912,10 @@
       <c r="J66" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K66" s="5">
         <v>45999</v>
       </c>
-      <c r="L66" s="3">
+      <c r="L66" s="5">
         <v>45999</v>
       </c>
       <c r="M66" s="1" t="s">
@@ -5871,16 +5924,16 @@
       <c r="N66" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O66" s="1"/>
-      <c r="P66" s="1"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
       <c r="Q66">
         <v>0</v>
       </c>
-      <c r="R66" s="1"/>
-      <c r="S66" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T66" s="1" t="s">
+      <c r="R66" s="3"/>
+      <c r="S66" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T66" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5894,13 +5947,13 @@
       <c r="C67" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="2">
         <v>298631000139</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E67" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="F67" s="4" t="s">
         <v>212</v>
       </c>
       <c r="G67" s="1" t="s">
@@ -5915,10 +5968,10 @@
       <c r="J67" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K67" s="3">
+      <c r="K67" s="5">
         <v>45995</v>
       </c>
-      <c r="L67" s="3">
+      <c r="L67" s="5">
         <v>46000</v>
       </c>
       <c r="M67" s="1" t="s">
@@ -5927,16 +5980,16 @@
       <c r="N67" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O67" s="1"/>
-      <c r="P67" s="1"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
       <c r="Q67">
         <v>0</v>
       </c>
-      <c r="R67" s="1"/>
-      <c r="S67" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T67" s="1" t="s">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T67" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5950,13 +6003,13 @@
       <c r="C68" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="2">
         <v>48055460000143</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E68" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="F68" s="4" t="s">
         <v>214</v>
       </c>
       <c r="G68" s="1" t="s">
@@ -5971,10 +6024,10 @@
       <c r="J68" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K68" s="3">
+      <c r="K68" s="5">
         <v>45999</v>
       </c>
-      <c r="L68" s="3">
+      <c r="L68" s="5">
         <v>45999</v>
       </c>
       <c r="M68" s="1" t="s">
@@ -5983,16 +6036,16 @@
       <c r="N68" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O68" s="1"/>
-      <c r="P68" s="1"/>
+      <c r="O68" s="3"/>
+      <c r="P68" s="3"/>
       <c r="Q68">
         <v>0</v>
       </c>
-      <c r="R68" s="1"/>
-      <c r="S68" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T68" s="1" t="s">
+      <c r="R68" s="3"/>
+      <c r="S68" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T68" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6006,13 +6059,13 @@
       <c r="C69" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="2">
         <v>87687489000108</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E69" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="F69" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G69" s="1" t="s">
@@ -6027,10 +6080,10 @@
       <c r="J69" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K69" s="3">
+      <c r="K69" s="5">
         <v>45999</v>
       </c>
-      <c r="L69" s="3">
+      <c r="L69" s="5">
         <v>45999</v>
       </c>
       <c r="M69" s="1" t="s">
@@ -6039,16 +6092,16 @@
       <c r="N69" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O69" s="1"/>
-      <c r="P69" s="1"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
       <c r="Q69">
         <v>0</v>
       </c>
-      <c r="R69" s="1"/>
-      <c r="S69" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T69" s="1" t="s">
+      <c r="R69" s="3"/>
+      <c r="S69" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T69" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6062,13 +6115,13 @@
       <c r="C70" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="2">
         <v>1991461002180</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E70" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="F70" s="4" t="s">
         <v>220</v>
       </c>
       <c r="G70" s="1" t="s">
@@ -6083,10 +6136,10 @@
       <c r="J70" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K70" s="3">
+      <c r="K70" s="5">
         <v>45999</v>
       </c>
-      <c r="L70" s="3">
+      <c r="L70" s="5">
         <v>45999</v>
       </c>
       <c r="M70" s="1" t="s">
@@ -6095,16 +6148,16 @@
       <c r="N70" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="O70" s="1"/>
-      <c r="P70" s="1"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="3"/>
       <c r="Q70">
         <v>0</v>
       </c>
-      <c r="R70" s="1"/>
-      <c r="S70" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T70" s="1" t="s">
+      <c r="R70" s="3"/>
+      <c r="S70" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T70" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6118,13 +6171,13 @@
       <c r="C71" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="2">
         <v>15022398000134</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E71" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="F71" s="4" t="s">
         <v>223</v>
       </c>
       <c r="G71" s="1" t="s">
@@ -6139,10 +6192,10 @@
       <c r="J71" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K71" s="3">
+      <c r="K71" s="5">
         <v>45999</v>
       </c>
-      <c r="L71" s="3">
+      <c r="L71" s="5">
         <v>45999</v>
       </c>
       <c r="M71" s="1" t="s">
@@ -6151,16 +6204,16 @@
       <c r="N71" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O71" s="1"/>
-      <c r="P71" s="1"/>
+      <c r="O71" s="3"/>
+      <c r="P71" s="3"/>
       <c r="Q71">
         <v>0</v>
       </c>
-      <c r="R71" s="1"/>
-      <c r="S71" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T71" s="1" t="s">
+      <c r="R71" s="3"/>
+      <c r="S71" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T71" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6174,13 +6227,13 @@
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="2">
         <v>87091997000110</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E72" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="F72" s="4" t="s">
         <v>225</v>
       </c>
       <c r="G72" s="1" t="s">
@@ -6195,10 +6248,10 @@
       <c r="J72" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="5">
         <v>45999</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72" s="5">
         <v>45999</v>
       </c>
       <c r="M72" s="1" t="s">
@@ -6207,16 +6260,16 @@
       <c r="N72" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O72" s="1"/>
-      <c r="P72" s="1"/>
+      <c r="O72" s="3"/>
+      <c r="P72" s="3"/>
       <c r="Q72">
         <v>0</v>
       </c>
-      <c r="R72" s="1"/>
-      <c r="S72" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T72" s="1" t="s">
+      <c r="R72" s="3"/>
+      <c r="S72" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T72" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6230,13 +6283,13 @@
       <c r="C73" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="2">
         <v>76816842000420</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E73" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="F73" s="4" t="s">
         <v>227</v>
       </c>
       <c r="G73" s="1" t="s">
@@ -6251,10 +6304,10 @@
       <c r="J73" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K73" s="3">
+      <c r="K73" s="5">
         <v>45999</v>
       </c>
-      <c r="L73" s="3">
+      <c r="L73" s="5">
         <v>45999</v>
       </c>
       <c r="M73" s="1" t="s">
@@ -6263,16 +6316,16 @@
       <c r="N73" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O73" s="1"/>
-      <c r="P73" s="1"/>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
       <c r="Q73">
         <v>0</v>
       </c>
-      <c r="R73" s="1"/>
-      <c r="S73" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T73" s="1" t="s">
+      <c r="R73" s="3"/>
+      <c r="S73" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T73" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6286,13 +6339,13 @@
       <c r="C74" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="2">
         <v>76816842000269</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E74" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="F74" s="4" t="s">
         <v>227</v>
       </c>
       <c r="G74" s="1" t="s">
@@ -6307,10 +6360,10 @@
       <c r="J74" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K74" s="3">
+      <c r="K74" s="5">
         <v>45999</v>
       </c>
-      <c r="L74" s="3">
+      <c r="L74" s="5">
         <v>45999</v>
       </c>
       <c r="M74" s="1" t="s">
@@ -6319,16 +6372,16 @@
       <c r="N74" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O74" s="1"/>
-      <c r="P74" s="1"/>
+      <c r="O74" s="3"/>
+      <c r="P74" s="3"/>
       <c r="Q74">
         <v>0</v>
       </c>
-      <c r="R74" s="1"/>
-      <c r="S74" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T74" s="1" t="s">
+      <c r="R74" s="3"/>
+      <c r="S74" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T74" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6342,13 +6395,13 @@
       <c r="C75" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="2">
         <v>8741844000103</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E75" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="F75" s="4" t="s">
         <v>231</v>
       </c>
       <c r="G75" s="1" t="s">
@@ -6363,10 +6416,10 @@
       <c r="J75" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K75" s="3">
+      <c r="K75" s="5">
         <v>45999</v>
       </c>
-      <c r="L75" s="3">
+      <c r="L75" s="5">
         <v>45999</v>
       </c>
       <c r="M75" s="1" t="s">
@@ -6375,16 +6428,16 @@
       <c r="N75" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O75" s="1"/>
-      <c r="P75" s="1"/>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
       <c r="Q75">
         <v>0</v>
       </c>
-      <c r="R75" s="1"/>
-      <c r="S75" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T75" s="1" t="s">
+      <c r="R75" s="3"/>
+      <c r="S75" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T75" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6398,11 +6451,11 @@
       <c r="C76" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="2">
         <v>48055460000143</v>
       </c>
-      <c r="E76" s="1"/>
-      <c r="F76" s="2" t="s">
+      <c r="E76" s="3"/>
+      <c r="F76" s="4" t="s">
         <v>233</v>
       </c>
       <c r="G76" s="1" t="s">
@@ -6417,26 +6470,26 @@
       <c r="J76" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K76" s="3">
+      <c r="K76" s="5">
         <v>45999</v>
       </c>
-      <c r="L76" s="3">
+      <c r="L76" s="5">
         <v>45999</v>
       </c>
       <c r="M76" s="1"/>
       <c r="N76" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O76" s="1"/>
-      <c r="P76" s="1"/>
+      <c r="O76" s="3"/>
+      <c r="P76" s="3"/>
       <c r="Q76">
         <v>0</v>
       </c>
-      <c r="R76" s="1"/>
-      <c r="S76" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T76" s="1" t="s">
+      <c r="R76" s="3"/>
+      <c r="S76" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T76" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6450,13 +6503,13 @@
       <c r="C77" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="2">
         <v>577709000154</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E77" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="F77" s="2" t="s">
+      <c r="F77" s="4" t="s">
         <v>235</v>
       </c>
       <c r="G77" s="1" t="s">
@@ -6471,10 +6524,10 @@
       <c r="J77" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K77" s="3">
+      <c r="K77" s="5">
         <v>45999</v>
       </c>
-      <c r="L77" s="3">
+      <c r="L77" s="5">
         <v>45999</v>
       </c>
       <c r="M77" s="1" t="s">
@@ -6483,16 +6536,16 @@
       <c r="N77" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O77" s="1"/>
-      <c r="P77" s="1"/>
+      <c r="O77" s="3"/>
+      <c r="P77" s="3"/>
       <c r="Q77">
         <v>0</v>
       </c>
-      <c r="R77" s="1"/>
-      <c r="S77" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T77" s="1" t="s">
+      <c r="R77" s="3"/>
+      <c r="S77" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T77" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6506,13 +6559,13 @@
       <c r="C78" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="2">
         <v>11111111111111</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="E78" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="F78" s="4" t="s">
         <v>237</v>
       </c>
       <c r="G78" s="1" t="s">
@@ -6527,10 +6580,10 @@
       <c r="J78" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K78" s="3">
+      <c r="K78" s="5">
         <v>45999</v>
       </c>
-      <c r="L78" s="3">
+      <c r="L78" s="5">
         <v>45999</v>
       </c>
       <c r="M78" s="1" t="s">
@@ -6539,16 +6592,16 @@
       <c r="N78" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O78" s="1"/>
-      <c r="P78" s="1"/>
+      <c r="O78" s="3"/>
+      <c r="P78" s="3"/>
       <c r="Q78">
         <v>0</v>
       </c>
-      <c r="R78" s="1"/>
-      <c r="S78" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T78" s="1" t="s">
+      <c r="R78" s="3"/>
+      <c r="S78" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T78" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6562,13 +6615,13 @@
       <c r="C79" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="2">
         <v>26472037000106</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E79" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="F79" s="2" t="s">
+      <c r="F79" s="4" t="s">
         <v>240</v>
       </c>
       <c r="G79" s="1" t="s">
@@ -6583,10 +6636,10 @@
       <c r="J79" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K79" s="3">
+      <c r="K79" s="5">
         <v>46000</v>
       </c>
-      <c r="L79" s="3">
+      <c r="L79" s="5">
         <v>46000</v>
       </c>
       <c r="M79" s="1" t="s">
@@ -6595,16 +6648,16 @@
       <c r="N79" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O79" s="1"/>
-      <c r="P79" s="1"/>
+      <c r="O79" s="3"/>
+      <c r="P79" s="3"/>
       <c r="Q79">
         <v>0</v>
       </c>
-      <c r="R79" s="1"/>
-      <c r="S79" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T79" s="1" t="s">
+      <c r="R79" s="3"/>
+      <c r="S79" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T79" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6618,13 +6671,13 @@
       <c r="C80" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="2">
         <v>26472037000109</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="E80" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="F80" s="2" t="s">
+      <c r="F80" s="4" t="s">
         <v>243</v>
       </c>
       <c r="G80" s="1" t="s">
@@ -6639,10 +6692,10 @@
       <c r="J80" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K80" s="3">
+      <c r="K80" s="5">
         <v>46000</v>
       </c>
-      <c r="L80" s="3">
+      <c r="L80" s="5">
         <v>46000</v>
       </c>
       <c r="M80" s="1" t="s">
@@ -6651,16 +6704,16 @@
       <c r="N80" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O80" s="1"/>
-      <c r="P80" s="1"/>
+      <c r="O80" s="3"/>
+      <c r="P80" s="3"/>
       <c r="Q80">
         <v>0</v>
       </c>
-      <c r="R80" s="1"/>
-      <c r="S80" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T80" s="1" t="s">
+      <c r="R80" s="3"/>
+      <c r="S80" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T80" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6674,13 +6727,13 @@
       <c r="C81" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="2">
         <v>46011435000132</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E81" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="F81" s="2" t="s">
+      <c r="F81" s="4" t="s">
         <v>245</v>
       </c>
       <c r="G81" s="1" t="s">
@@ -6695,10 +6748,10 @@
       <c r="J81" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K81" s="3">
+      <c r="K81" s="5">
         <v>45999</v>
       </c>
-      <c r="L81" s="3">
+      <c r="L81" s="5">
         <v>45999</v>
       </c>
       <c r="M81" s="1" t="s">
@@ -6707,16 +6760,16 @@
       <c r="N81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O81" s="1"/>
-      <c r="P81" s="1"/>
+      <c r="O81" s="3"/>
+      <c r="P81" s="3"/>
       <c r="Q81">
         <v>0</v>
       </c>
-      <c r="R81" s="1"/>
-      <c r="S81" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T81" s="1" t="s">
+      <c r="R81" s="3"/>
+      <c r="S81" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T81" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6730,13 +6783,13 @@
       <c r="C82" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="2">
         <v>3570327000197</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E82" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="F82" s="2" t="s">
+      <c r="F82" s="4" t="s">
         <v>247</v>
       </c>
       <c r="G82" s="1" t="s">
@@ -6751,10 +6804,10 @@
       <c r="J82" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K82" s="3">
+      <c r="K82" s="5">
         <v>46000</v>
       </c>
-      <c r="L82" s="3">
+      <c r="L82" s="5">
         <v>46000</v>
       </c>
       <c r="M82" s="1" t="s">
@@ -6763,16 +6816,16 @@
       <c r="N82" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O82" s="1"/>
-      <c r="P82" s="1"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
       <c r="Q82">
         <v>0</v>
       </c>
-      <c r="R82" s="1"/>
-      <c r="S82" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T82" s="1" t="s">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T82" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6786,11 +6839,11 @@
       <c r="C83" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="2">
         <v>1000000000000</v>
       </c>
-      <c r="E83" s="1"/>
-      <c r="F83" s="2" t="s">
+      <c r="E83" s="3"/>
+      <c r="F83" s="4" t="s">
         <v>248</v>
       </c>
       <c r="G83" s="1" t="s">
@@ -6805,26 +6858,26 @@
       <c r="J83" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K83" s="3">
+      <c r="K83" s="5">
         <v>45999</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="5">
         <v>46000</v>
       </c>
       <c r="M83" s="1" t="s">
         <v>250</v>
       </c>
       <c r="N83" s="1"/>
-      <c r="O83" s="1"/>
-      <c r="P83" s="1"/>
+      <c r="O83" s="3"/>
+      <c r="P83" s="3"/>
       <c r="Q83">
         <v>0</v>
       </c>
-      <c r="R83" s="1"/>
-      <c r="S83" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T83" s="1" t="s">
+      <c r="R83" s="3"/>
+      <c r="S83" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T83" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6838,13 +6891,13 @@
       <c r="C84" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="2">
         <v>10592852000179</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="E84" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F84" s="2" t="s">
+      <c r="F84" s="4" t="s">
         <v>251</v>
       </c>
       <c r="G84" s="1" t="s">
@@ -6859,10 +6912,10 @@
       <c r="J84" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K84" s="3">
+      <c r="K84" s="5">
         <v>45999</v>
       </c>
-      <c r="L84" s="3">
+      <c r="L84" s="5">
         <v>45999</v>
       </c>
       <c r="M84" s="1" t="s">
@@ -6871,16 +6924,16 @@
       <c r="N84" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O84" s="1"/>
-      <c r="P84" s="1"/>
+      <c r="O84" s="3"/>
+      <c r="P84" s="3"/>
       <c r="Q84">
         <v>0</v>
       </c>
-      <c r="R84" s="1"/>
-      <c r="S84" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T84" s="1" t="s">
+      <c r="R84" s="3"/>
+      <c r="S84" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T84" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6894,13 +6947,13 @@
       <c r="C85" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="2">
         <v>7433734000103</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="E85" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="F85" s="2" t="s">
+      <c r="F85" s="4" t="s">
         <v>253</v>
       </c>
       <c r="G85" s="1" t="s">
@@ -6915,10 +6968,10 @@
       <c r="J85" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K85" s="3">
+      <c r="K85" s="5">
         <v>46000</v>
       </c>
-      <c r="L85" s="3">
+      <c r="L85" s="5">
         <v>46001</v>
       </c>
       <c r="M85" s="1" t="s">
@@ -6927,16 +6980,16 @@
       <c r="N85" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O85" s="1"/>
-      <c r="P85" s="1"/>
+      <c r="O85" s="3"/>
+      <c r="P85" s="3"/>
       <c r="Q85">
         <v>0</v>
       </c>
-      <c r="R85" s="1"/>
-      <c r="S85" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T85" s="1" t="s">
+      <c r="R85" s="3"/>
+      <c r="S85" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T85" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6950,13 +7003,13 @@
       <c r="C86" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="2">
         <v>4785105000154</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="E86" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F86" s="2" t="s">
+      <c r="F86" s="4" t="s">
         <v>254</v>
       </c>
       <c r="G86" s="1" t="s">
@@ -6971,10 +7024,10 @@
       <c r="J86" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K86" s="3">
+      <c r="K86" s="5">
         <v>46000</v>
       </c>
-      <c r="L86" s="3">
+      <c r="L86" s="5">
         <v>46000</v>
       </c>
       <c r="M86" s="1" t="s">
@@ -6983,16 +7036,16 @@
       <c r="N86" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O86" s="1"/>
-      <c r="P86" s="1"/>
+      <c r="O86" s="3"/>
+      <c r="P86" s="3"/>
       <c r="Q86">
         <v>0</v>
       </c>
-      <c r="R86" s="1"/>
-      <c r="S86" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T86" s="1" t="s">
+      <c r="R86" s="3"/>
+      <c r="S86" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T86" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7006,13 +7059,13 @@
       <c r="C87" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="2">
         <v>76816842000420</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="E87" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F87" s="2" t="s">
+      <c r="F87" s="4" t="s">
         <v>255</v>
       </c>
       <c r="G87" s="1" t="s">
@@ -7027,10 +7080,10 @@
       <c r="J87" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K87" s="3">
+      <c r="K87" s="5">
         <v>46000</v>
       </c>
-      <c r="L87" s="3">
+      <c r="L87" s="5">
         <v>46000</v>
       </c>
       <c r="M87" s="1" t="s">
@@ -7039,16 +7092,16 @@
       <c r="N87" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O87" s="1"/>
-      <c r="P87" s="1"/>
+      <c r="O87" s="3"/>
+      <c r="P87" s="3"/>
       <c r="Q87">
         <v>0</v>
       </c>
-      <c r="R87" s="1"/>
-      <c r="S87" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T87" s="1" t="s">
+      <c r="R87" s="3"/>
+      <c r="S87" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T87" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7062,13 +7115,13 @@
       <c r="C88" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="2">
         <v>76816842000269</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="E88" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="F88" s="2" t="s">
+      <c r="F88" s="4" t="s">
         <v>255</v>
       </c>
       <c r="G88" s="1" t="s">
@@ -7083,10 +7136,10 @@
       <c r="J88" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K88" s="3">
+      <c r="K88" s="5">
         <v>46000</v>
       </c>
-      <c r="L88" s="3">
+      <c r="L88" s="5">
         <v>46000</v>
       </c>
       <c r="M88" s="1" t="s">
@@ -7095,16 +7148,16 @@
       <c r="N88" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O88" s="1"/>
-      <c r="P88" s="1"/>
+      <c r="O88" s="3"/>
+      <c r="P88" s="3"/>
       <c r="Q88">
         <v>0</v>
       </c>
-      <c r="R88" s="1"/>
-      <c r="S88" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T88" s="1" t="s">
+      <c r="R88" s="3"/>
+      <c r="S88" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T88" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7118,13 +7171,13 @@
       <c r="C89" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="2">
         <v>29404899000190</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E89" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="F89" s="2" t="s">
+      <c r="F89" s="4" t="s">
         <v>257</v>
       </c>
       <c r="G89" s="1" t="s">
@@ -7139,10 +7192,10 @@
       <c r="J89" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K89" s="5">
         <v>46000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="L89" s="5">
         <v>46000</v>
       </c>
       <c r="M89" s="1" t="s">
@@ -7151,16 +7204,16 @@
       <c r="N89" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O89" s="1"/>
-      <c r="P89" s="1"/>
+      <c r="O89" s="3"/>
+      <c r="P89" s="3"/>
       <c r="Q89">
         <v>0</v>
       </c>
-      <c r="R89" s="1"/>
-      <c r="S89" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T89" s="1" t="s">
+      <c r="R89" s="3"/>
+      <c r="S89" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T89" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7174,13 +7227,13 @@
       <c r="C90" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="2">
         <v>29404899000351</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E90" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="F90" s="2" t="s">
+      <c r="F90" s="4" t="s">
         <v>257</v>
       </c>
       <c r="G90" s="1" t="s">
@@ -7195,10 +7248,10 @@
       <c r="J90" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K90" s="3">
+      <c r="K90" s="5">
         <v>46000</v>
       </c>
-      <c r="L90" s="3">
+      <c r="L90" s="5">
         <v>46000</v>
       </c>
       <c r="M90" s="1" t="s">
@@ -7207,16 +7260,16 @@
       <c r="N90" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O90" s="1"/>
-      <c r="P90" s="1"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
       <c r="Q90">
         <v>0</v>
       </c>
-      <c r="R90" s="1"/>
-      <c r="S90" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T90" s="1" t="s">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T90" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7230,13 +7283,13 @@
       <c r="C91" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="2">
         <v>4868412000794</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="E91" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="F91" s="2" t="s">
+      <c r="F91" s="4" t="s">
         <v>259</v>
       </c>
       <c r="G91" s="1" t="s">
@@ -7251,10 +7304,10 @@
       <c r="J91" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K91" s="3">
+      <c r="K91" s="5">
         <v>46000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="L91" s="5">
         <v>46000</v>
       </c>
       <c r="M91" s="1" t="s">
@@ -7263,16 +7316,16 @@
       <c r="N91" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O91" s="1"/>
-      <c r="P91" s="1"/>
+      <c r="O91" s="3"/>
+      <c r="P91" s="3"/>
       <c r="Q91">
         <v>0</v>
       </c>
-      <c r="R91" s="1"/>
-      <c r="S91" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T91" s="1" t="s">
+      <c r="R91" s="3"/>
+      <c r="S91" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T91" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7286,13 +7339,13 @@
       <c r="C92" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="2">
         <v>61620792000191</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="E92" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F92" s="2" t="s">
+      <c r="F92" s="4" t="s">
         <v>260</v>
       </c>
       <c r="G92" s="1" t="s">
@@ -7307,10 +7360,10 @@
       <c r="J92" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K92" s="3">
+      <c r="K92" s="5">
         <v>46000</v>
       </c>
-      <c r="L92" s="3">
+      <c r="L92" s="5">
         <v>46000</v>
       </c>
       <c r="M92" s="1" t="s">
@@ -7319,16 +7372,16 @@
       <c r="N92" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O92" s="1"/>
-      <c r="P92" s="1"/>
+      <c r="O92" s="3"/>
+      <c r="P92" s="3"/>
       <c r="Q92">
         <v>0</v>
       </c>
-      <c r="R92" s="1"/>
-      <c r="S92" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T92" s="1" t="s">
+      <c r="R92" s="3"/>
+      <c r="S92" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T92" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7342,11 +7395,11 @@
       <c r="C93" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="2">
         <v>57900011000145</v>
       </c>
-      <c r="E93" s="1"/>
-      <c r="F93" s="2" t="s">
+      <c r="E93" s="3"/>
+      <c r="F93" s="4" t="s">
         <v>261</v>
       </c>
       <c r="G93" s="1" t="s">
@@ -7361,26 +7414,26 @@
       <c r="J93" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K93" s="3">
+      <c r="K93" s="5">
         <v>46000</v>
       </c>
-      <c r="L93" s="3">
+      <c r="L93" s="5">
         <v>46000</v>
       </c>
       <c r="M93" s="1"/>
       <c r="N93" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O93" s="1"/>
-      <c r="P93" s="1"/>
+      <c r="O93" s="3"/>
+      <c r="P93" s="3"/>
       <c r="Q93">
         <v>0</v>
       </c>
-      <c r="R93" s="1"/>
-      <c r="S93" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T93" s="1" t="s">
+      <c r="R93" s="3"/>
+      <c r="S93" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T93" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7394,11 +7447,11 @@
       <c r="C94" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="2">
         <v>11111111111111</v>
       </c>
-      <c r="E94" s="1"/>
-      <c r="F94" s="2" t="s">
+      <c r="E94" s="3"/>
+      <c r="F94" s="4" t="s">
         <v>262</v>
       </c>
       <c r="G94" s="1" t="s">
@@ -7413,26 +7466,26 @@
       <c r="J94" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K94" s="5">
         <v>46000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="5">
         <v>46000</v>
       </c>
       <c r="M94" s="1"/>
       <c r="N94" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O94" s="1"/>
-      <c r="P94" s="1"/>
+      <c r="O94" s="3"/>
+      <c r="P94" s="3"/>
       <c r="Q94">
         <v>0</v>
       </c>
-      <c r="R94" s="1"/>
-      <c r="S94" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T94" s="1" t="s">
+      <c r="R94" s="3"/>
+      <c r="S94" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T94" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7446,13 +7499,13 @@
       <c r="C95" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="2">
         <v>87091997003136</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="E95" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="F95" s="2" t="s">
+      <c r="F95" s="4" t="s">
         <v>263</v>
       </c>
       <c r="G95" s="1" t="s">
@@ -7467,10 +7520,10 @@
       <c r="J95" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K95" s="3">
+      <c r="K95" s="5">
         <v>46001</v>
       </c>
-      <c r="L95" s="3">
+      <c r="L95" s="5">
         <v>46002</v>
       </c>
       <c r="M95" s="1" t="s">
@@ -7479,16 +7532,16 @@
       <c r="N95" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O95" s="1"/>
-      <c r="P95" s="1"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
       <c r="Q95">
         <v>0</v>
       </c>
-      <c r="R95" s="1"/>
-      <c r="S95" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T95" s="1" t="s">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T95" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7502,13 +7555,13 @@
       <c r="C96" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="2">
         <v>22624848000205</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="E96" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="F96" s="2" t="s">
+      <c r="F96" s="4" t="s">
         <v>265</v>
       </c>
       <c r="G96" s="1" t="s">
@@ -7523,10 +7576,10 @@
       <c r="J96" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K96" s="3">
+      <c r="K96" s="5">
         <v>46001</v>
       </c>
-      <c r="L96" s="3">
+      <c r="L96" s="5">
         <v>46001</v>
       </c>
       <c r="M96" s="1" t="s">
@@ -7535,16 +7588,16 @@
       <c r="N96" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O96" s="1"/>
-      <c r="P96" s="1"/>
+      <c r="O96" s="3"/>
+      <c r="P96" s="3"/>
       <c r="Q96">
         <v>0</v>
       </c>
-      <c r="R96" s="1"/>
-      <c r="S96" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T96" s="1" t="s">
+      <c r="R96" s="3"/>
+      <c r="S96" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T96" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7558,13 +7611,13 @@
       <c r="C97" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="2">
         <v>91411256004991</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="E97" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="F97" s="2" t="s">
+      <c r="F97" s="4" t="s">
         <v>268</v>
       </c>
       <c r="G97" s="1" t="s">
@@ -7579,10 +7632,10 @@
       <c r="J97" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K97" s="3">
+      <c r="K97" s="5">
         <v>46001</v>
       </c>
-      <c r="L97" s="3">
+      <c r="L97" s="5">
         <v>46002</v>
       </c>
       <c r="M97" s="1" t="s">
@@ -7591,16 +7644,16 @@
       <c r="N97" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O97" s="1"/>
-      <c r="P97" s="1"/>
+      <c r="O97" s="3"/>
+      <c r="P97" s="3"/>
       <c r="Q97">
         <v>0</v>
       </c>
-      <c r="R97" s="1"/>
-      <c r="S97" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T97" s="1" t="s">
+      <c r="R97" s="3"/>
+      <c r="S97" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T97" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7614,13 +7667,13 @@
       <c r="C98" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="2">
         <v>1991461003402</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="E98" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="F98" s="2" t="s">
+      <c r="F98" s="4" t="s">
         <v>268</v>
       </c>
       <c r="G98" s="1" t="s">
@@ -7635,10 +7688,10 @@
       <c r="J98" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K98" s="3">
+      <c r="K98" s="5">
         <v>46001</v>
       </c>
-      <c r="L98" s="3">
+      <c r="L98" s="5">
         <v>46002</v>
       </c>
       <c r="M98" s="1" t="s">
@@ -7647,16 +7700,16 @@
       <c r="N98" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O98" s="1"/>
-      <c r="P98" s="1"/>
+      <c r="O98" s="3"/>
+      <c r="P98" s="3"/>
       <c r="Q98">
         <v>0</v>
       </c>
-      <c r="R98" s="1"/>
-      <c r="S98" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T98" s="1" t="s">
+      <c r="R98" s="3"/>
+      <c r="S98" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T98" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7670,11 +7723,11 @@
       <c r="C99" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="2">
         <v>11111111111111</v>
       </c>
-      <c r="E99" s="1"/>
-      <c r="F99" s="2" t="s">
+      <c r="E99" s="3"/>
+      <c r="F99" s="4" t="s">
         <v>269</v>
       </c>
       <c r="G99" s="1" t="s">
@@ -7687,10 +7740,10 @@
         <v>238</v>
       </c>
       <c r="J99" s="1"/>
-      <c r="K99" s="3">
+      <c r="K99" s="5">
         <v>46001</v>
       </c>
-      <c r="L99" s="3">
+      <c r="L99" s="5">
         <v>46001</v>
       </c>
       <c r="M99" s="1" t="s">
@@ -7699,16 +7752,16 @@
       <c r="N99" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O99" s="1"/>
-      <c r="P99" s="1"/>
+      <c r="O99" s="3"/>
+      <c r="P99" s="3"/>
       <c r="Q99">
         <v>0</v>
       </c>
-      <c r="R99" s="1"/>
-      <c r="S99" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T99" s="1" t="s">
+      <c r="R99" s="3"/>
+      <c r="S99" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T99" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7722,13 +7775,13 @@
       <c r="C100" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="2">
         <v>14652825000103</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="E100" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="F100" s="2" t="s">
+      <c r="F100" s="4" t="s">
         <v>271</v>
       </c>
       <c r="G100" s="1" t="s">
@@ -7743,10 +7796,10 @@
       <c r="J100" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100" s="5">
         <v>46001</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="5">
         <v>46001</v>
       </c>
       <c r="M100" s="1" t="s">
@@ -7755,16 +7808,16 @@
       <c r="N100" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O100" s="1"/>
-      <c r="P100" s="1"/>
+      <c r="O100" s="3"/>
+      <c r="P100" s="3"/>
       <c r="Q100">
         <v>0</v>
       </c>
-      <c r="R100" s="1"/>
-      <c r="S100" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T100" s="1" t="s">
+      <c r="R100" s="3"/>
+      <c r="S100" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T100" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7778,13 +7831,13 @@
       <c r="C101" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="2">
         <v>15699123000130</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="E101" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="F101" s="2" t="s">
+      <c r="F101" s="4" t="s">
         <v>273</v>
       </c>
       <c r="G101" s="1" t="s">
@@ -7799,10 +7852,10 @@
       <c r="J101" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K101" s="3">
+      <c r="K101" s="5">
         <v>46001</v>
       </c>
-      <c r="L101" s="3">
+      <c r="L101" s="5">
         <v>46001</v>
       </c>
       <c r="M101" s="1" t="s">
@@ -7811,16 +7864,16 @@
       <c r="N101" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O101" s="1"/>
-      <c r="P101" s="1"/>
+      <c r="O101" s="3"/>
+      <c r="P101" s="3"/>
       <c r="Q101">
         <v>0</v>
       </c>
-      <c r="R101" s="1"/>
-      <c r="S101" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T101" s="1" t="s">
+      <c r="R101" s="3"/>
+      <c r="S101" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T101" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7834,13 +7887,13 @@
       <c r="C102" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="2">
         <v>27192758000397</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="E102" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="F102" s="2" t="s">
+      <c r="F102" s="4" t="s">
         <v>276</v>
       </c>
       <c r="G102" s="1" t="s">
@@ -7855,10 +7908,10 @@
       <c r="J102" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K102" s="3">
+      <c r="K102" s="5">
         <v>46001</v>
       </c>
-      <c r="L102" s="3">
+      <c r="L102" s="5">
         <v>46001</v>
       </c>
       <c r="M102" s="1" t="s">
@@ -7867,16 +7920,16 @@
       <c r="N102" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O102" s="1"/>
-      <c r="P102" s="1"/>
+      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
       <c r="Q102">
         <v>0</v>
       </c>
-      <c r="R102" s="1"/>
-      <c r="S102" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T102" s="1" t="s">
+      <c r="R102" s="3"/>
+      <c r="S102" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7890,13 +7943,13 @@
       <c r="C103" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="2">
         <v>37261764000140</v>
       </c>
-      <c r="E103" s="1" t="s">
+      <c r="E103" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="F103" s="2" t="s">
+      <c r="F103" s="4" t="s">
         <v>279</v>
       </c>
       <c r="G103" s="1" t="s">
@@ -7911,10 +7964,10 @@
       <c r="J103" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K103" s="3">
+      <c r="K103" s="5">
         <v>46001</v>
       </c>
-      <c r="L103" s="3">
+      <c r="L103" s="5">
         <v>46001</v>
       </c>
       <c r="M103" s="1" t="s">
@@ -7923,16 +7976,16 @@
       <c r="N103" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O103" s="1"/>
-      <c r="P103" s="1"/>
+      <c r="O103" s="3"/>
+      <c r="P103" s="3"/>
       <c r="Q103">
         <v>0</v>
       </c>
-      <c r="R103" s="1"/>
-      <c r="S103" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T103" s="1" t="s">
+      <c r="R103" s="3"/>
+      <c r="S103" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T103" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7946,13 +7999,13 @@
       <c r="C104" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="2">
         <v>306597002655</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="E104" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="F104" s="2" t="s">
+      <c r="F104" s="4" t="s">
         <v>281</v>
       </c>
       <c r="G104" s="1" t="s">
@@ -7967,10 +8020,10 @@
       <c r="J104" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K104" s="3">
+      <c r="K104" s="5">
         <v>46001</v>
       </c>
-      <c r="L104" s="3">
+      <c r="L104" s="5">
         <v>46001</v>
       </c>
       <c r="M104" s="1" t="s">
@@ -7979,16 +8032,16 @@
       <c r="N104" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O104" s="1"/>
-      <c r="P104" s="1"/>
+      <c r="O104" s="3"/>
+      <c r="P104" s="3"/>
       <c r="Q104">
         <v>0</v>
       </c>
-      <c r="R104" s="1"/>
-      <c r="S104" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T104" s="1" t="s">
+      <c r="R104" s="3"/>
+      <c r="S104" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T104" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8002,13 +8055,13 @@
       <c r="C105" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="2">
         <v>26697754000136</v>
       </c>
-      <c r="E105" s="1" t="s">
+      <c r="E105" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="F105" s="2" t="s">
+      <c r="F105" s="4" t="s">
         <v>273</v>
       </c>
       <c r="G105" s="1" t="s">
@@ -8023,10 +8076,10 @@
       <c r="J105" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K105" s="3">
+      <c r="K105" s="5">
         <v>46001</v>
       </c>
-      <c r="L105" s="3">
+      <c r="L105" s="5">
         <v>46001</v>
       </c>
       <c r="M105" s="1" t="s">
@@ -8035,16 +8088,16 @@
       <c r="N105" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O105" s="1"/>
-      <c r="P105" s="1"/>
+      <c r="O105" s="3"/>
+      <c r="P105" s="3"/>
       <c r="Q105">
         <v>0</v>
       </c>
-      <c r="R105" s="1"/>
-      <c r="S105" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T105" s="1" t="s">
+      <c r="R105" s="3"/>
+      <c r="S105" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T105" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8058,13 +8111,13 @@
       <c r="C106" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="2">
         <v>35119645000203</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="E106" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="F106" s="2" t="s">
+      <c r="F106" s="4" t="s">
         <v>273</v>
       </c>
       <c r="G106" s="1" t="s">
@@ -8079,10 +8132,10 @@
       <c r="J106" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K106" s="3">
+      <c r="K106" s="5">
         <v>46001</v>
       </c>
-      <c r="L106" s="3">
+      <c r="L106" s="5">
         <v>46001</v>
       </c>
       <c r="M106" s="1" t="s">
@@ -8091,16 +8144,16 @@
       <c r="N106" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O106" s="1"/>
-      <c r="P106" s="1"/>
+      <c r="O106" s="3"/>
+      <c r="P106" s="3"/>
       <c r="Q106">
         <v>0</v>
       </c>
-      <c r="R106" s="1"/>
-      <c r="S106" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T106" s="1" t="s">
+      <c r="R106" s="3"/>
+      <c r="S106" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T106" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8114,13 +8167,13 @@
       <c r="C107" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="2">
         <v>14060985000155</v>
       </c>
-      <c r="E107" s="1" t="s">
+      <c r="E107" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="F107" s="2" t="s">
+      <c r="F107" s="4" t="s">
         <v>285</v>
       </c>
       <c r="G107" s="1" t="s">
@@ -8135,10 +8188,10 @@
       <c r="J107" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K107" s="3">
+      <c r="K107" s="5">
         <v>45999</v>
       </c>
-      <c r="L107" s="3">
+      <c r="L107" s="5">
         <v>45999</v>
       </c>
       <c r="M107" s="1" t="s">
@@ -8147,16 +8200,16 @@
       <c r="N107" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O107" s="1"/>
-      <c r="P107" s="1"/>
+      <c r="O107" s="3"/>
+      <c r="P107" s="3"/>
       <c r="Q107">
         <v>0</v>
       </c>
-      <c r="R107" s="1"/>
-      <c r="S107" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T107" s="1" t="s">
+      <c r="R107" s="3"/>
+      <c r="S107" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T107" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8170,13 +8223,13 @@
       <c r="C108" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="2">
         <v>2279387000192</v>
       </c>
-      <c r="E108" s="1" t="s">
+      <c r="E108" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="F108" s="2" t="s">
+      <c r="F108" s="4" t="s">
         <v>287</v>
       </c>
       <c r="G108" s="1" t="s">
@@ -8191,10 +8244,10 @@
       <c r="J108" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K108" s="3">
+      <c r="K108" s="5">
         <v>46002</v>
       </c>
-      <c r="L108" s="3">
+      <c r="L108" s="5">
         <v>46002</v>
       </c>
       <c r="M108" s="1" t="s">
@@ -8203,16 +8256,16 @@
       <c r="N108" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O108" s="1"/>
-      <c r="P108" s="1"/>
+      <c r="O108" s="3"/>
+      <c r="P108" s="3"/>
       <c r="Q108">
         <v>0</v>
       </c>
-      <c r="R108" s="1"/>
-      <c r="S108" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T108" s="1" t="s">
+      <c r="R108" s="3"/>
+      <c r="S108" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T108" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8226,13 +8279,13 @@
       <c r="C109" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="2">
         <v>4171451000142</v>
       </c>
-      <c r="E109" s="1" t="s">
+      <c r="E109" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="F109" s="2" t="s">
+      <c r="F109" s="4" t="s">
         <v>289</v>
       </c>
       <c r="G109" s="1" t="s">
@@ -8247,10 +8300,10 @@
       <c r="J109" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K109" s="3">
+      <c r="K109" s="5">
         <v>46002</v>
       </c>
-      <c r="L109" s="3">
+      <c r="L109" s="5">
         <v>46006</v>
       </c>
       <c r="M109" s="1" t="s">
@@ -8259,16 +8312,16 @@
       <c r="N109" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O109" s="1"/>
-      <c r="P109" s="1"/>
+      <c r="O109" s="3"/>
+      <c r="P109" s="3"/>
       <c r="Q109">
         <v>0</v>
       </c>
-      <c r="R109" s="1"/>
-      <c r="S109" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T109" s="1" t="s">
+      <c r="R109" s="3"/>
+      <c r="S109" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T109" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8282,13 +8335,13 @@
       <c r="C110" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="2">
         <v>7177658000112</v>
       </c>
-      <c r="E110" s="1" t="s">
+      <c r="E110" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="F110" s="2" t="s">
+      <c r="F110" s="4" t="s">
         <v>292</v>
       </c>
       <c r="G110" s="1" t="s">
@@ -8303,10 +8356,10 @@
       <c r="J110" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K110" s="3">
+      <c r="K110" s="5">
         <v>46002</v>
       </c>
-      <c r="L110" s="3">
+      <c r="L110" s="5">
         <v>46006</v>
       </c>
       <c r="M110" s="1" t="s">
@@ -8315,16 +8368,16 @@
       <c r="N110" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O110" s="1"/>
-      <c r="P110" s="1"/>
+      <c r="O110" s="3"/>
+      <c r="P110" s="3"/>
       <c r="Q110">
         <v>0</v>
       </c>
-      <c r="R110" s="1"/>
-      <c r="S110" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T110" s="1" t="s">
+      <c r="R110" s="3"/>
+      <c r="S110" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T110" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8338,13 +8391,13 @@
       <c r="C111" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="2">
         <v>13367056000120</v>
       </c>
-      <c r="E111" s="1" t="s">
+      <c r="E111" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="F111" s="2" t="s">
+      <c r="F111" s="4" t="s">
         <v>295</v>
       </c>
       <c r="G111" s="1" t="s">
@@ -8359,10 +8412,10 @@
       <c r="J111" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K111" s="3">
+      <c r="K111" s="5">
         <v>46002</v>
       </c>
-      <c r="L111" s="3">
+      <c r="L111" s="5">
         <v>46006</v>
       </c>
       <c r="M111" s="1" t="s">
@@ -8371,16 +8424,16 @@
       <c r="N111" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O111" s="1"/>
-      <c r="P111" s="1"/>
+      <c r="O111" s="3"/>
+      <c r="P111" s="3"/>
       <c r="Q111">
         <v>0</v>
       </c>
-      <c r="R111" s="1"/>
-      <c r="S111" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T111" s="1" t="s">
+      <c r="R111" s="3"/>
+      <c r="S111" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T111" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8394,13 +8447,13 @@
       <c r="C112" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="2">
         <v>45761173000160</v>
       </c>
-      <c r="E112" s="1" t="s">
+      <c r="E112" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="F112" s="2" t="s">
+      <c r="F112" s="4" t="s">
         <v>297</v>
       </c>
       <c r="G112" s="1" t="s">
@@ -8415,26 +8468,26 @@
       <c r="J112" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K112" s="3">
+      <c r="K112" s="5">
         <v>46002</v>
       </c>
-      <c r="L112" s="3"/>
+      <c r="L112" s="5"/>
       <c r="M112" s="1" t="s">
         <v>167</v>
       </c>
       <c r="N112" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O112" s="1"/>
-      <c r="P112" s="1"/>
+      <c r="O112" s="3"/>
+      <c r="P112" s="3"/>
       <c r="Q112">
         <v>0</v>
       </c>
-      <c r="R112" s="1"/>
-      <c r="S112" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T112" s="1" t="s">
+      <c r="R112" s="3"/>
+      <c r="S112" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T112" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8448,13 +8501,13 @@
       <c r="C113" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="2">
         <v>35119645000203</v>
       </c>
-      <c r="E113" s="1" t="s">
+      <c r="E113" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="F113" s="2" t="s">
+      <c r="F113" s="4" t="s">
         <v>298</v>
       </c>
       <c r="G113" s="1" t="s">
@@ -8469,8 +8522,8 @@
       <c r="J113" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K113" s="3"/>
-      <c r="L113" s="3">
+      <c r="K113" s="5"/>
+      <c r="L113" s="5">
         <v>46002</v>
       </c>
       <c r="M113" s="1" t="s">
@@ -8479,16 +8532,16 @@
       <c r="N113" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O113" s="1"/>
-      <c r="P113" s="1"/>
+      <c r="O113" s="3"/>
+      <c r="P113" s="3"/>
       <c r="Q113">
         <v>0</v>
       </c>
-      <c r="R113" s="1"/>
-      <c r="S113" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T113" s="1" t="s">
+      <c r="R113" s="3"/>
+      <c r="S113" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T113" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8502,13 +8555,13 @@
       <c r="C114" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="2">
         <v>76816842000420</v>
       </c>
-      <c r="E114" s="1" t="s">
+      <c r="E114" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F114" s="2" t="s">
+      <c r="F114" s="4" t="s">
         <v>299</v>
       </c>
       <c r="G114" s="1" t="s">
@@ -8523,10 +8576,10 @@
       <c r="J114" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K114" s="3">
+      <c r="K114" s="5">
         <v>46002</v>
       </c>
-      <c r="L114" s="3">
+      <c r="L114" s="5">
         <v>46002</v>
       </c>
       <c r="M114" s="1" t="s">
@@ -8535,16 +8588,16 @@
       <c r="N114" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O114" s="1"/>
-      <c r="P114" s="1"/>
+      <c r="O114" s="3"/>
+      <c r="P114" s="3"/>
       <c r="Q114">
         <v>0</v>
       </c>
-      <c r="R114" s="1"/>
-      <c r="S114" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T114" s="1" t="s">
+      <c r="R114" s="3"/>
+      <c r="S114" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T114" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8558,13 +8611,13 @@
       <c r="C115" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="2">
         <v>52642559000119</v>
       </c>
-      <c r="E115" s="1" t="s">
+      <c r="E115" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="F115" s="2" t="s">
+      <c r="F115" s="4" t="s">
         <v>301</v>
       </c>
       <c r="G115" s="1" t="s">
@@ -8579,10 +8632,10 @@
       <c r="J115" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K115" s="3">
+      <c r="K115" s="5">
         <v>46002</v>
       </c>
-      <c r="L115" s="3">
+      <c r="L115" s="5">
         <v>46002</v>
       </c>
       <c r="M115" s="1" t="s">
@@ -8591,16 +8644,16 @@
       <c r="N115" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O115" s="1"/>
-      <c r="P115" s="1"/>
+      <c r="O115" s="3"/>
+      <c r="P115" s="3"/>
       <c r="Q115">
         <v>0</v>
       </c>
-      <c r="R115" s="1"/>
-      <c r="S115" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T115" s="1" t="s">
+      <c r="R115" s="3"/>
+      <c r="S115" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T115" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8614,13 +8667,13 @@
       <c r="C116" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="2">
         <v>5357865000123</v>
       </c>
-      <c r="E116" s="1" t="s">
+      <c r="E116" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="F116" s="2" t="s">
+      <c r="F116" s="4" t="s">
         <v>303</v>
       </c>
       <c r="G116" s="1" t="s">
@@ -8635,10 +8688,10 @@
       <c r="J116" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K116" s="3">
+      <c r="K116" s="5">
         <v>46002</v>
       </c>
-      <c r="L116" s="3">
+      <c r="L116" s="5">
         <v>46002</v>
       </c>
       <c r="M116" s="1" t="s">
@@ -8647,16 +8700,16 @@
       <c r="N116" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O116" s="1"/>
-      <c r="P116" s="1"/>
+      <c r="O116" s="3"/>
+      <c r="P116" s="3"/>
       <c r="Q116">
         <v>0</v>
       </c>
-      <c r="R116" s="1"/>
-      <c r="S116" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T116" s="1" t="s">
+      <c r="R116" s="3"/>
+      <c r="S116" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T116" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8670,13 +8723,13 @@
       <c r="C117" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="2">
         <v>7405721000120</v>
       </c>
-      <c r="E117" s="1" t="s">
+      <c r="E117" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="F117" s="2" t="s">
+      <c r="F117" s="4" t="s">
         <v>305</v>
       </c>
       <c r="G117" s="1" t="s">
@@ -8691,10 +8744,10 @@
       <c r="J117" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K117" s="3">
+      <c r="K117" s="5">
         <v>46002</v>
       </c>
-      <c r="L117" s="3">
+      <c r="L117" s="5">
         <v>46002</v>
       </c>
       <c r="M117" s="1" t="s">
@@ -8703,16 +8756,16 @@
       <c r="N117" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O117" s="1"/>
-      <c r="P117" s="1"/>
+      <c r="O117" s="3"/>
+      <c r="P117" s="3"/>
       <c r="Q117">
         <v>0</v>
       </c>
-      <c r="R117" s="1"/>
-      <c r="S117" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T117" s="1" t="s">
+      <c r="R117" s="3"/>
+      <c r="S117" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T117" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8726,13 +8779,13 @@
       <c r="C118" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="2">
         <v>4868412000794</v>
       </c>
-      <c r="E118" s="1" t="s">
+      <c r="E118" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="F118" s="2" t="s">
+      <c r="F118" s="4" t="s">
         <v>306</v>
       </c>
       <c r="G118" s="1" t="s">
@@ -8747,10 +8800,10 @@
       <c r="J118" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K118" s="3">
+      <c r="K118" s="5">
         <v>46002</v>
       </c>
-      <c r="L118" s="3">
+      <c r="L118" s="5">
         <v>46002</v>
       </c>
       <c r="M118" s="1" t="s">
@@ -8759,16 +8812,16 @@
       <c r="N118" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O118" s="1"/>
-      <c r="P118" s="1"/>
+      <c r="O118" s="3"/>
+      <c r="P118" s="3"/>
       <c r="Q118">
         <v>0</v>
       </c>
-      <c r="R118" s="1"/>
-      <c r="S118" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T118" s="1" t="s">
+      <c r="R118" s="3"/>
+      <c r="S118" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T118" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8782,13 +8835,13 @@
       <c r="C119" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="2">
         <v>5011016000113</v>
       </c>
-      <c r="E119" s="1" t="s">
+      <c r="E119" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="F119" s="2" t="s">
+      <c r="F119" s="4" t="s">
         <v>308</v>
       </c>
       <c r="G119" s="1" t="s">
@@ -8803,10 +8856,10 @@
       <c r="J119" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K119" s="3">
+      <c r="K119" s="5">
         <v>46002</v>
       </c>
-      <c r="L119" s="3">
+      <c r="L119" s="5">
         <v>46002</v>
       </c>
       <c r="M119" s="1" t="s">
@@ -8815,16 +8868,16 @@
       <c r="N119" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O119" s="1"/>
-      <c r="P119" s="1"/>
+      <c r="O119" s="3"/>
+      <c r="P119" s="3"/>
       <c r="Q119">
         <v>0</v>
       </c>
-      <c r="R119" s="1"/>
-      <c r="S119" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T119" s="1" t="s">
+      <c r="R119" s="3"/>
+      <c r="S119" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T119" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8838,13 +8891,13 @@
       <c r="C120" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="2">
         <v>577065000102</v>
       </c>
-      <c r="E120" s="1" t="s">
+      <c r="E120" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="F120" s="2" t="s">
+      <c r="F120" s="4" t="s">
         <v>310</v>
       </c>
       <c r="G120" s="1" t="s">
@@ -8859,26 +8912,26 @@
       <c r="J120" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K120" s="3">
+      <c r="K120" s="5">
         <v>46002</v>
       </c>
-      <c r="L120" s="3"/>
+      <c r="L120" s="5"/>
       <c r="M120" s="1" t="s">
         <v>163</v>
       </c>
       <c r="N120" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O120" s="1"/>
-      <c r="P120" s="1"/>
+      <c r="O120" s="3"/>
+      <c r="P120" s="3"/>
       <c r="Q120">
         <v>0</v>
       </c>
-      <c r="R120" s="1"/>
-      <c r="S120" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T120" s="1" t="s">
+      <c r="R120" s="3"/>
+      <c r="S120" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T120" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8892,13 +8945,13 @@
       <c r="C121" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="2">
         <v>51556055000113</v>
       </c>
-      <c r="E121" s="1" t="s">
+      <c r="E121" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="F121" s="2" t="s">
+      <c r="F121" s="4" t="s">
         <v>313</v>
       </c>
       <c r="G121" s="1" t="s">
@@ -8913,26 +8966,26 @@
       <c r="J121" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K121" s="3">
+      <c r="K121" s="5">
         <v>46002</v>
       </c>
-      <c r="L121" s="3"/>
+      <c r="L121" s="5"/>
       <c r="M121" s="1" t="s">
         <v>135</v>
       </c>
       <c r="N121" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O121" s="1"/>
-      <c r="P121" s="1"/>
+      <c r="O121" s="3"/>
+      <c r="P121" s="3"/>
       <c r="Q121">
         <v>0</v>
       </c>
-      <c r="R121" s="1"/>
-      <c r="S121" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T121" s="1" t="s">
+      <c r="R121" s="3"/>
+      <c r="S121" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T121" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8946,13 +8999,13 @@
       <c r="C122" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D122">
+      <c r="D122" s="2">
         <v>20415295001901</v>
       </c>
-      <c r="E122" s="1" t="s">
+      <c r="E122" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="F122" s="2" t="s">
+      <c r="F122" s="4" t="s">
         <v>315</v>
       </c>
       <c r="G122" s="1" t="s">
@@ -8967,10 +9020,10 @@
       <c r="J122" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K122" s="3">
+      <c r="K122" s="5">
         <v>46002</v>
       </c>
-      <c r="L122" s="3">
+      <c r="L122" s="5">
         <v>46002</v>
       </c>
       <c r="M122" s="1" t="s">
@@ -8979,16 +9032,16 @@
       <c r="N122" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O122" s="1"/>
-      <c r="P122" s="1"/>
+      <c r="O122" s="3"/>
+      <c r="P122" s="3"/>
       <c r="Q122">
         <v>0</v>
       </c>
-      <c r="R122" s="1"/>
-      <c r="S122" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T122" s="1" t="s">
+      <c r="R122" s="3"/>
+      <c r="S122" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T122" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9002,13 +9055,13 @@
       <c r="C123" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="2">
         <v>57832654000107</v>
       </c>
-      <c r="E123" s="1" t="s">
+      <c r="E123" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="F123" s="2" t="s">
+      <c r="F123" s="4" t="s">
         <v>317</v>
       </c>
       <c r="G123" s="1" t="s">
@@ -9023,10 +9076,10 @@
       <c r="J123" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K123" s="3">
+      <c r="K123" s="5">
         <v>46002</v>
       </c>
-      <c r="L123" s="3">
+      <c r="L123" s="5">
         <v>46002</v>
       </c>
       <c r="M123" s="1" t="s">
@@ -9035,16 +9088,16 @@
       <c r="N123" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O123" s="1"/>
-      <c r="P123" s="1"/>
+      <c r="O123" s="3"/>
+      <c r="P123" s="3"/>
       <c r="Q123">
         <v>0</v>
       </c>
-      <c r="R123" s="1"/>
-      <c r="S123" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T123" s="1" t="s">
+      <c r="R123" s="3"/>
+      <c r="S123" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T123" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9058,13 +9111,13 @@
       <c r="C124" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D124">
+      <c r="D124" s="2">
         <v>48227957000100</v>
       </c>
-      <c r="E124" s="1" t="s">
+      <c r="E124" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="F124" s="2" t="s">
+      <c r="F124" s="4" t="s">
         <v>318</v>
       </c>
       <c r="G124" s="1" t="s">
@@ -9079,10 +9132,10 @@
       <c r="J124" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K124" s="3">
+      <c r="K124" s="5">
         <v>45999</v>
       </c>
-      <c r="L124" s="3">
+      <c r="L124" s="5">
         <v>46001</v>
       </c>
       <c r="M124" s="1" t="s">
@@ -9091,16 +9144,16 @@
       <c r="N124" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O124" s="1"/>
-      <c r="P124" s="1"/>
+      <c r="O124" s="3"/>
+      <c r="P124" s="3"/>
       <c r="Q124">
         <v>0</v>
       </c>
-      <c r="R124" s="1"/>
-      <c r="S124" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T124" s="1" t="s">
+      <c r="R124" s="3"/>
+      <c r="S124" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T124" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9114,13 +9167,13 @@
       <c r="C125" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="2">
         <v>306597008696</v>
       </c>
-      <c r="E125" s="1" t="s">
+      <c r="E125" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="F125" s="2" t="s">
+      <c r="F125" s="4" t="s">
         <v>319</v>
       </c>
       <c r="G125" s="1" t="s">
@@ -9135,28 +9188,28 @@
       <c r="J125" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K125" s="3">
+      <c r="K125" s="5">
         <v>46002</v>
       </c>
-      <c r="L125" s="3"/>
+      <c r="L125" s="5"/>
       <c r="M125" s="1" t="s">
         <v>44</v>
       </c>
       <c r="N125" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O125" s="1"/>
-      <c r="P125" s="1"/>
+      <c r="O125" s="3"/>
+      <c r="P125" s="3"/>
       <c r="Q125">
         <v>0</v>
       </c>
-      <c r="R125" s="1" t="s">
+      <c r="R125" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="S125" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T125" s="1" t="s">
+      <c r="S125" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T125" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9170,13 +9223,13 @@
       <c r="C126" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D126">
+      <c r="D126" s="2">
         <v>87687489000108</v>
       </c>
-      <c r="E126" s="1" t="s">
+      <c r="E126" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F126" s="2" t="s">
+      <c r="F126" s="4" t="s">
         <v>322</v>
       </c>
       <c r="G126" s="1" t="s">
@@ -9191,10 +9244,10 @@
       <c r="J126" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K126" s="3">
+      <c r="K126" s="5">
         <v>46002</v>
       </c>
-      <c r="L126" s="3">
+      <c r="L126" s="5">
         <v>46002</v>
       </c>
       <c r="M126" s="1" t="s">
@@ -9203,16 +9256,16 @@
       <c r="N126" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="O126" s="1"/>
-      <c r="P126" s="1"/>
+      <c r="O126" s="3"/>
+      <c r="P126" s="3"/>
       <c r="Q126">
         <v>0</v>
       </c>
-      <c r="R126" s="1"/>
-      <c r="S126" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T126" s="1" t="s">
+      <c r="R126" s="3"/>
+      <c r="S126" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T126" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9226,13 +9279,13 @@
       <c r="C127" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="2">
         <v>4313357000180</v>
       </c>
-      <c r="E127" s="1" t="s">
+      <c r="E127" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="F127" s="2" t="s">
+      <c r="F127" s="4" t="s">
         <v>324</v>
       </c>
       <c r="G127" s="1" t="s">
@@ -9247,26 +9300,26 @@
       <c r="J127" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K127" s="3">
+      <c r="K127" s="5">
         <v>46003</v>
       </c>
-      <c r="L127" s="3"/>
+      <c r="L127" s="5"/>
       <c r="M127" s="1" t="s">
         <v>293</v>
       </c>
       <c r="N127" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O127" s="1"/>
-      <c r="P127" s="1"/>
+      <c r="O127" s="3"/>
+      <c r="P127" s="3"/>
       <c r="Q127">
         <v>0</v>
       </c>
-      <c r="R127" s="1"/>
-      <c r="S127" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T127" s="1" t="s">
+      <c r="R127" s="3"/>
+      <c r="S127" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T127" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9280,13 +9333,13 @@
       <c r="C128" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="2">
         <v>10337187000177</v>
       </c>
-      <c r="E128" s="1" t="s">
+      <c r="E128" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="F128" s="2" t="s">
+      <c r="F128" s="4" t="s">
         <v>327</v>
       </c>
       <c r="G128" s="1" t="s">
@@ -9301,10 +9354,10 @@
       <c r="J128" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K128" s="3">
+      <c r="K128" s="5">
         <v>46003</v>
       </c>
-      <c r="L128" s="3">
+      <c r="L128" s="5">
         <v>46003</v>
       </c>
       <c r="M128" s="1" t="s">
@@ -9313,16 +9366,16 @@
       <c r="N128" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="O128" s="1"/>
-      <c r="P128" s="1"/>
+      <c r="O128" s="3"/>
+      <c r="P128" s="3"/>
       <c r="Q128">
         <v>0</v>
       </c>
-      <c r="R128" s="1"/>
-      <c r="S128" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T128" s="1" t="s">
+      <c r="R128" s="3"/>
+      <c r="S128" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T128" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9336,13 +9389,13 @@
       <c r="C129" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="2">
         <v>12607854000110</v>
       </c>
-      <c r="E129" s="1" t="s">
+      <c r="E129" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="F129" s="2" t="s">
+      <c r="F129" s="4" t="s">
         <v>329</v>
       </c>
       <c r="G129" s="1" t="s">
@@ -9357,10 +9410,10 @@
       <c r="J129" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K129" s="3">
+      <c r="K129" s="5">
         <v>46003</v>
       </c>
-      <c r="L129" s="3">
+      <c r="L129" s="5">
         <v>46003</v>
       </c>
       <c r="M129" s="1" t="s">
@@ -9369,16 +9422,16 @@
       <c r="N129" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O129" s="1"/>
-      <c r="P129" s="1"/>
+      <c r="O129" s="3"/>
+      <c r="P129" s="3"/>
       <c r="Q129">
         <v>0</v>
       </c>
-      <c r="R129" s="1"/>
-      <c r="S129" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T129" s="1" t="s">
+      <c r="R129" s="3"/>
+      <c r="S129" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T129" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9392,13 +9445,13 @@
       <c r="C130" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D130">
+      <c r="D130" s="2">
         <v>14927153000193</v>
       </c>
-      <c r="E130" s="1" t="s">
+      <c r="E130" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="F130" s="2" t="s">
+      <c r="F130" s="4" t="s">
         <v>329</v>
       </c>
       <c r="G130" s="1" t="s">
@@ -9413,10 +9466,10 @@
       <c r="J130" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K130" s="3">
+      <c r="K130" s="5">
         <v>46003</v>
       </c>
-      <c r="L130" s="3">
+      <c r="L130" s="5">
         <v>46003</v>
       </c>
       <c r="M130" s="1" t="s">
@@ -9425,16 +9478,16 @@
       <c r="N130" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O130" s="1"/>
-      <c r="P130" s="1"/>
+      <c r="O130" s="3"/>
+      <c r="P130" s="3"/>
       <c r="Q130">
         <v>0</v>
       </c>
-      <c r="R130" s="1"/>
-      <c r="S130" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T130" s="1" t="s">
+      <c r="R130" s="3"/>
+      <c r="S130" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T130" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9448,13 +9501,13 @@
       <c r="C131" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D131">
+      <c r="D131" s="2">
         <v>23045221000181</v>
       </c>
-      <c r="E131" s="1" t="s">
+      <c r="E131" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="F131" s="2" t="s">
+      <c r="F131" s="4" t="s">
         <v>329</v>
       </c>
       <c r="G131" s="1" t="s">
@@ -9469,10 +9522,10 @@
       <c r="J131" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K131" s="3">
+      <c r="K131" s="5">
         <v>46003</v>
       </c>
-      <c r="L131" s="3">
+      <c r="L131" s="5">
         <v>46003</v>
       </c>
       <c r="M131" s="1" t="s">
@@ -9481,16 +9534,16 @@
       <c r="N131" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O131" s="1"/>
-      <c r="P131" s="1"/>
+      <c r="O131" s="3"/>
+      <c r="P131" s="3"/>
       <c r="Q131">
         <v>0</v>
       </c>
-      <c r="R131" s="1"/>
-      <c r="S131" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T131" s="1" t="s">
+      <c r="R131" s="3"/>
+      <c r="S131" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T131" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9504,13 +9557,13 @@
       <c r="C132" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D132">
+      <c r="D132" s="2">
         <v>26200120000398</v>
       </c>
-      <c r="E132" s="1" t="s">
+      <c r="E132" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="F132" s="2" t="s">
+      <c r="F132" s="4" t="s">
         <v>329</v>
       </c>
       <c r="G132" s="1" t="s">
@@ -9525,10 +9578,10 @@
       <c r="J132" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K132" s="3">
+      <c r="K132" s="5">
         <v>46003</v>
       </c>
-      <c r="L132" s="3">
+      <c r="L132" s="5">
         <v>46003</v>
       </c>
       <c r="M132" s="1" t="s">
@@ -9537,16 +9590,16 @@
       <c r="N132" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O132" s="1"/>
-      <c r="P132" s="1"/>
+      <c r="O132" s="3"/>
+      <c r="P132" s="3"/>
       <c r="Q132">
         <v>0</v>
       </c>
-      <c r="R132" s="1"/>
-      <c r="S132" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T132" s="1" t="s">
+      <c r="R132" s="3"/>
+      <c r="S132" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T132" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9560,13 +9613,13 @@
       <c r="C133" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D133">
+      <c r="D133" s="2">
         <v>27478752000119</v>
       </c>
-      <c r="E133" s="1" t="s">
+      <c r="E133" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="F133" s="2" t="s">
+      <c r="F133" s="4" t="s">
         <v>329</v>
       </c>
       <c r="G133" s="1" t="s">
@@ -9581,10 +9634,10 @@
       <c r="J133" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K133" s="3">
+      <c r="K133" s="5">
         <v>46003</v>
       </c>
-      <c r="L133" s="3">
+      <c r="L133" s="5">
         <v>46003</v>
       </c>
       <c r="M133" s="1" t="s">
@@ -9593,16 +9646,16 @@
       <c r="N133" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O133" s="1"/>
-      <c r="P133" s="1"/>
+      <c r="O133" s="3"/>
+      <c r="P133" s="3"/>
       <c r="Q133">
         <v>0</v>
       </c>
-      <c r="R133" s="1"/>
-      <c r="S133" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T133" s="1" t="s">
+      <c r="R133" s="3"/>
+      <c r="S133" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T133" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9616,13 +9669,13 @@
       <c r="C134" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D134">
+      <c r="D134" s="2">
         <v>4210075000158</v>
       </c>
-      <c r="E134" s="1" t="s">
+      <c r="E134" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="F134" s="2" t="s">
+      <c r="F134" s="4" t="s">
         <v>329</v>
       </c>
       <c r="G134" s="1" t="s">
@@ -9637,10 +9690,10 @@
       <c r="J134" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K134" s="3">
+      <c r="K134" s="5">
         <v>46003</v>
       </c>
-      <c r="L134" s="3">
+      <c r="L134" s="5">
         <v>46003</v>
       </c>
       <c r="M134" s="1" t="s">
@@ -9649,16 +9702,16 @@
       <c r="N134" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O134" s="1"/>
-      <c r="P134" s="1"/>
+      <c r="O134" s="3"/>
+      <c r="P134" s="3"/>
       <c r="Q134">
         <v>0</v>
       </c>
-      <c r="R134" s="1"/>
-      <c r="S134" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T134" s="1" t="s">
+      <c r="R134" s="3"/>
+      <c r="S134" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T134" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9672,13 +9725,13 @@
       <c r="C135" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D135">
+      <c r="D135" s="2">
         <v>5883774000121</v>
       </c>
-      <c r="E135" s="1" t="s">
+      <c r="E135" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="F135" s="2" t="s">
+      <c r="F135" s="4" t="s">
         <v>329</v>
       </c>
       <c r="G135" s="1" t="s">
@@ -9693,10 +9746,10 @@
       <c r="J135" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K135" s="3">
+      <c r="K135" s="5">
         <v>46003</v>
       </c>
-      <c r="L135" s="3">
+      <c r="L135" s="5">
         <v>46003</v>
       </c>
       <c r="M135" s="1" t="s">
@@ -9705,16 +9758,16 @@
       <c r="N135" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O135" s="1"/>
-      <c r="P135" s="1"/>
+      <c r="O135" s="3"/>
+      <c r="P135" s="3"/>
       <c r="Q135">
         <v>0</v>
       </c>
-      <c r="R135" s="1"/>
-      <c r="S135" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T135" s="1" t="s">
+      <c r="R135" s="3"/>
+      <c r="S135" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T135" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9728,13 +9781,13 @@
       <c r="C136" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D136">
+      <c r="D136" s="2">
         <v>5924354000146</v>
       </c>
-      <c r="E136" s="1" t="s">
+      <c r="E136" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="F136" s="2" t="s">
+      <c r="F136" s="4" t="s">
         <v>329</v>
       </c>
       <c r="G136" s="1" t="s">
@@ -9749,10 +9802,10 @@
       <c r="J136" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K136" s="3">
+      <c r="K136" s="5">
         <v>46003</v>
       </c>
-      <c r="L136" s="3">
+      <c r="L136" s="5">
         <v>46003</v>
       </c>
       <c r="M136" s="1" t="s">
@@ -9761,16 +9814,16 @@
       <c r="N136" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O136" s="1"/>
-      <c r="P136" s="1"/>
+      <c r="O136" s="3"/>
+      <c r="P136" s="3"/>
       <c r="Q136">
         <v>0</v>
       </c>
-      <c r="R136" s="1"/>
-      <c r="S136" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T136" s="1" t="s">
+      <c r="R136" s="3"/>
+      <c r="S136" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T136" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9784,13 +9837,13 @@
       <c r="C137" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D137">
+      <c r="D137" s="2">
         <v>6590459000500</v>
       </c>
-      <c r="E137" s="1" t="s">
+      <c r="E137" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="F137" s="2" t="s">
+      <c r="F137" s="4" t="s">
         <v>329</v>
       </c>
       <c r="G137" s="1" t="s">
@@ -9805,10 +9858,10 @@
       <c r="J137" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K137" s="3">
+      <c r="K137" s="5">
         <v>46003</v>
       </c>
-      <c r="L137" s="3">
+      <c r="L137" s="5">
         <v>46003</v>
       </c>
       <c r="M137" s="1" t="s">
@@ -9817,16 +9870,16 @@
       <c r="N137" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O137" s="1"/>
-      <c r="P137" s="1"/>
+      <c r="O137" s="3"/>
+      <c r="P137" s="3"/>
       <c r="Q137">
         <v>0</v>
       </c>
-      <c r="R137" s="1"/>
-      <c r="S137" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T137" s="1" t="s">
+      <c r="R137" s="3"/>
+      <c r="S137" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T137" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9840,13 +9893,13 @@
       <c r="C138" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D138">
+      <c r="D138" s="2">
         <v>7155921000172</v>
       </c>
-      <c r="E138" s="1" t="s">
+      <c r="E138" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="F138" s="2" t="s">
+      <c r="F138" s="4" t="s">
         <v>329</v>
       </c>
       <c r="G138" s="1" t="s">
@@ -9861,10 +9914,10 @@
       <c r="J138" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K138" s="3">
+      <c r="K138" s="5">
         <v>46003</v>
       </c>
-      <c r="L138" s="3">
+      <c r="L138" s="5">
         <v>46003</v>
       </c>
       <c r="M138" s="1" t="s">
@@ -9873,16 +9926,16 @@
       <c r="N138" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O138" s="1"/>
-      <c r="P138" s="1"/>
+      <c r="O138" s="3"/>
+      <c r="P138" s="3"/>
       <c r="Q138">
         <v>0</v>
       </c>
-      <c r="R138" s="1"/>
-      <c r="S138" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T138" s="1" t="s">
+      <c r="R138" s="3"/>
+      <c r="S138" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T138" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9896,13 +9949,13 @@
       <c r="C139" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D139">
+      <c r="D139" s="2">
         <v>7306162000363</v>
       </c>
-      <c r="E139" s="1" t="s">
+      <c r="E139" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="F139" s="2" t="s">
+      <c r="F139" s="4" t="s">
         <v>329</v>
       </c>
       <c r="G139" s="1" t="s">
@@ -9917,10 +9970,10 @@
       <c r="J139" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K139" s="3">
+      <c r="K139" s="5">
         <v>46003</v>
       </c>
-      <c r="L139" s="3">
+      <c r="L139" s="5">
         <v>46003</v>
       </c>
       <c r="M139" s="1" t="s">
@@ -9929,16 +9982,16 @@
       <c r="N139" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O139" s="1"/>
-      <c r="P139" s="1"/>
+      <c r="O139" s="3"/>
+      <c r="P139" s="3"/>
       <c r="Q139">
         <v>0</v>
       </c>
-      <c r="R139" s="1"/>
-      <c r="S139" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T139" s="1" t="s">
+      <c r="R139" s="3"/>
+      <c r="S139" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T139" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9952,13 +10005,13 @@
       <c r="C140" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D140">
+      <c r="D140" s="2">
         <v>7306162000444</v>
       </c>
-      <c r="E140" s="1" t="s">
+      <c r="E140" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="F140" s="2" t="s">
+      <c r="F140" s="4" t="s">
         <v>329</v>
       </c>
       <c r="G140" s="1" t="s">
@@ -9973,10 +10026,10 @@
       <c r="J140" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K140" s="3">
+      <c r="K140" s="5">
         <v>46003</v>
       </c>
-      <c r="L140" s="3">
+      <c r="L140" s="5">
         <v>46003</v>
       </c>
       <c r="M140" s="1" t="s">
@@ -9985,16 +10038,16 @@
       <c r="N140" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O140" s="1"/>
-      <c r="P140" s="1"/>
+      <c r="O140" s="3"/>
+      <c r="P140" s="3"/>
       <c r="Q140">
         <v>0</v>
       </c>
-      <c r="R140" s="1"/>
-      <c r="S140" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T140" s="1" t="s">
+      <c r="R140" s="3"/>
+      <c r="S140" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T140" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10008,13 +10061,13 @@
       <c r="C141" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D141">
+      <c r="D141" s="2">
         <v>7306162000525</v>
       </c>
-      <c r="E141" s="1" t="s">
+      <c r="E141" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="F141" s="2" t="s">
+      <c r="F141" s="4" t="s">
         <v>329</v>
       </c>
       <c r="G141" s="1" t="s">
@@ -10029,10 +10082,10 @@
       <c r="J141" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K141" s="3">
+      <c r="K141" s="5">
         <v>46003</v>
       </c>
-      <c r="L141" s="3">
+      <c r="L141" s="5">
         <v>46003</v>
       </c>
       <c r="M141" s="1" t="s">
@@ -10041,16 +10094,16 @@
       <c r="N141" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O141" s="1"/>
-      <c r="P141" s="1"/>
+      <c r="O141" s="3"/>
+      <c r="P141" s="3"/>
       <c r="Q141">
         <v>0</v>
       </c>
-      <c r="R141" s="1"/>
-      <c r="S141" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T141" s="1" t="s">
+      <c r="R141" s="3"/>
+      <c r="S141" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T141" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10064,13 +10117,13 @@
       <c r="C142" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D142">
+      <c r="D142" s="2">
         <v>7306162000606</v>
       </c>
-      <c r="E142" s="1" t="s">
+      <c r="E142" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="F142" s="2" t="s">
+      <c r="F142" s="4" t="s">
         <v>329</v>
       </c>
       <c r="G142" s="1" t="s">
@@ -10085,10 +10138,10 @@
       <c r="J142" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K142" s="3">
+      <c r="K142" s="5">
         <v>46003</v>
       </c>
-      <c r="L142" s="3">
+      <c r="L142" s="5">
         <v>46003</v>
       </c>
       <c r="M142" s="1" t="s">
@@ -10097,16 +10150,16 @@
       <c r="N142" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O142" s="1"/>
-      <c r="P142" s="1"/>
+      <c r="O142" s="3"/>
+      <c r="P142" s="3"/>
       <c r="Q142">
         <v>0</v>
       </c>
-      <c r="R142" s="1"/>
-      <c r="S142" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T142" s="1" t="s">
+      <c r="R142" s="3"/>
+      <c r="S142" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T142" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10120,13 +10173,13 @@
       <c r="C143" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D143">
+      <c r="D143" s="2">
         <v>8986525001636</v>
       </c>
-      <c r="E143" s="1" t="s">
+      <c r="E143" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="F143" s="2" t="s">
+      <c r="F143" s="4" t="s">
         <v>329</v>
       </c>
       <c r="G143" s="1" t="s">
@@ -10141,10 +10194,10 @@
       <c r="J143" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K143" s="3">
+      <c r="K143" s="5">
         <v>46003</v>
       </c>
-      <c r="L143" s="3">
+      <c r="L143" s="5">
         <v>46003</v>
       </c>
       <c r="M143" s="1" t="s">
@@ -10153,16 +10206,16 @@
       <c r="N143" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O143" s="1"/>
-      <c r="P143" s="1"/>
+      <c r="O143" s="3"/>
+      <c r="P143" s="3"/>
       <c r="Q143">
         <v>0</v>
       </c>
-      <c r="R143" s="1"/>
-      <c r="S143" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T143" s="1" t="s">
+      <c r="R143" s="3"/>
+      <c r="S143" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T143" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10176,13 +10229,13 @@
       <c r="C144" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D144">
+      <c r="D144" s="2">
         <v>9351716000108</v>
       </c>
-      <c r="E144" s="1" t="s">
+      <c r="E144" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="F144" s="2" t="s">
+      <c r="F144" s="4" t="s">
         <v>329</v>
       </c>
       <c r="G144" s="1" t="s">
@@ -10197,10 +10250,10 @@
       <c r="J144" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K144" s="3">
+      <c r="K144" s="5">
         <v>46003</v>
       </c>
-      <c r="L144" s="3">
+      <c r="L144" s="5">
         <v>46003</v>
       </c>
       <c r="M144" s="1" t="s">
@@ -10209,16 +10262,16 @@
       <c r="N144" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O144" s="1"/>
-      <c r="P144" s="1"/>
+      <c r="O144" s="3"/>
+      <c r="P144" s="3"/>
       <c r="Q144">
         <v>0</v>
       </c>
-      <c r="R144" s="1"/>
-      <c r="S144" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T144" s="1" t="s">
+      <c r="R144" s="3"/>
+      <c r="S144" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T144" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10232,13 +10285,13 @@
       <c r="C145" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D145">
+      <c r="D145" s="2">
         <v>48346249000180</v>
       </c>
-      <c r="E145" s="1" t="s">
+      <c r="E145" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F145" s="2" t="s">
+      <c r="F145" s="4" t="s">
         <v>342</v>
       </c>
       <c r="G145" s="1" t="s">
@@ -10253,10 +10306,10 @@
       <c r="J145" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K145" s="3">
+      <c r="K145" s="5">
         <v>46003</v>
       </c>
-      <c r="L145" s="3">
+      <c r="L145" s="5">
         <v>46003</v>
       </c>
       <c r="M145" s="1" t="s">
@@ -10265,16 +10318,16 @@
       <c r="N145" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O145" s="1"/>
-      <c r="P145" s="1"/>
+      <c r="O145" s="3"/>
+      <c r="P145" s="3"/>
       <c r="Q145">
         <v>0</v>
       </c>
-      <c r="R145" s="1"/>
-      <c r="S145" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T145" s="1" t="s">
+      <c r="R145" s="3"/>
+      <c r="S145" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T145" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10288,13 +10341,13 @@
       <c r="C146" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D146">
+      <c r="D146" s="2">
         <v>13572350000174</v>
       </c>
-      <c r="E146" s="1" t="s">
+      <c r="E146" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="F146" s="2" t="s">
+      <c r="F146" s="4" t="s">
         <v>344</v>
       </c>
       <c r="G146" s="1" t="s">
@@ -10309,10 +10362,10 @@
       <c r="J146" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K146" s="3">
+      <c r="K146" s="5">
         <v>46003</v>
       </c>
-      <c r="L146" s="3">
+      <c r="L146" s="5">
         <v>46003</v>
       </c>
       <c r="M146" s="1" t="s">
@@ -10321,16 +10374,16 @@
       <c r="N146" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O146" s="1"/>
-      <c r="P146" s="1"/>
+      <c r="O146" s="3"/>
+      <c r="P146" s="3"/>
       <c r="Q146">
         <v>0</v>
       </c>
-      <c r="R146" s="1"/>
-      <c r="S146" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T146" s="1" t="s">
+      <c r="R146" s="3"/>
+      <c r="S146" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T146" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10344,13 +10397,13 @@
       <c r="C147" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="D147">
+      <c r="D147" s="2">
         <v>27401974000133</v>
       </c>
-      <c r="E147" s="1" t="s">
+      <c r="E147" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="F147" s="2" t="s">
+      <c r="F147" s="4" t="s">
         <v>347</v>
       </c>
       <c r="G147" s="1" t="s">
@@ -10365,26 +10418,26 @@
       <c r="J147" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K147" s="3">
+      <c r="K147" s="5">
         <v>46001</v>
       </c>
-      <c r="L147" s="3"/>
+      <c r="L147" s="5"/>
       <c r="M147" s="1" t="s">
         <v>144</v>
       </c>
       <c r="N147" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O147" s="1"/>
-      <c r="P147" s="1"/>
+      <c r="O147" s="3"/>
+      <c r="P147" s="3"/>
       <c r="Q147">
         <v>0</v>
       </c>
-      <c r="R147" s="1"/>
-      <c r="S147" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T147" s="1" t="s">
+      <c r="R147" s="3"/>
+      <c r="S147" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T147" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10398,13 +10451,13 @@
       <c r="C148" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="D148">
+      <c r="D148" s="2">
         <v>52213309000163</v>
       </c>
-      <c r="E148" s="1" t="s">
+      <c r="E148" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="F148" s="2" t="s">
+      <c r="F148" s="4" t="s">
         <v>351</v>
       </c>
       <c r="G148" s="1" t="s">
@@ -10419,26 +10472,26 @@
       <c r="J148" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K148" s="3">
+      <c r="K148" s="5">
         <v>46001</v>
       </c>
-      <c r="L148" s="3"/>
+      <c r="L148" s="5"/>
       <c r="M148" s="1" t="s">
         <v>27</v>
       </c>
       <c r="N148" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O148" s="1"/>
-      <c r="P148" s="1"/>
+      <c r="O148" s="3"/>
+      <c r="P148" s="3"/>
       <c r="Q148">
         <v>0</v>
       </c>
-      <c r="R148" s="1"/>
-      <c r="S148" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T148" s="1" t="s">
+      <c r="R148" s="3"/>
+      <c r="S148" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T148" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10452,13 +10505,13 @@
       <c r="C149" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D149">
+      <c r="D149" s="2">
         <v>77708576000566</v>
       </c>
-      <c r="E149" s="1" t="s">
+      <c r="E149" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F149" s="2" t="s">
+      <c r="F149" s="4" t="s">
         <v>353</v>
       </c>
       <c r="G149" s="1" t="s">
@@ -10473,10 +10526,10 @@
       <c r="J149" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K149" s="3">
+      <c r="K149" s="5">
         <v>46002</v>
       </c>
-      <c r="L149" s="3">
+      <c r="L149" s="5">
         <v>46003</v>
       </c>
       <c r="M149" s="1" t="s">
@@ -10485,16 +10538,16 @@
       <c r="N149" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O149" s="1"/>
-      <c r="P149" s="1"/>
+      <c r="O149" s="3"/>
+      <c r="P149" s="3"/>
       <c r="Q149">
         <v>0</v>
       </c>
-      <c r="R149" s="1"/>
-      <c r="S149" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T149" s="1" t="s">
+      <c r="R149" s="3"/>
+      <c r="S149" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T149" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10508,13 +10561,13 @@
       <c r="C150" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D150">
+      <c r="D150" s="2">
         <v>12996367000196</v>
       </c>
-      <c r="E150" s="1" t="s">
+      <c r="E150" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="F150" s="2" t="s">
+      <c r="F150" s="4" t="s">
         <v>355</v>
       </c>
       <c r="G150" s="1" t="s">
@@ -10529,10 +10582,10 @@
       <c r="J150" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K150" s="3">
+      <c r="K150" s="5">
         <v>46001</v>
       </c>
-      <c r="L150" s="3">
+      <c r="L150" s="5">
         <v>46001</v>
       </c>
       <c r="M150" s="1" t="s">
@@ -10541,16 +10594,16 @@
       <c r="N150" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O150" s="1"/>
-      <c r="P150" s="1"/>
+      <c r="O150" s="3"/>
+      <c r="P150" s="3"/>
       <c r="Q150">
         <v>0</v>
       </c>
-      <c r="R150" s="1"/>
-      <c r="S150" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T150" s="1" t="s">
+      <c r="R150" s="3"/>
+      <c r="S150" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T150" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10564,13 +10617,13 @@
       <c r="C151" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D151">
+      <c r="D151" s="2">
         <v>16581045002180</v>
       </c>
-      <c r="E151" s="1" t="s">
+      <c r="E151" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="F151" s="2" t="s">
+      <c r="F151" s="4" t="s">
         <v>357</v>
       </c>
       <c r="G151" s="1" t="s">
@@ -10585,26 +10638,26 @@
       <c r="J151" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K151" s="3">
+      <c r="K151" s="5">
         <v>46003</v>
       </c>
-      <c r="L151" s="3"/>
+      <c r="L151" s="5"/>
       <c r="M151" s="1" t="s">
         <v>228</v>
       </c>
       <c r="N151" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O151" s="1"/>
-      <c r="P151" s="1"/>
+      <c r="O151" s="3"/>
+      <c r="P151" s="3"/>
       <c r="Q151">
         <v>0</v>
       </c>
-      <c r="R151" s="1"/>
-      <c r="S151" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T151" s="1" t="s">
+      <c r="R151" s="3"/>
+      <c r="S151" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T151" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10618,13 +10671,13 @@
       <c r="C152" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D152">
+      <c r="D152" s="2">
         <v>16581045002261</v>
       </c>
-      <c r="E152" s="1" t="s">
+      <c r="E152" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="F152" s="2" t="s">
+      <c r="F152" s="4" t="s">
         <v>357</v>
       </c>
       <c r="G152" s="1" t="s">
@@ -10639,26 +10692,26 @@
       <c r="J152" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K152" s="3">
+      <c r="K152" s="5">
         <v>46003</v>
       </c>
-      <c r="L152" s="3"/>
+      <c r="L152" s="5"/>
       <c r="M152" s="1" t="s">
         <v>228</v>
       </c>
       <c r="N152" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O152" s="1"/>
-      <c r="P152" s="1"/>
+      <c r="O152" s="3"/>
+      <c r="P152" s="3"/>
       <c r="Q152">
         <v>0</v>
       </c>
-      <c r="R152" s="1"/>
-      <c r="S152" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T152" s="1" t="s">
+      <c r="R152" s="3"/>
+      <c r="S152" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T152" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10672,13 +10725,13 @@
       <c r="C153" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D153">
+      <c r="D153" s="2">
         <v>87091997000706</v>
       </c>
-      <c r="E153" s="1" t="s">
+      <c r="E153" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="F153" s="2" t="s">
+      <c r="F153" s="4" t="s">
         <v>358</v>
       </c>
       <c r="G153" s="1" t="s">
@@ -10693,10 +10746,10 @@
       <c r="J153" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K153" s="3">
+      <c r="K153" s="5">
         <v>46003</v>
       </c>
-      <c r="L153" s="3">
+      <c r="L153" s="5">
         <v>46003</v>
       </c>
       <c r="M153" s="1" t="s">
@@ -10705,16 +10758,16 @@
       <c r="N153" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O153" s="1"/>
-      <c r="P153" s="1"/>
+      <c r="O153" s="3"/>
+      <c r="P153" s="3"/>
       <c r="Q153">
         <v>0</v>
       </c>
-      <c r="R153" s="1"/>
-      <c r="S153" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T153" s="1" t="s">
+      <c r="R153" s="3"/>
+      <c r="S153" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T153" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10728,13 +10781,13 @@
       <c r="C154" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D154">
+      <c r="D154" s="2">
         <v>87091997002245</v>
       </c>
-      <c r="E154" s="1" t="s">
+      <c r="E154" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="F154" s="2" t="s">
+      <c r="F154" s="4" t="s">
         <v>359</v>
       </c>
       <c r="G154" s="1" t="s">
@@ -10749,10 +10802,10 @@
       <c r="J154" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K154" s="3">
+      <c r="K154" s="5">
         <v>46003</v>
       </c>
-      <c r="L154" s="3">
+      <c r="L154" s="5">
         <v>46003</v>
       </c>
       <c r="M154" s="1" t="s">
@@ -10761,16 +10814,16 @@
       <c r="N154" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O154" s="1"/>
-      <c r="P154" s="1"/>
+      <c r="O154" s="3"/>
+      <c r="P154" s="3"/>
       <c r="Q154">
         <v>0</v>
       </c>
-      <c r="R154" s="1"/>
-      <c r="S154" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T154" s="1" t="s">
+      <c r="R154" s="3"/>
+      <c r="S154" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T154" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10784,13 +10837,13 @@
       <c r="C155" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D155">
+      <c r="D155" s="2">
         <v>38538585000251</v>
       </c>
-      <c r="E155" s="1" t="s">
+      <c r="E155" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="F155" s="2" t="s">
+      <c r="F155" s="4" t="s">
         <v>361</v>
       </c>
       <c r="G155" s="1" t="s">
@@ -10805,10 +10858,10 @@
       <c r="J155" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K155" s="3">
+      <c r="K155" s="5">
         <v>46003</v>
       </c>
-      <c r="L155" s="3">
+      <c r="L155" s="5">
         <v>46003</v>
       </c>
       <c r="M155" s="1" t="s">
@@ -10817,16 +10870,16 @@
       <c r="N155" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O155" s="1"/>
-      <c r="P155" s="1"/>
+      <c r="O155" s="3"/>
+      <c r="P155" s="3"/>
       <c r="Q155">
         <v>0</v>
       </c>
-      <c r="R155" s="1"/>
-      <c r="S155" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T155" s="1" t="s">
+      <c r="R155" s="3"/>
+      <c r="S155" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T155" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10840,13 +10893,13 @@
       <c r="C156" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D156">
+      <c r="D156" s="2">
         <v>3853855000251</v>
       </c>
-      <c r="E156" s="1" t="s">
+      <c r="E156" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="F156" s="2" t="s">
+      <c r="F156" s="4" t="s">
         <v>363</v>
       </c>
       <c r="G156" s="1" t="s">
@@ -10861,10 +10914,10 @@
       <c r="J156" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K156" s="3">
+      <c r="K156" s="5">
         <v>46003</v>
       </c>
-      <c r="L156" s="3">
+      <c r="L156" s="5">
         <v>46003</v>
       </c>
       <c r="M156" s="1" t="s">
@@ -10873,16 +10926,16 @@
       <c r="N156" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O156" s="1"/>
-      <c r="P156" s="1"/>
+      <c r="O156" s="3"/>
+      <c r="P156" s="3"/>
       <c r="Q156">
         <v>0</v>
       </c>
-      <c r="R156" s="1"/>
-      <c r="S156" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T156" s="1" t="s">
+      <c r="R156" s="3"/>
+      <c r="S156" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T156" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10896,13 +10949,13 @@
       <c r="C157" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="D157">
+      <c r="D157" s="2">
         <v>2793748000114</v>
       </c>
-      <c r="E157" s="1" t="s">
+      <c r="E157" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="F157" s="2" t="s">
+      <c r="F157" s="4" t="s">
         <v>365</v>
       </c>
       <c r="G157" s="1" t="s">
@@ -10917,26 +10970,26 @@
       <c r="J157" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K157" s="3">
+      <c r="K157" s="5">
         <v>46001</v>
       </c>
-      <c r="L157" s="3"/>
+      <c r="L157" s="5"/>
       <c r="M157" s="1" t="s">
         <v>156</v>
       </c>
       <c r="N157" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O157" s="1"/>
-      <c r="P157" s="1"/>
+      <c r="O157" s="3"/>
+      <c r="P157" s="3"/>
       <c r="Q157">
         <v>0</v>
       </c>
-      <c r="R157" s="1"/>
-      <c r="S157" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T157" s="1" t="s">
+      <c r="R157" s="3"/>
+      <c r="S157" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T157" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10950,13 +11003,13 @@
       <c r="C158" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D158">
+      <c r="D158" s="2">
         <v>51312697000177</v>
       </c>
-      <c r="E158" s="1" t="s">
+      <c r="E158" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="F158" s="2" t="s">
+      <c r="F158" s="4" t="s">
         <v>368</v>
       </c>
       <c r="G158" s="1" t="s">
@@ -10971,28 +11024,28 @@
       <c r="J158" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K158" s="3">
+      <c r="K158" s="5">
         <v>45999</v>
       </c>
-      <c r="L158" s="3"/>
+      <c r="L158" s="5"/>
       <c r="M158" s="1" t="s">
         <v>156</v>
       </c>
       <c r="N158" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O158" s="1"/>
-      <c r="P158" s="1"/>
+      <c r="O158" s="3"/>
+      <c r="P158" s="3"/>
       <c r="Q158">
         <v>0</v>
       </c>
-      <c r="R158" s="1" t="s">
+      <c r="R158" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="S158" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T158" s="1" t="s">
+      <c r="S158" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T158" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11006,13 +11059,13 @@
       <c r="C159" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D159">
+      <c r="D159" s="2">
         <v>3125831000501</v>
       </c>
-      <c r="E159" s="1" t="s">
+      <c r="E159" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="F159" s="2" t="s">
+      <c r="F159" s="4" t="s">
         <v>371</v>
       </c>
       <c r="G159" s="1" t="s">
@@ -11027,26 +11080,26 @@
       <c r="J159" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K159" s="3">
+      <c r="K159" s="5">
         <v>45988</v>
       </c>
-      <c r="L159" s="3"/>
+      <c r="L159" s="5"/>
       <c r="M159" s="1" t="s">
         <v>232</v>
       </c>
       <c r="N159" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O159" s="1"/>
-      <c r="P159" s="1"/>
+      <c r="O159" s="3"/>
+      <c r="P159" s="3"/>
       <c r="Q159">
         <v>0</v>
       </c>
-      <c r="R159" s="1"/>
-      <c r="S159" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T159" s="1" t="s">
+      <c r="R159" s="3"/>
+      <c r="S159" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T159" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11060,13 +11113,13 @@
       <c r="C160" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D160">
+      <c r="D160" s="2">
         <v>48346249000180</v>
       </c>
-      <c r="E160" s="1" t="s">
+      <c r="E160" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="F160" s="2" t="s">
+      <c r="F160" s="4" t="s">
         <v>373</v>
       </c>
       <c r="G160" s="1" t="s">
@@ -11081,10 +11134,10 @@
       <c r="J160" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K160" s="3">
+      <c r="K160" s="5">
         <v>46006</v>
       </c>
-      <c r="L160" s="3">
+      <c r="L160" s="5">
         <v>46006</v>
       </c>
       <c r="M160" s="1" t="s">
@@ -11093,16 +11146,16 @@
       <c r="N160" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O160" s="1"/>
-      <c r="P160" s="1"/>
+      <c r="O160" s="3"/>
+      <c r="P160" s="3"/>
       <c r="Q160">
         <v>0</v>
       </c>
-      <c r="R160" s="1"/>
-      <c r="S160" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T160" s="1" t="s">
+      <c r="R160" s="3"/>
+      <c r="S160" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T160" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11116,13 +11169,13 @@
       <c r="C161" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D161">
+      <c r="D161" s="2">
         <v>32249473000113</v>
       </c>
-      <c r="E161" s="1" t="s">
+      <c r="E161" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="F161" s="2" t="s">
+      <c r="F161" s="4" t="s">
         <v>375</v>
       </c>
       <c r="G161" s="1" t="s">
@@ -11137,10 +11190,10 @@
       <c r="J161" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K161" s="3">
+      <c r="K161" s="5">
         <v>46006</v>
       </c>
-      <c r="L161" s="3">
+      <c r="L161" s="5">
         <v>46006</v>
       </c>
       <c r="M161" s="1" t="s">
@@ -11149,16 +11202,16 @@
       <c r="N161" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O161" s="1"/>
-      <c r="P161" s="1"/>
+      <c r="O161" s="3"/>
+      <c r="P161" s="3"/>
       <c r="Q161">
         <v>0</v>
       </c>
-      <c r="R161" s="1"/>
-      <c r="S161" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T161" s="1" t="s">
+      <c r="R161" s="3"/>
+      <c r="S161" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T161" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11172,13 +11225,13 @@
       <c r="C162" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D162">
+      <c r="D162" s="2">
         <v>12090263000118</v>
       </c>
-      <c r="E162" s="1" t="s">
+      <c r="E162" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="F162" s="2" t="s">
+      <c r="F162" s="4" t="s">
         <v>377</v>
       </c>
       <c r="G162" s="1" t="s">
@@ -11193,10 +11246,10 @@
       <c r="J162" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K162" s="3">
+      <c r="K162" s="5">
         <v>46006</v>
       </c>
-      <c r="L162" s="3">
+      <c r="L162" s="5">
         <v>46006</v>
       </c>
       <c r="M162" s="1" t="s">
@@ -11205,16 +11258,16 @@
       <c r="N162" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O162" s="1"/>
-      <c r="P162" s="1"/>
+      <c r="O162" s="3"/>
+      <c r="P162" s="3"/>
       <c r="Q162">
         <v>0</v>
       </c>
-      <c r="R162" s="1"/>
-      <c r="S162" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T162" s="1" t="s">
+      <c r="R162" s="3"/>
+      <c r="S162" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T162" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11228,13 +11281,13 @@
       <c r="C163" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D163">
+      <c r="D163" s="2">
         <v>91411256004800</v>
       </c>
-      <c r="E163" s="1" t="s">
+      <c r="E163" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="F163" s="2" t="s">
+      <c r="F163" s="4" t="s">
         <v>379</v>
       </c>
       <c r="G163" s="1" t="s">
@@ -11249,10 +11302,10 @@
       <c r="J163" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K163" s="3">
+      <c r="K163" s="5">
         <v>46006</v>
       </c>
-      <c r="L163" s="3">
+      <c r="L163" s="5">
         <v>46006</v>
       </c>
       <c r="M163" s="1" t="s">
@@ -11261,16 +11314,16 @@
       <c r="N163" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O163" s="1"/>
-      <c r="P163" s="1"/>
+      <c r="O163" s="3"/>
+      <c r="P163" s="3"/>
       <c r="Q163">
         <v>0</v>
       </c>
-      <c r="R163" s="1"/>
-      <c r="S163" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T163" s="1" t="s">
+      <c r="R163" s="3"/>
+      <c r="S163" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T163" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11284,13 +11337,13 @@
       <c r="C164" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D164">
+      <c r="D164" s="2">
         <v>45431429000171</v>
       </c>
-      <c r="E164" s="1" t="s">
+      <c r="E164" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="F164" s="2" t="s">
+      <c r="F164" s="4" t="s">
         <v>381</v>
       </c>
       <c r="G164" s="1" t="s">
@@ -11305,26 +11358,518 @@
       <c r="J164" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K164" s="3">
+      <c r="K164" s="5">
         <v>46006</v>
       </c>
-      <c r="L164" s="3"/>
+      <c r="L164" s="5"/>
       <c r="M164" s="1" t="s">
         <v>129</v>
       </c>
       <c r="N164" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O164" s="1"/>
-      <c r="P164" s="1"/>
+      <c r="O164" s="3"/>
+      <c r="P164" s="3"/>
       <c r="Q164">
         <v>0</v>
       </c>
-      <c r="R164" s="1"/>
-      <c r="S164" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T164" s="1" t="s">
+      <c r="R164" s="3"/>
+      <c r="S164" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T164" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="165" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A165" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D165" s="2">
+        <v>77875383000176</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="F165" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J165" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K165" s="5">
+        <v>46006</v>
+      </c>
+      <c r="L165" s="5">
+        <v>46006</v>
+      </c>
+      <c r="M165" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="N165" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O165" s="3"/>
+      <c r="P165" s="3"/>
+      <c r="Q165">
+        <v>0</v>
+      </c>
+      <c r="R165" s="3"/>
+      <c r="S165" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T165" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="166" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A166" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D166" s="2">
+        <v>61432477000130</v>
+      </c>
+      <c r="E166" s="3"/>
+      <c r="F166" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J166" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K166" s="5">
+        <v>46006</v>
+      </c>
+      <c r="L166" s="5"/>
+      <c r="M166" s="1"/>
+      <c r="N166" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O166" s="3"/>
+      <c r="P166" s="3"/>
+      <c r="Q166">
+        <v>0</v>
+      </c>
+      <c r="R166" s="3"/>
+      <c r="S166" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T166" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="167" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A167" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D167" s="2">
+        <v>78901915001722</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F167" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J167" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K167" s="5">
+        <v>46006</v>
+      </c>
+      <c r="L167" s="5"/>
+      <c r="M167" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N167" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O167" s="3"/>
+      <c r="P167" s="3"/>
+      <c r="Q167">
+        <v>0</v>
+      </c>
+      <c r="R167" s="3"/>
+      <c r="S167" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T167" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="168" spans="1:20" ht="58" x14ac:dyDescent="0.35">
+      <c r="A168" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D168" s="2">
+        <v>43180360000125</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="F168" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J168" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K168" s="5">
+        <v>46006</v>
+      </c>
+      <c r="L168" s="5"/>
+      <c r="M168" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N168" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O168" s="3"/>
+      <c r="P168" s="3"/>
+      <c r="Q168">
+        <v>0</v>
+      </c>
+      <c r="R168" s="3"/>
+      <c r="S168" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T168" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="169" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A169" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D169" s="2">
+        <v>60788466000125</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="F169" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J169" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K169" s="5">
+        <v>46006</v>
+      </c>
+      <c r="L169" s="5">
+        <v>46007</v>
+      </c>
+      <c r="M169" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="N169" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O169" s="3"/>
+      <c r="P169" s="3"/>
+      <c r="Q169">
+        <v>0</v>
+      </c>
+      <c r="R169" s="3"/>
+      <c r="S169" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T169" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="170" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A170" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D170" s="2">
+        <v>7566687000176</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="F170" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I170" s="1"/>
+      <c r="J170" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K170" s="5">
+        <v>46007</v>
+      </c>
+      <c r="L170" s="5">
+        <v>46007</v>
+      </c>
+      <c r="M170" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N170" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O170" s="3"/>
+      <c r="P170" s="3"/>
+      <c r="Q170">
+        <v>0</v>
+      </c>
+      <c r="R170" s="3"/>
+      <c r="S170" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T170" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="171" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A171" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D171" s="2">
+        <v>306597003708</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J171" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K171" s="5">
+        <v>46007</v>
+      </c>
+      <c r="L171" s="5">
+        <v>46007</v>
+      </c>
+      <c r="M171" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N171" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O171" s="3"/>
+      <c r="P171" s="3"/>
+      <c r="Q171">
+        <v>0</v>
+      </c>
+      <c r="R171" s="3"/>
+      <c r="S171" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T171" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="172" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A172" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D172" s="2">
+        <v>306597007703</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J172" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K172" s="5">
+        <v>46007</v>
+      </c>
+      <c r="L172" s="5">
+        <v>46007</v>
+      </c>
+      <c r="M172" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N172" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O172" s="3"/>
+      <c r="P172" s="3"/>
+      <c r="Q172">
+        <v>0</v>
+      </c>
+      <c r="R172" s="3"/>
+      <c r="S172" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T172" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="173" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A173" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D173" s="2">
+        <v>306597007967</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J173" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K173" s="5">
+        <v>46007</v>
+      </c>
+      <c r="L173" s="5">
+        <v>46007</v>
+      </c>
+      <c r="M173" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N173" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O173" s="3"/>
+      <c r="P173" s="3"/>
+      <c r="Q173">
+        <v>0</v>
+      </c>
+      <c r="R173" s="3"/>
+      <c r="S173" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T173" s="3" t="s">
         <v>31</v>
       </c>
     </row>

--- a/base_hub_github.xlsx
+++ b/base_hub_github.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiago.junior\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupoultracloud-my.sharepoint.com/personal/thiago_junior_ipiranga_ipiranga/Documents/Área de Trabalho/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56E7E105-4B95-4AA6-8506-47501BE4F817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{7DAF6DB1-3B07-4870-8D9F-0AC5A328EA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7F02D56-3066-44CF-A3AA-C66AD3274298}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{355B58B1-9E79-4450-9162-7CFC001C8203}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{43F746D8-4F7B-48D1-8B59-5CE9F4D180EA}"/>
   </bookViews>
   <sheets>
     <sheet name="query" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="query__37" localSheetId="0" hidden="1">query!$A$1:$T$173</definedName>
+    <definedName name="query__38" localSheetId="0" hidden="1">query!$A$1:$T$169</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -24,14 +24,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{87148253-B97E-4288-B92D-49AAE69E7560}" odcFile="C:\Users\thiago.junior\Downloads\query (37).iqy" keepAlive="1" name="query (37)" type="5" refreshedVersion="8" minRefreshableVersion="3" saveData="1">
+  <connection id="1" xr16:uid="{6DEA3883-6B17-4D4E-AF9E-84F12401CA19}" odcFile="C:\Users\thiago.junior\Downloads\query (38).iqy" keepAlive="1" name="query (38)" type="5" refreshedVersion="8" minRefreshableVersion="3" saveData="1">
     <dbPr connection="Provider=Microsoft.Office.List.OLEDB.2.0;Data Source=&quot;&quot;;ApplicationName=Excel;Version=12.0.0.0" command="&lt;LIST&gt;&lt;VIEWGUID&gt;A45175CA-9778-441D-B066-D8555F7DBBE4&lt;/VIEWGUID&gt;&lt;LISTNAME&gt;06be0e4e-018b-4cef-a562-4db2a9a684e1&lt;/LISTNAME&gt;&lt;LISTWEB&gt;https://grupoultracloud-my.sharepoint.com/personal/roberta_rocha_ipiranga_ipiranga/_vti_bin&lt;/LISTWEB&gt;&lt;LISTSUBWEB&gt;&lt;/LISTSUBWEB&gt;&lt;ROOTFOLDER&gt;&lt;/ROOTFOLDER&gt;&lt;/LIST&gt;" commandType="5"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2237" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2188" uniqueCount="393">
   <si>
     <t>Título</t>
   </si>
@@ -745,15 +745,6 @@
     <t xml:space="preserve">Tivemos que reajuste as coordenadas novamente, visto que o posto ainda não estava aparecendo no mapa do App. </t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Ação de ajuste Lat long</t>
-  </si>
-  <si>
-    <t>Gerência de Produtos Digitais</t>
-  </si>
-  <si>
     <t>Auto Posto Fx Ltda</t>
   </si>
   <si>
@@ -823,9 +814,6 @@
     <t>Apresentação do Conecta Rede avaliando a implementação ( ação final de ano reversão dos postos  com sistema homolog porém sem conecta implementado)</t>
   </si>
   <si>
-    <t>Ajuste de lat-long de 30 postos.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Solicitação de alteração de dimicílio bancário. Caso enviado para Ana Farandi. </t>
   </si>
   <si>
@@ -844,9 +832,6 @@
     <t xml:space="preserve">Caso enviado para Ana Paula Farandi. </t>
   </si>
   <si>
-    <t>10 cnpj's ajustados</t>
-  </si>
-  <si>
     <t>Sant Ana Auto Posto Ltda - Epp</t>
   </si>
   <si>
@@ -931,6 +916,9 @@
     <t>O revendedor João se queixa de que não está conseguindo finalizar pedidos no App (pedido digitado) pelo PDV fixo. Pedi para que ele entre em contato com o representante da Xpert e solicite apoio. Caso eles não resolvam, acionarei a Xpert pedindo suporte.</t>
   </si>
   <si>
+    <t>Auto Posto</t>
+  </si>
+  <si>
     <t xml:space="preserve">Entrei em contato com felipe para ofertar o KMV e uso dos produtos digitais </t>
   </si>
   <si>
@@ -1145,12 +1133,6 @@
   </si>
   <si>
     <t>04894915</t>
-  </si>
-  <si>
-    <t>Mendes Combustiveis Ltda</t>
-  </si>
-  <si>
-    <t>GRUPO MENDES CATATAU - Já possui maquina da REDE em outros postos, porém não consegue fazer a solicitação das maquinas no Mendes Combustiveis Ltda - 3125831000501.</t>
   </si>
   <si>
     <t>MD Auto posto</t>
@@ -1847,7 +1829,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="query (37)" backgroundRefresh="0" connectionId="1" xr16:uid="{46E36A79-328F-491B-A3F0-82DB4D953BF1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="query (38)" backgroundRefresh="0" connectionId="1" xr16:uid="{C0BF3816-DC20-4147-B4FB-45374EB3E0F9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="21">
     <queryTableFields count="20">
       <queryTableField id="10" name="Analista" tableColumnId="1"/>
@@ -1876,29 +1858,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BCCC862-B41A-4E7B-A15D-0D9ED18C090A}" name="Tabela_query__37" displayName="Tabela_query__37" ref="A1:T173" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:T173" xr:uid="{5BCCC862-B41A-4E7B-A15D-0D9ED18C090A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7427FC87-09AE-45A8-B176-53CB93348968}" name="Tabela_query__38" displayName="Tabela_query__38" ref="A1:T169" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:T169" xr:uid="{7427FC87-09AE-45A8-B176-53CB93348968}"/>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{63EEE760-5D8A-41AC-840D-13197B24410E}" uniqueName="Analista" name="Analista" queryTableFieldId="10" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{5B2742C3-8EE8-4B52-8BC7-03ED3733F002}" uniqueName="SubClassifica_x005f_x00e7__x005f_x00e3_o" name="Sub Classificação" queryTableFieldId="15" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{CD243106-EA44-4ED8-8843-E230925B6AE4}" uniqueName="Motivo" name="Motivo" queryTableFieldId="11" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{CB3D6C65-F892-455D-9D3E-363854B87BD1}" uniqueName="CNPJ" name="CNPJ" queryTableFieldId="3" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{A0598E59-1033-419A-AE07-F61947533588}" uniqueName="Raz_x005f_x00e3_oSocial" name="Razão Social" queryTableFieldId="4" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{329BE4D6-75D8-4819-9A33-E3C3E49F8655}" uniqueName="Descri_x005f_x00e7__x005f_x00e3_o" name="Descrição" queryTableFieldId="5" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{ADE3AEE0-38B9-4C63-B8C2-751EF4372148}" uniqueName="FCR" name="FCR" queryTableFieldId="7" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{46F458BF-75CC-4AAF-AAFB-F7E737553D8B}" uniqueName="Origemdocontato" name="Área responsável pela resolução" queryTableFieldId="8" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{9259FCA5-45DC-42A2-B7BB-7C47CB92EA67}" uniqueName="Origemdocontato0" name="Origem do contato" queryTableFieldId="9" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{93A552E5-069D-47A1-BB2E-560F16E7E186}" uniqueName="Tipodecontato" name="Tipo de contato" queryTableFieldId="14" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{7986F0CE-EFA2-4F7C-BA9D-BA1D74C97E94}" uniqueName="Data" name="Data Inicio" queryTableFieldId="2" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{C48390D6-2E0D-4329-9F57-CD26350BFC9C}" uniqueName="DataFim" name="Data Fim" queryTableFieldId="6" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{2A86E158-5D9A-43E9-A893-D4BC4F5BD1F8}" uniqueName="GN" name="GN" queryTableFieldId="12" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{45921FC5-D700-40E5-8425-85A3441111DE}" uniqueName="Solicitante" name="Solicitante" queryTableFieldId="13" dataDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{DFA91F7F-DCE3-45E0-A47B-5A164F744055}" uniqueName="Title" name="Título" queryTableFieldId="1" dataDxfId="4"/>
-    <tableColumn id="16" xr3:uid="{F01224D5-5DA6-4946-92E4-0C0699D16D69}" uniqueName="_x005f_x0024_Resources_x005f_x003a_core_x002" name="Status de liberação" queryTableFieldId="16" dataDxfId="3"/>
-    <tableColumn id="17" xr3:uid="{63FD9994-BF0E-4706-B655-CCFAABBE8757}" uniqueName="_ApprovalStatus" name="Status de aprovação" queryTableFieldId="17"/>
-    <tableColumn id="18" xr3:uid="{14DCE43E-03C1-41E1-9FC1-B97987F2EC46}" uniqueName="N_x005f_x00fa_merodoChamado" name="Número do Chamado Automação" queryTableFieldId="18" dataDxfId="2"/>
-    <tableColumn id="19" xr3:uid="{C4FD2DE5-17C9-484F-BD61-6A6496C96BCB}" uniqueName="FSObjType" name="Tipo de Item" queryTableFieldId="20" dataDxfId="1"/>
-    <tableColumn id="20" xr3:uid="{07053EBB-A228-49A2-8C58-73D1F6C52307}" uniqueName="FileDirRef" name="Caminho" queryTableFieldId="19" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{780B570A-FA9E-4541-8AD5-7B91B224B0D0}" uniqueName="Analista" name="Analista" queryTableFieldId="10" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{DFEAE759-0F9C-47F3-8295-C0C8AE39F724}" uniqueName="SubClassifica_x005f_x00e7__x005f_x00e3_o" name="Sub Classificação" queryTableFieldId="15" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{3CFA0379-BE38-45AD-8937-FEB03A014763}" uniqueName="Motivo" name="Motivo" queryTableFieldId="11" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{449ABF27-211D-431D-AA8F-17A9784168E4}" uniqueName="CNPJ" name="CNPJ" queryTableFieldId="3" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{B932CB22-D6BE-4BD2-9592-E8CE3AEB19AC}" uniqueName="Raz_x005f_x00e3_oSocial" name="Razão Social" queryTableFieldId="4" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{B8E91C7B-0792-41A2-95A1-83FD07D01E7C}" uniqueName="Descri_x005f_x00e7__x005f_x00e3_o" name="Descrição" queryTableFieldId="5" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{94C54952-7DA3-443C-A700-3C9A734F0D29}" uniqueName="FCR" name="FCR" queryTableFieldId="7" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{FE469B50-0F57-40DF-8C70-63DA0D33B309}" uniqueName="Origemdocontato" name="Área responsável pela resolução" queryTableFieldId="8" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{483D215B-9365-4339-8297-DB23619AF80D}" uniqueName="Origemdocontato0" name="Origem do contato" queryTableFieldId="9" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{BDE90B05-7ECB-45EE-81E1-121C26218462}" uniqueName="Tipodecontato" name="Tipo de contato" queryTableFieldId="14" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{CE6A3259-B147-4888-9A05-1BDFF9AA018D}" uniqueName="Data" name="Data Inicio" queryTableFieldId="2" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{A5FA24B4-8ADD-4B6D-BE77-51CB39438AC8}" uniqueName="DataFim" name="Data Fim" queryTableFieldId="6" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{B1E80FB9-36AF-4C0D-8C6D-F657269274A8}" uniqueName="GN" name="GN" queryTableFieldId="12" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{C24CC68F-F24D-4471-AE8E-04C8FDDF16C7}" uniqueName="Solicitante" name="Solicitante" queryTableFieldId="13" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{5FBD6373-C448-470B-9E3E-48312B936C4B}" uniqueName="Title" name="Título" queryTableFieldId="1" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{B4108318-6744-46F5-A8C2-83D1B90A18A3}" uniqueName="_x005f_x0024_Resources_x005f_x003a_core_x002" name="Status de liberação" queryTableFieldId="16" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{94087C1B-A3C4-4F75-A0D4-411EE605643F}" uniqueName="_ApprovalStatus" name="Status de aprovação" queryTableFieldId="17"/>
+    <tableColumn id="18" xr3:uid="{80A9EEAC-433D-42B6-8DFD-A1A36E2ACD3C}" uniqueName="N_x005f_x00fa_merodoChamado" name="Número do Chamado Automação" queryTableFieldId="18" dataDxfId="2"/>
+    <tableColumn id="19" xr3:uid="{DB3D3F90-F70C-4232-A557-EA789CBB87C0}" uniqueName="FSObjType" name="Tipo de Item" queryTableFieldId="20" dataDxfId="1"/>
+    <tableColumn id="20" xr3:uid="{DB497FEE-E16C-4ACB-832D-BEA778B12D1D}" uniqueName="FileDirRef" name="Caminho" queryTableFieldId="19" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2220,11 +2202,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697750EE-04DD-4936-AB3F-D30DEE050643}">
-  <dimension ref="A1:T173"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2838CAB-0674-4631-B995-FA93ACC3123F}">
+  <dimension ref="A1:T169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:T173"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2237,7 +2219,7 @@
     <col min="6" max="6" width="80.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.36328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.90625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.08984375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.54296875" bestFit="1" customWidth="1"/>
@@ -6551,16 +6533,16 @@
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>206</v>
+        <v>42</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="D78" s="2">
-        <v>11111111111111</v>
+        <v>26472037000106</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>236</v>
@@ -6575,22 +6557,22 @@
         <v>23</v>
       </c>
       <c r="I78" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K78" s="5">
+        <v>46000</v>
+      </c>
+      <c r="L78" s="5">
+        <v>46000</v>
+      </c>
+      <c r="M78" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="J78" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K78" s="5">
-        <v>45999</v>
-      </c>
-      <c r="L78" s="5">
-        <v>45999</v>
-      </c>
-      <c r="M78" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="N78" s="1" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="O78" s="3"/>
       <c r="P78" s="3"/>
@@ -6613,10 +6595,10 @@
         <v>54</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="D79" s="2">
-        <v>26472037000106</v>
+        <v>26472037000109</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>239</v>
@@ -6628,7 +6610,7 @@
         <v>22</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>35</v>
@@ -6643,10 +6625,10 @@
         <v>46000</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="O79" s="3"/>
       <c r="P79" s="3"/>
@@ -6669,22 +6651,22 @@
         <v>54</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="D80" s="2">
-        <v>26472037000109</v>
+        <v>46011435000132</v>
       </c>
       <c r="E80" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F80" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="F80" s="4" t="s">
-        <v>243</v>
-      </c>
       <c r="G80" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="I80" s="1" t="s">
         <v>35</v>
@@ -6693,16 +6675,16 @@
         <v>37</v>
       </c>
       <c r="K80" s="5">
-        <v>46000</v>
+        <v>45999</v>
       </c>
       <c r="L80" s="5">
-        <v>46000</v>
+        <v>45999</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>241</v>
+        <v>144</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="O80" s="3"/>
       <c r="P80" s="3"/>
@@ -6719,22 +6701,22 @@
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D81" s="2">
-        <v>46011435000132</v>
+        <v>3570327000197</v>
       </c>
       <c r="E81" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F81" s="4" t="s">
         <v>244</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>245</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>22</v>
@@ -6749,16 +6731,16 @@
         <v>37</v>
       </c>
       <c r="K81" s="5">
-        <v>45999</v>
+        <v>46000</v>
       </c>
       <c r="L81" s="5">
-        <v>45999</v>
+        <v>46000</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="O81" s="3"/>
       <c r="P81" s="3"/>
@@ -6778,25 +6760,23 @@
         <v>124</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>106</v>
+        <v>246</v>
       </c>
       <c r="D82" s="2">
-        <v>3570327000197</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>246</v>
-      </c>
+        <v>1000000000000</v>
+      </c>
+      <c r="E82" s="3"/>
       <c r="F82" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>35</v>
@@ -6805,17 +6785,15 @@
         <v>37</v>
       </c>
       <c r="K82" s="5">
-        <v>46000</v>
+        <v>45999</v>
       </c>
       <c r="L82" s="5">
         <v>46000</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="N82" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="N82" s="1"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82">
@@ -6831,43 +6809,47 @@
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>249</v>
+        <v>141</v>
       </c>
       <c r="D83" s="2">
-        <v>1000000000000</v>
-      </c>
-      <c r="E83" s="3"/>
+        <v>10592852000179</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="F83" s="4" t="s">
         <v>248</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>35</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="K83" s="5">
         <v>45999</v>
       </c>
       <c r="L83" s="5">
-        <v>46000</v>
+        <v>45999</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="N83" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="O83" s="3"/>
       <c r="P83" s="3"/>
       <c r="Q83">
@@ -6883,25 +6865,25 @@
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>136</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="D84" s="2">
-        <v>10592852000179</v>
+        <v>7433734000103</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>81</v>
+        <v>249</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>23</v>
@@ -6913,16 +6895,16 @@
         <v>29</v>
       </c>
       <c r="K84" s="5">
-        <v>45999</v>
+        <v>46000</v>
       </c>
       <c r="L84" s="5">
-        <v>45999</v>
+        <v>46001</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="O84" s="3"/>
       <c r="P84" s="3"/>
@@ -6937,27 +6919,27 @@
         <v>31</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="D85" s="2">
-        <v>7433734000103</v>
+        <v>4785105000154</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>252</v>
+        <v>20</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>23</v>
@@ -6972,13 +6954,13 @@
         <v>46000</v>
       </c>
       <c r="L85" s="5">
-        <v>46001</v>
+        <v>46000</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="O85" s="3"/>
       <c r="P85" s="3"/>
@@ -6995,22 +6977,22 @@
     </row>
     <row r="86" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D86" s="2">
-        <v>4785105000154</v>
+        <v>76816842000420</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>20</v>
+        <v>226</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>22</v>
@@ -7031,7 +7013,7 @@
         <v>46000</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>27</v>
+        <v>228</v>
       </c>
       <c r="N86" s="1" t="s">
         <v>70</v>
@@ -7060,13 +7042,13 @@
         <v>141</v>
       </c>
       <c r="D87" s="2">
-        <v>76816842000420</v>
+        <v>76816842000269</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>22</v>
@@ -7105,24 +7087,24 @@
         <v>31</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>30</v>
+        <v>136</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>141</v>
+        <v>224</v>
       </c>
       <c r="D88" s="2">
-        <v>76816842000269</v>
+        <v>29404899000190</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>22</v>
@@ -7131,7 +7113,7 @@
         <v>23</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>29</v>
@@ -7143,7 +7125,7 @@
         <v>46000</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>228</v>
+        <v>110</v>
       </c>
       <c r="N88" s="1" t="s">
         <v>70</v>
@@ -7172,13 +7154,13 @@
         <v>224</v>
       </c>
       <c r="D89" s="2">
-        <v>29404899000190</v>
+        <v>29404899000351</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>22</v>
@@ -7217,36 +7199,36 @@
         <v>31</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>224</v>
+        <v>60</v>
       </c>
       <c r="D90" s="2">
-        <v>29404899000351</v>
+        <v>4868412000794</v>
       </c>
       <c r="E90" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F90" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="F90" s="4" t="s">
-        <v>257</v>
-      </c>
       <c r="G90" s="1" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K90" s="5">
         <v>46000</v>
@@ -7255,10 +7237,10 @@
         <v>46000</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
@@ -7273,36 +7255,36 @@
         <v>31</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:20" ht="58" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>60</v>
+        <v>224</v>
       </c>
       <c r="D91" s="2">
-        <v>4868412000794</v>
+        <v>61620792000191</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>258</v>
+        <v>171</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="I91" s="1" t="s">
         <v>35</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="K91" s="5">
         <v>46000</v>
@@ -7311,10 +7293,10 @@
         <v>46000</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="O91" s="3"/>
       <c r="P91" s="3"/>
@@ -7329,24 +7311,22 @@
         <v>31</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="58" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>224</v>
       </c>
       <c r="D92" s="2">
-        <v>61620792000191</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>171</v>
-      </c>
+        <v>57900011000145</v>
+      </c>
+      <c r="E92" s="3"/>
       <c r="F92" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>22</v>
@@ -7366,9 +7346,7 @@
       <c r="L92" s="5">
         <v>46000</v>
       </c>
-      <c r="M92" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="M92" s="1"/>
       <c r="N92" s="1" t="s">
         <v>70</v>
       </c>
@@ -7385,44 +7363,48 @@
         <v>31</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>224</v>
+        <v>121</v>
       </c>
       <c r="D93" s="2">
-        <v>57900011000145</v>
-      </c>
-      <c r="E93" s="3"/>
+        <v>87091997003136</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="F93" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K93" s="5">
-        <v>46000</v>
+        <v>46001</v>
       </c>
       <c r="L93" s="5">
-        <v>46000</v>
-      </c>
-      <c r="M93" s="1"/>
+        <v>46002</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="N93" s="1" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="O93" s="3"/>
       <c r="P93" s="3"/>
@@ -7439,20 +7421,22 @@
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>206</v>
+        <v>42</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>106</v>
+        <v>224</v>
       </c>
       <c r="D94" s="2">
-        <v>11111111111111</v>
-      </c>
-      <c r="E94" s="3"/>
+        <v>22624848000205</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>260</v>
+      </c>
       <c r="F94" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>22</v>
@@ -7461,20 +7445,22 @@
         <v>23</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>238</v>
+        <v>35</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K94" s="5">
-        <v>46000</v>
+        <v>46001</v>
       </c>
       <c r="L94" s="5">
-        <v>46000</v>
-      </c>
-      <c r="M94" s="1"/>
+        <v>46001</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>262</v>
+      </c>
       <c r="N94" s="1" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="O94" s="3"/>
       <c r="P94" s="3"/>
@@ -7500,13 +7486,13 @@
         <v>121</v>
       </c>
       <c r="D95" s="2">
-        <v>87091997003136</v>
+        <v>91411256004991</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>161</v>
+        <v>263</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>73</v>
@@ -7515,7 +7501,7 @@
         <v>90</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>37</v>
@@ -7527,7 +7513,7 @@
         <v>46002</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="N95" s="1" t="s">
         <v>28</v>
@@ -7547,46 +7533,46 @@
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>224</v>
+        <v>121</v>
       </c>
       <c r="D96" s="2">
-        <v>22624848000205</v>
+        <v>1991461003402</v>
       </c>
       <c r="E96" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F96" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="F96" s="4" t="s">
-        <v>265</v>
-      </c>
       <c r="G96" s="1" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>35</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K96" s="5">
         <v>46001</v>
       </c>
       <c r="L96" s="5">
-        <v>46001</v>
+        <v>46002</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>266</v>
+        <v>218</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="O96" s="3"/>
       <c r="P96" s="3"/>
@@ -7601,48 +7587,48 @@
         <v>31</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="D97" s="2">
-        <v>91411256004991</v>
+        <v>14652825000103</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>35</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="K97" s="5">
         <v>46001</v>
       </c>
       <c r="L97" s="5">
-        <v>46002</v>
+        <v>46001</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>167</v>
+        <v>262</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="O97" s="3"/>
       <c r="P97" s="3"/>
@@ -7659,46 +7645,46 @@
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="D98" s="2">
-        <v>1991461003402</v>
+        <v>15699123000130</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>219</v>
+        <v>267</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>268</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>35</v>
+        <v>269</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="K98" s="5">
         <v>46001</v>
       </c>
       <c r="L98" s="5">
-        <v>46002</v>
+        <v>46001</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>218</v>
+        <v>262</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="O98" s="3"/>
       <c r="P98" s="3"/>
@@ -7715,20 +7701,22 @@
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>206</v>
+        <v>42</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>106</v>
+        <v>272</v>
       </c>
       <c r="D99" s="2">
-        <v>11111111111111</v>
-      </c>
-      <c r="E99" s="3"/>
+        <v>27192758000397</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>270</v>
+      </c>
       <c r="F99" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>22</v>
@@ -7737,9 +7725,11 @@
         <v>23</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J99" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="K99" s="5">
         <v>46001</v>
       </c>
@@ -7747,10 +7737,10 @@
         <v>46001</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>250</v>
+        <v>44</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="O99" s="3"/>
       <c r="P99" s="3"/>
@@ -7765,24 +7755,24 @@
         <v>31</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>42</v>
+        <v>206</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>136</v>
+        <v>30</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>224</v>
+        <v>141</v>
       </c>
       <c r="D100" s="2">
-        <v>14652825000103</v>
+        <v>37261764000140</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>22</v>
@@ -7803,10 +7793,10 @@
         <v>46001</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>266</v>
+        <v>144</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="O100" s="3"/>
       <c r="P100" s="3"/>
@@ -7826,19 +7816,19 @@
         <v>42</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>224</v>
+        <v>86</v>
       </c>
       <c r="D101" s="2">
-        <v>15699123000130</v>
+        <v>306597002655</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>22</v>
@@ -7847,10 +7837,10 @@
         <v>23</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>274</v>
+        <v>35</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K101" s="5">
         <v>46001</v>
@@ -7859,10 +7849,10 @@
         <v>46001</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>266</v>
+        <v>44</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="O101" s="3"/>
       <c r="P101" s="3"/>
@@ -7882,19 +7872,19 @@
         <v>42</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="C102" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D102" s="2">
+        <v>26697754000136</v>
+      </c>
+      <c r="E102" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="D102" s="2">
-        <v>27192758000397</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>275</v>
-      </c>
       <c r="F102" s="4" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>22</v>
@@ -7906,7 +7896,7 @@
         <v>35</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="K102" s="5">
         <v>46001</v>
@@ -7915,10 +7905,10 @@
         <v>46001</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>44</v>
+        <v>262</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="O102" s="3"/>
       <c r="P102" s="3"/>
@@ -7935,22 +7925,22 @@
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>206</v>
+        <v>42</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>30</v>
+        <v>136</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="D103" s="2">
-        <v>37261764000140</v>
+        <v>35119645000203</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>278</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>22</v>
@@ -7971,10 +7961,10 @@
         <v>46001</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>144</v>
+        <v>262</v>
       </c>
       <c r="N103" s="1" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="O103" s="3"/>
       <c r="P103" s="3"/>
@@ -7989,45 +7979,45 @@
         <v>31</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>42</v>
+        <v>206</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>86</v>
+        <v>224</v>
       </c>
       <c r="D104" s="2">
-        <v>306597002655</v>
+        <v>14060985000155</v>
       </c>
       <c r="E104" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="F104" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="F104" s="4" t="s">
-        <v>281</v>
-      </c>
       <c r="G104" s="1" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="K104" s="5">
-        <v>46001</v>
+        <v>45999</v>
       </c>
       <c r="L104" s="5">
-        <v>46001</v>
+        <v>45999</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>44</v>
+        <v>167</v>
       </c>
       <c r="N104" s="1" t="s">
         <v>95</v>
@@ -8056,13 +8046,13 @@
         <v>224</v>
       </c>
       <c r="D105" s="2">
-        <v>26697754000136</v>
+        <v>2279387000192</v>
       </c>
       <c r="E105" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F105" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>273</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>22</v>
@@ -8071,19 +8061,19 @@
         <v>23</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>35</v>
+        <v>147</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K105" s="5">
-        <v>46001</v>
+        <v>46002</v>
       </c>
       <c r="L105" s="5">
-        <v>46001</v>
+        <v>46002</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>266</v>
+        <v>44</v>
       </c>
       <c r="N105" s="1" t="s">
         <v>70</v>
@@ -8103,25 +8093,25 @@
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>136</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
       <c r="D106" s="2">
-        <v>35119645000203</v>
+        <v>4171451000142</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>283</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>23</v>
@@ -8133,13 +8123,13 @@
         <v>29</v>
       </c>
       <c r="K106" s="5">
-        <v>46001</v>
+        <v>46002</v>
       </c>
       <c r="L106" s="5">
-        <v>46001</v>
+        <v>46006</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="N106" s="1" t="s">
         <v>70</v>
@@ -8157,9 +8147,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
-        <v>206</v>
+        <v>25</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>136</v>
@@ -8168,37 +8158,37 @@
         <v>224</v>
       </c>
       <c r="D107" s="2">
-        <v>14060985000155</v>
+        <v>7177658000112</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K107" s="5">
-        <v>45999</v>
+        <v>46002</v>
       </c>
       <c r="L107" s="5">
-        <v>45999</v>
+        <v>46006</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>167</v>
+        <v>288</v>
       </c>
       <c r="N107" s="1" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="O107" s="3"/>
       <c r="P107" s="3"/>
@@ -8215,7 +8205,7 @@
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>136</v>
@@ -8224,13 +8214,13 @@
         <v>224</v>
       </c>
       <c r="D108" s="2">
-        <v>2279387000192</v>
+        <v>13367056000120</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>22</v>
@@ -8239,7 +8229,7 @@
         <v>23</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>147</v>
+        <v>35</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>29</v>
@@ -8248,10 +8238,10 @@
         <v>46002</v>
       </c>
       <c r="L108" s="5">
-        <v>46002</v>
+        <v>46006</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>44</v>
+        <v>288</v>
       </c>
       <c r="N108" s="1" t="s">
         <v>70</v>
@@ -8269,48 +8259,46 @@
         <v>31</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>224</v>
+        <v>75</v>
       </c>
       <c r="D109" s="2">
-        <v>4171451000142</v>
+        <v>45761173000160</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>73</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="I109" s="1" t="s">
         <v>35</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K109" s="5">
         <v>46002</v>
       </c>
-      <c r="L109" s="5">
-        <v>46006</v>
-      </c>
+      <c r="L109" s="5"/>
       <c r="M109" s="1" t="s">
-        <v>290</v>
+        <v>167</v>
       </c>
       <c r="N109" s="1" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="O109" s="3"/>
       <c r="P109" s="3"/>
@@ -8325,24 +8313,24 @@
         <v>31</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>136</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>224</v>
+        <v>141</v>
       </c>
       <c r="D110" s="2">
-        <v>7177658000112</v>
+        <v>35119645000203</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>22</v>
@@ -8360,10 +8348,10 @@
         <v>46002</v>
       </c>
       <c r="L110" s="5">
-        <v>46006</v>
+        <v>46002</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>293</v>
+        <v>144</v>
       </c>
       <c r="N110" s="1" t="s">
         <v>70</v>
@@ -8383,19 +8371,19 @@
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D111" s="2">
-        <v>13367056000120</v>
+        <v>76816842000420</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>294</v>
+        <v>226</v>
       </c>
       <c r="F111" s="4" t="s">
         <v>295</v>
@@ -8410,19 +8398,19 @@
         <v>35</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K111" s="5">
         <v>46002</v>
       </c>
       <c r="L111" s="5">
-        <v>46006</v>
+        <v>46002</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>293</v>
+        <v>228</v>
       </c>
       <c r="N111" s="1" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="O111" s="3"/>
       <c r="P111" s="3"/>
@@ -8437,18 +8425,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="D112" s="2">
-        <v>45761173000160</v>
+        <v>52642559000119</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>296</v>
@@ -8457,26 +8445,28 @@
         <v>297</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="I112" s="1" t="s">
         <v>35</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="K112" s="5">
         <v>46002</v>
       </c>
-      <c r="L112" s="5"/>
+      <c r="L112" s="5">
+        <v>46002</v>
+      </c>
       <c r="M112" s="1" t="s">
-        <v>167</v>
+        <v>262</v>
       </c>
       <c r="N112" s="1" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="O112" s="3"/>
       <c r="P112" s="3"/>
@@ -8502,13 +8492,13 @@
         <v>141</v>
       </c>
       <c r="D113" s="2">
-        <v>35119645000203</v>
+        <v>5357865000123</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>22</v>
@@ -8522,12 +8512,14 @@
       <c r="J113" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K113" s="5"/>
+      <c r="K113" s="5">
+        <v>46002</v>
+      </c>
       <c r="L113" s="5">
         <v>46002</v>
       </c>
       <c r="M113" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="N113" s="1" t="s">
         <v>70</v>
@@ -8547,22 +8539,22 @@
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>215</v>
+        <v>141</v>
       </c>
       <c r="D114" s="2">
-        <v>76816842000420</v>
+        <v>7405721000120</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>226</v>
+        <v>300</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>22</v>
@@ -8574,7 +8566,7 @@
         <v>35</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="K114" s="5">
         <v>46002</v>
@@ -8583,10 +8575,10 @@
         <v>46002</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>228</v>
+        <v>262</v>
       </c>
       <c r="N114" s="1" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="O114" s="3"/>
       <c r="P114" s="3"/>
@@ -8601,36 +8593,36 @@
         <v>31</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:20" ht="58" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>141</v>
+        <v>193</v>
       </c>
       <c r="D115" s="2">
-        <v>52642559000119</v>
+        <v>4868412000794</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>23</v>
+        <v>192</v>
       </c>
       <c r="I115" s="1" t="s">
         <v>35</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K115" s="5">
         <v>46002</v>
@@ -8639,10 +8631,10 @@
         <v>46002</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>266</v>
+        <v>167</v>
       </c>
       <c r="N115" s="1" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="O115" s="3"/>
       <c r="P115" s="3"/>
@@ -8659,22 +8651,22 @@
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>141</v>
+        <v>48</v>
       </c>
       <c r="D116" s="2">
-        <v>5357865000123</v>
+        <v>5011016000113</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>22</v>
@@ -8695,10 +8687,10 @@
         <v>46002</v>
       </c>
       <c r="M116" s="1" t="s">
-        <v>266</v>
+        <v>110</v>
       </c>
       <c r="N116" s="1" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="O116" s="3"/>
       <c r="P116" s="3"/>
@@ -8715,46 +8707,44 @@
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>141</v>
+        <v>63</v>
       </c>
       <c r="D117" s="2">
-        <v>7405721000120</v>
+        <v>577065000102</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>23</v>
+        <v>307</v>
       </c>
       <c r="I117" s="1" t="s">
         <v>35</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K117" s="5">
         <v>46002</v>
       </c>
-      <c r="L117" s="5">
-        <v>46002</v>
-      </c>
+      <c r="L117" s="5"/>
       <c r="M117" s="1" t="s">
-        <v>266</v>
+        <v>163</v>
       </c>
       <c r="N117" s="1" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="O117" s="3"/>
       <c r="P117" s="3"/>
@@ -8769,48 +8759,46 @@
         <v>31</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="58" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>193</v>
+        <v>26</v>
       </c>
       <c r="D118" s="2">
-        <v>4868412000794</v>
+        <v>51556055000113</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>258</v>
+        <v>308</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>192</v>
+        <v>23</v>
       </c>
       <c r="I118" s="1" t="s">
         <v>35</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="K118" s="5">
         <v>46002</v>
       </c>
-      <c r="L118" s="5">
-        <v>46002</v>
-      </c>
+      <c r="L118" s="5"/>
       <c r="M118" s="1" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="N118" s="1" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="O118" s="3"/>
       <c r="P118" s="3"/>
@@ -8825,33 +8813,33 @@
         <v>31</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
-        <v>105</v>
+        <v>206</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>48</v>
+        <v>224</v>
       </c>
       <c r="D119" s="2">
-        <v>5011016000113</v>
+        <v>20415295001901</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>29</v>
@@ -8863,10 +8851,10 @@
         <v>46002</v>
       </c>
       <c r="M119" s="1" t="s">
-        <v>110</v>
+        <v>312</v>
       </c>
       <c r="N119" s="1" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="O119" s="3"/>
       <c r="P119" s="3"/>
@@ -8881,30 +8869,30 @@
         <v>31</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>63</v>
+        <v>215</v>
       </c>
       <c r="D120" s="2">
-        <v>577065000102</v>
+        <v>57832654000107</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>309</v>
+        <v>207</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>311</v>
+        <v>23</v>
       </c>
       <c r="I120" s="1" t="s">
         <v>35</v>
@@ -8915,9 +8903,11 @@
       <c r="K120" s="5">
         <v>46002</v>
       </c>
-      <c r="L120" s="5"/>
+      <c r="L120" s="5">
+        <v>46002</v>
+      </c>
       <c r="M120" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="N120" s="1" t="s">
         <v>28</v>
@@ -8935,46 +8925,48 @@
         <v>31</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:20" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>26</v>
+        <v>224</v>
       </c>
       <c r="D121" s="2">
-        <v>51556055000113</v>
+        <v>48227957000100</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>312</v>
+        <v>194</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>73</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>23</v>
+        <v>307</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K121" s="5">
-        <v>46002</v>
-      </c>
-      <c r="L121" s="5"/>
+        <v>45999</v>
+      </c>
+      <c r="L121" s="5">
+        <v>46001</v>
+      </c>
       <c r="M121" s="1" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="N121" s="1" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="O121" s="3"/>
       <c r="P121" s="3"/>
@@ -8991,19 +8983,19 @@
     </row>
     <row r="122" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
-        <v>206</v>
+        <v>42</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>224</v>
+        <v>75</v>
       </c>
       <c r="D122" s="2">
-        <v>20415295001901</v>
+        <v>306597008696</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
       <c r="F122" s="4" t="s">
         <v>315</v>
@@ -9012,10 +9004,10 @@
         <v>73</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>29</v>
@@ -9024,11 +9016,9 @@
         <v>46002</v>
       </c>
       <c r="L122" s="5">
-        <v>46002</v>
-      </c>
-      <c r="M122" s="1" t="s">
-        <v>316</v>
-      </c>
+        <v>46007</v>
+      </c>
+      <c r="M122" s="1"/>
       <c r="N122" s="1" t="s">
         <v>95</v>
       </c>
@@ -9037,7 +9027,9 @@
       <c r="Q122">
         <v>0</v>
       </c>
-      <c r="R122" s="3"/>
+      <c r="R122" s="3" t="s">
+        <v>316</v>
+      </c>
       <c r="S122" s="3" t="s">
         <v>32</v>
       </c>
@@ -9045,24 +9037,24 @@
         <v>31</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:20" ht="58" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="D123" s="2">
-        <v>57832654000107</v>
+        <v>87687489000108</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>207</v>
+        <v>317</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>22</v>
@@ -9071,10 +9063,10 @@
         <v>23</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="K123" s="5">
         <v>46002</v>
@@ -9083,10 +9075,10 @@
         <v>46002</v>
       </c>
       <c r="M123" s="1" t="s">
-        <v>152</v>
+        <v>218</v>
       </c>
       <c r="N123" s="1" t="s">
-        <v>28</v>
+        <v>221</v>
       </c>
       <c r="O123" s="3"/>
       <c r="P123" s="3"/>
@@ -9103,43 +9095,41 @@
     </row>
     <row r="124" spans="1:20" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>224</v>
+        <v>166</v>
       </c>
       <c r="D124" s="2">
-        <v>48227957000100</v>
+        <v>4313357000180</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>194</v>
+        <v>319</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>73</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K124" s="5">
-        <v>45999</v>
-      </c>
-      <c r="L124" s="5">
-        <v>46001</v>
-      </c>
+        <v>46003</v>
+      </c>
+      <c r="L124" s="5"/>
       <c r="M124" s="1" t="s">
-        <v>163</v>
+        <v>288</v>
       </c>
       <c r="N124" s="1" t="s">
         <v>28</v>
@@ -9157,55 +9147,55 @@
         <v>31</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:20" ht="58" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>75</v>
+        <v>224</v>
       </c>
       <c r="D125" s="2">
-        <v>306597008696</v>
+        <v>10337187000177</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>280</v>
+        <v>322</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>73</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K125" s="5">
-        <v>46002</v>
-      </c>
-      <c r="L125" s="5"/>
+        <v>46003</v>
+      </c>
+      <c r="L125" s="5">
+        <v>46003</v>
+      </c>
       <c r="M125" s="1" t="s">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="N125" s="1" t="s">
-        <v>95</v>
+        <v>221</v>
       </c>
       <c r="O125" s="3"/>
       <c r="P125" s="3"/>
       <c r="Q125">
         <v>0</v>
       </c>
-      <c r="R125" s="3" t="s">
-        <v>320</v>
-      </c>
+      <c r="R125" s="3"/>
       <c r="S125" s="3" t="s">
         <v>32</v>
       </c>
@@ -9213,24 +9203,24 @@
         <v>31</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="58" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>136</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>224</v>
+        <v>141</v>
       </c>
       <c r="D126" s="2">
-        <v>87687489000108</v>
+        <v>12607854000110</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>22</v>
@@ -9239,22 +9229,22 @@
         <v>23</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K126" s="5">
-        <v>46002</v>
+        <v>46003</v>
       </c>
       <c r="L126" s="5">
-        <v>46002</v>
+        <v>46003</v>
       </c>
       <c r="M126" s="1" t="s">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="N126" s="1" t="s">
-        <v>221</v>
+        <v>70</v>
       </c>
       <c r="O126" s="3"/>
       <c r="P126" s="3"/>
@@ -9269,46 +9259,48 @@
         <v>31</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="D127" s="2">
-        <v>4313357000180</v>
+        <v>14927153000193</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>325</v>
+        <v>23</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="K127" s="5">
         <v>46003</v>
       </c>
-      <c r="L127" s="5"/>
+      <c r="L127" s="5">
+        <v>46003</v>
+      </c>
       <c r="M127" s="1" t="s">
-        <v>293</v>
+        <v>79</v>
       </c>
       <c r="N127" s="1" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="O127" s="3"/>
       <c r="P127" s="3"/>
@@ -9323,33 +9315,33 @@
         <v>31</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="58" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>136</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>224</v>
+        <v>141</v>
       </c>
       <c r="D128" s="2">
-        <v>10337187000177</v>
+        <v>23045221000181</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>29</v>
@@ -9361,10 +9353,10 @@
         <v>46003</v>
       </c>
       <c r="M128" s="1" t="s">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="N128" s="1" t="s">
-        <v>221</v>
+        <v>70</v>
       </c>
       <c r="O128" s="3"/>
       <c r="P128" s="3"/>
@@ -9390,13 +9382,13 @@
         <v>141</v>
       </c>
       <c r="D129" s="2">
-        <v>12607854000110</v>
+        <v>26200120000398</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>328</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>22</v>
@@ -9446,13 +9438,13 @@
         <v>141</v>
       </c>
       <c r="D130" s="2">
-        <v>14927153000193</v>
+        <v>27478752000119</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>22</v>
@@ -9502,13 +9494,13 @@
         <v>141</v>
       </c>
       <c r="D131" s="2">
-        <v>23045221000181</v>
+        <v>4210075000158</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>22</v>
@@ -9558,13 +9550,13 @@
         <v>141</v>
       </c>
       <c r="D132" s="2">
-        <v>26200120000398</v>
+        <v>5883774000121</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>22</v>
@@ -9614,13 +9606,13 @@
         <v>141</v>
       </c>
       <c r="D133" s="2">
-        <v>27478752000119</v>
+        <v>5924354000146</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>22</v>
@@ -9670,13 +9662,13 @@
         <v>141</v>
       </c>
       <c r="D134" s="2">
-        <v>4210075000158</v>
+        <v>6590459000500</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>22</v>
@@ -9726,13 +9718,13 @@
         <v>141</v>
       </c>
       <c r="D135" s="2">
-        <v>5883774000121</v>
+        <v>7155921000172</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>22</v>
@@ -9782,13 +9774,13 @@
         <v>141</v>
       </c>
       <c r="D136" s="2">
-        <v>5924354000146</v>
+        <v>7306162000363</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>22</v>
@@ -9838,13 +9830,13 @@
         <v>141</v>
       </c>
       <c r="D137" s="2">
-        <v>6590459000500</v>
+        <v>7306162000444</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G137" s="1" t="s">
         <v>22</v>
@@ -9894,13 +9886,13 @@
         <v>141</v>
       </c>
       <c r="D138" s="2">
-        <v>7155921000172</v>
+        <v>7306162000525</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G138" s="1" t="s">
         <v>22</v>
@@ -9950,13 +9942,13 @@
         <v>141</v>
       </c>
       <c r="D139" s="2">
-        <v>7306162000363</v>
+        <v>7306162000606</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>22</v>
@@ -10006,13 +9998,13 @@
         <v>141</v>
       </c>
       <c r="D140" s="2">
-        <v>7306162000444</v>
+        <v>8986525001636</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>22</v>
@@ -10062,13 +10054,13 @@
         <v>141</v>
       </c>
       <c r="D141" s="2">
-        <v>7306162000525</v>
+        <v>9351716000108</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G141" s="1" t="s">
         <v>22</v>
@@ -10112,19 +10104,19 @@
         <v>42</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>141</v>
+        <v>63</v>
       </c>
       <c r="D142" s="2">
-        <v>7306162000606</v>
+        <v>48346249000180</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>339</v>
+        <v>55</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="G142" s="1" t="s">
         <v>22</v>
@@ -10133,10 +10125,10 @@
         <v>23</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K142" s="5">
         <v>46003</v>
@@ -10145,10 +10137,10 @@
         <v>46003</v>
       </c>
       <c r="M142" s="1" t="s">
-        <v>79</v>
+        <v>238</v>
       </c>
       <c r="N142" s="1" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="O142" s="3"/>
       <c r="P142" s="3"/>
@@ -10168,19 +10160,19 @@
         <v>42</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>141</v>
+        <v>341</v>
       </c>
       <c r="D143" s="2">
-        <v>8986525001636</v>
+        <v>13572350000174</v>
       </c>
       <c r="E143" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="F143" s="4" t="s">
         <v>340</v>
-      </c>
-      <c r="F143" s="4" t="s">
-        <v>329</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>22</v>
@@ -10189,10 +10181,10 @@
         <v>23</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K143" s="5">
         <v>46003</v>
@@ -10201,7 +10193,7 @@
         <v>46003</v>
       </c>
       <c r="M143" s="1" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="N143" s="1" t="s">
         <v>70</v>
@@ -10219,48 +10211,46 @@
         <v>31</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
-        <v>42</v>
+        <v>206</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>141</v>
+        <v>345</v>
       </c>
       <c r="D144" s="2">
-        <v>9351716000108</v>
+        <v>27401974000133</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>23</v>
+        <v>344</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>35</v>
+        <v>147</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K144" s="5">
-        <v>46003</v>
-      </c>
-      <c r="L144" s="5">
-        <v>46003</v>
-      </c>
+        <v>46001</v>
+      </c>
+      <c r="L144" s="5"/>
       <c r="M144" s="1" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="N144" s="1" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="O144" s="3"/>
       <c r="P144" s="3"/>
@@ -10275,30 +10265,30 @@
         <v>31</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
-        <v>42</v>
+        <v>206</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>63</v>
+        <v>345</v>
       </c>
       <c r="D145" s="2">
-        <v>48346249000180</v>
+        <v>52213309000163</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>55</v>
+        <v>346</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>23</v>
+        <v>344</v>
       </c>
       <c r="I145" s="1" t="s">
         <v>52</v>
@@ -10307,16 +10297,14 @@
         <v>37</v>
       </c>
       <c r="K145" s="5">
-        <v>46003</v>
-      </c>
-      <c r="L145" s="5">
-        <v>46003</v>
-      </c>
+        <v>46001</v>
+      </c>
+      <c r="L145" s="5"/>
       <c r="M145" s="1" t="s">
-        <v>241</v>
+        <v>27</v>
       </c>
       <c r="N145" s="1" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="O145" s="3"/>
       <c r="P145" s="3"/>
@@ -10331,45 +10319,45 @@
         <v>31</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>345</v>
+        <v>224</v>
       </c>
       <c r="D146" s="2">
-        <v>13572350000174</v>
+        <v>77708576000566</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="K146" s="5">
-        <v>46003</v>
+        <v>46002</v>
       </c>
       <c r="L146" s="5">
         <v>46003</v>
       </c>
       <c r="M146" s="1" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="N146" s="1" t="s">
         <v>70</v>
@@ -10389,44 +10377,46 @@
     </row>
     <row r="147" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
-        <v>206</v>
+        <v>105</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>349</v>
+        <v>224</v>
       </c>
       <c r="D147" s="2">
-        <v>27401974000133</v>
+        <v>12996367000196</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>73</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>348</v>
+        <v>23</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>147</v>
+        <v>52</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="K147" s="5">
         <v>46001</v>
       </c>
-      <c r="L147" s="5"/>
+      <c r="L147" s="5">
+        <v>46001</v>
+      </c>
       <c r="M147" s="1" t="s">
-        <v>144</v>
+        <v>218</v>
       </c>
       <c r="N147" s="1" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="O147" s="3"/>
       <c r="P147" s="3"/>
@@ -10443,44 +10433,44 @@
     </row>
     <row r="148" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
-        <v>206</v>
+        <v>105</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>349</v>
+        <v>224</v>
       </c>
       <c r="D148" s="2">
-        <v>52213309000163</v>
+        <v>16581045002180</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>73</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>348</v>
+        <v>23</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="K148" s="5">
-        <v>46001</v>
+        <v>46003</v>
       </c>
       <c r="L148" s="5"/>
       <c r="M148" s="1" t="s">
-        <v>27</v>
+        <v>228</v>
       </c>
       <c r="N148" s="1" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="O148" s="3"/>
       <c r="P148" s="3"/>
@@ -10495,7 +10485,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="149" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
         <v>105</v>
       </c>
@@ -10506,7 +10496,7 @@
         <v>224</v>
       </c>
       <c r="D149" s="2">
-        <v>77708576000566</v>
+        <v>16581045002261</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>352</v>
@@ -10527,13 +10517,11 @@
         <v>29</v>
       </c>
       <c r="K149" s="5">
-        <v>46002</v>
-      </c>
-      <c r="L149" s="5">
         <v>46003</v>
       </c>
+      <c r="L149" s="5"/>
       <c r="M149" s="1" t="s">
-        <v>110</v>
+        <v>228</v>
       </c>
       <c r="N149" s="1" t="s">
         <v>70</v>
@@ -10551,45 +10539,45 @@
         <v>31</v>
       </c>
     </row>
-    <row r="150" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>224</v>
       </c>
       <c r="D150" s="2">
-        <v>12996367000196</v>
+        <v>87091997000706</v>
       </c>
       <c r="E150" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F150" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="F150" s="4" t="s">
-        <v>355</v>
-      </c>
       <c r="G150" s="1" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="H150" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K150" s="5">
-        <v>46001</v>
+        <v>46003</v>
       </c>
       <c r="L150" s="5">
-        <v>46001</v>
+        <v>46003</v>
       </c>
       <c r="M150" s="1" t="s">
-        <v>218</v>
+        <v>163</v>
       </c>
       <c r="N150" s="1" t="s">
         <v>70</v>
@@ -10607,7 +10595,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="151" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
         <v>105</v>
       </c>
@@ -10618,16 +10606,16 @@
         <v>224</v>
       </c>
       <c r="D151" s="2">
-        <v>16581045002180</v>
+        <v>87091997002245</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>356</v>
+        <v>161</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>23</v>
@@ -10641,9 +10629,11 @@
       <c r="K151" s="5">
         <v>46003</v>
       </c>
-      <c r="L151" s="5"/>
+      <c r="L151" s="5">
+        <v>46003</v>
+      </c>
       <c r="M151" s="1" t="s">
-        <v>228</v>
+        <v>163</v>
       </c>
       <c r="N151" s="1" t="s">
         <v>70</v>
@@ -10661,18 +10651,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="152" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>224</v>
+        <v>26</v>
       </c>
       <c r="D152" s="2">
-        <v>16581045002261</v>
+        <v>38538585000251</v>
       </c>
       <c r="E152" s="3" t="s">
         <v>356</v>
@@ -10681,26 +10671,28 @@
         <v>357</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K152" s="5">
         <v>46003</v>
       </c>
-      <c r="L152" s="5"/>
+      <c r="L152" s="5">
+        <v>46003</v>
+      </c>
       <c r="M152" s="1" t="s">
-        <v>228</v>
+        <v>44</v>
       </c>
       <c r="N152" s="1" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="O152" s="3"/>
       <c r="P152" s="3"/>
@@ -10717,22 +10709,22 @@
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>224</v>
+        <v>141</v>
       </c>
       <c r="D153" s="2">
-        <v>87091997000706</v>
+        <v>3853855000251</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>161</v>
+        <v>358</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G153" s="1" t="s">
         <v>22</v>
@@ -10744,7 +10736,7 @@
         <v>35</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K153" s="5">
         <v>46003</v>
@@ -10753,10 +10745,10 @@
         <v>46003</v>
       </c>
       <c r="M153" s="1" t="s">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="N153" s="1" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="O153" s="3"/>
       <c r="P153" s="3"/>
@@ -10773,46 +10765,44 @@
     </row>
     <row r="154" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>224</v>
+        <v>362</v>
       </c>
       <c r="D154" s="2">
-        <v>87091997002245</v>
+        <v>2793748000114</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>161</v>
+        <v>360</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>23</v>
+        <v>182</v>
       </c>
       <c r="I154" s="1" t="s">
         <v>35</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K154" s="5">
-        <v>46003</v>
-      </c>
-      <c r="L154" s="5">
-        <v>46003</v>
-      </c>
+        <v>46001</v>
+      </c>
+      <c r="L154" s="5"/>
       <c r="M154" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="N154" s="1" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="O154" s="3"/>
       <c r="P154" s="3"/>
@@ -10827,55 +10817,55 @@
         <v>31</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:20" ht="58" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="D155" s="2">
-        <v>38538585000251</v>
+        <v>51312697000177</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K155" s="5">
-        <v>46003</v>
-      </c>
-      <c r="L155" s="5">
-        <v>46003</v>
-      </c>
+        <v>45999</v>
+      </c>
+      <c r="L155" s="5"/>
       <c r="M155" s="1" t="s">
-        <v>44</v>
+        <v>156</v>
       </c>
       <c r="N155" s="1" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="O155" s="3"/>
       <c r="P155" s="3"/>
       <c r="Q155">
         <v>0</v>
       </c>
-      <c r="R155" s="3"/>
+      <c r="R155" s="3" t="s">
+        <v>365</v>
+      </c>
       <c r="S155" s="3" t="s">
         <v>32</v>
       </c>
@@ -10891,22 +10881,22 @@
         <v>54</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>141</v>
+        <v>58</v>
       </c>
       <c r="D156" s="2">
-        <v>3853855000251</v>
+        <v>48346249000180</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G156" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="I156" s="1" t="s">
         <v>35</v>
@@ -10915,16 +10905,16 @@
         <v>37</v>
       </c>
       <c r="K156" s="5">
-        <v>46003</v>
+        <v>46006</v>
       </c>
       <c r="L156" s="5">
-        <v>46003</v>
+        <v>46006</v>
       </c>
       <c r="M156" s="1" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="N156" s="1" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="O156" s="3"/>
       <c r="P156" s="3"/>
@@ -10941,28 +10931,28 @@
     </row>
     <row r="157" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>366</v>
+        <v>106</v>
       </c>
       <c r="D157" s="2">
-        <v>2793748000114</v>
+        <v>32249473000113</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>182</v>
+        <v>23</v>
       </c>
       <c r="I157" s="1" t="s">
         <v>35</v>
@@ -10971,11 +10961,13 @@
         <v>37</v>
       </c>
       <c r="K157" s="5">
-        <v>46001</v>
-      </c>
-      <c r="L157" s="5"/>
+        <v>46006</v>
+      </c>
+      <c r="L157" s="5">
+        <v>46006</v>
+      </c>
       <c r="M157" s="1" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="N157" s="1" t="s">
         <v>28</v>
@@ -10993,30 +10985,30 @@
         <v>31</v>
       </c>
     </row>
-    <row r="158" spans="1:20" ht="58" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>60</v>
+        <v>246</v>
       </c>
       <c r="D158" s="2">
-        <v>51312697000177</v>
+        <v>12090263000118</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="I158" s="1" t="s">
         <v>35</v>
@@ -11025,11 +11017,13 @@
         <v>37</v>
       </c>
       <c r="K158" s="5">
-        <v>45999</v>
-      </c>
-      <c r="L158" s="5"/>
+        <v>46006</v>
+      </c>
+      <c r="L158" s="5">
+        <v>46006</v>
+      </c>
       <c r="M158" s="1" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="N158" s="1" t="s">
         <v>28</v>
@@ -11039,9 +11033,7 @@
       <c r="Q158">
         <v>0</v>
       </c>
-      <c r="R158" s="3" t="s">
-        <v>369</v>
-      </c>
+      <c r="R158" s="3"/>
       <c r="S158" s="3" t="s">
         <v>32</v>
       </c>
@@ -11051,44 +11043,46 @@
     </row>
     <row r="159" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>193</v>
+        <v>272</v>
       </c>
       <c r="D159" s="2">
-        <v>3125831000501</v>
+        <v>91411256004800</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>192</v>
+        <v>23</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="J159" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="K159" s="5">
-        <v>45988</v>
-      </c>
-      <c r="L159" s="5"/>
+        <v>46006</v>
+      </c>
+      <c r="L159" s="5">
+        <v>46006</v>
+      </c>
       <c r="M159" s="1" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="N159" s="1" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="O159" s="3"/>
       <c r="P159" s="3"/>
@@ -11103,33 +11097,33 @@
         <v>31</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c r="D160" s="2">
-        <v>48346249000180</v>
+        <v>45431429000171</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>35</v>
+        <v>147</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>37</v>
@@ -11137,14 +11131,12 @@
       <c r="K160" s="5">
         <v>46006</v>
       </c>
-      <c r="L160" s="5">
-        <v>46006</v>
-      </c>
+      <c r="L160" s="5"/>
       <c r="M160" s="1" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="N160" s="1" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="O160" s="3"/>
       <c r="P160" s="3"/>
@@ -11159,24 +11151,24 @@
         <v>31</v>
       </c>
     </row>
-    <row r="161" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="D161" s="2">
-        <v>32249473000113</v>
+        <v>77875383000176</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G161" s="1" t="s">
         <v>22</v>
@@ -11197,7 +11189,7 @@
         <v>46006</v>
       </c>
       <c r="M161" s="1" t="s">
-        <v>107</v>
+        <v>228</v>
       </c>
       <c r="N161" s="1" t="s">
         <v>28</v>
@@ -11215,48 +11207,42 @@
         <v>31</v>
       </c>
     </row>
-    <row r="162" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
-        <v>124</v>
+        <v>206</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>249</v>
+        <v>106</v>
       </c>
       <c r="D162" s="2">
-        <v>12090263000118</v>
-      </c>
-      <c r="E162" s="3" t="s">
-        <v>376</v>
-      </c>
+        <v>61432477000130</v>
+      </c>
+      <c r="E162" s="3"/>
       <c r="F162" s="4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="K162" s="5">
         <v>46006</v>
       </c>
-      <c r="L162" s="5">
-        <v>46006</v>
-      </c>
-      <c r="M162" s="1" t="s">
-        <v>170</v>
-      </c>
+      <c r="L162" s="5"/>
+      <c r="M162" s="1"/>
       <c r="N162" s="1" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="O162" s="3"/>
       <c r="P162" s="3"/>
@@ -11273,43 +11259,41 @@
     </row>
     <row r="163" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
-        <v>105</v>
+        <v>206</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>277</v>
+        <v>193</v>
       </c>
       <c r="D163" s="2">
-        <v>91411256004800</v>
+        <v>78901915001722</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="H163" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>52</v>
+        <v>147</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K163" s="5">
         <v>46006</v>
       </c>
-      <c r="L163" s="5">
-        <v>46006</v>
-      </c>
+      <c r="L163" s="5"/>
       <c r="M163" s="1" t="s">
-        <v>218</v>
+        <v>167</v>
       </c>
       <c r="N163" s="1" t="s">
         <v>28</v>
@@ -11327,33 +11311,33 @@
         <v>31</v>
       </c>
     </row>
-    <row r="164" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:20" ht="58" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>128</v>
+        <v>215</v>
       </c>
       <c r="D164" s="2">
-        <v>45431429000171</v>
+        <v>43180360000125</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G164" s="1" t="s">
         <v>73</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>23</v>
+        <v>383</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>147</v>
+        <v>35</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>37</v>
@@ -11363,10 +11347,10 @@
       </c>
       <c r="L164" s="5"/>
       <c r="M164" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="N164" s="1" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="O164" s="3"/>
       <c r="P164" s="3"/>
@@ -11383,28 +11367,28 @@
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>141</v>
+        <v>63</v>
       </c>
       <c r="D165" s="2">
-        <v>77875383000176</v>
+        <v>60788466000125</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="I165" s="1" t="s">
         <v>35</v>
@@ -11416,10 +11400,10 @@
         <v>46006</v>
       </c>
       <c r="L165" s="5">
-        <v>46006</v>
+        <v>46007</v>
       </c>
       <c r="M165" s="1" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="N165" s="1" t="s">
         <v>28</v>
@@ -11439,38 +11423,42 @@
     </row>
     <row r="166" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
-        <v>206</v>
+        <v>42</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D166" s="2">
-        <v>61432477000130</v>
-      </c>
-      <c r="E166" s="3"/>
+        <v>7566687000176</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>386</v>
+      </c>
       <c r="F166" s="4" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="H166" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I166" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="I166" s="1"/>
       <c r="J166" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K166" s="5">
-        <v>46006</v>
-      </c>
-      <c r="L166" s="5"/>
-      <c r="M166" s="1"/>
+        <v>46007</v>
+      </c>
+      <c r="L166" s="5">
+        <v>46007</v>
+      </c>
+      <c r="M166" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="N166" s="1" t="s">
         <v>70</v>
       </c>
@@ -11487,46 +11475,48 @@
         <v>31</v>
       </c>
     </row>
-    <row r="167" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
-        <v>206</v>
+        <v>42</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>193</v>
+        <v>63</v>
       </c>
       <c r="D167" s="2">
-        <v>78901915001722</v>
+        <v>306597003708</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="H167" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>147</v>
+        <v>35</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K167" s="5">
-        <v>46006</v>
-      </c>
-      <c r="L167" s="5"/>
+        <v>46007</v>
+      </c>
+      <c r="L167" s="5">
+        <v>46007</v>
+      </c>
       <c r="M167" s="1" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="N167" s="1" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="O167" s="3"/>
       <c r="P167" s="3"/>
@@ -11541,30 +11531,30 @@
         <v>31</v>
       </c>
     </row>
-    <row r="168" spans="1:20" ht="58" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>215</v>
+        <v>63</v>
       </c>
       <c r="D168" s="2">
-        <v>43180360000125</v>
+        <v>306597007703</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>389</v>
+        <v>90</v>
       </c>
       <c r="I168" s="1" t="s">
         <v>35</v>
@@ -11573,14 +11563,16 @@
         <v>37</v>
       </c>
       <c r="K168" s="5">
-        <v>46006</v>
-      </c>
-      <c r="L168" s="5"/>
+        <v>46007</v>
+      </c>
+      <c r="L168" s="5">
+        <v>46007</v>
+      </c>
       <c r="M168" s="1" t="s">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="N168" s="1" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="O168" s="3"/>
       <c r="P168" s="3"/>
@@ -11606,16 +11598,16 @@
         <v>63</v>
       </c>
       <c r="D169" s="2">
-        <v>60788466000125</v>
+        <v>306597007967</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F169" s="4" t="s">
         <v>391</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="H169" s="1" t="s">
         <v>90</v>
@@ -11627,16 +11619,16 @@
         <v>37</v>
       </c>
       <c r="K169" s="5">
-        <v>46006</v>
+        <v>46007</v>
       </c>
       <c r="L169" s="5">
         <v>46007</v>
       </c>
       <c r="M169" s="1" t="s">
-        <v>241</v>
+        <v>44</v>
       </c>
       <c r="N169" s="1" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="O169" s="3"/>
       <c r="P169" s="3"/>
@@ -11648,228 +11640,6 @@
         <v>32</v>
       </c>
       <c r="T169" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A170" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D170" s="2">
-        <v>7566687000176</v>
-      </c>
-      <c r="E170" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="F170" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="G170" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H170" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I170" s="1"/>
-      <c r="J170" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K170" s="5">
-        <v>46007</v>
-      </c>
-      <c r="L170" s="5">
-        <v>46007</v>
-      </c>
-      <c r="M170" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="O170" s="3"/>
-      <c r="P170" s="3"/>
-      <c r="Q170">
-        <v>0</v>
-      </c>
-      <c r="R170" s="3"/>
-      <c r="S170" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T170" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A171" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D171" s="2">
-        <v>306597003708</v>
-      </c>
-      <c r="E171" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="F171" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="G171" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H171" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I171" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J171" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K171" s="5">
-        <v>46007</v>
-      </c>
-      <c r="L171" s="5">
-        <v>46007</v>
-      </c>
-      <c r="M171" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="N171" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="O171" s="3"/>
-      <c r="P171" s="3"/>
-      <c r="Q171">
-        <v>0</v>
-      </c>
-      <c r="R171" s="3"/>
-      <c r="S171" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T171" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A172" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D172" s="2">
-        <v>306597007703</v>
-      </c>
-      <c r="E172" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="F172" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="G172" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H172" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I172" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J172" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K172" s="5">
-        <v>46007</v>
-      </c>
-      <c r="L172" s="5">
-        <v>46007</v>
-      </c>
-      <c r="M172" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N172" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="O172" s="3"/>
-      <c r="P172" s="3"/>
-      <c r="Q172">
-        <v>0</v>
-      </c>
-      <c r="R172" s="3"/>
-      <c r="S172" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T172" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A173" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D173" s="2">
-        <v>306597007967</v>
-      </c>
-      <c r="E173" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="F173" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="G173" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H173" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I173" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J173" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K173" s="5">
-        <v>46007</v>
-      </c>
-      <c r="L173" s="5">
-        <v>46007</v>
-      </c>
-      <c r="M173" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N173" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="O173" s="3"/>
-      <c r="P173" s="3"/>
-      <c r="Q173">
-        <v>0</v>
-      </c>
-      <c r="R173" s="3"/>
-      <c r="S173" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T173" s="3" t="s">
         <v>31</v>
       </c>
     </row>

--- a/base_hub_github.xlsx
+++ b/base_hub_github.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupoultracloud-my.sharepoint.com/personal/thiago_junior_ipiranga_ipiranga/Documents/Área de Trabalho/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{7DAF6DB1-3B07-4870-8D9F-0AC5A328EA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7F02D56-3066-44CF-A3AA-C66AD3274298}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{06386613-B999-4B99-8B1C-8550826895FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{43F746D8-4F7B-48D1-8B59-5CE9F4D180EA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{33F672BA-4EC1-43EE-9459-D6FE3802E408}"/>
   </bookViews>
   <sheets>
     <sheet name="query" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="query__38" localSheetId="0" hidden="1">query!$A$1:$T$169</definedName>
+    <definedName name="query__39" localSheetId="0" hidden="1">query!$A$1:$T$168</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -24,14 +24,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{6DEA3883-6B17-4D4E-AF9E-84F12401CA19}" odcFile="C:\Users\thiago.junior\Downloads\query (38).iqy" keepAlive="1" name="query (38)" type="5" refreshedVersion="8" minRefreshableVersion="3" saveData="1">
+  <connection id="1" xr16:uid="{0BAE7429-1F08-4636-9506-66AD77EDA63D}" odcFile="C:\Users\thiago.junior\Downloads\query (39).iqy" keepAlive="1" name="query (39)" type="5" refreshedVersion="8" minRefreshableVersion="3" saveData="1">
     <dbPr connection="Provider=Microsoft.Office.List.OLEDB.2.0;Data Source=&quot;&quot;;ApplicationName=Excel;Version=12.0.0.0" command="&lt;LIST&gt;&lt;VIEWGUID&gt;A45175CA-9778-441D-B066-D8555F7DBBE4&lt;/VIEWGUID&gt;&lt;LISTNAME&gt;06be0e4e-018b-4cef-a562-4db2a9a684e1&lt;/LISTNAME&gt;&lt;LISTWEB&gt;https://grupoultracloud-my.sharepoint.com/personal/roberta_rocha_ipiranga_ipiranga/_vti_bin&lt;/LISTWEB&gt;&lt;LISTSUBWEB&gt;&lt;/LISTSUBWEB&gt;&lt;ROOTFOLDER&gt;&lt;/ROOTFOLDER&gt;&lt;/LIST&gt;" commandType="5"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2188" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2188" uniqueCount="394">
   <si>
     <t>Título</t>
   </si>
@@ -313,9 +313,15 @@
     <t>G.N. Rodovia Rio De Janeiro</t>
   </si>
   <si>
+    <t>Autoposto</t>
+  </si>
+  <si>
     <t>Revendedora recla de vendas estornadas devido instabilidade no APP</t>
   </si>
   <si>
+    <t>G.N. Urbano Campo Grande</t>
+  </si>
+  <si>
     <t>Posto Ilha Guaruja Ltda</t>
   </si>
   <si>
@@ -751,9 +757,6 @@
     <t xml:space="preserve">Ana Carolina solicita alteração de domicílio bancário </t>
   </si>
   <si>
-    <t>G.N. Urbano Campo Grande</t>
-  </si>
-  <si>
     <t>AUTO POSTO PX LTDA</t>
   </si>
   <si>
@@ -811,6 +814,9 @@
     <t>Em contato com a Rede para apresentar a solução Conecta, o posto informou que está avaliando a possibilidade de adesão. No entanto, não há previsão para implementação, considerando que estamos no final do ano e não desejam comprometer o atendimento com demandas técnicas neste período.</t>
   </si>
   <si>
+    <t>Auto Posto Eco Gas Ltda - Me</t>
+  </si>
+  <si>
     <t>Apresentação do Conecta Rede avaliando a implementação ( ação final de ano reversão dos postos  com sistema homolog porém sem conecta implementado)</t>
   </si>
   <si>
@@ -1169,9 +1175,6 @@
   </si>
   <si>
     <t>Revendedora Diulia, entrou em contato para tirar dúvidas sobre o KMV na AM PM.</t>
-  </si>
-  <si>
-    <t>Ajuste de lat-long. Ajustado 9, pendente de localização do revendendor, 8.</t>
   </si>
   <si>
     <t>Grupo Pelanda</t>
@@ -1829,7 +1832,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="query (38)" backgroundRefresh="0" connectionId="1" xr16:uid="{C0BF3816-DC20-4147-B4FB-45374EB3E0F9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="query (39)" backgroundRefresh="0" connectionId="1" xr16:uid="{7B1C84DD-04AA-4989-8E74-3EB97C83044D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="21">
     <queryTableFields count="20">
       <queryTableField id="10" name="Analista" tableColumnId="1"/>
@@ -1858,29 +1861,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7427FC87-09AE-45A8-B176-53CB93348968}" name="Tabela_query__38" displayName="Tabela_query__38" ref="A1:T169" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:T169" xr:uid="{7427FC87-09AE-45A8-B176-53CB93348968}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C4C6FA72-CB4B-42D3-A42C-F800515B065A}" name="Tabela_query__39" displayName="Tabela_query__39" ref="A1:T168" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:T168" xr:uid="{C4C6FA72-CB4B-42D3-A42C-F800515B065A}"/>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{780B570A-FA9E-4541-8AD5-7B91B224B0D0}" uniqueName="Analista" name="Analista" queryTableFieldId="10" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{DFEAE759-0F9C-47F3-8295-C0C8AE39F724}" uniqueName="SubClassifica_x005f_x00e7__x005f_x00e3_o" name="Sub Classificação" queryTableFieldId="15" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{3CFA0379-BE38-45AD-8937-FEB03A014763}" uniqueName="Motivo" name="Motivo" queryTableFieldId="11" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{449ABF27-211D-431D-AA8F-17A9784168E4}" uniqueName="CNPJ" name="CNPJ" queryTableFieldId="3" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{B932CB22-D6BE-4BD2-9592-E8CE3AEB19AC}" uniqueName="Raz_x005f_x00e3_oSocial" name="Razão Social" queryTableFieldId="4" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{B8E91C7B-0792-41A2-95A1-83FD07D01E7C}" uniqueName="Descri_x005f_x00e7__x005f_x00e3_o" name="Descrição" queryTableFieldId="5" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{94C54952-7DA3-443C-A700-3C9A734F0D29}" uniqueName="FCR" name="FCR" queryTableFieldId="7" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{FE469B50-0F57-40DF-8C70-63DA0D33B309}" uniqueName="Origemdocontato" name="Área responsável pela resolução" queryTableFieldId="8" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{483D215B-9365-4339-8297-DB23619AF80D}" uniqueName="Origemdocontato0" name="Origem do contato" queryTableFieldId="9" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{BDE90B05-7ECB-45EE-81E1-121C26218462}" uniqueName="Tipodecontato" name="Tipo de contato" queryTableFieldId="14" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{CE6A3259-B147-4888-9A05-1BDFF9AA018D}" uniqueName="Data" name="Data Inicio" queryTableFieldId="2" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{A5FA24B4-8ADD-4B6D-BE77-51CB39438AC8}" uniqueName="DataFim" name="Data Fim" queryTableFieldId="6" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{B1E80FB9-36AF-4C0D-8C6D-F657269274A8}" uniqueName="GN" name="GN" queryTableFieldId="12" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{C24CC68F-F24D-4471-AE8E-04C8FDDF16C7}" uniqueName="Solicitante" name="Solicitante" queryTableFieldId="13" dataDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{5FBD6373-C448-470B-9E3E-48312B936C4B}" uniqueName="Title" name="Título" queryTableFieldId="1" dataDxfId="4"/>
-    <tableColumn id="16" xr3:uid="{B4108318-6744-46F5-A8C2-83D1B90A18A3}" uniqueName="_x005f_x0024_Resources_x005f_x003a_core_x002" name="Status de liberação" queryTableFieldId="16" dataDxfId="3"/>
-    <tableColumn id="17" xr3:uid="{94087C1B-A3C4-4F75-A0D4-411EE605643F}" uniqueName="_ApprovalStatus" name="Status de aprovação" queryTableFieldId="17"/>
-    <tableColumn id="18" xr3:uid="{80A9EEAC-433D-42B6-8DFD-A1A36E2ACD3C}" uniqueName="N_x005f_x00fa_merodoChamado" name="Número do Chamado Automação" queryTableFieldId="18" dataDxfId="2"/>
-    <tableColumn id="19" xr3:uid="{DB3D3F90-F70C-4232-A557-EA789CBB87C0}" uniqueName="FSObjType" name="Tipo de Item" queryTableFieldId="20" dataDxfId="1"/>
-    <tableColumn id="20" xr3:uid="{DB497FEE-E16C-4ACB-832D-BEA778B12D1D}" uniqueName="FileDirRef" name="Caminho" queryTableFieldId="19" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{294303A1-9B66-467E-ABA9-7862303A8B96}" uniqueName="Analista" name="Analista" queryTableFieldId="10" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{5D51EF8D-4691-4A51-B48A-7E7CB8DAFE8F}" uniqueName="SubClassifica_x005f_x00e7__x005f_x00e3_o" name="Sub Classificação" queryTableFieldId="15" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{3485D605-4252-4746-BFF4-200EB0C8DAFB}" uniqueName="Motivo" name="Motivo" queryTableFieldId="11" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{152E0138-A2FD-49A8-AC5E-962D0A917816}" uniqueName="CNPJ" name="CNPJ" queryTableFieldId="3" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{46646F19-F66D-470E-8BA9-5CC9BC9B82E0}" uniqueName="Raz_x005f_x00e3_oSocial" name="Razão Social" queryTableFieldId="4" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{80EB0AEE-A7B1-4D4F-93DE-DFF90009496C}" uniqueName="Descri_x005f_x00e7__x005f_x00e3_o" name="Descrição" queryTableFieldId="5" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{61CDEDFD-4377-40B0-84B1-613F29E3E7E8}" uniqueName="FCR" name="FCR" queryTableFieldId="7" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{E6901CB7-2E71-4F0A-8633-EFABFF1AEBF9}" uniqueName="Origemdocontato" name="Área responsável pela resolução" queryTableFieldId="8" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{FF526799-3ECA-495C-8296-72A5DCA76E2F}" uniqueName="Origemdocontato0" name="Origem do contato" queryTableFieldId="9" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{6028271A-F166-42EB-8272-A1DDBA49219D}" uniqueName="Tipodecontato" name="Tipo de contato" queryTableFieldId="14" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{715FDAF8-5DC1-4BFA-8C30-329A895211A2}" uniqueName="Data" name="Data Inicio" queryTableFieldId="2" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{77075244-3ECC-41DF-91A5-570328FF65DE}" uniqueName="DataFim" name="Data Fim" queryTableFieldId="6" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{E8F0E8F8-CBAA-42D2-8C2E-3CD952EC6400}" uniqueName="GN" name="GN" queryTableFieldId="12" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{D39D7FAB-4CBA-4BE4-A190-AA762AB94C31}" uniqueName="Solicitante" name="Solicitante" queryTableFieldId="13" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{449B802C-04F5-42B2-B924-220E5F35CFBF}" uniqueName="Title" name="Título" queryTableFieldId="1" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{21CFD53A-A2FC-43DD-8A1E-6775F4DEDAC9}" uniqueName="_x005f_x0024_Resources_x005f_x003a_core_x002" name="Status de liberação" queryTableFieldId="16" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{F7306821-AFFC-4731-82D1-744D417C4EB0}" uniqueName="_ApprovalStatus" name="Status de aprovação" queryTableFieldId="17"/>
+    <tableColumn id="18" xr3:uid="{3FED085D-572E-4BDB-888A-8DC64CCE2421}" uniqueName="N_x005f_x00fa_merodoChamado" name="Número do Chamado Automação" queryTableFieldId="18" dataDxfId="2"/>
+    <tableColumn id="19" xr3:uid="{5EEE81CE-5B55-4529-9BE4-9E7981BABDEA}" uniqueName="FSObjType" name="Tipo de Item" queryTableFieldId="20" dataDxfId="1"/>
+    <tableColumn id="20" xr3:uid="{BBF69376-559B-4172-9671-74DA8780450A}" uniqueName="FileDirRef" name="Caminho" queryTableFieldId="19" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2202,11 +2205,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2838CAB-0674-4631-B995-FA93ACC3123F}">
-  <dimension ref="A1:T169"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDB5FCC4-0163-4728-A2CB-446E7D7874EF}">
+  <dimension ref="A1:T168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:T168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3428,9 +3431,11 @@
       <c r="D22" s="2">
         <v>2394473000146</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="F22" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>22</v>
@@ -3450,7 +3455,9 @@
       <c r="L22" s="5">
         <v>45993</v>
       </c>
-      <c r="M22" s="1"/>
+      <c r="M22" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="N22" s="1" t="s">
         <v>28</v>
       </c>
@@ -3481,10 +3488,10 @@
         <v>62236617000168</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>22</v>
@@ -3508,7 +3515,7 @@
         <v>49</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
@@ -3531,16 +3538,16 @@
         <v>54</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D24" s="2">
         <v>9241803394</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>22</v>
@@ -3587,16 +3594,16 @@
         <v>54</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D25" s="2">
         <v>2394473000146</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>22</v>
@@ -3620,7 +3627,7 @@
         <v>44</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
@@ -3643,16 +3650,16 @@
         <v>30</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D26" s="2">
         <v>2394473000146</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>22</v>
@@ -3693,22 +3700,22 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D27" s="2">
         <v>3331129000170</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>22</v>
@@ -3729,10 +3736,10 @@
         <v>45993</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
@@ -3749,7 +3756,7 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>45</v>
@@ -3761,10 +3768,10 @@
         <v>77817583000172</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>73</v>
@@ -3785,7 +3792,7 @@
         <v>45993</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>28</v>
@@ -3817,10 +3824,10 @@
         <v>51829602000197</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>22</v>
@@ -3867,22 +3874,22 @@
         <v>45</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D30" s="2">
         <v>18359457000152</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>35</v>
@@ -3929,10 +3936,10 @@
         <v>29827042000182</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>22</v>
@@ -3973,22 +3980,22 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D32" s="2">
         <v>3331129000170</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>22</v>
@@ -4009,10 +4016,10 @@
         <v>45993</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
@@ -4029,7 +4036,7 @@
     </row>
     <row r="33" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>38</v>
@@ -4041,10 +4048,10 @@
         <v>11519114000169</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>73</v>
@@ -4065,7 +4072,7 @@
         <v>45994</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>28</v>
@@ -4085,22 +4092,22 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D34" s="2">
         <v>19770536000114</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>73</v>
@@ -4121,7 +4128,7 @@
         <v>45992</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>28</v>
@@ -4141,22 +4148,22 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D35" s="2">
         <v>27394378000173</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>22</v>
@@ -4177,7 +4184,7 @@
         <v>45993</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="N35" s="1" t="s">
         <v>28</v>
@@ -4197,10 +4204,10 @@
     </row>
     <row r="36" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>26</v>
@@ -4209,10 +4216,10 @@
         <v>46892512000100</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>22</v>
@@ -4233,7 +4240,7 @@
         <v>45994</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>70</v>
@@ -4259,16 +4266,16 @@
         <v>54</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D37" s="2">
         <v>4978803000176</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>22</v>
@@ -4288,7 +4295,9 @@
       <c r="L37" s="5">
         <v>45994</v>
       </c>
-      <c r="M37" s="1"/>
+      <c r="M37" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="N37" s="1" t="s">
         <v>53</v>
       </c>
@@ -4313,16 +4322,16 @@
         <v>54</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D38" s="2">
         <v>23467987600012</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>22</v>
@@ -4369,16 +4378,16 @@
         <v>54</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D39" s="2">
         <v>19497817000107</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>22</v>
@@ -4399,10 +4408,10 @@
         <v>45994</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
@@ -4431,10 +4440,10 @@
         <v>2279387000192</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>73</v>
@@ -4443,7 +4452,7 @@
         <v>74</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>37</v>
@@ -4478,7 +4487,7 @@
         <v>42</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>26</v>
@@ -4487,10 +4496,10 @@
         <v>27192758000206</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>22</v>
@@ -4543,10 +4552,10 @@
         <v>57717655000100</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>22</v>
@@ -4567,7 +4576,7 @@
         <v>45995</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="N42" s="1" t="s">
         <v>28</v>
@@ -4587,22 +4596,22 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D43" s="2">
         <v>7396700000196</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>73</v>
@@ -4623,7 +4632,7 @@
         <v>45995</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="N43" s="1" t="s">
         <v>28</v>
@@ -4643,22 +4652,22 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D44" s="2">
         <v>45761173000160</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>22</v>
@@ -4679,7 +4688,7 @@
         <v>45995</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="N44" s="1" t="s">
         <v>53</v>
@@ -4699,22 +4708,22 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D45" s="2">
         <v>45761173000160</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>22</v>
@@ -4735,7 +4744,7 @@
         <v>45995</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="N45" s="1" t="s">
         <v>53</v>
@@ -4755,7 +4764,7 @@
     </row>
     <row r="46" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>45</v>
@@ -4767,10 +4776,10 @@
         <v>87091997000110</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>22</v>
@@ -4791,7 +4800,7 @@
         <v>45995</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N46" s="1" t="s">
         <v>28</v>
@@ -4811,22 +4820,22 @@
     </row>
     <row r="47" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D47" s="2">
         <v>80979107000162</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>73</v>
@@ -4847,10 +4856,10 @@
         <v>45995</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
@@ -4867,7 +4876,7 @@
     </row>
     <row r="48" spans="1:20" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>45</v>
@@ -4879,10 +4888,10 @@
         <v>2234943001429</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>73</v>
@@ -4891,7 +4900,7 @@
         <v>74</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>37</v>
@@ -4903,7 +4912,7 @@
         <v>46006</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="N48" s="1" t="s">
         <v>53</v>
@@ -4929,16 +4938,16 @@
         <v>38</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D49" s="2">
         <v>61620792000191</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>22</v>
@@ -4958,7 +4967,9 @@
       <c r="L49" s="5">
         <v>45995</v>
       </c>
-      <c r="M49" s="1"/>
+      <c r="M49" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="N49" s="1" t="s">
         <v>28</v>
       </c>
@@ -4989,10 +5000,10 @@
         <v>12645422000101</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>73</v>
@@ -5033,7 +5044,7 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>38</v>
@@ -5045,10 +5056,10 @@
         <v>9164791001646</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>22</v>
@@ -5069,7 +5080,7 @@
         <v>45995</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N51" s="1" t="s">
         <v>28</v>
@@ -5089,7 +5100,7 @@
     </row>
     <row r="52" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>45</v>
@@ -5101,16 +5112,16 @@
         <v>72374952000186</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>73</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>35</v>
@@ -5125,7 +5136,7 @@
         <v>46003</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="N52" s="1" t="s">
         <v>28</v>
@@ -5157,16 +5168,16 @@
         <v>12074139000169</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>35</v>
@@ -5201,7 +5212,7 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>45</v>
@@ -5213,10 +5224,10 @@
         <v>5815156000144</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>73</v>
@@ -5237,7 +5248,7 @@
         <v>45996</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N54" s="1" t="s">
         <v>28</v>
@@ -5257,22 +5268,22 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D55" s="2">
         <v>55699369000126</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>22</v>
@@ -5293,7 +5304,7 @@
         <v>45996</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N55" s="1"/>
       <c r="O55" s="3"/>
@@ -5326,7 +5337,7 @@
         <v>20</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>73</v>
@@ -5346,7 +5357,9 @@
       <c r="L56" s="5">
         <v>45996</v>
       </c>
-      <c r="M56" s="1"/>
+      <c r="M56" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="N56" s="1" t="s">
         <v>28</v>
       </c>
@@ -5371,16 +5384,16 @@
         <v>54</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D57" s="2">
         <v>30455952000160</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>73</v>
@@ -5419,28 +5432,28 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D58" s="2">
         <v>29404716000306</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>73</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>35</v>
@@ -5454,7 +5467,9 @@
       <c r="L58" s="5">
         <v>46000</v>
       </c>
-      <c r="M58" s="1"/>
+      <c r="M58" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="N58" s="1" t="s">
         <v>28</v>
       </c>
@@ -5473,22 +5488,22 @@
     </row>
     <row r="59" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D59" s="2">
         <v>48227957000100</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>22</v>
@@ -5509,10 +5524,10 @@
         <v>45996</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O59" s="3"/>
       <c r="P59" s="3"/>
@@ -5529,7 +5544,7 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>45</v>
@@ -5541,10 +5556,10 @@
         <v>47545858000103</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>22</v>
@@ -5565,7 +5580,7 @@
         <v>45994</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="N60" s="1" t="s">
         <v>28</v>
@@ -5585,10 +5600,10 @@
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>26</v>
@@ -5597,10 +5612,10 @@
         <v>52275228000198</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>73</v>
@@ -5621,7 +5636,7 @@
         <v>45996</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="N61" s="1" t="s">
         <v>28</v>
@@ -5653,10 +5668,10 @@
         <v>37654527000140</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>22</v>
@@ -5703,16 +5718,16 @@
         <v>30</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D63" s="2">
         <v>45132315000120</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>22</v>
@@ -5753,7 +5768,7 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>54</v>
@@ -5765,10 +5780,10 @@
         <v>80979107000162</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>22</v>
@@ -5789,10 +5804,10 @@
         <v>45996</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O64" s="3"/>
       <c r="P64" s="3"/>
@@ -5815,16 +5830,16 @@
         <v>54</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D65" s="2">
         <v>57832654000107</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>22</v>
@@ -5845,7 +5860,7 @@
         <v>45999</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="N65" s="1" t="s">
         <v>28</v>
@@ -5865,22 +5880,22 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D66" s="2">
         <v>24894843000147</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>22</v>
@@ -5921,7 +5936,7 @@
     </row>
     <row r="67" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>45</v>
@@ -5933,10 +5948,10 @@
         <v>298631000139</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>73</v>
@@ -5957,7 +5972,7 @@
         <v>46000</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="N67" s="1" t="s">
         <v>28</v>
@@ -5983,16 +5998,16 @@
         <v>54</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D68" s="2">
         <v>48055460000143</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>22</v>
@@ -6013,7 +6028,7 @@
         <v>45999</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N68" s="1" t="s">
         <v>28</v>
@@ -6033,10 +6048,10 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>26</v>
@@ -6045,10 +6060,10 @@
         <v>87687489000108</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>22</v>
@@ -6057,7 +6072,7 @@
         <v>23</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>29</v>
@@ -6069,7 +6084,7 @@
         <v>45999</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N69" s="1" t="s">
         <v>70</v>
@@ -6089,7 +6104,7 @@
     </row>
     <row r="70" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>54</v>
@@ -6101,10 +6116,10 @@
         <v>1991461002180</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>22</v>
@@ -6125,10 +6140,10 @@
         <v>45999</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="O70" s="3"/>
       <c r="P70" s="3"/>
@@ -6148,19 +6163,19 @@
         <v>42</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D71" s="2">
         <v>15022398000134</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>22</v>
@@ -6201,7 +6216,7 @@
     </row>
     <row r="72" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>54</v>
@@ -6213,10 +6228,10 @@
         <v>87091997000110</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>22</v>
@@ -6237,7 +6252,7 @@
         <v>45999</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N72" s="1" t="s">
         <v>28</v>
@@ -6257,22 +6272,22 @@
     </row>
     <row r="73" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D73" s="2">
         <v>76816842000420</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>22</v>
@@ -6293,7 +6308,7 @@
         <v>45999</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="N73" s="1" t="s">
         <v>53</v>
@@ -6313,22 +6328,22 @@
     </row>
     <row r="74" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D74" s="2">
         <v>76816842000269</v>
       </c>
       <c r="E74" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F74" s="4" t="s">
         <v>229</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>227</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>22</v>
@@ -6349,7 +6364,7 @@
         <v>45999</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="N74" s="1" t="s">
         <v>53</v>
@@ -6369,7 +6384,7 @@
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>38</v>
@@ -6381,10 +6396,10 @@
         <v>8741844000103</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>22</v>
@@ -6405,10 +6420,10 @@
         <v>45999</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O75" s="3"/>
       <c r="P75" s="3"/>
@@ -6431,14 +6446,16 @@
         <v>54</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D76" s="2">
         <v>48055460000143</v>
       </c>
-      <c r="E76" s="3"/>
+      <c r="E76" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="F76" s="4" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>22</v>
@@ -6458,7 +6475,9 @@
       <c r="L76" s="5">
         <v>45999</v>
       </c>
-      <c r="M76" s="1"/>
+      <c r="M76" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="N76" s="1" t="s">
         <v>70</v>
       </c>
@@ -6477,22 +6496,22 @@
     </row>
     <row r="77" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D77" s="2">
         <v>577709000154</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>22</v>
@@ -6513,7 +6532,7 @@
         <v>45999</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="N77" s="1" t="s">
         <v>28</v>
@@ -6539,16 +6558,16 @@
         <v>54</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D78" s="2">
         <v>26472037000106</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>22</v>
@@ -6569,7 +6588,7 @@
         <v>46000</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>238</v>
+        <v>94</v>
       </c>
       <c r="N78" s="1" t="s">
         <v>28</v>
@@ -6601,10 +6620,10 @@
         <v>26472037000109</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>22</v>
@@ -6625,10 +6644,10 @@
         <v>46000</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>238</v>
+        <v>94</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O79" s="3"/>
       <c r="P79" s="3"/>
@@ -6651,16 +6670,16 @@
         <v>54</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D80" s="2">
         <v>46011435000132</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>22</v>
@@ -6681,7 +6700,7 @@
         <v>45999</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N80" s="1" t="s">
         <v>28</v>
@@ -6701,22 +6720,22 @@
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D81" s="2">
         <v>3570327000197</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>22</v>
@@ -6737,7 +6756,7 @@
         <v>46000</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="N81" s="1" t="s">
         <v>53</v>
@@ -6757,26 +6776,26 @@
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D82" s="2">
         <v>1000000000000</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>73</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>35</v>
@@ -6791,7 +6810,7 @@
         <v>46000</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N82" s="1"/>
       <c r="O82" s="3"/>
@@ -6812,10 +6831,10 @@
         <v>42</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D83" s="2">
         <v>10592852000179</v>
@@ -6824,7 +6843,7 @@
         <v>81</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>22</v>
@@ -6868,7 +6887,7 @@
         <v>25</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>26</v>
@@ -6877,10 +6896,10 @@
         <v>7433734000103</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>73</v>
@@ -6927,7 +6946,7 @@
         <v>38</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D85" s="2">
         <v>4785105000154</v>
@@ -6936,7 +6955,7 @@
         <v>20</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>22</v>
@@ -6977,22 +6996,22 @@
     </row>
     <row r="86" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D86" s="2">
         <v>76816842000420</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>22</v>
@@ -7013,7 +7032,7 @@
         <v>46000</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="N86" s="1" t="s">
         <v>70</v>
@@ -7033,22 +7052,22 @@
     </row>
     <row r="87" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D87" s="2">
         <v>76816842000269</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>22</v>
@@ -7069,7 +7088,7 @@
         <v>46000</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="N87" s="1" t="s">
         <v>70</v>
@@ -7089,22 +7108,22 @@
     </row>
     <row r="88" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D88" s="2">
         <v>29404899000190</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>22</v>
@@ -7125,7 +7144,7 @@
         <v>46000</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N88" s="1" t="s">
         <v>70</v>
@@ -7145,22 +7164,22 @@
     </row>
     <row r="89" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D89" s="2">
         <v>29404899000351</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>22</v>
@@ -7181,7 +7200,7 @@
         <v>46000</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N89" s="1" t="s">
         <v>70</v>
@@ -7201,7 +7220,7 @@
     </row>
     <row r="90" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>45</v>
@@ -7213,10 +7232,10 @@
         <v>4868412000794</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>73</v>
@@ -7237,7 +7256,7 @@
         <v>46000</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="N90" s="1" t="s">
         <v>28</v>
@@ -7260,19 +7279,19 @@
         <v>25</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D91" s="2">
         <v>61620792000191</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>22</v>
@@ -7319,14 +7338,16 @@
         <v>54</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D92" s="2">
         <v>57900011000145</v>
       </c>
-      <c r="E92" s="3"/>
+      <c r="E92" s="3" t="s">
+        <v>259</v>
+      </c>
       <c r="F92" s="4" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>22</v>
@@ -7346,7 +7367,9 @@
       <c r="L92" s="5">
         <v>46000</v>
       </c>
-      <c r="M92" s="1"/>
+      <c r="M92" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="N92" s="1" t="s">
         <v>70</v>
       </c>
@@ -7365,22 +7388,22 @@
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D93" s="2">
         <v>87091997003136</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>73</v>
@@ -7401,7 +7424,7 @@
         <v>46002</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N93" s="1" t="s">
         <v>28</v>
@@ -7424,19 +7447,19 @@
         <v>42</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D94" s="2">
         <v>22624848000205</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>22</v>
@@ -7457,10 +7480,10 @@
         <v>46001</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O94" s="3"/>
       <c r="P94" s="3"/>
@@ -7477,22 +7500,22 @@
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D95" s="2">
         <v>91411256004991</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>73</v>
@@ -7513,7 +7536,7 @@
         <v>46002</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="N95" s="1" t="s">
         <v>28</v>
@@ -7533,22 +7556,22 @@
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D96" s="2">
         <v>1991461003402</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>73</v>
@@ -7569,7 +7592,7 @@
         <v>46002</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N96" s="1" t="s">
         <v>28</v>
@@ -7592,19 +7615,19 @@
         <v>42</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D97" s="2">
         <v>14652825000103</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>22</v>
@@ -7625,7 +7648,7 @@
         <v>46001</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="N97" s="1" t="s">
         <v>70</v>
@@ -7648,19 +7671,19 @@
         <v>42</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D98" s="2">
         <v>15699123000130</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>22</v>
@@ -7669,7 +7692,7 @@
         <v>23</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>29</v>
@@ -7681,7 +7704,7 @@
         <v>46001</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="N98" s="1" t="s">
         <v>70</v>
@@ -7707,16 +7730,16 @@
         <v>38</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D99" s="2">
         <v>27192758000397</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>22</v>
@@ -7740,7 +7763,7 @@
         <v>44</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O99" s="3"/>
       <c r="P99" s="3"/>
@@ -7757,22 +7780,22 @@
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D100" s="2">
         <v>37261764000140</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>22</v>
@@ -7793,10 +7816,10 @@
         <v>46001</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O100" s="3"/>
       <c r="P100" s="3"/>
@@ -7825,10 +7848,10 @@
         <v>306597002655</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>22</v>
@@ -7852,7 +7875,7 @@
         <v>44</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O101" s="3"/>
       <c r="P101" s="3"/>
@@ -7872,19 +7895,19 @@
         <v>42</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D102" s="2">
         <v>26697754000136</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>22</v>
@@ -7905,7 +7928,7 @@
         <v>46001</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="N102" s="1" t="s">
         <v>70</v>
@@ -7928,19 +7951,19 @@
         <v>42</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D103" s="2">
         <v>35119645000203</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>22</v>
@@ -7961,7 +7984,7 @@
         <v>46001</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="N103" s="1" t="s">
         <v>70</v>
@@ -7981,22 +8004,22 @@
     </row>
     <row r="104" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D104" s="2">
         <v>14060985000155</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>73</v>
@@ -8017,10 +8040,10 @@
         <v>45999</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O104" s="3"/>
       <c r="P104" s="3"/>
@@ -8040,19 +8063,19 @@
         <v>42</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D105" s="2">
         <v>2279387000192</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>22</v>
@@ -8061,7 +8084,7 @@
         <v>23</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>29</v>
@@ -8096,19 +8119,19 @@
         <v>25</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D106" s="2">
         <v>4171451000142</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>73</v>
@@ -8129,7 +8152,7 @@
         <v>46006</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="N106" s="1" t="s">
         <v>70</v>
@@ -8152,19 +8175,19 @@
         <v>25</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D107" s="2">
         <v>7177658000112</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>22</v>
@@ -8185,7 +8208,7 @@
         <v>46006</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N107" s="1" t="s">
         <v>70</v>
@@ -8208,19 +8231,19 @@
         <v>25</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D108" s="2">
         <v>13367056000120</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>22</v>
@@ -8241,7 +8264,7 @@
         <v>46006</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N108" s="1" t="s">
         <v>70</v>
@@ -8261,7 +8284,7 @@
     </row>
     <row r="109" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>45</v>
@@ -8273,10 +8296,10 @@
         <v>45761173000160</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>73</v>
@@ -8295,7 +8318,7 @@
       </c>
       <c r="L109" s="5"/>
       <c r="M109" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="N109" s="1" t="s">
         <v>28</v>
@@ -8318,19 +8341,19 @@
         <v>42</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D110" s="2">
         <v>35119645000203</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>22</v>
@@ -8351,7 +8374,7 @@
         <v>46002</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N110" s="1" t="s">
         <v>70</v>
@@ -8371,22 +8394,22 @@
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D111" s="2">
         <v>76816842000420</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>22</v>
@@ -8407,7 +8430,7 @@
         <v>46002</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="N111" s="1" t="s">
         <v>28</v>
@@ -8430,19 +8453,19 @@
         <v>42</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D112" s="2">
         <v>52642559000119</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>22</v>
@@ -8463,7 +8486,7 @@
         <v>46002</v>
       </c>
       <c r="M112" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="N112" s="1" t="s">
         <v>70</v>
@@ -8486,19 +8509,19 @@
         <v>42</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D113" s="2">
         <v>5357865000123</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>22</v>
@@ -8519,7 +8542,7 @@
         <v>46002</v>
       </c>
       <c r="M113" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="N113" s="1" t="s">
         <v>70</v>
@@ -8542,19 +8565,19 @@
         <v>42</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D114" s="2">
         <v>7405721000120</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>22</v>
@@ -8575,7 +8598,7 @@
         <v>46002</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="N114" s="1" t="s">
         <v>70</v>
@@ -8595,28 +8618,28 @@
     </row>
     <row r="115" spans="1:20" ht="58" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D115" s="2">
         <v>4868412000794</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I115" s="1" t="s">
         <v>35</v>
@@ -8631,7 +8654,7 @@
         <v>46002</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="N115" s="1" t="s">
         <v>28</v>
@@ -8651,7 +8674,7 @@
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>54</v>
@@ -8663,10 +8686,10 @@
         <v>5011016000113</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>22</v>
@@ -8687,7 +8710,7 @@
         <v>46002</v>
       </c>
       <c r="M116" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N116" s="1" t="s">
         <v>53</v>
@@ -8707,7 +8730,7 @@
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>45</v>
@@ -8719,16 +8742,16 @@
         <v>577065000102</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>73</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="I117" s="1" t="s">
         <v>35</v>
@@ -8741,7 +8764,7 @@
       </c>
       <c r="L117" s="5"/>
       <c r="M117" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N117" s="1" t="s">
         <v>28</v>
@@ -8761,10 +8784,10 @@
     </row>
     <row r="118" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>26</v>
@@ -8773,10 +8796,10 @@
         <v>51556055000113</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>73</v>
@@ -8795,10 +8818,10 @@
       </c>
       <c r="L118" s="5"/>
       <c r="M118" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="N118" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O118" s="3"/>
       <c r="P118" s="3"/>
@@ -8815,22 +8838,22 @@
     </row>
     <row r="119" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D119" s="2">
         <v>20415295001901</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>73</v>
@@ -8851,10 +8874,10 @@
         <v>46002</v>
       </c>
       <c r="M119" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="N119" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O119" s="3"/>
       <c r="P119" s="3"/>
@@ -8877,16 +8900,16 @@
         <v>38</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D120" s="2">
         <v>57832654000107</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>22</v>
@@ -8907,7 +8930,7 @@
         <v>46002</v>
       </c>
       <c r="M120" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="N120" s="1" t="s">
         <v>28</v>
@@ -8927,28 +8950,28 @@
     </row>
     <row r="121" spans="1:20" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D121" s="2">
         <v>48227957000100</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>73</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="I121" s="1" t="s">
         <v>24</v>
@@ -8963,7 +8986,7 @@
         <v>46001</v>
       </c>
       <c r="M121" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N121" s="1" t="s">
         <v>28</v>
@@ -8995,10 +9018,10 @@
         <v>306597008696</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>275</v>
+        <v>92</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>73</v>
@@ -9018,9 +9041,11 @@
       <c r="L122" s="5">
         <v>46007</v>
       </c>
-      <c r="M122" s="1"/>
+      <c r="M122" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="N122" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O122" s="3"/>
       <c r="P122" s="3"/>
@@ -9028,7 +9053,7 @@
         <v>0</v>
       </c>
       <c r="R122" s="3" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="S122" s="3" t="s">
         <v>32</v>
@@ -9039,22 +9064,22 @@
     </row>
     <row r="123" spans="1:20" ht="58" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D123" s="2">
         <v>87687489000108</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>22</v>
@@ -9075,10 +9100,10 @@
         <v>46002</v>
       </c>
       <c r="M123" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N123" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="O123" s="3"/>
       <c r="P123" s="3"/>
@@ -9101,22 +9126,22 @@
         <v>45</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D124" s="2">
         <v>4313357000180</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>73</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="I124" s="1" t="s">
         <v>52</v>
@@ -9129,7 +9154,7 @@
       </c>
       <c r="L124" s="5"/>
       <c r="M124" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N124" s="1" t="s">
         <v>28</v>
@@ -9149,22 +9174,22 @@
     </row>
     <row r="125" spans="1:20" ht="58" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D125" s="2">
         <v>10337187000177</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>73</v>
@@ -9185,10 +9210,10 @@
         <v>46003</v>
       </c>
       <c r="M125" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N125" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="O125" s="3"/>
       <c r="P125" s="3"/>
@@ -9208,19 +9233,19 @@
         <v>42</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D126" s="2">
         <v>12607854000110</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>22</v>
@@ -9264,19 +9289,19 @@
         <v>42</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D127" s="2">
         <v>14927153000193</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>22</v>
@@ -9320,19 +9345,19 @@
         <v>42</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D128" s="2">
         <v>23045221000181</v>
       </c>
       <c r="E128" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F128" s="4" t="s">
         <v>327</v>
-      </c>
-      <c r="F128" s="4" t="s">
-        <v>325</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>22</v>
@@ -9376,19 +9401,19 @@
         <v>42</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D129" s="2">
         <v>26200120000398</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>22</v>
@@ -9432,19 +9457,19 @@
         <v>42</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D130" s="2">
         <v>27478752000119</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>22</v>
@@ -9488,19 +9513,19 @@
         <v>42</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D131" s="2">
         <v>4210075000158</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>22</v>
@@ -9544,19 +9569,19 @@
         <v>42</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D132" s="2">
         <v>5883774000121</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>22</v>
@@ -9600,19 +9625,19 @@
         <v>42</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D133" s="2">
         <v>5924354000146</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>22</v>
@@ -9656,19 +9681,19 @@
         <v>42</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D134" s="2">
         <v>6590459000500</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>22</v>
@@ -9712,19 +9737,19 @@
         <v>42</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D135" s="2">
         <v>7155921000172</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>22</v>
@@ -9768,19 +9793,19 @@
         <v>42</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D136" s="2">
         <v>7306162000363</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>22</v>
@@ -9824,19 +9849,19 @@
         <v>42</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D137" s="2">
         <v>7306162000444</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G137" s="1" t="s">
         <v>22</v>
@@ -9880,19 +9905,19 @@
         <v>42</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D138" s="2">
         <v>7306162000525</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G138" s="1" t="s">
         <v>22</v>
@@ -9936,19 +9961,19 @@
         <v>42</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D139" s="2">
         <v>7306162000606</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>22</v>
@@ -9992,19 +10017,19 @@
         <v>42</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D140" s="2">
         <v>8986525001636</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>22</v>
@@ -10048,19 +10073,19 @@
         <v>42</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D141" s="2">
         <v>9351716000108</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G141" s="1" t="s">
         <v>22</v>
@@ -10116,7 +10141,7 @@
         <v>55</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G142" s="1" t="s">
         <v>22</v>
@@ -10137,7 +10162,7 @@
         <v>46003</v>
       </c>
       <c r="M142" s="1" t="s">
-        <v>238</v>
+        <v>94</v>
       </c>
       <c r="N142" s="1" t="s">
         <v>53</v>
@@ -10163,16 +10188,16 @@
         <v>54</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D143" s="2">
         <v>13572350000174</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>22</v>
@@ -10193,7 +10218,7 @@
         <v>46003</v>
       </c>
       <c r="M143" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N143" s="1" t="s">
         <v>70</v>
@@ -10213,31 +10238,31 @@
     </row>
     <row r="144" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D144" s="2">
         <v>27401974000133</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G144" s="1" t="s">
         <v>73</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>37</v>
@@ -10247,10 +10272,10 @@
       </c>
       <c r="L144" s="5"/>
       <c r="M144" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N144" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O144" s="3"/>
       <c r="P144" s="3"/>
@@ -10267,28 +10292,28 @@
     </row>
     <row r="145" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D145" s="2">
         <v>52213309000163</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>73</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="I145" s="1" t="s">
         <v>52</v>
@@ -10304,7 +10329,7 @@
         <v>27</v>
       </c>
       <c r="N145" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O145" s="3"/>
       <c r="P145" s="3"/>
@@ -10321,22 +10346,22 @@
     </row>
     <row r="146" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D146" s="2">
         <v>77708576000566</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G146" s="1" t="s">
         <v>73</v>
@@ -10357,7 +10382,7 @@
         <v>46003</v>
       </c>
       <c r="M146" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N146" s="1" t="s">
         <v>70</v>
@@ -10377,22 +10402,22 @@
     </row>
     <row r="147" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D147" s="2">
         <v>12996367000196</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>73</v>
@@ -10413,7 +10438,7 @@
         <v>46001</v>
       </c>
       <c r="M147" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N147" s="1" t="s">
         <v>70</v>
@@ -10433,22 +10458,22 @@
     </row>
     <row r="148" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D148" s="2">
         <v>16581045002180</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>73</v>
@@ -10467,7 +10492,7 @@
       </c>
       <c r="L148" s="5"/>
       <c r="M148" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="N148" s="1" t="s">
         <v>70</v>
@@ -10487,22 +10512,22 @@
     </row>
     <row r="149" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D149" s="2">
         <v>16581045002261</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G149" s="1" t="s">
         <v>73</v>
@@ -10521,7 +10546,7 @@
       </c>
       <c r="L149" s="5"/>
       <c r="M149" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="N149" s="1" t="s">
         <v>70</v>
@@ -10541,22 +10566,22 @@
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D150" s="2">
         <v>87091997000706</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G150" s="1" t="s">
         <v>22</v>
@@ -10577,7 +10602,7 @@
         <v>46003</v>
       </c>
       <c r="M150" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N150" s="1" t="s">
         <v>70</v>
@@ -10597,22 +10622,22 @@
     </row>
     <row r="151" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D151" s="2">
         <v>87091997002245</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="G151" s="1" t="s">
         <v>22</v>
@@ -10633,7 +10658,7 @@
         <v>46003</v>
       </c>
       <c r="M151" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N151" s="1" t="s">
         <v>70</v>
@@ -10665,10 +10690,10 @@
         <v>38538585000251</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G152" s="1" t="s">
         <v>22</v>
@@ -10715,16 +10740,16 @@
         <v>54</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D153" s="2">
         <v>3853855000251</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G153" s="1" t="s">
         <v>22</v>
@@ -10765,28 +10790,28 @@
     </row>
     <row r="154" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D154" s="2">
         <v>2793748000114</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G154" s="1" t="s">
         <v>73</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I154" s="1" t="s">
         <v>35</v>
@@ -10799,7 +10824,7 @@
       </c>
       <c r="L154" s="5"/>
       <c r="M154" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="N154" s="1" t="s">
         <v>28</v>
@@ -10819,7 +10844,7 @@
     </row>
     <row r="155" spans="1:20" ht="58" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>45</v>
@@ -10831,10 +10856,10 @@
         <v>51312697000177</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G155" s="1" t="s">
         <v>73</v>
@@ -10853,7 +10878,7 @@
       </c>
       <c r="L155" s="5"/>
       <c r="M155" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="N155" s="1" t="s">
         <v>28</v>
@@ -10864,7 +10889,7 @@
         <v>0</v>
       </c>
       <c r="R155" s="3" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="S155" s="3" t="s">
         <v>32</v>
@@ -10887,10 +10912,10 @@
         <v>48346249000180</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="G156" s="1" t="s">
         <v>22</v>
@@ -10911,7 +10936,7 @@
         <v>46006</v>
       </c>
       <c r="M156" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N156" s="1" t="s">
         <v>28</v>
@@ -10931,22 +10956,22 @@
     </row>
     <row r="157" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D157" s="2">
         <v>32249473000113</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="G157" s="1" t="s">
         <v>22</v>
@@ -10967,7 +10992,7 @@
         <v>46006</v>
       </c>
       <c r="M157" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N157" s="1" t="s">
         <v>28</v>
@@ -10987,28 +11012,28 @@
     </row>
     <row r="158" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D158" s="2">
         <v>12090263000118</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I158" s="1" t="s">
         <v>35</v>
@@ -11023,7 +11048,7 @@
         <v>46006</v>
       </c>
       <c r="M158" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="N158" s="1" t="s">
         <v>28</v>
@@ -11043,22 +11068,22 @@
     </row>
     <row r="159" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D159" s="2">
         <v>91411256004800</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G159" s="1" t="s">
         <v>22</v>
@@ -11079,7 +11104,7 @@
         <v>46006</v>
       </c>
       <c r="M159" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N159" s="1" t="s">
         <v>28</v>
@@ -11099,22 +11124,22 @@
     </row>
     <row r="160" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D160" s="2">
         <v>45431429000171</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G160" s="1" t="s">
         <v>73</v>
@@ -11123,7 +11148,7 @@
         <v>23</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>37</v>
@@ -11133,10 +11158,10 @@
       </c>
       <c r="L160" s="5"/>
       <c r="M160" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N160" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O160" s="3"/>
       <c r="P160" s="3"/>
@@ -11153,22 +11178,22 @@
     </row>
     <row r="161" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D161" s="2">
         <v>77875383000176</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="G161" s="1" t="s">
         <v>22</v>
@@ -11189,7 +11214,7 @@
         <v>46006</v>
       </c>
       <c r="M161" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="N161" s="1" t="s">
         <v>28</v>
@@ -11207,22 +11232,24 @@
         <v>31</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>106</v>
+        <v>195</v>
       </c>
       <c r="D162" s="2">
-        <v>61432477000130</v>
-      </c>
-      <c r="E162" s="3"/>
+        <v>78901915001722</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>380</v>
+      </c>
       <c r="F162" s="4" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="G162" s="1" t="s">
         <v>73</v>
@@ -11231,18 +11258,20 @@
         <v>23</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>52</v>
+        <v>149</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K162" s="5">
         <v>46006</v>
       </c>
       <c r="L162" s="5"/>
-      <c r="M162" s="1"/>
+      <c r="M162" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="N162" s="1" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="O162" s="3"/>
       <c r="P162" s="3"/>
@@ -11257,33 +11286,33 @@
         <v>31</v>
       </c>
     </row>
-    <row r="163" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:20" ht="58" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="D163" s="2">
-        <v>78901915001722</v>
+        <v>43180360000125</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="G163" s="1" t="s">
         <v>73</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>23</v>
+        <v>384</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>147</v>
+        <v>35</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>37</v>
@@ -11293,7 +11322,7 @@
       </c>
       <c r="L163" s="5"/>
       <c r="M163" s="1" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="N163" s="1" t="s">
         <v>28</v>
@@ -11311,30 +11340,30 @@
         <v>31</v>
       </c>
     </row>
-    <row r="164" spans="1:20" ht="58" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>215</v>
+        <v>63</v>
       </c>
       <c r="D164" s="2">
-        <v>43180360000125</v>
+        <v>60788466000125</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="G164" s="1" t="s">
         <v>73</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>383</v>
+        <v>90</v>
       </c>
       <c r="I164" s="1" t="s">
         <v>35</v>
@@ -11345,9 +11374,11 @@
       <c r="K164" s="5">
         <v>46006</v>
       </c>
-      <c r="L164" s="5"/>
+      <c r="L164" s="5">
+        <v>46007</v>
+      </c>
       <c r="M164" s="1" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="N164" s="1" t="s">
         <v>28</v>
@@ -11370,43 +11401,41 @@
         <v>42</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="D165" s="2">
-        <v>60788466000125</v>
+        <v>7566687000176</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I165" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="I165" s="1"/>
       <c r="J165" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="K165" s="5">
-        <v>46006</v>
+        <v>46007</v>
       </c>
       <c r="L165" s="5">
         <v>46007</v>
       </c>
       <c r="M165" s="1" t="s">
-        <v>238</v>
+        <v>79</v>
       </c>
       <c r="N165" s="1" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="O165" s="3"/>
       <c r="P165" s="3"/>
@@ -11426,19 +11455,19 @@
         <v>42</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="D166" s="2">
-        <v>7566687000176</v>
+        <v>306597003708</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G166" s="1" t="s">
         <v>22</v>
@@ -11446,9 +11475,11 @@
       <c r="H166" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I166" s="1"/>
+      <c r="I166" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="J166" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K166" s="5">
         <v>46007</v>
@@ -11457,10 +11488,10 @@
         <v>46007</v>
       </c>
       <c r="M166" s="1" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="N166" s="1" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="O166" s="3"/>
       <c r="P166" s="3"/>
@@ -11486,19 +11517,19 @@
         <v>63</v>
       </c>
       <c r="D167" s="2">
-        <v>306597003708</v>
+        <v>306597007703</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="G167" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="I167" s="1" t="s">
         <v>35</v>
@@ -11513,10 +11544,10 @@
         <v>46007</v>
       </c>
       <c r="M167" s="1" t="s">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="N167" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O167" s="3"/>
       <c r="P167" s="3"/>
@@ -11542,13 +11573,13 @@
         <v>63</v>
       </c>
       <c r="D168" s="2">
-        <v>306597007703</v>
+        <v>306597007967</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G168" s="1" t="s">
         <v>22</v>
@@ -11572,7 +11603,7 @@
         <v>44</v>
       </c>
       <c r="N168" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O168" s="3"/>
       <c r="P168" s="3"/>
@@ -11584,62 +11615,6 @@
         <v>32</v>
       </c>
       <c r="T168" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A169" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D169" s="2">
-        <v>306597007967</v>
-      </c>
-      <c r="E169" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="F169" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="G169" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H169" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I169" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J169" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K169" s="5">
-        <v>46007</v>
-      </c>
-      <c r="L169" s="5">
-        <v>46007</v>
-      </c>
-      <c r="M169" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N169" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="O169" s="3"/>
-      <c r="P169" s="3"/>
-      <c r="Q169">
-        <v>0</v>
-      </c>
-      <c r="R169" s="3"/>
-      <c r="S169" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T169" s="3" t="s">
         <v>31</v>
       </c>
     </row>

--- a/base_hub_github.xlsx
+++ b/base_hub_github.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupoultracloud-my.sharepoint.com/personal/thiago_junior_ipiranga_ipiranga/Documents/Área de Trabalho/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06386613-B999-4B99-8B1C-8550826895FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B92D471B-48A8-477F-9CA1-EDD1C85A1686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{33F672BA-4EC1-43EE-9459-D6FE3802E408}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DB987829-B7AB-459B-AB51-676BAF22D2D0}"/>
   </bookViews>
   <sheets>
-    <sheet name="query" sheetId="1" r:id="rId1"/>
+    <sheet name="query (44)" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="query__39" localSheetId="0" hidden="1">query!$A$1:$T$168</definedName>
+    <definedName name="query__44" localSheetId="0" hidden="1">'query (44)'!$A$1:$T$187</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -24,14 +24,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{0BAE7429-1F08-4636-9506-66AD77EDA63D}" odcFile="C:\Users\thiago.junior\Downloads\query (39).iqy" keepAlive="1" name="query (39)" type="5" refreshedVersion="8" minRefreshableVersion="3" saveData="1">
+  <connection id="1" xr16:uid="{279EE29F-412A-499B-B193-D667F8F8A85A}" odcFile="C:\Users\thiago.junior\Downloads\query (44).iqy" keepAlive="1" name="query (44)" type="5" refreshedVersion="8" minRefreshableVersion="3" saveData="1">
     <dbPr connection="Provider=Microsoft.Office.List.OLEDB.2.0;Data Source=&quot;&quot;;ApplicationName=Excel;Version=12.0.0.0" command="&lt;LIST&gt;&lt;VIEWGUID&gt;A45175CA-9778-441D-B066-D8555F7DBBE4&lt;/VIEWGUID&gt;&lt;LISTNAME&gt;06be0e4e-018b-4cef-a562-4db2a9a684e1&lt;/LISTNAME&gt;&lt;LISTWEB&gt;https://grupoultracloud-my.sharepoint.com/personal/roberta_rocha_ipiranga_ipiranga/_vti_bin&lt;/LISTWEB&gt;&lt;LISTSUBWEB&gt;&lt;/LISTSUBWEB&gt;&lt;ROOTFOLDER&gt;&lt;/ROOTFOLDER&gt;&lt;/LIST&gt;" commandType="5"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2188" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2424" uniqueCount="429">
   <si>
     <t>Título</t>
   </si>
@@ -1126,7 +1126,7 @@
     <t>A P Campeao Da Estrada Ltda</t>
   </si>
   <si>
-    <t xml:space="preserve">A P Campeao Da Estrada Ltda - 2793748000114, erro na maquina sistema da Quality, erro de vip invalido/não cadastrado. </t>
+    <t xml:space="preserve">A P Campeao Da Estrada Ltda - 2793748000114, erro na maquina sistema da Quality, erro de vip invalido/não cadastrado.  </t>
   </si>
   <si>
     <t>Erro VIP invalido</t>
@@ -1217,6 +1217,111 @@
   </si>
   <si>
     <t>Cascoll Combustiveis</t>
+  </si>
+  <si>
+    <t>Socape Sociedade Caxiense De Pet Ltda</t>
+  </si>
+  <si>
+    <t>Levantamento e ajuste de 55 CNPJ's para Lat-Long</t>
+  </si>
+  <si>
+    <t>O CN George Otávio, entrou em contato para tirar dúvidas sobre a campanha da Oferta é Seu Desconto. Segundo o consultor, o revendedor reclamou porque entendeu que a campanha era obrigatória, confundindo com a obrigatoriedade da tela do CPF. Expliquei que a obrigatoriedade é apenas para o CPF, e não da campanha.</t>
+  </si>
+  <si>
+    <t>Entrei em contato com 5 postos a fim de solicitar evidências do erro na aba de promoções do Nippo.</t>
+  </si>
+  <si>
+    <t>Consultor de Negócios</t>
+  </si>
+  <si>
+    <t>Auto Posto Aldeia Da Praia Ltda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auto Posto Aldeia Da Praia Ltda - 32248017000159 | William pediu apoio com informações sobre Penetração e taxa no GRUPO ROTAS </t>
+  </si>
+  <si>
+    <t>Auto Posto Leste Ltda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revendedor relata qie o slip não está registrando a forma de pagaento. Informei que é necessário abrir um chamado com o sistema de automação para confirguar a impressão e assim que estviver com o número do chamado me passar para acompanhar. </t>
+  </si>
+  <si>
+    <t>O revendedor Cristiano entrou em contato para questionar por que o CNPJ 87.091.997/0031-36 não está refletindo na aba 'Meus Dados' do portal KMV. Solicitei apoio do Thiago Alvarenga para a resolução.</t>
+  </si>
+  <si>
+    <t>AutoShoping</t>
+  </si>
+  <si>
+    <t>Almir solicita confirmação de pagamento p</t>
+  </si>
+  <si>
+    <t>Renato solicita confirmação de transação estornada</t>
+  </si>
+  <si>
+    <t>Auto Posto W Quatro Ltda</t>
+  </si>
+  <si>
+    <t>Solciitação de Alteraçao de daados bancários  Rafael Pelegrini de Almeida 321.992.518-96 13/10/1983 15 997271310   Auto Posto GP-7 Ltda 58.968.629/0001-00 Avenida São Paulo, 1988 Bairro: Além Ponte. Sorocaba-SP CEP: 18.013-004 postogp7@gmail.com Banco Itaú 341 Agência 3048 Conta corrente 43326-6     Auto Posto W Quatro Ltda 10.434.857/0001-73 Avenida São Paulo, 2269 Bairro: Além Ponte. Sorocaba-SP CEP: 18.013-004 postowquatro@gmail.com Banco Itaú 341 Agência 3048 Conta corrente 42932-2   Em relação aos telefones dos postos, estamos alterando os números devido ao cancelamento do serviço de linhas “metálicas” na região. Ainda não temos os novos números.</t>
+  </si>
+  <si>
+    <t>Auto Posto Plenitude Ltda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Posto pediu apoio para entender processos do portal e taxas </t>
+  </si>
+  <si>
+    <t>P De Abast E Serv V Marques Ltda</t>
+  </si>
+  <si>
+    <t>P DE ABAST E SERV V MARQUES LTDA - 01131154000185 | Chamado enviado por e-mail pela fabiana  1-48856934200.  ABA-204728690</t>
+  </si>
+  <si>
+    <t>Penta I Pit Stop Auto Posto Ltda</t>
+  </si>
+  <si>
+    <t>Cliente B2C relatou dificuldades para acessar a conta. Foi orientado a contatar a Central, pois ao consultar o CPF verificamos que já existe cadastro no KMV. Antes disso, sugerimos tentar o procedimento de redefinição de senha.</t>
+  </si>
+  <si>
+    <t>B2C - Cadastro</t>
+  </si>
+  <si>
+    <t>Machado Amorim P De Gas Com Serv Ltda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Machado Amorim P De Gas Com Serv Ltda - 16831318000154 |  Noraldino (+55 38 9745-3434) Revendedor entrou em contato devido, pois alega que não recebeu repasses do KMV, mas analisando as transações financeiras, foi visto que todos os repasses estão negativos devido as vendas em dinheiro. Solicitando apoio do Gustavo, CN, para visita no posto. </t>
+  </si>
+  <si>
+    <t>Dúvidas sobre conciliação</t>
+  </si>
+  <si>
+    <t>P Aguia Joia J R Ltda</t>
+  </si>
+  <si>
+    <t>P Aguia Joia J R Ltda - 25625344000117 | Leandro +55 31 9275-8163, pediu atualizações sobre o chamado 1-48872990560 que o cliente dele abriu dia 16/12</t>
+  </si>
+  <si>
+    <t>POSTO ABAST GALLENA LAGOA LTDA</t>
+  </si>
+  <si>
+    <t>POSTO ABAST GALLENA LAGOA LTDA - 11398725000104 |  1-48838811484, cliente reclama ao posto gallena que os seus reembolsos não foram realizados</t>
+  </si>
+  <si>
+    <t>Costumer Hero</t>
+  </si>
+  <si>
+    <t>POSTO ABAST GALLENA LAGOA LTDA - 11398725000104 |  Cliente JOILSON VIEIRA DE OLIVEIRA segue reclamando sobre o estorno de duas transações que não foram estornadas, enviei o comprovante ao JP</t>
+  </si>
+  <si>
+    <t>Conclusão do ajuste de Lat-Long de 108 CNPJ's; Haron já foi notificado por e-mail. Apontei os 8 CNPJ's que não consegui as informações na notificação.</t>
+  </si>
+  <si>
+    <t>Auto Posto Amp Ltda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reunião com a coordenadora Lucinana do auto posto AMP, Nadine, Lucas Dantas e Larissa. O objetivo foi mapear o fluxo operacional do posto para identificar os erros de preço apontados pelo revendedor. Por fim, por causa de incompatibilidade de agendas, decidimos fazer um grupo no whatsapp a fim de objeter as evidências necessárias. </t>
+  </si>
+  <si>
+    <t>Entrei em contato com os revendedores a fim de obter a localização dos postos.</t>
   </si>
 </sst>
 </file>
@@ -1832,7 +1937,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="query (39)" backgroundRefresh="0" connectionId="1" xr16:uid="{7B1C84DD-04AA-4989-8E74-3EB97C83044D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="query (44)" backgroundRefresh="0" connectionId="1" xr16:uid="{6CFB74A4-0CDB-49D1-B415-DDAB2FE13BF4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="21">
     <queryTableFields count="20">
       <queryTableField id="10" name="Analista" tableColumnId="1"/>
@@ -1861,29 +1966,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C4C6FA72-CB4B-42D3-A42C-F800515B065A}" name="Tabela_query__39" displayName="Tabela_query__39" ref="A1:T168" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:T168" xr:uid="{C4C6FA72-CB4B-42D3-A42C-F800515B065A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6712F51D-C123-4F70-8F44-D455CB3B4C16}" name="Tabela_query__44" displayName="Tabela_query__44" ref="A1:T187" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:T187" xr:uid="{6712F51D-C123-4F70-8F44-D455CB3B4C16}"/>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{294303A1-9B66-467E-ABA9-7862303A8B96}" uniqueName="Analista" name="Analista" queryTableFieldId="10" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{5D51EF8D-4691-4A51-B48A-7E7CB8DAFE8F}" uniqueName="SubClassifica_x005f_x00e7__x005f_x00e3_o" name="Sub Classificação" queryTableFieldId="15" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{3485D605-4252-4746-BFF4-200EB0C8DAFB}" uniqueName="Motivo" name="Motivo" queryTableFieldId="11" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{152E0138-A2FD-49A8-AC5E-962D0A917816}" uniqueName="CNPJ" name="CNPJ" queryTableFieldId="3" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{46646F19-F66D-470E-8BA9-5CC9BC9B82E0}" uniqueName="Raz_x005f_x00e3_oSocial" name="Razão Social" queryTableFieldId="4" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{80EB0AEE-A7B1-4D4F-93DE-DFF90009496C}" uniqueName="Descri_x005f_x00e7__x005f_x00e3_o" name="Descrição" queryTableFieldId="5" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{61CDEDFD-4377-40B0-84B1-613F29E3E7E8}" uniqueName="FCR" name="FCR" queryTableFieldId="7" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{E6901CB7-2E71-4F0A-8633-EFABFF1AEBF9}" uniqueName="Origemdocontato" name="Área responsável pela resolução" queryTableFieldId="8" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{FF526799-3ECA-495C-8296-72A5DCA76E2F}" uniqueName="Origemdocontato0" name="Origem do contato" queryTableFieldId="9" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{6028271A-F166-42EB-8272-A1DDBA49219D}" uniqueName="Tipodecontato" name="Tipo de contato" queryTableFieldId="14" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{715FDAF8-5DC1-4BFA-8C30-329A895211A2}" uniqueName="Data" name="Data Inicio" queryTableFieldId="2" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{77075244-3ECC-41DF-91A5-570328FF65DE}" uniqueName="DataFim" name="Data Fim" queryTableFieldId="6" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{E8F0E8F8-CBAA-42D2-8C2E-3CD952EC6400}" uniqueName="GN" name="GN" queryTableFieldId="12" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{D39D7FAB-4CBA-4BE4-A190-AA762AB94C31}" uniqueName="Solicitante" name="Solicitante" queryTableFieldId="13" dataDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{449B802C-04F5-42B2-B924-220E5F35CFBF}" uniqueName="Title" name="Título" queryTableFieldId="1" dataDxfId="4"/>
-    <tableColumn id="16" xr3:uid="{21CFD53A-A2FC-43DD-8A1E-6775F4DEDAC9}" uniqueName="_x005f_x0024_Resources_x005f_x003a_core_x002" name="Status de liberação" queryTableFieldId="16" dataDxfId="3"/>
-    <tableColumn id="17" xr3:uid="{F7306821-AFFC-4731-82D1-744D417C4EB0}" uniqueName="_ApprovalStatus" name="Status de aprovação" queryTableFieldId="17"/>
-    <tableColumn id="18" xr3:uid="{3FED085D-572E-4BDB-888A-8DC64CCE2421}" uniqueName="N_x005f_x00fa_merodoChamado" name="Número do Chamado Automação" queryTableFieldId="18" dataDxfId="2"/>
-    <tableColumn id="19" xr3:uid="{5EEE81CE-5B55-4529-9BE4-9E7981BABDEA}" uniqueName="FSObjType" name="Tipo de Item" queryTableFieldId="20" dataDxfId="1"/>
-    <tableColumn id="20" xr3:uid="{BBF69376-559B-4172-9671-74DA8780450A}" uniqueName="FileDirRef" name="Caminho" queryTableFieldId="19" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{FA5E7773-7ED2-4328-8293-A9B025AD43CA}" uniqueName="Analista" name="Analista" queryTableFieldId="10" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{FE86ED64-EB3E-4979-A29B-9B5CFA932C7E}" uniqueName="SubClassifica_x005f_x00e7__x005f_x00e3_o" name="Sub Classificação" queryTableFieldId="15" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{2D4B8D60-0246-4047-96A7-AFA50A368CA5}" uniqueName="Motivo" name="Motivo" queryTableFieldId="11" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{3E1BE012-F1E3-4D7B-B718-898AC1B8C285}" uniqueName="CNPJ" name="CNPJ" queryTableFieldId="3" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{31F0132B-7BFD-4D7F-AEA4-316ECE9B4EDB}" uniqueName="Raz_x005f_x00e3_oSocial" name="Razão Social" queryTableFieldId="4" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{7B77F420-AD71-4FBD-99DC-27398EECBC95}" uniqueName="Descri_x005f_x00e7__x005f_x00e3_o" name="Descrição" queryTableFieldId="5" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{401DC302-A676-4AC6-8BE5-16771E86DEDC}" uniqueName="FCR" name="FCR" queryTableFieldId="7" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{A989C65B-1D8C-4DDA-8A35-8407B8C61F02}" uniqueName="Origemdocontato" name="Área responsável pela resolução" queryTableFieldId="8" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{9109D8C9-D08F-479E-A4AA-406F68EE051B}" uniqueName="Origemdocontato0" name="Origem do contato" queryTableFieldId="9" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{42BC1E52-91C5-4DE6-A596-09645EB66464}" uniqueName="Tipodecontato" name="Tipo de contato" queryTableFieldId="14" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{EC24DC1E-73F4-40F8-B387-D1FC3472CEBB}" uniqueName="Data" name="Data Inicio" queryTableFieldId="2" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{DE3A518E-E067-4B2D-9AAE-7BA93D145EF3}" uniqueName="DataFim" name="Data Fim" queryTableFieldId="6" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{3763CCE3-D70A-487A-93F0-B319025D8A87}" uniqueName="GN" name="GN" queryTableFieldId="12" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{03193D88-2198-419F-B170-49F32A9C966A}" uniqueName="Solicitante" name="Solicitante" queryTableFieldId="13" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{4A6FA5D3-CDA7-4C0F-AD8C-5FA14DE03A48}" uniqueName="Title" name="Título" queryTableFieldId="1" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{6B6067E8-A003-4A9B-B3A1-A20FC3FC33FB}" uniqueName="_x005f_x0024_Resources_x005f_x003a_core_x002" name="Status de liberação" queryTableFieldId="16" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{E0B164F9-97C4-4C7E-AD8F-AC606E1AC617}" uniqueName="_ApprovalStatus" name="Status de aprovação" queryTableFieldId="17"/>
+    <tableColumn id="18" xr3:uid="{B4423F21-1F4C-475F-9E05-A5A0AE74A553}" uniqueName="N_x005f_x00fa_merodoChamado" name="Número do Chamado Automação" queryTableFieldId="18" dataDxfId="2"/>
+    <tableColumn id="19" xr3:uid="{C71C4685-3978-45A4-B02D-B5283C738B9A}" uniqueName="FSObjType" name="Tipo de Item" queryTableFieldId="20" dataDxfId="1"/>
+    <tableColumn id="20" xr3:uid="{843E9D7C-78EA-4B7C-832D-052C839A1A3E}" uniqueName="FileDirRef" name="Caminho" queryTableFieldId="19" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2205,11 +2310,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDB5FCC4-0163-4728-A2CB-446E7D7874EF}">
-  <dimension ref="A1:T168"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB6D7548-A3F5-4D0D-A8F9-FAE2F5FFC67C}">
+  <dimension ref="A1:T187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:T168"/>
+      <selection sqref="A1:T187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11618,6 +11723,1040 @@
         <v>31</v>
       </c>
     </row>
+    <row r="169" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A169" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D169" s="2">
+        <v>29017407000103</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="F169" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="G169" s="1"/>
+      <c r="H169" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J169" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K169" s="5">
+        <v>46007</v>
+      </c>
+      <c r="L169" s="5">
+        <v>46007</v>
+      </c>
+      <c r="M169" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="N169" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O169" s="3"/>
+      <c r="P169" s="3"/>
+      <c r="Q169">
+        <v>0</v>
+      </c>
+      <c r="R169" s="3"/>
+      <c r="S169" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T169" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="170" spans="1:20" ht="58" x14ac:dyDescent="0.35">
+      <c r="A170" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D170" s="2">
+        <v>11111111111111</v>
+      </c>
+      <c r="E170" s="3"/>
+      <c r="F170" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I170" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J170" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K170" s="5">
+        <v>46007</v>
+      </c>
+      <c r="L170" s="5">
+        <v>46007</v>
+      </c>
+      <c r="M170" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="N170" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O170" s="3"/>
+      <c r="P170" s="3"/>
+      <c r="Q170">
+        <v>0</v>
+      </c>
+      <c r="R170" s="3"/>
+      <c r="S170" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T170" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="171" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A171" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D171" s="2">
+        <v>78901915001803</v>
+      </c>
+      <c r="E171" s="3"/>
+      <c r="F171" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J171" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K171" s="5">
+        <v>46007</v>
+      </c>
+      <c r="L171" s="5"/>
+      <c r="M171" s="1"/>
+      <c r="N171" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="O171" s="3"/>
+      <c r="P171" s="3"/>
+      <c r="Q171">
+        <v>0</v>
+      </c>
+      <c r="R171" s="3"/>
+      <c r="S171" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T171" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="172" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A172" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D172" s="2">
+        <v>32248017000159</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J172" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K172" s="5">
+        <v>46008</v>
+      </c>
+      <c r="L172" s="5">
+        <v>46008</v>
+      </c>
+      <c r="M172" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N172" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O172" s="3"/>
+      <c r="P172" s="3"/>
+      <c r="Q172">
+        <v>0</v>
+      </c>
+      <c r="R172" s="3"/>
+      <c r="S172" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T172" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="173" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A173" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D173" s="2">
+        <v>1002740000120</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J173" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K173" s="5">
+        <v>46008</v>
+      </c>
+      <c r="L173" s="5">
+        <v>46008</v>
+      </c>
+      <c r="M173" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N173" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O173" s="3"/>
+      <c r="P173" s="3"/>
+      <c r="Q173">
+        <v>0</v>
+      </c>
+      <c r="R173" s="3"/>
+      <c r="S173" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T173" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="174" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A174" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D174" s="2">
+        <v>87091997003136</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F174" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="I174" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J174" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K174" s="5">
+        <v>46008</v>
+      </c>
+      <c r="L174" s="5"/>
+      <c r="M174" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="N174" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O174" s="3"/>
+      <c r="P174" s="3"/>
+      <c r="Q174">
+        <v>0</v>
+      </c>
+      <c r="R174" s="3"/>
+      <c r="S174" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T174" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="175" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A175" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D175" s="2">
+        <v>37063328000752</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="F175" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I175" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J175" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K175" s="5">
+        <v>46008</v>
+      </c>
+      <c r="L175" s="5">
+        <v>46008</v>
+      </c>
+      <c r="M175" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N175" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O175" s="3"/>
+      <c r="P175" s="3"/>
+      <c r="Q175">
+        <v>0</v>
+      </c>
+      <c r="R175" s="3"/>
+      <c r="S175" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T175" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="176" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A176" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D176" s="2">
+        <v>37063328001058</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I176" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J176" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K176" s="5">
+        <v>46008</v>
+      </c>
+      <c r="L176" s="5">
+        <v>46008</v>
+      </c>
+      <c r="M176" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N176" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O176" s="3"/>
+      <c r="P176" s="3"/>
+      <c r="Q176">
+        <v>0</v>
+      </c>
+      <c r="R176" s="3"/>
+      <c r="S176" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T176" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="177" spans="1:20" ht="116" x14ac:dyDescent="0.35">
+      <c r="A177" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D177" s="2">
+        <v>10434857000173</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="F177" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I177" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J177" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K177" s="5">
+        <v>45979</v>
+      </c>
+      <c r="L177" s="5">
+        <v>46009</v>
+      </c>
+      <c r="M177" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N177" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O177" s="3"/>
+      <c r="P177" s="3"/>
+      <c r="Q177">
+        <v>0</v>
+      </c>
+      <c r="R177" s="3"/>
+      <c r="S177" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T177" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="178" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A178" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D178" s="2">
+        <v>10381595000126</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="F178" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H178" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I178" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J178" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K178" s="5">
+        <v>46008</v>
+      </c>
+      <c r="L178" s="5">
+        <v>46009</v>
+      </c>
+      <c r="M178" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N178" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O178" s="3"/>
+      <c r="P178" s="3"/>
+      <c r="Q178">
+        <v>0</v>
+      </c>
+      <c r="R178" s="3"/>
+      <c r="S178" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T178" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="179" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A179" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D179" s="2">
+        <v>1131154000185</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="F179" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I179" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J179" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K179" s="5">
+        <v>46008</v>
+      </c>
+      <c r="L179" s="5"/>
+      <c r="M179" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N179" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O179" s="3"/>
+      <c r="P179" s="3"/>
+      <c r="Q179">
+        <v>0</v>
+      </c>
+      <c r="R179" s="3"/>
+      <c r="S179" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T179" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="180" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A180" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D180" s="2">
+        <v>22988259000125</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="F180" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H180" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I180" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J180" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K180" s="5">
+        <v>46009</v>
+      </c>
+      <c r="L180" s="5">
+        <v>46009</v>
+      </c>
+      <c r="M180" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N180" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O180" s="3"/>
+      <c r="P180" s="3"/>
+      <c r="Q180">
+        <v>0</v>
+      </c>
+      <c r="R180" s="3"/>
+      <c r="S180" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T180" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="181" spans="1:20" ht="58" x14ac:dyDescent="0.35">
+      <c r="A181" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D181" s="2">
+        <v>16831318000154</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F181" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J181" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K181" s="5">
+        <v>46007</v>
+      </c>
+      <c r="L181" s="5">
+        <v>46008</v>
+      </c>
+      <c r="M181" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="N181" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O181" s="3"/>
+      <c r="P181" s="3"/>
+      <c r="Q181">
+        <v>0</v>
+      </c>
+      <c r="R181" s="3"/>
+      <c r="S181" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T181" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="182" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A182" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D182" s="2">
+        <v>25625344000117</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="F182" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I182" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J182" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K182" s="5">
+        <v>46008</v>
+      </c>
+      <c r="L182" s="5">
+        <v>46009</v>
+      </c>
+      <c r="M182" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N182" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O182" s="3"/>
+      <c r="P182" s="3"/>
+      <c r="Q182">
+        <v>0</v>
+      </c>
+      <c r="R182" s="3"/>
+      <c r="S182" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T182" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="183" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A183" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D183" s="2">
+        <v>11398725000104</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="F183" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H183" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="I183" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J183" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K183" s="5">
+        <v>45993</v>
+      </c>
+      <c r="L183" s="5">
+        <v>46002</v>
+      </c>
+      <c r="M183" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N183" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O183" s="3"/>
+      <c r="P183" s="3"/>
+      <c r="Q183">
+        <v>0</v>
+      </c>
+      <c r="R183" s="3"/>
+      <c r="S183" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T183" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="184" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A184" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D184" s="2">
+        <v>11398725000104</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="F184" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="I184" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J184" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K184" s="5">
+        <v>46009</v>
+      </c>
+      <c r="L184" s="5">
+        <v>46009</v>
+      </c>
+      <c r="M184" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N184" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O184" s="3"/>
+      <c r="P184" s="3"/>
+      <c r="Q184">
+        <v>0</v>
+      </c>
+      <c r="R184" s="3"/>
+      <c r="S184" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T184" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="185" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A185" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D185" s="2">
+        <v>11111111111111</v>
+      </c>
+      <c r="E185" s="3"/>
+      <c r="F185" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H185" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I185" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J185" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K185" s="5">
+        <v>46009</v>
+      </c>
+      <c r="L185" s="5">
+        <v>46009</v>
+      </c>
+      <c r="M185" s="1"/>
+      <c r="N185" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O185" s="3"/>
+      <c r="P185" s="3"/>
+      <c r="Q185">
+        <v>0</v>
+      </c>
+      <c r="R185" s="3"/>
+      <c r="S185" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T185" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="186" spans="1:20" ht="58" x14ac:dyDescent="0.35">
+      <c r="A186" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D186" s="2">
+        <v>27401974000133</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="F186" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H186" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I186" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J186" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K186" s="5">
+        <v>46009</v>
+      </c>
+      <c r="L186" s="5"/>
+      <c r="M186" s="1"/>
+      <c r="N186" s="1"/>
+      <c r="O186" s="3"/>
+      <c r="P186" s="3"/>
+      <c r="Q186">
+        <v>0</v>
+      </c>
+      <c r="R186" s="3"/>
+      <c r="S186" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T186" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="187" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A187" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D187" s="2">
+        <v>11111111111111</v>
+      </c>
+      <c r="E187" s="3"/>
+      <c r="F187" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H187" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I187" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J187" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K187" s="5">
+        <v>46008</v>
+      </c>
+      <c r="L187" s="5">
+        <v>46008</v>
+      </c>
+      <c r="M187" s="1"/>
+      <c r="N187" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O187" s="3"/>
+      <c r="P187" s="3"/>
+      <c r="Q187">
+        <v>0</v>
+      </c>
+      <c r="R187" s="3"/>
+      <c r="S187" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T187" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">

--- a/base_hub_github.xlsx
+++ b/base_hub_github.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupoultracloud-my.sharepoint.com/personal/thiago_junior_ipiranga_ipiranga/Documents/Área de Trabalho/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B92D471B-48A8-477F-9CA1-EDD1C85A1686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{EE531FF6-25C4-4721-A2C2-E8FB5ED78AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B128BC8-D5EB-4435-9A56-6280A540A430}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DB987829-B7AB-459B-AB51-676BAF22D2D0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{04594F79-DC9E-45DD-A756-9489CECB4CAF}"/>
   </bookViews>
   <sheets>
-    <sheet name="query (44)" sheetId="1" r:id="rId1"/>
+    <sheet name="query" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="query__44" localSheetId="0" hidden="1">'query (44)'!$A$1:$T$187</definedName>
+    <definedName name="query__46" localSheetId="0" hidden="1">query!$A$1:$T$193</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -24,14 +24,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{279EE29F-412A-499B-B193-D667F8F8A85A}" odcFile="C:\Users\thiago.junior\Downloads\query (44).iqy" keepAlive="1" name="query (44)" type="5" refreshedVersion="8" minRefreshableVersion="3" saveData="1">
+  <connection id="1" xr16:uid="{243F0056-BEB6-4A6C-BD31-44EC56DB87AE}" odcFile="C:\Users\thiago.junior\Downloads\query (46).iqy" keepAlive="1" name="query (46)" type="5" refreshedVersion="8" minRefreshableVersion="3" saveData="1">
     <dbPr connection="Provider=Microsoft.Office.List.OLEDB.2.0;Data Source=&quot;&quot;;ApplicationName=Excel;Version=12.0.0.0" command="&lt;LIST&gt;&lt;VIEWGUID&gt;A45175CA-9778-441D-B066-D8555F7DBBE4&lt;/VIEWGUID&gt;&lt;LISTNAME&gt;06be0e4e-018b-4cef-a562-4db2a9a684e1&lt;/LISTNAME&gt;&lt;LISTWEB&gt;https://grupoultracloud-my.sharepoint.com/personal/roberta_rocha_ipiranga_ipiranga/_vti_bin&lt;/LISTWEB&gt;&lt;LISTSUBWEB&gt;&lt;/LISTSUBWEB&gt;&lt;ROOTFOLDER&gt;&lt;/ROOTFOLDER&gt;&lt;/LIST&gt;" commandType="5"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2424" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2502" uniqueCount="441">
   <si>
     <t>Título</t>
   </si>
@@ -1322,6 +1322,42 @@
   </si>
   <si>
     <t>Entrei em contato com os revendedores a fim de obter a localização dos postos.</t>
+  </si>
+  <si>
+    <t>Elite Centro Automotivo De Serv Ltda</t>
+  </si>
+  <si>
+    <t>Proprietaria pediu apoio para limpeza de base de vips antigos/deligado e apoio para inserção de 5 novos</t>
+  </si>
+  <si>
+    <t>Brixner &amp; Brixner Ltda</t>
+  </si>
+  <si>
+    <t>O consultor Jairo entrou em contato para questionar o motivo pelo qual a revenda não está tendo acesso às NFs de MDR. Expliquei que já temos um chamado aberto sobre isso e que o time responsável já está tratando o caso.</t>
+  </si>
+  <si>
+    <t>Arosi Comercio De Combustiveis Ltda</t>
+  </si>
+  <si>
+    <t>Entrei em contato com o revendedor Pietro para passar as instruções iniciais sobre como operacionalizar o KMV, apresentar os conceitos e o Portal Parceiros KMV para controle financeiro.</t>
+  </si>
+  <si>
+    <t>Auto Posto Santa Luzita Ltda</t>
+  </si>
+  <si>
+    <t>O Gerente Comercial solicitou apoio para intermediar com o adquirente a troca da maquininha, pois a atual estava obsoleta. Orientamos que o contato fosse feito diretamente com a central do próprio adquirente, já que não realizamos mais essa ponte. O gerente Willian efetuou a ligação e resolveu o caso. O novo equipamento já está instalado no posto.</t>
+  </si>
+  <si>
+    <t>Auto Posto Da Nova Jaboticabal Ltda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Posto solicitou esclarecimentos sobre a taxa aplicada. Informei a taxa atual e como eles mesmos podem se autoatenderem no portal e verficarem por lá </t>
+  </si>
+  <si>
+    <t>Goldani &amp; Lima Com De Combustiveis Ltda</t>
+  </si>
+  <si>
+    <t>Entrei em contato com o revendedor Alex, visto que ele realizou a adesão ao Conecta, porém não realizou a adesão ao KMV. Passei o entendimento para ele.</t>
   </si>
 </sst>
 </file>
@@ -1937,7 +1973,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="query (44)" backgroundRefresh="0" connectionId="1" xr16:uid="{6CFB74A4-0CDB-49D1-B415-DDAB2FE13BF4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="query (46)" backgroundRefresh="0" connectionId="1" xr16:uid="{400014DC-4CF2-48BA-A9A9-AEB3B4E7CDE8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="21">
     <queryTableFields count="20">
       <queryTableField id="10" name="Analista" tableColumnId="1"/>
@@ -1966,29 +2002,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6712F51D-C123-4F70-8F44-D455CB3B4C16}" name="Tabela_query__44" displayName="Tabela_query__44" ref="A1:T187" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:T187" xr:uid="{6712F51D-C123-4F70-8F44-D455CB3B4C16}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A58CA2D3-BC17-4225-84FD-D5995F8A2E7C}" name="Tabela_query__46" displayName="Tabela_query__46" ref="A1:T193" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:T193" xr:uid="{A58CA2D3-BC17-4225-84FD-D5995F8A2E7C}"/>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{FA5E7773-7ED2-4328-8293-A9B025AD43CA}" uniqueName="Analista" name="Analista" queryTableFieldId="10" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{FE86ED64-EB3E-4979-A29B-9B5CFA932C7E}" uniqueName="SubClassifica_x005f_x00e7__x005f_x00e3_o" name="Sub Classificação" queryTableFieldId="15" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{2D4B8D60-0246-4047-96A7-AFA50A368CA5}" uniqueName="Motivo" name="Motivo" queryTableFieldId="11" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{3E1BE012-F1E3-4D7B-B718-898AC1B8C285}" uniqueName="CNPJ" name="CNPJ" queryTableFieldId="3" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{31F0132B-7BFD-4D7F-AEA4-316ECE9B4EDB}" uniqueName="Raz_x005f_x00e3_oSocial" name="Razão Social" queryTableFieldId="4" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{7B77F420-AD71-4FBD-99DC-27398EECBC95}" uniqueName="Descri_x005f_x00e7__x005f_x00e3_o" name="Descrição" queryTableFieldId="5" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{401DC302-A676-4AC6-8BE5-16771E86DEDC}" uniqueName="FCR" name="FCR" queryTableFieldId="7" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{A989C65B-1D8C-4DDA-8A35-8407B8C61F02}" uniqueName="Origemdocontato" name="Área responsável pela resolução" queryTableFieldId="8" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{9109D8C9-D08F-479E-A4AA-406F68EE051B}" uniqueName="Origemdocontato0" name="Origem do contato" queryTableFieldId="9" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{42BC1E52-91C5-4DE6-A596-09645EB66464}" uniqueName="Tipodecontato" name="Tipo de contato" queryTableFieldId="14" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{EC24DC1E-73F4-40F8-B387-D1FC3472CEBB}" uniqueName="Data" name="Data Inicio" queryTableFieldId="2" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{DE3A518E-E067-4B2D-9AAE-7BA93D145EF3}" uniqueName="DataFim" name="Data Fim" queryTableFieldId="6" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{3763CCE3-D70A-487A-93F0-B319025D8A87}" uniqueName="GN" name="GN" queryTableFieldId="12" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{03193D88-2198-419F-B170-49F32A9C966A}" uniqueName="Solicitante" name="Solicitante" queryTableFieldId="13" dataDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{4A6FA5D3-CDA7-4C0F-AD8C-5FA14DE03A48}" uniqueName="Title" name="Título" queryTableFieldId="1" dataDxfId="4"/>
-    <tableColumn id="16" xr3:uid="{6B6067E8-A003-4A9B-B3A1-A20FC3FC33FB}" uniqueName="_x005f_x0024_Resources_x005f_x003a_core_x002" name="Status de liberação" queryTableFieldId="16" dataDxfId="3"/>
-    <tableColumn id="17" xr3:uid="{E0B164F9-97C4-4C7E-AD8F-AC606E1AC617}" uniqueName="_ApprovalStatus" name="Status de aprovação" queryTableFieldId="17"/>
-    <tableColumn id="18" xr3:uid="{B4423F21-1F4C-475F-9E05-A5A0AE74A553}" uniqueName="N_x005f_x00fa_merodoChamado" name="Número do Chamado Automação" queryTableFieldId="18" dataDxfId="2"/>
-    <tableColumn id="19" xr3:uid="{C71C4685-3978-45A4-B02D-B5283C738B9A}" uniqueName="FSObjType" name="Tipo de Item" queryTableFieldId="20" dataDxfId="1"/>
-    <tableColumn id="20" xr3:uid="{843E9D7C-78EA-4B7C-832D-052C839A1A3E}" uniqueName="FileDirRef" name="Caminho" queryTableFieldId="19" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{BE0513C0-6881-4E72-9356-6DA80BB64F72}" uniqueName="Analista" name="Analista" queryTableFieldId="10" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{DCFA500F-21BC-4189-90A8-68EC4612DBCC}" uniqueName="SubClassifica_x005f_x00e7__x005f_x00e3_o" name="Sub Classificação" queryTableFieldId="15" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{EE09D919-0F8B-4CCB-81CE-ECBC49212692}" uniqueName="Motivo" name="Motivo" queryTableFieldId="11" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{232CEA7E-C372-49AA-97C5-118955FBF7C4}" uniqueName="CNPJ" name="CNPJ" queryTableFieldId="3" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{8F267481-005E-4363-B478-9F628A245960}" uniqueName="Raz_x005f_x00e3_oSocial" name="Razão Social" queryTableFieldId="4" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{6F5FCFD3-B3A7-462E-B4DA-58D23B91FDF9}" uniqueName="Descri_x005f_x00e7__x005f_x00e3_o" name="Descrição" queryTableFieldId="5" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{48D2260F-B374-4884-A34E-8732CFD4B55C}" uniqueName="FCR" name="FCR" queryTableFieldId="7" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{8D93200D-22EC-46DF-8DE8-F0106C70920E}" uniqueName="Origemdocontato" name="Área responsável pela resolução" queryTableFieldId="8" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{0E1892B5-3040-4CC5-B600-4C50EE80DB55}" uniqueName="Origemdocontato0" name="Origem do contato" queryTableFieldId="9" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{C5AB3FD2-86A7-41AC-9A78-3AC80D259AF8}" uniqueName="Tipodecontato" name="Tipo de contato" queryTableFieldId="14" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{E5D102C3-E597-41B6-BCDD-B78A15A92339}" uniqueName="Data" name="Data Inicio" queryTableFieldId="2" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{A27DC97E-C484-41BF-82FF-2C164C6B75A1}" uniqueName="DataFim" name="Data Fim" queryTableFieldId="6" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{694BBF96-6717-412D-BDDA-147D52C80DFC}" uniqueName="GN" name="GN" queryTableFieldId="12" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{C90F506C-2F63-47EC-B4E7-114860E29500}" uniqueName="Solicitante" name="Solicitante" queryTableFieldId="13" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{267EBEE2-5692-4ADC-B6C0-D403D55CB1D9}" uniqueName="Title" name="Título" queryTableFieldId="1" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{72949CC2-2851-4179-B247-833DAA04AB7F}" uniqueName="_x005f_x0024_Resources_x005f_x003a_core_x002" name="Status de liberação" queryTableFieldId="16" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{CC644901-8981-40AE-8311-498B245FFD19}" uniqueName="_ApprovalStatus" name="Status de aprovação" queryTableFieldId="17"/>
+    <tableColumn id="18" xr3:uid="{E5D098EC-7694-4FF3-9F2C-67247B7C5B48}" uniqueName="N_x005f_x00fa_merodoChamado" name="Número do Chamado Automação" queryTableFieldId="18" dataDxfId="2"/>
+    <tableColumn id="19" xr3:uid="{78724065-7AD6-473F-8122-6AEE58EE4024}" uniqueName="FSObjType" name="Tipo de Item" queryTableFieldId="20" dataDxfId="1"/>
+    <tableColumn id="20" xr3:uid="{2889EA84-9393-400E-AC60-BA231997743A}" uniqueName="FileDirRef" name="Caminho" queryTableFieldId="19" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2310,11 +2346,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB6D7548-A3F5-4D0D-A8F9-FAE2F5FFC67C}">
-  <dimension ref="A1:T187"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{967BA30C-073F-45AD-B6B4-AAB3F156F488}">
+  <dimension ref="A1:T193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:T187"/>
+      <selection sqref="A1:T193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12757,6 +12793,342 @@
         <v>31</v>
       </c>
     </row>
+    <row r="188" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A188" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D188" s="2">
+        <v>5459853000100</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="F188" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H188" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I188" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J188" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K188" s="5">
+        <v>46010</v>
+      </c>
+      <c r="L188" s="5">
+        <v>46010</v>
+      </c>
+      <c r="M188" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="N188" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O188" s="3"/>
+      <c r="P188" s="3"/>
+      <c r="Q188">
+        <v>0</v>
+      </c>
+      <c r="R188" s="3"/>
+      <c r="S188" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T188" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="189" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A189" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D189" s="2">
+        <v>1332868000151</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="F189" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H189" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I189" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J189" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K189" s="5">
+        <v>46010</v>
+      </c>
+      <c r="L189" s="5">
+        <v>46010</v>
+      </c>
+      <c r="M189" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N189" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O189" s="3"/>
+      <c r="P189" s="3"/>
+      <c r="Q189">
+        <v>0</v>
+      </c>
+      <c r="R189" s="3"/>
+      <c r="S189" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T189" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="190" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A190" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D190" s="2">
+        <v>94094679000179</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="F190" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H190" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I190" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J190" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K190" s="5">
+        <v>46010</v>
+      </c>
+      <c r="L190" s="5">
+        <v>46010</v>
+      </c>
+      <c r="M190" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N190" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O190" s="3"/>
+      <c r="P190" s="3"/>
+      <c r="Q190">
+        <v>0</v>
+      </c>
+      <c r="R190" s="3"/>
+      <c r="S190" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T190" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="191" spans="1:20" ht="58" x14ac:dyDescent="0.35">
+      <c r="A191" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D191" s="2">
+        <v>12426856000102</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="F191" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H191" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="I191" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J191" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K191" s="5">
+        <v>46010</v>
+      </c>
+      <c r="L191" s="5">
+        <v>46010</v>
+      </c>
+      <c r="M191" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N191" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O191" s="3"/>
+      <c r="P191" s="3"/>
+      <c r="Q191">
+        <v>0</v>
+      </c>
+      <c r="R191" s="3"/>
+      <c r="S191" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T191" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="192" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A192" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D192" s="2">
+        <v>50230537000116</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="F192" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H192" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I192" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J192" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K192" s="5">
+        <v>46010</v>
+      </c>
+      <c r="L192" s="5">
+        <v>46010</v>
+      </c>
+      <c r="M192" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="N192" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O192" s="3"/>
+      <c r="P192" s="3"/>
+      <c r="Q192">
+        <v>0</v>
+      </c>
+      <c r="R192" s="3"/>
+      <c r="S192" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T192" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="193" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A193" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D193" s="2">
+        <v>60289999000162</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="F193" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H193" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I193" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J193" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K193" s="5">
+        <v>46010</v>
+      </c>
+      <c r="L193" s="5">
+        <v>46010</v>
+      </c>
+      <c r="M193" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="N193" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O193" s="3"/>
+      <c r="P193" s="3"/>
+      <c r="Q193">
+        <v>0</v>
+      </c>
+      <c r="R193" s="3"/>
+      <c r="S193" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T193" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">
